--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -114,39 +114,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -157,13 +160,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -172,7 +175,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7569,7 +7575,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>互联网</t>
+          <t>业绩增长</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -7641,574 +7647,574 @@
     <row r="3">
       <c r="A3" s="10" t="inlineStr">
         <is>
+          <t>国企改革</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>中旗新材4</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>泰慕士4</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>连云港3</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>泰慕士4</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>国光连锁6</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>中旗新材4</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>中旗新材4</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>天元股份6</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>安记食品7</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>步步高6</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>东贝集团4</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>永安药业5</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>渝三峡A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>中源家居</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>新金路5</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>曙光股份3</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>双成药业5</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>立方制药5</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>国光连锁6</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>连云港3</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>步步高6</t>
+        </is>
+      </c>
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>乐山电力7</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>东贝集团4</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>永安药业5</t>
+        </is>
+      </c>
+      <c r="M4" s="13" t="inlineStr">
+        <is>
+          <t>先达股份5</t>
+        </is>
+      </c>
+      <c r="N4" s="14" t="inlineStr">
+        <is>
+          <t>东珠生态6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
           <t>大消费</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>中旗新材4</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>曙光股份3</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>锦江航运</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>泰慕士4</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>连云港3</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>国光连锁6</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>安记食品7</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>新金路5</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>乐山电力7</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>尤夫股份5</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>新金路5</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>生意宝4</t>
+        </is>
+      </c>
+      <c r="L5" s="13" t="inlineStr">
+        <is>
+          <t>威尔药业4</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>中欣氟材5</t>
+        </is>
+      </c>
+      <c r="N5" s="14" t="inlineStr">
+        <is>
+          <t>鸿博股份4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>互联网</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>泰慕士4</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>两面针3</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>贝因美</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>乐山电力7</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
+        <is>
+          <t>亚联机械5</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>乐山电力7</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>安记食品7</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>海联金汇4</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>天保基建6</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>茂业商业5</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>茂业商业5</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>茂业商业5</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>汉商集团2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>远大控股2</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>双成药业5</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>双成药业5</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>新金路5</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>天沃科技6</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>立方制药5</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>天保基建6</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>青岛金王3</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>天沃科技6</t>
+        </is>
+      </c>
+      <c r="K7" s="12" t="inlineStr">
+        <is>
+          <t>宁波联合2</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>华银电力3</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="inlineStr">
+        <is>
+          <t>渝三峡A4</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>瀛通通讯3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>跨境通3</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>中毅达3</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>欧亚集团</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>浔兴股份5</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>红宝丽5</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>安记食品7</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>亚联机械5</t>
+        </is>
+      </c>
+      <c r="I8" s="13" t="inlineStr">
+        <is>
+          <t>先达股份5</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>双成药业5</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>华银电力3</t>
+        </is>
+      </c>
+      <c r="L8" s="14" t="inlineStr">
+        <is>
+          <t>鸿博股份4</t>
+        </is>
+      </c>
+      <c r="M8" s="14" t="inlineStr">
+        <is>
+          <t>鸿博股份4</t>
+        </is>
+      </c>
+      <c r="N8" s="9" t="inlineStr">
+        <is>
+          <t>全筑股份2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="inlineStr">
+        <is>
+          <t>化工</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>建艺集团</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>国光连锁6</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>中旗新材4</t>
-        </is>
-      </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>中旗新材4</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>两面针3</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>立方制药5</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>特力A3</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>天保基建6</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>天沃科技6</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>新晨科技2</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
         <is>
           <t>天元股份6</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K9" s="14" t="inlineStr">
+        <is>
+          <t>东珠生态6</t>
+        </is>
+      </c>
+      <c r="L9" s="12" t="inlineStr">
+        <is>
+          <t>华电辽能2</t>
+        </is>
+      </c>
+      <c r="M9" s="14" t="inlineStr">
+        <is>
+          <t>东珠生态6</t>
+        </is>
+      </c>
+      <c r="N9" s="12" t="inlineStr">
+        <is>
+          <t>金鸿顺2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="inlineStr">
+        <is>
+          <t>多次上榜</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>南宁百货</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>天沃科技6</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>天沃科技6</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>安记食品7</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>步步高6</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>东贝集团4</t>
-        </is>
-      </c>
-      <c r="M3" s="12" t="inlineStr">
-        <is>
-          <t>永安药业5</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>渝三峡A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>国企改革</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>中源家居</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>新金路5</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>曙光股份3</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>双成药业5</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>立方制药5</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>国光连锁6</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>连云港3</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>步步高6</t>
-        </is>
-      </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>乐山电力7</t>
-        </is>
-      </c>
-      <c r="K4" s="7" t="inlineStr">
-        <is>
-          <t>东贝集团4</t>
-        </is>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
-        <is>
-          <t>永安药业5</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>先达股份5</t>
-        </is>
-      </c>
-      <c r="N4" s="12" t="inlineStr">
-        <is>
-          <t>东珠生态6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>军工</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>曙光股份3</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>锦江航运</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>泰慕士4</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>国光连锁6</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>安记食品7</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>新金路5</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
-        <is>
-          <t>乐山电力7</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>天保基建6</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>保税科技4</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>红宝丽5</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>三木集团3</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>尤夫股份5</t>
         </is>
       </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>新金路5</t>
-        </is>
-      </c>
-      <c r="K5" s="7" t="inlineStr">
-        <is>
-          <t>生意宝4</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>威尔药业4</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>中欣氟材5</t>
-        </is>
-      </c>
-      <c r="N5" s="12" t="inlineStr">
-        <is>
-          <t>鸿博股份4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>半导体</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>泰慕士4</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>两面针3</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>贝因美</t>
-        </is>
-      </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>乐山电力7</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>亚联机械5</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="inlineStr">
-        <is>
-          <t>乐山电力7</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>安记食品7</t>
-        </is>
-      </c>
-      <c r="I6" s="12" t="inlineStr">
-        <is>
-          <t>海联金汇4</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>天保基建6</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>茂业商业5</t>
-        </is>
-      </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>茂业商业5</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>茂业商业5</t>
-        </is>
-      </c>
-      <c r="N6" s="12" t="inlineStr">
-        <is>
-          <t>汉商集团2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>业绩增长</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>远大控股2</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>双成药业5</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>双成药业5</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>新金路5</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>天沃科技6</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>立方制药5</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>天保基建6</t>
-        </is>
-      </c>
-      <c r="I7" s="12" t="inlineStr">
-        <is>
-          <t>青岛金王3</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>天沃科技6</t>
-        </is>
-      </c>
-      <c r="K7" s="12" t="inlineStr">
-        <is>
-          <t>宁波联合2</t>
-        </is>
-      </c>
-      <c r="L7" s="6" t="inlineStr">
-        <is>
-          <t>华银电力3</t>
-        </is>
-      </c>
-      <c r="M7" s="6" t="inlineStr">
-        <is>
-          <t>渝三峡A4</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>瀛通通讯3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>券商</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>跨境通3</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>中毅达3</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>欧亚集团</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>浔兴股份5</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>红宝丽5</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>安记食品7</t>
-        </is>
-      </c>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>亚联机械5</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>先达股份5</t>
-        </is>
-      </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>双成药业5</t>
-        </is>
-      </c>
-      <c r="K8" s="6" t="inlineStr">
-        <is>
-          <t>华银电力3</t>
-        </is>
-      </c>
-      <c r="L8" s="12" t="inlineStr">
-        <is>
-          <t>鸿博股份4</t>
-        </is>
-      </c>
-      <c r="M8" s="12" t="inlineStr">
-        <is>
-          <t>鸿博股份4</t>
-        </is>
-      </c>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <t>全筑股份2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>化工</t>
-        </is>
-      </c>
-      <c r="B9" s="19" t="inlineStr">
-        <is>
-          <t>建艺集团</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>国光连锁6</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>两面针3</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>立方制药5</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>特力A3</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>天保基建6</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>天沃科技6</t>
-        </is>
-      </c>
-      <c r="I9" s="12" t="inlineStr">
-        <is>
-          <t>新晨科技2</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t>天元股份6</t>
-        </is>
-      </c>
-      <c r="K9" s="12" t="inlineStr">
-        <is>
-          <t>东珠生态6</t>
-        </is>
-      </c>
-      <c r="L9" s="9" t="inlineStr">
-        <is>
-          <t>华电辽能2</t>
-        </is>
-      </c>
-      <c r="M9" s="12" t="inlineStr">
-        <is>
-          <t>东珠生态6</t>
-        </is>
-      </c>
-      <c r="N9" s="12" t="inlineStr">
-        <is>
-          <t>金鸿顺2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>多次上榜</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>南宁百货</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>天沃科技6</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>天沃科技6</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>安记食品7</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>天保基建6</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>保税科技4</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>红宝丽5</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>三木集团3</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="inlineStr">
-        <is>
-          <t>尤夫股份5</t>
-        </is>
-      </c>
-      <c r="K10" s="9" t="inlineStr">
+      <c r="K10" s="13" t="inlineStr">
         <is>
           <t>金富科技2</t>
         </is>
       </c>
-      <c r="L10" s="9" t="inlineStr">
+      <c r="L10" s="14" t="inlineStr">
         <is>
           <t>中电鑫龙2</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="9" t="inlineStr">
         <is>
           <t>方正电机3</t>
         </is>
       </c>
-      <c r="N10" s="9" t="inlineStr">
+      <c r="N10" s="13" t="inlineStr">
         <is>
           <t>新坐标2</t>
         </is>
@@ -8255,7 +8261,7 @@
           <t>保税科技4</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>轻纺城2</t>
         </is>
@@ -8270,25 +8276,25 @@
           <t>西昌电力4</t>
         </is>
       </c>
-      <c r="L11" s="9" t="inlineStr">
+      <c r="L11" s="12" t="inlineStr">
         <is>
           <t>华电能源2</t>
         </is>
       </c>
-      <c r="M11" s="12" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>宿迁联盛2</t>
         </is>
       </c>
-      <c r="N11" s="12" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>大千生态5</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="A12" s="22" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>盈方微2</t>
         </is>
@@ -8303,12 +8309,12 @@
           <t>国光连锁6</t>
         </is>
       </c>
-      <c r="E12" s="12" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>亚邦股份2</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>新宏泽2</t>
         </is>
@@ -8318,12 +8324,12 @@
           <t>尤夫股份5</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>华贸物流4</t>
         </is>
       </c>
-      <c r="I12" s="12" t="inlineStr">
+      <c r="I12" s="5" t="inlineStr">
         <is>
           <t>永安药业5</t>
         </is>
@@ -8348,19 +8354,19 @@
           <t>华阳新材2</t>
         </is>
       </c>
-      <c r="N12" s="9" t="inlineStr">
+      <c r="N12" s="13" t="inlineStr">
         <is>
           <t>金麒麟2</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>通达创智2</t>
         </is>
       </c>
-      <c r="C13" s="22" t="inlineStr">
+      <c r="C13" s="23" t="inlineStr">
         <is>
           <t>韶能股份4</t>
         </is>
@@ -8370,7 +8376,7 @@
           <t>立方制药5</t>
         </is>
       </c>
-      <c r="E13" s="12" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>荣丰控股3</t>
         </is>
@@ -8380,7 +8386,7 @@
           <t>保税科技4</t>
         </is>
       </c>
-      <c r="G13" s="12" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>东方材料3</t>
         </is>
@@ -8390,32 +8396,32 @@
           <t>红墙股份6</t>
         </is>
       </c>
-      <c r="I13" s="12" t="inlineStr">
+      <c r="I13" s="9" t="inlineStr">
         <is>
           <t>京城股份2</t>
         </is>
       </c>
-      <c r="J13" s="12" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>海联金汇4</t>
         </is>
       </c>
-      <c r="K13" s="9" t="inlineStr">
+      <c r="K13" s="8" t="inlineStr">
         <is>
           <t>海森药业2</t>
         </is>
       </c>
-      <c r="L13" s="12" t="inlineStr">
+      <c r="L13" s="9" t="inlineStr">
         <is>
           <t>天娱数科2</t>
         </is>
       </c>
-      <c r="M13" s="12" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>塞力医疗2</t>
         </is>
       </c>
-      <c r="N13" s="23" t="inlineStr">
+      <c r="N13" s="24" t="inlineStr">
         <is>
           <t>宁波东力3</t>
         </is>
@@ -8432,12 +8438,12 @@
           <t>迪生力3</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>华贸物流4</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
         <is>
           <t>亚联机械5</t>
         </is>
@@ -8447,7 +8453,7 @@
           <t>红墙股份6</t>
         </is>
       </c>
-      <c r="G14" s="12" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>武汉凡谷2</t>
         </is>
@@ -8457,39 +8463,39 @@
           <t>步步高6</t>
         </is>
       </c>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>圣龙股份2</t>
         </is>
       </c>
-      <c r="J14" s="9" t="inlineStr">
+      <c r="J14" s="13" t="inlineStr">
         <is>
           <t>先达股份5</t>
         </is>
       </c>
-      <c r="K14" s="23" t="inlineStr">
+      <c r="K14" s="25" t="inlineStr">
         <is>
           <t>卫星化学2</t>
         </is>
       </c>
-      <c r="L14" s="12" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>上海物贸2</t>
         </is>
       </c>
-      <c r="M14" s="23" t="inlineStr">
+      <c r="M14" s="26" t="inlineStr">
         <is>
           <t>会稽山2</t>
         </is>
       </c>
-      <c r="N14" s="9" t="inlineStr">
+      <c r="N14" s="14" t="inlineStr">
         <is>
           <t>兴民智通</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>亚邦股份2</t>
         </is>
@@ -8504,12 +8510,12 @@
           <t>浔兴股份5</t>
         </is>
       </c>
-      <c r="E15" s="12" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>通达创智2</t>
         </is>
       </c>
-      <c r="F15" s="12" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>中铝国际2</t>
         </is>
@@ -8524,22 +8530,22 @@
           <t>天元股份6</t>
         </is>
       </c>
-      <c r="I15" s="12" t="inlineStr">
+      <c r="I15" s="9" t="inlineStr">
         <is>
           <t>浙江荣泰3</t>
         </is>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="J15" s="14" t="inlineStr">
         <is>
           <t>润贝航科5</t>
         </is>
       </c>
-      <c r="K15" s="19" t="inlineStr">
+      <c r="K15" s="20" t="inlineStr">
         <is>
           <t>南国置业</t>
         </is>
       </c>
-      <c r="L15" s="9" t="inlineStr">
+      <c r="L15" s="13" t="inlineStr">
         <is>
           <t>珀莱雅2</t>
         </is>
@@ -8549,19 +8555,19 @@
           <t>柳钢股份</t>
         </is>
       </c>
-      <c r="N15" s="19" t="inlineStr">
+      <c r="N15" s="9" t="inlineStr">
         <is>
           <t>电光科技</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>中毅达3</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>有研新材</t>
         </is>
@@ -8576,7 +8582,7 @@
           <t>麦趣尔3</t>
         </is>
       </c>
-      <c r="F16" s="12" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>渝开发3</t>
         </is>
@@ -8591,17 +8597,17 @@
           <t>百大集团3</t>
         </is>
       </c>
-      <c r="I16" s="23" t="inlineStr">
+      <c r="I16" s="24" t="inlineStr">
         <is>
           <t>中欣氟材5</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr">
+      <c r="J16" s="6" t="inlineStr">
         <is>
           <t>三木集团3</t>
         </is>
       </c>
-      <c r="K16" s="9" t="inlineStr">
+      <c r="K16" s="13" t="inlineStr">
         <is>
           <t>惠而浦</t>
         </is>
@@ -8611,34 +8617,34 @@
           <t>亚太实业3</t>
         </is>
       </c>
-      <c r="M16" s="9" t="inlineStr">
+      <c r="M16" s="13" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="N16" s="14" t="inlineStr">
         <is>
           <t>美克家居</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="19" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>英派斯</t>
         </is>
       </c>
-      <c r="C17" s="19" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>北自科技</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>东方材料3</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>华贸物流4</t>
         </is>
@@ -8653,12 +8659,12 @@
           <t>百大集团3</t>
         </is>
       </c>
-      <c r="H17" s="5" t="inlineStr">
+      <c r="H17" s="14" t="inlineStr">
         <is>
           <t>润贝航科5</t>
         </is>
       </c>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="I17" s="13" t="inlineStr">
         <is>
           <t>浙江世宝</t>
         </is>
@@ -8668,29 +8674,29 @@
           <t>中欣氟材5</t>
         </is>
       </c>
-      <c r="K17" s="9" t="inlineStr">
+      <c r="K17" s="14" t="inlineStr">
         <is>
           <t>中电鑫龙2</t>
         </is>
       </c>
-      <c r="L17" s="24" t="inlineStr">
+      <c r="L17" s="27" t="inlineStr">
         <is>
           <t>渝三峡A4</t>
         </is>
       </c>
-      <c r="M17" s="9" t="inlineStr">
+      <c r="M17" s="13" t="inlineStr">
         <is>
           <t>今创集团</t>
         </is>
       </c>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="N17" s="9" t="inlineStr">
         <is>
           <t>中超控股2</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>双成药业5</t>
         </is>
@@ -8705,42 +8711,42 @@
           <t>麦趣尔3</t>
         </is>
       </c>
-      <c r="E18" s="12" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>盛泰集团2</t>
         </is>
       </c>
-      <c r="F18" s="12" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>宏昌电子2</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="G18" s="14" t="inlineStr">
         <is>
           <t>润贝航科5</t>
         </is>
       </c>
-      <c r="H18" s="9" t="inlineStr">
+      <c r="H18" s="13" t="inlineStr">
         <is>
           <t>威尔药业4</t>
         </is>
       </c>
-      <c r="I18" s="9" t="inlineStr">
+      <c r="I18" s="8" t="inlineStr">
         <is>
           <t>海森药业2</t>
         </is>
       </c>
-      <c r="J18" s="12" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>永安药业5</t>
         </is>
       </c>
-      <c r="K18" s="12" t="inlineStr">
+      <c r="K18" s="14" t="inlineStr">
         <is>
           <t>鸿博股份4</t>
         </is>
       </c>
-      <c r="L18" s="12" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>绿康生化2</t>
         </is>
@@ -8750,7 +8756,7 @@
           <t>天奇股份</t>
         </is>
       </c>
-      <c r="N18" s="9" t="inlineStr">
+      <c r="N18" s="13" t="inlineStr">
         <is>
           <t>通鼎互联</t>
         </is>
@@ -8762,12 +8768,12 @@
           <t>燕塘乳业</t>
         </is>
       </c>
-      <c r="C19" s="19" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>京华激光</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>荣丰控股3</t>
         </is>
@@ -8777,7 +8783,7 @@
           <t>南京港2</t>
         </is>
       </c>
-      <c r="F19" s="25" t="inlineStr">
+      <c r="F19" s="28" t="inlineStr">
         <is>
           <t>红蜻蜓2</t>
         </is>
@@ -8787,59 +8793,59 @@
           <t>航发科技2</t>
         </is>
       </c>
-      <c r="H19" s="12" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>海联金汇4</t>
         </is>
       </c>
-      <c r="I19" s="12" t="inlineStr">
+      <c r="I19" s="14" t="inlineStr">
         <is>
           <t>朝阳科技2</t>
         </is>
       </c>
-      <c r="J19" s="12" t="inlineStr">
+      <c r="J19" s="9" t="inlineStr">
         <is>
           <t>浙江荣泰3</t>
         </is>
       </c>
-      <c r="K19" s="9" t="inlineStr">
+      <c r="K19" s="13" t="inlineStr">
         <is>
           <t>康盛股份</t>
         </is>
       </c>
-      <c r="L19" s="9" t="inlineStr">
+      <c r="L19" s="13" t="inlineStr">
         <is>
           <t>金麒麟2</t>
         </is>
       </c>
-      <c r="M19" s="19" t="inlineStr">
+      <c r="M19" s="20" t="inlineStr">
         <is>
           <t>菜百股份</t>
         </is>
       </c>
-      <c r="N19" s="9" t="inlineStr">
+      <c r="N19" s="12" t="inlineStr">
         <is>
           <t>九鼎新材2</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="19" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>华达新材</t>
         </is>
       </c>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>大胜达</t>
         </is>
       </c>
-      <c r="D20" s="9" t="inlineStr">
+      <c r="D20" s="13" t="inlineStr">
         <is>
           <t>亚联机械5</t>
         </is>
       </c>
-      <c r="E20" s="9" t="inlineStr">
+      <c r="E20" s="13" t="inlineStr">
         <is>
           <t>特力A3</t>
         </is>
@@ -8849,7 +8855,7 @@
           <t>山东华鹏</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
+      <c r="G20" s="13" t="inlineStr">
         <is>
           <t>威尔药业4</t>
         </is>
@@ -8864,22 +8870,22 @@
           <t>春秋电子</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J20" s="9" t="inlineStr">
         <is>
           <t>方正电机3</t>
         </is>
       </c>
-      <c r="K20" s="9" t="inlineStr">
+      <c r="K20" s="13" t="inlineStr">
         <is>
           <t>珀莱雅2</t>
         </is>
       </c>
-      <c r="L20" s="19" t="inlineStr">
+      <c r="L20" s="20" t="inlineStr">
         <is>
           <t>普路通</t>
         </is>
       </c>
-      <c r="M20" s="9" t="inlineStr">
+      <c r="M20" s="13" t="inlineStr">
         <is>
           <t>三和管桩</t>
         </is>
@@ -8906,7 +8912,7 @@
           <t>安记食品7</t>
         </is>
       </c>
-      <c r="E21" s="11" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t>渤海化学3</t>
         </is>
@@ -8916,7 +8922,7 @@
           <t>三夫户外2</t>
         </is>
       </c>
-      <c r="G21" s="12" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>华脉科技2</t>
         </is>
@@ -8926,17 +8932,17 @@
           <t>安正时尚3</t>
         </is>
       </c>
-      <c r="I21" s="9" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>卫星化学2</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="9" t="inlineStr">
         <is>
           <t>东贝集团4</t>
         </is>
       </c>
-      <c r="K21" s="12" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>塞力医疗2</t>
         </is>
@@ -8951,19 +8957,19 @@
           <t>迪生力3</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="N21" s="6" t="inlineStr">
         <is>
           <t>深康佳A</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="23" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
         <is>
           <t>和科达2</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C22" s="13" t="inlineStr">
         <is>
           <t>九洲药业</t>
         </is>
@@ -8978,12 +8984,12 @@
           <t>天保基建6</t>
         </is>
       </c>
-      <c r="F22" s="19" t="inlineStr">
+      <c r="F22" s="20" t="inlineStr">
         <is>
           <t>三湘印象</t>
         </is>
       </c>
-      <c r="G22" s="7" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>五芳斋2</t>
         </is>
@@ -8993,17 +8999,17 @@
           <t>华泰股份2</t>
         </is>
       </c>
-      <c r="I22" s="19" t="inlineStr">
+      <c r="I22" s="20" t="inlineStr">
         <is>
           <t>浙江自然</t>
         </is>
       </c>
-      <c r="J22" s="12" t="inlineStr">
+      <c r="J22" s="9" t="inlineStr">
         <is>
           <t>丰华股份2</t>
         </is>
       </c>
-      <c r="K22" s="9" t="inlineStr">
+      <c r="K22" s="13" t="inlineStr">
         <is>
           <t>九牧王</t>
         </is>
@@ -9013,7 +9019,7 @@
           <t>三夫户外2</t>
         </is>
       </c>
-      <c r="M22" s="11" t="inlineStr">
+      <c r="M22" s="8" t="inlineStr">
         <is>
           <t>三孚股份2</t>
         </is>
@@ -9025,27 +9031,27 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="20" t="inlineStr">
         <is>
           <t>宁水集团</t>
         </is>
       </c>
-      <c r="C23" s="19" t="inlineStr">
+      <c r="C23" s="12" t="inlineStr">
         <is>
           <t>华嵘控股</t>
         </is>
       </c>
-      <c r="D23" s="25" t="inlineStr">
+      <c r="D23" s="28" t="inlineStr">
         <is>
           <t>利仁科技2</t>
         </is>
       </c>
-      <c r="E23" s="12" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>金陵饭店2</t>
         </is>
       </c>
-      <c r="F23" s="12" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>海能达2</t>
         </is>
@@ -9055,104 +9061,104 @@
           <t>石基信息2</t>
         </is>
       </c>
-      <c r="H23" s="9" t="inlineStr">
+      <c r="H23" s="13" t="inlineStr">
         <is>
           <t>先达股份5</t>
         </is>
       </c>
-      <c r="I23" s="9" t="inlineStr">
+      <c r="I23" s="13" t="inlineStr">
         <is>
           <t>永茂泰</t>
         </is>
       </c>
-      <c r="J23" s="12" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>棒杰股份2</t>
         </is>
       </c>
-      <c r="K23" s="9" t="inlineStr">
+      <c r="K23" s="13" t="inlineStr">
         <is>
           <t>顺博合金</t>
         </is>
       </c>
-      <c r="L23" s="9" t="inlineStr">
+      <c r="L23" s="8" t="inlineStr">
         <is>
           <t>金能科技</t>
         </is>
       </c>
-      <c r="M23" s="9" t="inlineStr">
+      <c r="M23" s="13" t="inlineStr">
         <is>
           <t>道道全</t>
         </is>
       </c>
-      <c r="N23" s="12" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>莱绅通灵3</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="19" t="inlineStr">
+      <c r="B24" s="20" t="inlineStr">
         <is>
           <t>实益达</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>罗欣药业2</t>
         </is>
       </c>
-      <c r="D24" s="19" t="inlineStr">
+      <c r="D24" s="20" t="inlineStr">
         <is>
           <t>华资实业</t>
         </is>
       </c>
-      <c r="E24" s="12" t="inlineStr">
+      <c r="E24" s="14" t="inlineStr">
         <is>
           <t>东珠生态6</t>
         </is>
       </c>
-      <c r="F24" s="19" t="inlineStr">
+      <c r="F24" s="20" t="inlineStr">
         <is>
           <t>御银股份</t>
         </is>
       </c>
-      <c r="G24" s="12" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>海能达2</t>
         </is>
       </c>
-      <c r="H24" s="12" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>青岛金王3</t>
         </is>
       </c>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="I24" s="20" t="inlineStr">
         <is>
           <t>襄阳轴承</t>
         </is>
       </c>
-      <c r="J24" s="12" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>西陇科学3</t>
         </is>
       </c>
-      <c r="K24" s="19" t="inlineStr">
+      <c r="K24" s="20" t="inlineStr">
         <is>
           <t>恒宝股份</t>
         </is>
       </c>
-      <c r="L24" s="7" t="inlineStr">
+      <c r="L24" s="14" t="inlineStr">
         <is>
           <t>金财互联</t>
         </is>
       </c>
-      <c r="M24" s="19" t="inlineStr">
+      <c r="M24" s="12" t="inlineStr">
         <is>
           <t>申科股份</t>
         </is>
       </c>
-      <c r="N24" s="12" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>翠微股份3</t>
         </is>
@@ -9164,7 +9170,7 @@
           <t>超声电子</t>
         </is>
       </c>
-      <c r="C25" s="19" t="inlineStr">
+      <c r="C25" s="20" t="inlineStr">
         <is>
           <t>思美传媒</t>
         </is>
@@ -9174,32 +9180,32 @@
           <t>集泰股份</t>
         </is>
       </c>
-      <c r="E25" s="12" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>兄弟科技2</t>
         </is>
       </c>
-      <c r="F25" s="12" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>九鼎投资2</t>
         </is>
       </c>
-      <c r="G25" s="12" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>大千生态5</t>
         </is>
       </c>
-      <c r="H25" s="12" t="inlineStr">
+      <c r="H25" s="14" t="inlineStr">
         <is>
           <t>信雅达2</t>
         </is>
       </c>
-      <c r="I25" s="12" t="inlineStr">
+      <c r="I25" s="9" t="inlineStr">
         <is>
           <t>丰华股份2</t>
         </is>
       </c>
-      <c r="J25" s="12" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>三维化学2</t>
         </is>
@@ -9209,29 +9215,29 @@
           <t>广誉远</t>
         </is>
       </c>
-      <c r="L25" s="9" t="inlineStr">
+      <c r="L25" s="14" t="inlineStr">
         <is>
           <t>大位科技2</t>
         </is>
       </c>
-      <c r="M25" s="19" t="inlineStr">
+      <c r="M25" s="20" t="inlineStr">
         <is>
           <t>蓝帆医疗</t>
         </is>
       </c>
-      <c r="N25" s="11" t="inlineStr">
+      <c r="N25" s="9" t="inlineStr">
         <is>
           <t>探路者</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" s="14" t="inlineStr">
         <is>
           <t>美格智能</t>
         </is>
       </c>
-      <c r="C26" s="19" t="inlineStr">
+      <c r="C26" s="20" t="inlineStr">
         <is>
           <t>英利汽车</t>
         </is>
@@ -9241,22 +9247,22 @@
           <t>上海雅仕</t>
         </is>
       </c>
-      <c r="E26" s="26" t="inlineStr">
+      <c r="E26" s="27" t="inlineStr">
         <is>
           <t>桂发祥2</t>
         </is>
       </c>
-      <c r="F26" s="12" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>新能泰山2</t>
         </is>
       </c>
-      <c r="G26" s="12" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>莱绅通灵3</t>
         </is>
       </c>
-      <c r="H26" s="12" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>顺灏股份2</t>
         </is>
@@ -9266,7 +9272,7 @@
           <t>卓翼科技</t>
         </is>
       </c>
-      <c r="J26" s="23" t="inlineStr">
+      <c r="J26" s="26" t="inlineStr">
         <is>
           <t>健尔康3</t>
         </is>
@@ -9276,49 +9282,49 @@
           <t>亚太实业3</t>
         </is>
       </c>
-      <c r="L26" s="19" t="inlineStr">
+      <c r="L26" s="20" t="inlineStr">
         <is>
           <t>新锦动力</t>
         </is>
       </c>
-      <c r="M26" s="9" t="inlineStr">
+      <c r="M26" s="13" t="inlineStr">
         <is>
           <t>博创科技</t>
         </is>
       </c>
-      <c r="N26" s="19" t="inlineStr">
+      <c r="N26" s="9" t="inlineStr">
         <is>
           <t>振江股份</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>南极电商2</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr">
+      <c r="C27" s="13" t="inlineStr">
         <is>
           <t>亚联机械5</t>
         </is>
       </c>
-      <c r="D27" s="19" t="inlineStr">
+      <c r="D27" s="20" t="inlineStr">
         <is>
           <t>中创物流</t>
         </is>
       </c>
-      <c r="E27" s="9" t="inlineStr">
+      <c r="E27" s="13" t="inlineStr">
         <is>
           <t>新宏泽2</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>达利凯普</t>
         </is>
       </c>
-      <c r="G27" s="12" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>仁智股份2</t>
         </is>
@@ -9328,7 +9334,7 @@
           <t>生意宝4</t>
         </is>
       </c>
-      <c r="I27" s="9" t="inlineStr">
+      <c r="I27" s="13" t="inlineStr">
         <is>
           <t>健尔康3</t>
         </is>
@@ -9338,29 +9344,29 @@
           <t>迪生力3</t>
         </is>
       </c>
-      <c r="K27" s="12" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>天娱数科2</t>
         </is>
       </c>
-      <c r="L27" s="19" t="inlineStr">
+      <c r="L27" s="20" t="inlineStr">
         <is>
           <t>狮头股份</t>
         </is>
       </c>
-      <c r="M27" s="9" t="inlineStr">
+      <c r="M27" s="14" t="inlineStr">
         <is>
           <t>奥拓电子</t>
         </is>
       </c>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="N27" s="14" t="inlineStr">
         <is>
           <t>润贝航科5</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="19" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>大金重工</t>
         </is>
@@ -9370,7 +9376,7 @@
           <t>创源股份</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>飞沃科技</t>
         </is>
@@ -9380,17 +9386,17 @@
           <t>蓝科高新2</t>
         </is>
       </c>
-      <c r="F28" s="19" t="inlineStr">
+      <c r="F28" s="20" t="inlineStr">
         <is>
           <t>巨力索具</t>
         </is>
       </c>
-      <c r="G28" s="12" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>新华联2</t>
         </is>
       </c>
-      <c r="H28" s="12" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>三房巷2</t>
         </is>
@@ -9400,17 +9406,17 @@
           <t>华纬科技</t>
         </is>
       </c>
-      <c r="J28" s="12" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>好想你2</t>
         </is>
       </c>
-      <c r="K28" s="19" t="inlineStr">
+      <c r="K28" s="20" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="L28" s="19" t="inlineStr">
+      <c r="L28" s="14" t="inlineStr">
         <is>
           <t>德生科技</t>
         </is>
@@ -9420,7 +9426,7 @@
           <t>聚赛龙</t>
         </is>
       </c>
-      <c r="N28" s="9" t="inlineStr">
+      <c r="N28" s="14" t="inlineStr">
         <is>
           <t>正和生态2</t>
         </is>
@@ -9432,7 +9438,7 @@
           <t>瀛通通讯3</t>
         </is>
       </c>
-      <c r="C29" s="19" t="inlineStr">
+      <c r="C29" s="20" t="inlineStr">
         <is>
           <t>国华网安</t>
         </is>
@@ -9442,7 +9448,7 @@
           <t>天保基建6</t>
         </is>
       </c>
-      <c r="E29" s="19" t="inlineStr">
+      <c r="E29" s="20" t="inlineStr">
         <is>
           <t>德尔未来</t>
         </is>
@@ -9452,17 +9458,17 @@
           <t>百大集团3</t>
         </is>
       </c>
-      <c r="G29" s="24" t="inlineStr">
+      <c r="G29" s="27" t="inlineStr">
         <is>
           <t>国风新材2</t>
         </is>
       </c>
-      <c r="H29" s="26" t="inlineStr">
+      <c r="H29" s="29" t="inlineStr">
         <is>
           <t>有友食品2</t>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
+      <c r="I29" s="9" t="inlineStr">
         <is>
           <t>方正电机3</t>
         </is>
@@ -9472,17 +9478,17 @@
           <t>茂业商业5</t>
         </is>
       </c>
-      <c r="K29" s="9" t="inlineStr">
+      <c r="K29" s="12" t="inlineStr">
         <is>
           <t>华电辽能2</t>
         </is>
       </c>
-      <c r="L29" s="19" t="inlineStr">
+      <c r="L29" s="9" t="inlineStr">
         <is>
           <t>四川金顶</t>
         </is>
       </c>
-      <c r="M29" s="19" t="inlineStr">
+      <c r="M29" s="14" t="inlineStr">
         <is>
           <t>利通电子</t>
         </is>
@@ -9519,7 +9525,7 @@
           <t>神马股份</t>
         </is>
       </c>
-      <c r="G30" s="12" t="inlineStr">
+      <c r="G30" s="9" t="inlineStr">
         <is>
           <t>京城股份2</t>
         </is>
@@ -9529,17 +9535,17 @@
           <t>致尚科技2</t>
         </is>
       </c>
-      <c r="I30" s="9" t="inlineStr">
+      <c r="I30" s="13" t="inlineStr">
         <is>
           <t>金富科技2</t>
         </is>
       </c>
-      <c r="J30" s="9" t="inlineStr">
+      <c r="J30" s="13" t="inlineStr">
         <is>
           <t>金凯生科</t>
         </is>
       </c>
-      <c r="K30" s="19" t="inlineStr">
+      <c r="K30" s="12" t="inlineStr">
         <is>
           <t>吉鑫科技</t>
         </is>
@@ -9549,19 +9555,19 @@
           <t>京能电力</t>
         </is>
       </c>
-      <c r="M30" s="19" t="inlineStr">
+      <c r="M30" s="9" t="inlineStr">
         <is>
           <t>银宝山新</t>
         </is>
       </c>
-      <c r="N30" s="9" t="inlineStr">
+      <c r="N30" s="14" t="inlineStr">
         <is>
           <t>超讯通信</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="19" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>合锻智能</t>
         </is>
@@ -9571,32 +9577,32 @@
           <t>岭南股份</t>
         </is>
       </c>
-      <c r="D31" s="19" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>重庆港</t>
         </is>
       </c>
-      <c r="E31" s="12" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>渝开发3</t>
         </is>
       </c>
-      <c r="F31" s="12" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>武汉凡谷2</t>
         </is>
       </c>
-      <c r="G31" s="19" t="inlineStr">
+      <c r="G31" s="20" t="inlineStr">
         <is>
           <t>琏升科技</t>
         </is>
       </c>
-      <c r="H31" s="12" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>新晨科技2</t>
         </is>
       </c>
-      <c r="I31" s="19" t="inlineStr">
+      <c r="I31" s="14" t="inlineStr">
         <is>
           <t>中科金财</t>
         </is>
@@ -9606,12 +9612,12 @@
           <t>浔兴股份5</t>
         </is>
       </c>
-      <c r="K31" s="12" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>天府文旅2</t>
         </is>
       </c>
-      <c r="L31" s="12" t="inlineStr">
+      <c r="L31" s="5" t="inlineStr">
         <is>
           <t>新能泰山2</t>
         </is>
@@ -9621,7 +9627,7 @@
           <t>沈阳化工</t>
         </is>
       </c>
-      <c r="N31" s="6" t="inlineStr">
+      <c r="N31" s="14" t="inlineStr">
         <is>
           <t>浙文互联</t>
         </is>
@@ -9633,7 +9639,7 @@
           <t>生意宝4</t>
         </is>
       </c>
-      <c r="C32" s="19" t="inlineStr">
+      <c r="C32" s="20" t="inlineStr">
         <is>
           <t>金龙羽</t>
         </is>
@@ -9643,27 +9649,27 @@
           <t>维维股份2</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>西陇科学3</t>
         </is>
       </c>
-      <c r="F32" s="12" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>新华联2</t>
         </is>
       </c>
-      <c r="G32" s="12" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>绿康生化2</t>
         </is>
       </c>
-      <c r="H32" s="9" t="inlineStr">
+      <c r="H32" s="13" t="inlineStr">
         <is>
           <t>福斯达</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="9" t="inlineStr">
         <is>
           <t>日海智能</t>
         </is>
@@ -9673,7 +9679,7 @@
           <t>华银电力3</t>
         </is>
       </c>
-      <c r="K32" s="19" t="inlineStr">
+      <c r="K32" s="20" t="inlineStr">
         <is>
           <t>方大集团</t>
         </is>
@@ -9683,29 +9689,29 @@
           <t>恒润股份</t>
         </is>
       </c>
-      <c r="M32" s="9" t="inlineStr">
+      <c r="M32" s="13" t="inlineStr">
         <is>
           <t>新坐标2</t>
         </is>
       </c>
-      <c r="N32" s="12" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>重庆建工3</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="19" t="inlineStr">
+      <c r="B33" s="20" t="inlineStr">
         <is>
           <t>舒华体育</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="C33" s="13" t="inlineStr">
         <is>
           <t>建投能源</t>
         </is>
       </c>
-      <c r="D33" s="12" t="inlineStr">
+      <c r="D33" s="14" t="inlineStr">
         <is>
           <t>恒锋信息2</t>
         </is>
@@ -9715,7 +9721,7 @@
           <t>国风新材2</t>
         </is>
       </c>
-      <c r="F33" s="7" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>文峰股份</t>
         </is>
@@ -9725,27 +9731,27 @@
           <t>久其软件2</t>
         </is>
       </c>
-      <c r="H33" s="7" t="inlineStr">
+      <c r="H33" s="6" t="inlineStr">
         <is>
           <t>三木集团3</t>
         </is>
       </c>
-      <c r="I33" s="19" t="inlineStr">
+      <c r="I33" s="9" t="inlineStr">
         <is>
           <t>秦川机床</t>
         </is>
       </c>
-      <c r="J33" s="12" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>渝开发3</t>
         </is>
       </c>
-      <c r="K33" s="9" t="inlineStr">
+      <c r="K33" s="12" t="inlineStr">
         <is>
           <t>华电能源2</t>
         </is>
       </c>
-      <c r="L33" s="12" t="inlineStr">
+      <c r="L33" s="5" t="inlineStr">
         <is>
           <t>大千生态5</t>
         </is>
@@ -9755,24 +9761,24 @@
           <t>新瀚新材2</t>
         </is>
       </c>
-      <c r="N33" s="9" t="inlineStr">
+      <c r="N33" s="13" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>中超控股2</t>
         </is>
       </c>
-      <c r="C34" s="19" t="inlineStr">
+      <c r="C34" s="20" t="inlineStr">
         <is>
           <t>领湃科技</t>
         </is>
       </c>
-      <c r="D34" s="19" t="inlineStr">
+      <c r="D34" s="20" t="inlineStr">
         <is>
           <t>华建集团</t>
         </is>
@@ -9782,7 +9788,7 @@
           <t>善水科技</t>
         </is>
       </c>
-      <c r="F34" s="9" t="inlineStr">
+      <c r="F34" s="13" t="inlineStr">
         <is>
           <t>威尔药业4</t>
         </is>
@@ -9797,7 +9803,7 @@
           <t>长江投资</t>
         </is>
       </c>
-      <c r="I34" s="12" t="inlineStr">
+      <c r="I34" s="9" t="inlineStr">
         <is>
           <t>南方精工3</t>
         </is>
@@ -9807,17 +9813,17 @@
           <t>郴电国际</t>
         </is>
       </c>
-      <c r="K34" s="7" t="inlineStr">
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>中央商场</t>
         </is>
       </c>
-      <c r="L34" s="6" t="inlineStr">
+      <c r="L34" s="8" t="inlineStr">
         <is>
           <t>中毅达3</t>
         </is>
       </c>
-      <c r="M34" s="9" t="inlineStr">
+      <c r="M34" s="8" t="inlineStr">
         <is>
           <t>大洋生物</t>
         </is>
@@ -9829,7 +9835,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="19" t="inlineStr">
+      <c r="B35" s="14" t="inlineStr">
         <is>
           <t>京北方</t>
         </is>
@@ -9839,17 +9845,17 @@
           <t>红宝丽5</t>
         </is>
       </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="D35" s="13" t="inlineStr">
         <is>
           <t>特力A3</t>
         </is>
       </c>
-      <c r="E35" s="11" t="inlineStr">
+      <c r="E35" s="12" t="inlineStr">
         <is>
           <t>睿能科技</t>
         </is>
       </c>
-      <c r="F35" s="12" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>神开股份2</t>
         </is>
@@ -9859,7 +9865,7 @@
           <t>跨境通3</t>
         </is>
       </c>
-      <c r="H35" s="19" t="inlineStr">
+      <c r="H35" s="20" t="inlineStr">
         <is>
           <t>万林物流</t>
         </is>
@@ -9869,7 +9875,7 @@
           <t>宁波东力3</t>
         </is>
       </c>
-      <c r="J35" s="19" t="inlineStr">
+      <c r="J35" s="20" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -9879,49 +9885,49 @@
           <t>北鼎股份</t>
         </is>
       </c>
-      <c r="L35" s="9" t="inlineStr">
+      <c r="L35" s="13" t="inlineStr">
         <is>
           <t>廊坊发展</t>
         </is>
       </c>
-      <c r="M35" s="12" t="inlineStr">
+      <c r="M35" s="14" t="inlineStr">
         <is>
           <t>利欧股份2</t>
         </is>
       </c>
-      <c r="N35" s="11" t="inlineStr">
+      <c r="N35" s="20" t="inlineStr">
         <is>
           <t>冠石科技</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="27" t="inlineStr">
+      <c r="B36" s="20" t="inlineStr">
         <is>
           <t>兰生股份</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>兄弟科技2</t>
         </is>
       </c>
-      <c r="D36" s="9" t="inlineStr">
+      <c r="D36" s="13" t="inlineStr">
         <is>
           <t>健尔康3</t>
         </is>
       </c>
-      <c r="E36" s="19" t="inlineStr">
+      <c r="E36" s="20" t="inlineStr">
         <is>
           <t>神雾节能</t>
         </is>
       </c>
-      <c r="F36" s="12" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>华脉科技2</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="G36" s="9" t="inlineStr">
         <is>
           <t>利君股份</t>
         </is>
@@ -9946,17 +9952,17 @@
           <t>宇晶股份</t>
         </is>
       </c>
-      <c r="L36" s="9" t="inlineStr">
+      <c r="L36" s="13" t="inlineStr">
         <is>
           <t>弘景光电</t>
         </is>
       </c>
-      <c r="M36" s="11" t="inlineStr">
+      <c r="M36" s="9" t="inlineStr">
         <is>
           <t>日盈电子</t>
         </is>
       </c>
-      <c r="N36" s="19" t="inlineStr">
+      <c r="N36" s="20" t="inlineStr">
         <is>
           <t>未名医药</t>
         </is>
@@ -9968,12 +9974,12 @@
           <t>国光连锁6</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>华贸物流4</t>
         </is>
       </c>
-      <c r="D37" s="19" t="inlineStr">
+      <c r="D37" s="20" t="inlineStr">
         <is>
           <t>中关村</t>
         </is>
@@ -9998,12 +10004,12 @@
           <t>嘉诚国际</t>
         </is>
       </c>
-      <c r="I37" s="9" t="inlineStr">
+      <c r="I37" s="13" t="inlineStr">
         <is>
           <t>芯瑞达</t>
         </is>
       </c>
-      <c r="J37" s="19" t="inlineStr">
+      <c r="J37" s="20" t="inlineStr">
         <is>
           <t>永杉锂业</t>
         </is>
@@ -10018,44 +10024,44 @@
           <t>瀛通通讯3</t>
         </is>
       </c>
-      <c r="M37" s="12" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>东方创业2</t>
         </is>
       </c>
-      <c r="N37" s="9" t="inlineStr">
+      <c r="N37" s="13" t="inlineStr">
         <is>
           <t>大博医疗</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="19" t="inlineStr">
+      <c r="B38" s="20" t="inlineStr">
         <is>
           <t>康普顿</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>大千生态5</t>
         </is>
       </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>金陵饭店2</t>
         </is>
       </c>
-      <c r="E38" s="19" t="inlineStr">
+      <c r="E38" s="12" t="inlineStr">
         <is>
           <t>神力股份</t>
         </is>
       </c>
-      <c r="F38" s="19" t="inlineStr">
+      <c r="F38" s="9" t="inlineStr">
         <is>
           <t>奇精机械</t>
         </is>
       </c>
-      <c r="G38" s="9" t="inlineStr">
+      <c r="G38" s="13" t="inlineStr">
         <is>
           <t>鹏欣资源</t>
         </is>
@@ -10065,27 +10071,27 @@
           <t>中通客车</t>
         </is>
       </c>
-      <c r="I38" s="19" t="inlineStr">
+      <c r="I38" s="9" t="inlineStr">
         <is>
           <t>光洋股份</t>
         </is>
       </c>
-      <c r="J38" s="19" t="inlineStr">
+      <c r="J38" s="20" t="inlineStr">
         <is>
           <t>菲林格尔</t>
         </is>
       </c>
-      <c r="K38" s="12" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>深中华A2</t>
         </is>
       </c>
-      <c r="L38" s="9" t="inlineStr">
+      <c r="L38" s="13" t="inlineStr">
         <is>
           <t>新北洋</t>
         </is>
       </c>
-      <c r="M38" s="9" t="inlineStr">
+      <c r="M38" s="13" t="inlineStr">
         <is>
           <t>蓝丰生化</t>
         </is>
@@ -10097,7 +10103,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="19" t="inlineStr">
+      <c r="B39" s="20" t="inlineStr">
         <is>
           <t>曲美家居</t>
         </is>
@@ -10112,12 +10118,12 @@
           <t>华茂股份</t>
         </is>
       </c>
-      <c r="E39" s="19" t="inlineStr">
+      <c r="E39" s="14" t="inlineStr">
         <is>
           <t>福鞍股份</t>
         </is>
       </c>
-      <c r="F39" s="7" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>友阿股份</t>
         </is>
@@ -10132,17 +10138,17 @@
           <t>庄园牧场</t>
         </is>
       </c>
-      <c r="I39" s="12" t="inlineStr">
+      <c r="I39" s="14" t="inlineStr">
         <is>
           <t>东珠生态6</t>
         </is>
       </c>
-      <c r="J39" s="9" t="inlineStr">
+      <c r="J39" s="13" t="inlineStr">
         <is>
           <t>尔康制药</t>
         </is>
       </c>
-      <c r="K39" s="9" t="inlineStr">
+      <c r="K39" s="8" t="inlineStr">
         <is>
           <t>天原股份</t>
         </is>
@@ -10152,7 +10158,7 @@
           <t>雅博股份</t>
         </is>
       </c>
-      <c r="M39" s="9" t="inlineStr">
+      <c r="M39" s="13" t="inlineStr">
         <is>
           <t>哈森股份</t>
         </is>
@@ -10164,17 +10170,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>威领股份2</t>
         </is>
       </c>
-      <c r="C40" s="19" t="inlineStr">
+      <c r="C40" s="20" t="inlineStr">
         <is>
           <t>洁雅股份</t>
         </is>
       </c>
-      <c r="D40" s="19" t="inlineStr">
+      <c r="D40" s="20" t="inlineStr">
         <is>
           <t>强邦新材</t>
         </is>
@@ -10184,7 +10190,7 @@
           <t>怡达股份</t>
         </is>
       </c>
-      <c r="F40" s="12" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>大千生态5</t>
         </is>
@@ -10194,17 +10200,17 @@
           <t>西王食品2</t>
         </is>
       </c>
-      <c r="H40" s="19" t="inlineStr">
+      <c r="H40" s="20" t="inlineStr">
         <is>
           <t>优博讯</t>
         </is>
       </c>
-      <c r="I40" s="19" t="inlineStr">
+      <c r="I40" s="9" t="inlineStr">
         <is>
           <t>利安科技</t>
         </is>
       </c>
-      <c r="J40" s="9" t="inlineStr">
+      <c r="J40" s="13" t="inlineStr">
         <is>
           <t>凯莱英</t>
         </is>
@@ -10214,59 +10220,59 @@
           <t>中坚科技</t>
         </is>
       </c>
-      <c r="L40" s="12" t="inlineStr">
+      <c r="L40" s="5" t="inlineStr">
         <is>
           <t>宿迁联盛2</t>
         </is>
       </c>
-      <c r="M40" s="19" t="inlineStr">
+      <c r="M40" s="9" t="inlineStr">
         <is>
           <t>鼎际得</t>
         </is>
       </c>
-      <c r="N40" s="11" t="inlineStr">
+      <c r="N40" s="20" t="inlineStr">
         <is>
           <t>弘元绿能</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="19" t="inlineStr">
+      <c r="B41" s="20" t="inlineStr">
         <is>
           <t>合力科技</t>
         </is>
       </c>
-      <c r="C41" s="19" t="inlineStr">
+      <c r="C41" s="20" t="inlineStr">
         <is>
           <t>宏盛股份</t>
         </is>
       </c>
-      <c r="D41" s="19" t="inlineStr">
+      <c r="D41" s="20" t="inlineStr">
         <is>
           <t>长联科技</t>
         </is>
       </c>
-      <c r="E41" s="9" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr">
         <is>
           <t>九鼎新材2</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="F41" s="20" t="inlineStr">
         <is>
           <t>盛路通信</t>
         </is>
       </c>
-      <c r="G41" s="9" t="inlineStr">
+      <c r="G41" s="13" t="inlineStr">
         <is>
           <t>横店影视</t>
         </is>
       </c>
-      <c r="H41" s="12" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>翠微股份3</t>
         </is>
       </c>
-      <c r="I41" s="6" t="inlineStr">
+      <c r="I41" s="9" t="inlineStr">
         <is>
           <t>龙溪股份2</t>
         </is>
@@ -10281,7 +10287,7 @@
           <t>渝三峡A4</t>
         </is>
       </c>
-      <c r="L41" s="9" t="inlineStr">
+      <c r="L41" s="13" t="inlineStr">
         <is>
           <t>联合化学2</t>
         </is>
@@ -10291,7 +10297,7 @@
           <t>顾家家居</t>
         </is>
       </c>
-      <c r="N41" s="19" t="inlineStr">
+      <c r="N41" s="20" t="inlineStr">
         <is>
           <t>空港股份</t>
         </is>
@@ -10308,17 +10314,17 @@
           <t>浔兴股份5</t>
         </is>
       </c>
-      <c r="D42" s="19" t="inlineStr">
+      <c r="D42" s="14" t="inlineStr">
         <is>
           <t>慈文传媒</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="20" t="inlineStr">
         <is>
           <t>兴业股份</t>
         </is>
       </c>
-      <c r="F42" s="19" t="inlineStr">
+      <c r="F42" s="20" t="inlineStr">
         <is>
           <t>世嘉科技</t>
         </is>
@@ -10328,12 +10334,12 @@
           <t>灵康药业2</t>
         </is>
       </c>
-      <c r="H42" s="11" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>盈方微2</t>
         </is>
       </c>
-      <c r="I42" s="9" t="inlineStr">
+      <c r="I42" s="13" t="inlineStr">
         <is>
           <t>和科达2</t>
         </is>
@@ -10348,12 +10354,12 @@
           <t>三峡旅游2</t>
         </is>
       </c>
-      <c r="M42" s="19" t="inlineStr">
+      <c r="M42" s="20" t="inlineStr">
         <is>
           <t>宁波华翔</t>
         </is>
       </c>
-      <c r="N42" s="19" t="inlineStr">
+      <c r="N42" s="20" t="inlineStr">
         <is>
           <t>西上海</t>
         </is>
@@ -10370,17 +10376,17 @@
           <t>苏豪弘业</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>桂发祥2</t>
         </is>
       </c>
-      <c r="E43" s="11" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t>三孚股份2</t>
         </is>
       </c>
-      <c r="F43" s="19" t="inlineStr">
+      <c r="F43" s="20" t="inlineStr">
         <is>
           <t>通宇通讯</t>
         </is>
@@ -10390,39 +10396,39 @@
           <t>安正时尚3</t>
         </is>
       </c>
-      <c r="H43" s="9" t="inlineStr">
+      <c r="H43" s="13" t="inlineStr">
         <is>
           <t>永鼎股份</t>
         </is>
       </c>
-      <c r="I43" s="19" t="inlineStr">
+      <c r="I43" s="9" t="inlineStr">
         <is>
           <t>兆威机电</t>
         </is>
       </c>
-      <c r="J43" s="19" t="inlineStr">
+      <c r="J43" s="20" t="inlineStr">
         <is>
           <t>上海凤凰</t>
         </is>
       </c>
-      <c r="K43" s="12" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>上海物贸2</t>
         </is>
       </c>
-      <c r="M43" s="7" t="inlineStr">
+      <c r="M43" s="9" t="inlineStr">
         <is>
           <t>全筑股份2</t>
         </is>
       </c>
-      <c r="N43" s="9" t="inlineStr">
+      <c r="N43" s="12" t="inlineStr">
         <is>
           <t>旺能环境</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="12" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>海陆重工3</t>
         </is>
@@ -10432,7 +10438,7 @@
           <t>瑞贝卡</t>
         </is>
       </c>
-      <c r="D44" s="11" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t>渤海化学3</t>
         </is>
@@ -10447,44 +10453,44 @@
           <t>传艺科技</t>
         </is>
       </c>
-      <c r="G44" s="9" t="inlineStr">
+      <c r="G44" s="13" t="inlineStr">
         <is>
           <t>富春环保</t>
         </is>
       </c>
-      <c r="H44" s="19" t="inlineStr">
+      <c r="H44" s="20" t="inlineStr">
         <is>
           <t>海欣食品</t>
         </is>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="I44" s="9" t="inlineStr">
         <is>
           <t>东贝集团4</t>
         </is>
       </c>
-      <c r="J44" s="19" t="inlineStr">
+      <c r="J44" s="9" t="inlineStr">
         <is>
           <t>中广核技</t>
         </is>
       </c>
-      <c r="K44" s="19" t="inlineStr">
+      <c r="K44" s="12" t="inlineStr">
         <is>
           <t>长源电力</t>
         </is>
       </c>
-      <c r="M44" s="9" t="inlineStr">
+      <c r="M44" s="14" t="inlineStr">
         <is>
           <t>平治信息</t>
         </is>
       </c>
-      <c r="N44" s="19" t="inlineStr">
+      <c r="N44" s="20" t="inlineStr">
         <is>
           <t>韩建河山</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="19" t="inlineStr">
+      <c r="B45" s="20" t="inlineStr">
         <is>
           <t>康力源</t>
         </is>
@@ -10494,7 +10500,7 @@
           <t>久其软件2</t>
         </is>
       </c>
-      <c r="D45" s="12" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>盛泰集团2</t>
         </is>
@@ -10504,12 +10510,12 @@
           <t>宁波中百</t>
         </is>
       </c>
-      <c r="F45" s="19" t="inlineStr">
+      <c r="F45" s="20" t="inlineStr">
         <is>
           <t>同兴科技</t>
         </is>
       </c>
-      <c r="G45" s="9" t="inlineStr">
+      <c r="G45" s="14" t="inlineStr">
         <is>
           <t>大位科技2</t>
         </is>
@@ -10519,34 +10525,34 @@
           <t>珠江钢琴</t>
         </is>
       </c>
-      <c r="I45" s="19" t="inlineStr">
+      <c r="I45" s="20" t="inlineStr">
         <is>
           <t>中马传动</t>
         </is>
       </c>
-      <c r="J45" s="12" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>罗欣药业2</t>
         </is>
       </c>
-      <c r="K45" s="19" t="inlineStr">
+      <c r="K45" s="12" t="inlineStr">
         <is>
           <t>九洲集团</t>
         </is>
       </c>
-      <c r="M45" s="9" t="inlineStr">
+      <c r="M45" s="13" t="inlineStr">
         <is>
           <t>雅运股份</t>
         </is>
       </c>
-      <c r="N45" s="19" t="inlineStr">
+      <c r="N45" s="9" t="inlineStr">
         <is>
           <t>瑞芯微</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B46" s="13" t="inlineStr">
         <is>
           <t>思维列控</t>
         </is>
@@ -10556,17 +10562,17 @@
           <t>新华锦2</t>
         </is>
       </c>
-      <c r="D46" s="12" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>翠微股份3</t>
         </is>
       </c>
-      <c r="E46" s="12" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>莱绅通灵3</t>
         </is>
       </c>
-      <c r="F46" s="19" t="inlineStr">
+      <c r="F46" s="20" t="inlineStr">
         <is>
           <t>东方通信</t>
         </is>
@@ -10576,12 +10582,12 @@
           <t>生意宝4</t>
         </is>
       </c>
-      <c r="H46" s="19" t="inlineStr">
+      <c r="H46" s="20" t="inlineStr">
         <is>
           <t>吉大正元</t>
         </is>
       </c>
-      <c r="I46" s="4" t="inlineStr">
+      <c r="I46" s="9" t="inlineStr">
         <is>
           <t>红旗连锁</t>
         </is>
@@ -10591,7 +10597,7 @@
           <t>广西能源</t>
         </is>
       </c>
-      <c r="K46" s="5" t="inlineStr">
+      <c r="K46" s="20" t="inlineStr">
         <is>
           <t>天津普林</t>
         </is>
@@ -10601,7 +10607,7 @@
           <t>宁波东力3</t>
         </is>
       </c>
-      <c r="N46" s="19" t="inlineStr">
+      <c r="N46" s="9" t="inlineStr">
         <is>
           <t>精工科技</t>
         </is>
@@ -10618,12 +10624,12 @@
           <t>三态股份</t>
         </is>
       </c>
-      <c r="D47" s="19" t="inlineStr">
+      <c r="D47" s="14" t="inlineStr">
         <is>
           <t>创识科技</t>
         </is>
       </c>
-      <c r="E47" s="19" t="inlineStr">
+      <c r="E47" s="20" t="inlineStr">
         <is>
           <t>登云股份</t>
         </is>
@@ -10633,7 +10639,7 @@
           <t>永杰新材</t>
         </is>
       </c>
-      <c r="G47" s="12" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>海联金汇4</t>
         </is>
@@ -10643,7 +10649,7 @@
           <t>尖峰集团</t>
         </is>
       </c>
-      <c r="I47" s="12" t="inlineStr">
+      <c r="I47" s="5" t="inlineStr">
         <is>
           <t>神开股份2</t>
         </is>
@@ -10653,24 +10659,24 @@
           <t>久祺股份2</t>
         </is>
       </c>
-      <c r="K47" s="11" t="inlineStr">
+      <c r="K47" s="9" t="inlineStr">
         <is>
           <t>好上好</t>
         </is>
       </c>
-      <c r="M47" s="9" t="inlineStr">
+      <c r="M47" s="14" t="inlineStr">
         <is>
           <t>丸美生物</t>
         </is>
       </c>
-      <c r="N47" s="6" t="inlineStr">
+      <c r="N47" s="9" t="inlineStr">
         <is>
           <t>南京化纤</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="19" t="inlineStr">
+      <c r="B48" s="20" t="inlineStr">
         <is>
           <t>怡球资源</t>
         </is>
@@ -10685,64 +10691,64 @@
           <t>华软科技</t>
         </is>
       </c>
-      <c r="F48" s="12" t="inlineStr">
+      <c r="F48" s="14" t="inlineStr">
         <is>
           <t>朝阳科技2</t>
         </is>
       </c>
-      <c r="G48" s="11" t="inlineStr">
+      <c r="G48" s="20" t="inlineStr">
         <is>
           <t>立昂微</t>
         </is>
       </c>
-      <c r="H48" s="12" t="inlineStr">
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>东方创业2</t>
         </is>
       </c>
-      <c r="I48" s="12" t="inlineStr">
+      <c r="I48" s="5" t="inlineStr">
         <is>
           <t>三维化学2</t>
         </is>
       </c>
-      <c r="J48" s="19" t="inlineStr">
+      <c r="J48" s="20" t="inlineStr">
         <is>
           <t>天元宠物</t>
         </is>
       </c>
-      <c r="K48" s="19" t="inlineStr">
+      <c r="K48" s="20" t="inlineStr">
         <is>
           <t>畅联股份</t>
         </is>
       </c>
-      <c r="M48" s="12" t="inlineStr">
+      <c r="M48" s="5" t="inlineStr">
         <is>
           <t>汉商集团2</t>
         </is>
       </c>
-      <c r="N48" s="19" t="inlineStr">
+      <c r="N48" s="14" t="inlineStr">
         <is>
           <t>中光学</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>云内动力</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>东方材料3</t>
         </is>
       </c>
-      <c r="E49" s="9" t="inlineStr">
+      <c r="E49" s="13" t="inlineStr">
         <is>
           <t>拓维信息2</t>
         </is>
       </c>
-      <c r="F49" s="19" t="inlineStr">
+      <c r="F49" s="20" t="inlineStr">
         <is>
           <t>华锋股份</t>
         </is>
@@ -10752,39 +10758,39 @@
           <t>拉芳家化</t>
         </is>
       </c>
-      <c r="H49" s="19" t="inlineStr">
+      <c r="H49" s="20" t="inlineStr">
         <is>
           <t>中油资本</t>
         </is>
       </c>
-      <c r="I49" s="19" t="inlineStr">
+      <c r="I49" s="9" t="inlineStr">
         <is>
           <t>美湖股份</t>
         </is>
       </c>
-      <c r="J49" s="9" t="inlineStr">
+      <c r="J49" s="13" t="inlineStr">
         <is>
           <t>依依股份</t>
         </is>
       </c>
-      <c r="K49" s="19" t="inlineStr">
+      <c r="K49" s="9" t="inlineStr">
         <is>
           <t>南方路机</t>
         </is>
       </c>
-      <c r="M49" s="9" t="inlineStr">
+      <c r="M49" s="13" t="inlineStr">
         <is>
           <t>百润股份</t>
         </is>
       </c>
-      <c r="N49" s="9" t="inlineStr">
+      <c r="N49" s="12" t="inlineStr">
         <is>
           <t>新联电子</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="19" t="inlineStr">
+      <c r="B50" s="14" t="inlineStr">
         <is>
           <t>比依股份</t>
         </is>
@@ -10794,12 +10800,12 @@
           <t>永泰运2</t>
         </is>
       </c>
-      <c r="E50" s="19" t="inlineStr">
+      <c r="E50" s="20" t="inlineStr">
         <is>
           <t>惠发食品</t>
         </is>
       </c>
-      <c r="F50" s="12" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>仁智股份2</t>
         </is>
@@ -10809,12 +10815,12 @@
           <t>有友食品2</t>
         </is>
       </c>
-      <c r="H50" s="7" t="inlineStr">
+      <c r="H50" s="6" t="inlineStr">
         <is>
           <t>轻纺城2</t>
         </is>
       </c>
-      <c r="I50" s="9" t="inlineStr">
+      <c r="I50" s="13" t="inlineStr">
         <is>
           <t>龙江交通</t>
         </is>
@@ -10824,17 +10830,17 @@
           <t>韶能股份4</t>
         </is>
       </c>
-      <c r="K50" s="9" t="inlineStr">
+      <c r="K50" s="13" t="inlineStr">
         <is>
           <t>拓维信息2</t>
         </is>
       </c>
-      <c r="M50" s="9" t="inlineStr">
+      <c r="M50" s="13" t="inlineStr">
         <is>
           <t>梦百合</t>
         </is>
       </c>
-      <c r="N50" s="4" t="inlineStr">
+      <c r="N50" s="9" t="inlineStr">
         <is>
           <t>光大同创</t>
         </is>
@@ -10846,7 +10852,7 @@
           <t>乐山电力7</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>南方精工3</t>
         </is>
@@ -10856,7 +10862,7 @@
           <t>泰嘉股份2</t>
         </is>
       </c>
-      <c r="F51" s="19" t="inlineStr">
+      <c r="F51" s="20" t="inlineStr">
         <is>
           <t>金融街</t>
         </is>
@@ -10871,17 +10877,17 @@
           <t>星湖科技</t>
         </is>
       </c>
-      <c r="I51" s="19" t="inlineStr">
+      <c r="I51" s="9" t="inlineStr">
         <is>
           <t>长华集团</t>
         </is>
       </c>
-      <c r="J51" s="11" t="inlineStr">
+      <c r="J51" s="8" t="inlineStr">
         <is>
           <t>渤海化学3</t>
         </is>
       </c>
-      <c r="K51" s="9" t="inlineStr">
+      <c r="K51" s="13" t="inlineStr">
         <is>
           <t>甘李药业</t>
         </is>
@@ -10891,34 +10897,34 @@
           <t>吉华集团</t>
         </is>
       </c>
-      <c r="N51" s="19" t="inlineStr">
+      <c r="N51" s="20" t="inlineStr">
         <is>
           <t>天普股份</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="12" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>荣丰控股3</t>
         </is>
       </c>
-      <c r="C52" s="12" t="inlineStr">
+      <c r="C52" s="14" t="inlineStr">
         <is>
           <t>东珠生态6</t>
         </is>
       </c>
-      <c r="E52" s="19" t="inlineStr">
+      <c r="E52" s="20" t="inlineStr">
         <is>
           <t>益佰制药</t>
         </is>
       </c>
-      <c r="F52" s="19" t="inlineStr">
+      <c r="F52" s="20" t="inlineStr">
         <is>
           <t>国中水务</t>
         </is>
       </c>
-      <c r="G52" s="12" t="inlineStr">
+      <c r="G52" s="14" t="inlineStr">
         <is>
           <t>信雅达2</t>
         </is>
@@ -10928,7 +10934,7 @@
           <t>洪兴股份2</t>
         </is>
       </c>
-      <c r="I52" s="19" t="inlineStr">
+      <c r="I52" s="9" t="inlineStr">
         <is>
           <t>肇民科技</t>
         </is>
@@ -10938,7 +10944,7 @@
           <t>宁波联合2</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="K52" s="12" t="inlineStr">
         <is>
           <t>泰豪科技2</t>
         </is>
@@ -10955,12 +10961,12 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="19" t="inlineStr">
+      <c r="B53" s="20" t="inlineStr">
         <is>
           <t>雪人股份</t>
         </is>
       </c>
-      <c r="C53" s="19" t="inlineStr">
+      <c r="C53" s="20" t="inlineStr">
         <is>
           <t>长鸿高科</t>
         </is>
@@ -10970,12 +10976,12 @@
           <t>红蜻蜓2</t>
         </is>
       </c>
-      <c r="F53" s="11" t="inlineStr">
+      <c r="F53" s="20" t="inlineStr">
         <is>
           <t>高新发展</t>
         </is>
       </c>
-      <c r="G53" s="12" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>青岛金王3</t>
         </is>
@@ -10985,7 +10991,7 @@
           <t>赤天化</t>
         </is>
       </c>
-      <c r="I53" s="9" t="inlineStr">
+      <c r="I53" s="13" t="inlineStr">
         <is>
           <t>恒勃股份</t>
         </is>
@@ -10995,24 +11001,24 @@
           <t>新瀚新材2</t>
         </is>
       </c>
-      <c r="K53" s="9" t="inlineStr">
+      <c r="K53" s="13" t="inlineStr">
         <is>
           <t>百龙创园</t>
         </is>
       </c>
-      <c r="M53" s="9" t="inlineStr">
+      <c r="M53" s="14" t="inlineStr">
         <is>
           <t>美利云</t>
         </is>
       </c>
-      <c r="N53" s="19" t="inlineStr">
+      <c r="N53" s="9" t="inlineStr">
         <is>
           <t>福达股份</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="19" t="inlineStr">
+      <c r="B54" s="20" t="inlineStr">
         <is>
           <t>动力新科</t>
         </is>
@@ -11022,7 +11028,7 @@
           <t>西王食品2</t>
         </is>
       </c>
-      <c r="E54" s="19" t="inlineStr">
+      <c r="E54" s="14" t="inlineStr">
         <is>
           <t>泛微网络</t>
         </is>
@@ -11037,34 +11043,34 @@
           <t>阳光乳业</t>
         </is>
       </c>
-      <c r="H54" s="12" t="inlineStr">
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>圣龙股份2</t>
         </is>
       </c>
-      <c r="I54" s="19" t="inlineStr">
+      <c r="I54" s="20" t="inlineStr">
         <is>
           <t>吉林化纤</t>
         </is>
       </c>
-      <c r="K54" s="9" t="inlineStr">
+      <c r="K54" s="13" t="inlineStr">
         <is>
           <t>会稽山2</t>
         </is>
       </c>
-      <c r="M54" s="11" t="inlineStr">
+      <c r="M54" s="5" t="inlineStr">
         <is>
           <t>中旗新材4</t>
         </is>
       </c>
-      <c r="N54" s="19" t="inlineStr">
+      <c r="N54" s="20" t="inlineStr">
         <is>
           <t>华夏幸福</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="19" t="inlineStr">
+      <c r="B55" s="20" t="inlineStr">
         <is>
           <t>安源煤业</t>
         </is>
@@ -11079,27 +11085,27 @@
           <t>沃顿科技</t>
         </is>
       </c>
-      <c r="F55" s="19" t="inlineStr">
+      <c r="F55" s="20" t="inlineStr">
         <is>
           <t>我爱我家</t>
         </is>
       </c>
-      <c r="G55" s="11" t="inlineStr">
+      <c r="G55" s="20" t="inlineStr">
         <is>
           <t>至正股份</t>
         </is>
       </c>
-      <c r="H55" s="19" t="inlineStr">
+      <c r="H55" s="9" t="inlineStr">
         <is>
           <t>奇德新材</t>
         </is>
       </c>
-      <c r="I55" s="12" t="inlineStr">
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>棒杰股份2</t>
         </is>
       </c>
-      <c r="K55" s="6" t="inlineStr">
+      <c r="K55" s="9" t="inlineStr">
         <is>
           <t>赛福天</t>
         </is>
@@ -11109,14 +11115,14 @@
           <t>大叶股份</t>
         </is>
       </c>
-      <c r="N55" s="19" t="inlineStr">
+      <c r="N55" s="20" t="inlineStr">
         <is>
           <t>湖北广电</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="19" t="inlineStr">
+      <c r="B56" s="20" t="inlineStr">
         <is>
           <t>金陵体育</t>
         </is>
@@ -11126,12 +11132,12 @@
           <t>西昌电力4</t>
         </is>
       </c>
-      <c r="E56" s="12" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>宏昌电子2</t>
         </is>
       </c>
-      <c r="F56" s="19" t="inlineStr">
+      <c r="F56" s="20" t="inlineStr">
         <is>
           <t>新城市</t>
         </is>
@@ -11141,17 +11147,17 @@
           <t>祖名股份</t>
         </is>
       </c>
-      <c r="H56" s="19" t="inlineStr">
+      <c r="H56" s="20" t="inlineStr">
         <is>
           <t>中农联合</t>
         </is>
       </c>
-      <c r="I56" s="9" t="inlineStr">
+      <c r="I56" s="12" t="inlineStr">
         <is>
           <t>长城科技</t>
         </is>
       </c>
-      <c r="K56" s="19" t="inlineStr">
+      <c r="K56" s="20" t="inlineStr">
         <is>
           <t>我乐家居</t>
         </is>
@@ -11161,24 +11167,24 @@
           <t>兆丰股份</t>
         </is>
       </c>
-      <c r="N56" s="6" t="inlineStr">
+      <c r="N56" s="9" t="inlineStr">
         <is>
           <t>龙溪股份2</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="12" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>天府文旅2</t>
         </is>
       </c>
-      <c r="C57" s="19" t="inlineStr">
+      <c r="C57" s="20" t="inlineStr">
         <is>
           <t>新亚电缆</t>
         </is>
       </c>
-      <c r="E57" s="19" t="inlineStr">
+      <c r="E57" s="20" t="inlineStr">
         <is>
           <t>德才股份</t>
         </is>
@@ -11188,17 +11194,17 @@
           <t>黑牡丹</t>
         </is>
       </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="G57" s="20" t="inlineStr">
         <is>
           <t>国睿科技</t>
         </is>
       </c>
-      <c r="H57" s="19" t="inlineStr">
+      <c r="H57" s="20" t="inlineStr">
         <is>
           <t>天鹅股份</t>
         </is>
       </c>
-      <c r="I57" s="12" t="inlineStr">
+      <c r="I57" s="5" t="inlineStr">
         <is>
           <t>海陆重工3</t>
         </is>
@@ -11213,14 +11219,14 @@
           <t>金鸿顺2</t>
         </is>
       </c>
-      <c r="N57" s="19" t="inlineStr">
+      <c r="N57" s="9" t="inlineStr">
         <is>
           <t>宏昌科技</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="19" t="inlineStr">
+      <c r="B58" s="20" t="inlineStr">
         <is>
           <t>君禾股份</t>
         </is>
@@ -11230,7 +11236,7 @@
           <t>赣能股份</t>
         </is>
       </c>
-      <c r="E58" s="12" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>海陆重工3</t>
         </is>
@@ -11240,49 +11246,49 @@
           <t>源飞宠物</t>
         </is>
       </c>
-      <c r="H58" s="19" t="inlineStr">
+      <c r="H58" s="20" t="inlineStr">
         <is>
           <t>美邦股份</t>
         </is>
       </c>
-      <c r="I58" s="19" t="inlineStr">
+      <c r="I58" s="20" t="inlineStr">
         <is>
           <t>合众思壮</t>
         </is>
       </c>
-      <c r="K58" s="19" t="inlineStr">
+      <c r="K58" s="9" t="inlineStr">
         <is>
           <t>夏厦精密</t>
         </is>
       </c>
-      <c r="M58" s="9" t="inlineStr">
+      <c r="M58" s="13" t="inlineStr">
         <is>
           <t>闰土股份</t>
         </is>
       </c>
-      <c r="N58" s="9" t="inlineStr">
+      <c r="N58" s="13" t="inlineStr">
         <is>
           <t>炜冈科技</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="19" t="inlineStr">
+      <c r="B59" s="20" t="inlineStr">
         <is>
           <t>大悦城</t>
         </is>
       </c>
-      <c r="C59" s="9" t="inlineStr">
+      <c r="C59" s="14" t="inlineStr">
         <is>
           <t>正和生态2</t>
         </is>
       </c>
-      <c r="E59" s="19" t="inlineStr">
+      <c r="E59" s="14" t="inlineStr">
         <is>
           <t>广联达</t>
         </is>
       </c>
-      <c r="G59" s="19" t="inlineStr">
+      <c r="G59" s="20" t="inlineStr">
         <is>
           <t>潮宏基</t>
         </is>
@@ -11292,44 +11298,44 @@
           <t>宝鼎科技</t>
         </is>
       </c>
-      <c r="I59" s="19" t="inlineStr">
+      <c r="I59" s="20" t="inlineStr">
         <is>
           <t>万丰奥威</t>
         </is>
       </c>
-      <c r="K59" s="19" t="inlineStr">
+      <c r="K59" s="20" t="inlineStr">
         <is>
           <t>博菲电气</t>
         </is>
       </c>
-      <c r="M59" s="19" t="inlineStr">
+      <c r="M59" s="14" t="inlineStr">
         <is>
           <t>兆易创新</t>
         </is>
       </c>
-      <c r="N59" s="19" t="inlineStr">
+      <c r="N59" s="9" t="inlineStr">
         <is>
           <t>祥鑫科技</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="19" t="inlineStr">
+      <c r="B60" s="20" t="inlineStr">
         <is>
           <t>东诚药业</t>
         </is>
       </c>
-      <c r="E60" s="19" t="inlineStr">
+      <c r="E60" s="14" t="inlineStr">
         <is>
           <t>尚品宅配</t>
         </is>
       </c>
-      <c r="G60" s="19" t="inlineStr">
+      <c r="G60" s="20" t="inlineStr">
         <is>
           <t>舒泰神</t>
         </is>
       </c>
-      <c r="H60" s="12" t="inlineStr">
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>深中华A2</t>
         </is>
@@ -11339,7 +11345,7 @@
           <t>德美化工</t>
         </is>
       </c>
-      <c r="K60" s="9" t="inlineStr">
+      <c r="K60" s="13" t="inlineStr">
         <is>
           <t>全新好</t>
         </is>
@@ -11351,7 +11357,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="19" t="inlineStr">
+      <c r="B61" s="20" t="inlineStr">
         <is>
           <t>中洲特材</t>
         </is>
@@ -11366,7 +11372,7 @@
           <t>贝仕达克</t>
         </is>
       </c>
-      <c r="H61" s="19" t="inlineStr">
+      <c r="H61" s="20" t="inlineStr">
         <is>
           <t>东江环保</t>
         </is>
@@ -11376,12 +11382,12 @@
           <t>嵘泰股份2</t>
         </is>
       </c>
-      <c r="K61" s="19" t="inlineStr">
+      <c r="K61" s="20" t="inlineStr">
         <is>
           <t>黑猫股份</t>
         </is>
       </c>
-      <c r="N61" s="12" t="inlineStr">
+      <c r="N61" s="9" t="inlineStr">
         <is>
           <t>南方精工3</t>
         </is>
@@ -11398,17 +11404,17 @@
           <t>志邦家居</t>
         </is>
       </c>
-      <c r="G62" s="9" t="inlineStr">
+      <c r="G62" s="13" t="inlineStr">
         <is>
           <t>长青股份</t>
         </is>
       </c>
-      <c r="H62" s="19" t="inlineStr">
+      <c r="H62" s="20" t="inlineStr">
         <is>
           <t>振华股份</t>
         </is>
       </c>
-      <c r="K62" s="11" t="inlineStr">
+      <c r="K62" s="12" t="inlineStr">
         <is>
           <t>智光电气</t>
         </is>
@@ -11420,22 +11426,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="6" t="inlineStr">
+      <c r="B63" s="9" t="inlineStr">
         <is>
           <t>赛摩智能</t>
         </is>
       </c>
-      <c r="E63" s="7" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>五芳斋2</t>
         </is>
       </c>
-      <c r="G63" s="19" t="inlineStr">
+      <c r="G63" s="20" t="inlineStr">
         <is>
           <t>宏和科技</t>
         </is>
       </c>
-      <c r="H63" s="19" t="inlineStr">
+      <c r="H63" s="20" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
@@ -11445,34 +11451,34 @@
           <t>明星电力</t>
         </is>
       </c>
-      <c r="N63" s="11" t="inlineStr">
+      <c r="N63" s="20" t="inlineStr">
         <is>
           <t>兴森科技</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="19" t="inlineStr">
+      <c r="B64" s="20" t="inlineStr">
         <is>
           <t>威尔泰</t>
         </is>
       </c>
-      <c r="E64" s="12" t="inlineStr">
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>重庆建工3</t>
         </is>
       </c>
-      <c r="G64" s="19" t="inlineStr">
+      <c r="G64" s="20" t="inlineStr">
         <is>
           <t>哈药股份</t>
         </is>
       </c>
-      <c r="H64" s="19" t="inlineStr">
+      <c r="H64" s="20" t="inlineStr">
         <is>
           <t>东峰集团</t>
         </is>
       </c>
-      <c r="K64" s="9" t="inlineStr">
+      <c r="K64" s="12" t="inlineStr">
         <is>
           <t>湖南发展</t>
         </is>
@@ -11489,27 +11495,27 @@
           <t>齐心集团</t>
         </is>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="E65" s="14" t="inlineStr">
         <is>
           <t>润贝航科5</t>
         </is>
       </c>
-      <c r="G65" s="11" t="inlineStr">
+      <c r="G65" s="13" t="inlineStr">
         <is>
           <t>晓程科技</t>
         </is>
       </c>
-      <c r="H65" s="19" t="inlineStr">
+      <c r="H65" s="20" t="inlineStr">
         <is>
           <t>凯盛新能</t>
         </is>
       </c>
-      <c r="K65" s="5" t="inlineStr">
+      <c r="K65" s="9" t="inlineStr">
         <is>
           <t>大立科技</t>
         </is>
       </c>
-      <c r="N65" s="9" t="inlineStr">
+      <c r="N65" s="13" t="inlineStr">
         <is>
           <t>科伦药业</t>
         </is>
@@ -11521,29 +11527,29 @@
           <t>茂业商业5</t>
         </is>
       </c>
-      <c r="E66" s="12" t="inlineStr">
+      <c r="E66" s="5" t="inlineStr">
         <is>
           <t>格林达2</t>
         </is>
       </c>
-      <c r="G66" s="12" t="inlineStr">
+      <c r="G66" s="5" t="inlineStr">
         <is>
           <t>顺灏股份2</t>
         </is>
       </c>
-      <c r="H66" s="7" t="inlineStr">
+      <c r="H66" s="4" t="inlineStr">
         <is>
           <t>煌上煌</t>
         </is>
       </c>
-      <c r="N66" s="12" t="inlineStr">
+      <c r="N66" s="5" t="inlineStr">
         <is>
           <t>松炀资源2</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B67" s="12" t="inlineStr">
         <is>
           <t>凤形股份</t>
         </is>
@@ -11558,12 +11564,12 @@
           <t>品渥食品</t>
         </is>
       </c>
-      <c r="H67" s="12" t="inlineStr">
+      <c r="H67" s="5" t="inlineStr">
         <is>
           <t>西陇科学3</t>
         </is>
       </c>
-      <c r="N67" s="12" t="inlineStr">
+      <c r="N67" s="5" t="inlineStr">
         <is>
           <t>威领股份2</t>
         </is>
@@ -11590,14 +11596,14 @@
           <t>三峡旅游2</t>
         </is>
       </c>
-      <c r="N68" s="19" t="inlineStr">
+      <c r="N68" s="9" t="inlineStr">
         <is>
           <t>信质集团</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="19" t="inlineStr">
+      <c r="B69" s="20" t="inlineStr">
         <is>
           <t>华钰矿业</t>
         </is>
@@ -11607,7 +11613,7 @@
           <t>尤夫股份5</t>
         </is>
       </c>
-      <c r="G69" s="12" t="inlineStr">
+      <c r="G69" s="14" t="inlineStr">
         <is>
           <t>利欧股份2</t>
         </is>
@@ -11617,51 +11623,51 @@
           <t>卫信康</t>
         </is>
       </c>
-      <c r="N69" s="9" t="inlineStr">
+      <c r="N69" s="12" t="inlineStr">
         <is>
           <t>八方股份</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="9" t="inlineStr">
+      <c r="B70" s="13" t="inlineStr">
         <is>
           <t>湖南黄金2</t>
         </is>
       </c>
-      <c r="E70" s="19" t="inlineStr">
+      <c r="E70" s="20" t="inlineStr">
         <is>
           <t>中天服务</t>
         </is>
       </c>
-      <c r="G70" s="19" t="inlineStr">
+      <c r="G70" s="20" t="inlineStr">
         <is>
           <t>金桥信息</t>
         </is>
       </c>
-      <c r="H70" s="9" t="inlineStr">
+      <c r="H70" s="8" t="inlineStr">
         <is>
           <t>富士莱</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="19" t="inlineStr">
+      <c r="B71" s="20" t="inlineStr">
         <is>
           <t>汇成真空</t>
         </is>
       </c>
-      <c r="E71" s="19" t="inlineStr">
+      <c r="E71" s="20" t="inlineStr">
         <is>
           <t>亚振家居</t>
         </is>
       </c>
-      <c r="G71" s="19" t="inlineStr">
+      <c r="G71" s="20" t="inlineStr">
         <is>
           <t>艾布鲁</t>
         </is>
       </c>
-      <c r="H71" s="19" t="inlineStr">
+      <c r="H71" s="20" t="inlineStr">
         <is>
           <t>华森制药</t>
         </is>
@@ -11673,24 +11679,24 @@
           <t>华锡有色</t>
         </is>
       </c>
-      <c r="E72" s="19" t="inlineStr">
+      <c r="E72" s="14" t="inlineStr">
         <is>
           <t>德必集团</t>
         </is>
       </c>
-      <c r="G72" s="12" t="inlineStr">
+      <c r="G72" s="5" t="inlineStr">
         <is>
           <t>好想你2</t>
         </is>
       </c>
-      <c r="H72" s="19" t="inlineStr">
+      <c r="H72" s="20" t="inlineStr">
         <is>
           <t>众生药业</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="19" t="inlineStr">
+      <c r="B73" s="9" t="inlineStr">
         <is>
           <t>天和磁材</t>
         </is>
@@ -11700,7 +11706,7 @@
           <t>丽人丽妆</t>
         </is>
       </c>
-      <c r="G73" s="9" t="inlineStr">
+      <c r="G73" s="13" t="inlineStr">
         <is>
           <t>先达股份5</t>
         </is>
@@ -11712,34 +11718,34 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="19" t="inlineStr">
+      <c r="B74" s="20" t="inlineStr">
         <is>
           <t>康惠制药</t>
         </is>
       </c>
-      <c r="E74" s="19" t="inlineStr">
+      <c r="E74" s="20" t="inlineStr">
         <is>
           <t>税友股份</t>
         </is>
       </c>
-      <c r="G74" s="9" t="inlineStr">
+      <c r="G74" s="13" t="inlineStr">
         <is>
           <t>金杯汽车</t>
         </is>
       </c>
-      <c r="H74" s="19" t="inlineStr">
+      <c r="H74" s="20" t="inlineStr">
         <is>
           <t>中储股份</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="19" t="inlineStr">
+      <c r="B75" s="12" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
       </c>
-      <c r="E75" s="19" t="inlineStr">
+      <c r="E75" s="20" t="inlineStr">
         <is>
           <t>淮河能源</t>
         </is>
@@ -11749,7 +11755,7 @@
           <t>远大控股2</t>
         </is>
       </c>
-      <c r="H75" s="12" t="inlineStr">
+      <c r="H75" s="5" t="inlineStr">
         <is>
           <t>重庆建工3</t>
         </is>
@@ -11761,56 +11767,56 @@
           <t>海汽集团</t>
         </is>
       </c>
-      <c r="E76" s="19" t="inlineStr">
+      <c r="E76" s="14" t="inlineStr">
         <is>
           <t>电声股份</t>
         </is>
       </c>
-      <c r="G76" s="19" t="inlineStr">
+      <c r="G76" s="20" t="inlineStr">
         <is>
           <t>永和智控</t>
         </is>
       </c>
-      <c r="H76" s="7" t="inlineStr">
+      <c r="H76" s="6" t="inlineStr">
         <is>
           <t>丽尚国潮</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="19" t="inlineStr">
+      <c r="B77" s="20" t="inlineStr">
         <is>
           <t>佳隆股份</t>
         </is>
       </c>
-      <c r="E77" s="7" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>华纺股份</t>
         </is>
       </c>
-      <c r="G77" s="19" t="inlineStr">
+      <c r="G77" s="20" t="inlineStr">
         <is>
           <t>康弘药业</t>
         </is>
       </c>
-      <c r="H77" s="5" t="inlineStr">
+      <c r="H77" s="20" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="19" t="inlineStr">
+      <c r="B78" s="20" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
       </c>
-      <c r="E78" s="12" t="inlineStr">
+      <c r="E78" s="5" t="inlineStr">
         <is>
           <t>中铝国际2</t>
         </is>
       </c>
-      <c r="G78" s="4" t="inlineStr">
+      <c r="G78" s="9" t="inlineStr">
         <is>
           <t>福莱新材</t>
         </is>
@@ -11822,17 +11828,17 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="19" t="inlineStr">
+      <c r="B79" s="20" t="inlineStr">
         <is>
           <t>海德股份</t>
         </is>
       </c>
-      <c r="E79" s="5" t="inlineStr">
+      <c r="E79" s="20" t="inlineStr">
         <is>
           <t>北摩高科</t>
         </is>
       </c>
-      <c r="G79" s="12" t="inlineStr">
+      <c r="G79" s="14" t="inlineStr">
         <is>
           <t>恒锋信息2</t>
         </is>
@@ -11854,12 +11860,12 @@
           <t>石基信息2</t>
         </is>
       </c>
-      <c r="G80" s="12" t="inlineStr">
+      <c r="G80" s="9" t="inlineStr">
         <is>
           <t>浙江荣泰3</t>
         </is>
       </c>
-      <c r="H80" s="19" t="inlineStr">
+      <c r="H80" s="20" t="inlineStr">
         <is>
           <t>润阳科技</t>
         </is>
@@ -11876,24 +11882,24 @@
           <t>保税科技4</t>
         </is>
       </c>
-      <c r="G81" s="19" t="inlineStr">
+      <c r="G81" s="20" t="inlineStr">
         <is>
           <t>澳洋健康</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B82" s="12" t="inlineStr">
         <is>
           <t>泰豪科技2</t>
         </is>
       </c>
-      <c r="E82" s="19" t="inlineStr">
+      <c r="E82" s="20" t="inlineStr">
         <is>
           <t>一鸣食品</t>
         </is>
       </c>
-      <c r="G82" s="19" t="inlineStr">
+      <c r="G82" s="20" t="inlineStr">
         <is>
           <t>安妮股份</t>
         </is>
@@ -11910,19 +11916,19 @@
           <t>中锐股份</t>
         </is>
       </c>
-      <c r="G83" s="19" t="inlineStr">
+      <c r="G83" s="20" t="inlineStr">
         <is>
           <t>赤峰黄金</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="19" t="inlineStr">
+      <c r="B84" s="20" t="inlineStr">
         <is>
           <t>海南椰岛</t>
         </is>
       </c>
-      <c r="E84" s="7" t="inlineStr">
+      <c r="E84" s="4" t="inlineStr">
         <is>
           <t>南极电商2</t>
         </is>
@@ -11934,12 +11940,12 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="19" t="inlineStr">
+      <c r="B85" s="20" t="inlineStr">
         <is>
           <t>海马汽车</t>
         </is>
       </c>
-      <c r="E85" s="19" t="inlineStr">
+      <c r="E85" s="9" t="inlineStr">
         <is>
           <t>南都物业</t>
         </is>
@@ -11956,7 +11962,7 @@
           <t>海南发展</t>
         </is>
       </c>
-      <c r="E86" s="19" t="inlineStr">
+      <c r="E86" s="20" t="inlineStr">
         <is>
           <t>益盛药业</t>
         </is>
@@ -11968,48 +11974,48 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="19" t="inlineStr">
+      <c r="B87" s="20" t="inlineStr">
         <is>
           <t>富岭股份</t>
         </is>
       </c>
-      <c r="E87" s="19" t="inlineStr">
+      <c r="E87" s="20" t="inlineStr">
         <is>
           <t>恒基达鑫</t>
         </is>
       </c>
-      <c r="G87" s="9" t="inlineStr">
+      <c r="G87" s="13" t="inlineStr">
         <is>
           <t>百亚股份</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="19" t="inlineStr">
+      <c r="B88" s="20" t="inlineStr">
         <is>
           <t>葫芦娃</t>
         </is>
       </c>
-      <c r="G88" s="19" t="inlineStr">
+      <c r="G88" s="20" t="inlineStr">
         <is>
           <t>岳阳林纸</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="12" t="inlineStr">
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>格林达2</t>
         </is>
       </c>
-      <c r="G89" s="19" t="inlineStr">
+      <c r="G89" s="20" t="inlineStr">
         <is>
           <t>应流股份</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="12" t="inlineStr">
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>松炀资源2</t>
         </is>
@@ -12021,7 +12027,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="9" t="inlineStr">
+      <c r="B91" s="13" t="inlineStr">
         <is>
           <t>隆鑫通用</t>
         </is>
@@ -12038,7 +12044,7 @@
           <t>川润股份2</t>
         </is>
       </c>
-      <c r="G92" s="19" t="inlineStr">
+      <c r="G92" s="14" t="inlineStr">
         <is>
           <t>润建股份</t>
         </is>
@@ -12057,55 +12063,55 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="19" t="inlineStr">
+      <c r="B94" s="20" t="inlineStr">
         <is>
           <t>远达环保</t>
         </is>
       </c>
-      <c r="G94" s="12" t="inlineStr">
+      <c r="G94" s="5" t="inlineStr">
         <is>
           <t>永安药业5</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="11" t="inlineStr">
+      <c r="B95" s="13" t="inlineStr">
         <is>
           <t>汇通能源</t>
         </is>
       </c>
-      <c r="G95" s="12" t="inlineStr">
+      <c r="G95" s="5" t="inlineStr">
         <is>
           <t>三房巷2</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="19" t="inlineStr">
+      <c r="B96" s="20" t="inlineStr">
         <is>
           <t>百隆东方</t>
         </is>
       </c>
-      <c r="G96" s="19" t="inlineStr">
+      <c r="G96" s="20" t="inlineStr">
         <is>
           <t>日出东方</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="12" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>九鼎投资2</t>
         </is>
       </c>
-      <c r="G97" s="9" t="inlineStr">
+      <c r="G97" s="13" t="inlineStr">
         <is>
           <t>湖南黄金2</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="B98" s="19" t="inlineStr">
+      <c r="B98" s="20" t="inlineStr">
         <is>
           <t>天晟新材</t>
         </is>
@@ -12117,7 +12123,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" s="9" t="inlineStr">
+      <c r="B99" s="13" t="inlineStr">
         <is>
           <t>联合化学2</t>
         </is>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -141,14 +141,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -330,6 +330,12 @@
 零售+参股券商+参投御道智算</t>
       </text>
     </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:31:42 0
+曾研发外骨骼机器人用电缆+军工+航空航天+数据中心</t>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>9天7板 09:43:07 13
@@ -408,6 +414,12 @@
 房地产+大飞机+天津国企</t>
       </text>
     </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 10:11:51 3
+大飞机+航空材料+AI眼镜+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <t>5天5板 09:30:00 0
@@ -486,6 +498,12 @@
 环氧丙烷+混凝土外加剂</t>
       </text>
     </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <t>7天4板 10:46:11 9
+电力+央企+一季报净利增长+海上风电</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t>5天5板 09:30:06 0
@@ -564,6 +582,12 @@
 涂料制造+氢能源+重庆国资+年报扭亏</t>
       </text>
     </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 0
+摘帽+AH两地上市+调入港股通</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>7天5板 14:55:47 0
@@ -642,6 +666,12 @@
 PEEK材料+氟化工+业绩增长</t>
       </text>
     </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:03 0
+脑机接口+智能电动床+鸿蒙+外销</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>5天4板 10:34:22 0
@@ -720,6 +750,12 @@
 机器人+出海+建筑装饰+业绩改善</t>
       </text>
     </comment>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:25 0
+一季报扭亏+扫地机器人+家电</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>6天4板 13:19:53 0
@@ -798,6 +834,12 @@
 曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
       </text>
     </comment>
+    <comment ref="O8" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:38:00 4
+跨境电商+电子商务+服装纺织+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>4天4板 14:01:10 4
@@ -876,6 +918,12 @@
 算力+机器人+防爆设备+智能矿山</t>
       </text>
     </comment>
+    <comment ref="O9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+智慧灯杆+换电+液冷</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>4天3板 09:30:00 0
@@ -954,6 +1002,12 @@
 铝合金轮毂+北美市场+锂电池回收</t>
       </text>
     </comment>
+    <comment ref="O10" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+签订2.97亿元光学系统研制合同+大股东长春光机所</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
@@ -1032,6 +1086,12 @@
 一季报增长+大飞机+航空材料+AI眼镜</t>
       </text>
     </comment>
+    <comment ref="O11" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 0
+军工电子+低空经济+医疗装备+央企</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:32:21 3
@@ -1110,6 +1170,12 @@
 人形机器人+大飞机+军工+国企</t>
       </text>
     </comment>
+    <comment ref="O12" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:39:15 0
+成飞概念+军工+汽车零部件+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -1188,6 +1254,12 @@
 机器人概念+园林机械+一季度业绩增长+全球化布局</t>
       </text>
     </comment>
+    <comment ref="O13" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:41:18 1
+航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -1260,6 +1332,12 @@
 医药商业+医疗器械+央企</t>
       </text>
     </comment>
+    <comment ref="O14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:46:42 4
+航空零部件+大飞机+军工+机器人</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -1326,6 +1404,12 @@
 摘帽+AH两地上市+调入港股通</t>
       </text>
     </comment>
+    <comment ref="O15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:19:09 0
+军工+卫星通信+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -1404,6 +1488,12 @@
 华为+智能家居+脑机接口+机器人</t>
       </text>
     </comment>
+    <comment ref="O16" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 13:46:45 0
+数据中心+小型发电机+柴油发电机组+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:44:52 2
@@ -1476,6 +1566,12 @@
 华为昇腾+腾讯+机器人+AI应用</t>
       </text>
     </comment>
+    <comment ref="O17" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 14:43:33 0
+航空装备+军工+无人机</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:04:07 6
@@ -1626,6 +1722,12 @@
 脑机接口+智能电动床+鸿蒙+外销</t>
       </text>
     </comment>
+    <comment ref="O19" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 0
+美国撤销越南部分钢制车轮范围调查+汽车车轮</t>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:14:37 0
@@ -1698,6 +1800,12 @@
 钙钛矿电池+液冷超充+华为+设立半导体合资公司</t>
       </text>
     </comment>
+    <comment ref="O20" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 0
+人形机器人+智慧城市</t>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>2天2板 13:28:53 0
@@ -1776,6 +1884,12 @@
 算力+DeepSeek概念+家电零部件</t>
       </text>
     </comment>
+    <comment ref="O21" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 1
+控股股东、实控人拟变更+油服工程+海外业务拓展</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>2天2板 14:49:47 0
@@ -1854,6 +1968,12 @@
 一季报扭亏+扫地机器人+家电</t>
       </text>
     </comment>
+    <comment ref="O22" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:02 0
+机器人用高精密减速机+航空零部件+无人机+汽车传动系统</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>3天2板 14:53:32 0
@@ -1932,6 +2052,12 @@
 墨西哥生产基地+汽车内饰新材料+小鹏汽车</t>
       </text>
     </comment>
+    <comment ref="O23" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:02 0
+摘帽+解决同业竞争承诺+氢能源</t>
+      </text>
+    </comment>
     <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <t>3天2板 09:54:42 0
@@ -2004,6 +2130,12 @@
 一季报增长+代糖概念+客户合作</t>
       </text>
     </comment>
+    <comment ref="O24" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:01 1
+脑机接口+AI大模型+机器人概念+外销</t>
+      </text>
+    </comment>
     <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 5
@@ -2082,6 +2214,12 @@
 半导体材料+光伏设备+稀土永磁</t>
       </text>
     </comment>
+    <comment ref="O25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:03 0
+控制权变更+口腔医疗</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:36 2
@@ -2160,6 +2298,12 @@
 一季报净利增长+布局低空经济+化学纤维+防弹材料</t>
       </text>
     </comment>
+    <comment ref="O26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:33 0
+机器人概念+水泥装备+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:21 6
@@ -2220,6 +2364,12 @@
 机器人概念+园林机械+一季度业绩增长+全球化布局</t>
       </text>
     </comment>
+    <comment ref="O27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:45 0
+资产重组+人形机器人+汽车零部件+低空经济</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:21 6
@@ -2292,6 +2442,12 @@
 签订2.97亿元光学系统研制合同+大股东长春光机所</t>
       </text>
     </comment>
+    <comment ref="O28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:54 0
+机器人概念+煤矿机械+年报营收增长</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:33:22 1
@@ -2370,6 +2526,12 @@
 智慧灯杆+换电+液冷</t>
       </text>
     </comment>
+    <comment ref="O29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:34:43 0
+磁悬浮压缩机+液冷+算力</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:52 0
@@ -2436,6 +2598,12 @@
 期货+江苏国资+AH两地上市</t>
       </text>
     </comment>
+    <comment ref="O30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:36:27 0
+跨境电商+儿童自行车+两轮车+外销</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:39:22 0
@@ -2514,6 +2682,12 @@
 实控人将变更为中创新航+汽车零部件</t>
       </text>
     </comment>
+    <comment ref="O31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:36:33 3
+两轮车+首发经济+上海国资+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:44:52 1
@@ -2592,6 +2766,12 @@
 医药制造+西部大开发</t>
       </text>
     </comment>
+    <comment ref="O32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:37:57 0
+人形机器人+宇树科技合作+教育+鸿蒙</t>
+      </text>
+    </comment>
     <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:47:37 0
@@ -2670,6 +2850,12 @@
 房地产+实景演艺+一季报扭亏</t>
       </text>
     </comment>
+    <comment ref="O33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:40:21 0
+跨境电商+欧美用户</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:49:22 2
@@ -2748,6 +2934,12 @@
 外骨骼机器人+智能化塑机+薄膜+国企</t>
       </text>
     </comment>
+    <comment ref="O34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:44:54 0
+减速器+汽车整车</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:52:07 0
@@ -2826,6 +3018,12 @@
 低空经济+通用机械+业绩增长</t>
       </text>
     </comment>
+    <comment ref="O35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:47:29 30
+无收购“宠胖胖”安排+实控人拟变更+生态景观+城市更新</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:12:37 0
@@ -2904,6 +3102,12 @@
 军工电子+低空经济+医疗装备+央企</t>
       </text>
     </comment>
+    <comment ref="O36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:48:18 0
+零售+免税店+调改升级+湖北国资</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:14:52 0
@@ -2982,6 +3186,12 @@
 航空装备+军工+无人机</t>
       </text>
     </comment>
+    <comment ref="O37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:48:22 1
+一季报增长+智能制造+压缩机+汽车零部件</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:30:07 0
@@ -3060,6 +3270,12 @@
 兵装重组概念+汽车零部件+柴油机增压器</t>
       </text>
     </comment>
+    <comment ref="O38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:49:17 0
+大型压缩机零部件+高精度零部件+美墨工厂</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:47:07 1
@@ -3138,6 +3354,12 @@
 机器人+服务器测试+自动化设备</t>
       </text>
     </comment>
+    <comment ref="O39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:50:18 1
+军工+新能源+控股股东增持</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:54:37 2
@@ -3216,6 +3438,12 @@
 减肥药+肝素产业链+一季报扭亏</t>
       </text>
     </comment>
+    <comment ref="O40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:53:57 0
+轨交设备+维保市场+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:11:53 0
@@ -3294,6 +3522,12 @@
 网约车+股权投资</t>
       </text>
     </comment>
+    <comment ref="O41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:59:24 0
+空气动力设备+压缩机+中俄贸易</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:14:38 0
@@ -3372,6 +3606,12 @@
 煤化工+乙二醇+可降解塑料</t>
       </text>
     </comment>
+    <comment ref="O42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:59:54 0
+压缩机+半导体真空泵</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:25:38 2
@@ -3444,6 +3684,12 @@
 光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
       </text>
     </comment>
+    <comment ref="O43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:07:03 0
+磁悬浮技术产品+物流搬运机器人+核电+国企</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:08:53 0
@@ -3516,6 +3762,12 @@
 液冷+数据中心+泵</t>
       </text>
     </comment>
+    <comment ref="O44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:09:22 2
+压缩机+汽车零部件</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:25:08 4
@@ -3588,6 +3840,12 @@
 聚醚多元醇+化工</t>
       </text>
     </comment>
+    <comment ref="O45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:11:06 0
+空调压缩机+曾炒作过光刻机概念</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:29:23 0
@@ -3660,6 +3918,12 @@
 钛白粉+磷化工+锂电池</t>
       </text>
     </comment>
+    <comment ref="O46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:14:48 0
+一体化压铸+低空经济+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:32:38 0
@@ -3732,6 +3996,12 @@
 航空零部件+大飞机+军工+机器人</t>
       </text>
     </comment>
+    <comment ref="O47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:20:39 0
+军工+大飞机+电线电缆</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 14:01:55 0
@@ -3804,6 +4074,12 @@
 航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
       </text>
     </comment>
+    <comment ref="O48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:20:48 0
+压缩机+节能环保装备+预重整+国企改革</t>
+      </text>
+    </comment>
     <comment ref="C49" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:48:32 0
@@ -3870,6 +4146,12 @@
 减速器+汽车轴承+军工</t>
       </text>
     </comment>
+    <comment ref="O49" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:22:27 0
+智能座舱+特斯拉+智能交互+外销</t>
+      </text>
+    </comment>
     <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:50:27 1
@@ -3936,6 +4218,12 @@
 零售+养老+上海国企改革</t>
       </text>
     </comment>
+    <comment ref="O50" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:51:39 0
+铜缆高速连接+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:51:12 0
@@ -4002,6 +4290,12 @@
 中兵系+军工+机器人+无人驾驶</t>
       </text>
     </comment>
+    <comment ref="O51" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:57:45 0
+视觉内容版权+华为盘古+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="C52" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:51:27 0
@@ -4068,6 +4362,12 @@
 成飞概念+汽车零部件+一季报扭亏+国企改革</t>
       </text>
     </comment>
+    <comment ref="O52" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:58:09 0
+数字基础设施建设+AI智能体+糖业大模型+腾讯</t>
+      </text>
+    </comment>
     <comment ref="C53" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:54:27 0
@@ -4134,6 +4434,12 @@
 应急装备+机器人概念+国企改革</t>
       </text>
     </comment>
+    <comment ref="O53" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:20:57 3
+鸿蒙概念+脑机接口+中科系</t>
+      </text>
+    </comment>
     <comment ref="C54" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:54:42 0
@@ -4200,6 +4506,12 @@
 矿用车+无人驾驶+氢能源+国企</t>
       </text>
     </comment>
+    <comment ref="O54" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:24 0
+压缩机+数据中心+液冷服务器+超导磁体冷却设备</t>
+      </text>
+    </comment>
     <comment ref="C55" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:55:57 0
@@ -4260,6 +4572,12 @@
 军工+卫星通信+一季报增长</t>
       </text>
     </comment>
+    <comment ref="O55" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:03:46 6
+高速光模块+数据中心+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="C56" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:56:42 1
@@ -4320,6 +4638,12 @@
 季戊四醇+化肥+国企</t>
       </text>
     </comment>
+    <comment ref="O56" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:22:00 0
+消费电子+马达+华为概念+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="C57" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:07:44 0
@@ -4380,6 +4704,12 @@
 智慧家居+回购</t>
       </text>
     </comment>
+    <comment ref="O57" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:39:39 0
+零售+免税店+仓储物流+一带一路</t>
+      </text>
+    </comment>
     <comment ref="C58" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:13:02 7
@@ -4440,6 +4770,12 @@
 化工+股东变更+国企</t>
       </text>
     </comment>
+    <comment ref="O58" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:52:57 0
+航空装备+军贸+无人机+人形机器人</t>
+      </text>
+    </comment>
     <comment ref="C59" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:16:17 0
@@ -4494,6 +4830,12 @@
 航天工程+深海工程+一季报增长</t>
       </text>
     </comment>
+    <comment ref="O59" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:03:01 0
+水泥+医药+一季报净利大增+国企改革</t>
+      </text>
+    </comment>
     <comment ref="C60" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:17:32 0
@@ -4548,6 +4890,12 @@
 特种钢丝+纺织器材+AI音乐+国企改革</t>
       </text>
     </comment>
+    <comment ref="O60" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:11:27 0
+军工信息化+电梯</t>
+      </text>
+    </comment>
     <comment ref="C61" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:23:48 0
@@ -4596,6 +4944,12 @@
 环氧丙烷+光刻胶</t>
       </text>
     </comment>
+    <comment ref="O61" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:13:03 0
+卫星通信+6G+对讲机终端+一带一路</t>
+      </text>
+    </comment>
     <comment ref="C62" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:30:18 6
@@ -4644,6 +4998,12 @@
 季戊四醇+中字头+一季报增长</t>
       </text>
     </comment>
+    <comment ref="O62" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:36:09 0
+民爆+央企+并购重组预期</t>
+      </text>
+    </comment>
     <comment ref="C63" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:31:48 0
@@ -4686,6 +5046,12 @@
 AI应用+人形机器人+营收增长</t>
       </text>
     </comment>
+    <comment ref="O63" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:41:54 0
+雷达+军工+低空经济+国企</t>
+      </text>
+    </comment>
     <comment ref="C64" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:33:48 3
@@ -4720,6 +5086,12 @@
       <text>
         <t>首板涨停 10:18:58 0
 柴油机+获道路测试牌照+配送机器人+昆明国企</t>
+      </text>
+    </comment>
+    <comment ref="O64" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:46:57 0
+摘帽+猪肉+电子商务</t>
       </text>
     </comment>
     <comment ref="C65" authorId="0" shapeId="0">
@@ -5717,7 +6089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5739,6 +6111,7 @@
     <col width="15" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5812,6 +6185,11 @@
           <t>2025年05月07日</t>
         </is>
       </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -5884,9 +6262,14 @@
           <t>国芳集团14</t>
         </is>
       </c>
+      <c r="O2" s="9" t="inlineStr">
+        <is>
+          <t>中超控股4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>跨境电商</t>
         </is>
@@ -5906,12 +6289,12 @@
           <t>国光连锁5</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>中旗新材8</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>中旗新材9</t>
         </is>
@@ -5941,7 +6324,7 @@
           <t>永安药业5</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr">
+      <c r="L3" s="12" t="inlineStr">
         <is>
           <t>渝三峡A4</t>
         </is>
@@ -5951,9 +6334,14 @@
           <t>先达股份6</t>
         </is>
       </c>
-      <c r="N3" s="12" t="inlineStr">
+      <c r="N3" s="9" t="inlineStr">
         <is>
           <t>天保基建7</t>
+        </is>
+      </c>
+      <c r="O3" s="9" t="inlineStr">
+        <is>
+          <t>润贝航科4</t>
         </is>
       </c>
     </row>
@@ -5963,12 +6351,12 @@
           <t>电力</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>曙光股份5</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>双成药业5</t>
         </is>
@@ -6018,7 +6406,7 @@
           <t>东珠生态4</t>
         </is>
       </c>
-      <c r="M4" s="11" t="inlineStr">
+      <c r="M4" s="12" t="inlineStr">
         <is>
           <t>渝三峡A5</t>
         </is>
@@ -6026,6 +6414,11 @@
       <c r="N4" s="8" t="inlineStr">
         <is>
           <t>红墙股份7</t>
+        </is>
+      </c>
+      <c r="O4" s="7" t="inlineStr">
+        <is>
+          <t>华电辽能4</t>
         </is>
       </c>
     </row>
@@ -6095,9 +6488,14 @@
           <t>华银电力4</t>
         </is>
       </c>
-      <c r="N5" s="11" t="inlineStr">
+      <c r="N5" s="12" t="inlineStr">
         <is>
           <t>渝三峡A6</t>
+        </is>
+      </c>
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t>山东墨龙3</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6535,7 @@
           <t>海联金汇3</t>
         </is>
       </c>
-      <c r="H6" s="12" t="inlineStr">
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t>天保基建6</t>
         </is>
@@ -6170,6 +6568,11 @@
       <c r="N6" s="8" t="inlineStr">
         <is>
           <t>中欣氟材6</t>
+        </is>
+      </c>
+      <c r="O6" s="6" t="inlineStr">
+        <is>
+          <t>麒盛科技3</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6582,7 @@
           <t>大消费</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>双成药业4</t>
         </is>
@@ -6199,7 +6602,7 @@
           <t>立方制药5</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>天保基建5</t>
         </is>
@@ -6224,7 +6627,7 @@
           <t>华银电力3</t>
         </is>
       </c>
-      <c r="K7" s="11" t="inlineStr">
+      <c r="K7" s="12" t="inlineStr">
         <is>
           <t>渝三峡A3</t>
         </is>
@@ -6242,6 +6645,11 @@
       <c r="N7" s="6" t="inlineStr">
         <is>
           <t>全筑股份4</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>春光科技3</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6689,7 @@
           <t>先达股份3</t>
         </is>
       </c>
-      <c r="H8" s="10" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>双成药业6</t>
         </is>
@@ -6311,9 +6719,14 @@
           <t>新坐标3</t>
         </is>
       </c>
-      <c r="N8" s="12" t="inlineStr">
+      <c r="N8" s="9" t="inlineStr">
         <is>
           <t>中超控股3</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>华纺股份3</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6751,7 @@
           <t>特力A3</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>天保基建4</t>
         </is>
@@ -6386,6 +6799,11 @@
       <c r="N9" s="5" t="inlineStr">
         <is>
           <t>电光科技3</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>豪尔赛2</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6823,7 @@
           <t>安记食品3</t>
         </is>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>天保基建3</t>
         </is>
@@ -6455,9 +6873,14 @@
           <t>汉商集团3</t>
         </is>
       </c>
-      <c r="N10" s="11" t="inlineStr">
+      <c r="N10" s="12" t="inlineStr">
         <is>
           <t>迪生力3</t>
+        </is>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>奥普光电2</t>
         </is>
       </c>
     </row>
@@ -6527,9 +6950,14 @@
           <t>华电辽能3</t>
         </is>
       </c>
-      <c r="N11" s="12" t="inlineStr">
+      <c r="N11" s="9" t="inlineStr">
         <is>
           <t>润贝航科3</t>
+        </is>
+      </c>
+      <c r="O11" s="9" t="inlineStr">
+        <is>
+          <t>航天长峰2</t>
         </is>
       </c>
     </row>
@@ -6594,14 +7022,19 @@
           <t>金麒麟2</t>
         </is>
       </c>
-      <c r="M12" s="11" t="inlineStr">
+      <c r="M12" s="12" t="inlineStr">
         <is>
           <t>迪生力2</t>
         </is>
       </c>
-      <c r="N12" s="12" t="inlineStr">
+      <c r="N12" s="9" t="inlineStr">
         <is>
           <t>龙溪股份3</t>
+        </is>
+      </c>
+      <c r="O12" s="9" t="inlineStr">
+        <is>
+          <t>成飞集成2</t>
         </is>
       </c>
     </row>
@@ -6672,6 +7105,11 @@
           <t>大叶股份3</t>
         </is>
       </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>华伍股份2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="inlineStr">
@@ -6725,7 +7163,7 @@
         </is>
       </c>
       <c r="L14" s="25" t="n"/>
-      <c r="M14" s="12" t="inlineStr">
+      <c r="M14" s="9" t="inlineStr">
         <is>
           <t>中超控股2</t>
         </is>
@@ -6733,6 +7171,11 @@
       <c r="N14" s="5" t="inlineStr">
         <is>
           <t>嘉事堂2</t>
+        </is>
+      </c>
+      <c r="O14" s="9" t="inlineStr">
+        <is>
+          <t>利君股份2</t>
         </is>
       </c>
     </row>
@@ -6767,7 +7210,7 @@
           <t>浙江荣泰2</t>
         </is>
       </c>
-      <c r="H15" s="12" t="inlineStr">
+      <c r="H15" s="9" t="inlineStr">
         <is>
           <t>润贝航科4</t>
         </is>
@@ -6779,12 +7222,12 @@
         </is>
       </c>
       <c r="K15" s="25" t="n"/>
-      <c r="L15" s="11" t="inlineStr">
+      <c r="L15" s="12" t="inlineStr">
         <is>
           <t>兴民智通</t>
         </is>
       </c>
-      <c r="M15" s="11" t="inlineStr">
+      <c r="M15" s="12" t="inlineStr">
         <is>
           <t>兴民智通2</t>
         </is>
@@ -6792,6 +7235,11 @@
       <c r="N15" s="6" t="inlineStr">
         <is>
           <t>山东墨龙2</t>
+        </is>
+      </c>
+      <c r="O15" s="9" t="inlineStr">
+        <is>
+          <t>天箭科技2</t>
         </is>
       </c>
     </row>
@@ -6861,6 +7309,11 @@
           <t>狄耐克2</t>
         </is>
       </c>
+      <c r="O16" s="7" t="inlineStr">
+        <is>
+          <t>神驰机电2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="21" t="inlineStr">
@@ -6883,7 +7336,7 @@
           <t>百大集团2</t>
         </is>
       </c>
-      <c r="F17" s="12" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>润贝航科3</t>
         </is>
@@ -6899,7 +7352,7 @@
           <t>惠而浦</t>
         </is>
       </c>
-      <c r="J17" s="11" t="inlineStr">
+      <c r="J17" s="12" t="inlineStr">
         <is>
           <t>渝三峡A2</t>
         </is>
@@ -6922,6 +7375,11 @@
       <c r="N17" s="5" t="inlineStr">
         <is>
           <t>华胜天成2</t>
+        </is>
+      </c>
+      <c r="O17" s="9" t="inlineStr">
+        <is>
+          <t>晨曦航空2</t>
         </is>
       </c>
     </row>
@@ -6941,7 +7399,7 @@
           <t>宏昌电子2</t>
         </is>
       </c>
-      <c r="E18" s="12" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>润贝航科2</t>
         </is>
@@ -6972,7 +7430,7 @@
           <t>今创集团</t>
         </is>
       </c>
-      <c r="L18" s="12" t="inlineStr">
+      <c r="L18" s="9" t="inlineStr">
         <is>
           <t>中超控股</t>
         </is>
@@ -6987,6 +7445,7 @@
           <t>华纺股份2</t>
         </is>
       </c>
+      <c r="O18" s="25" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="24" t="inlineStr">
@@ -7004,7 +7463,7 @@
           <t>红蜻蜓2</t>
         </is>
       </c>
-      <c r="E19" s="12" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>航发科技2</t>
         </is>
@@ -7034,7 +7493,7 @@
           <t>绿康生化</t>
         </is>
       </c>
-      <c r="K19" s="11" t="inlineStr">
+      <c r="K19" s="12" t="inlineStr">
         <is>
           <t>天奇股份</t>
         </is>
@@ -7044,7 +7503,7 @@
           <t>通鼎互联</t>
         </is>
       </c>
-      <c r="M19" s="12" t="inlineStr">
+      <c r="M19" s="9" t="inlineStr">
         <is>
           <t>润贝航科2</t>
         </is>
@@ -7052,6 +7511,11 @@
       <c r="N19" s="6" t="inlineStr">
         <is>
           <t>麒盛科技2</t>
+        </is>
+      </c>
+      <c r="O19" s="19" t="inlineStr">
+        <is>
+          <t>日上集团</t>
         </is>
       </c>
     </row>
@@ -7112,9 +7576,14 @@
           <t>常山北明2</t>
         </is>
       </c>
-      <c r="N20" s="10" t="inlineStr">
+      <c r="N20" s="11" t="inlineStr">
         <is>
           <t>宝馨科技2</t>
+        </is>
+      </c>
+      <c r="O20" s="19" t="inlineStr">
+        <is>
+          <t>侨银股份</t>
         </is>
       </c>
     </row>
@@ -7144,7 +7613,7 @@
           <t>安正时尚2</t>
         </is>
       </c>
-      <c r="G21" s="11" t="inlineStr">
+      <c r="G21" s="12" t="inlineStr">
         <is>
           <t>春秋电子</t>
         </is>
@@ -7159,12 +7628,12 @@
           <t>珀莱雅</t>
         </is>
       </c>
-      <c r="J21" s="11" t="inlineStr">
+      <c r="J21" s="12" t="inlineStr">
         <is>
           <t>普路通</t>
         </is>
       </c>
-      <c r="K21" s="11" t="inlineStr">
+      <c r="K21" s="12" t="inlineStr">
         <is>
           <t>三和管桩</t>
         </is>
@@ -7182,6 +7651,11 @@
       <c r="N21" s="5" t="inlineStr">
         <is>
           <t>禾盛新材2</t>
+        </is>
+      </c>
+      <c r="O21" s="19" t="inlineStr">
+        <is>
+          <t>贝肯能源</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7665,7 @@
           <t>红宝丽2</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>天保基建2</t>
         </is>
@@ -7231,7 +7705,7 @@
           <t>华阳新材</t>
         </is>
       </c>
-      <c r="K22" s="11" t="inlineStr">
+      <c r="K22" s="12" t="inlineStr">
         <is>
           <t>迪生力</t>
         </is>
@@ -7249,6 +7723,11 @@
       <c r="N22" s="5" t="inlineStr">
         <is>
           <t>春光科技2</t>
+        </is>
+      </c>
+      <c r="O22" s="19" t="inlineStr">
+        <is>
+          <t>豪能股份</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7742,7 @@
           <t>金陵饭店2</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>三湘印象</t>
         </is>
@@ -7308,7 +7787,7 @@
           <t>新兴装备</t>
         </is>
       </c>
-      <c r="M23" s="12" t="inlineStr">
+      <c r="M23" s="9" t="inlineStr">
         <is>
           <t>龙溪股份2</t>
         </is>
@@ -7316,6 +7795,11 @@
       <c r="N23" s="5" t="inlineStr">
         <is>
           <t>明新旭腾2</t>
+        </is>
+      </c>
+      <c r="O23" s="12" t="inlineStr">
+        <is>
+          <t>汉马科技</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7830,7 @@
           <t>永茂泰</t>
         </is>
       </c>
-      <c r="H24" s="10" t="inlineStr">
+      <c r="H24" s="11" t="inlineStr">
         <is>
           <t>西陇科学2</t>
         </is>
@@ -7379,6 +7863,11 @@
       <c r="N24" s="5" t="inlineStr">
         <is>
           <t>保龄宝2</t>
+        </is>
+      </c>
+      <c r="O24" s="6" t="inlineStr">
+        <is>
+          <t>荣泰健康</t>
         </is>
       </c>
     </row>
@@ -7408,12 +7897,12 @@
           <t>信雅达2</t>
         </is>
       </c>
-      <c r="G25" s="12" t="inlineStr">
+      <c r="G25" s="9" t="inlineStr">
         <is>
           <t>襄阳轴承</t>
         </is>
       </c>
-      <c r="H25" s="11" t="inlineStr">
+      <c r="H25" s="12" t="inlineStr">
         <is>
           <t>三维化学2</t>
         </is>
@@ -7438,14 +7927,19 @@
           <t>翠微股份</t>
         </is>
       </c>
-      <c r="M25" s="10" t="inlineStr">
+      <c r="M25" s="11" t="inlineStr">
         <is>
           <t>日盈电子2</t>
         </is>
       </c>
-      <c r="N25" s="11" t="inlineStr">
+      <c r="N25" s="12" t="inlineStr">
         <is>
           <t>京运通2</t>
+        </is>
+      </c>
+      <c r="O25" s="19" t="inlineStr">
+        <is>
+          <t>皓宸医疗</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7994,7 @@
           <t>蓝帆医疗</t>
         </is>
       </c>
-      <c r="L26" s="10" t="inlineStr">
+      <c r="L26" s="11" t="inlineStr">
         <is>
           <t>探路者</t>
         </is>
@@ -7513,6 +8007,11 @@
       <c r="N26" s="5" t="inlineStr">
         <is>
           <t>恒天海龙2</t>
+        </is>
+      </c>
+      <c r="O26" s="19" t="inlineStr">
+        <is>
+          <t>冀东装备</t>
         </is>
       </c>
     </row>
@@ -7528,7 +8027,7 @@
           <t>新能泰山</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr">
         <is>
           <t>仁智股份2</t>
         </is>
@@ -7559,7 +8058,7 @@
           <t>博创科技</t>
         </is>
       </c>
-      <c r="L27" s="11" t="inlineStr">
+      <c r="L27" s="12" t="inlineStr">
         <is>
           <t>振江股份</t>
         </is>
@@ -7570,6 +8069,11 @@
         </is>
       </c>
       <c r="N27" s="25" t="n"/>
+      <c r="O27" s="19" t="inlineStr">
+        <is>
+          <t>万向钱潮</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="19" t="inlineStr">
@@ -7582,7 +8086,7 @@
           <t>新宏泽</t>
         </is>
       </c>
-      <c r="D28" s="10" t="inlineStr">
+      <c r="D28" s="11" t="inlineStr">
         <is>
           <t>达利凯普</t>
         </is>
@@ -7602,7 +8106,7 @@
           <t>健尔康</t>
         </is>
       </c>
-      <c r="H28" s="11" t="inlineStr">
+      <c r="H28" s="12" t="inlineStr">
         <is>
           <t>迪生力</t>
         </is>
@@ -7622,15 +8126,20 @@
           <t>奥拓电子</t>
         </is>
       </c>
-      <c r="L28" s="12" t="inlineStr">
+      <c r="L28" s="9" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
-      <c r="N28" s="19" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>奥普光电</t>
+        </is>
+      </c>
+      <c r="O28" s="19" t="inlineStr">
+        <is>
+          <t>冀凯股份</t>
         </is>
       </c>
     </row>
@@ -7650,7 +8159,7 @@
           <t>巨力索具</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="11" t="inlineStr">
         <is>
           <t>国风新材2</t>
         </is>
@@ -7670,7 +8179,7 @@
           <t>好想你</t>
         </is>
       </c>
-      <c r="I29" s="11" t="inlineStr">
+      <c r="I29" s="12" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
@@ -7680,7 +8189,7 @@
           <t>德生科技</t>
         </is>
       </c>
-      <c r="K29" s="11" t="inlineStr">
+      <c r="K29" s="12" t="inlineStr">
         <is>
           <t>聚赛龙</t>
         </is>
@@ -7695,14 +8204,19 @@
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="N29" s="19" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>豪尔赛</t>
         </is>
       </c>
+      <c r="O29" s="19" t="inlineStr">
+        <is>
+          <t>佳力图</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="12" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
@@ -7734,7 +8248,7 @@
           <t>华电辽能</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr">
+      <c r="J30" s="12" t="inlineStr">
         <is>
           <t>四川金顶</t>
         </is>
@@ -7757,6 +8271,11 @@
       <c r="N30" s="19" t="inlineStr">
         <is>
           <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="O30" s="6" t="inlineStr">
+        <is>
+          <t>久祺股份</t>
         </is>
       </c>
     </row>
@@ -7826,6 +8345,11 @@
           <t>苏奥传感</t>
         </is>
       </c>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>上海凤凰</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="19" t="inlineStr">
@@ -7843,7 +8367,7 @@
           <t>武汉凡谷</t>
         </is>
       </c>
-      <c r="E32" s="11" t="inlineStr">
+      <c r="E32" s="12" t="inlineStr">
         <is>
           <t>琏升科技</t>
         </is>
@@ -7891,6 +8415,11 @@
       <c r="N32" s="19" t="inlineStr">
         <is>
           <t>易明医药</t>
+        </is>
+      </c>
+      <c r="O32" s="19" t="inlineStr">
+        <is>
+          <t>盛通股份</t>
         </is>
       </c>
     </row>
@@ -7900,7 +8429,7 @@
           <t>维维股份</t>
         </is>
       </c>
-      <c r="C33" s="10" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
@@ -7930,7 +8459,7 @@
           <t>华银电力</t>
         </is>
       </c>
-      <c r="I33" s="11" t="inlineStr">
+      <c r="I33" s="12" t="inlineStr">
         <is>
           <t>方大集团</t>
         </is>
@@ -7955,9 +8484,14 @@
           <t>兄弟科技</t>
         </is>
       </c>
-      <c r="N33" s="11" t="inlineStr">
+      <c r="N33" s="12" t="inlineStr">
         <is>
           <t>三湘印象</t>
+        </is>
+      </c>
+      <c r="O33" s="6" t="inlineStr">
+        <is>
+          <t>跨境通</t>
         </is>
       </c>
     </row>
@@ -7967,7 +8501,7 @@
           <t>恒锋信息</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
@@ -8025,6 +8559,11 @@
       <c r="N34" s="19" t="inlineStr">
         <is>
           <t>金明精机</t>
+        </is>
+      </c>
+      <c r="O34" s="19" t="inlineStr">
+        <is>
+          <t>山子高科</t>
         </is>
       </c>
     </row>
@@ -8094,6 +8633,11 @@
           <t>宗申动力</t>
         </is>
       </c>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>大千生态</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="B36" s="5" t="inlineStr">
@@ -8146,19 +8690,24 @@
           <t>利欧股份</t>
         </is>
       </c>
-      <c r="L36" s="10" t="inlineStr">
+      <c r="L36" s="11" t="inlineStr">
         <is>
           <t>冠石科技</t>
         </is>
       </c>
-      <c r="M36" s="10" t="inlineStr">
+      <c r="M36" s="11" t="inlineStr">
         <is>
           <t>宝馨科技</t>
         </is>
       </c>
-      <c r="N36" s="12" t="inlineStr">
+      <c r="N36" s="9" t="inlineStr">
         <is>
           <t>航天长峰</t>
+        </is>
+      </c>
+      <c r="O36" s="4" t="inlineStr">
+        <is>
+          <t>中百集团</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8727,7 @@
           <t>华脉科技</t>
         </is>
       </c>
-      <c r="E37" s="12" t="inlineStr">
+      <c r="E37" s="9" t="inlineStr">
         <is>
           <t>利君股份</t>
         </is>
@@ -8208,7 +8757,7 @@
           <t>弘景光电</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr">
+      <c r="K37" s="11" t="inlineStr">
         <is>
           <t>日盈电子</t>
         </is>
@@ -8223,9 +8772,14 @@
           <t>莎普爱思</t>
         </is>
       </c>
-      <c r="N37" s="12" t="inlineStr">
+      <c r="N37" s="9" t="inlineStr">
         <is>
           <t>晨曦航空</t>
+        </is>
+      </c>
+      <c r="O37" s="19" t="inlineStr">
+        <is>
+          <t>华翔股份</t>
         </is>
       </c>
     </row>
@@ -8295,6 +8849,11 @@
           <t>湖南天雁</t>
         </is>
       </c>
+      <c r="O38" s="19" t="inlineStr">
+        <is>
+          <t>联德股份</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="inlineStr">
@@ -8332,7 +8891,7 @@
           <t>菲林格尔</t>
         </is>
       </c>
-      <c r="I39" s="11" t="inlineStr">
+      <c r="I39" s="12" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
@@ -8342,7 +8901,7 @@
           <t>新北洋</t>
         </is>
       </c>
-      <c r="K39" s="11" t="inlineStr">
+      <c r="K39" s="12" t="inlineStr">
         <is>
           <t>蓝丰生化</t>
         </is>
@@ -8360,6 +8919,11 @@
       <c r="N39" s="19" t="inlineStr">
         <is>
           <t>博杰股份</t>
+        </is>
+      </c>
+      <c r="O39" s="9" t="inlineStr">
+        <is>
+          <t>银河电子</t>
         </is>
       </c>
     </row>
@@ -8369,7 +8933,7 @@
           <t>华茂股份</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="12" t="inlineStr">
         <is>
           <t>福鞍股份</t>
         </is>
@@ -8379,7 +8943,7 @@
           <t>友阿股份</t>
         </is>
       </c>
-      <c r="E40" s="12" t="inlineStr">
+      <c r="E40" s="9" t="inlineStr">
         <is>
           <t>博云新材</t>
         </is>
@@ -8427,6 +8991,11 @@
       <c r="N40" s="19" t="inlineStr">
         <is>
           <t>常山药业</t>
+        </is>
+      </c>
+      <c r="O40" s="19" t="inlineStr">
+        <is>
+          <t>通业科技</t>
         </is>
       </c>
     </row>
@@ -8481,7 +9050,7 @@
           <t>鼎际得</t>
         </is>
       </c>
-      <c r="L41" s="11" t="inlineStr">
+      <c r="L41" s="12" t="inlineStr">
         <is>
           <t>弘元绿能</t>
         </is>
@@ -8494,6 +9063,11 @@
       <c r="N41" s="19" t="inlineStr">
         <is>
           <t>大众交通</t>
+        </is>
+      </c>
+      <c r="O41" s="19" t="inlineStr">
+        <is>
+          <t>鑫磊股份</t>
         </is>
       </c>
     </row>
@@ -8508,7 +9082,7 @@
           <t>九鼎新材</t>
         </is>
       </c>
-      <c r="D42" s="12" t="inlineStr">
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>盛路通信</t>
         </is>
@@ -8523,7 +9097,7 @@
           <t>翠微股份</t>
         </is>
       </c>
-      <c r="G42" s="12" t="inlineStr">
+      <c r="G42" s="9" t="inlineStr">
         <is>
           <t>龙溪股份</t>
         </is>
@@ -8533,7 +9107,7 @@
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="I42" s="11" t="inlineStr">
+      <c r="I42" s="12" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
@@ -8561,6 +9135,11 @@
       <c r="N42" s="8" t="inlineStr">
         <is>
           <t>丹化科技</t>
+        </is>
+      </c>
+      <c r="O42" s="11" t="inlineStr">
+        <is>
+          <t>汉钟精机</t>
         </is>
       </c>
     </row>
@@ -8570,7 +9149,7 @@
           <t>慈文传媒</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>兴业股份</t>
         </is>
@@ -8590,7 +9169,7 @@
           <t>盈方微</t>
         </is>
       </c>
-      <c r="G43" s="10" t="inlineStr">
+      <c r="G43" s="11" t="inlineStr">
         <is>
           <t>和科达</t>
         </is>
@@ -8620,9 +9199,14 @@
           <t>海陆重工</t>
         </is>
       </c>
-      <c r="N43" s="10" t="inlineStr">
+      <c r="N43" s="11" t="inlineStr">
         <is>
           <t>国风新材</t>
+        </is>
+      </c>
+      <c r="O43" s="19" t="inlineStr">
+        <is>
+          <t>山东章鼓</t>
         </is>
       </c>
     </row>
@@ -8657,7 +9241,7 @@
           <t>兆威机电</t>
         </is>
       </c>
-      <c r="H44" s="19" t="inlineStr">
+      <c r="H44" s="5" t="inlineStr">
         <is>
           <t>上海凤凰</t>
         </is>
@@ -8685,6 +9269,11 @@
       <c r="N44" s="19" t="inlineStr">
         <is>
           <t>大元泵业</t>
+        </is>
+      </c>
+      <c r="O44" s="19" t="inlineStr">
+        <is>
+          <t>百达精工</t>
         </is>
       </c>
     </row>
@@ -8699,7 +9288,7 @@
           <t>三柏硕</t>
         </is>
       </c>
-      <c r="D45" s="11" t="inlineStr">
+      <c r="D45" s="12" t="inlineStr">
         <is>
           <t>传艺科技</t>
         </is>
@@ -8739,7 +9328,7 @@
           <t>韩建河山</t>
         </is>
       </c>
-      <c r="M45" s="10" t="inlineStr">
+      <c r="M45" s="11" t="inlineStr">
         <is>
           <t>诚邦股份</t>
         </is>
@@ -8747,6 +9336,11 @@
       <c r="N45" s="8" t="inlineStr">
         <is>
           <t>长华化学</t>
+        </is>
+      </c>
+      <c r="O45" s="11" t="inlineStr">
+        <is>
+          <t>联合精密</t>
         </is>
       </c>
     </row>
@@ -8761,7 +9355,7 @@
           <t>宁波中百</t>
         </is>
       </c>
-      <c r="D46" s="11" t="inlineStr">
+      <c r="D46" s="12" t="inlineStr">
         <is>
           <t>同兴科技</t>
         </is>
@@ -8809,6 +9403,11 @@
       <c r="N46" s="8" t="inlineStr">
         <is>
           <t>金浦钛业</t>
+        </is>
+      </c>
+      <c r="O46" s="19" t="inlineStr">
+        <is>
+          <t>广东鸿图</t>
         </is>
       </c>
     </row>
@@ -8848,7 +9447,7 @@
           <t>广西能源</t>
         </is>
       </c>
-      <c r="I47" s="12" t="inlineStr">
+      <c r="I47" s="9" t="inlineStr">
         <is>
           <t>天津普林</t>
         </is>
@@ -8868,9 +9467,14 @@
           <t>三木集团</t>
         </is>
       </c>
-      <c r="N47" s="12" t="inlineStr">
+      <c r="N47" s="9" t="inlineStr">
         <is>
           <t>利君股份</t>
+        </is>
+      </c>
+      <c r="O47" s="9" t="inlineStr">
+        <is>
+          <t>通达股份</t>
         </is>
       </c>
     </row>
@@ -8885,7 +9489,7 @@
           <t>登云股份</t>
         </is>
       </c>
-      <c r="D48" s="11" t="inlineStr">
+      <c r="D48" s="12" t="inlineStr">
         <is>
           <t>永杰新材</t>
         </is>
@@ -8895,7 +9499,7 @@
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="F48" s="19" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>尖峰集团</t>
         </is>
@@ -8910,7 +9514,7 @@
           <t>久祺股份</t>
         </is>
       </c>
-      <c r="I48" s="10" t="inlineStr">
+      <c r="I48" s="11" t="inlineStr">
         <is>
           <t>好上好</t>
         </is>
@@ -8930,9 +9534,14 @@
           <t>华丽家族</t>
         </is>
       </c>
-      <c r="N48" s="19" t="inlineStr">
+      <c r="N48" s="5" t="inlineStr">
         <is>
           <t>华伍股份</t>
+        </is>
+      </c>
+      <c r="O48" s="19" t="inlineStr">
+        <is>
+          <t>金通灵</t>
         </is>
       </c>
     </row>
@@ -8947,7 +9556,7 @@
           <t>朝阳科技</t>
         </is>
       </c>
-      <c r="E49" s="10" t="inlineStr">
+      <c r="E49" s="11" t="inlineStr">
         <is>
           <t>立昂微</t>
         </is>
@@ -8957,7 +9566,7 @@
           <t>东方创业</t>
         </is>
       </c>
-      <c r="G49" s="11" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>三维化学</t>
         </is>
@@ -8987,9 +9596,14 @@
           <t>广晟有色</t>
         </is>
       </c>
-      <c r="N49" s="12" t="inlineStr">
+      <c r="N49" s="9" t="inlineStr">
         <is>
           <t>襄阳轴承</t>
+        </is>
+      </c>
+      <c r="O49" s="6" t="inlineStr">
+        <is>
+          <t>宸展光电</t>
         </is>
       </c>
     </row>
@@ -9039,7 +9653,7 @@
           <t>新联电子</t>
         </is>
       </c>
-      <c r="M50" s="12" t="inlineStr">
+      <c r="M50" s="9" t="inlineStr">
         <is>
           <t>曙光股份</t>
         </is>
@@ -9047,6 +9661,11 @@
       <c r="N50" s="4" t="inlineStr">
         <is>
           <t>益民集团</t>
+        </is>
+      </c>
+      <c r="O50" s="19" t="inlineStr">
+        <is>
+          <t>沃尔核材</t>
         </is>
       </c>
     </row>
@@ -9056,7 +9675,7 @@
           <t>惠发食品</t>
         </is>
       </c>
-      <c r="D51" s="11" t="inlineStr">
+      <c r="D51" s="12" t="inlineStr">
         <is>
           <t>仁智股份</t>
         </is>
@@ -9071,7 +9690,7 @@
           <t>轻纺城</t>
         </is>
       </c>
-      <c r="G51" s="11" t="inlineStr">
+      <c r="G51" s="12" t="inlineStr">
         <is>
           <t>龙江交通</t>
         </is>
@@ -9101,9 +9720,14 @@
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="N51" s="12" t="inlineStr">
+      <c r="N51" s="9" t="inlineStr">
         <is>
           <t>建设工业</t>
+        </is>
+      </c>
+      <c r="O51" s="19" t="inlineStr">
+        <is>
+          <t>视觉中国</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9772,7 @@
           <t>吉华集团</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr">
+      <c r="L52" s="12" t="inlineStr">
         <is>
           <t>天普股份</t>
         </is>
@@ -9158,9 +9782,14 @@
           <t>嘉事堂</t>
         </is>
       </c>
-      <c r="N52" s="19" t="inlineStr">
+      <c r="N52" s="9" t="inlineStr">
         <is>
           <t>成飞集成</t>
+        </is>
+      </c>
+      <c r="O52" s="19" t="inlineStr">
+        <is>
+          <t>东华软件</t>
         </is>
       </c>
     </row>
@@ -9195,7 +9824,7 @@
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="I53" s="12" t="inlineStr">
+      <c r="I53" s="9" t="inlineStr">
         <is>
           <t>泰豪科技</t>
         </is>
@@ -9218,6 +9847,11 @@
       <c r="N53" s="19" t="inlineStr">
         <is>
           <t>龙洲股份</t>
+        </is>
+      </c>
+      <c r="O53" s="19" t="inlineStr">
+        <is>
+          <t>东方中科</t>
         </is>
       </c>
     </row>
@@ -9227,7 +9861,7 @@
           <t>红蜻蜓</t>
         </is>
       </c>
-      <c r="D54" s="10" t="inlineStr">
+      <c r="D54" s="11" t="inlineStr">
         <is>
           <t>高新发展</t>
         </is>
@@ -9272,9 +9906,14 @@
           <t>莱宝高科</t>
         </is>
       </c>
-      <c r="N54" s="11" t="inlineStr">
+      <c r="N54" s="12" t="inlineStr">
         <is>
           <t>北方股份</t>
+        </is>
+      </c>
+      <c r="O54" s="19" t="inlineStr">
+        <is>
+          <t>冰轮环境</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9948,7 @@
           <t>会稽山</t>
         </is>
       </c>
-      <c r="K55" s="10" t="inlineStr">
+      <c r="K55" s="11" t="inlineStr">
         <is>
           <t>中旗新材</t>
         </is>
@@ -9324,9 +9963,14 @@
           <t>大位科技</t>
         </is>
       </c>
-      <c r="N55" s="12" t="inlineStr">
+      <c r="N55" s="9" t="inlineStr">
         <is>
           <t>天箭科技</t>
+        </is>
+      </c>
+      <c r="O55" s="19" t="inlineStr">
+        <is>
+          <t>剑桥科技</t>
         </is>
       </c>
     </row>
@@ -9341,12 +9985,12 @@
           <t>我爱我家</t>
         </is>
       </c>
-      <c r="E56" s="10" t="inlineStr">
+      <c r="E56" s="11" t="inlineStr">
         <is>
           <t>至正股份</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F56" s="12" t="inlineStr">
         <is>
           <t>奇德新材</t>
         </is>
@@ -9379,6 +10023,11 @@
       <c r="N56" s="19" t="inlineStr">
         <is>
           <t>湖北宜化</t>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t>金龙机电</t>
         </is>
       </c>
     </row>
@@ -9418,7 +10067,7 @@
           <t>兆丰股份</t>
         </is>
       </c>
-      <c r="L57" s="12" t="inlineStr">
+      <c r="L57" s="9" t="inlineStr">
         <is>
           <t>龙溪股份</t>
         </is>
@@ -9433,9 +10082,14 @@
           <t>箭牌家居</t>
         </is>
       </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>东百集团</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="C58" s="11" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
         <is>
           <t>德才股份</t>
         </is>
@@ -9445,7 +10099,7 @@
           <t>黑牡丹</t>
         </is>
       </c>
-      <c r="E58" s="12" t="inlineStr">
+      <c r="E58" s="9" t="inlineStr">
         <is>
           <t>国睿科技</t>
         </is>
@@ -9475,7 +10129,7 @@
           <t>宏昌科技</t>
         </is>
       </c>
-      <c r="M58" s="11" t="inlineStr">
+      <c r="M58" s="12" t="inlineStr">
         <is>
           <t>京运通</t>
         </is>
@@ -9483,6 +10137,11 @@
       <c r="N58" s="8" t="inlineStr">
         <is>
           <t>阳煤化工</t>
+        </is>
+      </c>
+      <c r="O58" s="19" t="inlineStr">
+        <is>
+          <t>中航成飞</t>
         </is>
       </c>
     </row>
@@ -9532,6 +10191,11 @@
           <t>巨力索具</t>
         </is>
       </c>
+      <c r="O59" s="5" t="inlineStr">
+        <is>
+          <t>尖峰集团</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="C60" s="19" t="inlineStr">
@@ -9554,7 +10218,7 @@
           <t>万丰奥威</t>
         </is>
       </c>
-      <c r="I60" s="11" t="inlineStr">
+      <c r="I60" s="12" t="inlineStr">
         <is>
           <t>博菲电气</t>
         </is>
@@ -9577,6 +10241,11 @@
       <c r="N60" s="19" t="inlineStr">
         <is>
           <t>物产金轮</t>
+        </is>
+      </c>
+      <c r="O60" s="9" t="inlineStr">
+        <is>
+          <t>展鹏科技</t>
         </is>
       </c>
     </row>
@@ -9591,7 +10260,7 @@
           <t>舒泰神</t>
         </is>
       </c>
-      <c r="F61" s="11" t="inlineStr">
+      <c r="F61" s="12" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
@@ -9621,9 +10290,14 @@
           <t>红宝丽</t>
         </is>
       </c>
+      <c r="O61" s="5" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="C62" s="12" t="inlineStr">
+      <c r="C62" s="9" t="inlineStr">
         <is>
           <t>航发科技</t>
         </is>
@@ -9643,7 +10317,7 @@
           <t>嵘泰股份</t>
         </is>
       </c>
-      <c r="I62" s="11" t="inlineStr">
+      <c r="I62" s="12" t="inlineStr">
         <is>
           <t>黑猫股份</t>
         </is>
@@ -9661,6 +10335,11 @@
       <c r="N62" s="8" t="inlineStr">
         <is>
           <t>中毅达</t>
+        </is>
+      </c>
+      <c r="O62" s="19" t="inlineStr">
+        <is>
+          <t>保利联合</t>
         </is>
       </c>
     </row>
@@ -9700,6 +10379,11 @@
           <t>天娱数科</t>
         </is>
       </c>
+      <c r="O63" s="9" t="inlineStr">
+        <is>
+          <t>四创电子</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="C64" s="6" t="inlineStr">
@@ -9712,7 +10396,7 @@
           <t>宏和科技</t>
         </is>
       </c>
-      <c r="F64" s="11" t="inlineStr">
+      <c r="F64" s="12" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
@@ -9722,7 +10406,7 @@
           <t>明星电力</t>
         </is>
       </c>
-      <c r="L64" s="10" t="inlineStr">
+      <c r="L64" s="11" t="inlineStr">
         <is>
           <t>兴森科技</t>
         </is>
@@ -9730,6 +10414,11 @@
       <c r="M64" s="19" t="inlineStr">
         <is>
           <t>云内动力</t>
+        </is>
+      </c>
+      <c r="O64" s="21" t="inlineStr">
+        <is>
+          <t>天邦食品</t>
         </is>
       </c>
     </row>
@@ -9744,7 +10433,7 @@
           <t>哈药股份</t>
         </is>
       </c>
-      <c r="F65" s="11" t="inlineStr">
+      <c r="F65" s="12" t="inlineStr">
         <is>
           <t>东峰集团</t>
         </is>
@@ -9766,22 +10455,22 @@
       </c>
     </row>
     <row r="66">
-      <c r="C66" s="12" t="inlineStr">
+      <c r="C66" s="9" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="E66" s="10" t="inlineStr">
+      <c r="E66" s="11" t="inlineStr">
         <is>
           <t>晓程科技</t>
         </is>
       </c>
-      <c r="F66" s="11" t="inlineStr">
+      <c r="F66" s="12" t="inlineStr">
         <is>
           <t>凯盛新能</t>
         </is>
       </c>
-      <c r="I66" s="12" t="inlineStr">
+      <c r="I66" s="9" t="inlineStr">
         <is>
           <t>大立科技</t>
         </is>
@@ -9798,7 +10487,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="C67" s="10" t="inlineStr">
+      <c r="C67" s="11" t="inlineStr">
         <is>
           <t>格林达</t>
         </is>
@@ -9835,7 +10524,7 @@
           <t>品渥食品</t>
         </is>
       </c>
-      <c r="F68" s="10" t="inlineStr">
+      <c r="F68" s="11" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
@@ -9899,7 +10588,7 @@
           <t>八方股份</t>
         </is>
       </c>
-      <c r="M70" s="11" t="inlineStr">
+      <c r="M70" s="12" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
@@ -9943,7 +10632,7 @@
           <t>华森制药</t>
         </is>
       </c>
-      <c r="M72" s="11" t="inlineStr">
+      <c r="M72" s="12" t="inlineStr">
         <is>
           <t>鑫铂股份</t>
         </is>
@@ -10070,7 +10759,7 @@
           <t>康弘药业</t>
         </is>
       </c>
-      <c r="F78" s="12" t="inlineStr">
+      <c r="F78" s="9" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
@@ -10104,7 +10793,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="C80" s="12" t="inlineStr">
+      <c r="C80" s="9" t="inlineStr">
         <is>
           <t>北摩高科</t>
         </is>
@@ -10400,7 +11089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10439,11 +11128,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>一带一路</t>
+          <t>低空经济</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -10455,7 +11144,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>DRG/DIP</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -10463,7 +11152,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>股价创历史新高</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -10471,7 +11160,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>政府数字化</t>
+          <t>金属矿产</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -10479,7 +11168,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -10487,7 +11176,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>汽车物流</t>
+          <t>医疗服务</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -10501,7 +11190,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -10513,7 +11202,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -10521,7 +11210,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>分红回购</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -10529,7 +11218,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>精密金属连接件</t>
+          <t>冷链物流</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -10537,7 +11226,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>多肽药物</t>
+          <t>拟购买安徽中商20%股权</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -10545,7 +11234,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>完成收购余姚高歌51%股权</t>
+          <t>出售资产</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -10555,23 +11244,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>年报扭亏</t>
+          <t>一带一路</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>敦煌网合作</t>
+          <t>两轮车</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DRG/DIP</t>
+          <t>智慧供应链</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10579,7 +11268,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>资金博弈激烈</t>
+          <t>轻烃</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -10587,7 +11276,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -10595,7 +11284,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>全球化产能扩张</t>
+          <t>股权无偿划转</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -10603,7 +11292,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>防火类特种电缆</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -10613,7 +11302,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>低空经济</t>
+          <t>年报扭亏</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10621,7 +11310,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>跨境物流</t>
+          <t>敦煌网合作</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -10629,7 +11318,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10637,7 +11326,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>拟10转3股派3.51元</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -10645,7 +11334,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>减脂产品</t>
+          <t>空管雷达</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -10653,7 +11342,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>质子治疗设备</t>
+          <t>折叠屏</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -10661,7 +11350,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>业绩大增</t>
+          <t>超导概念</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -10679,7 +11368,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆振兴</t>
+          <t>中俄贸易</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -10687,7 +11376,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>智慧供应链</t>
+          <t>部分重点产品提价</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -10695,7 +11384,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -10703,7 +11392,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>热电联产</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -10711,7 +11400,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>消化领域</t>
+          <t>签订投资协议</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -10719,7 +11408,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>户外龙头</t>
+          <t>拟增资获得芯存科技51.02%股权</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -10737,7 +11426,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江苏国资</t>
+          <t>跨境物流</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -10745,7 +11434,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -10753,7 +11442,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>分红回购</t>
+          <t>高端能源装备</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -10761,7 +11450,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>砷化镓</t>
+          <t>公司称处于最好发展时期</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -10769,7 +11458,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>幕墙系统材料</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -10777,7 +11466,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>参股智元研究院</t>
+          <t>园林景观</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -10795,7 +11484,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>维生素</t>
+          <t>新疆振兴</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -10803,7 +11492,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>部分重点产品提价</t>
+          <t>新三板股权认购</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -10811,7 +11500,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>轻烃</t>
+          <t>铝合金轮毂</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -10819,7 +11508,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>智能控制器</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -10827,7 +11516,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>海外工厂扩建</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -10835,7 +11524,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>军用光电</t>
+          <t>车桥</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -10853,7 +11542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>统一大市场</t>
+          <t>江苏国资</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -10861,7 +11550,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>曲轴</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -10869,7 +11558,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>北美市场</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -10877,7 +11566,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IP衍生品</t>
+          <t>C端智能产品</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -10885,7 +11574,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>铝合金车轮</t>
+          <t>代糖</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -10893,7 +11582,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>智能用电云服务</t>
+          <t>上海泽熙持有股份被司法拍卖</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -10911,7 +11600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>老字号</t>
+          <t>维生素</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -10919,7 +11608,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>无收购“宠胖胖”安排</t>
+          <t>拟获得长坂科技35%股权</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -10927,7 +11616,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>控股股东将获增资</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -10935,7 +11624,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -10943,7 +11632,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>关税抗风险</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -10951,7 +11640,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>石墨新材料</t>
+          <t>养老概念</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -10961,15 +11650,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>重庆国资</t>
+          <t>上海国资</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>黄金珠宝</t>
+          <t>统一大市场</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -10977,7 +11666,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>新三板股权认购</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -10985,7 +11674,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>高端能源装备</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -10993,7 +11682,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>金矿开采</t>
+          <t>覆铜板上游</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -11001,7 +11690,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>电建地产拟受让公司地产业务及资产负债</t>
+          <t>电气绝缘材料</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -11009,7 +11698,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>传媒</t>
+          <t>字节</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -11019,15 +11708,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>减速器</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>老字号</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -11035,7 +11724,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>曲轴</t>
+          <t>钙钛矿电池</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11043,7 +11732,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>铝合金轮毂</t>
+          <t>工程建筑</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -11051,7 +11740,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>金属矿产</t>
+          <t>仿制药一致性评价</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -11059,7 +11748,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>男装</t>
+          <t>炭黑</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -11067,7 +11756,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>洗衣机</t>
+          <t>拟收购金华威剩余45%股权</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -11077,7 +11766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>上海国资</t>
+          <t>重庆国资</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -11085,7 +11774,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>先进封装</t>
+          <t>黄金珠宝</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -11093,7 +11782,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>拟获得长坂科技35%股权</t>
+          <t>墨西哥生产基地</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11101,7 +11790,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>医用敷料</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -11109,7 +11798,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>冷链物流</t>
+          <t>盐化产业</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -11117,7 +11806,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>国产替代</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -11125,7 +11814,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>流体电磁阀</t>
+          <t>云南国资</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -11135,7 +11824,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>智能家居</t>
+          <t>航空材料</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -11143,7 +11832,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>覆铜板</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -11151,7 +11840,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>汽车内饰新材料</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11159,7 +11848,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>控股股东将获增资</t>
+          <t>盐酸纳洛酮注射液集采</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -11167,7 +11856,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>纯碱</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -11175,7 +11864,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>SIM卡</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -11183,7 +11872,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>标签印刷设备</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -11193,7 +11882,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>减速器</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -11201,7 +11890,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>航空发动机</t>
+          <t>先进封装</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -11209,7 +11898,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>调入港股通</t>
+          <t>小鹏汽车</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11217,7 +11906,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>涂料</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -11225,7 +11914,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>空管雷达</t>
+          <t>溴素</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -11233,7 +11922,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>影视文旅融合</t>
+          <t>汽车销售</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -11241,7 +11930,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>IP运营</t>
+          <t>数字阅读</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -11251,15 +11940,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>高端装备</t>
+          <t>智能家居</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>珠宝首饰</t>
+          <t>覆铜板</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -11267,7 +11956,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>钙钛矿电池</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11275,7 +11964,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>工程建筑</t>
+          <t>有机硅胶粘剂</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -11283,7 +11972,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -11291,7 +11980,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>蒸压加气混凝土装备</t>
+          <t>物业租赁</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -11299,7 +11988,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>探索O2O业务</t>
+          <t>海南国资</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -11309,15 +11998,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>混凝土外加剂</t>
+          <t>脑机接口</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>6G</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -11325,7 +12014,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>墨西哥生产基地</t>
+          <t>客户合作</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11333,7 +12022,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>医用敷料</t>
+          <t>印刷版材</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -11341,7 +12030,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>公司称处于最好发展时期</t>
+          <t>化债(AMC概念）</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -11349,7 +12038,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>杀菌卫生产品</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -11357,7 +12046,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>线性驱动系统</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -11367,7 +12056,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>化纤</t>
+          <t>高端装备</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -11375,7 +12064,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>对讲机终端</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -11383,7 +12072,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>汽车内饰新材料</t>
+          <t>布局低空经济</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -11391,7 +12080,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>盐酸纳洛酮注射液集采</t>
+          <t>SHEIN（希音）合作</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -11399,7 +12088,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>智能控制器</t>
+          <t>参股中昊芯英</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -11407,7 +12096,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>钒矿</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -11415,7 +12104,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>新药临床试验获批</t>
+          <t>境外产能布局</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -11425,7 +12114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>混凝土外加剂</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11433,7 +12122,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>珠宝首饰</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -11441,7 +12130,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>小鹏汽车</t>
+          <t>化学纤维</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -11449,7 +12138,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>涂料</t>
+          <t>纺织印花材料</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -11457,7 +12146,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>C端智能产品</t>
+          <t>环保概念</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -11465,7 +12154,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>美妆</t>
+          <t>胰岛素</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -11473,7 +12162,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>海南自贸区</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -11483,7 +12172,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>化纤</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11491,7 +12180,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>战略布局未受关税实质影响</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -11499,7 +12188,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -11507,7 +12196,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>有机硅胶粘剂</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -11515,7 +12204,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>宠物用品</t>
+          <t>汽车内饰</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -11523,7 +12212,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>家用电器</t>
+          <t>定制家具</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -11531,7 +12220,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>锂矿</t>
+          <t>获道路测试牌照</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -11541,7 +12230,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11549,7 +12238,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>特斯拉供应链</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -11557,7 +12246,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>客户合作</t>
+          <t>智慧灯杆</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -11565,7 +12254,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>印刷版材</t>
+          <t>数字人民币</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -11573,7 +12262,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>覆铜板上游</t>
+          <t>沈阳国资</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -11581,7 +12270,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>诉讼案件获受理</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -11589,7 +12278,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>力矩传感器</t>
+          <t>互联网入口平台</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -11599,7 +12288,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>航空材料</t>
+          <t>卫星通信</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11607,7 +12296,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -11615,7 +12304,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>布局低空经济</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -11623,7 +12312,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SHEIN（希音）合作</t>
+          <t>与智象未来签署合作协议</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -11631,7 +12320,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>仿制药一致性评价</t>
+          <t>豆油</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -11639,7 +12328,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>拟购买安徽中商20%股权</t>
+          <t>红外热成像</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -11647,7 +12336,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>产业新城服务商转型</t>
+          <t>智能终端</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -11657,7 +12346,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>西部大开发</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -11665,7 +12354,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -11673,7 +12362,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>化学纤维</t>
+          <t>签订2.97亿元光学系统研制合同</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -11681,7 +12370,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>纺织印花材料</t>
+          <t>投资灵伴科技（RokidAR眼镜）</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -11689,7 +12378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>盐化产业</t>
+          <t>大宗商品贸易</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -11697,7 +12386,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>股权无偿划转</t>
+          <t>机器狗</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -11705,7 +12394,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>超跌反弹</t>
+          <t>玻璃封装载板</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -11715,7 +12404,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -11723,7 +12412,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>农药中间体</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -11731,7 +12420,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>大股东长春光机所</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -11739,7 +12428,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>纺织</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -11747,7 +12436,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>纯碱</t>
+          <t>眼科治疗</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -11755,7 +12444,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>折叠屏</t>
+          <t>拟收购控股子公司27.46%股权</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -11763,7 +12452,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>面板</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -11773,7 +12462,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>西部大开发</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -11781,7 +12470,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>战略布局未受关税实质影响</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -11789,7 +12478,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>智能电动床</t>
+          <t>医疗装备</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -11797,7 +12486,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>数字人民币</t>
+          <t>持股国泰君安</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -11805,7 +12494,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>溴素</t>
+          <t>柔性传感器</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -11813,7 +12502,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>签订投资协议</t>
+          <t>资产出售</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -11821,7 +12510,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>重组蛋白</t>
+          <t>超高分子量聚乙烯</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -11831,15 +12520,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>碳纤维</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>商业运营</t>
+          <t>特斯拉供应链</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -11847,7 +12536,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>鸿蒙</t>
+          <t>此前为巴基斯坦提供配套</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -11855,7 +12544,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>与智象未来签署合作协议</t>
+          <t>国资整合</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -11863,7 +12552,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>数据确权</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -11871,7 +12560,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>幕墙系统材料</t>
+          <t>兽药农药</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -11879,7 +12568,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>核聚变</t>
+          <t>革基布</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -11889,15 +12578,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>退市风险警示博弈</t>
+          <t>建筑装饰</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -11905,7 +12594,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>豆奶</t>
+          <t>工业制动器</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -11913,7 +12602,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>投资灵伴科技（RokidAR眼镜）</t>
+          <t>紧固件</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -11921,7 +12610,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>化债(AMC概念）</t>
+          <t>版权</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -11929,7 +12618,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -11937,7 +12626,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>机器视觉</t>
+          <t>锆钛资源扩张</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -11947,15 +12636,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>无人机</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>业绩改善</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -11963,7 +12652,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>国产软件</t>
+          <t>豆奶</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -11971,7 +12660,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>纺织</t>
+          <t>石墨烯</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -11979,7 +12668,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>参股中昊芯英</t>
+          <t>卫生巾</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -11987,7 +12676,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>代糖</t>
+          <t>油气</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -11995,7 +12684,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>冲水组件</t>
+          <t>工业自动化控制产品</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -12005,15 +12694,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>核电</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>滚珠丝杠</t>
+          <t>农药中间体</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -12021,7 +12710,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>智慧政务</t>
+          <t>国产软件</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -12029,7 +12718,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>持股国泰君安</t>
+          <t>农化产品</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -12037,7 +12726,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环保概念</t>
+          <t>纸尿裤</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -12045,7 +12734,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>社保民生</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -12053,7 +12742,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>眼科用药</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -12063,7 +12752,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DeepSeek概念</t>
+          <t>碳纤维</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -12071,7 +12760,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -12079,7 +12768,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IP经济</t>
+          <t>智慧政务</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -12087,7 +12776,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>国资整合</t>
+          <t>IC分销</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -12095,7 +12784,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>汽车内饰</t>
+          <t>碳交易</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -12103,7 +12792,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>电气绝缘材料</t>
+          <t>智能汽车光学镜头</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -12111,7 +12800,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>医疗服务</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -12121,7 +12810,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>退市风险警示博弈</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -12129,7 +12818,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>齿轮箱</t>
+          <t>商业运营</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -12137,7 +12826,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>IP经济</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -12145,7 +12834,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>紧固件</t>
+          <t>特钢</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -12153,7 +12842,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>沈阳国资</t>
+          <t>燃气轮机</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -12161,7 +12850,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>炭黑</t>
+          <t>影石</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -12169,7 +12858,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>出售资产</t>
+          <t>发动机零部件</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -12179,7 +12868,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>中字头</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -12187,7 +12876,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>防爆设备</t>
+          <t>辅助生殖</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -12195,7 +12884,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>有机硅</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -12203,7 +12892,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>石墨烯</t>
+          <t>合成树脂</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -12211,7 +12900,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>豆油</t>
+          <t>机械设备</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -12219,7 +12908,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>国产替代</t>
+          <t>智能设备</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -12227,7 +12916,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>防火类特种电缆</t>
+          <t>出口美国业务占比少</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -12237,7 +12926,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>拒海水聚酯工业丝</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -12245,7 +12934,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>智能矿山</t>
+          <t>业绩改善</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -12253,7 +12942,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>有机硅</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -12261,7 +12950,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>农化产品</t>
+          <t>健身器材</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -12269,7 +12958,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>大宗商品贸易</t>
+          <t>拟收购兴储世纪69.71%股份</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -12277,7 +12966,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -12285,7 +12974,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>超导概念</t>
+          <t>AH股</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -12295,7 +12984,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>客户巨力索具</t>
+          <t>DeepSeek概念</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -12303,7 +12992,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>腾讯</t>
+          <t>滚珠丝杠</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -12311,7 +13000,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>开源鸿蒙</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -12319,7 +13008,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>IC分销</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -12327,7 +13016,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>眼科治疗</t>
+          <t>阿里云</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -12335,7 +13024,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>汽车销售</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -12343,7 +13032,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>拟增资获得芯存科技51.02%股权</t>
+          <t>浓缩果汁</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -12353,7 +13042,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>快递包装</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -12361,7 +13050,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -12369,7 +13058,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>开源鸿蒙</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -12377,7 +13066,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>特钢</t>
+          <t>此前签大单</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -12385,7 +13074,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>柔性传感器</t>
+          <t>DeepSeek</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -12393,7 +13082,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>物业租赁</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -12401,7 +13090,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>园林景观</t>
+          <t>高端纺织机械设备</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -12411,7 +13100,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>中字头</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -12419,7 +13108,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>齿轮箱</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -12427,7 +13116,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>控制权此前变更</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -12435,7 +13124,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>合成树脂</t>
+          <t>发动机进排气门</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -12443,7 +13132,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>数据确权</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -12451,7 +13140,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>杀菌卫生产品</t>
+          <t>廊坊国资</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -12459,7 +13148,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>车桥</t>
+          <t>新型工业化</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -12469,7 +13158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>造纸</t>
+          <t>拒海水聚酯工业丝</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -12477,7 +13166,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>无收购“宠胖胖”安排</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -12485,7 +13174,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>抗肿瘤</t>
+          <t>控制权此前变更</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -12493,7 +13182,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>健身器材</t>
+          <t>终止协议转让股份</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -12501,7 +13190,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>版权</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -12509,7 +13198,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>钒矿</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -12517,7 +13206,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>上海泽熙持有股份被司法拍卖</t>
+          <t>链传动</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -12527,7 +13216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>客户巨力索具</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -12535,7 +13224,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>防爆设备</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -12543,7 +13232,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>民营医院</t>
+          <t>抗肿瘤</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -12551,7 +13240,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>子公司停产</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -12559,7 +13248,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>卫生巾</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -12567,7 +13256,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>胰岛素</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -12575,7 +13264,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>养老概念</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -12585,7 +13274,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>涂料制造</t>
+          <t>快递包装</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -12593,7 +13282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>余热锅炉</t>
+          <t>智能矿山</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -12601,7 +13290,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>培育钻石</t>
+          <t>民营医院</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -12609,7 +13298,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>此前签大单</t>
+          <t>沙县小吃</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -12617,7 +13306,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>纸尿裤</t>
+          <t>锑</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -12625,7 +13314,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>定制家具</t>
+          <t>菜籽油龙头</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -12633,7 +13322,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>字节</t>
+          <t>激光雷达</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -12643,7 +13332,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -12651,7 +13340,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>调入港股通</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -12659,7 +13348,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>培育钻石</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -12667,7 +13356,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>发动机进排气门</t>
+          <t>医美概念</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -12675,7 +13364,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>碳交易</t>
+          <t>产业投资</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -12683,7 +13372,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>诉讼案件获受理</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -12691,7 +13380,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>拟收购金华威剩余45%股权</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -12701,7 +13390,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>核电</t>
+          <t>低价股</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -12709,7 +13398,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>智能电动床</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -12717,7 +13406,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>产业园开发</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -12725,7 +13414,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>终止协议转让股份</t>
+          <t>膜产品</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -12733,7 +13422,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>燃气轮机</t>
+          <t>国际物流</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -12741,7 +13430,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>红外热成像</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -12749,7 +13438,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>云南国资</t>
+          <t>实景演艺</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -12759,7 +13448,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>可控核聚变</t>
+          <t>造纸</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -12767,7 +13456,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>资产注入预期</t>
+          <t>成飞概念</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -12775,7 +13464,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>产业园开发</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -12783,7 +13472,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>子公司停产</t>
+          <t>植物纤维</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -12791,7 +13480,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>机械设备</t>
+          <t>深冷技术</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -12799,7 +13488,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>机器狗</t>
+          <t>高速铜缆</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -12807,7 +13496,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>智能化塑机</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -12817,15 +13506,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>光储</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>地下管网</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -12833,7 +13522,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>户外运动</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -12841,7 +13530,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>沙县小吃</t>
+          <t>环氧树脂</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -12849,7 +13538,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>拟收购兴储世纪69.71%股份</t>
+          <t>乳制品</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -12857,7 +13546,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>拟收购控股子公司27.46%股权</t>
+          <t>视讯</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -12865,7 +13554,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>数字阅读</t>
+          <t>薄膜</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -12875,15 +13564,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>调味品</t>
+          <t>涂料制造</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -12891,7 +13580,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>聚焦深海领域</t>
+          <t>户外运动</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -12899,7 +13588,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>医美概念</t>
+          <t>工程造价软件</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -12907,7 +13596,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>阿里云</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -12915,7 +13604,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>资产出售</t>
+          <t>汽车注塑结构件</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -12923,7 +13612,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>海南国资</t>
+          <t>通用机械</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -12933,15 +13622,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>参股迪洛斯10%股权</t>
+          <t>服装纺织</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>年报亏损收窄</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -12949,7 +13638,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>卫星导航</t>
+          <t>聚焦深海领域</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -12957,7 +13646,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>膜产品</t>
+          <t>全屋板式家具</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -12965,7 +13654,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>DeepSeek</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -12973,7 +13662,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>控制权变更</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -12981,7 +13670,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>线性驱动系统</t>
+          <t>实控人将变更为中创新航</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -12991,15 +13680,15 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>卫星通信</t>
+          <t>家电</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>仿制药</t>
+          <t>余热锅炉</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -13007,7 +13696,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>专网通信</t>
+          <t>卫星导航</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -13015,7 +13704,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>植物纤维</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -13023,7 +13712,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>超导技术</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -13031,7 +13720,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>兽药农药</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -13039,7 +13728,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>境外产能布局</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -13049,15 +13738,15 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>药用辅料</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>黄金概念</t>
+          <t>基建</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -13065,7 +13754,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>耳机</t>
+          <t>专网通信</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -13073,7 +13762,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>环氧树脂</t>
+          <t>全屋定制</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -13081,7 +13770,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>贵金属</t>
+          <t>速冻鱼肉制品</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -13089,7 +13778,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>碳酸钾</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -13097,7 +13786,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -13107,15 +13796,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>可控核聚变</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>中药</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -13123,7 +13812,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>耳机</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -13131,7 +13820,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>工程造价软件</t>
+          <t>工业互联网</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -13139,7 +13828,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>国际结算</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -13147,7 +13836,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>油气</t>
+          <t>年报、一季报发布</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -13155,7 +13844,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>获道路测试牌照</t>
+          <t>泵</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -13165,15 +13854,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>化妆品</t>
+          <t>压缩机</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>资产注入预期</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -13181,7 +13870,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>成都国资</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -13189,7 +13878,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>全屋板式家具</t>
+          <t>粽子</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -13197,7 +13886,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>锑</t>
+          <t>客车</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -13205,7 +13894,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>社保民生</t>
+          <t>珠宝饰品</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -13213,7 +13902,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>互联网入口平台</t>
+          <t>聚醚多元醇</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -13223,7 +13912,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>数据要素</t>
+          <t>光储</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -13231,7 +13920,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>灵巧手</t>
+          <t>地下管网</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -13239,7 +13928,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>首发经济</t>
+          <t>成都国资</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -13247,7 +13936,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>显影液</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -13255,7 +13944,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>产业投资</t>
+          <t>家居服饰</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -13263,7 +13952,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>智能汽车光学镜头</t>
+          <t>收购果链股权</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -13271,7 +13960,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>智能终端</t>
+          <t>钛白粉</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -13281,7 +13970,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>牛磺酸</t>
+          <t>调味品</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -13289,7 +13978,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>航空装备</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -13305,7 +13994,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>全屋定制</t>
+          <t>商贸</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -13313,7 +14002,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>国际物流</t>
+          <t>细胞免疫治疗</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -13321,7 +14010,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>影石</t>
+          <t>皮鞋</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -13329,7 +14018,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>玻璃封装载板</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -13339,7 +14028,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>对美出口业务正常</t>
+          <t>参股迪洛斯10%股权</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13347,7 +14036,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>首发经济</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -13363,7 +14052,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>工业互联网</t>
+          <t>房屋建筑工程</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -13371,7 +14060,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>深冷技术</t>
+          <t>农药原药</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -13379,7 +14068,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>智能设备</t>
+          <t>聚烯烃高效能催化剂</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -13387,7 +14076,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>面板</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -13397,7 +14086,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>药用辅料</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -13405,7 +14094,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>轴承</t>
+          <t>年报亏损收窄</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -13421,7 +14110,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>粽子</t>
+          <t>酷家乐</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -13429,7 +14118,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>乳制品</t>
+          <t>粮食烘干机</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -13437,7 +14126,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>小米汽车</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -13445,7 +14134,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯</t>
+          <t>智慧家居</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -13455,7 +14144,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>服装纺织</t>
+          <t>铜缆高速连接</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -13463,7 +14152,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>飞行汽车</t>
+          <t>仿制药</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -13479,7 +14168,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>显影液</t>
+          <t>财税数字化</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -13487,7 +14176,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>铬化学品</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -13495,7 +14184,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>有机颜料</t>
+          <t>受让浙江容腾基金份额</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -13503,7 +14192,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>革基布</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -13513,7 +14202,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>养老</t>
+          <t>生态景观</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -13521,7 +14210,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>黄金概念</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -13537,7 +14226,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>商贸</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -13545,7 +14234,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>流通盘较小</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -13553,7 +14242,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>预调鸡尾酒</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -13561,7 +14250,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>锆钛资源扩张</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -13571,7 +14260,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>全球化布局</t>
+          <t>城市更新</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -13579,7 +14268,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -13595,7 +14284,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>房屋建筑工程</t>
+          <t>阿里云合作</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -13603,7 +14292,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>超导技术</t>
+          <t>新型材料</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -13611,7 +14300,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>廊坊国资</t>
+          <t>香精香料</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -13619,7 +14308,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>工业自动化控制产品</t>
+          <t>特种钢丝</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -13629,7 +14318,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>家电</t>
+          <t>化妆品</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -13637,7 +14326,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -13653,7 +14342,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>酷家乐</t>
+          <t>并购预期</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -13661,7 +14350,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>速冻鱼肉制品</t>
+          <t>衢州国资入主</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -13669,7 +14358,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -13677,7 +14366,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>纺织器材</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -13687,7 +14376,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>脑机接口</t>
+          <t>数据要素</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -13695,7 +14384,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>季戊四醇</t>
+          <t>灵巧手</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -13711,7 +14400,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>财税数字化</t>
+          <t>SaaS服务</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -13719,7 +14408,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>国际结算</t>
+          <t>钢琴教育</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -13727,7 +14416,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -13735,7 +14424,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -13745,7 +14434,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>节能环保</t>
+          <t>牛磺酸</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -13753,15 +14442,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>针织服装</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>成飞概念</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -13769,7 +14458,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>火电</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -13777,7 +14466,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>客车</t>
+          <t>国际发展</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -13785,7 +14474,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>菜籽油龙头</t>
+          <t>预应力钢筒混凝土管</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -13793,7 +14482,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>发动机零部件</t>
+          <t>股东变更</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -13803,7 +14492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>对美出口业务正常</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -13811,15 +14500,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安踏合作</t>
+          <t>轴承</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>拟收购恒扬数据</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -13827,7 +14516,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>阿里云合作</t>
+          <t>重组</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -13835,7 +14524,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t>IXPE</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -13843,7 +14532,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -13851,7 +14540,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>出口美国业务占比少</t>
+          <t>肝素产业链</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -13861,7 +14550,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -13869,15 +14558,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>多肽药</t>
+          <t>智能座舱</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>拟收购恒扬数据</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -13885,7 +14574,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>并购预期</t>
+          <t>虚拟电厂</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -13893,7 +14582,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>家居服饰</t>
+          <t>PVC塑料地板</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -13901,7 +14590,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>汽车轮毂轴承</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -13909,7 +14598,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>AH股</t>
+          <t>网约车</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -13919,23 +14608,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ADHD治疗药物</t>
+          <t>养老</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>飞行汽车</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>国资云</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -13943,7 +14632,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SaaS服务</t>
+          <t>安徽国资</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -13951,7 +14640,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>细胞免疫治疗</t>
+          <t>越南、泰国产能</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -13959,7 +14648,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>高速铜缆</t>
+          <t>拟并购新思考</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -13967,7 +14656,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>浓缩果汁</t>
+          <t>股权投资</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -13977,23 +14666,23 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>敦煌网</t>
+          <t>全球化布局</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中俄贸易</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>国资云</t>
+          <t>水泥</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -14001,7 +14690,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>火电</t>
+          <t>防伪瓶盖</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -14009,7 +14698,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>农药原药</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -14017,7 +14706,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>视讯</t>
+          <t>住宅装修</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -14025,7 +14714,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>高端纺织机械设备</t>
+          <t>矿用车</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -14035,19 +14724,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>拉链</t>
+          <t>AH两地上市</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东方超算</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -14059,7 +14748,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>重组</t>
+          <t>乳品</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -14067,7 +14756,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>粮食烘干机</t>
+          <t>年报大增</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -14075,7 +14764,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>汽车注塑结构件</t>
+          <t>海外布局</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -14083,7 +14772,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>新型工业化</t>
+          <t>美国撤销越南部分钢制车轮范围调查</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -14093,19 +14782,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>三胎</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>港口</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -14117,7 +14806,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>虚拟电厂</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -14125,7 +14814,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>铬化学品</t>
+          <t>户外用品</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -14133,7 +14822,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>美容护理</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -14141,7 +14830,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>链传动</t>
+          <t>汽车车轮</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -14151,19 +14840,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>人造板</t>
+          <t>航空装备</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>高纯石英</t>
+          <t>并购重组</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -14175,7 +14864,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>安徽国资</t>
+          <t>文化创意产业园区</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -14183,7 +14872,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>流通盘较小</t>
+          <t>铝合金</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -14191,7 +14880,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>英伟达概念</t>
+          <t>重组功能蛋白</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -14199,7 +14888,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>汽车传动系统</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -14209,19 +14898,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>智能物流</t>
+          <t>节能环保</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>烟标</t>
+          <t>季戊四醇</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -14233,7 +14922,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>防伪瓶盖</t>
+          <t>桃花坞文化IP</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -14241,7 +14930,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>新型材料</t>
+          <t>上汽大客户</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -14249,7 +14938,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>碳酸钾</t>
+          <t>关税影响有限</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -14257,7 +14946,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>激光雷达</t>
+          <t>解决同业竞争承诺</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -14267,15 +14956,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>港口航运</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>码头仓储</t>
+          <t>针织服装</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -14291,7 +14980,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>乳品</t>
+          <t>第三方石化物流服务</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -14299,7 +14988,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>衢州国资入主</t>
+          <t>行星减速器</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -14307,7 +14996,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>年报、一季报发布</t>
+          <t>MCU</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -14315,7 +15004,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>签订2.97亿元光学系统研制合同</t>
+          <t>口腔医疗</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -14325,15 +15014,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>纺织面料</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>专业工程</t>
+          <t>安踏合作</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -14349,7 +15038,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>仓储</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -14357,7 +15046,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>钢琴教育</t>
+          <t>车载显示</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -14365,7 +15054,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>珠宝饰品</t>
+          <t>利基DRAM涨价</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -14373,7 +15062,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>大股东长春光机所</t>
+          <t>水泥装备</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -14383,7 +15072,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>ADHD治疗药物</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -14391,7 +15080,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HBM上游</t>
+          <t>多肽药</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -14407,7 +15096,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>文化创意产业园区</t>
+          <t>间接股东战略重组</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -14415,7 +15104,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>国际发展</t>
+          <t>齿轮传动</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -14423,7 +15112,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>收购果链股权</t>
+          <t>家居产品</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -14431,7 +15120,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>智慧灯杆</t>
+          <t>煤矿机械</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -14441,7 +15130,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>敦煌网</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -14449,7 +15138,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鞋服</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -14465,7 +15154,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>桃花坞文化IP</t>
+          <t>日用玻璃</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -14473,7 +15162,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>IXPE</t>
+          <t>杭州国资</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -14481,7 +15170,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>皮鞋</t>
+          <t>通信线缆</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -14489,7 +15178,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>年报营收增长</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -14499,7 +15188,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>天津国资</t>
+          <t>拉链</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -14507,7 +15196,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>胖东来帮扶</t>
+          <t>东方超算</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -14515,7 +15204,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>智能座舱</t>
+          <t>债务重组</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -14523,7 +15212,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>第三方石化物流服务</t>
+          <t>演艺</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -14531,7 +15220,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>PVC塑料地板</t>
+          <t>精密清洗设备</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -14539,7 +15228,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>聚烯烃高效能催化剂</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -14547,7 +15236,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>磁悬浮压缩机</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -14557,7 +15246,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>合成生物</t>
+          <t>三胎</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14565,7 +15254,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>港口</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -14573,7 +15262,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>债务重组</t>
+          <t>关节轴承</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -14581,7 +15270,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>仓储</t>
+          <t>电缆</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -14589,7 +15278,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>越南、泰国产能</t>
+          <t>MR</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -14597,7 +15286,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>小米汽车</t>
+          <t>女装</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -14605,7 +15294,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>实景演艺</t>
+          <t>儿童自行车</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -14615,7 +15304,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>深圳国资</t>
+          <t>人造板</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14623,7 +15312,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>阿里合作</t>
+          <t>高纯石英</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -14631,7 +15320,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>关节轴承</t>
+          <t>量子科技</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -14639,7 +15328,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>间接股东战略重组</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -14647,7 +15336,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>变速器</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -14655,7 +15344,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>受让浙江容腾基金份额</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -14663,7 +15352,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>智能化塑机</t>
+          <t>宇树科技合作</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -14673,7 +15362,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>控股股东拟变更</t>
+          <t>智能物流</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14681,7 +15370,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>6G</t>
+          <t>烟标</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -14689,7 +15378,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>量子科技</t>
+          <t>特斯拉</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -14697,7 +15386,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>日用玻璃</t>
+          <t>射频微波MLCC</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -14705,7 +15394,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>年报大增</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -14713,7 +15402,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>预调鸡尾酒</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -14721,7 +15410,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>薄膜</t>
+          <t>教育</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -14731,7 +15420,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>重大资产重组</t>
+          <t>港口航运</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14739,7 +15428,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>对讲机终端</t>
+          <t>码头仓储</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -14747,7 +15436,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>海外扩张</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -14755,7 +15444,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>演艺</t>
+          <t>索具</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -14763,7 +15452,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>户外用品</t>
+          <t>四川国资</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -14771,7 +15460,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>香精香料</t>
+          <t>超聚变服务器</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -14779,7 +15468,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>通用机械</t>
+          <t>汽车整车</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -14789,7 +15478,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>纺织面料</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -14797,7 +15486,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>专业工程</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -14805,7 +15494,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>海外扩张</t>
+          <t>美国生产基地</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -14813,7 +15502,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>电缆</t>
+          <t>签署1.15亿元合同</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -14821,7 +15510,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>铝合金</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -14829,7 +15518,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>光掩膜版</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -14837,7 +15526,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>医疗装备</t>
+          <t>调改升级</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -14847,7 +15536,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14855,7 +15544,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>文旅</t>
+          <t>HBM上游</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -14863,7 +15552,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>美国生产基地</t>
+          <t>碳酸锂</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -14871,7 +15560,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>尼龙66</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -14879,7 +15568,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>上汽大客户</t>
+          <t>吉林国资</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -14887,7 +15576,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>硅能源</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -14895,7 +15584,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>实控人将变更为中创新航</t>
+          <t>大型压缩机零部件</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -14905,7 +15594,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>润滑油</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -14913,7 +15602,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>成立具身智能公司</t>
+          <t>鞋服</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -14921,7 +15610,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>碳酸锂</t>
+          <t>芳香族酮类</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -14929,7 +15618,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>射频微波MLCC</t>
+          <t>对位芳纶</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -14937,7 +15626,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>行星减速器</t>
+          <t>石墨产业</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -14945,7 +15634,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>预应力钢筒混凝土管</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -14953,7 +15642,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>高精度零部件</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -14963,7 +15652,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>国际贸易影响小</t>
+          <t>天津国资</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -14971,7 +15660,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>胖东来帮扶</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -14979,7 +15668,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>两轮车</t>
+          <t>工程机械</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -14987,7 +15676,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>索具</t>
+          <t>射频器件</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -14995,7 +15684,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>车载显示</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -15003,7 +15692,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>汽车物流</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -15011,7 +15700,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>美墨工厂</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -15021,7 +15710,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>铜缆高速连接</t>
+          <t>合成生物</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -15029,7 +15718,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>生态农业</t>
+          <t>通信设备</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -15037,7 +15726,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>芳香族酮类</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -15045,7 +15734,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>签署1.15亿元合同</t>
+          <t>投资武汉光钜</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -15053,7 +15742,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>齿轮传动</t>
+          <t>农机自动驾驶</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -15061,7 +15750,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>汽车轮毂轴承</t>
+          <t>完成收购余姚高歌51%股权</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -15069,7 +15758,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>泵</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -15079,7 +15768,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>深圳国资</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -15087,7 +15776,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>特种环保纸</t>
+          <t>阿里合作</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -15095,7 +15784,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>工程机械</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -15103,7 +15792,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>尼龙66</t>
+          <t>宁波国资</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -15111,7 +15800,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>杭州国资</t>
+          <t>eVTOL</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -15119,7 +15808,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>拟并购新思考</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -15127,7 +15816,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>聚醚多元醇</t>
+          <t>维保市场</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -15137,7 +15826,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>生态景观</t>
+          <t>控股股东拟变更</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -15145,7 +15834,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>文旅</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -15153,7 +15842,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>特种钢丝绳</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -15161,7 +15850,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>对位芳纶</t>
+          <t>5G-A</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -15169,7 +15858,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>精密清洗设备</t>
+          <t>纯电动飞机</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -15177,7 +15866,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>住宅装修</t>
+          <t>业绩大增</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -15185,7 +15874,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>钛白粉</t>
+          <t>控股股东增持</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -15195,7 +15884,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>城市更新</t>
+          <t>重大资产重组</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -15203,7 +15892,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>此前因Pika大涨</t>
+          <t>成立具身智能公司</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -15211,7 +15900,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>特种钢丝绳</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -15219,7 +15908,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>射频器件</t>
+          <t>卫星</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -15227,7 +15916,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>MR</t>
+          <t>注塑产品</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -15235,7 +15924,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>海外布局</t>
+          <t>户外龙头</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -15243,7 +15932,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>此前为巴基斯坦提供配套</t>
+          <t>空气动力设备</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -15253,7 +15942,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>中韩自贸区</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -15261,7 +15950,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>泡凤爪</t>
+          <t>生态农业</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -15269,7 +15958,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>控制权变更</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -15277,7 +15966,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>投资武汉光钜</t>
+          <t>滤波器</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -15285,7 +15974,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>变速器</t>
+          <t>进气系统</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -15293,7 +15982,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>美容护理</t>
+          <t>参股智元研究院</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -15301,7 +15990,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>工业制动器</t>
+          <t>磁悬浮技术产品</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -15311,7 +16000,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -15319,7 +16008,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>特种环保纸</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -15335,7 +16024,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>宁波国资</t>
+          <t>马来西亚生产基地</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -15343,7 +16032,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>电磁线</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -15351,7 +16040,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>重组功能蛋白</t>
+          <t>军用光电</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -15359,7 +16048,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>空调压缩机</t>
         </is>
       </c>
       <c r="N86" t="n">
@@ -15369,7 +16058,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>航空发动机</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -15377,7 +16066,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>瓶级聚酯切片</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -15385,7 +16074,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>兵装重组概念</t>
+          <t>电线电缆</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -15393,7 +16082,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5G-A</t>
+          <t>拟设海外子公司</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -15401,7 +16090,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>四川国资</t>
+          <t>年报预盈</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -15409,7 +16098,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>关税影响有限</t>
+          <t>智能用电云服务</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -15417,7 +16106,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>节能环保装备</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -15427,7 +16116,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>润滑油</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -15435,7 +16124,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>拟收购天一恩华</t>
+          <t>此前因Pika大涨</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -15443,7 +16132,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>资产重组</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -15451,7 +16140,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>卫星</t>
+          <t>电极箔</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -15459,7 +16148,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -15467,7 +16156,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>MCU</t>
+          <t>石墨新材料</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -15475,7 +16164,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>智慧家居</t>
+          <t>预重整</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -15485,7 +16174,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>农机</t>
+          <t>国际贸易影响小</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -15493,7 +16182,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>获飞行汽车定点开发</t>
+          <t>泡凤爪</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -15501,15 +16190,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>申请撤销其他风险警示</t>
+          <t>兵装重组概念</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>滤波器</t>
+          <t>年报预计扭亏</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -15517,7 +16206,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>吉林国资</t>
+          <t>锂盐产能</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -15525,7 +16214,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>利基DRAM涨价</t>
+          <t>传媒</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -15533,7 +16222,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>智能交互</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -15543,7 +16232,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -15551,7 +16240,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>发动机油泵</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -15559,15 +16248,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>商用车</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>马来西亚生产基地</t>
+          <t>拟控股北京汇源</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -15575,7 +16264,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>石墨产业</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -15583,7 +16272,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>家居产品</t>
+          <t>洗衣机</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -15591,7 +16280,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>视觉内容版权</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -15601,7 +16290,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>无实控人</t>
+          <t>中韩自贸区</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -15609,7 +16298,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>京城机电控股股东</t>
+          <t>瓶级聚酯切片</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -15617,7 +16306,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>牙膏</t>
+          <t>申请撤销其他风险警示</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -15625,7 +16314,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>拟设海外子公司</t>
+          <t>出售污水处理业务</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -15633,7 +16322,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>多肽药物</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -15641,7 +16330,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>电线电缆</t>
+          <t>流体电磁阀</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -15649,7 +16338,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>特种钢丝</t>
+          <t>数字基础设施建设</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -15659,7 +16348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -15667,7 +16356,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>蜡烛</t>
+          <t>拟收购天一恩华</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -15675,7 +16364,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>露营经济</t>
+          <t>商用车</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -15683,7 +16372,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>电极箔</t>
+          <t>公司称将持续推进收购工作</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -15691,7 +16380,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>农机自动驾驶</t>
+          <t>全球化产能扩张</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -15699,7 +16388,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>通信线缆</t>
+          <t>标签印刷设备</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -15707,7 +16396,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>纺织器材</t>
+          <t>控股股东、实控人拟变更</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -15717,7 +16406,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>车联网</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -15725,7 +16414,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>无缝服装</t>
+          <t>获飞行汽车定点开发</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -15733,7 +16422,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>煎烤机</t>
+          <t>牙膏</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -15741,7 +16430,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>年报预计扭亏</t>
+          <t>业务协同</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -15749,7 +16438,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>eVTOL</t>
+          <t>质子治疗设备</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -15757,7 +16446,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>IP运营</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -15765,7 +16454,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>海外业务拓展</t>
         </is>
       </c>
       <c r="N93" t="n">
@@ -15775,7 +16464,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>无人机</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -15783,7 +16472,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>镁/铝合金制品</t>
+          <t>发动机油泵</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -15791,7 +16480,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>露营经济</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -15799,7 +16488,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>拟控股北京汇源</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -15807,7 +16496,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>纯电动飞机</t>
+          <t>消化领域</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -15815,7 +16504,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>女装</t>
+          <t>探索O2O业务</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -15823,7 +16512,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>股东变更</t>
+          <t>超导磁体冷却设备</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -15833,7 +16522,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>农机</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -15841,7 +16530,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>正丙醇</t>
+          <t>京城机电控股股东</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -15849,7 +16538,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>实控人变更为武进国资办</t>
+          <t>煎烤机</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -15857,7 +16546,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>出售污水处理业务</t>
+          <t>高质量兽药</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -15865,7 +16554,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>特斯拉</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -15873,7 +16562,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -15881,7 +16570,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>肝素产业链</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -15891,7 +16580,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AH两地上市</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -15899,7 +16588,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>硫磺回收</t>
+          <t>蜡烛</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -15907,7 +16596,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>体育户外</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -15915,7 +16604,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>公司称将持续推进收购工作</t>
+          <t>动物保健</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -15923,7 +16612,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>注塑产品</t>
+          <t>海外工厂扩建</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -15931,7 +16620,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>新药临床试验获批</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -15939,7 +16628,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>网约车</t>
+          <t>仓储物流</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -15949,7 +16638,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>年报预增</t>
+          <t>无实控人</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -15957,7 +16646,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>进出口贸易</t>
+          <t>无缝服装</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -15965,7 +16654,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>水贝</t>
+          <t>实控人变更为武进国资办</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -15973,7 +16662,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>业务协同</t>
+          <t>曾与敦煌网合作</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -15981,7 +16670,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>进气系统</t>
+          <t>铝合金车轮</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -15989,7 +16678,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>超聚变服务器</t>
+          <t>海南自贸区</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -15997,7 +16686,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>股权投资</t>
+          <t>军贸</t>
         </is>
       </c>
       <c r="N97" t="n">
@@ -16007,7 +16696,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>物业管理</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -16015,7 +16704,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>产能扩建</t>
+          <t>镁/铝合金制品</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -16023,7 +16712,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>“宠胖胖”注入预期</t>
+          <t>体育户外</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -16031,7 +16720,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>政府数字化</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -16039,7 +16728,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>电磁线</t>
+          <t>关税抗风险</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -16047,7 +16736,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>光掩膜版</t>
+          <t>锂矿</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -16055,7 +16744,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>矿用车</t>
+          <t>一季报净利大增</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -16065,7 +16754,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>车联网</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -16073,7 +16762,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>正丙醇</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -16081,7 +16770,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>改性塑料</t>
+          <t>水贝</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -16089,7 +16778,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>高质量兽药</t>
+          <t>精密金属连接件</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -16097,7 +16786,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>年报预盈</t>
+          <t>电建地产拟受让公司地产业务及资产负债</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -16105,17 +16794,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>资产重组</t>
+          <t>力矩传感器</t>
         </is>
       </c>
       <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>高速光模块</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>无人驾驶</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -16123,7 +16820,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>此前股价受关税影响</t>
+          <t>硫磺回收</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -16131,7 +16828,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>市场拓展</t>
+          <t>“宠胖胖”注入预期</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -16139,7 +16836,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>动物保健</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -16147,7 +16844,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>男装</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -16155,17 +16852,25 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>硅能源</t>
+          <t>产业新城服务商转型</t>
         </is>
       </c>
       <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>电梯</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>环保</t>
+          <t>鸿蒙</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -16173,7 +16878,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>汽车贸易</t>
+          <t>进出口贸易</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -16181,34 +16886,382 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>改性塑料</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>减脂产品</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>移动支付</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>超跌反弹</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>民爆</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>产能扩建</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>市场拓展</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>热电联产</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>SIM卡</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>并购重组预期</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>年报预增</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国际化布局</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>连续涨停</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>曾与敦煌网合作</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>锂盐产能</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>临空型园区</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>砷化镓</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>影视文旅融合</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>重组蛋白</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>雷达</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>物业管理</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>此前股价受关税影响</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>股价创历史新高</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>影视</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>蒸压加气混凝土装备</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>核聚变</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>猪肉</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>冰雪产业</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汽车贸易</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>石英砂</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>IP衍生品</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>BBU</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>机器视觉</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>鸿蒙概念</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>无人驾驶</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>受阻胺光稳定剂</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>资金博弈激烈</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>日化用品</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>制冷管路</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>冲水组件</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>中科系</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>环保</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>高分子材料防老化助剂</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>拟10转3股派3.51元</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>金矿开采</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>美妆</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>眼科用药</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -336,6 +336,12 @@
 曾研发外骨骼机器人用电缆+军工+航空航天+数据中心</t>
       </text>
     </comment>
+    <comment ref="P2" authorId="0" shapeId="0">
+      <text>
+        <t>14天8板 11:06:33 0
+环氧丙烷+混凝土外加剂</t>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>9天7板 09:43:07 13
@@ -416,8 +422,14 @@
     </comment>
     <comment ref="O3" authorId="0" shapeId="0">
       <text>
-        <t>4天4板 10:11:51 3
+        <t>4天4板 10:16:27 1
 大飞机+航空材料+AI眼镜+一季报增长</t>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:25:01 1
+跨境电商+服装纺织+电子商务+国企改革</t>
       </text>
     </comment>
     <comment ref="B4" authorId="0" shapeId="0">
@@ -500,8 +512,14 @@
     </comment>
     <comment ref="O4" authorId="0" shapeId="0">
       <text>
-        <t>7天4板 10:46:11 9
+        <t>7天4板 10:46:16 9
 电力+央企+一季报净利增长+海上风电</t>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:43:05 9
+扫地机器人+家电+一季报扭亏</t>
       </text>
     </comment>
     <comment ref="B5" authorId="0" shapeId="0">
@@ -584,8 +602,14 @@
     </comment>
     <comment ref="O5" authorId="0" shapeId="0">
       <text>
-        <t>3天3板 09:25:00 0
+        <t>3天3板 09:30:00 0
 摘帽+AH两地上市+调入港股通</t>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:58:48 4
+脑机接口+智能电动床+鸿蒙+外销</t>
       </text>
     </comment>
     <comment ref="B6" authorId="0" shapeId="0">
@@ -621,7 +645,7 @@
     <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
-跨境支付+中韩自贸区+蜡烛</t>
+一季报增长+烯草酮+农药+大豆</t>
       </text>
     </comment>
     <comment ref="H6" authorId="0" shapeId="0">
@@ -633,7 +657,7 @@
     <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-电力+房地产+进出口贸易</t>
+零售+首店经济+西部大开发</t>
       </text>
     </comment>
     <comment ref="J6" authorId="0" shapeId="0">
@@ -668,8 +692,14 @@
     </comment>
     <comment ref="O6" authorId="0" shapeId="0">
       <text>
-        <t>3天3板 09:25:03 0
+        <t>3天3板 09:30:00 0
 脑机接口+智能电动床+鸿蒙+外销</t>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 0
+成飞概念+军工+汽车零部件+国企改革</t>
       </text>
     </comment>
     <comment ref="B7" authorId="0" shapeId="0">
@@ -752,8 +782,14 @@
     </comment>
     <comment ref="O7" authorId="0" shapeId="0">
       <text>
-        <t>3天3板 09:30:25 0
+        <t>3天3板 09:30:27 0
 一季报扭亏+扫地机器人+家电</t>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:03 1
+军工+卫星通信+雷达+一季报增长</t>
       </text>
     </comment>
     <comment ref="B8" authorId="0" shapeId="0">
@@ -765,7 +801,7 @@
     <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
-跨境电商+敦煌网+拉链</t>
+ADHD治疗药物+化学制药</t>
       </text>
     </comment>
     <comment ref="D8" authorId="0" shapeId="0">
@@ -789,7 +825,7 @@
     <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
-一季报增长+烯草酮+农药+大豆</t>
+跨境支付+中韩自贸区+蜡烛</t>
       </text>
     </comment>
     <comment ref="H8" authorId="0" shapeId="0">
@@ -801,7 +837,7 @@
     <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-零售+首店经济+西部大开发</t>
+电力+房地产+进出口贸易</t>
       </text>
     </comment>
     <comment ref="J8" authorId="0" shapeId="0">
@@ -836,100 +872,112 @@
     </comment>
     <comment ref="O8" authorId="0" shapeId="0">
       <text>
-        <t>3天3板 09:38:00 4
+        <t>3天3板 09:38:13 3
 跨境电商+电子商务+服装纺织+国企改革</t>
       </text>
     </comment>
+    <comment ref="P8" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:09 19
+航空零部件+大飞机+军工+机器人</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 09:30:00 0
+摘帽+高端装备+上海国企</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:00 0
+跨境电商+敦煌网+拉链</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:31:00 9
+黄金珠宝+水贝+深圳国资+年报增长</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:30:54 0
+房地产+大飞机+天津国企</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 10:05:37 5
+摘帽+电力设计+高端装备+上海国企</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:00 0
+拟收购天一恩华+跨境支付+华为</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <t>6天5板 14:34:47 0
+拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 09:32:45 4
+参股迪洛斯10%股权+AI初创公司</t>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:59 0
+一季报净利增长+信创+华为概念+人工智能</t>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 10:08:47 0
+机器人关节+新能源驱动电机+国企</t>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:39:05 0
+汽车零部件+模具+拟并购新思考电机</t>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 09:37:39 2
+一季报同比扭亏+稀土永磁+贵金属回收+山西国资</t>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 09:30:00 0
+铝合金轮毂+北美市场+锂电池回收</t>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:00 0
+签订2.97亿元光学系统研制合同+大股东长春光机所</t>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:37:24 8
+签订2.97亿元光学系统研制合同+大股东长春光机所</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
 电力+光储</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
-      <text>
-        <t>3天3板 09:30:00 0
-ADHD治疗药物+化学制药</t>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
-      <text>
-        <t>3天3板 09:31:00 9
-黄金珠宝+水贝+深圳国资+年报增长</t>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
-      <text>
-        <t>4天4板 09:30:54 0
-房地产+大飞机+天津国企</t>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
-      <text>
-        <t>8天5板 10:05:37 5
-摘帽+电力设计+高端装备+上海国企</t>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:30:00 0
-拟收购天一恩华+跨境支付+华为</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
-      <text>
-        <t>6天5板 14:34:47 0
-拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
-      <text>
-        <t>3天2板 09:32:45 4
-参股迪洛斯10%股权+AI初创公司</t>
-      </text>
-    </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:30:59 0
-一季报净利增长+信创+华为概念+人工智能</t>
-      </text>
-    </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
-      <text>
-        <t>5天3板 10:08:47 0
-机器人关节+新能源驱动电机+国企</t>
-      </text>
-    </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:39:05 0
-汽车零部件+模具+拟并购新思考电机</t>
-      </text>
-    </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
-      <text>
-        <t>4天3板 09:37:39 2
-一季报同比扭亏+稀土永磁+贵金属回收+山西国资</t>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
-      <text>
-        <t>4天3板 09:30:00 0
-铝合金轮毂+北美市场+锂电池回收</t>
-      </text>
-    </comment>
-    <comment ref="O9" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:25:00 0
-智慧灯杆+换电+液冷</t>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <t>4天3板 09:30:00 0
-摘帽+高端装备+上海国企</t>
-      </text>
-    </comment>
     <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:17 0
@@ -1004,8 +1052,14 @@
     </comment>
     <comment ref="O10" authorId="0" shapeId="0">
       <text>
-        <t>2天2板 09:25:00 0
-签订2.97亿元光学系统研制合同+大股东长春光机所</t>
+        <t>2天2板 09:30:00 0
+智慧灯杆+换电+液冷</t>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 1
+人形机器人+智慧城市</t>
       </text>
     </comment>
     <comment ref="B11" authorId="0" shapeId="0">
@@ -1023,7 +1077,7 @@
     <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-烟标+一季报预增</t>
+控股股东拟变更+重大资产重组+石油化工装备</t>
       </text>
     </comment>
     <comment ref="E11" authorId="0" shapeId="0">
@@ -1088,8 +1142,14 @@
     </comment>
     <comment ref="O11" authorId="0" shapeId="0">
       <text>
+        <t>2天2板 09:30:00 0
+军工电子+低空经济+医疗装备+央企</t>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0">
+      <text>
         <t>2天2板 09:25:02 0
-军工电子+低空经济+医疗装备+央企</t>
+磁悬浮压缩机+液冷+算力</t>
       </text>
     </comment>
     <comment ref="B12" authorId="0" shapeId="0">
@@ -1107,7 +1167,7 @@
     <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-控股股东拟变更+重大资产重组+石油化工装备</t>
+烟标+一季报预增</t>
       </text>
     </comment>
     <comment ref="E12" authorId="0" shapeId="0">
@@ -1172,8 +1232,14 @@
     </comment>
     <comment ref="O12" authorId="0" shapeId="0">
       <text>
-        <t>2天2板 09:39:15 0
+        <t>2天2板 09:39:28 0
 成飞概念+军工+汽车零部件+国企改革</t>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 3
+压缩机+汽车零部件</t>
       </text>
     </comment>
     <comment ref="B13" authorId="0" shapeId="0">
@@ -1256,118 +1322,130 @@
     </comment>
     <comment ref="O13" authorId="0" shapeId="0">
       <text>
-        <t>2天2板 09:41:18 1
+        <t>2天2板 09:41:28 1
 航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
       </text>
     </comment>
+    <comment ref="P13" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:31:27 0
+人形机器人+低空经济+汽车零部件+资产重组</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:00 0
+跨境电商+敦煌网+拉链</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 13:01:05 0
+一带一路+体育户外+三胎+外销</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:37:30 1
+环氧丙烷+混凝土外加剂</t>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:00 0
+5G+华为+卫星通信</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 09:30:00 0
+摘帽+零售+一季报增长+年报扭亏</t>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 11:08:53 2
+机器人+战略布局未受关税实质影响+特斯拉供应链</t>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <t>6天4板 13:54:04 1
+大飞机+航空材料+AI眼镜+低空经济</t>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 13:28:36 4
+一季报增长+此前股价受关税影响+化工+轻烃</t>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 13:54:36 1
+一季报增长+化妆品</t>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 13:48:35 0
+一季报增长+机器人关节+齿轮箱+电机</t>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:00 0
+曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 14:41:42 1
+机器人概念+园林机械+一季度业绩增长+全球化布局</t>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:46:48 3
+航空零部件+大飞机+军工+机器人</t>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 14:42:06 0
+固态电池+磁悬浮技术产品+物流搬运机器人+国企</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
 ADHD治疗药物+化学制药</t>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
-      <text>
-        <t>5天3板 13:01:05 0
-一带一路+体育户外+三胎+外销</t>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:37:30 1
-环氧丙烷+混凝土外加剂</t>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 14:08:03 1
+饮料乳品+新疆振兴+新零售</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:39:15 2
+中字头+专业工程+年报扭亏+一带一路</t>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
 跨境电商+可降解塑料+快递包装</t>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F15" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
 跨境电商+可降解塑料+快递包装</t>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
-      <text>
-        <t>3天2板 11:08:53 2
-机器人+战略布局未受关税实质影响+特斯拉供应链</t>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
-      <text>
-        <t>6天4板 13:54:04 1
-大飞机+航空材料+AI眼镜+低空经济</t>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
-      <text>
-        <t>3天2板 13:28:36 4
-一季报增长+此前股价受关税影响+化工+轻烃</t>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 13:54:36 1
-一季报增长+化妆品</t>
-      </text>
-    </comment>
-    <comment ref="L14" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 13:48:35 0
-一季报增长+机器人关节+齿轮箱+电机</t>
-      </text>
-    </comment>
-    <comment ref="M14" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:30:00 0
-曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0" shapeId="0">
-      <text>
-        <t>4天3板 14:41:42 1
-机器人概念+园林机械+一季度业绩增长+全球化布局</t>
-      </text>
-    </comment>
-    <comment ref="O14" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:46:42 4
-航空零部件+大飞机+军工+机器人</t>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:30:00 0
-跨境电商+敦煌网+拉链</t>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
-      <text>
-        <t>3天3板 14:08:03 1
-饮料乳品+新疆振兴+新零售</t>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:39:15 2
-中字头+专业工程+年报扭亏+一带一路</t>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
-      <text>
-        <t>2天2板 09:30:00 0
-5G+华为+卫星通信</t>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0" shapeId="0">
-      <text>
-        <t>4天3板 09:30:00 0
-摘帽+零售+一季报增长+年报扭亏</t>
-      </text>
-    </comment>
     <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <t>2天2板 11:25:17 0
@@ -1406,7 +1484,7 @@
     </comment>
     <comment ref="O15" authorId="0" shapeId="0">
       <text>
-        <t>2天2板 10:19:09 0
+        <t>2天2板 10:19:12 0
 军工+卫星通信+一季报增长</t>
       </text>
     </comment>
@@ -1461,7 +1539,7 @@
     <comment ref="L16" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
-算力+机器人+防爆设备+智能矿山</t>
+一季报增长+新能源汽车+车联网+算力+低空经济</t>
       </text>
     </comment>
     <comment ref="M16" authorId="0" shapeId="0">
@@ -1478,8 +1556,14 @@
     </comment>
     <comment ref="O16" authorId="0" shapeId="0">
       <text>
-        <t>3天2板 13:46:45 0
+        <t>3天2板 13:46:54 0
 数据中心+小型发电机+柴油发电机组+一季报增长</t>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:00 1
+中航系+航空航天特色手表</t>
       </text>
     </comment>
     <comment ref="B17" authorId="0" shapeId="0">
@@ -1545,7 +1629,7 @@
     <comment ref="L17" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
-一季报增长+新能源汽车+车联网+算力+低空经济</t>
+算力+机器人+防爆设备+智能矿山</t>
       </text>
     </comment>
     <comment ref="M17" authorId="0" shapeId="0">
@@ -1562,8 +1646,14 @@
     </comment>
     <comment ref="O17" authorId="0" shapeId="0">
       <text>
-        <t>2天2板 14:43:33 0
+        <t>2天2板 14:43:41 0
 航空装备+军工+无人机</t>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:18 9
+纺织+此前提及东南亚+持股国泰君安+国企</t>
       </text>
     </comment>
     <comment ref="B18" authorId="0" shapeId="0">
@@ -1605,7 +1695,7 @@
     <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-人形机器人+蜜雪冰城供应商+跨境电商</t>
+机器人关节+新能源驱动电机+国企</t>
       </text>
     </comment>
     <comment ref="I18" authorId="0" shapeId="0">
@@ -1629,7 +1719,7 @@
     <comment ref="L18" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:15 0
-一季报扭亏+AI智家+家居产品+华为</t>
+曾研发外骨骼机器人用电缆+数据中心+电线电缆+航空航天</t>
       </text>
     </comment>
     <comment ref="M18" authorId="0" shapeId="0">
@@ -1644,6 +1734,12 @@
 跨境电商+电子商务+服装纺织+国企改革</t>
       </text>
     </comment>
+    <comment ref="P18" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:39 8
+一季报增长+芯片概念+氢能源</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 13:28:53 0
@@ -1671,7 +1767,7 @@
     <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-大豆+农药+生态农业</t>
+服装+电子商务</t>
       </text>
     </comment>
     <comment ref="G19" authorId="0" shapeId="0">
@@ -1683,7 +1779,7 @@
     <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-机器人关节+新能源驱动电机+国企</t>
+人形机器人+蜜雪冰城供应商+跨境电商</t>
       </text>
     </comment>
     <comment ref="I19" authorId="0" shapeId="0">
@@ -1707,7 +1803,7 @@
     <comment ref="L19" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:15 0
-一季报增长+通信线缆+储能消防</t>
+一季报扭亏+AI智家+家居产品+华为</t>
       </text>
     </comment>
     <comment ref="M19" authorId="0" shapeId="0">
@@ -1724,8 +1820,14 @@
     </comment>
     <comment ref="O19" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:25:00 0
-美国撤销越南部分钢制车轮范围调查+汽车车轮</t>
+        <t>首板涨停 09:30:00 0
+人形机器人+智慧城市</t>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:35:50 0
+纺织+跨境电商+外销+消费电子</t>
       </text>
     </comment>
     <comment ref="B20" authorId="0" shapeId="0">
@@ -1749,7 +1851,7 @@
     <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-造纸+环氧丙烷</t>
+跨境支付+汽车零部件</t>
       </text>
     </comment>
     <comment ref="G20" authorId="0" shapeId="0">
@@ -1785,7 +1887,7 @@
     <comment ref="L20" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:15 0
-曾研发外骨骼机器人用电缆+数据中心+电线电缆+航空航天</t>
+一季报增长+通信线缆+储能消防</t>
       </text>
     </comment>
     <comment ref="M20" authorId="0" shapeId="0">
@@ -1802,8 +1904,14 @@
     </comment>
     <comment ref="O20" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:25:00 0
-人形机器人+智慧城市</t>
+        <t>首板涨停 09:30:00 0
+机器人用高精密减速机+航空零部件+无人机+汽车传动系统</t>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:37:13 0
+纺织制造+年报增长</t>
       </text>
     </comment>
     <comment ref="B21" authorId="0" shapeId="0">
@@ -1886,8 +1994,14 @@
     </comment>
     <comment ref="O21" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:25:00 1
-控股股东、实控人拟变更+油服工程+海外业务拓展</t>
+        <t>首板涨停 09:30:00 0
+美国撤销越南部分钢制车轮范围调查+汽车车轮</t>
+      </text>
+    </comment>
+    <comment ref="P21" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:39:51 0
+年报增长+益生菌+养老概念+电子商务</t>
       </text>
     </comment>
     <comment ref="C22" authorId="0" shapeId="0">
@@ -1911,7 +2025,7 @@
     <comment ref="F22" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-跨境支付+汽车零部件</t>
+造纸+环氧丙烷</t>
       </text>
     </comment>
     <comment ref="G22" authorId="0" shapeId="0">
@@ -1947,7 +2061,7 @@
     <comment ref="L22" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:00 0
-一季报扭亏+控股股东拟变更+半导体+消费电子+央企国企改革</t>
+一季报增长+女装+电商</t>
       </text>
     </comment>
     <comment ref="M22" authorId="0" shapeId="0">
@@ -1964,8 +2078,14 @@
     </comment>
     <comment ref="O22" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:25:02 0
-机器人用高精密减速机+航空零部件+无人机+汽车传动系统</t>
+        <t>首板涨停 09:30:00 1
+控股股东、实控人拟变更+油服工程+海外业务拓展</t>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:40:45 0
+CDMO+尿素+一季报扭亏</t>
       </text>
     </comment>
     <comment ref="B23" authorId="0" shapeId="0">
@@ -1995,7 +2115,7 @@
     <comment ref="F23" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
-服装+电子商务</t>
+大豆+农药+生态农业</t>
       </text>
     </comment>
     <comment ref="G23" authorId="0" shapeId="0">
@@ -2031,7 +2151,7 @@
     <comment ref="L23" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:00 0
-一季报增长+女装+电商</t>
+一季报扭亏+控股股东拟变更+半导体+消费电子+央企国企改革</t>
       </text>
     </comment>
     <comment ref="M23" authorId="0" shapeId="0">
@@ -2048,8 +2168,14 @@
     </comment>
     <comment ref="O23" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:30:02 0
+        <t>首板涨停 09:30:12 0
 摘帽+解决同业竞争承诺+氢能源</t>
+      </text>
+    </comment>
+    <comment ref="P23" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:47:30 0
+机器人+航空发动机+电梯+中俄贸易</t>
       </text>
     </comment>
     <comment ref="B24" authorId="0" shapeId="0">
@@ -2132,8 +2258,14 @@
     </comment>
     <comment ref="O24" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:31:01 1
-脑机接口+AI大模型+机器人概念+外销</t>
+        <t>首板涨停 09:31:12 0
+控制权变更+口腔医疗</t>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:47:33 0
+丝绸文创+数码印花技术+AI智能体+市场拓展</t>
       </text>
     </comment>
     <comment ref="B25" authorId="0" shapeId="0">
@@ -2169,7 +2301,7 @@
     <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:35:35 0
-此前股价受关税影响+化工+一季报预增</t>
+消费电子+年报亏损收窄</t>
       </text>
     </comment>
     <comment ref="I25" authorId="0" shapeId="0">
@@ -2210,8 +2342,14 @@
     </comment>
     <comment ref="O25" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:31:03 0
-控制权变更+口腔医疗</t>
+        <t>首板涨停 09:31:12 1
+脑机接口+AI大模型+机器人概念+外销</t>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:49:24 0
+火电资产重组+煤电一体化+国企改革</t>
       </text>
     </comment>
     <comment ref="B26" authorId="0" shapeId="0">
@@ -2247,7 +2385,7 @@
     <comment ref="G26" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:35:35 0
-消费电子+年报亏损收窄</t>
+此前股价受关税影响+化工+一季报预增</t>
       </text>
     </comment>
     <comment ref="H26" authorId="0" shapeId="0">
@@ -2294,8 +2432,14 @@
     </comment>
     <comment ref="O26" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:32:33 0
+        <t>首板涨停 09:32:42 0
 机器人概念+水泥装备+国企改革</t>
+      </text>
+    </comment>
+    <comment ref="P26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:50:02 0
+化学纤维+一季报增长</t>
       </text>
     </comment>
     <comment ref="B27" authorId="0" shapeId="0">
@@ -2372,8 +2516,14 @@
     </comment>
     <comment ref="O27" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:32:45 0
-资产重组+人形机器人+汽车零部件+低空经济</t>
+        <t>首板涨停 09:32:57 0
+机器人概念+煤矿机械+年报营收增长</t>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:56:27 0
+智能按摩机器人+医疗器械+汽车面料</t>
       </text>
     </comment>
     <comment ref="B28" authorId="0" shapeId="0">
@@ -2385,7 +2535,7 @@
     <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
-控股股东拟变更+重大资产重组+石油化工装备</t>
+烟标+一季报预增</t>
       </text>
     </comment>
     <comment ref="D28" authorId="0" shapeId="0">
@@ -2450,8 +2600,14 @@
     </comment>
     <comment ref="O28" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:32:54 0
-机器人概念+煤矿机械+年报营收增长</t>
+        <t>首板涨停 09:32:57 0
+资产重组+人形机器人+汽车零部件+低空经济</t>
+      </text>
+    </comment>
+    <comment ref="P28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:02:18 0
+纺织设备+节能环保拉幅定形机+东南亚销售</t>
       </text>
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
@@ -2463,7 +2619,7 @@
     <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
-烟标+一季报预增</t>
+控股股东拟变更+重大资产重组+石油化工装备</t>
       </text>
     </comment>
     <comment ref="D29" authorId="0" shapeId="0">
@@ -2528,8 +2684,14 @@
     </comment>
     <comment ref="O29" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:34:43 0
+        <t>首板涨停 09:34:57 0
 磁悬浮压缩机+液冷+算力</t>
+      </text>
+    </comment>
+    <comment ref="P29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:03:00 2
+钨制品+光伏钨丝+一季报扭亏</t>
       </text>
     </comment>
     <comment ref="B30" authorId="0" shapeId="0">
@@ -2600,8 +2762,14 @@
     </comment>
     <comment ref="O30" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:36:27 0
+        <t>首板涨停 09:36:42 0
 跨境电商+儿童自行车+两轮车+外销</t>
+      </text>
+    </comment>
+    <comment ref="P30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:12:42 0
+年报、一季报增长+电力+供热</t>
       </text>
     </comment>
     <comment ref="B31" authorId="0" shapeId="0">
@@ -2631,7 +2799,7 @@
     <comment ref="F31" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
-拟收购恒扬数据+业绩增长+消费电子</t>
+拟收购天一恩华+跨境支付+华为</t>
       </text>
     </comment>
     <comment ref="G31" authorId="0" shapeId="0">
@@ -2684,8 +2852,14 @@
     </comment>
     <comment ref="O31" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:36:33 3
+        <t>首板涨停 09:36:42 3
 两轮车+首发经济+上海国资+一季报增长</t>
+      </text>
+    </comment>
+    <comment ref="P31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:50:13 3
+次新股+金属铜+稀土+一带一路</t>
       </text>
     </comment>
     <comment ref="B32" authorId="0" shapeId="0">
@@ -2715,7 +2889,7 @@
     <comment ref="F32" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
-拟收购天一恩华+跨境支付+华为</t>
+拟收购恒扬数据+业绩增长+消费电子</t>
       </text>
     </comment>
     <comment ref="G32" authorId="0" shapeId="0">
@@ -2768,8 +2942,14 @@
     </comment>
     <comment ref="O32" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:37:57 0
+        <t>首板涨停 09:37:58 0
 人形机器人+宇树科技合作+教育+鸿蒙</t>
+      </text>
+    </comment>
+    <comment ref="P32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:04:18 0
+一季报增长+产品涨价+军工+硬质合金</t>
       </text>
     </comment>
     <comment ref="B33" authorId="0" shapeId="0">
@@ -2852,8 +3032,14 @@
     </comment>
     <comment ref="O33" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:40:21 0
+        <t>首板涨停 09:40:28 0
 跨境电商+欧美用户</t>
+      </text>
+    </comment>
+    <comment ref="P33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:27 5
+军工+特种电源+钨合金</t>
       </text>
     </comment>
     <comment ref="B34" authorId="0" shapeId="0">
@@ -2936,8 +3122,14 @@
     </comment>
     <comment ref="O34" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:44:54 0
+        <t>首板涨停 09:44:58 0
 减速器+汽车整车</t>
+      </text>
+    </comment>
+    <comment ref="P34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:21:39 0
+5G+华为+卫星通信</t>
       </text>
     </comment>
     <comment ref="B35" authorId="0" shapeId="0">
@@ -3020,8 +3212,14 @@
     </comment>
     <comment ref="O35" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">首板涨停 09:45:15 0
+        <t xml:space="preserve">首板涨停 09:45:18 0
 </t>
+      </text>
+    </comment>
+    <comment ref="P35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:42:12 0
+牙膏+美容护理+一季报增长+国企改革</t>
       </text>
     </comment>
     <comment ref="B36" authorId="0" shapeId="0">
@@ -3104,7 +3302,7 @@
     </comment>
     <comment ref="O36" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:47:29 30
+        <t>首板涨停 09:47:33 23
 无收购“宠胖胖”安排+实控人拟变更+生态景观+城市更新</t>
       </text>
     </comment>
@@ -3272,7 +3470,7 @@
     </comment>
     <comment ref="O38" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:48:22 1
+        <t>首板涨停 09:48:33 1
 一季报增长+智能制造+压缩机+汽车零部件</t>
       </text>
     </comment>
@@ -3356,7 +3554,7 @@
     </comment>
     <comment ref="O39" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:49:17 0
+        <t>首板涨停 09:49:18 0
 大型压缩机零部件+高精度零部件+美墨工厂</t>
       </text>
     </comment>
@@ -3434,7 +3632,7 @@
     </comment>
     <comment ref="O40" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:50:18 1
+        <t>首板涨停 09:50:33 1
 军工+新能源+控股股东增持</t>
       </text>
     </comment>
@@ -3465,7 +3663,7 @@
     <comment ref="F41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:22 0
-跨境支付(CIPS)+数字货币+信创+蜜雪冰城合作</t>
+数字支付+数字货币+RISC-V+北京国资</t>
       </text>
     </comment>
     <comment ref="G41" authorId="0" shapeId="0">
@@ -3512,7 +3710,7 @@
     </comment>
     <comment ref="O41" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:53:57 0
+        <t>首板涨停 09:54:03 0
 轨交设备+维保市场+业绩增长</t>
       </text>
     </comment>
@@ -3525,7 +3723,7 @@
     <comment ref="C42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:17 0
-光刻胶+合成树脂+大飞机</t>
+化工+芯片概念+有机硅+电子特气</t>
       </text>
     </comment>
     <comment ref="D42" authorId="0" shapeId="0">
@@ -3543,7 +3741,7 @@
     <comment ref="F42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:22 0
-数字支付+数字货币+RISC-V+北京国资</t>
+跨境支付(CIPS)+数字货币+信创+蜜雪冰城合作</t>
       </text>
     </comment>
     <comment ref="G42" authorId="0" shapeId="0">
@@ -3590,7 +3788,7 @@
     </comment>
     <comment ref="O42" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:59:24 0
+        <t>首板涨停 09:59:27 0
 空气动力设备+压缩机+中俄贸易</t>
       </text>
     </comment>
@@ -3603,7 +3801,7 @@
     <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:17 0
-化工+芯片概念+有机硅+电子特气</t>
+光刻胶+合成树脂+大飞机</t>
       </text>
     </comment>
     <comment ref="D43" authorId="0" shapeId="0">
@@ -3668,7 +3866,7 @@
     </comment>
     <comment ref="O43" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 09:59:54 0
+        <t>首板涨停 09:59:57 0
 压缩机+半导体真空泵</t>
       </text>
     </comment>
@@ -3746,7 +3944,7 @@
     </comment>
     <comment ref="O44" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:05:28 1
+        <t>首板涨停 10:05:41 0
 光伏切割设备+金刚线+丝杠</t>
       </text>
     </comment>
@@ -3765,7 +3963,7 @@
     <comment ref="D45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:22:54 0
-固态电池+钠离子电池+消费电子+拟设海外子公司</t>
+钠离子电池+节能环保+年报预增</t>
       </text>
     </comment>
     <comment ref="E45" authorId="0" shapeId="0">
@@ -3824,7 +4022,7 @@
     </comment>
     <comment ref="O45" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:07:03 0
+        <t>首板涨停 10:07:11 0
 磁悬浮技术产品+物流搬运机器人+核电+国企</t>
       </text>
     </comment>
@@ -3843,7 +4041,7 @@
     <comment ref="D46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:22:54 0
-钠离子电池+节能环保+年报预增</t>
+固态电池+钠离子电池+消费电子+拟设海外子公司</t>
       </text>
     </comment>
     <comment ref="E46" authorId="0" shapeId="0">
@@ -3902,7 +4100,7 @@
     </comment>
     <comment ref="O46" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:09:22 2
+        <t>首板涨停 10:09:26 1
 压缩机+汽车零部件</t>
       </text>
     </comment>
@@ -3974,7 +4172,7 @@
     </comment>
     <comment ref="O47" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:11:06 0
+        <t>首板涨停 10:11:11 0
 空调压缩机+曾炒作过光刻机概念</t>
       </text>
     </comment>
@@ -4046,7 +4244,7 @@
     </comment>
     <comment ref="O48" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:14:48 0
+        <t>首板涨停 10:14:56 0
 一体化压铸+低空经济+国企改革</t>
       </text>
     </comment>
@@ -4118,7 +4316,7 @@
     </comment>
     <comment ref="O49" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:20:39 0
+        <t>首板涨停 10:20:42 0
 军工+大飞机+电线电缆</t>
       </text>
     </comment>
@@ -4190,7 +4388,7 @@
     </comment>
     <comment ref="O50" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:20:48 0
+        <t>首板涨停 10:20:57 0
 压缩机+节能环保装备+预重整+国企改革</t>
       </text>
     </comment>
@@ -4262,7 +4460,7 @@
     </comment>
     <comment ref="O51" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:21:23 2
+        <t>首板涨停 10:21:27 2
 航空航天+轨道交通+一季报增长</t>
       </text>
     </comment>
@@ -4334,7 +4532,7 @@
     </comment>
     <comment ref="O52" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:22:27 0
+        <t>首板涨停 10:22:28 0
 智能座舱+特斯拉+智能交互+外销</t>
       </text>
     </comment>
@@ -4400,7 +4598,7 @@
     </comment>
     <comment ref="O53" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:51:39 0
+        <t>首板涨停 10:51:46 0
 铜缆高速连接+业绩增长</t>
       </text>
     </comment>
@@ -4466,7 +4664,7 @@
     </comment>
     <comment ref="O54" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:57:45 0
+        <t>首板涨停 10:57:53 0
 视觉内容版权+华为盘古+一季报增长</t>
       </text>
     </comment>
@@ -4532,7 +4730,7 @@
     </comment>
     <comment ref="O55" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 10:58:09 0
+        <t>首板涨停 10:58:23 0
 数字基础设施建设+AI智能体+糖业大模型+腾讯</t>
       </text>
     </comment>
@@ -4598,7 +4796,7 @@
     </comment>
     <comment ref="O56" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 11:20:57 3
+        <t>首板涨停 11:21:12 3
 鸿蒙概念+脑机接口+中科系</t>
       </text>
     </comment>
@@ -4664,7 +4862,7 @@
     </comment>
     <comment ref="O57" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 13:00:24 0
+        <t>首板涨停 13:00:37 0
 压缩机+数据中心+液冷服务器+超导磁体冷却设备</t>
       </text>
     </comment>
@@ -4730,7 +4928,7 @@
     </comment>
     <comment ref="O58" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 13:03:46 6
+        <t>首板涨停 13:03:52 6
 高速光模块+数据中心+一季报增长</t>
       </text>
     </comment>
@@ -4796,7 +4994,7 @@
     </comment>
     <comment ref="O59" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 13:22:00 0
+        <t>首板涨停 13:22:07 0
 消费电子+马达+华为概念+一季报增长</t>
       </text>
     </comment>
@@ -4862,7 +5060,7 @@
     </comment>
     <comment ref="O60" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 13:39:39 0
+        <t>首板涨停 13:39:51 0
 零售+免税店+仓储物流+一带一路</t>
       </text>
     </comment>
@@ -4922,7 +5120,7 @@
     </comment>
     <comment ref="O61" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 13:52:57 0
+        <t>首板涨停 13:53:09 0
 航空装备+军贸+无人机+人形机器人</t>
       </text>
     </comment>
@@ -4970,7 +5168,7 @@
     </comment>
     <comment ref="O62" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:03:01 0
+        <t>首板涨停 14:03:05 0
 水泥+医药+一季报净利大增+国企改革</t>
       </text>
     </comment>
@@ -5018,7 +5216,7 @@
     </comment>
     <comment ref="O63" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:11:27 0
+        <t>首板涨停 14:11:28 0
 军工信息化+电梯</t>
       </text>
     </comment>
@@ -5060,7 +5258,7 @@
     </comment>
     <comment ref="O64" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:13:03 0
+        <t>首板涨停 14:13:15 0
 卫星通信+6G+对讲机终端+一带一路</t>
       </text>
     </comment>
@@ -5102,7 +5300,7 @@
     </comment>
     <comment ref="O65" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:30:09 0
+        <t>首板涨停 14:30:18 0
 军工+一季报增长+低空经济+央企</t>
       </text>
     </comment>
@@ -5144,7 +5342,7 @@
     </comment>
     <comment ref="O66" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:36:09 0
+        <t>首板涨停 14:36:21 0
 民爆+央企+并购重组预期</t>
       </text>
     </comment>
@@ -5180,7 +5378,7 @@
     </comment>
     <comment ref="O67" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:41:54 0
+        <t>首板涨停 14:42:06 0
 雷达+军工+低空经济+国企</t>
       </text>
     </comment>
@@ -5216,7 +5414,7 @@
     </comment>
     <comment ref="O68" authorId="0" shapeId="0">
       <text>
-        <t>首板涨停 14:46:57 0
+        <t>首板涨停 14:47:09 0
 摘帽+猪肉+电子商务</t>
       </text>
     </comment>
@@ -6143,7 +6341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6166,6 +6364,7 @@
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6244,6 +6443,11 @@
           <t>2025年05月08日</t>
         </is>
       </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>2025年05月09日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -6321,6 +6525,11 @@
           <t>中超控股4</t>
         </is>
       </c>
+      <c r="P2" s="8" t="inlineStr">
+        <is>
+          <t>红墙股份8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="inlineStr">
@@ -6398,6 +6607,11 @@
           <t>润贝航科4</t>
         </is>
       </c>
+      <c r="P3" s="6" t="inlineStr">
+        <is>
+          <t>华纺股份4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
@@ -6475,6 +6689,11 @@
           <t>华电辽能4</t>
         </is>
       </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>春光科技4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
@@ -6552,6 +6771,11 @@
           <t>山东墨龙3</t>
         </is>
       </c>
+      <c r="P5" s="6" t="inlineStr">
+        <is>
+          <t>麒盛科技4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
@@ -6584,9 +6808,9 @@
           <t>安记食品6</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>青岛金王3</t>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>先达股份3</t>
         </is>
       </c>
       <c r="H6" s="9" t="inlineStr">
@@ -6594,9 +6818,9 @@
           <t>天保基建6</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>宁波联合2</t>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>茂业商业2</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -6627,6 +6851,11 @@
       <c r="O6" s="6" t="inlineStr">
         <is>
           <t>麒盛科技3</t>
+        </is>
+      </c>
+      <c r="P6" s="9" t="inlineStr">
+        <is>
+          <t>成飞集成3</t>
         </is>
       </c>
     </row>
@@ -6706,6 +6935,11 @@
           <t>春光科技3</t>
         </is>
       </c>
+      <c r="P7" s="9" t="inlineStr">
+        <is>
+          <t>天箭科技3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="inlineStr">
@@ -6718,9 +6952,9 @@
           <t>两面针4</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>浔兴股份3</t>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>立方制药3</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -6738,9 +6972,9 @@
           <t>亚联机械5</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>先达股份3</t>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>青岛金王3</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -6748,9 +6982,9 @@
           <t>天元股份5</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>茂业商业2</t>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>宁波联合2</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr">
@@ -6781,6 +7015,11 @@
       <c r="O8" s="6" t="inlineStr">
         <is>
           <t>华纺股份3</t>
+        </is>
+      </c>
+      <c r="P8" s="9" t="inlineStr">
+        <is>
+          <t>利君股份3</t>
         </is>
       </c>
     </row>
@@ -6792,12 +7031,12 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>乐山电力3</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>立方制药3</t>
+          <t>天沃科技3</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>浔兴股份3</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -6857,7 +7096,12 @@
       </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
-          <t>豪尔赛2</t>
+          <t>奥普光电2</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>奥普光电3</t>
         </is>
       </c>
     </row>
@@ -6869,7 +7113,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>天沃科技3</t>
+          <t>乐山电力3</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -6934,7 +7178,12 @@
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
-          <t>奥普光电2</t>
+          <t>豪尔赛2</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>侨银股份2</t>
         </is>
       </c>
     </row>
@@ -6954,9 +7203,9 @@
           <t>红宝丽3</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>新宏泽2</t>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>蓝科高新2</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr">
@@ -7012,6 +7261,11 @@
       <c r="O11" s="9" t="inlineStr">
         <is>
           <t>航天长峰2</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>佳力图2</t>
         </is>
       </c>
     </row>
@@ -7031,9 +7285,9 @@
           <t>亚邦股份3</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>蓝科高新2</t>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>新宏泽2</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -7089,6 +7343,11 @@
       <c r="O12" s="9" t="inlineStr">
         <is>
           <t>成飞集成2</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>百达精工2</t>
         </is>
       </c>
     </row>
@@ -7164,11 +7423,16 @@
           <t>华伍股份2</t>
         </is>
       </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>万向钱潮2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>立方制药2</t>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>浔兴股份2</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
@@ -7181,14 +7445,14 @@
           <t>红墙股份2</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>天元股份2</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>天元股份3</t>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>武汉凡谷2</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>步步高3</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
@@ -7232,11 +7496,16 @@
           <t>利君股份2</t>
         </is>
       </c>
+      <c r="P14" s="12" t="inlineStr">
+        <is>
+          <t>山东章鼓2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>浔兴股份2</t>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>立方制药2</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -7249,14 +7518,14 @@
           <t>中铝国际2</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>武汉凡谷2</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>步步高3</t>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>天元股份2</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>天元股份3</t>
         </is>
       </c>
       <c r="G15" s="8" t="inlineStr">
@@ -7296,6 +7565,7 @@
           <t>天箭科技2</t>
         </is>
       </c>
+      <c r="P15" s="24" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="21" t="inlineStr">
@@ -7340,9 +7610,9 @@
           <t>今创集团</t>
         </is>
       </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>电光科技</t>
+      <c r="L16" s="12" t="inlineStr">
+        <is>
+          <t>兴民智通</t>
         </is>
       </c>
       <c r="M16" s="12" t="inlineStr">
@@ -7358,6 +7628,11 @@
       <c r="O16" s="7" t="inlineStr">
         <is>
           <t>神驰机电2</t>
+        </is>
+      </c>
+      <c r="P16" s="9" t="inlineStr">
+        <is>
+          <t>飞亚达</t>
         </is>
       </c>
     </row>
@@ -7412,9 +7687,9 @@
           <t>得润电子</t>
         </is>
       </c>
-      <c r="L17" s="12" t="inlineStr">
-        <is>
-          <t>兴民智通</t>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>电光科技</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
@@ -7430,6 +7705,11 @@
       <c r="O17" s="9" t="inlineStr">
         <is>
           <t>晨曦航空2</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>华茂股份</t>
         </is>
       </c>
     </row>
@@ -7464,9 +7744,9 @@
           <t>海森药业</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
-        <is>
-          <t>东贝集团2</t>
+      <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t>方正电机2</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
@@ -7484,9 +7764,9 @@
           <t>菜百股份</t>
         </is>
       </c>
-      <c r="L18" s="15" t="inlineStr">
-        <is>
-          <t>美克家居</t>
+      <c r="L18" s="9" t="inlineStr">
+        <is>
+          <t>中超控股</t>
         </is>
       </c>
       <c r="M18" s="6" t="inlineStr">
@@ -7500,6 +7780,11 @@
         </is>
       </c>
       <c r="O18" s="24" t="n"/>
+      <c r="P18" s="12" t="inlineStr">
+        <is>
+          <t>纳尔股份</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="inlineStr">
@@ -7522,9 +7807,9 @@
           <t>航发科技2</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>先达股份2</t>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>安正时尚2</t>
         </is>
       </c>
       <c r="G19" s="21" t="inlineStr">
@@ -7532,9 +7817,9 @@
           <t>朝阳科技</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>方正电机2</t>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>东贝集团2</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
@@ -7554,7 +7839,7 @@
       </c>
       <c r="L19" s="15" t="inlineStr">
         <is>
-          <t>通鼎互联</t>
+          <t>美克家居</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
@@ -7567,9 +7852,14 @@
           <t>麒盛科技2</t>
         </is>
       </c>
-      <c r="O19" s="15" t="inlineStr">
-        <is>
-          <t>日上集团</t>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>侨银股份</t>
+        </is>
+      </c>
+      <c r="P19" s="6" t="inlineStr">
+        <is>
+          <t>华升股份</t>
         </is>
       </c>
     </row>
@@ -7590,9 +7880,9 @@
           <t>威尔药业2</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>华泰股份2</t>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>海联金汇2</t>
         </is>
       </c>
       <c r="G20" s="12" t="inlineStr">
@@ -7620,9 +7910,9 @@
           <t>三和管桩</t>
         </is>
       </c>
-      <c r="L20" s="9" t="inlineStr">
-        <is>
-          <t>中超控股</t>
+      <c r="L20" s="15" t="inlineStr">
+        <is>
+          <t>通鼎互联</t>
         </is>
       </c>
       <c r="M20" s="9" t="inlineStr">
@@ -7635,9 +7925,14 @@
           <t>华胜天成2</t>
         </is>
       </c>
-      <c r="O20" s="15" t="inlineStr">
-        <is>
-          <t>侨银股份</t>
+      <c r="O20" s="9" t="inlineStr">
+        <is>
+          <t>豪能股份</t>
+        </is>
+      </c>
+      <c r="P20" s="15" t="inlineStr">
+        <is>
+          <t>迎丰股份</t>
         </is>
       </c>
     </row>
@@ -7709,7 +8004,12 @@
       </c>
       <c r="O21" s="15" t="inlineStr">
         <is>
-          <t>贝肯能源</t>
+          <t>日上集团</t>
+        </is>
+      </c>
+      <c r="P21" s="21" t="inlineStr">
+        <is>
+          <t>交大昂立</t>
         </is>
       </c>
     </row>
@@ -7730,9 +8030,9 @@
           <t>五芳斋2</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>海联金汇2</t>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>华泰股份2</t>
         </is>
       </c>
       <c r="G22" s="15" t="inlineStr">
@@ -7760,9 +8060,9 @@
           <t>三孚股份</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>深康佳A</t>
+      <c r="L22" s="6" t="inlineStr">
+        <is>
+          <t>安正时尚</t>
         </is>
       </c>
       <c r="M22" s="5" t="inlineStr">
@@ -7775,9 +8075,14 @@
           <t>禾盛新材2</t>
         </is>
       </c>
-      <c r="O22" s="9" t="inlineStr">
-        <is>
-          <t>豪能股份</t>
+      <c r="O22" s="15" t="inlineStr">
+        <is>
+          <t>贝肯能源</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>河化股份</t>
         </is>
       </c>
     </row>
@@ -7802,9 +8107,9 @@
           <t>石基信息2</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>安正时尚2</t>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>先达股份2</t>
         </is>
       </c>
       <c r="G23" s="9" t="inlineStr">
@@ -7832,9 +8137,9 @@
           <t>道道全</t>
         </is>
       </c>
-      <c r="L23" s="6" t="inlineStr">
-        <is>
-          <t>安正时尚</t>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>深康佳A</t>
         </is>
       </c>
       <c r="M23" s="5" t="inlineStr">
@@ -7850,6 +8155,11 @@
       <c r="O23" s="12" t="inlineStr">
         <is>
           <t>汉马科技</t>
+        </is>
+      </c>
+      <c r="P23" s="15" t="inlineStr">
+        <is>
+          <t>远大智能</t>
         </is>
       </c>
     </row>
@@ -7919,9 +8229,14 @@
           <t>明新旭腾2</t>
         </is>
       </c>
-      <c r="O24" s="6" t="inlineStr">
-        <is>
-          <t>荣泰健康</t>
+      <c r="O24" s="15" t="inlineStr">
+        <is>
+          <t>皓宸医疗</t>
+        </is>
+      </c>
+      <c r="P24" s="15" t="inlineStr">
+        <is>
+          <t>万事利</t>
         </is>
       </c>
     </row>
@@ -7951,9 +8266,9 @@
           <t>信雅达2</t>
         </is>
       </c>
-      <c r="G25" s="8" t="inlineStr">
-        <is>
-          <t>卫星化学</t>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>卓翼科技</t>
         </is>
       </c>
       <c r="H25" s="24" t="n"/>
@@ -7987,9 +8302,14 @@
           <t>保龄宝2</t>
         </is>
       </c>
-      <c r="O25" s="15" t="inlineStr">
-        <is>
-          <t>皓宸医疗</t>
+      <c r="O25" s="6" t="inlineStr">
+        <is>
+          <t>荣泰健康</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>淮河能源</t>
         </is>
       </c>
     </row>
@@ -8019,9 +8339,9 @@
           <t>顺灏股份2</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
-        <is>
-          <t>卓翼科技</t>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>卫星化学</t>
         </is>
       </c>
       <c r="H26" s="12" t="inlineStr">
@@ -8062,6 +8382,11 @@
       <c r="O26" s="15" t="inlineStr">
         <is>
           <t>冀东装备</t>
+        </is>
+      </c>
+      <c r="P26" s="15" t="inlineStr">
+        <is>
+          <t>苏州龙杰</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8454,12 @@
       </c>
       <c r="O27" s="15" t="inlineStr">
         <is>
-          <t>万向钱潮</t>
+          <t>冀凯股份</t>
+        </is>
+      </c>
+      <c r="P27" s="15" t="inlineStr">
+        <is>
+          <t>宏达高科</t>
         </is>
       </c>
     </row>
@@ -8139,9 +8469,9 @@
           <t>天保基建</t>
         </is>
       </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>蓝科高新</t>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -8195,9 +8525,14 @@
         </is>
       </c>
       <c r="N28" s="24" t="n"/>
-      <c r="O28" s="15" t="inlineStr">
-        <is>
-          <t>冀凯股份</t>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>万向钱潮</t>
+        </is>
+      </c>
+      <c r="P28" s="15" t="inlineStr">
+        <is>
+          <t>远信工业</t>
         </is>
       </c>
     </row>
@@ -8207,9 +8542,9 @@
           <t>南京港</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>蓝科高新</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
@@ -8263,9 +8598,14 @@
           <t>豪尔赛</t>
         </is>
       </c>
-      <c r="O29" s="15" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>佳力图</t>
+        </is>
+      </c>
+      <c r="P29" s="12" t="inlineStr">
+        <is>
+          <t>翔鹭钨业</t>
         </is>
       </c>
     </row>
@@ -8332,6 +8672,11 @@
           <t>久祺股份</t>
         </is>
       </c>
+      <c r="P30" s="7" t="inlineStr">
+        <is>
+          <t>晋控电力</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="5" t="inlineStr">
@@ -8354,9 +8699,9 @@
           <t>仕佳光子</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>致尚科技</t>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>新晨科技</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
@@ -8402,6 +8747,11 @@
       <c r="O31" s="5" t="inlineStr">
         <is>
           <t>上海凤凰</t>
+        </is>
+      </c>
+      <c r="P31" s="15" t="inlineStr">
+        <is>
+          <t>中国瑞林</t>
         </is>
       </c>
     </row>
@@ -8426,9 +8776,9 @@
           <t>京城股份</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>新晨科技</t>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>致尚科技</t>
         </is>
       </c>
       <c r="G32" s="15" t="inlineStr">
@@ -8474,6 +8824,11 @@
       <c r="O32" s="15" t="inlineStr">
         <is>
           <t>盛通股份</t>
+        </is>
+      </c>
+      <c r="P32" s="9" t="inlineStr">
+        <is>
+          <t>章源钨业</t>
         </is>
       </c>
     </row>
@@ -8548,6 +8903,11 @@
           <t>跨境通</t>
         </is>
       </c>
+      <c r="P33" s="9" t="inlineStr">
+        <is>
+          <t>甘化科工</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="5" t="inlineStr">
@@ -8580,7 +8940,7 @@
           <t>南方精工</t>
         </is>
       </c>
-      <c r="H34" s="15" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -8618,6 +8978,11 @@
       <c r="O34" s="15" t="inlineStr">
         <is>
           <t>山子高科</t>
+        </is>
+      </c>
+      <c r="P34" s="5" t="inlineStr">
+        <is>
+          <t>武汉凡谷</t>
         </is>
       </c>
     </row>
@@ -8692,6 +9057,11 @@
           <t>磁谷科技</t>
         </is>
       </c>
+      <c r="P35" s="15" t="inlineStr">
+        <is>
+          <t>登康口腔</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="B36" s="15" t="inlineStr">
@@ -8838,7 +9208,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="15" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>华茂股份</t>
         </is>
@@ -9069,9 +9439,9 @@
           <t>西王食品</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>优博讯</t>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>翠微股份</t>
         </is>
       </c>
       <c r="G41" s="9" t="inlineStr">
@@ -9121,9 +9491,9 @@
           <t>桂发祥</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>兴业股份</t>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>三孚股份</t>
         </is>
       </c>
       <c r="D42" s="15" t="inlineStr">
@@ -9136,9 +9506,9 @@
           <t>横店影视</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
-        <is>
-          <t>翠微股份</t>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>优博讯</t>
         </is>
       </c>
       <c r="G42" s="15" t="inlineStr">
@@ -9188,9 +9558,9 @@
           <t>渤海化学</t>
         </is>
       </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>三孚股份</t>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>兴业股份</t>
         </is>
       </c>
       <c r="D43" s="15" t="inlineStr">
@@ -9329,7 +9699,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>传艺科技</t>
+          <t>同兴科技</t>
         </is>
       </c>
       <c r="E45" s="15" t="inlineStr">
@@ -9377,7 +9747,7 @@
           <t>丹化科技</t>
         </is>
       </c>
-      <c r="O45" s="15" t="inlineStr">
+      <c r="O45" s="12" t="inlineStr">
         <is>
           <t>山东章鼓</t>
         </is>
@@ -9396,7 +9766,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>同兴科技</t>
+          <t>传艺科技</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -9444,7 +9814,7 @@
           <t>国风新材</t>
         </is>
       </c>
-      <c r="O46" s="15" t="inlineStr">
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>百达精工</t>
         </is>
@@ -10774,7 +11144,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="C76" s="15" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
         <is>
           <t>淮河能源</t>
         </is>
@@ -11192,7 +11562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11235,11 +11605,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中俄贸易</t>
+          <t>敦煌网合作</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -11247,7 +11617,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>智慧供应链</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -11263,7 +11633,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>覆铜板上游</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -11271,7 +11641,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>电气绝缘材料</t>
+          <t>胰岛素</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -11279,7 +11649,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>车桥</t>
+          <t>超高分子量聚乙烯</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -11293,7 +11663,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -11305,7 +11675,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>新三板股权认购</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -11321,7 +11691,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>仿制药一致性评价</t>
+          <t>化债(AMC概念）</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -11329,7 +11699,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>炭黑</t>
+          <t>定制家具</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -11337,7 +11707,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>上海泽熙持有股份被司法拍卖</t>
+          <t>革基布</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -11363,7 +11733,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>曲轴</t>
+          <t>部分重点产品提价</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11379,7 +11749,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>盐化产业</t>
+          <t>参股中昊芯英</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -11387,7 +11757,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>国产替代</t>
+          <t>诉讼案件获受理</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -11395,7 +11765,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>养老概念</t>
+          <t>锆钛资源扩张</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -11421,7 +11791,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>拟获得长坂科技35%股权</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11437,7 +11807,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>纯碱</t>
+          <t>环保概念</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -11445,7 +11815,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>机器狗</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -11453,7 +11823,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>字节</t>
+          <t>工业自动化控制产品</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -11479,7 +11849,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>新三板股权认购</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11495,7 +11865,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>溴素</t>
+          <t>汽车内饰</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -11503,7 +11873,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>拟收购控股子公司27.46%股权</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -11511,7 +11881,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>拟收购金华威剩余45%股权</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -11537,7 +11907,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>钙钛矿电池</t>
+          <t>曲轴</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11553,7 +11923,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>豆油</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -11561,7 +11931,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>汽车销售</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -11569,7 +11939,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -11583,7 +11953,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -11595,7 +11965,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>墨西哥生产基地</t>
+          <t>拟获得长坂科技35%股权</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11611,7 +11981,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>化债(AMC概念）</t>
+          <t>大宗商品贸易</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -11619,7 +11989,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>物业租赁</t>
+          <t>油气</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -11627,7 +11997,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>数字阅读</t>
+          <t>发动机零部件</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -11653,7 +12023,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>汽车内饰新材料</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11669,7 +12039,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>参股中昊芯英</t>
+          <t>眼科治疗</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -11677,7 +12047,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>杀菌卫生产品</t>
+          <t>社保民生</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -11685,7 +12055,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>线性驱动系统</t>
+          <t>出口美国业务占比少</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -11695,7 +12065,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -11711,7 +12081,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>小鹏汽车</t>
+          <t>钙钛矿电池</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11727,7 +12097,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保概念</t>
+          <t>柔性传感器</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -11735,7 +12105,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>钒矿</t>
+          <t>智能汽车光学镜头</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -11743,7 +12113,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>境外产能布局</t>
+          <t>AH股</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -11753,7 +12123,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>卫星通信</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -11769,7 +12139,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>墨西哥生产基地</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11785,7 +12155,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>汽车内饰</t>
+          <t>数据确权</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -11793,7 +12163,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>胰岛素</t>
+          <t>影石</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -11801,7 +12171,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>浓缩果汁</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -11811,7 +12181,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>减速器</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -11827,7 +12197,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>客户合作</t>
+          <t>汽车内饰新材料</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11843,7 +12213,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>豆油</t>
+          <t>版权</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -11851,7 +12221,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>定制家具</t>
+          <t>智能设备</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -11859,7 +12229,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>获道路测试牌照</t>
+          <t>高端纺织机械设备</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -11869,11 +12239,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -11885,7 +12255,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>布局低空经济</t>
+          <t>小鹏汽车</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11901,7 +12271,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>大宗商品贸易</t>
+          <t>卫生巾</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -11909,7 +12279,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>诉讼案件获受理</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -11917,7 +12287,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>互联网入口平台</t>
+          <t>新型工业化</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -11927,11 +12297,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>航空材料</t>
+          <t>脑机接口</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -11943,7 +12313,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>化学纤维</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11959,7 +12329,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>眼科治疗</t>
+          <t>纸尿裤</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -11967,7 +12337,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>机器狗</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -11975,7 +12345,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>玻璃封装载板</t>
+          <t>链传动</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -11985,11 +12355,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>减速器</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -12001,7 +12371,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>客户合作</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12009,7 +12379,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>纺织</t>
+          <t>紧固件</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -12017,7 +12387,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>柔性传感器</t>
+          <t>碳交易</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -12025,7 +12395,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>拟收购控股子公司27.46%股权</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -12033,7 +12403,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>面板</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -12043,7 +12413,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>脑机接口</t>
+          <t>混凝土外加剂</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -12051,7 +12421,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -12059,7 +12429,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>智慧灯杆</t>
+          <t>布局低空经济</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12067,7 +12437,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>持股国泰君安</t>
+          <t>石墨烯</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -12075,7 +12445,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>数据确权</t>
+          <t>拟收购兴储世纪69.71%股份</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -12083,7 +12453,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -12091,7 +12461,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯</t>
+          <t>激光雷达</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -12101,15 +12471,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>高端装备</t>
+          <t>航空材料</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -12117,7 +12487,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12125,7 +12495,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>紧固件</t>
+          <t>农化产品</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -12133,7 +12503,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>版权</t>
+          <t>燃气轮机</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -12141,7 +12511,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>油气</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -12149,7 +12519,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>革基布</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -12159,11 +12529,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>混凝土外加剂</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -12175,7 +12545,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>签订2.97亿元光学系统研制合同</t>
+          <t>智慧灯杆</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12183,7 +12553,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>石墨烯</t>
+          <t>IC分销</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -12191,7 +12561,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>卫生巾</t>
+          <t>机械设备</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -12199,7 +12569,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>社保民生</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -12207,7 +12577,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>锆钛资源扩张</t>
+          <t>实景演艺</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -12217,11 +12587,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>化纤</t>
+          <t>家电</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -12233,7 +12603,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大股东长春光机所</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12241,7 +12611,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>农化产品</t>
+          <t>特钢</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -12249,7 +12619,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>纸尿裤</t>
+          <t>阿里云</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -12257,7 +12627,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>智能汽车光学镜头</t>
+          <t>菜籽油龙头</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -12265,7 +12635,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>工业自动化控制产品</t>
+          <t>智能化塑机</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -12275,7 +12645,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>高端装备</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -12299,7 +12669,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>IC分销</t>
+          <t>合成树脂</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -12307,7 +12677,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>碳交易</t>
+          <t>DeepSeek</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -12315,7 +12685,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>影石</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -12323,7 +12693,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>薄膜</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -12333,7 +12703,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>卫星通信</t>
+          <t>化纤</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -12357,7 +12727,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>特钢</t>
+          <t>健身器材</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -12365,7 +12735,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>拟收购兴储世纪69.71%股份</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -12373,7 +12743,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>智能设备</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -12381,7 +12751,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>通用机械</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -12391,7 +12761,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12415,7 +12785,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>合成树脂</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -12423,7 +12793,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>燃气轮机</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -12431,7 +12801,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>视讯</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -12439,7 +12809,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>发动机零部件</t>
+          <t>助听器</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -12449,7 +12819,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>西部大开发</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12465,7 +12835,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>豆奶</t>
+          <t>磁悬浮压缩机</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12473,7 +12843,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>健身器材</t>
+          <t>发动机进排气门</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -12481,7 +12851,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>机械设备</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -12489,7 +12859,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>有机颜料</t>
+          <t>汽车注塑结构件</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -12497,7 +12867,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>出口美国业务占比少</t>
+          <t>实控人将变更为中创新航</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -12507,7 +12877,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>西部大开发</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -12523,7 +12893,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>国产软件</t>
+          <t>雷达</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12531,7 +12901,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>终止协议转让股份</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -12539,7 +12909,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>阿里云</t>
+          <t>锑</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -12547,7 +12917,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -12555,7 +12925,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>AH股</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -12565,7 +12935,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>家电</t>
+          <t>建筑装饰</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -12581,7 +12951,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>智慧政务</t>
+          <t>磁悬浮技术产品</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12589,7 +12959,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>发动机进排气门</t>
+          <t>子公司停产</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -12597,7 +12967,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>DeepSeek</t>
+          <t>产业投资</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -12605,7 +12975,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>碳酸钾</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -12613,7 +12983,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>浓缩果汁</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -12623,7 +12993,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>智能家居</t>
+          <t>服装纺织</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -12639,7 +13009,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>IP经济</t>
+          <t>豆奶</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12647,7 +13017,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>终止协议转让股份</t>
+          <t>沙县小吃</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -12655,7 +13025,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>国际物流</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -12663,7 +13033,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>年报、一季报发布</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -12671,7 +13041,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>高端纺织机械设备</t>
+          <t>泵</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -12681,7 +13051,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>核电</t>
+          <t>智能家居</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -12697,7 +13067,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>国产软件</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -12705,7 +13075,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>子公司停产</t>
+          <t>医美概念</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -12713,7 +13083,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>贵金属</t>
+          <t>深冷技术</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -12721,7 +13091,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>珠宝饰品</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -12729,7 +13099,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>新型工业化</t>
+          <t>聚醚多元醇</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -12739,11 +13109,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>碳纤维</t>
+          <t>压缩机</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -12755,7 +13125,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>有机硅</t>
+          <t>智慧政务</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -12763,7 +13133,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>沙县小吃</t>
+          <t>膜产品</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -12771,7 +13141,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>乳制品</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -12779,7 +13149,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>菜籽油龙头</t>
+          <t>收购果链股权</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -12787,7 +13157,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>链传动</t>
+          <t>钛白粉</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -12797,11 +13167,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>核电</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -12813,7 +13183,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>IP经济</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -12821,7 +13191,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>医美概念</t>
+          <t>植物纤维</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -12829,7 +13199,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>锑</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -12837,7 +13207,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>皮鞋</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -12845,7 +13215,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -12855,7 +13225,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>碳纤维</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -12871,7 +13241,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>开源鸿蒙</t>
+          <t>持股国泰君安</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -12879,7 +13249,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>膜产品</t>
+          <t>环氧树脂</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -12887,7 +13257,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>产业投资</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -12895,7 +13265,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>POE胶膜</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -12903,7 +13273,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>激光雷达</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -12913,7 +13283,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DeepSeek概念</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -12929,7 +13299,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -12937,7 +13307,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>植物纤维</t>
+          <t>工程造价软件</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -12945,7 +13315,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>国际物流</t>
+          <t>超导技术</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -12953,7 +13323,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>视讯</t>
+          <t>聚烯烃高效能催化剂</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -12961,7 +13331,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>智慧家居</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -12971,7 +13341,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -12987,7 +13357,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>控制权此前变更</t>
+          <t>有机硅</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -12995,7 +13365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>环氧树脂</t>
+          <t>全屋板式家具</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -13003,7 +13373,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>深冷技术</t>
+          <t>速冻鱼肉制品</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -13011,7 +13381,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>汽车注塑结构件</t>
+          <t>小米汽车</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -13019,7 +13389,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>实景演艺</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -13029,7 +13399,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>中字头</t>
+          <t>DeepSeek概念</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -13037,7 +13407,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>智能电动床</t>
+          <t>化学纤维</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -13045,7 +13415,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>抗肿瘤</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -13053,7 +13423,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>工程造价软件</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -13061,7 +13431,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>乳制品</t>
+          <t>国际结算</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -13069,7 +13439,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>英伟达概念</t>
+          <t>受让浙江容腾基金份额</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -13077,7 +13447,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>智能化塑机</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -13087,7 +13457,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>拒海水聚酯工业丝</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13095,7 +13465,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>成飞概念</t>
+          <t>签订2.97亿元光学系统研制合同</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -13103,7 +13473,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>民营医院</t>
+          <t>开源鸿蒙</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -13111,7 +13481,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>全屋板式家具</t>
+          <t>全屋定制</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -13119,7 +13489,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>客车</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -13127,7 +13497,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>碳酸钾</t>
+          <t>预调鸡尾酒</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -13135,7 +13505,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>薄膜</t>
+          <t>特种钢丝</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -13145,7 +13515,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>客户巨力索具</t>
+          <t>中字头</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13153,7 +13523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>大股东长春光机所</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -13161,7 +13531,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -13169,7 +13539,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>工业互联网</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -13177,7 +13547,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>家居服饰</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -13185,7 +13555,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>年报、一季报发布</t>
+          <t>香精香料</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -13193,7 +13563,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>通用机械</t>
+          <t>纺织器材</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -13203,7 +13573,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>快递包装</t>
+          <t>拒海水聚酯工业丝</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13211,7 +13581,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -13219,7 +13589,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>产业园开发</t>
+          <t>控制权此前变更</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -13227,7 +13597,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>全屋定制</t>
+          <t>粽子</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -13235,7 +13605,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>超导技术</t>
+          <t>细胞免疫治疗</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -13243,7 +13613,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>珠宝饰品</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -13251,7 +13621,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>助听器</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -13261,7 +13631,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>客户巨力索具</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13269,7 +13639,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>资产重组</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -13277,7 +13647,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>抗肿瘤</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -13285,7 +13655,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>工业互联网</t>
+          <t>显影液</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -13293,7 +13663,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>速冻鱼肉制品</t>
+          <t>农药原药</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -13301,7 +13671,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>收购果链股权</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -13309,7 +13679,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>实控人将变更为中创新航</t>
+          <t>外延并购</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -13319,7 +13689,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>快递包装</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13327,7 +13697,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>余热锅炉</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -13335,7 +13705,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>户外运动</t>
+          <t>民营医院</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -13343,7 +13713,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>粽子</t>
+          <t>商贸</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -13351,7 +13721,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>国际结算</t>
+          <t>粮食烘干机</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -13359,7 +13729,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>皮鞋</t>
+          <t>预应力钢筒混凝土管</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -13367,7 +13737,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>股东变更</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -13377,7 +13747,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -13385,7 +13755,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -13393,7 +13763,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>聚焦深海领域</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -13401,7 +13771,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>显影液</t>
+          <t>房屋建筑工程</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -13409,7 +13779,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>客车</t>
+          <t>铬化学品</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -13417,7 +13787,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>POE胶膜</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -13425,7 +13795,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>肝素产业链</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -13435,7 +13805,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>造纸</t>
+          <t>低价股</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -13443,7 +13813,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>纺织</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -13451,7 +13821,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>滤波器</t>
+          <t>产业园开发</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -13459,7 +13829,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>商贸</t>
+          <t>财税数字化</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -13467,7 +13837,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>家居服饰</t>
+          <t>流通盘较小</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -13475,7 +13845,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>聚烯烃高效能催化剂</t>
+          <t>汽车轮毂轴承</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -13483,7 +13853,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>泵</t>
+          <t>网约车</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -13493,7 +13863,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>涂料制造</t>
+          <t>造纸</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -13501,7 +13871,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>资产注入预期</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -13509,7 +13879,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>卫星导航</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -13517,7 +13887,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>房屋建筑工程</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -13525,7 +13895,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>细胞免疫治疗</t>
+          <t>新型材料</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -13533,7 +13903,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>小米汽车</t>
+          <t>拟并购新思考</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -13541,7 +13911,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>聚醚多元醇</t>
+          <t>股权投资</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -13551,7 +13921,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>服装纺织</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -13559,7 +13929,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>地下管网</t>
+          <t>余热锅炉</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -13567,7 +13937,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>专网通信</t>
+          <t>户外运动</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -13575,7 +13945,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>财税数字化</t>
+          <t>阿里云合作</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -13583,7 +13953,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>农药原药</t>
+          <t>申请“摘帽”</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -13591,7 +13961,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>受让浙江容腾基金份额</t>
+          <t>住宅装修</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -13599,7 +13969,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>钛白粉</t>
+          <t>矿用车</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -13609,7 +13979,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>涂料制造</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13617,7 +13987,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>基建</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -13625,7 +13995,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>耳机</t>
+          <t>聚焦深海领域</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -13633,7 +14003,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>并购预期</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -13641,7 +14011,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>粮食烘干机</t>
+          <t>时尚鞋履</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -13649,7 +14019,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>预调鸡尾酒</t>
+          <t>海外布局</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -13657,7 +14027,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>汽车传动系统</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -13667,7 +14037,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>可控核聚变</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -13675,7 +14045,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>首发经济</t>
+          <t>中药</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -13683,7 +14053,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>滤波器</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -13691,7 +14061,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>阿里云合作</t>
+          <t>SaaS服务</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -13699,7 +14069,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>铬化学品</t>
+          <t>ST板块</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -13707,7 +14077,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>香精香料</t>
+          <t>重组功能蛋白</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -13715,7 +14085,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>美国撤销越南部分钢制车轮范围调查</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -13725,7 +14095,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>压缩机</t>
+          <t>可控核聚变</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -13733,7 +14103,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>年报亏损收窄</t>
+          <t>资产注入预期</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -13741,7 +14111,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>乳业</t>
+          <t>卫星导航</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -13749,7 +14119,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>并购预期</t>
+          <t>火电</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -13757,7 +14127,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>流通盘较小</t>
+          <t>钢琴教育</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -13765,7 +14135,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>关税影响有限</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -13773,7 +14143,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>智慧家居</t>
+          <t>汽车车轮</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -13791,7 +14161,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>仿制药</t>
+          <t>地下管网</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -13799,7 +14169,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>流感</t>
+          <t>专网通信</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -13807,7 +14177,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SaaS服务</t>
+          <t>重组</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -13815,7 +14185,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>新型材料</t>
+          <t>国际发展</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -13823,7 +14193,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>MCU</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -13831,7 +14201,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>解决同业竞争承诺</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -13849,7 +14219,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>黄金概念</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -13857,7 +14227,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>耳机</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -13865,7 +14235,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>火电</t>
+          <t>虚拟电厂</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -13873,7 +14243,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>申请“摘帽”</t>
+          <t>IXPE</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -13881,7 +14251,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>预应力钢筒混凝土管</t>
+          <t>利基DRAM涨价</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -13889,7 +14259,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>控制权变更</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -13907,7 +14277,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>首发经济</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -13915,7 +14285,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -13923,7 +14293,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>重组</t>
+          <t>供水</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -13931,7 +14301,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>时尚鞋履</t>
+          <t>PVC塑料地板</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -13939,7 +14309,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>家居产品</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -13947,7 +14317,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>特种钢丝</t>
+          <t>口腔医疗</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -13965,7 +14335,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>年报亏损收窄</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -13973,7 +14343,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>红枣</t>
+          <t>乳业</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -13981,7 +14351,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>虚拟电厂</t>
+          <t>申请撤销退市风险警示</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -13989,7 +14359,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ST板块</t>
+          <t>越南、泰国产能</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -13997,7 +14367,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>汽车轮毂轴承</t>
+          <t>通信线缆</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -14005,7 +14375,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>纺织器材</t>
+          <t>水泥装备</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -14023,7 +14393,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>灵巧手</t>
+          <t>仿制药</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -14031,7 +14401,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>间接参投蜜雪冰城</t>
+          <t>流感</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -14039,7 +14409,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>供水</t>
+          <t>防伪瓶盖</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -14047,7 +14417,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>钢琴教育</t>
+          <t>物流包装</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -14055,7 +14425,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>拟并购新思考</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -14063,7 +14433,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>煤矿机械</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -14073,7 +14443,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>药用辅料</t>
+          <t>航空发动机</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -14081,7 +14451,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>黄金概念</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -14089,7 +14459,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -14097,7 +14467,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>申请撤销退市风险警示</t>
+          <t>乳品</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -14105,7 +14475,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>国际发展</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -14113,7 +14483,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>住宅装修</t>
+          <t>女装</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -14121,7 +14491,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>外延并购</t>
+          <t>年报营收增长</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -14131,7 +14501,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>生态景观</t>
+          <t>药用辅料</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -14139,7 +14509,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>轴承</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -14147,7 +14517,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -14155,7 +14525,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>防伪瓶盖</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -14163,7 +14533,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>IXPE</t>
+          <t>年报大增</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -14171,7 +14541,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>海外布局</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -14179,7 +14549,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>股东变更</t>
+          <t>儿童自行车</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -14189,7 +14559,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>城市更新</t>
+          <t>生态景观</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -14197,7 +14567,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>智能座舱</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -14205,7 +14575,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>拟收购恒扬数据</t>
+          <t>红枣</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -14213,7 +14583,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>乳品</t>
+          <t>文化创意产业园区</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -14221,7 +14591,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>PVC塑料地板</t>
+          <t>户外用品</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -14229,7 +14599,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>美容护理</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -14237,7 +14607,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>肝素产业链</t>
+          <t>宇树科技合作</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -14247,7 +14617,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>化妆品</t>
+          <t>城市更新</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -14255,7 +14625,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>飞行汽车</t>
+          <t>灵巧手</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -14263,7 +14633,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>间接参投蜜雪冰城</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -14271,7 +14641,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>桃花坞文化IP</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -14279,7 +14649,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>越南、泰国产能</t>
+          <t>行星减速器</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -14287,7 +14657,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>重组功能蛋白</t>
+          <t>超聚变服务器</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -14295,7 +14665,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>网约车</t>
+          <t>教育</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -14305,7 +14675,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>数据要素</t>
+          <t>化妆品</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -14313,7 +14683,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -14321,7 +14691,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -14329,7 +14699,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>文化创意产业园区</t>
+          <t>第三方石化物流服务</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -14337,7 +14707,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>物流包装</t>
+          <t>铝合金</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -14345,7 +14715,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>关税影响有限</t>
+          <t>光掩膜版</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -14353,7 +14723,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>股权投资</t>
+          <t>汽车整车</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -14363,7 +14733,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>数据要素</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -14371,7 +14741,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -14379,7 +14749,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>化肥</t>
+          <t>拟收购恒扬数据</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -14387,7 +14757,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>桃花坞文化IP</t>
+          <t>仓储</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -14395,7 +14765,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>上汽大客户</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -14403,7 +14773,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>MCU</t>
+          <t>硅能源</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -14411,7 +14781,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>矿用车</t>
+          <t>调改升级</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -14421,7 +14791,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>养老</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -14429,7 +14799,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>轴承</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -14437,7 +14807,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>珠宝黄金</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -14445,7 +14815,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>第三方石化物流服务</t>
+          <t>精细化学品</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -14453,7 +14823,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>年报大增</t>
+          <t>车载显示</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -14461,7 +14831,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>利基DRAM涨价</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -14469,7 +14839,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>美国撤销越南部分钢制车轮范围调查</t>
+          <t>大型压缩机零部件</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -14479,7 +14849,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>车联网</t>
+          <t>养老</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -14487,7 +14857,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>季戊四醇</t>
+          <t>智能座舱</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -14495,7 +14865,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>遴选重组方</t>
+          <t>水泥</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -14503,7 +14873,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>仓储</t>
+          <t>演艺</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -14511,7 +14881,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>户外用品</t>
+          <t>齿轮传动</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -14519,7 +14889,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>家居产品</t>
+          <t>汽车物流</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -14527,7 +14897,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>汽车车轮</t>
+          <t>高精度零部件</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -14537,7 +14907,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>全球化布局</t>
+          <t>车联网</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -14545,7 +14915,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鸿蒙概念</t>
+          <t>飞行汽车</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -14553,7 +14923,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>稀贵金属回收</t>
+          <t>化肥</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -14561,7 +14931,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>精细化学品</t>
+          <t>电缆</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -14569,7 +14939,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>行星减速器</t>
+          <t>MR</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -14577,7 +14947,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>通信线缆</t>
+          <t>完成收购余姚高歌51%股权</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -14585,7 +14955,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>汽车传动系统</t>
+          <t>美墨工厂</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -14595,7 +14965,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AH两地上市</t>
+          <t>全球化布局</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -14603,7 +14973,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>智能终端</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -14611,7 +14981,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>汽车拆解</t>
+          <t>珠宝黄金</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -14619,7 +14989,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>演艺</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -14627,7 +14997,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>铝合金</t>
+          <t>变速器</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -14635,7 +15005,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -14643,7 +15013,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>解决同业竞争承诺</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -14653,7 +15023,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>AH两地上市</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -14661,15 +15031,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>申请撤销其他风险警示</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>遴选重组方</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -14677,7 +15047,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>电缆</t>
+          <t>射频微波MLCC</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -14685,7 +15055,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>上汽大客户</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -14693,7 +15063,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>女装</t>
+          <t>业绩大增</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -14701,7 +15071,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>控制权变更</t>
+          <t>维保市场</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -14711,7 +15081,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>航空装备</t>
+          <t>鸿蒙</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -14719,15 +15089,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>针织服装</t>
+          <t>季戊四醇</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>汽车轴承</t>
+          <t>稀贵金属回收</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -14735,7 +15105,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>索具</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -14743,7 +15113,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>车载显示</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -14751,7 +15121,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>户外龙头</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -14759,7 +15129,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>口腔医疗</t>
+          <t>控股股东增持</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -14769,7 +15139,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -14777,15 +15147,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>安踏合作</t>
+          <t>鸿蒙概念</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>关节轴承</t>
+          <t>汽车拆解</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -14793,7 +15163,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>射频微波MLCC</t>
+          <t>签署1.15亿元合同</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -14801,7 +15171,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>齿轮传动</t>
+          <t>石墨产业</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -14809,7 +15179,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>参股智元研究院</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -14817,7 +15187,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>水泥装备</t>
+          <t>空气动力设备</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -14827,7 +15197,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>航空装备</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -14835,15 +15205,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东方超算</t>
+          <t>智能终端</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>量子科技</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -14851,7 +15221,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>索具</t>
+          <t>尼龙66</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -14859,7 +15229,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>MR</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -14867,7 +15237,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>超聚变服务器</t>
+          <t>军用光电</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -14875,7 +15245,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>煤矿机械</t>
+          <t>金刚线</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -14885,15 +15255,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ADHD治疗药物</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>港口</t>
+          <t>申请撤销其他风险警示</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -14901,7 +15271,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>特斯拉</t>
+          <t>汽车轴承</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -14909,7 +15279,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>签署1.15亿元合同</t>
+          <t>对位芳纶</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -14917,7 +15287,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>变速器</t>
+          <t>农机自动驾驶</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -14925,7 +15295,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>光掩膜版</t>
+          <t>智能用电云服务</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -14933,7 +15303,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>年报营收增长</t>
+          <t>丝杠</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -14943,15 +15313,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>敦煌网</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>高纯石英</t>
+          <t>针织服装</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -14959,7 +15329,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>海外扩张</t>
+          <t>关节轴承</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -14967,7 +15337,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>尼龙66</t>
+          <t>射频器件</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -14975,7 +15345,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>eVTOL</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -14983,7 +15353,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>硅能源</t>
+          <t>IP筋膜枪</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -14991,7 +15361,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>磁悬浮压缩机</t>
+          <t>空调压缩机</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -15001,7 +15371,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>拉链</t>
+          <t>敦煌网</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -15009,7 +15379,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>烟标</t>
+          <t>安踏合作</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -15017,7 +15387,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>美国生产基地</t>
+          <t>量子科技</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -15025,7 +15395,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>对位芳纶</t>
+          <t>投资武汉光钜</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -15033,7 +15403,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>纯电动飞机</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -15041,7 +15411,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>石墨新材料</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -15049,7 +15419,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>儿童自行车</t>
+          <t>节能环保装备</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -15059,7 +15429,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>三胎</t>
+          <t>拉链</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -15067,7 +15437,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>码头仓储</t>
+          <t>牙膏</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -15075,7 +15445,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>碳酸锂</t>
+          <t>特斯拉</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -15083,7 +15453,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>射频器件</t>
+          <t>5G-A</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -15091,7 +15461,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>石墨产业</t>
+          <t>注塑产品</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -15099,7 +15469,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>汽车物流</t>
+          <t>传媒</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -15107,7 +15477,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>宇树科技合作</t>
+          <t>预重整</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -15117,7 +15487,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>人造板</t>
+          <t>ADHD治疗药物</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -15125,7 +15495,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>专业工程</t>
+          <t>东方超算</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -15133,7 +15503,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>芳香族酮类</t>
+          <t>海外扩张</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -15141,7 +15511,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>投资武汉光钜</t>
+          <t>卫星</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -15149,7 +15519,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>进气系统</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -15157,7 +15527,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>完成收购余姚高歌51%股权</t>
+          <t>洗衣机</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -15165,7 +15535,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>教育</t>
+          <t>智能交互</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -15175,7 +15545,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>港口航运</t>
+          <t>三胎</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -15183,7 +15553,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HBM上游</t>
+          <t>港口</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -15191,7 +15561,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>工程机械</t>
+          <t>美国生产基地</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -15199,7 +15569,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5G-A</t>
+          <t>马来西亚生产基地</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -15207,7 +15577,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>农机自动驾驶</t>
+          <t>电磁线</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -15215,7 +15585,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>流体电磁阀</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -15223,7 +15593,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>汽车整车</t>
+          <t>视觉内容版权</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -15233,7 +15603,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>纺织面料</t>
+          <t>人造板</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -15241,7 +15611,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鞋服</t>
+          <t>高纯石英</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -15249,7 +15619,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -15257,7 +15627,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>卫星</t>
+          <t>拟设海外子公司</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -15265,7 +15635,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>eVTOL</t>
+          <t>年报预盈</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -15273,7 +15643,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>业绩大增</t>
+          <t>标签印刷设备</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -15281,7 +15651,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>调改升级</t>
+          <t>数字基础设施建设</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -15291,7 +15661,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>中俄贸易</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -15299,7 +15669,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>胖东来帮扶</t>
+          <t>烟标</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -15307,7 +15677,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>碳酸锂</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -15315,7 +15685,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>马来西亚生产基地</t>
+          <t>电极箔</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -15323,7 +15693,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>纯电动飞机</t>
+          <t>锂盐产能</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -15331,7 +15701,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>户外龙头</t>
+          <t>IP运营</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -15339,7 +15709,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>大型压缩机零部件</t>
+          <t>控股股东、实控人拟变更</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -15349,7 +15719,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>港口航运</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -15357,7 +15727,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>码头仓储</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -15365,7 +15735,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>特种钢丝绳</t>
+          <t>芳香族酮类</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -15373,7 +15743,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>拟设海外子公司</t>
+          <t>功能性材料</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -15381,7 +15751,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>注塑产品</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -15389,7 +15759,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>参股智元研究院</t>
+          <t>高柔性智能包装装备</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -15397,7 +15767,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>高精度零部件</t>
+          <t>海外业务拓展</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -15407,7 +15777,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>合成生物</t>
+          <t>纺织面料</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -15415,7 +15785,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>阿里合作</t>
+          <t>专业工程</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -15423,7 +15793,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>工程机械</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -15431,7 +15801,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>电极箔</t>
+          <t>年报预计扭亏</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -15439,7 +15809,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>进气系统</t>
+          <t>多肽药物</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -15447,7 +15817,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>军用光电</t>
+          <t>探索O2O业务</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -15455,7 +15825,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>美墨工厂</t>
+          <t>超导磁体冷却设备</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -15465,7 +15835,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>控股股东拟变更</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -15473,7 +15843,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>文旅</t>
+          <t>HBM上游</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -15481,7 +15851,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>电线电缆</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -15489,7 +15859,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>功能性材料</t>
+          <t>卫星通讯</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -15497,7 +15867,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>电磁线</t>
+          <t>全球化产能扩张</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -15505,7 +15875,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>智能用电云服务</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -15513,7 +15883,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -15523,7 +15893,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>重大资产重组</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -15531,7 +15901,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>成立具身智能公司</t>
+          <t>鞋服</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -15539,7 +15909,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>资产重组</t>
+          <t>特种钢丝绳</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -15547,7 +15917,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>年报预计扭亏</t>
+          <t>拟控股北京汇源</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -15555,7 +15925,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>年报预盈</t>
+          <t>质子治疗设备</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -15563,7 +15933,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>IP筋膜枪</t>
+          <t>新药临床试验获批</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -15571,7 +15941,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>维保市场</t>
+          <t>仓储物流</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -15581,7 +15951,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>合成生物</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -15589,7 +15959,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>生态农业</t>
+          <t>胖东来帮扶</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -15597,7 +15967,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>兵装重组概念</t>
+          <t>家居</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -15605,7 +15975,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>卫星通讯</t>
+          <t>出售污水处理业务</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -15613,7 +15983,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>消化领域</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -15621,7 +15991,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>石墨新材料</t>
+          <t>海南自贸区</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -15629,7 +15999,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>控股股东增持</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -15639,7 +16009,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>控股股东拟变更</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -15647,7 +16017,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>特种环保纸</t>
+          <t>通信设备</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -15655,7 +16025,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>美容护理</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -15663,7 +16033,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>拟控股北京汇源</t>
+          <t>公司称将持续推进收购工作</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -15671,7 +16041,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>锂盐产能</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -15679,7 +16049,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>传媒</t>
+          <t>锂矿</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -15687,7 +16057,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>空气动力设备</t>
+          <t>一季报净利大增</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -15697,7 +16067,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>航空发动机</t>
+          <t>重大资产重组</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -15705,7 +16075,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>阿里合作</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -15713,15 +16083,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>商用车</t>
+          <t>电线电缆</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>出售污水处理业务</t>
+          <t>业务协同</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -15729,7 +16099,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>海外工厂扩建</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -15737,7 +16107,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>洗衣机</t>
+          <t>力矩传感器</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -15745,7 +16115,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>磁悬浮技术产品</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -15755,7 +16125,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>润滑油</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -15763,7 +16133,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>此前因Pika大涨</t>
+          <t>市场拓展</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -15771,15 +16141,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>牙膏</t>
+          <t>兵装重组概念</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>公司称将持续推进收购工作</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -15787,7 +16157,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>多肽药物</t>
+          <t>铝合金车轮</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -15795,7 +16165,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>流体电磁阀</t>
+          <t>产业新城服务商转型</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -15803,7 +16173,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>空调压缩机</t>
+          <t>民爆</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -15813,7 +16183,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>国际贸易影响小</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -15821,7 +16191,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>泡凤爪</t>
+          <t>文旅</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -15829,15 +16199,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>露营经济</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>业务协同</t>
+          <t>工程咨询</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -15845,7 +16215,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>全球化产能扩张</t>
+          <t>关税抗风险</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -15853,7 +16223,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>标签印刷设备</t>
+          <t>债务重组</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -15861,7 +16231,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>节能环保装备</t>
+          <t>并购重组预期</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -15871,7 +16241,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6G</t>
+          <t>润滑油</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -15879,7 +16249,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>成立具身智能公司</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -15887,15 +16257,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>煎烤机</t>
+          <t>养老概念</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>曾与敦煌网合作</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -15903,7 +16273,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>质子治疗设备</t>
+          <t>男装</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -15911,7 +16281,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>IP运营</t>
+          <t>超跌反弹</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -15919,7 +16289,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>预重整</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -15929,7 +16299,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>国际贸易影响小</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -15937,7 +16307,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>瓶级聚酯切片</t>
+          <t>生态农业</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -15945,15 +16315,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>电梯</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>工程咨询</t>
+          <t>政府数字化</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -15961,7 +16331,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>消化领域</t>
+          <t>移动支付</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -15969,7 +16339,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>高柔性智能包装装备</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -15977,7 +16347,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>智能交互</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -15987,7 +16357,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>中韩自贸区</t>
+          <t>6G</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -15995,7 +16365,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>蜡烛</t>
+          <t>特种环保纸</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -16003,7 +16373,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>体育户外</t>
+          <t>商用车</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -16011,7 +16381,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>曾与敦煌网合作</t>
+          <t>精密金属连接件</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -16019,7 +16389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>SIM卡</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -16027,7 +16397,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>探索O2O业务</t>
+          <t>重组蛋白</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -16035,7 +16405,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>视觉内容版权</t>
+          <t>纺织制造</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -16045,7 +16415,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -16053,7 +16423,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>拟收购天一恩华</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -16061,7 +16431,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>亏损收窄</t>
+          <t>露营经济</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -16069,7 +16439,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>政府数字化</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -16077,7 +16447,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>海外工厂扩建</t>
+          <t>影视文旅融合</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -16085,7 +16455,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>核聚变</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -16093,7 +16463,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>数字基础设施建设</t>
+          <t>益生菌</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -16103,7 +16473,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>中韩自贸区</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -16111,7 +16481,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>京城机电控股股东</t>
+          <t>此前因Pika大涨</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -16119,7 +16489,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>出口美国业务较少</t>
+          <t>煎烤机</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -16127,7 +16497,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>精密金属连接件</t>
+          <t>减脂产品</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -16135,7 +16505,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>铝合金车轮</t>
+          <t>蒸压加气混凝土装备</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -16143,7 +16513,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>新药临床试验获批</t>
+          <t>机器视觉</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -16151,7 +16521,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>控股股东、实控人拟变更</t>
+          <t>丝绸文创</t>
         </is>
       </c>
       <c r="N86" t="n">
@@ -16161,7 +16531,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -16169,7 +16539,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>获飞行汽车定点开发</t>
+          <t>泡凤爪</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -16177,7 +16547,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>水贝</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -16185,7 +16555,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>热电联产</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -16193,7 +16563,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>关税抗风险</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -16201,7 +16571,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>海南自贸区</t>
+          <t>冲水组件</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -16209,7 +16579,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>海外业务拓展</t>
+          <t>数码印花技术</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -16219,7 +16589,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>农机</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -16227,7 +16597,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>发动机油泵</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -16235,7 +16605,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>“宠胖胖”注入预期</t>
+          <t>体育户外</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -16243,7 +16613,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>减脂产品</t>
+          <t>砷化镓</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -16251,7 +16621,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>男装</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -16259,7 +16629,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>锂矿</t>
+          <t>眼科用药</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -16267,7 +16637,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>超导磁体冷却设备</t>
+          <t>火电资产重组</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -16277,7 +16647,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -16285,7 +16655,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>无缝服装</t>
+          <t>瓶级聚酯切片</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -16293,7 +16663,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>改性塑料</t>
+          <t>亏损收窄</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -16301,7 +16671,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>热电联产</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -16309,7 +16679,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>美妆</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -16317,7 +16687,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>力矩传感器</t>
+          <t>医疗服务</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -16325,7 +16695,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>马达</t>
+          <t>煤电一体化</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -16335,7 +16705,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>无实控人</t>
+          <t>农机</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -16343,7 +16713,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>镁/铝合金制品</t>
+          <t>拟收购天一恩华</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -16351,7 +16721,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>市场拓展</t>
+          <t>出口美国业务较少</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -16359,7 +16729,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>砷化镓</t>
+          <t>IP衍生品</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -16367,7 +16737,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>SIM卡</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -16375,7 +16745,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>产业新城服务商转型</t>
+          <t>出售资产</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -16383,7 +16753,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>仓储物流</t>
+          <t>汽车面料</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -16393,7 +16763,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -16401,7 +16771,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>正丙醇</t>
+          <t>蜡烛</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -16409,7 +16779,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>连续涨停</t>
+          <t>水贝</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -16417,7 +16787,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>影视</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -16425,7 +16795,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>影视文旅融合</t>
+          <t>拟购买安徽中商20%股权</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -16433,7 +16803,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>债务重组</t>
+          <t>防火类特种电缆</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -16441,7 +16811,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>纺织设备</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -16451,7 +16821,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>鸿蒙</t>
+          <t>无实控人</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -16459,7 +16829,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>硫磺回收</t>
+          <t>获飞行汽车定点开发</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -16467,7 +16837,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>股价创历史新高</t>
+          <t>“宠胖胖”注入预期</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -16475,7 +16845,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>IP衍生品</t>
+          <t>金矿开采</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -16483,7 +16853,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>蒸压加气混凝土装备</t>
+          <t>股权无偿划转</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -16491,7 +16861,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>超跌反弹</t>
+          <t>超导概念</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -16499,7 +16869,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>一季报净利大增</t>
+          <t>节能环保拉幅定形机</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -16509,7 +16879,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>腾讯</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -16517,7 +16887,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>进出口贸易</t>
+          <t>发动机油泵</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -16525,7 +16895,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>改性塑料</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -16533,7 +16903,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>金属矿产</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -16541,7 +16911,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>折叠屏</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -16549,7 +16919,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>拟增资获得芯存科技51.02%股权</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -16557,7 +16927,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>东南亚销售</t>
         </is>
       </c>
       <c r="N93" t="n">
@@ -16567,7 +16937,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>年报预增</t>
+          <t>智能电动床</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -16575,7 +16945,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>产能扩建</t>
+          <t>京城机电控股股东</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -16583,7 +16953,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>拟10转3股派3.51元</t>
+          <t>连续涨停</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -16591,7 +16961,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>金矿开采</t>
+          <t>冷链物流</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -16599,7 +16969,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>签订投资协议</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -16607,7 +16977,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>重组蛋白</t>
+          <t>园林景观</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -16615,7 +16985,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>金刚线</t>
+          <t>中航系</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -16625,7 +16995,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>物业管理</t>
+          <t>腾讯</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -16633,7 +17003,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>无缝服装</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -16641,7 +17011,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>股价创历史新高</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -16649,7 +17019,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>金属矿产</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -16657,7 +17027,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>美妆</t>
+          <t>幕墙系统材料</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -16665,7 +17035,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>核聚变</t>
+          <t>车桥</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -16673,7 +17043,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>丝杠</t>
+          <t>供热</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -16683,7 +17053,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>成飞概念</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -16691,7 +17061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>此前股价受关税影响</t>
+          <t>镁/铝合金制品</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -16699,7 +17069,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>分红回购</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -16707,7 +17077,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>冷链物流</t>
+          <t>空管雷达</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -16715,7 +17085,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>家用电器</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -16723,7 +17093,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>机器视觉</t>
+          <t>上海泽熙持有股份被司法拍卖</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -16731,7 +17101,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>电梯</t>
+          <t>钨制品</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -16741,7 +17111,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>节能环保</t>
+          <t>年报预增</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -16749,7 +17119,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>汽车贸易</t>
+          <t>正丙醇</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -16757,7 +17127,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>轻烃</t>
+          <t>拟10转3股派3.51元</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -16765,7 +17135,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>培育钻石</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -16773,7 +17143,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>拟购买安徽中商20%股权</t>
+          <t>代糖</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -16781,7 +17151,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>冲水组件</t>
+          <t>字节</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -16789,7 +17159,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>民爆</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="N97" t="n">
@@ -16799,7 +17169,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>无人驾驶</t>
+          <t>物业管理</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -16807,7 +17177,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>硫磺回收</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -16815,7 +17185,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -16823,7 +17193,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>空管雷达</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -16831,7 +17201,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>股权无偿划转</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -16839,7 +17209,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>眼科用药</t>
+          <t>拟收购金华威剩余45%股权</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -16847,7 +17217,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>并购重组预期</t>
+          <t>硬质合金</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -16857,7 +17227,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>环保</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -16865,7 +17235,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>进出口贸易</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -16873,7 +17243,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>分红回购</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -16881,7 +17251,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>培育钻石</t>
+          <t>公司称处于最好发展时期</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -16889,7 +17259,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>折叠屏</t>
+          <t>电气绝缘材料</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -16897,7 +17267,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>医疗服务</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -16905,7 +17275,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>雷达</t>
+          <t>此前提及东南亚</t>
         </is>
       </c>
       <c r="N99" t="n">
@@ -16915,7 +17285,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>宠物经济</t>
+          <t>节能环保</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -16923,7 +17293,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DRG/DIP</t>
+          <t>产能扩建</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -16931,7 +17301,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>高端能源装备</t>
+          <t>轻烃</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -16939,7 +17309,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>智能控制器</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -16947,7 +17317,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>签订投资协议</t>
+          <t>炭黑</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -16955,7 +17325,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>出售资产</t>
+          <t>数字阅读</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -16963,7 +17333,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>特种电源</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -16973,7 +17343,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>无人驾驶</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -16981,7 +17351,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -16989,7 +17359,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>铝合金轮毂</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -16997,7 +17367,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>公司称处于最好发展时期</t>
+          <t>C端智能产品</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -17005,7 +17375,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>幕墙系统材料</t>
+          <t>国产替代</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -17013,7 +17383,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>防火类特种电缆</t>
+          <t>线性驱动系统</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -17021,7 +17391,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>钨合金</t>
         </is>
       </c>
       <c r="N101" t="n">
@@ -17031,7 +17401,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>两轮车</t>
+          <t>环保</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -17039,7 +17409,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>智慧供应链</t>
+          <t>此前股价受关税影响</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -17047,7 +17417,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -17055,7 +17425,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>智能控制器</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -17063,7 +17433,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -17071,17 +17441,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>超导概念</t>
+          <t>境外产能布局</t>
         </is>
       </c>
       <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>金属铜</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>宠物经济</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -17089,7 +17467,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>汽车贸易</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -17097,7 +17475,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>控股股东将获增资</t>
+          <t>高端能源装备</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -17105,7 +17483,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>C端智能产品</t>
+          <t>覆铜板上游</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -17113,7 +17491,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>代糖</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -17121,7 +17499,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>拟增资获得芯存科技51.02%股权</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -17131,15 +17509,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>敦煌网合作</t>
+          <t>工业母机</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>部分重点产品提价</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -17147,34 +17525,184 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>铝合金轮毂</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>仿制药一致性评价</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>汽车销售</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>获道路测试牌照</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CDMO</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>高分子材料防老化助剂</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>北美市场</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>盐化产业</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>物业租赁</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>互联网入口平台</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>两轮车</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DRG/DIP</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>控股股东将获增资</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>纯碱</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>杀菌卫生产品</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>玻璃封装载板</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>并购重组</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>体外诊断</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>复牌</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>宠物用品</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>阿洛酮糖</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>园林景观</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>溴素</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>钒矿</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>面板</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -137,7 +137,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -146,21 +146,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -169,7 +169,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -342,6 +342,12 @@
 零售+参股券商+参投御道智算</t>
       </text>
     </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <t>12天8板 10:38:30 8
+涂料制造+氢能源+军工+重庆国资</t>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:30:00 1
@@ -420,6 +426,12 @@
 涂料制造+氢能源+军工+重庆国资</t>
       </text>
     </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 09:31:48 1
+成飞概念+军工+汽车零部件+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:30:00 7
@@ -498,6 +510,12 @@
 成飞概念+军工+汽车零部件+国企改革</t>
       </text>
     </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 09:43:59 12
+纺织制造+年报增长</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:49:35 4
@@ -576,6 +594,12 @@
 军工+航空零部件+大飞机+机器人</t>
       </text>
     </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 10:39:13 12
+涤纶+化学纤维+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
@@ -654,6 +678,12 @@
 大飞机+航空材料+AI眼镜</t>
       </text>
     </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 09:31:35 12
+益生菌+保健品+养老概念+电子商务</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
@@ -732,6 +762,12 @@
 涤纶+化学纤维+一季报增长</t>
       </text>
     </comment>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 0
+集装箱用产品+涂料+有机硅胶粘剂+跨境电商</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:00 0
@@ -810,6 +846,12 @@
 纺织制造+年报增长</t>
       </text>
     </comment>
+    <comment ref="O8" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 0
+港口+统一大市场+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -888,6 +930,12 @@
 出口美国+外销+医疗器械</t>
       </text>
     </comment>
+    <comment ref="O9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:01 0
+港口航运+一带一路+国企</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 1
@@ -966,6 +1014,12 @@
 拟6935.66万元收购德国SMS公司+智能数控装备</t>
       </text>
     </comment>
+    <comment ref="O10" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:03 0
+航运+海洋+浙江国资</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:35 0
@@ -1044,6 +1098,12 @@
 益生菌+保健品+养老概念+电子商务</t>
       </text>
     </comment>
+    <comment ref="O11" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:47 3
+港口航运+一带一路+国企</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天2板 10:00:51 1
@@ -1122,6 +1182,12 @@
 军工信息化+电梯</t>
       </text>
     </comment>
+    <comment ref="O12" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:46:28 2
+纺织服装+外销</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:01:58 0
@@ -1200,6 +1266,12 @@
 涂料+有机硅胶粘剂+跨境电商+一带一路</t>
       </text>
     </comment>
+    <comment ref="O13" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 14:56:39 0
+超高分子量聚乙烯纤维+涤纶+拒海水聚酯工业丝+陕西国资</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>3天2板 11:08:53 2
@@ -1272,6 +1344,12 @@
 港口航运+一带一路+国企</t>
       </text>
     </comment>
+    <comment ref="O14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 1
+石油化工+海洋馆+国企</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>2天2板 11:25:17 0
@@ -1332,6 +1410,12 @@
 港口+统一大市场+国企改革</t>
       </text>
     </comment>
+    <comment ref="O15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 0
+拟取得吉莱微控制权+功率半导体</t>
+      </text>
+    </comment>
     <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:43:21 0
@@ -1398,6 +1482,12 @@
 航运+海洋+浙江国资</t>
       </text>
     </comment>
+    <comment ref="O16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 0
+航运概念+跨境物流+半导体</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
@@ -1476,6 +1566,12 @@
 超高分子量聚乙烯纤维+涤纶+拒海水聚酯工业丝+陕西国资</t>
       </text>
     </comment>
+    <comment ref="O17" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:45 12
+航运+上海国资</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:00 0
@@ -1542,6 +1638,12 @@
 季戊四醇+中字头+一季报增长</t>
       </text>
     </comment>
+    <comment ref="O18" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:33:11 83
+航运物流+中字头</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:20 0
@@ -1614,6 +1716,12 @@
 港口航运+一带一路+国企</t>
       </text>
     </comment>
+    <comment ref="O19" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:33:24 0
+涨价+碳纤维+军工应用+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:35 0
@@ -1692,6 +1800,12 @@
 减速器+等速万向节+汽车轴承+军工</t>
       </text>
     </comment>
+    <comment ref="O20" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 10:06:05 0
+日化用品+护肤品+AI数智平台+电子商务</t>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:05 0
@@ -1770,6 +1884,12 @@
 跨境电商+外销+蜡烛</t>
       </text>
     </comment>
+    <comment ref="O21" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:40:38 8
+跨境电商+服装纺织+曾与强脑科技合作+养老</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:20 2
@@ -1848,6 +1968,12 @@
 纺织服装+外销</t>
       </text>
     </comment>
+    <comment ref="O22" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 14:28:47 0
+光伏设备+半导体材料+稀土永磁</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:35 0
@@ -1998,6 +2124,12 @@
 小鹭AIGC智能助手+云计算+腾讯+阿里</t>
       </text>
     </comment>
+    <comment ref="O24" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:26 1
+麦角硫因+化妆品+电商零售</t>
+      </text>
+    </comment>
     <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:35:35 0
@@ -2070,6 +2202,12 @@
 拟取得吉莱微控制权+功率半导体</t>
       </text>
     </comment>
+    <comment ref="O25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:37:24 1
+军工+大飞机+电线电缆</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:35:35 0
@@ -2148,6 +2286,12 @@
 军工+钨合金+特种电源</t>
       </text>
     </comment>
+    <comment ref="O26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:39:29 0
+一季报增长+天然气+节能环保</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:35:50 2
@@ -2226,6 +2370,12 @@
 卫星导航+低空经济+农机自动驾驶+国企</t>
       </text>
     </comment>
+    <comment ref="O27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:41:26 7
+参股迪洛斯10%股权+AI初创公司</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:36:35 0
@@ -2298,6 +2448,12 @@
 光网络设备+国产芯片替代+海外市场增长</t>
       </text>
     </comment>
+    <comment ref="O28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:43:19 0
+煤炭+资产注入预期+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:39:05 0
@@ -2370,6 +2526,12 @@
 PTA+瓶级聚酯切片+低价股</t>
       </text>
     </comment>
+    <comment ref="O29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:53:18 1
+麦角硫因+合成生物+医药中间体+AI应用</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:39:50 0
@@ -2448,6 +2610,12 @@
 华为昇腾+腾讯+机器人+AI应用</t>
       </text>
     </comment>
+    <comment ref="O30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:57:21 0
+化妆品增长+胶原蛋白研发+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:05 0
@@ -2526,6 +2694,12 @@
 钛白粉+锂电池+化工</t>
       </text>
     </comment>
+    <comment ref="O31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:02:54 0
+兽药+医药+医美+原料药</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:50 1
@@ -2604,6 +2778,12 @@
 军工仿真+AI职教平台+轨道交通+虚拟仿真</t>
       </text>
     </comment>
+    <comment ref="O32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:05:24 0
+个护用品+化妆品+美国建厂</t>
+      </text>
+    </comment>
     <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:42:50 0
@@ -2682,6 +2862,12 @@
 涨价+碳纤维+军工应用+国企改革</t>
       </text>
     </comment>
+    <comment ref="O33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:11:30 0
+计划推出麦角硫因+NMN+辅酶Q10+外销</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:47:50 0
@@ -2760,6 +2946,12 @@
 石油+海洋馆+国企</t>
       </text>
     </comment>
+    <comment ref="O34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:15:09 2
+化妆品+合成生物+海外拓展</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:49:05 0
@@ -2838,6 +3030,12 @@
 丙烯+环氧丙烷+芯片概念+天津国资</t>
       </text>
     </comment>
+    <comment ref="O35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:25:49 2
+一季报净利增长+纺织印染+外销</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:49:05 1
@@ -2910,6 +3108,12 @@
 浓缩果汁+外销+一季报增长+AH两地上市</t>
       </text>
     </comment>
+    <comment ref="O36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:29:30 0
+人形机器人+汽车电机+华为+无人机</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:49:20 0
@@ -2982,6 +3186,12 @@
 星空科技入主+半导体装备+高纯石英砂</t>
       </text>
     </comment>
+    <comment ref="O37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:36:03 3
+户外休闲家具+电商+外销</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:51:57 0
@@ -3054,6 +3264,12 @@
 算力+机器人+防爆设备+智能矿山</t>
       </text>
     </comment>
+    <comment ref="O38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:47:21 0
+抗感染药物+创新药+央企+海南</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:55:43 0
@@ -3126,6 +3342,12 @@
 航运物流+中字头</t>
       </text>
     </comment>
+    <comment ref="O39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:19:30 0
+NMN+运动营养+玉米油+外销</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:05:49 3
@@ -3192,6 +3414,12 @@
 航运+上海国资</t>
       </text>
     </comment>
+    <comment ref="O40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:24:48 0
+酶解蛋白产品+饲料添加剂+宠物经济</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:11:51 1
@@ -3258,6 +3486,12 @@
 罐式集装箱+医疗设备+外销</t>
       </text>
     </comment>
+    <comment ref="O41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:27:09 0
+麦角硫因+电商+消费品+AIGC</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:14:36 0
@@ -3324,6 +3558,12 @@
 跨境电商+服装纺织+曾与强脑科技合作+养老</t>
       </text>
     </comment>
+    <comment ref="O42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:03 1
+罗非鱼+海洋经济+一带一路+青岛国资</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:17:51 0
@@ -3390,6 +3630,12 @@
 金霉素+兽药+动物保健品+提高美国市场终端售价</t>
       </text>
     </comment>
+    <comment ref="O43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:02:36 0
+时装+跨境电商+一季报扭亏</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:26:08 0
@@ -3456,6 +3702,12 @@
 丝绸全产业链+海外供应链布局+新中式</t>
       </text>
     </comment>
+    <comment ref="O44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:18:42 5
+牙膏+美容护理+一季报增长+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:27:23 0
@@ -3522,6 +3774,12 @@
 电力+光储</t>
       </text>
     </comment>
+    <comment ref="O45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:22:21 0
+麦角硫因+合成生物+原料药</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:28:23 0
@@ -3588,6 +3846,12 @@
 证券+业绩增长+股份回购+央企</t>
       </text>
     </comment>
+    <comment ref="O46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:23:39 0
+香料+外销+一季报增长+产能释放</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:31:53 1
@@ -3654,6 +3918,12 @@
 互联网保险+保险科技+国企</t>
       </text>
     </comment>
+    <comment ref="O47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:28:57 0
+咖啡种植+食用菌+并购重组</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:35:08 3
@@ -3720,6 +3990,12 @@
 航运概念+跨境物流+半导体</t>
       </text>
     </comment>
+    <comment ref="O48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:47:03 1
+食用菌+农业种植+高股息</t>
+      </text>
+    </comment>
     <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:36:38 0
@@ -3786,6 +4062,12 @@
 财险龙头+投资收益增长+国企+一季报增长</t>
       </text>
     </comment>
+    <comment ref="O49" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:23:54 3
+化妆品+美容护理+合成生物</t>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:36:38 11
@@ -3852,6 +4134,12 @@
 期货+互联网金融</t>
       </text>
     </comment>
+    <comment ref="O50" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:51:33 0
+AI设计+IP+室内设计+小红书</t>
+      </text>
+    </comment>
     <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:21:08 0
@@ -3910,6 +4198,12 @@
       <text>
         <t>首板涨停 13:38:24 1
 证券+拟转让中山证券股权</t>
+      </text>
+    </comment>
+    <comment ref="O51" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:54:33 0
+化妆品+合成生物+业绩增长</t>
       </text>
     </comment>
     <comment ref="B52" authorId="0" shapeId="0">
@@ -5099,7 +5393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5121,6 +5415,7 @@
     <col width="15" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5194,11 +5489,16 @@
           <t>2025年05月14日</t>
         </is>
       </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>2025年05月15日</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>机器人(144)</t>
+          <t>跨境(145)</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -5266,11 +5566,16 @@
           <t>国芳集团15</t>
         </is>
       </c>
+      <c r="O2" s="8" t="inlineStr">
+        <is>
+          <t>渝三峡A8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>跨境(134)</t>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>机器人(145)</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -5278,7 +5583,7 @@
           <t>天元股份4</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>安记食品7</t>
         </is>
@@ -5288,7 +5593,7 @@
           <t>步步高6</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>东贝集团4</t>
         </is>
@@ -5298,7 +5603,7 @@
           <t>先达股份5</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>渝三峡A4</t>
         </is>
@@ -5308,12 +5613,12 @@
           <t>先达股份6</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>天保基建7</t>
         </is>
       </c>
-      <c r="J3" s="10" t="inlineStr">
+      <c r="J3" s="8" t="inlineStr">
         <is>
           <t>润贝航科4</t>
         </is>
@@ -5328,21 +5633,26 @@
           <t>中超控股5</t>
         </is>
       </c>
-      <c r="M3" s="10" t="inlineStr">
+      <c r="M3" s="8" t="inlineStr">
         <is>
           <t>成飞集成5</t>
         </is>
       </c>
-      <c r="N3" s="10" t="inlineStr">
+      <c r="N3" s="8" t="inlineStr">
         <is>
           <t>渝三峡A7</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
+        <is>
+          <t>成飞集成7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>军工(102)</t>
+          <t>军工(109)</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -5355,12 +5665,12 @@
           <t>乐山电力7</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>东贝集团3</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>威尔药业4</t>
         </is>
@@ -5375,7 +5685,7 @@
           <t>东珠生态4</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>渝三峡A5</t>
         </is>
@@ -5400,21 +5710,26 @@
           <t>春光科技5</t>
         </is>
       </c>
-      <c r="M4" s="10" t="inlineStr">
+      <c r="M4" s="8" t="inlineStr">
         <is>
           <t>天箭科技5</t>
         </is>
       </c>
-      <c r="N4" s="10" t="inlineStr">
+      <c r="N4" s="8" t="inlineStr">
         <is>
           <t>成飞集成6</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>迎丰股份5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
         <is>
-          <t>新能源(80)</t>
+          <t>新能源(82)</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
@@ -5452,7 +5767,7 @@
           <t>华银电力4</t>
         </is>
       </c>
-      <c r="I5" s="10" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>渝三峡A6</t>
         </is>
@@ -5467,7 +5782,7 @@
           <t>麒盛科技4</t>
         </is>
       </c>
-      <c r="L5" s="10" t="inlineStr">
+      <c r="L5" s="8" t="inlineStr">
         <is>
           <t>成飞集成4</t>
         </is>
@@ -5480,13 +5795,18 @@
       <c r="N5" s="7" t="inlineStr">
         <is>
           <t>利君股份6</t>
+        </is>
+      </c>
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t>苏州龙杰5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr">
         <is>
-          <t>电力(69)</t>
+          <t>电力(70)</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
@@ -5494,7 +5814,7 @@
           <t>先达股份3</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>天保基建6</t>
         </is>
@@ -5509,7 +5829,7 @@
           <t>茂业商业3</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>渝三峡A3</t>
         </is>
@@ -5519,7 +5839,7 @@
           <t>汉商集团2</t>
         </is>
       </c>
-      <c r="H6" s="7" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>全筑股份3</t>
         </is>
@@ -5534,12 +5854,12 @@
           <t>麒盛科技3</t>
         </is>
       </c>
-      <c r="K6" s="10" t="inlineStr">
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>成飞集成3</t>
         </is>
       </c>
-      <c r="L6" s="10" t="inlineStr">
+      <c r="L6" s="8" t="inlineStr">
         <is>
           <t>天箭科技4</t>
         </is>
@@ -5549,16 +5869,21 @@
           <t>利君股份5</t>
         </is>
       </c>
-      <c r="N6" s="10" t="inlineStr">
+      <c r="N6" s="8" t="inlineStr">
         <is>
           <t>润贝航科5</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>交大昂立4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="inlineStr">
         <is>
-          <t>化工(60)</t>
+          <t>化工(62)</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -5596,7 +5921,7 @@
           <t>金麒麟3</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>全筑股份4</t>
         </is>
@@ -5606,7 +5931,7 @@
           <t>春光科技3</t>
         </is>
       </c>
-      <c r="K7" s="10" t="inlineStr">
+      <c r="K7" s="8" t="inlineStr">
         <is>
           <t>天箭科技3</t>
         </is>
@@ -5624,13 +5949,18 @@
       <c r="N7" s="6" t="inlineStr">
         <is>
           <t>苏州龙杰4</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>集泰股份3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>汽车零部件(55)</t>
+          <t>AI(58)</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -5658,7 +5988,7 @@
           <t>东珠生态3</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>全筑股份2</t>
         </is>
@@ -5696,13 +6026,18 @@
       <c r="N8" s="5" t="inlineStr">
         <is>
           <t>迎丰股份4</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>南京港3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>AI(53)</t>
+          <t>汽车零部件(56)</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -5768,13 +6103,18 @@
       <c r="N9" s="4" t="inlineStr">
         <is>
           <t>尚荣医疗3</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>宁波海运3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>华为(41)</t>
+          <t>半导体(42)</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -5840,13 +6180,18 @@
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>恒而达3</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>宁波远洋3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>半导体(39)</t>
+          <t>华为(42)</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -5889,7 +6234,7 @@
           <t>电光科技3</t>
         </is>
       </c>
-      <c r="J11" s="10" t="inlineStr">
+      <c r="J11" s="8" t="inlineStr">
         <is>
           <t>航天长峰2</t>
         </is>
@@ -5899,7 +6244,7 @@
           <t>佳力图2</t>
         </is>
       </c>
-      <c r="L11" s="10" t="inlineStr">
+      <c r="L11" s="8" t="inlineStr">
         <is>
           <t>晨曦航空3</t>
         </is>
@@ -5909,16 +6254,21 @@
           <t>恒而达2</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>交大昂立3</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>连云港3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>数据中心(35)</t>
+          <t>大消费(36)</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -5956,12 +6306,12 @@
           <t>华电辽能3</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>润贝航科3</t>
         </is>
       </c>
-      <c r="J12" s="10" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>成飞集成2</t>
         </is>
@@ -5981,19 +6331,24 @@
           <t>朝阳科技2</t>
         </is>
       </c>
-      <c r="N12" s="10" t="inlineStr">
+      <c r="N12" s="8" t="inlineStr">
         <is>
           <t>展鹏科技3</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>盛泰集团3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>大消费(34)</t>
-        </is>
-      </c>
-      <c r="B13" s="19" t="inlineStr">
+          <t>数据中心(35)</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>圣龙股份2</t>
         </is>
@@ -6048,7 +6403,7 @@
           <t>迎丰股份2</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>交大昂立2</t>
         </is>
@@ -6056,6 +6411,11 @@
       <c r="N13" s="4" t="inlineStr">
         <is>
           <t>集泰股份2</t>
+        </is>
+      </c>
+      <c r="O13" s="6" t="inlineStr">
+        <is>
+          <t>尤夫股份3</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6430,7 @@
           <t>浙江荣泰2</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>润贝航科4</t>
         </is>
@@ -6080,7 +6440,7 @@
           <t>卫星化学2</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>珀莱雅2</t>
         </is>
@@ -6111,7 +6471,7 @@
           <t>山东章鼓2</t>
         </is>
       </c>
-      <c r="L14" s="10" t="inlineStr">
+      <c r="L14" s="8" t="inlineStr">
         <is>
           <t>展鹏科技2</t>
         </is>
@@ -6124,13 +6484,18 @@
       <c r="N14" s="4" t="inlineStr">
         <is>
           <t>宁波海运2</t>
+        </is>
+      </c>
+      <c r="O14" s="6" t="inlineStr">
+        <is>
+          <t>茂化实华2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>医药(21)</t>
+          <t>电子(29)</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
@@ -6144,12 +6509,12 @@
         </is>
       </c>
       <c r="D15" s="23" t="n"/>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>渝三峡A2</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr">
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>柳钢股份</t>
         </is>
@@ -6165,13 +6530,13 @@
           <t>嘉事堂2</t>
         </is>
       </c>
-      <c r="J15" s="10" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>天箭科技2</t>
         </is>
       </c>
       <c r="K15" s="23" t="n"/>
-      <c r="L15" s="10" t="inlineStr">
+      <c r="L15" s="8" t="inlineStr">
         <is>
           <t>航天南湖2</t>
         </is>
@@ -6184,13 +6549,18 @@
       <c r="N15" s="4" t="inlineStr">
         <is>
           <t>南京港2</t>
+        </is>
+      </c>
+      <c r="O15" s="19" t="inlineStr">
+        <is>
+          <t>综艺股份2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>房地产(10)</t>
+          <t>医药(24)</t>
         </is>
       </c>
       <c r="B16" s="23" t="n"/>
@@ -6205,7 +6575,7 @@
         </is>
       </c>
       <c r="E16" s="23" t="n"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>今创集团</t>
         </is>
@@ -6230,12 +6600,12 @@
           <t>神驰机电2</t>
         </is>
       </c>
-      <c r="K16" s="10" t="inlineStr">
+      <c r="K16" s="8" t="inlineStr">
         <is>
           <t>飞亚达</t>
         </is>
       </c>
-      <c r="L16" s="10" t="inlineStr">
+      <c r="L16" s="8" t="inlineStr">
         <is>
           <t>七丰精工2</t>
         </is>
@@ -6245,16 +6615,21 @@
           <t>纳尔股份2</t>
         </is>
       </c>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>宁波远洋2</t>
+        </is>
+      </c>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>海程邦达2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>电子(8)</t>
+          <t>房地产(10)</t>
         </is>
       </c>
       <c r="B17" s="18" t="inlineStr">
@@ -6277,7 +6652,7 @@
           <t>金麒麟</t>
         </is>
       </c>
-      <c r="F17" s="9" t="inlineStr">
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
@@ -6297,12 +6672,12 @@
           <t>狄耐克2</t>
         </is>
       </c>
-      <c r="J17" s="10" t="inlineStr">
+      <c r="J17" s="8" t="inlineStr">
         <is>
           <t>晨曦航空2</t>
         </is>
       </c>
-      <c r="K17" s="9" t="inlineStr">
+      <c r="K17" s="10" t="inlineStr">
         <is>
           <t>华茂股份</t>
         </is>
@@ -6320,6 +6695,11 @@
       <c r="N17" s="6" t="inlineStr">
         <is>
           <t>尤夫股份2</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>锦江航运2</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6729,7 @@
           <t>华阳新材</t>
         </is>
       </c>
-      <c r="F18" s="9" t="inlineStr">
+      <c r="F18" s="10" t="inlineStr">
         <is>
           <t>菜百股份</t>
         </is>
@@ -6375,7 +6755,7 @@
           <t>纳尔股份</t>
         </is>
       </c>
-      <c r="L18" s="7" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>荣泰健康2</t>
         </is>
@@ -6386,6 +6766,11 @@
           <t>中毅达2</t>
         </is>
       </c>
+      <c r="O18" s="4" t="inlineStr">
+        <is>
+          <t>中远海发2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6398,7 +6783,7 @@
           <t>朝阳科技</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>东贝集团2</t>
         </is>
@@ -6454,6 +6839,11 @@
           <t>连云港2</t>
         </is>
       </c>
+      <c r="O19" s="8" t="inlineStr">
+        <is>
+          <t>吉林化纤2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6471,12 +6861,12 @@
           <t>丰华股份2</t>
         </is>
       </c>
-      <c r="D20" s="9" t="inlineStr">
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>康盛股份</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="10" t="inlineStr">
         <is>
           <t>三夫户外</t>
         </is>
@@ -6486,12 +6876,12 @@
           <t>三和管桩</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
+      <c r="G20" s="10" t="inlineStr">
         <is>
           <t>通鼎互联</t>
         </is>
       </c>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>润贝航科2</t>
         </is>
@@ -6521,9 +6911,14 @@
           <t>天虹股份</t>
         </is>
       </c>
-      <c r="N20" s="10" t="inlineStr">
+      <c r="N20" s="8" t="inlineStr">
         <is>
           <t>襄阳轴承2</t>
+        </is>
+      </c>
+      <c r="O20" s="13" t="inlineStr">
+        <is>
+          <t>拉芳家化2</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6938,7 @@
           <t>棒杰股份2</t>
         </is>
       </c>
-      <c r="D21" s="9" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>九牧王</t>
         </is>
@@ -6563,7 +6958,7 @@
           <t>九鼎新材</t>
         </is>
       </c>
-      <c r="H21" s="19" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>常山北明2</t>
         </is>
@@ -6573,12 +6968,12 @@
           <t>宝馨科技2</t>
         </is>
       </c>
-      <c r="J21" s="9" t="inlineStr">
+      <c r="J21" s="10" t="inlineStr">
         <is>
           <t>日上集团</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>交大昂立</t>
         </is>
@@ -6588,7 +6983,7 @@
           <t>龙蟠科技</t>
         </is>
       </c>
-      <c r="M21" s="9" t="inlineStr">
+      <c r="M21" s="10" t="inlineStr">
         <is>
           <t>东方海洋</t>
         </is>
@@ -6596,26 +6991,31 @@
       <c r="N21" s="4" t="inlineStr">
         <is>
           <t>青岛金王2</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>新华锦2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>业绩增长(215)</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="inlineStr">
+          <t>业绩增长(222)</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>永茂泰</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C22" s="19" t="inlineStr">
         <is>
           <t>西陇科学2</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>顺博合金</t>
         </is>
@@ -6645,7 +7045,7 @@
           <t>禾盛新材2</t>
         </is>
       </c>
-      <c r="J22" s="9" t="inlineStr">
+      <c r="J22" s="10" t="inlineStr">
         <is>
           <t>贝肯能源</t>
         </is>
@@ -6660,7 +7060,7 @@
           <t>朝阳科技</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="10" t="inlineStr">
         <is>
           <t>皮阿诺</t>
         </is>
@@ -6668,16 +7068,21 @@
       <c r="N22" s="4" t="inlineStr">
         <is>
           <t>盛泰集团2</t>
+        </is>
+      </c>
+      <c r="O22" s="15" t="inlineStr">
+        <is>
+          <t>京运通2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>扭亏为盈(42)</t>
-        </is>
-      </c>
-      <c r="B23" s="10" t="inlineStr">
+          <t>扭亏为盈(43)</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>襄阳轴承</t>
         </is>
@@ -6687,7 +7092,7 @@
           <t>三维化学2</t>
         </is>
       </c>
-      <c r="D23" s="9" t="inlineStr">
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>恒宝股份</t>
         </is>
@@ -6697,12 +7102,12 @@
           <t>大位科技</t>
         </is>
       </c>
-      <c r="F23" s="9" t="inlineStr">
+      <c r="F23" s="10" t="inlineStr">
         <is>
           <t>道道全</t>
         </is>
       </c>
-      <c r="G23" s="9" t="inlineStr">
+      <c r="G23" s="19" t="inlineStr">
         <is>
           <t>深康佳A</t>
         </is>
@@ -6727,7 +7132,7 @@
           <t>远大智能</t>
         </is>
       </c>
-      <c r="L23" s="9" t="inlineStr">
+      <c r="L23" s="10" t="inlineStr">
         <is>
           <t>富岭股份</t>
         </is>
@@ -6737,16 +7142,17 @@
           <t>浙江正特</t>
         </is>
       </c>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>凤凰航运2</t>
         </is>
       </c>
+      <c r="O23" s="23" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>国企(168)</t>
+          <t>国企(183)</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -6759,12 +7165,12 @@
           <t>健尔康2</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>珀莱雅</t>
         </is>
       </c>
-      <c r="E24" s="9" t="inlineStr">
+      <c r="E24" s="10" t="inlineStr">
         <is>
           <t>新锦动力</t>
         </is>
@@ -6789,7 +7195,7 @@
           <t>明新旭腾2</t>
         </is>
       </c>
-      <c r="J24" s="9" t="inlineStr">
+      <c r="J24" s="10" t="inlineStr">
         <is>
           <t>皓宸医疗</t>
         </is>
@@ -6810,6 +7216,11 @@
         </is>
       </c>
       <c r="N24" s="23" t="n"/>
+      <c r="O24" s="10" t="inlineStr">
+        <is>
+          <t>丽人丽妆</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="25" t="inlineStr">
@@ -6817,23 +7228,23 @@
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
         <is>
           <t>卓翼科技</t>
         </is>
       </c>
       <c r="C25" s="23" t="n"/>
-      <c r="D25" s="9" t="inlineStr">
+      <c r="D25" s="10" t="inlineStr">
         <is>
           <t>广誉远</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="10" t="inlineStr">
         <is>
           <t>狮头股份</t>
         </is>
       </c>
-      <c r="F25" s="9" t="inlineStr">
+      <c r="F25" s="10" t="inlineStr">
         <is>
           <t>蓝帆医疗</t>
         </is>
@@ -6853,12 +7264,12 @@
           <t>保龄宝2</t>
         </is>
       </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>荣泰健康</t>
         </is>
       </c>
-      <c r="K25" s="9" t="inlineStr">
+      <c r="K25" s="10" t="inlineStr">
         <is>
           <t>淮河能源</t>
         </is>
@@ -6873,9 +7284,14 @@
           <t>酷特智能</t>
         </is>
       </c>
-      <c r="N25" s="9" t="inlineStr">
+      <c r="N25" s="19" t="inlineStr">
         <is>
           <t>综艺股份</t>
+        </is>
+      </c>
+      <c r="O25" s="8" t="inlineStr">
+        <is>
+          <t>通达股份</t>
         </is>
       </c>
     </row>
@@ -6905,12 +7321,12 @@
           <t>德生科技</t>
         </is>
       </c>
-      <c r="F26" s="9" t="inlineStr">
+      <c r="F26" s="10" t="inlineStr">
         <is>
           <t>博创科技</t>
         </is>
       </c>
-      <c r="G26" s="9" t="inlineStr">
+      <c r="G26" s="10" t="inlineStr">
         <is>
           <t>翠微股份</t>
         </is>
@@ -6935,7 +7351,7 @@
           <t>苏州龙杰</t>
         </is>
       </c>
-      <c r="L26" s="7" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>科力尔</t>
         </is>
@@ -6945,9 +7361,14 @@
           <t>集泰股份</t>
         </is>
       </c>
-      <c r="N26" s="10" t="inlineStr">
+      <c r="N26" s="8" t="inlineStr">
         <is>
           <t>甘化科工</t>
+        </is>
+      </c>
+      <c r="O26" s="10" t="inlineStr">
+        <is>
+          <t>洪通燃气</t>
         </is>
       </c>
     </row>
@@ -6958,7 +7379,7 @@
           <t>健尔康</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="10" t="inlineStr">
         <is>
           <t>好想你</t>
         </is>
@@ -7003,7 +7424,7 @@
           <t>宏达高科</t>
         </is>
       </c>
-      <c r="L27" s="10" t="inlineStr">
+      <c r="L27" s="8" t="inlineStr">
         <is>
           <t>贵航股份</t>
         </is>
@@ -7016,6 +7437,11 @@
       <c r="N27" s="5" t="inlineStr">
         <is>
           <t>合众思壮</t>
+        </is>
+      </c>
+      <c r="O27" s="13" t="inlineStr">
+        <is>
+          <t>东珠生态</t>
         </is>
       </c>
     </row>
@@ -7061,12 +7487,12 @@
           <t>万向钱潮</t>
         </is>
       </c>
-      <c r="K28" s="9" t="inlineStr">
+      <c r="K28" s="10" t="inlineStr">
         <is>
           <t>远信工业</t>
         </is>
       </c>
-      <c r="L28" s="10" t="inlineStr">
+      <c r="L28" s="8" t="inlineStr">
         <is>
           <t>雷科防务</t>
         </is>
@@ -7076,9 +7502,14 @@
           <t>欧晶科技</t>
         </is>
       </c>
-      <c r="N28" s="9" t="inlineStr">
+      <c r="N28" s="19" t="inlineStr">
         <is>
           <t>瑞斯康达</t>
+        </is>
+      </c>
+      <c r="O28" s="10" t="inlineStr">
+        <is>
+          <t>大有能源</t>
         </is>
       </c>
     </row>
@@ -7098,17 +7529,17 @@
           <t>吉鑫科技</t>
         </is>
       </c>
-      <c r="E29" s="9" t="inlineStr">
+      <c r="E29" s="10" t="inlineStr">
         <is>
           <t>新能泰山</t>
         </is>
       </c>
-      <c r="F29" s="9" t="inlineStr">
+      <c r="F29" s="10" t="inlineStr">
         <is>
           <t>利通电子</t>
         </is>
       </c>
-      <c r="G29" s="10" t="inlineStr">
+      <c r="G29" s="8" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
@@ -7129,7 +7560,7 @@
           <t>翔鹭钨业</t>
         </is>
       </c>
-      <c r="L29" s="10" t="inlineStr">
+      <c r="L29" s="8" t="inlineStr">
         <is>
           <t>国睿科技</t>
         </is>
@@ -7139,9 +7570,14 @@
           <t>京运通</t>
         </is>
       </c>
-      <c r="N29" s="9" t="inlineStr">
+      <c r="N29" s="10" t="inlineStr">
         <is>
           <t>三房巷</t>
+        </is>
+      </c>
+      <c r="O29" s="13" t="inlineStr">
+        <is>
+          <t>川宁生物</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7592,7 @@
           <t>浔兴股份</t>
         </is>
       </c>
-      <c r="D30" s="9" t="inlineStr">
+      <c r="D30" s="10" t="inlineStr">
         <is>
           <t>天府文旅</t>
         </is>
@@ -7196,7 +7632,7 @@
           <t>晋控电力</t>
         </is>
       </c>
-      <c r="L30" s="10" t="inlineStr">
+      <c r="L30" s="8" t="inlineStr">
         <is>
           <t>华如科技</t>
         </is>
@@ -7209,6 +7645,11 @@
       <c r="N30" s="7" t="inlineStr">
         <is>
           <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="O30" s="10" t="inlineStr">
+        <is>
+          <t>福瑞达</t>
         </is>
       </c>
     </row>
@@ -7238,7 +7679,7 @@
           <t>银宝山新</t>
         </is>
       </c>
-      <c r="G31" s="19" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>常山北明</t>
         </is>
@@ -7248,7 +7689,7 @@
           <t>合锻智能</t>
         </is>
       </c>
-      <c r="I31" s="9" t="inlineStr">
+      <c r="I31" s="10" t="inlineStr">
         <is>
           <t>弘业期货</t>
         </is>
@@ -7276,6 +7717,11 @@
       <c r="N31" s="15" t="inlineStr">
         <is>
           <t>安纳达</t>
+        </is>
+      </c>
+      <c r="O31" s="10" t="inlineStr">
+        <is>
+          <t>哈三联</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7731,7 @@
           <t>日海智能</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr">
+      <c r="C32" s="10" t="inlineStr">
         <is>
           <t>渝开发</t>
         </is>
@@ -7325,12 +7771,12 @@
           <t>盛通股份</t>
         </is>
       </c>
-      <c r="K32" s="10" t="inlineStr">
+      <c r="K32" s="8" t="inlineStr">
         <is>
           <t>章源钨业</t>
         </is>
       </c>
-      <c r="L32" s="9" t="inlineStr">
+      <c r="L32" s="10" t="inlineStr">
         <is>
           <t>七一二</t>
         </is>
@@ -7340,9 +7786,14 @@
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="N32" s="10" t="inlineStr">
+      <c r="N32" s="8" t="inlineStr">
         <is>
           <t>捷安高科</t>
+        </is>
+      </c>
+      <c r="O32" s="10" t="inlineStr">
+        <is>
+          <t>洁雅股份</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7808,12 @@
           <t>郴电国际</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>中央商场</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
+      <c r="E33" s="10" t="inlineStr">
         <is>
           <t>廊坊发展</t>
         </is>
@@ -7382,7 +7833,7 @@
           <t>渤海化学</t>
         </is>
       </c>
-      <c r="I33" s="9" t="inlineStr">
+      <c r="I33" s="10" t="inlineStr">
         <is>
           <t>易明医药</t>
         </is>
@@ -7392,7 +7843,7 @@
           <t>跨境通</t>
         </is>
       </c>
-      <c r="K33" s="10" t="inlineStr">
+      <c r="K33" s="8" t="inlineStr">
         <is>
           <t>甘化科工</t>
         </is>
@@ -7402,14 +7853,19 @@
           <t>锋龙股份</t>
         </is>
       </c>
-      <c r="M33" s="9" t="inlineStr">
+      <c r="M33" s="10" t="inlineStr">
         <is>
           <t>聚合顺</t>
         </is>
       </c>
-      <c r="N33" s="10" t="inlineStr">
+      <c r="N33" s="8" t="inlineStr">
         <is>
           <t>吉林化纤</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>金达威</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7885,7 @@
           <t>北鼎股份</t>
         </is>
       </c>
-      <c r="E34" s="9" t="inlineStr">
+      <c r="E34" s="10" t="inlineStr">
         <is>
           <t>弘景光电</t>
         </is>
@@ -7439,7 +7895,7 @@
           <t>新瀚新材</t>
         </is>
       </c>
-      <c r="G34" s="9" t="inlineStr">
+      <c r="G34" s="10" t="inlineStr">
         <is>
           <t>重庆建工</t>
         </is>
@@ -7449,17 +7905,17 @@
           <t>兄弟科技</t>
         </is>
       </c>
-      <c r="I34" s="9" t="inlineStr">
+      <c r="I34" s="10" t="inlineStr">
         <is>
           <t>三湘印象</t>
         </is>
       </c>
-      <c r="J34" s="9" t="inlineStr">
+      <c r="J34" s="10" t="inlineStr">
         <is>
           <t>山子高科</t>
         </is>
       </c>
-      <c r="K34" s="19" t="inlineStr">
+      <c r="K34" s="10" t="inlineStr">
         <is>
           <t>武汉凡谷</t>
         </is>
@@ -7474,9 +7930,14 @@
           <t>英联股份</t>
         </is>
       </c>
-      <c r="N34" s="9" t="inlineStr">
+      <c r="N34" s="6" t="inlineStr">
         <is>
           <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="O34" s="10" t="inlineStr">
+        <is>
+          <t>芭薇股份</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7952,7 @@
           <t>灵康药业</t>
         </is>
       </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="D35" s="19" t="inlineStr">
         <is>
           <t>宇晶股份</t>
         </is>
@@ -7521,17 +7982,17 @@
           <t>金明精机</t>
         </is>
       </c>
-      <c r="J35" s="9" t="inlineStr">
+      <c r="J35" s="10" t="inlineStr">
         <is>
           <t>磁谷科技</t>
         </is>
       </c>
-      <c r="K35" s="9" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>登康口腔</t>
         </is>
       </c>
-      <c r="L35" s="7" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>昆船智能</t>
         </is>
@@ -7544,6 +8005,11 @@
       <c r="N35" s="6" t="inlineStr">
         <is>
           <t>渤海化学</t>
+        </is>
+      </c>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
         </is>
       </c>
     </row>
@@ -7553,7 +8019,7 @@
           <t>杭齿前进</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr">
+      <c r="C36" s="10" t="inlineStr">
         <is>
           <t>永杉锂业</t>
         </is>
@@ -7563,7 +8029,7 @@
           <t>汉嘉设计</t>
         </is>
       </c>
-      <c r="E36" s="9" t="inlineStr">
+      <c r="E36" s="10" t="inlineStr">
         <is>
           <t>新北洋</t>
         </is>
@@ -7573,12 +8039,12 @@
           <t>利欧股份</t>
         </is>
       </c>
-      <c r="G36" s="9" t="inlineStr">
+      <c r="G36" s="10" t="inlineStr">
         <is>
           <t>华远地产</t>
         </is>
       </c>
-      <c r="H36" s="9" t="inlineStr">
+      <c r="H36" s="10" t="inlineStr">
         <is>
           <t>麦趣尔</t>
         </is>
@@ -7593,7 +8059,7 @@
           <t>大千生态</t>
         </is>
       </c>
-      <c r="L36" s="10" t="inlineStr">
+      <c r="L36" s="8" t="inlineStr">
         <is>
           <t>王子新材</t>
         </is>
@@ -7608,14 +8074,19 @@
           <t>安德利</t>
         </is>
       </c>
+      <c r="O36" s="7" t="inlineStr">
+        <is>
+          <t>信质集团</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>芯瑞达</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="C37" s="10" t="inlineStr">
         <is>
           <t>菲林格尔</t>
         </is>
@@ -7625,7 +8096,7 @@
           <t>深中华A</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
+      <c r="E37" s="10" t="inlineStr">
         <is>
           <t>雅博股份</t>
         </is>
@@ -7635,22 +8106,22 @@
           <t>日盈电子</t>
         </is>
       </c>
-      <c r="G37" s="9" t="inlineStr">
+      <c r="G37" s="19" t="inlineStr">
         <is>
           <t>冠石科技</t>
         </is>
       </c>
-      <c r="H37" s="9" t="inlineStr">
+      <c r="H37" s="10" t="inlineStr">
         <is>
           <t>莎普爱思</t>
         </is>
       </c>
-      <c r="I37" s="9" t="inlineStr">
+      <c r="I37" s="10" t="inlineStr">
         <is>
           <t>宗申动力</t>
         </is>
       </c>
-      <c r="J37" s="9" t="inlineStr">
+      <c r="J37" s="10" t="inlineStr">
         <is>
           <t>中百集团</t>
         </is>
@@ -7660,14 +8131,19 @@
           <t>拓斯达</t>
         </is>
       </c>
-      <c r="M37" s="9" t="inlineStr">
+      <c r="M37" s="10" t="inlineStr">
         <is>
           <t>浦东建设</t>
         </is>
       </c>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="N37" s="19" t="inlineStr">
         <is>
           <t>中旗新材</t>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t>浙江永强</t>
         </is>
       </c>
     </row>
@@ -7677,7 +8153,7 @@
           <t>光洋股份</t>
         </is>
       </c>
-      <c r="C38" s="9" t="inlineStr">
+      <c r="C38" s="10" t="inlineStr">
         <is>
           <t>尔康制药</t>
         </is>
@@ -7692,12 +8168,12 @@
           <t>宿迁联盛</t>
         </is>
       </c>
-      <c r="F38" s="9" t="inlineStr">
+      <c r="F38" s="10" t="inlineStr">
         <is>
           <t>东方创业</t>
         </is>
       </c>
-      <c r="G38" s="9" t="inlineStr">
+      <c r="G38" s="10" t="inlineStr">
         <is>
           <t>未名医药</t>
         </is>
@@ -7722,7 +8198,7 @@
           <t>日盈电子</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="13" t="inlineStr">
         <is>
           <t>拉芳家化</t>
         </is>
@@ -7730,6 +8206,11 @@
       <c r="N38" s="7" t="inlineStr">
         <is>
           <t>电光科技</t>
+        </is>
+      </c>
+      <c r="O38" s="10" t="inlineStr">
+        <is>
+          <t>海南海药</t>
         </is>
       </c>
     </row>
@@ -7739,17 +8220,17 @@
           <t>东珠生态</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="C39" s="10" t="inlineStr">
         <is>
           <t>凯莱英</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>中坚科技</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
+      <c r="E39" s="10" t="inlineStr">
         <is>
           <t>联合化学</t>
         </is>
@@ -7759,7 +8240,7 @@
           <t>蓝丰生化</t>
         </is>
       </c>
-      <c r="G39" s="9" t="inlineStr">
+      <c r="G39" s="10" t="inlineStr">
         <is>
           <t>大博医疗</t>
         </is>
@@ -7769,17 +8250,17 @@
           <t>宝馨科技</t>
         </is>
       </c>
-      <c r="I39" s="10" t="inlineStr">
+      <c r="I39" s="8" t="inlineStr">
         <is>
           <t>航天长峰</t>
         </is>
       </c>
-      <c r="J39" s="9" t="inlineStr">
+      <c r="J39" s="10" t="inlineStr">
         <is>
           <t>联德股份</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>中坚科技</t>
         </is>
@@ -7789,9 +8270,14 @@
           <t>神驰机电</t>
         </is>
       </c>
-      <c r="N39" s="9" t="inlineStr">
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>中远海发</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>西王食品</t>
         </is>
       </c>
     </row>
@@ -7806,12 +8292,12 @@
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="D40" s="10" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="F40" s="9" t="inlineStr">
+      <c r="F40" s="10" t="inlineStr">
         <is>
           <t>哈森股份</t>
         </is>
@@ -7821,22 +8307,22 @@
           <t>嵘泰股份</t>
         </is>
       </c>
-      <c r="H40" s="9" t="inlineStr">
+      <c r="H40" s="10" t="inlineStr">
         <is>
           <t>盛和资源</t>
         </is>
       </c>
-      <c r="I40" s="10" t="inlineStr">
+      <c r="I40" s="8" t="inlineStr">
         <is>
           <t>晨曦航空</t>
         </is>
       </c>
-      <c r="J40" s="10" t="inlineStr">
+      <c r="J40" s="8" t="inlineStr">
         <is>
           <t>银河电子</t>
         </is>
       </c>
-      <c r="L40" s="10" t="inlineStr">
+      <c r="L40" s="8" t="inlineStr">
         <is>
           <t>鸿远电子</t>
         </is>
@@ -7846,9 +8332,14 @@
           <t>中化国际</t>
         </is>
       </c>
-      <c r="N40" s="9" t="inlineStr">
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>锦江航运</t>
+        </is>
+      </c>
+      <c r="O40" s="10" t="inlineStr">
+        <is>
+          <t>美农生物</t>
         </is>
       </c>
     </row>
@@ -7858,12 +8349,12 @@
           <t>龙溪股份</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
+      <c r="C41" s="10" t="inlineStr">
         <is>
           <t>中宠股份</t>
         </is>
       </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="D41" s="10" t="inlineStr">
         <is>
           <t>三峡旅游</t>
         </is>
@@ -7878,7 +8369,7 @@
           <t>川润股份</t>
         </is>
       </c>
-      <c r="H41" s="9" t="inlineStr">
+      <c r="H41" s="10" t="inlineStr">
         <is>
           <t>永鼎股份</t>
         </is>
@@ -7888,7 +8379,7 @@
           <t>湖南天雁</t>
         </is>
       </c>
-      <c r="J41" s="9" t="inlineStr">
+      <c r="J41" s="10" t="inlineStr">
         <is>
           <t>通业科技</t>
         </is>
@@ -7906,6 +8397,11 @@
       <c r="N41" s="4" t="inlineStr">
         <is>
           <t>中集环科</t>
+        </is>
+      </c>
+      <c r="O41" s="13" t="inlineStr">
+        <is>
+          <t>若羽臣</t>
         </is>
       </c>
     </row>
@@ -7965,9 +8461,14 @@
           <t>新华锦</t>
         </is>
       </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t>百洋股份</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
@@ -7997,12 +8498,12 @@
           <t>兰石重装</t>
         </is>
       </c>
-      <c r="I43" s="9" t="inlineStr">
+      <c r="I43" s="10" t="inlineStr">
         <is>
           <t>常山药业</t>
         </is>
       </c>
-      <c r="J43" s="9" t="inlineStr">
+      <c r="J43" s="19" t="inlineStr">
         <is>
           <t>汉钟精机</t>
         </is>
@@ -8017,19 +8518,24 @@
           <t>电投产融</t>
         </is>
       </c>
-      <c r="N43" s="9" t="inlineStr">
+      <c r="N43" s="10" t="inlineStr">
         <is>
           <t>金河生物</t>
         </is>
       </c>
+      <c r="O43" s="4" t="inlineStr">
+        <is>
+          <t>安正时尚</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
         <is>
           <t>中马传动</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="C44" s="10" t="inlineStr">
         <is>
           <t>罗欣药业</t>
         </is>
@@ -8039,12 +8545,12 @@
           <t>九洲集团</t>
         </is>
       </c>
-      <c r="F44" s="7" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>全筑股份</t>
         </is>
       </c>
-      <c r="G44" s="9" t="inlineStr">
+      <c r="G44" s="10" t="inlineStr">
         <is>
           <t>空港股份</t>
         </is>
@@ -8054,7 +8560,7 @@
           <t>海陆重工</t>
         </is>
       </c>
-      <c r="I44" s="9" t="inlineStr">
+      <c r="I44" s="10" t="inlineStr">
         <is>
           <t>大众交通</t>
         </is>
@@ -8064,19 +8570,24 @@
           <t>高测股份</t>
         </is>
       </c>
-      <c r="L44" s="10" t="inlineStr">
+      <c r="L44" s="8" t="inlineStr">
         <is>
           <t>春兴精工</t>
         </is>
       </c>
-      <c r="M44" s="9" t="inlineStr">
+      <c r="M44" s="10" t="inlineStr">
         <is>
           <t>贝瑞基因</t>
         </is>
       </c>
-      <c r="N44" s="9" t="inlineStr">
+      <c r="N44" s="10" t="inlineStr">
         <is>
           <t>嘉欣丝绸</t>
+        </is>
+      </c>
+      <c r="O44" s="5" t="inlineStr">
+        <is>
+          <t>登康口腔</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8602,12 @@
           <t>广西能源</t>
         </is>
       </c>
-      <c r="D45" s="10" t="inlineStr">
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t>天津普林</t>
         </is>
       </c>
-      <c r="F45" s="9" t="inlineStr">
+      <c r="F45" s="10" t="inlineStr">
         <is>
           <t>平治信息</t>
         </is>
@@ -8106,7 +8617,7 @@
           <t>西上海</t>
         </is>
       </c>
-      <c r="H45" s="9" t="inlineStr">
+      <c r="H45" s="10" t="inlineStr">
         <is>
           <t>雪人股份</t>
         </is>
@@ -8136,9 +8647,14 @@
           <t>乐山电力</t>
         </is>
       </c>
+      <c r="O45" s="10" t="inlineStr">
+        <is>
+          <t>拓新药业</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>神开股份</t>
         </is>
@@ -8153,7 +8669,7 @@
           <t>好上好</t>
         </is>
       </c>
-      <c r="F46" s="9" t="inlineStr">
+      <c r="F46" s="10" t="inlineStr">
         <is>
           <t>雅运股份</t>
         </is>
@@ -8163,12 +8679,12 @@
           <t>旺能环境</t>
         </is>
       </c>
-      <c r="H46" s="9" t="inlineStr">
+      <c r="H46" s="19" t="inlineStr">
         <is>
           <t>诚邦股份</t>
         </is>
       </c>
-      <c r="I46" s="9" t="inlineStr">
+      <c r="I46" s="19" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
@@ -8188,9 +8704,14 @@
           <t>连云港</t>
         </is>
       </c>
-      <c r="N46" s="9" t="inlineStr">
+      <c r="N46" s="10" t="inlineStr">
         <is>
           <t>红塔证券</t>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t>华业香料</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8721,7 @@
           <t>三维化学</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
+      <c r="C47" s="10" t="inlineStr">
         <is>
           <t>天元宠物</t>
         </is>
@@ -8215,22 +8736,22 @@
           <t>宁波东力</t>
         </is>
       </c>
-      <c r="G47" s="9" t="inlineStr">
+      <c r="G47" s="10" t="inlineStr">
         <is>
           <t>韩建河山</t>
         </is>
       </c>
-      <c r="H47" s="9" t="inlineStr">
+      <c r="H47" s="10" t="inlineStr">
         <is>
           <t>达华智能</t>
         </is>
       </c>
-      <c r="I47" s="9" t="inlineStr">
+      <c r="I47" s="10" t="inlineStr">
         <is>
           <t>大元泵业</t>
         </is>
       </c>
-      <c r="J47" s="9" t="inlineStr">
+      <c r="J47" s="19" t="inlineStr">
         <is>
           <t>联合精密</t>
         </is>
@@ -8245,9 +8766,14 @@
           <t>鑫磊股份</t>
         </is>
       </c>
-      <c r="N47" s="9" t="inlineStr">
+      <c r="N47" s="10" t="inlineStr">
         <is>
           <t>天利科技</t>
+        </is>
+      </c>
+      <c r="O47" s="10" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
         </is>
       </c>
     </row>
@@ -8287,24 +8813,29 @@
           <t>长华化学</t>
         </is>
       </c>
-      <c r="J48" s="9" t="inlineStr">
+      <c r="J48" s="10" t="inlineStr">
         <is>
           <t>广东鸿图</t>
         </is>
       </c>
-      <c r="L48" s="19" t="inlineStr">
+      <c r="L48" s="5" t="inlineStr">
         <is>
           <t>中恒电气</t>
         </is>
       </c>
-      <c r="M48" s="5" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
         <is>
           <t>凤凰航运</t>
         </is>
       </c>
-      <c r="N48" s="9" t="inlineStr">
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>海程邦达</t>
+        </is>
+      </c>
+      <c r="O48" s="10" t="inlineStr">
+        <is>
+          <t>众兴菌业</t>
         </is>
       </c>
     </row>
@@ -8319,7 +8850,7 @@
           <t>韶能股份</t>
         </is>
       </c>
-      <c r="D49" s="19" t="inlineStr">
+      <c r="D49" s="10" t="inlineStr">
         <is>
           <t>拓维信息</t>
         </is>
@@ -8334,7 +8865,7 @@
           <t>精工科技</t>
         </is>
       </c>
-      <c r="H49" s="9" t="inlineStr">
+      <c r="H49" s="10" t="inlineStr">
         <is>
           <t>华丽家族</t>
         </is>
@@ -8344,24 +8875,29 @@
           <t>金浦钛业</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr">
+      <c r="J49" s="8" t="inlineStr">
         <is>
           <t>通达股份</t>
         </is>
       </c>
-      <c r="L49" s="9" t="inlineStr">
+      <c r="L49" s="10" t="inlineStr">
         <is>
           <t>中邮科技</t>
         </is>
       </c>
-      <c r="M49" s="5" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>宁波远洋</t>
         </is>
       </c>
-      <c r="N49" s="9" t="inlineStr">
+      <c r="N49" s="10" t="inlineStr">
         <is>
           <t>中国人保</t>
+        </is>
+      </c>
+      <c r="O49" s="10" t="inlineStr">
+        <is>
+          <t>青松股份</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8912,12 @@
           <t>渤海化学</t>
         </is>
       </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="D50" s="10" t="inlineStr">
         <is>
           <t>甘李药业</t>
         </is>
       </c>
-      <c r="F50" s="9" t="inlineStr">
+      <c r="F50" s="10" t="inlineStr">
         <is>
           <t>文投控股</t>
         </is>
@@ -8391,7 +8927,7 @@
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="H50" s="9" t="inlineStr">
+      <c r="H50" s="10" t="inlineStr">
         <is>
           <t>广晟有色</t>
         </is>
@@ -8401,12 +8937,12 @@
           <t>利君股份</t>
         </is>
       </c>
-      <c r="J50" s="9" t="inlineStr">
+      <c r="J50" s="10" t="inlineStr">
         <is>
           <t>金通灵</t>
         </is>
       </c>
-      <c r="L50" s="10" t="inlineStr">
+      <c r="L50" s="8" t="inlineStr">
         <is>
           <t>襄阳轴承</t>
         </is>
@@ -8416,9 +8952,14 @@
           <t>海通发展</t>
         </is>
       </c>
-      <c r="N50" s="9" t="inlineStr">
+      <c r="N50" s="10" t="inlineStr">
         <is>
           <t>瑞达期货</t>
+        </is>
+      </c>
+      <c r="O50" s="13" t="inlineStr">
+        <is>
+          <t>郑中设计</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8974,12 @@
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="D51" s="10" t="inlineStr">
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t>泰豪科技</t>
         </is>
       </c>
-      <c r="F51" s="9" t="inlineStr">
+      <c r="F51" s="10" t="inlineStr">
         <is>
           <t>百润股份</t>
         </is>
@@ -8458,7 +8999,7 @@
           <t>华伍股份</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr">
+      <c r="J51" s="8" t="inlineStr">
         <is>
           <t>七丰精工</t>
         </is>
@@ -8468,14 +9009,19 @@
           <t>浙江鼎力</t>
         </is>
       </c>
-      <c r="N51" s="9" t="inlineStr">
+      <c r="N51" s="10" t="inlineStr">
         <is>
           <t>锦龙股份</t>
         </is>
       </c>
+      <c r="O51" s="13" t="inlineStr">
+        <is>
+          <t>丸美生物</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="19" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>恒勃股份</t>
         </is>
@@ -8490,7 +9036,7 @@
           <t>百龙创园</t>
         </is>
       </c>
-      <c r="F52" s="9" t="inlineStr">
+      <c r="F52" s="10" t="inlineStr">
         <is>
           <t>梦百合</t>
         </is>
@@ -8505,7 +9051,7 @@
           <t>嘉事堂</t>
         </is>
       </c>
-      <c r="I52" s="10" t="inlineStr">
+      <c r="I52" s="8" t="inlineStr">
         <is>
           <t>襄阳轴承</t>
         </is>
@@ -8515,14 +9061,14 @@
           <t>宸展光电</t>
         </is>
       </c>
-      <c r="N52" s="9" t="inlineStr">
+      <c r="N52" s="10" t="inlineStr">
         <is>
           <t>飞力达</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="10" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>吉林化纤</t>
         </is>
@@ -8547,17 +9093,17 @@
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="I53" s="9" t="inlineStr">
+      <c r="I53" s="10" t="inlineStr">
         <is>
           <t>益民集团</t>
         </is>
       </c>
-      <c r="J53" s="9" t="inlineStr">
+      <c r="J53" s="10" t="inlineStr">
         <is>
           <t>沃尔核材</t>
         </is>
       </c>
-      <c r="N53" s="9" t="inlineStr">
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>国航远洋</t>
         </is>
@@ -8594,7 +9140,7 @@
           <t>建设工业</t>
         </is>
       </c>
-      <c r="J54" s="19" t="inlineStr">
+      <c r="J54" s="10" t="inlineStr">
         <is>
           <t>视觉中国</t>
         </is>
@@ -8611,12 +9157,12 @@
           <t>长城科技</t>
         </is>
       </c>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="D55" s="10" t="inlineStr">
         <is>
           <t>我乐家居</t>
         </is>
       </c>
-      <c r="F55" s="9" t="inlineStr">
+      <c r="F55" s="10" t="inlineStr">
         <is>
           <t>美利云</t>
         </is>
@@ -8631,7 +9177,7 @@
           <t>莱宝高科</t>
         </is>
       </c>
-      <c r="I55" s="10" t="inlineStr">
+      <c r="I55" s="8" t="inlineStr">
         <is>
           <t>成飞集成</t>
         </is>
@@ -8641,7 +9187,7 @@
           <t>东华软件</t>
         </is>
       </c>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="N55" s="10" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
@@ -8653,12 +9199,12 @@
           <t>海陆重工</t>
         </is>
       </c>
-      <c r="D56" s="9" t="inlineStr">
+      <c r="D56" s="10" t="inlineStr">
         <is>
           <t>致尚科技</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="F56" s="19" t="inlineStr">
         <is>
           <t>中旗新材</t>
         </is>
@@ -8710,7 +9256,7 @@
           <t>福达股份</t>
         </is>
       </c>
-      <c r="H57" s="19" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>中恒电气</t>
         </is>
@@ -8720,7 +9266,7 @@
           <t>北方股份</t>
         </is>
       </c>
-      <c r="J57" s="9" t="inlineStr">
+      <c r="J57" s="10" t="inlineStr">
         <is>
           <t>冰轮环境</t>
         </is>
@@ -8732,7 +9278,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="9" t="inlineStr">
+      <c r="B58" s="10" t="inlineStr">
         <is>
           <t>万丰奥威</t>
         </is>
@@ -8747,7 +9293,7 @@
           <t>兆丰股份</t>
         </is>
       </c>
-      <c r="G58" s="9" t="inlineStr">
+      <c r="G58" s="10" t="inlineStr">
         <is>
           <t>华夏幸福</t>
         </is>
@@ -8757,12 +9303,12 @@
           <t>狄耐克</t>
         </is>
       </c>
-      <c r="I58" s="10" t="inlineStr">
+      <c r="I58" s="8" t="inlineStr">
         <is>
           <t>天箭科技</t>
         </is>
       </c>
-      <c r="J58" s="9" t="inlineStr">
+      <c r="J58" s="10" t="inlineStr">
         <is>
           <t>剑桥科技</t>
         </is>
@@ -8779,7 +9325,7 @@
           <t>德美化工</t>
         </is>
       </c>
-      <c r="D59" s="9" t="inlineStr">
+      <c r="D59" s="10" t="inlineStr">
         <is>
           <t>全新好</t>
         </is>
@@ -8789,7 +9335,7 @@
           <t>金鸿顺</t>
         </is>
       </c>
-      <c r="G59" s="9" t="inlineStr">
+      <c r="G59" s="10" t="inlineStr">
         <is>
           <t>湖北广电</t>
         </is>
@@ -8799,12 +9345,12 @@
           <t>京运通</t>
         </is>
       </c>
-      <c r="I59" s="9" t="inlineStr">
+      <c r="I59" s="10" t="inlineStr">
         <is>
           <t>湖北宜化</t>
         </is>
       </c>
-      <c r="J59" s="19" t="inlineStr">
+      <c r="J59" s="10" t="inlineStr">
         <is>
           <t>金龙机电</t>
         </is>
@@ -8836,12 +9382,12 @@
           <t>龙溪股份</t>
         </is>
       </c>
-      <c r="H60" s="19" t="inlineStr">
+      <c r="H60" s="10" t="inlineStr">
         <is>
           <t>天源迪科</t>
         </is>
       </c>
-      <c r="I60" s="9" t="inlineStr">
+      <c r="I60" s="10" t="inlineStr">
         <is>
           <t>箭牌家居</t>
         </is>
@@ -8873,7 +9419,7 @@
           <t>宏昌科技</t>
         </is>
       </c>
-      <c r="H61" s="19" t="inlineStr">
+      <c r="H61" s="10" t="inlineStr">
         <is>
           <t>南天信息</t>
         </is>
@@ -8888,7 +9434,7 @@
           <t>中航成飞</t>
         </is>
       </c>
-      <c r="N61" s="9" t="inlineStr">
+      <c r="N61" s="10" t="inlineStr">
         <is>
           <t>长江投资</t>
         </is>
@@ -8910,12 +9456,12 @@
           <t>掌阅科技</t>
         </is>
       </c>
-      <c r="I62" s="9" t="inlineStr">
+      <c r="I62" s="10" t="inlineStr">
         <is>
           <t>巨力索具</t>
         </is>
       </c>
-      <c r="J62" s="9" t="inlineStr">
+      <c r="J62" s="10" t="inlineStr">
         <is>
           <t>尖峰集团</t>
         </is>
@@ -8937,7 +9483,7 @@
           <t>祥鑫科技</t>
         </is>
       </c>
-      <c r="H63" s="19" t="inlineStr">
+      <c r="H63" s="10" t="inlineStr">
         <is>
           <t>九联科技</t>
         </is>
@@ -8947,7 +9493,7 @@
           <t>物产金轮</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr">
+      <c r="J63" s="8" t="inlineStr">
         <is>
           <t>展鹏科技</t>
         </is>
@@ -8964,7 +9510,7 @@
           <t>上海电影</t>
         </is>
       </c>
-      <c r="H64" s="9" t="inlineStr">
+      <c r="H64" s="10" t="inlineStr">
         <is>
           <t>海南华铁</t>
         </is>
@@ -8986,7 +9532,7 @@
           <t>南方精工</t>
         </is>
       </c>
-      <c r="H65" s="9" t="inlineStr">
+      <c r="H65" s="10" t="inlineStr">
         <is>
           <t>慧为智能</t>
         </is>
@@ -8996,7 +9542,7 @@
           <t>中毅达</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr">
+      <c r="J65" s="8" t="inlineStr">
         <is>
           <t>航天南湖</t>
         </is>
@@ -9008,7 +9554,7 @@
           <t>春光智能</t>
         </is>
       </c>
-      <c r="H66" s="9" t="inlineStr">
+      <c r="H66" s="10" t="inlineStr">
         <is>
           <t>凯迪股份</t>
         </is>
@@ -9018,14 +9564,14 @@
           <t>天娱数科</t>
         </is>
       </c>
-      <c r="J66" s="9" t="inlineStr">
+      <c r="J66" s="10" t="inlineStr">
         <is>
           <t>保利联合</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="G67" s="9" t="inlineStr">
+      <c r="G67" s="10" t="inlineStr">
         <is>
           <t>老百姓</t>
         </is>
@@ -9035,7 +9581,7 @@
           <t>云内动力</t>
         </is>
       </c>
-      <c r="J67" s="10" t="inlineStr">
+      <c r="J67" s="8" t="inlineStr">
         <is>
           <t>四创电子</t>
         </is>
@@ -9052,50 +9598,50 @@
           <t>岩山科技</t>
         </is>
       </c>
-      <c r="J68" s="4" t="inlineStr">
+      <c r="J68" s="10" t="inlineStr">
         <is>
           <t>天邦食品</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="G69" s="9" t="inlineStr">
+      <c r="G69" s="10" t="inlineStr">
         <is>
           <t>宜宾纸业</t>
         </is>
       </c>
-      <c r="H69" s="9" t="inlineStr">
+      <c r="H69" s="10" t="inlineStr">
         <is>
           <t>泰坦股份</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="G70" s="9" t="inlineStr">
+      <c r="G70" s="10" t="inlineStr">
         <is>
           <t>科伦药业</t>
         </is>
       </c>
-      <c r="H70" s="19" t="inlineStr">
+      <c r="H70" s="10" t="inlineStr">
         <is>
           <t>福日电子</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="G71" s="9" t="inlineStr">
+      <c r="G71" s="10" t="inlineStr">
         <is>
           <t>松炀资源</t>
         </is>
       </c>
-      <c r="H71" s="9" t="inlineStr">
+      <c r="H71" s="10" t="inlineStr">
         <is>
           <t>云中马</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="G72" s="9" t="inlineStr">
+      <c r="G72" s="10" t="inlineStr">
         <is>
           <t>威领股份</t>
         </is>
@@ -9152,7 +9698,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="H78" s="9" t="inlineStr">
+      <c r="H78" s="10" t="inlineStr">
         <is>
           <t>九鼎投资</t>
         </is>
@@ -9166,21 +9712,21 @@
       </c>
     </row>
     <row r="80">
-      <c r="H80" s="9" t="inlineStr">
+      <c r="H80" s="10" t="inlineStr">
         <is>
           <t>广田集团</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="H81" s="9" t="inlineStr">
+      <c r="H81" s="10" t="inlineStr">
         <is>
           <t>秦安股份</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="H82" s="9" t="inlineStr">
+      <c r="H82" s="10" t="inlineStr">
         <is>
           <t>奕东电子</t>
         </is>
@@ -9229,7 +9775,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="H89" s="19" t="inlineStr">
+      <c r="H89" s="10" t="inlineStr">
         <is>
           <t>深圳华强</t>
         </is>
@@ -9250,7 +9796,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="H92" s="9" t="inlineStr">
+      <c r="H92" s="10" t="inlineStr">
         <is>
           <t>普天科技</t>
         </is>
@@ -9285,7 +9831,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="H97" s="9" t="inlineStr">
+      <c r="H97" s="10" t="inlineStr">
         <is>
           <t>东江环保</t>
         </is>
@@ -9331,7 +9877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9378,7 +9924,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大股东长春光机所</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -9386,7 +9932,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>关节轴承</t>
+          <t>海洋馆</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -9394,7 +9940,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>聚焦深海领域</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -9402,7 +9948,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>碳酸钾</t>
+          <t>POE胶膜</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -9410,7 +9956,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>境外产能布局</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -9418,7 +9964,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>并购重组预期</t>
+          <t>此前提及东南亚</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -9436,7 +9982,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航空发动机</t>
+          <t>车联网</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -9444,7 +9990,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>余热锅炉</t>
+          <t>年报亏损收窄</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -9452,7 +9998,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>聚焦深海领域</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -9460,7 +10006,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>年报、一季报发布</t>
+          <t>聚烯烃高效能催化剂</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -9468,7 +10014,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>发动机零部件</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -9476,7 +10022,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>持股国泰君安</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -9486,7 +10032,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>脑机接口</t>
+          <t>稀土永磁</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9494,7 +10040,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>调入港股通</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -9502,7 +10048,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>灵巧手</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -9510,7 +10056,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>石墨产业</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -9518,7 +10064,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>小米汽车</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -9526,7 +10072,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>获道路测试牌照</t>
+          <t>出口美国业务占比少</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -9534,7 +10080,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>丝绸文创</t>
+          <t>金属铜</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -9544,7 +10090,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>减速器</t>
+          <t>脑机接口</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9552,7 +10098,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>签订2.97亿元光学系统研制合同</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -9560,7 +10106,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>卫星导航</t>
+          <t>关节轴承</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -9568,7 +10114,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>石墨产业</t>
+          <t>eVTOL</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -9576,7 +10122,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>黄金概念</t>
+          <t>受让浙江容腾基金份额</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -9584,7 +10130,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>互联网入口平台</t>
+          <t>AH股</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -9592,7 +10138,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>数码印花技术</t>
+          <t>重大合同</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -9602,15 +10148,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>稀土永磁</t>
+          <t>减速器</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拟6935.66万元收购德国SMS公司</t>
+          <t>大股东长春光机所</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -9618,7 +10164,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>农机自动驾驶</t>
+          <t>余热锅炉</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -9626,7 +10172,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>eVTOL</t>
+          <t>纯电动飞机</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -9634,7 +10180,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>珠宝饰品</t>
+          <t>预调鸡尾酒</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -9642,7 +10188,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>玻璃封装载板</t>
+          <t>高端纺织机械设备</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -9650,7 +10196,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>市场拓展</t>
+          <t>磷酸铁锂</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -9668,7 +10214,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>智能数控装备</t>
+          <t>航空发动机</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -9676,7 +10222,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>合成生物</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -9684,7 +10230,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>纯电动飞机</t>
+          <t>注塑产品</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -9692,7 +10238,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>收购果链股权</t>
+          <t>香精香料</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -9700,7 +10246,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>面板</t>
+          <t>新型工业化</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -9708,7 +10254,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>火电资产重组</t>
+          <t>塑料餐饮具</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -9726,7 +10272,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -9734,7 +10280,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>量子科技</t>
+          <t>卫星导航</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -9742,7 +10288,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>注塑产品</t>
+          <t>进气系统</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -9750,7 +10296,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>皮鞋</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -9758,7 +10304,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯</t>
+          <t>维生素</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -9766,7 +10312,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>煤电一体化</t>
+          <t>新茶饮供应链</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -9780,11 +10326,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>益生菌</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -9792,7 +10338,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>海外扩张</t>
+          <t>农机自动驾驶</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -9800,7 +10346,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>电磁线</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -9808,7 +10354,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>POE胶膜</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -9816,7 +10362,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>革基布</t>
+          <t>专网通信</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -9824,7 +10370,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>汽车面料</t>
+          <t>航空产品</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -9838,11 +10384,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>轴承</t>
+          <t>拟6935.66万元收购德国SMS公司</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -9850,7 +10396,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>量子科技</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -9858,7 +10404,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>进气系统</t>
+          <t>年报预盈</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -9866,7 +10412,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>聚烯烃高效能催化剂</t>
+          <t>预应力钢筒混凝土管</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -9874,7 +10420,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>锆钛资源扩张</t>
+          <t>链传动</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -9882,7 +10428,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>纺织设备</t>
+          <t>智能网联</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -9900,7 +10446,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>智能座舱</t>
+          <t>智能数控装备</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -9908,7 +10454,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>碳酸锂</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -9916,7 +10462,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>电磁线</t>
+          <t>仿制药</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -9924,7 +10470,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>小米汽车</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -9932,7 +10478,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>激光雷达</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -9940,7 +10486,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>节能环保拉幅定形机</t>
+          <t>军事仿真</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -9958,7 +10504,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -9966,7 +10512,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>首发经济</t>
+          <t>海外扩张</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9974,7 +10520,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>年报预盈</t>
+          <t>锂盐产能</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -9982,7 +10528,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>受让浙江容腾基金份额</t>
+          <t>汽车轮毂轴承</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -9990,7 +10536,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>稀贵金属回收</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -9998,7 +10544,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>东南亚销售</t>
+          <t>军用无线通信设备</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -10016,7 +10562,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>飞行汽车</t>
+          <t>涂料</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -10024,7 +10570,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>芳香族酮类</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -10032,7 +10578,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>仿制药</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -10040,7 +10586,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>预调鸡尾酒</t>
+          <t>拟并购新思考</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -10048,7 +10594,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>汽车拆解</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -10056,7 +10602,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>中航系</t>
+          <t>卫星</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -10066,15 +10612,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>农药</t>
+          <t>中字头</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>有机硅胶粘剂</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -10082,7 +10628,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>工程机械</t>
+          <t>碳酸锂</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -10090,7 +10636,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>锂盐产能</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -10098,7 +10644,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>香精香料</t>
+          <t>住宅装修</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -10106,7 +10652,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>发动机零部件</t>
+          <t>实景演艺</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -10114,7 +10660,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>钨制品</t>
+          <t>中船系</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -10124,15 +10670,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>混凝土外加剂</t>
+          <t>合成生物</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>无人驾驶</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -10140,7 +10686,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>首发经济</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -10148,7 +10694,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>多肽药物</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -10156,7 +10702,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>海外布局</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -10164,7 +10710,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>出口美国业务占比少</t>
+          <t>智能化塑机</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -10172,7 +10718,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>硬质合金</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -10182,7 +10728,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>航空材料</t>
+          <t>农药</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10190,7 +10736,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>碳纤维</t>
+          <t>纺织服装</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -10198,7 +10744,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>电气绝缘材料</t>
+          <t>芳香族酮类</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -10206,7 +10752,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>全球化产能扩张</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -10214,7 +10760,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>重组功能蛋白</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -10222,7 +10768,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>AH股</t>
+          <t>薄膜</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -10230,7 +10776,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>薄膜电容</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -10240,7 +10786,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AH两地上市</t>
+          <t>拒海水聚酯工业丝</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -10248,7 +10794,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>跨境物流</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -10256,7 +10802,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>工程机械</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -10264,7 +10810,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>多肽药物</t>
+          <t>红枣</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -10272,7 +10818,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>预应力钢筒混凝土管</t>
+          <t>关税影响有限</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -10280,7 +10826,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>高端纺织机械设备</t>
+          <t>通用机械</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -10288,7 +10834,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>牙膏</t>
+          <t>水务全产业链</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -10298,7 +10844,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>鸿蒙</t>
+          <t>混凝土外加剂</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10306,7 +10852,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>特斯拉</t>
+          <t>轴承</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -10314,7 +10860,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>家居</t>
+          <t>PCB</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -10322,7 +10868,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>全球化产能扩张</t>
+          <t>间接参投蜜雪冰城</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -10330,7 +10876,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>MCU</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -10338,7 +10884,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>新型工业化</t>
+          <t>助听器</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -10346,7 +10892,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>此前提及东南亚</t>
+          <t>5.5G</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -10356,7 +10902,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>腾讯</t>
+          <t>航空材料</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -10364,7 +10910,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美国生产基地</t>
+          <t>智能座舱</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -10372,7 +10918,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>地下管网</t>
+          <t>电气绝缘材料</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -10380,7 +10926,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>红枣</t>
+          <t>质子治疗设备</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -10388,7 +10934,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>汽车轮毂轴承</t>
+          <t>利基DRAM涨价</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -10396,7 +10942,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>维生素</t>
+          <t>实控人将变更为中创新航</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -10404,7 +10950,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>持股国泰君安</t>
+          <t>白色家电</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -10414,7 +10960,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>航空装备</t>
+          <t>化妆品</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10422,7 +10968,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>宠物经济</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -10430,7 +10976,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -10438,7 +10984,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>间接参投蜜雪冰城</t>
+          <t>消化领域</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -10446,7 +10992,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>拟并购新思考</t>
+          <t>家居产品</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -10454,7 +11000,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>专网通信</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -10462,7 +11008,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>金属铜</t>
+          <t>智能物流系统</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -10472,7 +11018,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>中字头</t>
+          <t>AH两地上市</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10480,7 +11026,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>飞行汽车</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -10488,7 +11034,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>美容护理</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10496,7 +11042,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>质子治疗设备</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -10504,7 +11050,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>住宅装修</t>
+          <t>通信线缆</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -10512,7 +11058,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>链传动</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -10520,7 +11066,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>重大合同</t>
+          <t>精确制导</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -10530,15 +11076,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>拒海水聚酯工业丝</t>
+          <t>鸿蒙</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -10546,7 +11092,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>电线电缆</t>
+          <t>家居</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10554,7 +11100,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>消化领域</t>
+          <t>海外工厂扩建</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -10562,7 +11108,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>海外布局</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -10570,7 +11116,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>激光雷达</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -10578,7 +11124,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>磷酸铁锂</t>
+          <t>瓷介电容器</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -10588,15 +11134,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>腾讯</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>无人驾驶</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -10604,7 +11150,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>环保</t>
+          <t>地下管网</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10612,7 +11158,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -10620,7 +11166,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>重组功能蛋白</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -10628,7 +11174,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>稀贵金属回收</t>
+          <t>泵</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -10636,7 +11182,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>塑料餐饮具</t>
+          <t>高空作业平台</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -10646,15 +11192,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>航空装备</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>特种钢丝绳</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -10662,7 +11208,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>兵装重组概念</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10670,7 +11216,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>海外工厂扩建</t>
+          <t>铝合金车轮</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -10678,7 +11224,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>关税影响有限</t>
+          <t>控制权此前变更</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -10686,7 +11232,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>汽车拆解</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -10694,7 +11240,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>新茶饮供应链</t>
+          <t>水产品加工</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -10704,15 +11250,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>涤纶</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>特斯拉</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -10720,7 +11266,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>环保</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10728,7 +11274,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>关税抗风险</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -10736,7 +11282,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MCU</t>
+          <t>女装</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -10744,7 +11290,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>实景演艺</t>
+          <t>智慧家居</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -10752,7 +11298,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>航空产品</t>
+          <t>户外家具</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -10762,15 +11308,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>出海</t>
+          <t>纺织制造</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>美国生产基地</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -10778,7 +11324,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>智能物流</t>
+          <t>兵装重组概念</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10786,7 +11332,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>铝合金车轮</t>
+          <t>男装</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -10794,7 +11340,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>利基DRAM涨价</t>
+          <t>控股股东拟变更</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -10802,7 +11348,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>智能化塑机</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -10810,7 +11356,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>智能网联</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -10820,7 +11366,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -10828,7 +11374,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -10836,7 +11382,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>造纸</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10844,7 +11390,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>关税抗风险</t>
+          <t>移动支付</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -10852,7 +11398,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>家居产品</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -10860,7 +11406,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>薄膜</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -10868,7 +11414,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>军事仿真</t>
+          <t>服装定制</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -10878,7 +11424,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>全球化布局</t>
+          <t>参股迪洛斯10%股权</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10886,7 +11432,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -10894,7 +11440,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>智能物流</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10902,7 +11448,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>男装</t>
+          <t>SIM卡</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -10910,7 +11456,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>通信线缆</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -10918,7 +11464,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>通用机械</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -10926,7 +11472,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>军用无线通信设备</t>
+          <t>外贸</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -10936,7 +11482,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -10944,7 +11490,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>智能终端</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -10952,7 +11498,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>机器视觉</t>
+          <t>造纸</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10960,7 +11506,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>影视文旅融合</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -10968,7 +11514,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -10976,7 +11522,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>助听器</t>
+          <t>外延并购</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -10984,7 +11530,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>卫星</t>
+          <t>家具</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -10994,7 +11540,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DeepSeek概念</t>
+          <t>建筑装饰</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -11002,7 +11548,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>节能环保</t>
+          <t>特种钢丝绳</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -11010,7 +11556,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -11018,7 +11564,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SIM卡</t>
+          <t>蒸压加气混凝土装备</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -11026,7 +11572,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -11034,7 +11580,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>实控人将变更为中创新航</t>
+          <t>化肥</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -11042,7 +11588,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>中船系</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -11052,7 +11598,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>雷达</t>
+          <t>出海</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -11060,7 +11606,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中俄贸易</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -11068,7 +11614,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>字节</t>
+          <t>机器视觉</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11076,7 +11622,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>影视文旅融合</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -11084,7 +11630,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>控制权此前变更</t>
+          <t>超聚变服务器</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -11092,7 +11638,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>股东变更</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -11100,7 +11646,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>芳纶</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -11110,7 +11656,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>养老</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -11118,15 +11664,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中韩自贸区</t>
+          <t>低价股</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11134,7 +11680,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>蒸压加气混凝土装备</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -11142,7 +11688,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>女装</t>
+          <t>基建</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -11150,7 +11696,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>肝素产业链</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -11158,7 +11704,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>薄膜电容</t>
+          <t>基因检测</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -11168,7 +11714,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>季戊四醇</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -11176,15 +11722,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>战略布局未受关税实质影响</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>工业自动化控制产品</t>
+          <t>字节</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11192,7 +11738,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>美妆</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -11200,7 +11746,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>控股股东拟变更</t>
+          <t>光掩膜版</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -11208,7 +11754,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>网约车</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -11216,7 +11762,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>水务全产业链</t>
+          <t>智能医疗</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -11226,7 +11772,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>全球化布局</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -11234,15 +11780,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>特斯拉供应链</t>
+          <t>电线电缆</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>浓缩果汁</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -11250,7 +11796,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -11258,7 +11804,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>硅能源</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -11266,7 +11812,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>泵</t>
+          <t>股权投资</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -11274,7 +11820,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5.5G</t>
+          <t>复合集流体</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -11284,7 +11830,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>可控核聚变</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -11292,15 +11838,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>无缝服装</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>工业自动化控制产品</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -11308,7 +11854,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>美妆</t>
+          <t>珠宝黄金</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -11316,7 +11862,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -11324,7 +11870,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>矿用车</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -11332,7 +11878,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>白色家电</t>
+          <t>金属包装产品</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -11342,7 +11888,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>鸿蒙概念</t>
+          <t>DeepSeek概念</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -11350,15 +11896,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>镁/铝合金制品</t>
+          <t>智能终端</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>聚醚多元醇</t>
+          <t>浓缩果汁</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11366,7 +11912,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>家用电器</t>
+          <t>遴选重组方</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -11374,7 +11920,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>汽车物流</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -11382,7 +11928,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>智慧家居</t>
+          <t>汽车传动系统</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -11390,7 +11936,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>智能物流系统</t>
+          <t>拟置入电投核能100%股权</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -11400,23 +11946,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>雷达</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>光储</t>
+          <t>中俄贸易</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>钛白粉</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -11424,7 +11970,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>珠宝黄金</t>
+          <t>拟购买安徽中商20%股权</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -11432,7 +11978,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>完成收购余姚高歌51%股权</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -11440,7 +11986,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>美国撤销越南部分钢制车轮范围调查</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -11448,7 +11994,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>精确制导</t>
+          <t>聚酰胺6（尼龙6）</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -11458,15 +12004,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>养老概念</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>正丙醇</t>
+          <t>中韩自贸区</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -11474,7 +12020,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>聚醚多元醇</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -11482,7 +12028,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>遴选重组方</t>
+          <t>股权无偿划转</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -11490,7 +12036,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>超聚变服务器</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -11498,7 +12044,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>汽车车轮</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -11506,7 +12052,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>瓷介电容器</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -11516,15 +12062,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>蜡烛</t>
+          <t>季戊四醇</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>硫磺回收</t>
+          <t>战略布局未受关税实质影响</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -11532,7 +12078,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>特种钢丝</t>
+          <t>钛白粉</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -11540,7 +12086,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>拟购买安徽中商20%股权</t>
+          <t>中药</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -11548,7 +12094,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>业绩大增</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -11556,7 +12102,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>解决同业竞争承诺</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -11564,7 +12110,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>高空作业平台</t>
+          <t>瓶级聚酯切片</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -11574,15 +12120,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>工业母机</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>进出口贸易</t>
+          <t>特斯拉供应链</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -11590,7 +12136,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>纺织器材</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -11598,7 +12144,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>股权无偿划转</t>
+          <t>老字号</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -11606,7 +12152,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>光掩膜版</t>
+          <t>户外龙头</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -11614,7 +12160,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>外延并购</t>
+          <t>控制权变更</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -11622,7 +12168,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>水产品加工</t>
+          <t>光网络设备</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -11632,15 +12178,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>可控核聚变</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>无缝服装</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -11648,7 +12194,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>特种钢丝</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -11656,7 +12202,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>折叠屏</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -11664,7 +12210,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>硅能源</t>
+          <t>参股智元研究院</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -11672,7 +12218,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>化肥</t>
+          <t>口腔医疗</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -11680,7 +12226,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>户外家具</t>
+          <t>海外市场增长</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -11690,15 +12236,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>高端装备</t>
+          <t>并购重组</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>产能扩建</t>
+          <t>镁/铝合金制品</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -11706,7 +12252,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>空气动力设备</t>
+          <t>纺织器材</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -11714,7 +12260,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>老字号</t>
+          <t>签订投资协议</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -11722,7 +12268,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>军用光电</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -11730,7 +12276,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>股东变更</t>
+          <t>水泥装备</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -11738,7 +12284,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -11748,15 +12294,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>鸿蒙概念</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>此前股价受关税影响</t>
+          <t>光储</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -11764,7 +12310,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -11772,7 +12318,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>折叠屏</t>
+          <t>开源鸿蒙</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -11780,7 +12326,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>汽车物流</t>
+          <t>智能用电云服务</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -11788,7 +12334,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>肝素产业链</t>
+          <t>煤矿机械</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -11796,7 +12342,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>服装定制</t>
+          <t>石油</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -11806,7 +12352,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>西部大开发</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -11814,7 +12360,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>药用辅料</t>
+          <t>正丙醇</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -11822,7 +12368,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>纺织</t>
+          <t>空气动力设备</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -11830,7 +12376,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>签订投资协议</t>
+          <t>幕墙系统材料</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -11838,7 +12384,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>完成收购余姚高歌51%股权</t>
+          <t>IP筋膜枪</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -11846,7 +12392,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>网约车</t>
+          <t>年报营收增长</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -11854,7 +12400,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>外贸</t>
+          <t>虚拟仿真</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -11864,7 +12410,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>参股迪洛斯10%股权</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -11872,7 +12418,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>汽车贸易</t>
+          <t>硫磺回收</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -11880,7 +12426,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>特种电源</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -11888,7 +12434,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>开源鸿蒙</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -11896,7 +12442,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>石墨新材料</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -11904,7 +12450,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>股权投资</t>
+          <t>儿童自行车</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -11912,7 +12458,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>家具</t>
+          <t>罐式集装箱</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -11922,7 +12468,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>无实控人</t>
+          <t>蜡烛</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -11930,7 +12476,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>敦煌网</t>
+          <t>进出口贸易</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -11938,7 +12484,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>钨合金</t>
+          <t>纺织</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -11946,7 +12492,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>幕墙系统材料</t>
+          <t>代糖</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -11954,7 +12500,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>业绩大增</t>
+          <t>传媒</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -11962,7 +12508,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>矿用车</t>
+          <t>宇树科技合作</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -11970,7 +12516,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>医疗设备</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -11980,7 +12526,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -11988,7 +12534,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>拉链</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -11996,7 +12542,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>证券</t>
+          <t>牙膏</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -12004,7 +12550,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -12012,7 +12558,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>户外龙头</t>
+          <t>洗衣机</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -12020,7 +12566,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>汽车传动系统</t>
+          <t>教育</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -12028,7 +12574,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>金霉素</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -12038,7 +12584,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -12046,7 +12592,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>产能扩建</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -12054,7 +12600,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>跨境物流</t>
+          <t>特种电源</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -12062,7 +12608,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>代糖</t>
+          <t>炭黑</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -12070,7 +12616,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>参股智元研究院</t>
+          <t>流体电磁阀</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -12078,7 +12624,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>美国撤销越南部分钢制车轮范围调查</t>
+          <t>汽车整车</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -12086,7 +12632,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>动物保健品</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -12096,7 +12642,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>高端装备</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -12104,7 +12650,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>此前股价受关税影响</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -12112,7 +12658,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>国际物流</t>
+          <t>钨合金</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -12120,7 +12666,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>国产替代</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -12128,7 +12674,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>军用光电</t>
+          <t>标签印刷设备</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -12136,7 +12682,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>汽车车轮</t>
+          <t>调改升级</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -12144,7 +12690,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>芳纶</t>
+          <t>提高美国市场终端售价</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -12154,7 +12700,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -12162,7 +12708,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DRG/DIP</t>
+          <t>药用辅料</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -12170,15 +12716,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>拟收购天一恩华</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>炭黑</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -12186,7 +12732,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>智能用电云服务</t>
+          <t>IP运营</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -12194,7 +12740,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>解决同业竞争承诺</t>
+          <t>大型压缩机零部件</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -12202,7 +12748,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>基因检测</t>
+          <t>丝绸全产业链</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -12212,7 +12758,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>防爆设备</t>
+          <t>西部大开发</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -12220,7 +12766,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>智慧供应链</t>
+          <t>汽车贸易</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -12228,15 +12774,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>纺织面料</t>
+          <t>证券</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>国产替代</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -12244,7 +12790,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>IP筋膜枪</t>
+          <t>高柔性智能包装装备</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -12252,7 +12798,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>控制权变更</t>
+          <t>高精度零部件</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -12260,7 +12806,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>智能医疗</t>
+          <t>海外供应链布局</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -12270,7 +12816,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>智能矿山</t>
+          <t>无实控人</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -12278,7 +12824,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>敦煌网</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -12286,15 +12832,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>获飞行汽车定点开发</t>
+          <t>国际物流</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>拟收购恒扬数据</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -12302,7 +12848,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>石墨新材料</t>
+          <t>探索O2O业务</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -12310,7 +12856,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>口腔医疗</t>
+          <t>美墨工厂</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -12318,7 +12864,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>新中式</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -12328,7 +12874,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>养老</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -12336,7 +12882,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>部分重点产品提价</t>
+          <t>拉链</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -12344,15 +12890,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>发动机油泵</t>
+          <t>原料药</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>汽车销售</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -12360,7 +12906,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>传媒</t>
+          <t>先进封装</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -12368,7 +12914,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>水泥装备</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -12376,7 +12922,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>现代物流服务商</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -12386,7 +12932,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>钙钛矿电池</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -12394,7 +12940,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -12402,15 +12948,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>京城机电控股股东</t>
+          <t>NMN</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>拟收购恒扬数据</t>
+          <t>物业租赁</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -12418,7 +12964,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>洗衣机</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -12426,7 +12972,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>煤矿机械</t>
+          <t>维保市场</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -12434,7 +12980,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>拟置入电投核能100%股权</t>
+          <t>跨境运输</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -12444,7 +12990,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>智能电动床</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -12452,7 +12998,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>新三板股权认购</t>
+          <t>高分子材料防老化助剂</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -12460,15 +13006,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>食用菌</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>汽车销售</t>
+          <t>杀菌卫生产品</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -12476,7 +13022,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>流体电磁阀</t>
+          <t>新药临床试验获批</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -12484,7 +13030,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>年报营收增长</t>
+          <t>控股股东增持</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -12492,7 +13038,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>聚酰胺6（尼龙6）</t>
+          <t>干散货运输</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -12502,7 +13048,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -12510,7 +13056,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>DRG/DIP</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -12518,7 +13064,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>拟收购天一恩华</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -12526,7 +13072,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>物业租赁</t>
+          <t>钒矿</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -12534,7 +13080,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>标签印刷设备</t>
+          <t>海南自贸区</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -12542,7 +13088,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>儿童自行车</t>
+          <t>金刚线</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -12550,7 +13096,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>拟取得吉莱微控制权</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -12560,7 +13106,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>资产重组</t>
+          <t>防爆设备</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -12568,7 +13114,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>曲轴</t>
+          <t>智慧供应链</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -12576,7 +13122,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>纺织面料</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -12584,7 +13130,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>杀菌卫生产品</t>
+          <t>胰岛素</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -12592,7 +13138,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>IP运营</t>
+          <t>锂矿</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -12600,7 +13146,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>宇树科技合作</t>
+          <t>丝杠</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -12608,7 +13154,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>财险龙头</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -12618,7 +13164,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>涤纶</t>
+          <t>智能矿山</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -12626,7 +13172,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>拟获得长坂科技35%股权</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -12634,7 +13180,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>拟10转3股派3.51元</t>
+          <t>获飞行汽车定点开发</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -12642,7 +13188,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>钒矿</t>
+          <t>定制家具</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -12650,7 +13196,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>高柔性智能包装装备</t>
+          <t>力矩传感器</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -12658,7 +13204,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>教育</t>
+          <t>空调压缩机</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -12666,7 +13212,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>瓶级聚酯切片</t>
+          <t>投资收益增长</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -12676,7 +13222,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>电梯</t>
+          <t>钙钛矿电池</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -12684,7 +13230,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>部分重点产品提价</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -12692,7 +13238,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>发动机油泵</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -12700,7 +13246,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>胰岛素</t>
+          <t>诉讼案件获受理</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -12708,7 +13254,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>探索O2O业务</t>
+          <t>产业新城服务商转型</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -12716,7 +13262,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>汽车整车</t>
+          <t>节能环保装备</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -12724,7 +13270,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>光网络设备</t>
+          <t>敦煌网合作</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -12734,7 +13280,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>养老概念</t>
+          <t>智能电动床</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -12742,7 +13288,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -12750,7 +13296,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>分红回购</t>
+          <t>京城机电控股股东</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -12758,7 +13304,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>定制家具</t>
+          <t>机器狗</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -12766,7 +13312,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>先进封装</t>
+          <t>债务重组</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -12774,7 +13320,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>调改升级</t>
+          <t>预重整</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -12782,7 +13328,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>海外市场增长</t>
+          <t>整车运输物流</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -12792,7 +13338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>航运</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -12800,7 +13346,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>墨西哥生产基地</t>
+          <t>新三板股权认购</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -12808,7 +13354,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>轻烃</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -12816,7 +13362,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>诉讼案件获受理</t>
+          <t>拟收购控股子公司27.46%股权</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -12824,7 +13370,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>超跌反弹</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -12832,7 +13378,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>大型压缩机零部件</t>
+          <t>智能交互</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -12840,7 +13386,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>拟转让中山证券股权</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -12850,7 +13396,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>汽车轴承</t>
+          <t>资产重组</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -12858,7 +13404,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>汽车内饰新材料</t>
+          <t>曲轴</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -12866,7 +13412,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>润滑油</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -12874,7 +13420,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>机器狗</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -12882,7 +13428,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>新药临床试验获批</t>
+          <t>重组蛋白</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -12890,7 +13436,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>高精度零部件</t>
+          <t>视觉内容版权</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -12898,7 +13444,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>石油</t>
+          <t>北京玄戒</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -12908,7 +13454,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>电梯</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -12916,7 +13462,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>小鹏汽车</t>
+          <t>拟获得长坂科技35%股权</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -12924,7 +13470,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>国际贸易影响小</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -12932,7 +13478,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>拟收购控股子公司27.46%股权</t>
+          <t>户外运动</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -12940,7 +13486,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>海南自贸区</t>
+          <t>核聚变</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -12948,7 +13494,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>美墨工厂</t>
+          <t>数字基础设施建设</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -12956,7 +13502,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>海洋馆</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -12966,7 +13512,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>益生菌</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -12974,7 +13520,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -12982,7 +13528,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>化妆品</t>
+          <t>拟10转3股派3.51元</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -12990,7 +13536,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>油气</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -12998,7 +13544,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>锂矿</t>
+          <t>冲水组件</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -13006,7 +13552,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>控股股东、实控人拟变更</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -13014,7 +13560,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>航运物流</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -13024,7 +13570,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>两轮车</t>
+          <t>汽车轴承</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -13032,7 +13578,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>客户合作</t>
+          <t>北美市场</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -13040,7 +13586,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -13048,7 +13594,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>户外运动</t>
+          <t>重大资产重组</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -13056,7 +13602,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>力矩传感器</t>
+          <t>新疆振兴</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -13064,7 +13610,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>维保市场</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -13072,7 +13618,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>虚拟仿真</t>
+          <t>资产注入预期</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -13082,7 +13628,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>并购重组</t>
+          <t>碳纤维</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -13090,7 +13636,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>布局低空经济</t>
+          <t>墨西哥生产基地</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -13098,7 +13644,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>高端能源装备</t>
+          <t>分红回购</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -13106,7 +13652,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>油气</t>
+          <t>社保民生</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -13114,7 +13660,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>产业新城服务商转型</t>
+          <t>眼科用药</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -13122,7 +13668,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>控股股东增持</t>
+          <t>海外业务拓展</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -13130,7 +13676,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>罐式集装箱</t>
+          <t>化妆品增长</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -13140,7 +13686,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>物流</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -13148,7 +13694,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>汽车内饰新材料</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -13156,7 +13702,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>铝合金轮毂</t>
+          <t>轻烃</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -13164,7 +13710,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>重大资产重组</t>
+          <t>产业园开发</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -13172,7 +13718,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>债务重组</t>
+          <t>医疗服务</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -13180,7 +13726,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>金刚线</t>
+          <t>超导磁体冷却设备</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -13188,7 +13734,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>医疗设备</t>
+          <t>胶原蛋白研发</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -13198,15 +13744,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>快递包装</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>小鹏汽车</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -13214,7 +13760,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>秘鲁钱凯港</t>
+          <t>润滑油</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -13222,7 +13768,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>社保民生</t>
+          <t>智能汽车光学镜头</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -13230,7 +13776,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>超跌反弹</t>
+          <t>出售资产</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -13238,7 +13784,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>丝杠</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -13246,7 +13792,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>金霉素</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -13256,15 +13802,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>两轮车</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -13272,7 +13818,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>智慧高速</t>
+          <t>国际贸易影响小</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -13280,7 +13826,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>产业园开发</t>
+          <t>影石</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -13288,7 +13834,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>重组蛋白</t>
+          <t>防火类特种电缆</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -13296,7 +13842,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>空调压缩机</t>
+          <t>仓储物流</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -13304,7 +13850,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -13314,15 +13860,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>客户巨力索具</t>
+          <t>宠物经济</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>智慧灯杆</t>
+          <t>客户合作</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -13330,7 +13876,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>汽车保护膜</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -13338,7 +13884,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>智能汽车光学镜头</t>
+          <t>智能设备</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -13346,7 +13892,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>核聚变</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -13354,7 +13900,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>节能环保装备</t>
+          <t>水泥</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -13362,7 +13908,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>动物保健品</t>
+          <t>美国建厂</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -13372,15 +13918,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>农机</t>
+          <t>物流</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>布局低空经济</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -13388,7 +13934,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>高端能源装备</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -13396,7 +13942,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>影石</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -13404,7 +13950,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>冲水组件</t>
+          <t>超导概念</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -13412,7 +13958,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>预重整</t>
+          <t>一季报净利大增</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -13420,7 +13966,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>提高美国市场终端售价</t>
+          <t>计划推出麦角硫因</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -13430,15 +13976,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>美容护理</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>医疗装备</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -13446,7 +13992,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>铝合金轮毂</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -13454,7 +14000,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>智能设备</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -13462,7 +14008,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>新疆振兴</t>
+          <t>拟增资获得芯存科技51.02%股权</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -13470,7 +14016,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>智能交互</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -13478,7 +14024,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>丝绸全产业链</t>
+          <t>辅酶Q10</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -13488,15 +14034,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>数据要素</t>
+          <t>节能环保</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>此前为巴基斯坦提供配套</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -13504,7 +14050,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>等速万向节</t>
+          <t>秘鲁钱凯港</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -13512,7 +14058,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -13520,7 +14066,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>眼科用药</t>
+          <t>园林景观</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -13528,7 +14074,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>视觉内容版权</t>
+          <t>6G</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -13536,7 +14082,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>海外供应链布局</t>
+          <t>纺织印染</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -13546,15 +14092,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>麦角硫因</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>工业制动器</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -13562,7 +14108,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>沿海及长江航运</t>
+          <t>智慧高速</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -13570,7 +14116,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>有机颜料</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -13578,7 +14124,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>医疗服务</t>
+          <t>车桥</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -13586,7 +14132,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>数字基础设施建设</t>
+          <t>对讲机终端</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -13594,7 +14140,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>新中式</t>
+          <t>抗感染药物</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -13604,7 +14150,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>商业运营</t>
+          <t>快递包装</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -13612,7 +14158,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>磁悬浮压缩机</t>
+          <t>智慧灯杆</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -13620,7 +14166,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>汽车保护膜</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -13628,7 +14174,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -13636,7 +14182,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>出售资产</t>
+          <t>上海泽熙持有股份被司法拍卖</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -13644,7 +14190,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>控股股东、实控人拟变更</t>
+          <t>民爆</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -13652,7 +14198,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>涨价</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -13662,7 +14208,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -13670,7 +14216,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>磁悬浮技术产品</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -13678,7 +14224,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>耳机</t>
+          <t>等速万向节</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -13686,7 +14232,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>菜籽油龙头</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -13694,7 +14240,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>防火类特种电缆</t>
+          <t>拟收购金华威剩余45%股权</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -13702,7 +14248,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>并购重组预期</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -13710,7 +14256,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>现代物流服务商</t>
+          <t>户外休闲家具</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -13720,7 +14266,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>业绩改善</t>
+          <t>客户巨力索具</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -13728,7 +14274,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>医疗装备</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -13736,7 +14282,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>集装箱用产品</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -13744,7 +14290,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -13752,7 +14298,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -13760,7 +14306,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>海外业务拓展</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -13768,7 +14314,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>跨境运输</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -13778,7 +14324,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>滚珠丝杠</t>
+          <t>农机</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -13786,7 +14332,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>出口美国</t>
+          <t>此前为巴基斯坦提供配套</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -13794,7 +14340,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>年报大增</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -13802,7 +14348,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -13810,7 +14356,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>超导概念</t>
+          <t>数字阅读</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -13818,7 +14364,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>超导磁体冷却设备</t>
+          <t>丝绸文创</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -13826,7 +14372,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>干散货运输</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -13836,7 +14382,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>齿轮箱</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -13844,7 +14390,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>供热</t>
+          <t>工业制动器</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -13852,7 +14398,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>户外用品</t>
+          <t>耳机</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -13860,7 +14406,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>菜籽油龙头</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -13868,7 +14414,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>拟增资获得芯存科技51.02%股权</t>
+          <t>线性驱动系统</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -13876,7 +14422,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>马达</t>
+          <t>数码印花技术</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -13884,7 +14430,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>酶解蛋白产品</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -13894,7 +14440,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>无收购“宠胖胖”安排</t>
+          <t>数据要素</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -13902,7 +14448,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>涂料</t>
+          <t>磁悬浮压缩机</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -13910,7 +14456,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>行星减速器</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -13918,7 +14464,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>视讯</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -13926,7 +14472,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>园林景观</t>
+          <t>境外产能布局</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -13934,7 +14480,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>仓储物流</t>
+          <t>市场拓展</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -13942,7 +14488,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>财险龙头</t>
+          <t>饲料添加剂</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -13952,7 +14498,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -13960,7 +14506,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>有机硅胶粘剂</t>
+          <t>磁悬浮技术产品</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -13968,7 +14514,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>铝合金</t>
+          <t>年报大增</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -13976,7 +14522,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>汽车注塑结构件</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -13984,7 +14530,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>车桥</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -13992,7 +14538,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t>火电资产重组</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -14000,7 +14546,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>投资收益增长</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -14010,7 +14556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>生态景观</t>
+          <t>商业运营</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -14018,7 +14564,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -14026,7 +14572,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>上汽大客户</t>
+          <t>户外用品</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -14034,7 +14580,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>有机硅</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -14042,7 +14588,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>上海泽熙持有股份被司法拍卖</t>
+          <t>获道路测试牌照</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -14050,7 +14596,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>一季报净利大增</t>
+          <t>煤电一体化</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -14058,7 +14604,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>敦煌网合作</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -14068,7 +14614,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>城市更新</t>
+          <t>辅助生殖</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -14076,7 +14622,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>纺织服装</t>
+          <t>出口美国</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -14084,7 +14630,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>车载显示</t>
+          <t>行星减速器</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -14092,7 +14638,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>视讯</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -14100,7 +14646,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>拟收购金华威剩余45%股权</t>
+          <t>互联网入口平台</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -14108,7 +14654,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>汽车面料</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -14116,7 +14662,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>整车运输物流</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -14126,7 +14672,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>车联网</t>
+          <t>业绩改善</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -14134,7 +14680,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>航运概念</t>
+          <t>供热</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -14142,7 +14688,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>齿轮传动</t>
+          <t>铝合金</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -14150,7 +14696,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>汽车注塑结构件</t>
+          <t>碳酸钾</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -14158,7 +14704,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>玻璃封装载板</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -14166,7 +14712,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>6G</t>
+          <t>纺织设备</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -14174,7 +14720,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>拟转让中山证券股权</t>
+          <t>咖啡种植</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -14184,7 +14730,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>调入港股通</t>
+          <t>滚珠丝杠</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -14192,7 +14738,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>年报亏损收窄</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -14200,7 +14746,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MR</t>
+          <t>上汽大客户</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -14208,7 +14754,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>有机硅</t>
+          <t>年报、一季报发布</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -14216,7 +14762,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>数字阅读</t>
+          <t>面板</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -14224,7 +14770,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>对讲机终端</t>
+          <t>节能环保拉幅定形机</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -14232,7 +14778,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>北京玄戒</t>
+          <t>罗非鱼</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -14242,7 +14788,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>签订2.97亿元光学系统研制合同</t>
+          <t>齿轮箱</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -14250,7 +14796,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>灵巧手</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -14258,34 +14804,274 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>车载显示</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>超高分子量聚乙烯</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>东南亚销售</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>海洋经济</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>无收购“宠胖胖”安排</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>拟取得吉莱微控制权</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>齿轮传动</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>黄金概念</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>革基布</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>中航系</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>农业种植</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>实控人拟变更</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>涨价</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>珠宝饰品</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>锆钛资源扩张</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>钨制品</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>高股息</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>生态景观</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>日化用品</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>变速器</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>英伟达概念</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>线性驱动系统</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>民爆</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>收购果链股权</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>工业铝型材</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>硬质合金</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>室内设计</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>城市更新</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>护肤品</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>实控人变更</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>皮鞋</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>焊材</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -5250,7 +5250,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>指数涨跌</t>
+          <t>创业指</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -6090,7 +6090,7 @@
     <row r="9">
       <c r="A9" s="24" t="inlineStr">
         <is>
-          <t>新能源(98)</t>
+          <t>新能源(97)</t>
         </is>
       </c>
       <c r="B9" s="16" t="inlineStr">
@@ -6162,7 +6162,7 @@
     <row r="10">
       <c r="A10" s="26" t="inlineStr">
         <is>
-          <t>汽车(92)</t>
+          <t>汽车(90)</t>
         </is>
       </c>
       <c r="B10" s="23" t="inlineStr">
@@ -6292,7 +6292,7 @@
           <t>交大昂立5</t>
         </is>
       </c>
-      <c r="M11" s="25" t="inlineStr">
+      <c r="M11" s="17" t="inlineStr">
         <is>
           <t>路畅科技3</t>
         </is>
@@ -6378,7 +6378,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>重组(52)</t>
+          <t>医药(56)</t>
         </is>
       </c>
       <c r="B13" s="14" t="inlineStr">
@@ -6594,7 +6594,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>医药(51)</t>
+          <t>华为(49)</t>
         </is>
       </c>
       <c r="B16" s="23" t="inlineStr">
@@ -6666,7 +6666,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>华为(49)</t>
+          <t>重组(47)</t>
         </is>
       </c>
       <c r="B17" s="30" t="n"/>
@@ -6938,7 +6938,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>新材料(22)</t>
+          <t>新传媒(22)</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>金融(16)</t>
+          <t>新材料(22)</t>
         </is>
       </c>
       <c r="B22" s="16" t="inlineStr">
@@ -7078,7 +7078,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>消费电子(14)</t>
+          <t>消费电子(17)</t>
         </is>
       </c>
       <c r="B23" s="20" t="inlineStr">
@@ -7131,7 +7131,7 @@
           <t>哈三联2</t>
         </is>
       </c>
-      <c r="L23" s="25" t="inlineStr">
+      <c r="L23" s="17" t="inlineStr">
         <is>
           <t>路畅科技2</t>
         </is>
@@ -7150,7 +7150,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>新传媒(13)</t>
+          <t>金融(16)</t>
         </is>
       </c>
       <c r="B24" s="12" t="inlineStr">
@@ -7939,7 +7939,7 @@
           <t>金达威</t>
         </is>
       </c>
-      <c r="K35" s="25" t="inlineStr">
+      <c r="K35" s="17" t="inlineStr">
         <is>
           <t>路畅科技</t>
         </is>
@@ -8517,7 +8517,7 @@
           <t>帝欧家居</t>
         </is>
       </c>
-      <c r="M44" s="27" t="inlineStr">
+      <c r="M44" s="25" t="inlineStr">
         <is>
           <t>铁流股份</t>
         </is>
@@ -10143,7 +10143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>金刚线</t>
+          <t>控股股东增持</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>干散货运输</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -10230,7 +10230,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>氧化铝</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -10240,11 +10240,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>滚珠丝杠</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>丝杠</t>
+          <t>金刚线</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>财险龙头</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>纸质包装</t>
+          <t>甲醛</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -10298,7 +10298,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>滚珠丝杠</t>
+          <t>防爆设备</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>预重整</t>
+          <t>丝杠</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>投资收益增长</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -10356,7 +10356,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>防爆设备</t>
+          <t>智能矿山</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>智能交互</t>
+          <t>预重整</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>敦煌网合作</t>
+          <t>财险龙头</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>此前进行重大资产购买</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -10414,7 +10414,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>智能矿山</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>首发经济</t>
+          <t>智能交互</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>整车运输物流</t>
+          <t>投资收益增长</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -10462,7 +10462,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>纸质包装</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -10472,7 +10472,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>全球化布局</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>视觉内容版权</t>
+          <t>首发经济</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>拟转让中山证券股权</t>
+          <t>敦煌网合作</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>控股股东为长江产业集团</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -10530,7 +10530,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>全球化布局</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>数字基础设施建设</t>
+          <t>视觉内容版权</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>电气绝缘材料</t>
+          <t>整车运输物流</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>MiniLED</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -10588,7 +10588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>钙钛矿电池</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>控股股东、实控人拟变更</t>
+          <t>数字基础设施建设</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>胶原蛋白研发</t>
+          <t>拟转让中山证券股权</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -10646,7 +10646,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>钙钛矿电池</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -10678,7 +10678,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>控股股东、实控人拟变更</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>电气绝缘材料</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -10704,7 +10704,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>海外业务拓展</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>美国建厂</t>
+          <t>胶原蛋白研发</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>儿童药</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -10762,7 +10762,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>智能电动床</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>超导磁体冷却设备</t>
+          <t>海外业务拓展</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>辅酶Q10</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -10820,7 +10820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>智能电动床</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -10852,7 +10852,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>马达</t>
+          <t>超导磁体冷却设备</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>抗感染药物</t>
+          <t>美国建厂</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>受让控股子公司少数股东部分股权</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -10878,7 +10878,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>电梯</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>辅酶Q10</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>儿童药</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -10936,7 +10936,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>电梯</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>水泥</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>户外休闲家具</t>
+          <t>抗感染药物</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -10994,7 +10994,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>有机硅胶粘剂</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6G</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -11052,7 +11052,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>有机硅胶粘剂</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>对讲机终端</t>
+          <t>6G</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>户外休闲家具</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>黄金珠宝</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -11110,7 +11110,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>民爆</t>
+          <t>对讲机终端</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>酶解蛋白产品</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>IP联名</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -11168,7 +11168,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>丝绸文创</t>
+          <t>民爆</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>饲料添加剂</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -11226,7 +11226,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>数码印花技术</t>
+          <t>丝绸文创</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>酶解蛋白产品</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>黄金珠宝</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -11284,7 +11284,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>市场拓展</t>
+          <t>数码印花技术</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>香料</t>
+          <t>饲料添加剂</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>卡牌</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -11342,7 +11342,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>煤电一体化</t>
+          <t>市场拓展</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -11382,7 +11382,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>烟草</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -11400,7 +11400,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>东南亚销售</t>
+          <t>煤电一体化</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>咖啡种植</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>珠宝</t>
+          <t>卡牌</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -11458,7 +11458,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>钨制品</t>
+          <t>东南亚销售</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>罗非鱼</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>烟草</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -11516,7 +11516,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>智能物流</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>钨制品</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>咖啡种植</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>珠宝</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -11574,7 +11574,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>智能物流</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>此前提及东南亚</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>高股息</t>
+          <t>罗非鱼</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -11632,7 +11632,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>持股国泰君安</t>
+          <t>此前提及东南亚</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>合资公司注册登记</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -11690,7 +11690,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>金属铜</t>
+          <t>持股国泰君安</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>阿尔茨海默概念</t>
+          <t>高股息</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -11748,7 +11748,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>塑料餐饮具</t>
+          <t>金属铜</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>布洛芬</t>
+          <t>合资公司注册登记</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>供货蜜雪冰城</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -11806,7 +11806,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -11838,7 +11838,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>新茶饮供应链</t>
+          <t>塑料餐饮具</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>新冠特效药</t>
+          <t>阿尔茨海默概念</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>小米概念</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -11864,7 +11864,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>智能网联</t>
+          <t>新茶饮供应链</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>布洛芬</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -11922,11 +11922,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>辅助生殖</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>军事仿真</t>
+          <t>智能网联</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>柔性传感器</t>
+          <t>新冠特效药</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>小米概念</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -11980,7 +11980,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>军用无线通信设备</t>
+          <t>军事仿真</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -12020,7 +12020,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>获新订单</t>
+          <t>钨</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>虚拟现实</t>
+          <t>拟合资设立境外子公司</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -12038,7 +12038,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>无收购“宠胖胖”安排</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>卫星</t>
+          <t>军用无线通信设备</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>自动紧急制动AEB</t>
+          <t>柔性传感器</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>EPS产品</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -12096,7 +12096,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>无收购“宠胖胖”安排</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>中船系</t>
+          <t>卫星</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>获新订单</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -12154,7 +12154,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>生态景观</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>薄膜电容</t>
+          <t>中船系</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>线控制动产品</t>
+          <t>自动紧急制动AEB</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>光学镜头</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -12212,7 +12212,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>生态景观</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>水务全产业链</t>
+          <t>薄膜电容</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>次新</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -12270,7 +12270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>车联网</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>水务全产业链</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>线控制动产品</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -12328,7 +12328,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>车联网</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>智能物流系统</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>次新</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>终止股权转让</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -12386,7 +12386,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>精确制导</t>
+          <t>智能物流系统</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>废气处理</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -12444,7 +12444,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>调入港股通</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>瓷介电容器</t>
+          <t>精确制导</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>医疗信息化</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -12502,7 +12502,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>调入港股通</t>
+          <t>客户合作</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>高空作业平台</t>
+          <t>瓷介电容器</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>工业缝纫机</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>近期签大单</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -12560,7 +12560,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>客户合作</t>
+          <t>签订2.97亿元光学系统研制合同</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>水产品加工</t>
+          <t>高空作业平台</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>拟进行资产置换</t>
+          <t>医疗信息化</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -12618,7 +12618,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>签订2.97亿元光学系统研制合同</t>
+          <t>大股东长春光机所</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -12650,7 +12650,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>户外家具</t>
+          <t>水产品加工</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>控股股东拟变更为江钨控股</t>
+          <t>工业缝纫机</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>轻型商用车</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -12676,7 +12676,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>大股东长春光机所</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>服装定制</t>
+          <t>户外家具</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>粤港澳大湾区</t>
+          <t>拟进行资产置换</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -12734,7 +12734,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>外贸</t>
+          <t>服装定制</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>控股股东拟变更为江钨控股</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>轻型商用车</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -12792,7 +12792,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>拟6935.66万元收购德国SMS公司</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>家具</t>
+          <t>外贸</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>粤港澳大湾区</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -12850,7 +12850,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>拟6935.66万元收购德国SMS公司</t>
+          <t>智能数控装备</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>家具</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>拟并购先导电科</t>
+          <t>卫浴产品</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -12898,7 +12898,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -12908,7 +12908,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>智能数控装备</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>红外光学</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -12966,7 +12966,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>芳纶</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>拟在印尼建产</t>
+          <t>拟并购先导电科</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -13024,7 +13024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -13032,7 +13032,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IP运营</t>
+          <t>轴承</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>基因检测</t>
+          <t>芳纶</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>制冷电器</t>
+          <t>红外光学</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -13082,7 +13082,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>蜡烛</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>轴承</t>
+          <t>机器视觉</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>智能医疗</t>
+          <t>基因检测</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>早餐</t>
+          <t>拟在印尼建产</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -13140,7 +13140,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>蜡烛</t>
+          <t>涨价</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>机器视觉</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>智能医疗</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>团餐</t>
+          <t>制冷电器</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -13198,7 +13198,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>涨价</t>
+          <t>北京玄戒</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>复合集流体</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -13238,7 +13238,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>复合调味料</t>
+          <t>早餐</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>聚氨酯材料</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -13256,7 +13256,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>北京玄戒</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>字节</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>拟置入电投核能100%股权</t>
+          <t>金属包装产品</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>渠道拓展</t>
+          <t>团餐</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -13314,7 +13314,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>字节</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>聚酰胺6（尼龙6）</t>
+          <t>拟置入电投核能100%股权</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>复合调味料</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -13362,7 +13362,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>聚氨酯材料</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -13372,7 +13372,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>线性驱动系统</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>聚酰胺6（尼龙6）</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>此前转让子公司股权</t>
+          <t>渠道拓展</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -13430,7 +13430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>小米</t>
+          <t>产业新城服务商转型</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>线性驱动系统</t>
+          <t>境外产能布局</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>光网络设备</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>公司称将持续推进收购工作</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>钠电池</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -13488,7 +13488,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>产业新城服务商转型</t>
+          <t>超导</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>境外产能布局</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>海外市场增长</t>
+          <t>光网络设备</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>天津水务集团资产注入猜想</t>
+          <t>此前转让子公司股权</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -13546,7 +13546,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>超导</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>卫星导航</t>
+          <t>海外市场增长</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>污水处理</t>
+          <t>公司称将持续推进收购工作</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>钠电池</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -13604,7 +13604,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>工业自动化控制产品</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -13620,7 +13620,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>IP筋膜枪</t>
+          <t>石墨新材料</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>农机自动驾驶</t>
+          <t>卫星导航</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>日用玻璃</t>
+          <t>天津水务集团资产注入猜想</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>自动驾驶物流车</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -13662,7 +13662,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>工业自动化控制产品</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>石墨新材料</t>
+          <t>传媒</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -13694,7 +13694,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>农机自动驾驶</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>海外布局</t>
+          <t>污水处理</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>比亚迪等客车客户</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -13720,7 +13720,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>硅基负极</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>美国生产基地</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>传媒</t>
+          <t>洗衣机</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -13760,7 +13760,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>盐湖提锂</t>
+          <t>日用玻璃</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>自动驾驶物流车</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -13778,7 +13778,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>硅基负极</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美国生产基地</t>
+          <t>特种钢丝绳</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>洗衣机</t>
+          <t>流体电磁阀</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>石油</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>膜技术</t>
+          <t>海外布局</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>无人配送车</t>
+          <t>比亚迪等客车客户</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -13836,7 +13836,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>高标准农田建设</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>特种钢丝绳</t>
+          <t>发动机零部件</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>流体电磁阀</t>
+          <t>标签印刷设备</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>虚拟仿真</t>
+          <t>石油</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -13876,7 +13876,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>定制家具</t>
+          <t>盐湖提锂</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -13894,7 +13894,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>高标准农田建设</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>发动机零部件</t>
+          <t>出口美国业务占比少</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>标签印刷设备</t>
+          <t>高柔性智能包装装备</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>罐式集装箱</t>
+          <t>虚拟仿真</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>环卫装备</t>
+          <t>膜技术</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>无人配送车</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -13952,7 +13952,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>出口美国业务占比少</t>
+          <t>浓缩果汁</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>高柔性智能包装装备</t>
+          <t>探索O2O业务</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>医疗设备</t>
+          <t>罐式集装箱</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -13992,7 +13992,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>智慧口岸</t>
+          <t>定制家具</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -14010,7 +14010,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>浓缩果汁</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>探索O2O业务</t>
+          <t>先进封装</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>金霉素</t>
+          <t>医疗设备</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>智能制造装备</t>
+          <t>环卫装备</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -14068,7 +14068,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>聚醚多元醇</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>先进封装</t>
+          <t>新药临床试验获批</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>动物保健品</t>
+          <t>金霉素</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>子公司与宝德计算机合资</t>
+          <t>智慧口岸</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -14126,7 +14126,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -14134,7 +14134,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>聚醚多元醇</t>
+          <t>特种钢丝</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>新药临床试验获批</t>
+          <t>海南自贸区</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>提高美国市场终端售价</t>
+          <t>动物保健品</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>橡胶</t>
+          <t>智能制造装备</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -14184,7 +14184,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>特种钢丝</t>
+          <t>外延并购</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>海南自贸区</t>
+          <t>锂矿</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>丝绸全产业链</t>
+          <t>提高美国市场终端售价</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>军民融合</t>
+          <t>子公司与宝德计算机合资</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -14242,7 +14242,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>基建</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>外延并购</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>锂矿</t>
+          <t>碳酸锂</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -14274,7 +14274,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>海外供应链布局</t>
+          <t>丝绸全产业链</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>泵产业</t>
+          <t>橡胶</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -14300,7 +14300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>空气动力设备</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>碳酸锂</t>
+          <t>力矩传感器</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>新中式</t>
+          <t>海外供应链布局</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -14340,17 +14340,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>拟发行股份购买三门峡铝业100%股权</t>
+          <t>军民融合</t>
         </is>
       </c>
       <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>实控人或变更</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14358,7 +14366,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>空气动力设备</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -14366,7 +14374,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>力矩传感器</t>
+          <t>关节轴承</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -14382,7 +14390,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>现代物流服务商</t>
+          <t>新中式</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -14390,17 +14398,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>氧化铝</t>
+          <t>泵产业</t>
         </is>
       </c>
       <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>产能恢复</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>光储</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14408,7 +14424,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>仓储物流</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -14416,7 +14432,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>关节轴承</t>
+          <t>超跌反弹</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -14432,7 +14448,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>干散货运输</t>
+          <t>现代物流服务商</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -14440,60 +14456,10 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>甲醛</t>
+          <t>拟发行股份购买三门峡铝业100%股权</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>光储</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>仓储物流</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>超跌反弹</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>控股股东增持</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>自由贸易港</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>拟收购尚阳通</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -190,13 +190,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -206,23 +209,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1712,8 +1712,8 @@
     </comment>
     <comment ref="O20" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">首板涨停 09:25:00 0
-</t>
+        <t>首板涨停 09:25:00 0
+昂拉地韦片获批上市+创新药</t>
       </text>
     </comment>
     <comment ref="B21" authorId="0" shapeId="0">
@@ -5827,7 +5827,7 @@
           <t>国芳集团15</t>
         </is>
       </c>
-      <c r="I4" s="13" t="inlineStr">
+      <c r="I4" s="14" t="inlineStr">
         <is>
           <t>渝三峡A8</t>
         </is>
@@ -5847,7 +5847,7 @@
           <t>迎丰股份7</t>
         </is>
       </c>
-      <c r="M4" s="14" t="inlineStr">
+      <c r="M4" s="15" t="inlineStr">
         <is>
           <t>南京港6</t>
         </is>
@@ -5864,12 +5864,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>大消费(152)</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
+        <is>
+          <t>大消费(149)</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>先达股份6</t>
         </is>
@@ -5899,7 +5899,7 @@
           <t>成飞集成5</t>
         </is>
       </c>
-      <c r="H5" s="13" t="inlineStr">
+      <c r="H5" s="14" t="inlineStr">
         <is>
           <t>渝三峡A7</t>
         </is>
@@ -5909,7 +5909,7 @@
           <t>成飞集成7</t>
         </is>
       </c>
-      <c r="J5" s="13" t="inlineStr">
+      <c r="J5" s="14" t="inlineStr">
         <is>
           <t>渝三峡A9</t>
         </is>
@@ -5919,22 +5919,22 @@
           <t>利君股份8</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
+      <c r="L5" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰6</t>
         </is>
       </c>
-      <c r="M5" s="16" t="inlineStr">
+      <c r="M5" s="17" t="inlineStr">
         <is>
           <t>综艺股份5</t>
         </is>
       </c>
-      <c r="N5" s="17" t="inlineStr">
+      <c r="N5" s="14" t="inlineStr">
         <is>
           <t>滨海能源4</t>
         </is>
       </c>
-      <c r="O5" s="11" t="inlineStr">
+      <c r="O5" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰7</t>
         </is>
@@ -5946,7 +5946,7 @@
           <t>跨境(128)</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>渝三峡A5</t>
         </is>
@@ -5956,7 +5956,7 @@
           <t>红墙股份7</t>
         </is>
       </c>
-      <c r="D6" s="16" t="inlineStr">
+      <c r="D6" s="17" t="inlineStr">
         <is>
           <t>华电辽能4</t>
         </is>
@@ -5996,7 +5996,7 @@
           <t>中超控股7</t>
         </is>
       </c>
-      <c r="L6" s="16" t="inlineStr">
+      <c r="L6" s="17" t="inlineStr">
         <is>
           <t>综艺股份4</t>
         </is>
@@ -6006,7 +6006,7 @@
           <t>丽人丽妆5</t>
         </is>
       </c>
-      <c r="N6" s="16" t="inlineStr">
+      <c r="N6" s="17" t="inlineStr">
         <is>
           <t>棕榈股份4</t>
         </is>
@@ -6028,17 +6028,17 @@
           <t>华银电力4</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>渝三峡A6</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>山东墨龙3</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>麒盛科技4</t>
         </is>
@@ -6058,7 +6058,7 @@
           <t>利君股份6</t>
         </is>
       </c>
-      <c r="I7" s="11" t="inlineStr">
+      <c r="I7" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰5</t>
         </is>
@@ -6088,7 +6088,7 @@
           <t>浪莎股份4</t>
         </is>
       </c>
-      <c r="O7" s="17" t="inlineStr">
+      <c r="O7" s="14" t="inlineStr">
         <is>
           <t>滨海能源5</t>
         </is>
@@ -6097,10 +6097,10 @@
     <row r="8">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>化工(115)</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
+          <t>新能源(105)</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>全筑股份3</t>
         </is>
@@ -6110,7 +6110,7 @@
           <t>中欣氟材6</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>麒盛科技3</t>
         </is>
@@ -6145,7 +6145,7 @@
           <t>中超控股6</t>
         </is>
       </c>
-      <c r="K8" s="14" t="inlineStr">
+      <c r="K8" s="15" t="inlineStr">
         <is>
           <t>南京港5</t>
         </is>
@@ -6174,7 +6174,7 @@
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
         <is>
-          <t>新能源(105)</t>
+          <t>汽车(90)</t>
         </is>
       </c>
       <c r="B9" s="24" t="inlineStr">
@@ -6182,7 +6182,7 @@
           <t>金麒麟3</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>全筑股份4</t>
         </is>
@@ -6202,12 +6202,12 @@
           <t>利君股份4</t>
         </is>
       </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="G9" s="17" t="inlineStr">
         <is>
           <t>宝馨科技4</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H9" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰4</t>
         </is>
@@ -6222,7 +6222,7 @@
           <t>集泰股份4</t>
         </is>
       </c>
-      <c r="K9" s="14" t="inlineStr">
+      <c r="K9" s="15" t="inlineStr">
         <is>
           <t>宁波海运5</t>
         </is>
@@ -6251,15 +6251,15 @@
     <row r="10">
       <c r="A10" s="26" t="inlineStr">
         <is>
-          <t>汽车(90)</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="inlineStr">
+          <t>化工(86)</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>新坐标3</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>精进电动4</t>
         </is>
@@ -6289,17 +6289,17 @@
           <t>迎丰股份4</t>
         </is>
       </c>
-      <c r="I10" s="14" t="inlineStr">
+      <c r="I10" s="15" t="inlineStr">
         <is>
           <t>南京港3</t>
         </is>
       </c>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="J10" s="15" t="inlineStr">
         <is>
           <t>宁波海运4</t>
         </is>
       </c>
-      <c r="K10" s="14" t="inlineStr">
+      <c r="K10" s="15" t="inlineStr">
         <is>
           <t>连云港5</t>
         </is>
@@ -6309,7 +6309,7 @@
           <t>天汽模3</t>
         </is>
       </c>
-      <c r="M10" s="17" t="inlineStr">
+      <c r="M10" s="14" t="inlineStr">
         <is>
           <t>滨海能源3</t>
         </is>
@@ -6319,7 +6319,7 @@
           <t>宜宾纸业4</t>
         </is>
       </c>
-      <c r="O10" s="17" t="inlineStr">
+      <c r="O10" s="14" t="inlineStr">
         <is>
           <t>汇得科技3</t>
         </is>
@@ -6328,25 +6328,25 @@
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>AI(67)</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="inlineStr">
+          <t>医药(71)</t>
+        </is>
+      </c>
+      <c r="B11" s="17" t="inlineStr">
         <is>
           <t>华阳新材3</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>迪生力3</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr">
+      <c r="D11" s="17" t="inlineStr">
         <is>
           <t>奥普光电2</t>
         </is>
       </c>
-      <c r="E11" s="16" t="inlineStr">
+      <c r="E11" s="17" t="inlineStr">
         <is>
           <t>奥普光电3</t>
         </is>
@@ -6356,22 +6356,22 @@
           <t>禾盛新材3</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="G11" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰3</t>
         </is>
       </c>
-      <c r="H11" s="14" t="inlineStr">
+      <c r="H11" s="15" t="inlineStr">
         <is>
           <t>尚荣医疗3</t>
         </is>
       </c>
-      <c r="I11" s="14" t="inlineStr">
+      <c r="I11" s="15" t="inlineStr">
         <is>
           <t>宁波海运3</t>
         </is>
       </c>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="J11" s="15" t="inlineStr">
         <is>
           <t>宁波远洋4</t>
         </is>
@@ -6381,7 +6381,7 @@
           <t>交大昂立5</t>
         </is>
       </c>
-      <c r="L11" s="16" t="inlineStr">
+      <c r="L11" s="17" t="inlineStr">
         <is>
           <t>路畅科技3</t>
         </is>
@@ -6391,12 +6391,12 @@
           <t>湖南天雁3</t>
         </is>
       </c>
-      <c r="N11" s="16" t="inlineStr">
+      <c r="N11" s="17" t="inlineStr">
         <is>
           <t>慧博云通3</t>
         </is>
       </c>
-      <c r="O11" s="12" t="inlineStr">
+      <c r="O11" s="25" t="inlineStr">
         <is>
           <t>一心堂3</t>
         </is>
@@ -6405,10 +6405,10 @@
     <row r="12">
       <c r="A12" s="29" t="inlineStr">
         <is>
-          <t>医药(55)</t>
-        </is>
-      </c>
-      <c r="B12" s="17" t="inlineStr">
+          <t>AI(67)</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>精进电动3</t>
         </is>
@@ -6418,7 +6418,7 @@
           <t>中超控股3</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="17" t="inlineStr">
         <is>
           <t>豪尔赛2</t>
         </is>
@@ -6428,27 +6428,27 @@
           <t>侨银股份2</t>
         </is>
       </c>
-      <c r="F12" s="16" t="inlineStr">
+      <c r="F12" s="17" t="inlineStr">
         <is>
           <t>宝馨科技3</t>
         </is>
       </c>
-      <c r="G12" s="17" t="inlineStr">
+      <c r="G12" s="24" t="inlineStr">
         <is>
           <t>百达精工3</t>
         </is>
       </c>
-      <c r="H12" s="16" t="inlineStr">
+      <c r="H12" s="17" t="inlineStr">
         <is>
           <t>恒而达3</t>
         </is>
       </c>
-      <c r="I12" s="14" t="inlineStr">
+      <c r="I12" s="15" t="inlineStr">
         <is>
           <t>宁波远洋3</t>
         </is>
       </c>
-      <c r="J12" s="14" t="inlineStr">
+      <c r="J12" s="15" t="inlineStr">
         <is>
           <t>南京港4</t>
         </is>
@@ -6468,12 +6468,12 @@
           <t>浪莎股份3</t>
         </is>
       </c>
-      <c r="N12" s="16" t="inlineStr">
+      <c r="N12" s="17" t="inlineStr">
         <is>
           <t>莱绅通灵3</t>
         </is>
       </c>
-      <c r="O12" s="13" t="inlineStr">
+      <c r="O12" s="14" t="inlineStr">
         <is>
           <t>金龙羽3</t>
         </is>
@@ -6510,7 +6510,7 @@
           <t>晨曦航空3</t>
         </is>
       </c>
-      <c r="G13" s="16" t="inlineStr">
+      <c r="G13" s="17" t="inlineStr">
         <is>
           <t>恒而达2</t>
         </is>
@@ -6520,12 +6520,12 @@
           <t>交大昂立3</t>
         </is>
       </c>
-      <c r="I13" s="14" t="inlineStr">
+      <c r="I13" s="15" t="inlineStr">
         <is>
           <t>连云港3</t>
         </is>
       </c>
-      <c r="J13" s="14" t="inlineStr">
+      <c r="J13" s="15" t="inlineStr">
         <is>
           <t>连云港4</t>
         </is>
@@ -6545,12 +6545,12 @@
           <t>三生国健3</t>
         </is>
       </c>
-      <c r="N13" s="17" t="inlineStr">
+      <c r="N13" s="14" t="inlineStr">
         <is>
           <t>汇得科技2</t>
         </is>
       </c>
-      <c r="O13" s="16" t="inlineStr">
+      <c r="O13" s="17" t="inlineStr">
         <is>
           <t>京华激光3</t>
         </is>
@@ -6562,7 +6562,7 @@
           <t>半导体(51)</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <t>华电辽能3</t>
         </is>
@@ -6577,12 +6577,12 @@
           <t>成飞集成2</t>
         </is>
       </c>
-      <c r="E14" s="17" t="inlineStr">
+      <c r="E14" s="24" t="inlineStr">
         <is>
           <t>百达精工2</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰2</t>
         </is>
@@ -6597,37 +6597,37 @@
           <t>展鹏科技3</t>
         </is>
       </c>
-      <c r="I14" s="14" t="inlineStr">
+      <c r="I14" s="15" t="inlineStr">
         <is>
           <t>盛泰集团3</t>
         </is>
       </c>
-      <c r="J14" s="17" t="inlineStr">
+      <c r="J14" s="14" t="inlineStr">
         <is>
           <t>京运通3</t>
         </is>
       </c>
-      <c r="K14" s="16" t="inlineStr">
+      <c r="K14" s="17" t="inlineStr">
         <is>
           <t>综艺股份3</t>
         </is>
       </c>
-      <c r="L14" s="17" t="inlineStr">
+      <c r="L14" s="14" t="inlineStr">
         <is>
           <t>百利电气3</t>
         </is>
       </c>
-      <c r="M14" s="16" t="inlineStr">
+      <c r="M14" s="17" t="inlineStr">
         <is>
           <t>空港股份3</t>
         </is>
       </c>
-      <c r="N14" s="16" t="inlineStr">
+      <c r="N14" s="17" t="inlineStr">
         <is>
           <t>宝光股份2</t>
         </is>
       </c>
-      <c r="O14" s="11" t="inlineStr">
+      <c r="O14" s="25" t="inlineStr">
         <is>
           <t>海森药业2</t>
         </is>
@@ -6639,7 +6639,7 @@
           <t>重组(47)</t>
         </is>
       </c>
-      <c r="B15" s="17" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>迪生力2</t>
         </is>
@@ -6699,7 +6699,7 @@
           <t>宜宾纸业3</t>
         </is>
       </c>
-      <c r="N15" s="16" t="inlineStr">
+      <c r="N15" s="17" t="inlineStr">
         <is>
           <t>廊坊发展2</t>
         </is>
@@ -6741,12 +6741,12 @@
           <t>展鹏科技2</t>
         </is>
       </c>
-      <c r="G16" s="14" t="inlineStr">
+      <c r="G16" s="15" t="inlineStr">
         <is>
           <t>皖通科技2</t>
         </is>
       </c>
-      <c r="H16" s="14" t="inlineStr">
+      <c r="H16" s="15" t="inlineStr">
         <is>
           <t>宁波海运2</t>
         </is>
@@ -6766,22 +6766,22 @@
           <t>郑中设计3</t>
         </is>
       </c>
-      <c r="L16" s="17" t="inlineStr">
+      <c r="L16" s="14" t="inlineStr">
         <is>
           <t>滨海能源2</t>
         </is>
       </c>
-      <c r="M16" s="17" t="inlineStr">
+      <c r="M16" s="14" t="inlineStr">
         <is>
           <t>湖南发展3</t>
         </is>
       </c>
-      <c r="N16" s="16" t="inlineStr">
+      <c r="N16" s="17" t="inlineStr">
         <is>
           <t>通达电气2</t>
         </is>
       </c>
-      <c r="O16" s="11" t="inlineStr">
+      <c r="O16" s="25" t="inlineStr">
         <is>
           <t>海辰药业2</t>
         </is>
@@ -6814,17 +6814,17 @@
           <t>航天南湖2</t>
         </is>
       </c>
-      <c r="G17" s="14" t="inlineStr">
+      <c r="G17" s="15" t="inlineStr">
         <is>
           <t>尚荣医疗2</t>
         </is>
       </c>
-      <c r="H17" s="14" t="inlineStr">
+      <c r="H17" s="15" t="inlineStr">
         <is>
           <t>南京港2</t>
         </is>
       </c>
-      <c r="I17" s="16" t="inlineStr">
+      <c r="I17" s="17" t="inlineStr">
         <is>
           <t>综艺股份2</t>
         </is>
@@ -6839,22 +6839,22 @@
           <t>吉林化纤3</t>
         </is>
       </c>
-      <c r="L17" s="16" t="inlineStr">
+      <c r="L17" s="17" t="inlineStr">
         <is>
           <t>棕榈股份2</t>
         </is>
       </c>
-      <c r="M17" s="16" t="inlineStr">
+      <c r="M17" s="17" t="inlineStr">
         <is>
           <t>棕榈股份3</t>
         </is>
       </c>
-      <c r="N17" s="16" t="inlineStr">
+      <c r="N17" s="17" t="inlineStr">
         <is>
           <t>京华激光2</t>
         </is>
       </c>
-      <c r="O17" s="16" t="inlineStr">
+      <c r="O17" s="17" t="inlineStr">
         <is>
           <t>海翔药业2</t>
         </is>
@@ -6871,12 +6871,12 @@
           <t>兴民智通2</t>
         </is>
       </c>
-      <c r="C18" s="14" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>山东墨龙2</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr">
+      <c r="D18" s="17" t="inlineStr">
         <is>
           <t>神驰机电2</t>
         </is>
@@ -6891,22 +6891,22 @@
           <t>七丰精工2</t>
         </is>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="14" t="inlineStr">
         <is>
           <t>纳尔股份2</t>
         </is>
       </c>
-      <c r="H18" s="14" t="inlineStr">
+      <c r="H18" s="15" t="inlineStr">
         <is>
           <t>宁波远洋2</t>
         </is>
       </c>
-      <c r="I18" s="14" t="inlineStr">
+      <c r="I18" s="15" t="inlineStr">
         <is>
           <t>海程邦达2</t>
         </is>
       </c>
-      <c r="J18" s="17" t="inlineStr">
+      <c r="J18" s="14" t="inlineStr">
         <is>
           <t>洪通燃气2</t>
         </is>
@@ -6921,12 +6921,12 @@
           <t>浪莎股份2</t>
         </is>
       </c>
-      <c r="M18" s="11" t="inlineStr">
+      <c r="M18" s="25" t="inlineStr">
         <is>
           <t>哈三联3</t>
         </is>
       </c>
-      <c r="N18" s="14" t="inlineStr">
+      <c r="N18" s="15" t="inlineStr">
         <is>
           <t>重庆港2</t>
         </is>
@@ -6968,7 +6968,7 @@
           <t>中航成飞2</t>
         </is>
       </c>
-      <c r="G19" s="16" t="inlineStr">
+      <c r="G19" s="17" t="inlineStr">
         <is>
           <t>晋控电力2</t>
         </is>
@@ -6978,7 +6978,7 @@
           <t>尤夫股份2</t>
         </is>
       </c>
-      <c r="I19" s="14" t="inlineStr">
+      <c r="I19" s="15" t="inlineStr">
         <is>
           <t>锦江航运2</t>
         </is>
@@ -6993,12 +6993,12 @@
           <t>拉芳家化3</t>
         </is>
       </c>
-      <c r="L19" s="17" t="inlineStr">
+      <c r="L19" s="14" t="inlineStr">
         <is>
           <t>安彩高科2</t>
         </is>
       </c>
-      <c r="M19" s="16" t="inlineStr">
+      <c r="M19" s="17" t="inlineStr">
         <is>
           <t>慧博云通2</t>
         </is>
@@ -7027,12 +7027,12 @@
         </is>
       </c>
       <c r="D20" s="30" t="n"/>
-      <c r="E20" s="17" t="inlineStr">
+      <c r="E20" s="14" t="inlineStr">
         <is>
           <t>纳尔股份</t>
         </is>
       </c>
-      <c r="F20" s="14" t="inlineStr">
+      <c r="F20" s="21" t="inlineStr">
         <is>
           <t>荣泰健康2</t>
         </is>
@@ -7043,7 +7043,7 @@
           <t>中毅达2</t>
         </is>
       </c>
-      <c r="I20" s="14" t="inlineStr">
+      <c r="I20" s="15" t="inlineStr">
         <is>
           <t>中远海发2</t>
         </is>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="N20" s="30" t="n"/>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="O20" s="25" t="inlineStr">
         <is>
           <t>众生药业</t>
         </is>
@@ -7086,7 +7086,7 @@
           <t>川润股份2</t>
         </is>
       </c>
-      <c r="C21" s="14" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
         <is>
           <t>麒盛科技2</t>
         </is>
@@ -7102,12 +7102,12 @@
         </is>
       </c>
       <c r="F21" s="30" t="n"/>
-      <c r="G21" s="14" t="inlineStr">
+      <c r="G21" s="15" t="inlineStr">
         <is>
           <t>宁波海运</t>
         </is>
       </c>
-      <c r="H21" s="14" t="inlineStr">
+      <c r="H21" s="15" t="inlineStr">
         <is>
           <t>连云港2</t>
         </is>
@@ -7132,12 +7132,12 @@
           <t>三生国健2</t>
         </is>
       </c>
-      <c r="M21" s="12" t="inlineStr">
+      <c r="M21" s="25" t="inlineStr">
         <is>
           <t>一心堂2</t>
         </is>
       </c>
-      <c r="N21" s="16" t="inlineStr">
+      <c r="N21" s="17" t="inlineStr">
         <is>
           <t>中恒电气</t>
         </is>
@@ -7174,7 +7174,7 @@
           <t>迎丰股份</t>
         </is>
       </c>
-      <c r="F22" s="16" t="inlineStr">
+      <c r="F22" s="17" t="inlineStr">
         <is>
           <t>恒而达</t>
         </is>
@@ -7204,12 +7204,12 @@
           <t>天汽模2</t>
         </is>
       </c>
-      <c r="L22" s="16" t="inlineStr">
+      <c r="L22" s="17" t="inlineStr">
         <is>
           <t>九鼎投资2</t>
         </is>
       </c>
-      <c r="M22" s="16" t="inlineStr">
+      <c r="M22" s="17" t="inlineStr">
         <is>
           <t>乐山电力2</t>
         </is>
@@ -7236,7 +7236,7 @@
           <t>常山北明2</t>
         </is>
       </c>
-      <c r="C23" s="16" t="inlineStr">
+      <c r="C23" s="17" t="inlineStr">
         <is>
           <t>宝馨科技2</t>
         </is>
@@ -7251,7 +7251,7 @@
           <t>交大昂立</t>
         </is>
       </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="F23" s="14" t="inlineStr">
         <is>
           <t>龙蟠科技</t>
         </is>
@@ -7261,7 +7261,7 @@
           <t>东方海洋</t>
         </is>
       </c>
-      <c r="H23" s="12" t="inlineStr">
+      <c r="H23" s="15" t="inlineStr">
         <is>
           <t>青岛金王2</t>
         </is>
@@ -7271,22 +7271,22 @@
           <t>新华锦2</t>
         </is>
       </c>
-      <c r="J23" s="11" t="inlineStr">
+      <c r="J23" s="25" t="inlineStr">
         <is>
           <t>哈三联2</t>
         </is>
       </c>
-      <c r="K23" s="16" t="inlineStr">
+      <c r="K23" s="17" t="inlineStr">
         <is>
           <t>路畅科技2</t>
         </is>
       </c>
-      <c r="L23" s="16" t="inlineStr">
+      <c r="L23" s="17" t="inlineStr">
         <is>
           <t>金利华电2</t>
         </is>
       </c>
-      <c r="M23" s="13" t="inlineStr">
+      <c r="M23" s="14" t="inlineStr">
         <is>
           <t>金龙羽2</t>
         </is>
@@ -7296,7 +7296,7 @@
           <t>东珠生态</t>
         </is>
       </c>
-      <c r="O23" s="17" t="inlineStr">
+      <c r="O23" s="14" t="inlineStr">
         <is>
           <t>英联股份</t>
         </is>
@@ -7323,7 +7323,7 @@
           <t>贝肯能源</t>
         </is>
       </c>
-      <c r="E24" s="16" t="inlineStr">
+      <c r="E24" s="17" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -7338,32 +7338,32 @@
           <t>皮阿诺</t>
         </is>
       </c>
-      <c r="H24" s="14" t="inlineStr">
+      <c r="H24" s="15" t="inlineStr">
         <is>
           <t>盛泰集团2</t>
         </is>
       </c>
-      <c r="I24" s="17" t="inlineStr">
+      <c r="I24" s="14" t="inlineStr">
         <is>
           <t>京运通2</t>
         </is>
       </c>
-      <c r="J24" s="12" t="inlineStr">
+      <c r="J24" s="25" t="inlineStr">
         <is>
           <t>拓新药业2</t>
         </is>
       </c>
-      <c r="K24" s="16" t="inlineStr">
+      <c r="K24" s="17" t="inlineStr">
         <is>
           <t>华夏幸福2</t>
         </is>
       </c>
-      <c r="L24" s="11" t="inlineStr">
+      <c r="L24" s="17" t="inlineStr">
         <is>
           <t>恒天海龙2</t>
         </is>
       </c>
-      <c r="M24" s="16" t="inlineStr">
+      <c r="M24" s="17" t="inlineStr">
         <is>
           <t>保龄宝2</t>
         </is>
@@ -7373,7 +7373,7 @@
           <t>尚纬股份</t>
         </is>
       </c>
-      <c r="O24" s="17" t="inlineStr">
+      <c r="O24" s="14" t="inlineStr">
         <is>
           <t>融发核电</t>
         </is>
@@ -7395,7 +7395,7 @@
           <t>春光科技2</t>
         </is>
       </c>
-      <c r="D25" s="17" t="inlineStr">
+      <c r="D25" s="14" t="inlineStr">
         <is>
           <t>汉马科技</t>
         </is>
@@ -7415,14 +7415,14 @@
           <t>浙江正特</t>
         </is>
       </c>
-      <c r="H25" s="14" t="inlineStr">
+      <c r="H25" s="15" t="inlineStr">
         <is>
           <t>凤凰航运2</t>
         </is>
       </c>
       <c r="I25" s="30" t="n"/>
       <c r="J25" s="30" t="n"/>
-      <c r="K25" s="17" t="inlineStr">
+      <c r="K25" s="14" t="inlineStr">
         <is>
           <t>百利电气2</t>
         </is>
@@ -7432,7 +7432,7 @@
           <t>宜宾纸业2</t>
         </is>
       </c>
-      <c r="M25" s="16" t="inlineStr">
+      <c r="M25" s="17" t="inlineStr">
         <is>
           <t>莱绅通灵2</t>
         </is>
@@ -7474,7 +7474,7 @@
           <t>万事利</t>
         </is>
       </c>
-      <c r="F26" s="16" t="inlineStr">
+      <c r="F26" s="17" t="inlineStr">
         <is>
           <t>华阳新材</t>
         </is>
@@ -7500,7 +7500,7 @@
           <t>百合股份2</t>
         </is>
       </c>
-      <c r="L26" s="16" t="inlineStr">
+      <c r="L26" s="17" t="inlineStr">
         <is>
           <t>空港股份2</t>
         </is>
@@ -7511,7 +7511,7 @@
           <t>晋西车轴</t>
         </is>
       </c>
-      <c r="O26" s="14" t="inlineStr">
+      <c r="O26" s="15" t="inlineStr">
         <is>
           <t>凤竹纺织</t>
         </is>
@@ -7528,12 +7528,12 @@
           <t>福达股份2</t>
         </is>
       </c>
-      <c r="C27" s="16" t="inlineStr">
+      <c r="C27" s="17" t="inlineStr">
         <is>
           <t>保龄宝2</t>
         </is>
       </c>
-      <c r="D27" s="14" t="inlineStr">
+      <c r="D27" s="21" t="inlineStr">
         <is>
           <t>荣泰健康</t>
         </is>
@@ -7553,7 +7553,7 @@
           <t>酷特智能</t>
         </is>
       </c>
-      <c r="H27" s="16" t="inlineStr">
+      <c r="H27" s="17" t="inlineStr">
         <is>
           <t>综艺股份</t>
         </is>
@@ -7605,7 +7605,7 @@
           <t>日盈电子2</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
+      <c r="C28" s="14" t="inlineStr">
         <is>
           <t>京运通2</t>
         </is>
@@ -7615,12 +7615,12 @@
           <t>冀东装备</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
+      <c r="E28" s="17" t="inlineStr">
         <is>
           <t>苏州龙杰</t>
         </is>
       </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="F28" s="15" t="inlineStr">
         <is>
           <t>科力尔</t>
         </is>
@@ -7635,7 +7635,7 @@
           <t>甘化科工</t>
         </is>
       </c>
-      <c r="I28" s="17" t="inlineStr">
+      <c r="I28" s="14" t="inlineStr">
         <is>
           <t>洪通燃气</t>
         </is>
@@ -7645,7 +7645,7 @@
           <t>新华制药</t>
         </is>
       </c>
-      <c r="K28" s="16" t="inlineStr">
+      <c r="K28" s="17" t="inlineStr">
         <is>
           <t>华阳新材2</t>
         </is>
@@ -7665,7 +7665,7 @@
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="O28" s="17" t="inlineStr">
+      <c r="O28" s="14" t="inlineStr">
         <is>
           <t>哈焊华通</t>
         </is>
@@ -7677,12 +7677,12 @@
           <t>国企(203)</t>
         </is>
       </c>
-      <c r="B29" s="16" t="inlineStr">
+      <c r="B29" s="17" t="inlineStr">
         <is>
           <t>莱绅通灵2</t>
         </is>
       </c>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="C29" s="17" t="inlineStr">
         <is>
           <t>恒天海龙2</t>
         </is>
@@ -7717,7 +7717,7 @@
           <t>东珠生态</t>
         </is>
       </c>
-      <c r="J29" s="17" t="inlineStr">
+      <c r="J29" s="14" t="inlineStr">
         <is>
           <t>百利电气</t>
         </is>
@@ -7727,7 +7727,7 @@
           <t>吉华集团2</t>
         </is>
       </c>
-      <c r="L29" s="16" t="inlineStr">
+      <c r="L29" s="17" t="inlineStr">
         <is>
           <t>保变电气2</t>
         </is>
@@ -7742,7 +7742,7 @@
           <t>海特高新</t>
         </is>
       </c>
-      <c r="O29" s="17" t="inlineStr">
+      <c r="O29" s="14" t="inlineStr">
         <is>
           <t>雪人股份</t>
         </is>
@@ -7765,7 +7765,7 @@
           <t>万向钱潮</t>
         </is>
       </c>
-      <c r="E30" s="11" t="inlineStr">
+      <c r="E30" s="14" t="inlineStr">
         <is>
           <t>远信工业</t>
         </is>
@@ -7775,7 +7775,7 @@
           <t>雷科防务</t>
         </is>
       </c>
-      <c r="G30" s="17" t="inlineStr">
+      <c r="G30" s="14" t="inlineStr">
         <is>
           <t>欧晶科技</t>
         </is>
@@ -7785,17 +7785,17 @@
           <t>瑞斯康达</t>
         </is>
       </c>
-      <c r="I30" s="16" t="inlineStr">
+      <c r="I30" s="17" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
       </c>
-      <c r="J30" s="16" t="inlineStr">
+      <c r="J30" s="17" t="inlineStr">
         <is>
           <t>神驰机电</t>
         </is>
       </c>
-      <c r="K30" s="16" t="inlineStr">
+      <c r="K30" s="17" t="inlineStr">
         <is>
           <t>中洲特材2</t>
         </is>
@@ -7805,7 +7805,7 @@
           <t>天元宠物2</t>
         </is>
       </c>
-      <c r="M30" s="16" t="inlineStr">
+      <c r="M30" s="17" t="inlineStr">
         <is>
           <t>宝光股份</t>
         </is>
@@ -7815,7 +7815,7 @@
           <t>升达林业</t>
         </is>
       </c>
-      <c r="O30" s="11" t="inlineStr">
+      <c r="O30" s="25" t="inlineStr">
         <is>
           <t>多瑞医药</t>
         </is>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="B31" s="30" t="n"/>
-      <c r="C31" s="16" t="inlineStr">
+      <c r="C31" s="17" t="inlineStr">
         <is>
           <t>豪尔赛</t>
         </is>
@@ -7838,7 +7838,7 @@
           <t>佳力图</t>
         </is>
       </c>
-      <c r="E31" s="17" t="inlineStr">
+      <c r="E31" s="14" t="inlineStr">
         <is>
           <t>翔鹭钨业</t>
         </is>
@@ -7848,7 +7848,7 @@
           <t>国睿科技</t>
         </is>
       </c>
-      <c r="G31" s="17" t="inlineStr">
+      <c r="G31" s="14" t="inlineStr">
         <is>
           <t>京运通</t>
         </is>
@@ -7858,12 +7858,12 @@
           <t>三房巷</t>
         </is>
       </c>
-      <c r="I31" s="12" t="inlineStr">
+      <c r="I31" s="25" t="inlineStr">
         <is>
           <t>川宁生物</t>
         </is>
       </c>
-      <c r="J31" s="14" t="inlineStr">
+      <c r="J31" s="15" t="inlineStr">
         <is>
           <t>新坐标</t>
         </is>
@@ -7873,17 +7873,17 @@
           <t>国光连锁2</t>
         </is>
       </c>
-      <c r="L31" s="14" t="inlineStr">
+      <c r="L31" s="15" t="inlineStr">
         <is>
           <t>五新隧装2</t>
         </is>
       </c>
-      <c r="M31" s="16" t="inlineStr">
+      <c r="M31" s="17" t="inlineStr">
         <is>
           <t>廊坊发展</t>
         </is>
       </c>
-      <c r="N31" s="11" t="inlineStr">
+      <c r="N31" s="25" t="inlineStr">
         <is>
           <t>海森药业</t>
         </is>
@@ -7901,7 +7901,7 @@
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="C32" s="16" t="inlineStr">
+      <c r="C32" s="17" t="inlineStr">
         <is>
           <t>奥普光电</t>
         </is>
@@ -7911,7 +7911,7 @@
           <t>久祺股份</t>
         </is>
       </c>
-      <c r="E32" s="16" t="inlineStr">
+      <c r="E32" s="17" t="inlineStr">
         <is>
           <t>晋控电力</t>
         </is>
@@ -7921,7 +7921,7 @@
           <t>华如科技</t>
         </is>
       </c>
-      <c r="G32" s="14" t="inlineStr">
+      <c r="G32" s="15" t="inlineStr">
         <is>
           <t>盛泰集团</t>
         </is>
@@ -7936,7 +7936,7 @@
           <t>福瑞达</t>
         </is>
       </c>
-      <c r="J32" s="16" t="inlineStr">
+      <c r="J32" s="17" t="inlineStr">
         <is>
           <t>中洲特材</t>
         </is>
@@ -7946,12 +7946,12 @@
           <t>信隆健康2</t>
         </is>
       </c>
-      <c r="L32" s="17" t="inlineStr">
+      <c r="L32" s="14" t="inlineStr">
         <is>
           <t>湖南发展2</t>
         </is>
       </c>
-      <c r="M32" s="17" t="inlineStr">
+      <c r="M32" s="14" t="inlineStr">
         <is>
           <t>宁新新材</t>
         </is>
@@ -7961,7 +7961,7 @@
           <t>四创电子</t>
         </is>
       </c>
-      <c r="O32" s="14" t="inlineStr">
+      <c r="O32" s="15" t="inlineStr">
         <is>
           <t>永冠新材</t>
         </is>
@@ -7983,17 +7983,17 @@
           <t>上海凤凰</t>
         </is>
       </c>
-      <c r="E33" s="14" t="inlineStr">
+      <c r="E33" s="15" t="inlineStr">
         <is>
           <t>中国瑞林</t>
         </is>
       </c>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="F33" s="15" t="inlineStr">
         <is>
           <t>皖通科技</t>
         </is>
       </c>
-      <c r="G33" s="17" t="inlineStr">
+      <c r="G33" s="14" t="inlineStr">
         <is>
           <t>协鑫集成</t>
         </is>
@@ -8003,7 +8003,7 @@
           <t>安纳达</t>
         </is>
       </c>
-      <c r="I33" s="11" t="inlineStr">
+      <c r="I33" s="25" t="inlineStr">
         <is>
           <t>哈三联</t>
         </is>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="K33" s="30" t="n"/>
       <c r="L33" s="30" t="n"/>
-      <c r="M33" s="14" t="inlineStr">
+      <c r="M33" s="15" t="inlineStr">
         <is>
           <t>重庆港</t>
         </is>
@@ -8025,14 +8025,14 @@
           <t>烽火电子</t>
         </is>
       </c>
-      <c r="O33" s="16" t="inlineStr">
+      <c r="O33" s="17" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="14" t="inlineStr">
+      <c r="B34" s="15" t="inlineStr">
         <is>
           <t>瑞尔特</t>
         </is>
@@ -8057,7 +8057,7 @@
           <t>七一二</t>
         </is>
       </c>
-      <c r="G34" s="12" t="inlineStr">
+      <c r="G34" s="15" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
@@ -8077,12 +8077,12 @@
           <t>铭科精技</t>
         </is>
       </c>
-      <c r="K34" s="17" t="inlineStr">
+      <c r="K34" s="14" t="inlineStr">
         <is>
           <t>安彩高科</t>
         </is>
       </c>
-      <c r="L34" s="16" t="inlineStr">
+      <c r="L34" s="17" t="inlineStr">
         <is>
           <t>慧博云通</t>
         </is>
@@ -8144,12 +8144,12 @@
           <t>金达威</t>
         </is>
       </c>
-      <c r="J35" s="16" t="inlineStr">
+      <c r="J35" s="17" t="inlineStr">
         <is>
           <t>路畅科技</t>
         </is>
       </c>
-      <c r="K35" s="17" t="inlineStr">
+      <c r="K35" s="14" t="inlineStr">
         <is>
           <t>滨海能源</t>
         </is>
@@ -8159,7 +8159,7 @@
           <t>信邦智能</t>
         </is>
       </c>
-      <c r="M35" s="16" t="inlineStr">
+      <c r="M35" s="17" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -8201,7 +8201,7 @@
           <t>光电股份</t>
         </is>
       </c>
-      <c r="G36" s="17" t="inlineStr">
+      <c r="G36" s="14" t="inlineStr">
         <is>
           <t>英联股份</t>
         </is>
@@ -8226,12 +8226,12 @@
           <t>光智科技</t>
         </is>
       </c>
-      <c r="L36" s="11" t="inlineStr">
+      <c r="L36" s="25" t="inlineStr">
         <is>
           <t>华海药业</t>
         </is>
       </c>
-      <c r="M36" s="16" t="inlineStr">
+      <c r="M36" s="17" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
@@ -8241,14 +8241,14 @@
           <t>强邦新材</t>
         </is>
       </c>
-      <c r="O36" s="16" t="inlineStr">
+      <c r="O36" s="17" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="14" t="inlineStr">
+      <c r="B37" s="15" t="inlineStr">
         <is>
           <t>山东墨龙</t>
         </is>
@@ -8263,12 +8263,12 @@
           <t>磁谷科技</t>
         </is>
       </c>
-      <c r="E37" s="16" t="inlineStr">
+      <c r="E37" s="17" t="inlineStr">
         <is>
           <t>登康口腔</t>
         </is>
       </c>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="F37" s="15" t="inlineStr">
         <is>
           <t>昆船智能</t>
         </is>
@@ -8283,17 +8283,17 @@
           <t>渤海化学</t>
         </is>
       </c>
-      <c r="I37" s="14" t="inlineStr">
+      <c r="I37" s="15" t="inlineStr">
         <is>
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="J37" s="16" t="inlineStr">
+      <c r="J37" s="17" t="inlineStr">
         <is>
           <t>华阳新材</t>
         </is>
       </c>
-      <c r="K37" s="16" t="inlineStr">
+      <c r="K37" s="17" t="inlineStr">
         <is>
           <t>九鼎投资</t>
         </is>
@@ -8313,7 +8313,7 @@
           <t>中天精装</t>
         </is>
       </c>
-      <c r="O37" s="17" t="inlineStr">
+      <c r="O37" s="14" t="inlineStr">
         <is>
           <t>北特科技</t>
         </is>
@@ -8330,7 +8330,7 @@
           <t>纬德信息</t>
         </is>
       </c>
-      <c r="D38" s="16" t="inlineStr">
+      <c r="D38" s="17" t="inlineStr">
         <is>
           <t>大千生态</t>
         </is>
@@ -8345,7 +8345,7 @@
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="H38" s="14" t="inlineStr">
+      <c r="H38" s="15" t="inlineStr">
         <is>
           <t>安德利</t>
         </is>
@@ -8437,12 +8437,12 @@
           <t>佳合科技</t>
         </is>
       </c>
-      <c r="M39" s="17" t="inlineStr">
+      <c r="M39" s="14" t="inlineStr">
         <is>
           <t>汇得科技</t>
         </is>
       </c>
-      <c r="N39" s="17" t="inlineStr">
+      <c r="N39" s="14" t="inlineStr">
         <is>
           <t>国光电器</t>
         </is>
@@ -8454,12 +8454,12 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="11" t="inlineStr">
+      <c r="B40" s="17" t="inlineStr">
         <is>
           <t>恒天海龙</t>
         </is>
       </c>
-      <c r="C40" s="14" t="inlineStr">
+      <c r="C40" s="15" t="inlineStr">
         <is>
           <t>锦好医疗</t>
         </is>
@@ -8489,7 +8489,7 @@
           <t>海南海药</t>
         </is>
       </c>
-      <c r="J40" s="16" t="inlineStr">
+      <c r="J40" s="17" t="inlineStr">
         <is>
           <t>秦安股份</t>
         </is>
@@ -8521,7 +8521,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="16" t="inlineStr">
+      <c r="B41" s="17" t="inlineStr">
         <is>
           <t>宝馨科技</t>
         </is>
@@ -8536,22 +8536,22 @@
           <t>联德股份</t>
         </is>
       </c>
-      <c r="F41" s="14" t="inlineStr">
+      <c r="F41" s="15" t="inlineStr">
         <is>
           <t>中坚科技</t>
         </is>
       </c>
-      <c r="G41" s="16" t="inlineStr">
+      <c r="G41" s="17" t="inlineStr">
         <is>
           <t>神驰机电</t>
         </is>
       </c>
-      <c r="H41" s="14" t="inlineStr">
+      <c r="H41" s="15" t="inlineStr">
         <is>
           <t>中远海发</t>
         </is>
       </c>
-      <c r="I41" s="14" t="inlineStr">
+      <c r="I41" s="15" t="inlineStr">
         <is>
           <t>西王食品</t>
         </is>
@@ -8571,12 +8571,12 @@
           <t>贝因美</t>
         </is>
       </c>
-      <c r="M41" s="16" t="inlineStr">
+      <c r="M41" s="17" t="inlineStr">
         <is>
           <t>通达电气</t>
         </is>
       </c>
-      <c r="N41" s="16" t="inlineStr">
+      <c r="N41" s="17" t="inlineStr">
         <is>
           <t>海翔药业</t>
         </is>
@@ -8608,12 +8608,12 @@
           <t>鸿远电子</t>
         </is>
       </c>
-      <c r="G42" s="11" t="inlineStr">
+      <c r="G42" s="14" t="inlineStr">
         <is>
           <t>中化国际</t>
         </is>
       </c>
-      <c r="H42" s="14" t="inlineStr">
+      <c r="H42" s="15" t="inlineStr">
         <is>
           <t>锦江航运</t>
         </is>
@@ -8628,7 +8628,7 @@
           <t>豪恩汽电</t>
         </is>
       </c>
-      <c r="K42" s="14" t="inlineStr">
+      <c r="K42" s="15" t="inlineStr">
         <is>
           <t>珠海港</t>
         </is>
@@ -8648,14 +8648,14 @@
           <t>美邦股份</t>
         </is>
       </c>
-      <c r="O42" s="14" t="inlineStr">
+      <c r="O42" s="15" t="inlineStr">
         <is>
           <t>鼎龙科技</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="17" t="inlineStr">
+      <c r="B43" s="14" t="inlineStr">
         <is>
           <t>永鼎股份</t>
         </is>
@@ -8670,17 +8670,17 @@
           <t>通业科技</t>
         </is>
       </c>
-      <c r="F43" s="14" t="inlineStr">
+      <c r="F43" s="15" t="inlineStr">
         <is>
           <t>联合水务</t>
         </is>
       </c>
-      <c r="G43" s="17" t="inlineStr">
+      <c r="G43" s="14" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
       </c>
-      <c r="H43" s="14" t="inlineStr">
+      <c r="H43" s="15" t="inlineStr">
         <is>
           <t>中集环科</t>
         </is>
@@ -8695,7 +8695,7 @@
           <t>日发精机</t>
         </is>
       </c>
-      <c r="K43" s="14" t="inlineStr">
+      <c r="K43" s="15" t="inlineStr">
         <is>
           <t>厦门港务</t>
         </is>
@@ -8705,7 +8705,7 @@
           <t>万润科技</t>
         </is>
       </c>
-      <c r="M43" s="17" t="inlineStr">
+      <c r="M43" s="14" t="inlineStr">
         <is>
           <t>国轩高科</t>
         </is>
@@ -8715,7 +8715,7 @@
           <t>华研精机</t>
         </is>
       </c>
-      <c r="O43" s="11" t="inlineStr">
+      <c r="O43" s="25" t="inlineStr">
         <is>
           <t>新天地</t>
         </is>
@@ -8737,7 +8737,7 @@
           <t>鑫磊股份</t>
         </is>
       </c>
-      <c r="F44" s="14" t="inlineStr">
+      <c r="F44" s="15" t="inlineStr">
         <is>
           <t>新大陆</t>
         </is>
@@ -8752,7 +8752,7 @@
           <t>新华锦</t>
         </is>
       </c>
-      <c r="I44" s="14" t="inlineStr">
+      <c r="I44" s="15" t="inlineStr">
         <is>
           <t>百洋股份</t>
         </is>
@@ -8772,19 +8772,19 @@
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="M44" s="17" t="inlineStr">
+      <c r="M44" s="14" t="inlineStr">
         <is>
           <t>领湃科技</t>
         </is>
       </c>
-      <c r="O44" s="16" t="inlineStr">
+      <c r="O44" s="17" t="inlineStr">
         <is>
           <t>中洲特材</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="14" t="inlineStr">
+      <c r="B45" s="15" t="inlineStr">
         <is>
           <t>兰石重装</t>
         </is>
@@ -8834,14 +8834,14 @@
           <t>未名医药</t>
         </is>
       </c>
-      <c r="M45" s="17" t="inlineStr">
+      <c r="M45" s="14" t="inlineStr">
         <is>
           <t>龙蟠科技</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="17" t="inlineStr">
+      <c r="B46" s="14" t="inlineStr">
         <is>
           <t>海陆重工</t>
         </is>
@@ -8851,7 +8851,7 @@
           <t>大众交通</t>
         </is>
       </c>
-      <c r="D46" s="17" t="inlineStr">
+      <c r="D46" s="14" t="inlineStr">
         <is>
           <t>高测股份</t>
         </is>
@@ -8871,7 +8871,7 @@
           <t>嘉欣丝绸</t>
         </is>
       </c>
-      <c r="I46" s="16" t="inlineStr">
+      <c r="I46" s="17" t="inlineStr">
         <is>
           <t>登康口腔</t>
         </is>
@@ -8886,7 +8886,7 @@
           <t>本钢板材</t>
         </is>
       </c>
-      <c r="L46" s="16" t="inlineStr">
+      <c r="L46" s="17" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
@@ -8898,7 +8898,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="17" t="inlineStr">
+      <c r="B47" s="14" t="inlineStr">
         <is>
           <t>雪人股份</t>
         </is>
@@ -8913,22 +8913,22 @@
           <t>山东章鼓</t>
         </is>
       </c>
-      <c r="F47" s="14" t="inlineStr">
+      <c r="F47" s="15" t="inlineStr">
         <is>
           <t>尚荣医疗</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="15" t="inlineStr">
         <is>
           <t>南京港</t>
         </is>
       </c>
-      <c r="H47" s="16" t="inlineStr">
+      <c r="H47" s="17" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="I47" s="12" t="inlineStr">
+      <c r="I47" s="25" t="inlineStr">
         <is>
           <t>拓新药业</t>
         </is>
@@ -8948,7 +8948,7 @@
           <t>广博股份</t>
         </is>
       </c>
-      <c r="M47" s="17" t="inlineStr">
+      <c r="M47" s="14" t="inlineStr">
         <is>
           <t>宏工科技</t>
         </is>
@@ -8960,12 +8960,12 @@
           <t>诚邦股份</t>
         </is>
       </c>
-      <c r="C48" s="16" t="inlineStr">
+      <c r="C48" s="17" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
-      <c r="D48" s="17" t="inlineStr">
+      <c r="D48" s="24" t="inlineStr">
         <is>
           <t>百达精工</t>
         </is>
@@ -8975,7 +8975,7 @@
           <t>信捷电气</t>
         </is>
       </c>
-      <c r="G48" s="14" t="inlineStr">
+      <c r="G48" s="15" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
@@ -8985,7 +8985,7 @@
           <t>红塔证券</t>
         </is>
       </c>
-      <c r="I48" s="14" t="inlineStr">
+      <c r="I48" s="15" t="inlineStr">
         <is>
           <t>华业香料</t>
         </is>
@@ -9005,14 +9005,14 @@
           <t>依依股份</t>
         </is>
       </c>
-      <c r="M48" s="11" t="inlineStr">
+      <c r="M48" s="25" t="inlineStr">
         <is>
           <t>海辰药业</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="16" t="inlineStr">
+      <c r="B49" s="17" t="inlineStr">
         <is>
           <t>达华智能</t>
         </is>
@@ -9047,7 +9047,7 @@
           <t>博闻科技</t>
         </is>
       </c>
-      <c r="J49" s="14" t="inlineStr">
+      <c r="J49" s="15" t="inlineStr">
         <is>
           <t>格力博</t>
         </is>
@@ -9084,17 +9084,17 @@
           <t>广东鸿图</t>
         </is>
       </c>
-      <c r="F50" s="16" t="inlineStr">
+      <c r="F50" s="17" t="inlineStr">
         <is>
           <t>中恒电气</t>
         </is>
       </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="G50" s="15" t="inlineStr">
         <is>
           <t>凤凰航运</t>
         </is>
       </c>
-      <c r="H50" s="14" t="inlineStr">
+      <c r="H50" s="15" t="inlineStr">
         <is>
           <t>海程邦达</t>
         </is>
@@ -9104,7 +9104,7 @@
           <t>众兴菌业</t>
         </is>
       </c>
-      <c r="J50" s="14" t="inlineStr">
+      <c r="J50" s="15" t="inlineStr">
         <is>
           <t>遥望科技</t>
         </is>
@@ -9114,7 +9114,7 @@
           <t>浪莎股份</t>
         </is>
       </c>
-      <c r="L50" s="14" t="inlineStr">
+      <c r="L50" s="15" t="inlineStr">
         <is>
           <t>雪榕生物</t>
         </is>
@@ -9146,7 +9146,7 @@
           <t>中邮科技</t>
         </is>
       </c>
-      <c r="G51" s="14" t="inlineStr">
+      <c r="G51" s="15" t="inlineStr">
         <is>
           <t>宁波远洋</t>
         </is>
@@ -9171,7 +9171,7 @@
           <t>华远地产</t>
         </is>
       </c>
-      <c r="L51" s="16" t="inlineStr">
+      <c r="L51" s="17" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
@@ -9183,7 +9183,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="16" t="inlineStr">
+      <c r="B52" s="17" t="inlineStr">
         <is>
           <t>广晟有色</t>
         </is>
@@ -9193,7 +9193,7 @@
           <t>利君股份</t>
         </is>
       </c>
-      <c r="D52" s="17" t="inlineStr">
+      <c r="D52" s="14" t="inlineStr">
         <is>
           <t>金通灵</t>
         </is>
@@ -9203,7 +9203,7 @@
           <t>襄阳轴承</t>
         </is>
       </c>
-      <c r="G52" s="14" t="inlineStr">
+      <c r="G52" s="15" t="inlineStr">
         <is>
           <t>海通发展</t>
         </is>
@@ -9218,7 +9218,7 @@
           <t>郑中设计</t>
         </is>
       </c>
-      <c r="J52" s="16" t="inlineStr">
+      <c r="J52" s="17" t="inlineStr">
         <is>
           <t>凯迪股份</t>
         </is>
@@ -9233,14 +9233,14 @@
           <t>大唐电信</t>
         </is>
       </c>
-      <c r="M52" s="11" t="inlineStr">
+      <c r="M52" s="25" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="17" t="inlineStr">
+      <c r="B53" s="14" t="inlineStr">
         <is>
           <t>曙光股份</t>
         </is>
@@ -9280,7 +9280,7 @@
           <t>沙河股份</t>
         </is>
       </c>
-      <c r="L53" s="17" t="inlineStr">
+      <c r="L53" s="14" t="inlineStr">
         <is>
           <t>利源股份</t>
         </is>
@@ -9302,12 +9302,12 @@
           <t>襄阳轴承</t>
         </is>
       </c>
-      <c r="D54" s="14" t="inlineStr">
+      <c r="D54" s="15" t="inlineStr">
         <is>
           <t>宸展光电</t>
         </is>
       </c>
-      <c r="H54" s="14" t="inlineStr">
+      <c r="H54" s="15" t="inlineStr">
         <is>
           <t>飞力达</t>
         </is>
@@ -9317,7 +9317,7 @@
           <t>春兴精工</t>
         </is>
       </c>
-      <c r="K54" s="16" t="inlineStr">
+      <c r="K54" s="17" t="inlineStr">
         <is>
           <t>金利华电</t>
         </is>
@@ -9334,7 +9334,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="12" t="inlineStr">
+      <c r="B55" s="15" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
@@ -9349,17 +9349,17 @@
           <t>沃尔核材</t>
         </is>
       </c>
-      <c r="H55" s="14" t="inlineStr">
+      <c r="H55" s="15" t="inlineStr">
         <is>
           <t>国航远洋</t>
         </is>
       </c>
-      <c r="J55" s="14" t="inlineStr">
+      <c r="J55" s="15" t="inlineStr">
         <is>
           <t>杰克股份</t>
         </is>
       </c>
-      <c r="K55" s="16" t="inlineStr">
+      <c r="K55" s="17" t="inlineStr">
         <is>
           <t>保变电气</t>
         </is>
@@ -9406,7 +9406,7 @@
           <t>海泰发展</t>
         </is>
       </c>
-      <c r="L56" s="14" t="inlineStr">
+      <c r="L56" s="15" t="inlineStr">
         <is>
           <t>盈方微</t>
         </is>
@@ -9418,7 +9418,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="14" t="inlineStr">
+      <c r="B57" s="15" t="inlineStr">
         <is>
           <t>莱宝高科</t>
         </is>
@@ -9438,7 +9438,7 @@
           <t>保税科技</t>
         </is>
       </c>
-      <c r="J57" s="14" t="inlineStr">
+      <c r="J57" s="15" t="inlineStr">
         <is>
           <t>三羊马</t>
         </is>
@@ -9475,7 +9475,7 @@
           <t>东方中科</t>
         </is>
       </c>
-      <c r="H58" s="14" t="inlineStr">
+      <c r="H58" s="15" t="inlineStr">
         <is>
           <t>中创物流</t>
         </is>
@@ -9485,24 +9485,24 @@
           <t>安源煤业</t>
         </is>
       </c>
-      <c r="K58" s="17" t="inlineStr">
+      <c r="K58" s="14" t="inlineStr">
         <is>
           <t>湖南发展</t>
         </is>
       </c>
-      <c r="L58" s="16" t="inlineStr">
+      <c r="L58" s="17" t="inlineStr">
         <is>
           <t>京华激光</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="16" t="inlineStr">
+      <c r="B59" s="17" t="inlineStr">
         <is>
           <t>中恒电气</t>
         </is>
       </c>
-      <c r="C59" s="17" t="inlineStr">
+      <c r="C59" s="14" t="inlineStr">
         <is>
           <t>北方股份</t>
         </is>
@@ -9512,12 +9512,12 @@
           <t>冰轮环境</t>
         </is>
       </c>
-      <c r="H59" s="14" t="inlineStr">
+      <c r="H59" s="15" t="inlineStr">
         <is>
           <t>华光源海</t>
         </is>
       </c>
-      <c r="J59" s="16" t="inlineStr">
+      <c r="J59" s="17" t="inlineStr">
         <is>
           <t>华夏幸福</t>
         </is>
@@ -9549,7 +9549,7 @@
           <t>剑桥科技</t>
         </is>
       </c>
-      <c r="H60" s="14" t="inlineStr">
+      <c r="H60" s="15" t="inlineStr">
         <is>
           <t>长久物流</t>
         </is>
@@ -9571,7 +9571,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="17" t="inlineStr">
+      <c r="B61" s="14" t="inlineStr">
         <is>
           <t>京运通</t>
         </is>
@@ -9591,7 +9591,7 @@
           <t>跨境通</t>
         </is>
       </c>
-      <c r="K61" s="16" t="inlineStr">
+      <c r="K61" s="17" t="inlineStr">
         <is>
           <t>空港股份</t>
         </is>
@@ -9687,12 +9687,12 @@
           <t>东方中科</t>
         </is>
       </c>
-      <c r="K64" s="16" t="inlineStr">
+      <c r="K64" s="17" t="inlineStr">
         <is>
           <t>棕榈股份</t>
         </is>
       </c>
-      <c r="L64" s="12" t="inlineStr">
+      <c r="L64" s="25" t="inlineStr">
         <is>
           <t>一心堂</t>
         </is>
@@ -9714,7 +9714,7 @@
           <t>展鹏科技</t>
         </is>
       </c>
-      <c r="H65" s="17" t="inlineStr">
+      <c r="H65" s="14" t="inlineStr">
         <is>
           <t>博菲电气</t>
         </is>
@@ -9741,7 +9741,7 @@
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D66" s="14" t="inlineStr">
+      <c r="D66" s="15" t="inlineStr">
         <is>
           <t>海能达</t>
         </is>
@@ -9773,7 +9773,7 @@
           <t>航天南湖</t>
         </is>
       </c>
-      <c r="K67" s="14" t="inlineStr">
+      <c r="K67" s="15" t="inlineStr">
         <is>
           <t>宁波港</t>
         </is>
@@ -9785,7 +9785,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="16" t="inlineStr">
+      <c r="B68" s="17" t="inlineStr">
         <is>
           <t>凯迪股份</t>
         </is>
@@ -9800,12 +9800,12 @@
           <t>保利联合</t>
         </is>
       </c>
-      <c r="K68" s="14" t="inlineStr">
+      <c r="K68" s="15" t="inlineStr">
         <is>
           <t>五新隧装</t>
         </is>
       </c>
-      <c r="L68" s="17" t="inlineStr">
+      <c r="L68" s="14" t="inlineStr">
         <is>
           <t>罗曼股份</t>
         </is>
@@ -9849,7 +9849,7 @@
           <t>亚泰集团</t>
         </is>
       </c>
-      <c r="L70" s="13" t="inlineStr">
+      <c r="L70" s="14" t="inlineStr">
         <is>
           <t>金龙羽</t>
         </is>
@@ -9861,7 +9861,7 @@
           <t>泰坦股份</t>
         </is>
       </c>
-      <c r="K71" s="17" t="inlineStr">
+      <c r="K71" s="14" t="inlineStr">
         <is>
           <t>德力股份</t>
         </is>
@@ -9890,7 +9890,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="17" t="inlineStr">
+      <c r="B73" s="14" t="inlineStr">
         <is>
           <t>云中马</t>
         </is>
@@ -9900,7 +9900,7 @@
           <t>我乐家居</t>
         </is>
       </c>
-      <c r="L73" s="16" t="inlineStr">
+      <c r="L73" s="17" t="inlineStr">
         <is>
           <t>广晟有色</t>
         </is>
@@ -9917,19 +9917,19 @@
           <t>源飞宠物</t>
         </is>
       </c>
-      <c r="L74" s="17" t="inlineStr">
+      <c r="L74" s="14" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="17" t="inlineStr">
+      <c r="B75" s="14" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
       </c>
-      <c r="K75" s="11" t="inlineStr">
+      <c r="K75" s="17" t="inlineStr">
         <is>
           <t>恒天海龙</t>
         </is>
@@ -9958,12 +9958,12 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="17" t="inlineStr">
+      <c r="B77" s="14" t="inlineStr">
         <is>
           <t>鑫铂股份</t>
         </is>
       </c>
-      <c r="K77" s="16" t="inlineStr">
+      <c r="K77" s="17" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
@@ -9992,7 +9992,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="16" t="inlineStr">
+      <c r="B79" s="17" t="inlineStr">
         <is>
           <t>中洲特材</t>
         </is>
@@ -10002,24 +10002,24 @@
           <t>盛视科技</t>
         </is>
       </c>
-      <c r="L79" s="17" t="inlineStr">
+      <c r="L79" s="14" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="16" t="inlineStr">
+      <c r="B80" s="17" t="inlineStr">
         <is>
           <t>九鼎投资</t>
         </is>
       </c>
-      <c r="K80" s="16" t="inlineStr">
+      <c r="K80" s="17" t="inlineStr">
         <is>
           <t>大千生态</t>
         </is>
       </c>
-      <c r="L80" s="14" t="inlineStr">
+      <c r="L80" s="15" t="inlineStr">
         <is>
           <t>楚环科技</t>
         </is>
@@ -10031,7 +10031,7 @@
           <t>赛福天</t>
         </is>
       </c>
-      <c r="K81" s="12" t="inlineStr">
+      <c r="K81" s="21" t="inlineStr">
         <is>
           <t>金财互联</t>
         </is>
@@ -10055,7 +10055,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="16" t="inlineStr">
+      <c r="B83" s="17" t="inlineStr">
         <is>
           <t>秦安股份</t>
         </is>
@@ -10072,7 +10072,7 @@
           <t>奕东电子</t>
         </is>
       </c>
-      <c r="K84" s="16" t="inlineStr">
+      <c r="K84" s="17" t="inlineStr">
         <is>
           <t>达华智能</t>
         </is>
@@ -10091,12 +10091,12 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="14" t="inlineStr">
+      <c r="B86" s="15" t="inlineStr">
         <is>
           <t>安德利</t>
         </is>
       </c>
-      <c r="K86" s="14" t="inlineStr">
+      <c r="K86" s="15" t="inlineStr">
         <is>
           <t>盐田港</t>
         </is>
@@ -10150,7 +10150,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" s="16" t="inlineStr">
+      <c r="B93" s="17" t="inlineStr">
         <is>
           <t>神驰机电</t>
         </is>
@@ -10220,7 +10220,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" s="14" t="inlineStr">
+      <c r="B103" s="15" t="inlineStr">
         <is>
           <t>麒盛科技</t>
         </is>
@@ -10238,7 +10238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10277,15 +10277,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>涤纶</t>
+          <t>化学纤维</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>卫星互联网</t>
+          <t>机器视觉</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>数字阅读</t>
+          <t>获道路测试牌照</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>金属铜</t>
+          <t>新茶饮供应链</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>布洛芬</t>
+          <t>柔性传感器</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>废气处理</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -10335,15 +10335,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>涤纶</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>卫星互联网</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>获道路测试牌照</t>
+          <t>互联网入口平台</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>塑料餐饮具</t>
+          <t>智能网联</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>新冠特效药</t>
+          <t>获新订单</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -10393,15 +10393,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>硅基负极</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>智能终端</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>互联网入口平台</t>
+          <t>玻璃封装载板</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>新茶饮供应链</t>
+          <t>军事仿真</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>自动紧急制动AEB</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>近期签大单</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -10451,7 +10451,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>混凝土外加剂</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>智能终端</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>玻璃封装载板</t>
+          <t>面板</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>智能网联</t>
+          <t>军用无线通信设备</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>柔性传感器</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -10509,7 +10509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>硅基负极</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>面板</t>
+          <t>超高分子量聚乙烯</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>军事仿真</t>
+          <t>卫星</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>获新订单</t>
+          <t>线控制动产品</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -10567,7 +10567,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>无人驾驶</t>
+          <t>低价股</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯</t>
+          <t>革基布</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>军用无线通信设备</t>
+          <t>中船系</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>自动紧急制动AEB</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -10625,15 +10625,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>无人驾驶</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>革基布</t>
+          <t>锆钛资源扩张</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>卫星</t>
+          <t>薄膜电容</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>轻型商用车</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -10683,15 +10683,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>两轮车</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>锆钛资源扩张</t>
+          <t>灵巧手</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>中船系</t>
+          <t>水务全产业链</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>线控制动产品</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -10741,7 +10741,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>钙钛矿电池</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中俄贸易</t>
+          <t>两轮车</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>灵巧手</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>薄膜电容</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>医疗信息化</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -10799,7 +10799,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>中俄贸易</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>新型工业化</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>水务全产业链</t>
+          <t>智能物流系统</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>工业缝纫机</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -10857,7 +10857,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>智能电动床</t>
+          <t>钙钛矿电池</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美容护理</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>新型工业化</t>
+          <t>电子元器件分销</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>精确制导</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>拟进行资产置换</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>轻型商用车</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -10915,7 +10915,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>美容护理</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>电子元器件分销</t>
+          <t>维生素</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>智能物流系统</t>
+          <t>瓷介电容器</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>医疗信息化</t>
+          <t>控股股东拟变更为江钨控股</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -10973,7 +10973,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>智能电动床</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>维生素</t>
+          <t>专网通信</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>精确制导</t>
+          <t>高空作业平台</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>工业缝纫机</t>
+          <t>轴承</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -11031,7 +11031,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>电梯</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>资产注入预期</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>专网通信</t>
+          <t>链传动</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>瓷介电容器</t>
+          <t>水产品加工</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>拟进行资产置换</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -11089,7 +11089,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>食用菌</t>
+          <t>资产注入预期</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>链传动</t>
+          <t>稀贵金属回收</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>高空作业平台</t>
+          <t>户外家具</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>控股股东拟变更为江钨控股</t>
+          <t>粤港澳大湾区</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -11147,7 +11147,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>有机硅胶粘剂</t>
+          <t>电梯</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -11155,11 +11155,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>食用菌</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>稀贵金属回收</t>
+          <t>实景演艺</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>水产品加工</t>
+          <t>服装定制</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>轴承</t>
+          <t>卫浴产品</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>钠电池</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -11205,7 +11205,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>实景演艺</t>
+          <t>智能化塑机</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>户外家具</t>
+          <t>外贸</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -11263,7 +11263,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>有机硅胶粘剂</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>辅助生殖</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>智能化塑机</t>
+          <t>薄膜</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>服装定制</t>
+          <t>家具</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>粤港澳大湾区</t>
+          <t>拟并购先导电科</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -11321,7 +11321,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>薄膜</t>
+          <t>通用机械</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>外贸</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>红外光学</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -11379,7 +11379,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>通用机械</t>
+          <t>西部大开发</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家具</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>拟在印尼建产</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>钠电池</t>
+          <t>无人配送车</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -11437,7 +11437,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>墨西哥生产基地</t>
+          <t>北美市场</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>西部大开发</t>
+          <t>助听器</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>芳纶</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>拟并购先导电科</t>
+          <t>制冷电器</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -11495,7 +11495,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>客户合作</t>
+          <t>墨西哥生产基地</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>助听器</t>
+          <t>实控人将变更为中创新航</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>基因检测</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>红外光学</t>
+          <t>早餐</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -11553,7 +11553,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>客户合作</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>实控人将变更为中创新航</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>芳纶</t>
+          <t>智能医疗</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>拟在印尼建产</t>
+          <t>团餐</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -11611,7 +11611,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>基因检测</t>
+          <t>拟置入电投核能100%股权</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>制冷电器</t>
+          <t>复合调味料</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -11659,7 +11659,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>无人配送车</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -11669,7 +11669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>智慧灯杆</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>泵</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>智能医疗</t>
+          <t>聚酰胺6（尼龙6）</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>早餐</t>
+          <t>渠道拓展</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -11727,7 +11727,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>医疗装备</t>
+          <t>智慧灯杆</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>泵</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>拟置入电投核能100%股权</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>团餐</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -11785,7 +11785,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>高标准农田建设</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>此前为巴基斯坦提供配套</t>
+          <t>医疗装备</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>智慧家居</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>聚酰胺6（尼龙6）</t>
+          <t>光网络设备</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>复合调味料</t>
+          <t>此前转让子公司股权</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -11843,7 +11843,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>工业制动器</t>
+          <t>此前为巴基斯坦提供配套</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>智慧家居</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>海外市场增长</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>渠道拓展</t>
+          <t>公司称将持续推进收购工作</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -11901,7 +11901,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>高标准农田建设</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>工业制动器</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>化肥</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>光网络设备</t>
+          <t>卫星导航</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -11941,7 +11941,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>天津水务集团资产注入猜想</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>高压快充</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -11959,7 +11959,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>磁悬浮技术产品</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>化肥</t>
+          <t>股东变更</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>海外市场增长</t>
+          <t>农机自动驾驶</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>此前转让子公司股权</t>
+          <t>污水处理</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>质价比战略</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -12017,7 +12017,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>出口美国</t>
+          <t>磁悬浮技术产品</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>股东变更</t>
+          <t>肝素产业链</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>卫星导航</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>公司称将持续推进收购工作</t>
+          <t>日用玻璃</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>智能包装设备</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -12075,7 +12075,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>供热</t>
+          <t>出口美国</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>肝素产业链</t>
+          <t>网约车</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>农机自动驾驶</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>天津水务集团资产注入猜想</t>
+          <t>海外布局</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>高压快充</t>
+          <t>显示器件</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -12133,7 +12133,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>集装箱用产品</t>
+          <t>供热</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>网约车</t>
+          <t>股权投资</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>石油</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>污水处理</t>
+          <t>盐湖提锂</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>质价比战略</t>
+          <t>越南产能释放</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -12191,15 +12191,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>防爆设备</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海洋馆</t>
+          <t>集装箱用产品</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>股权投资</t>
+          <t>矿用车</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>虚拟仿真</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>日用玻璃</t>
+          <t>膜技术</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>智能包装设备</t>
+          <t>近期中标</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -12249,15 +12249,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>智能矿山</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天然气</t>
+          <t>海洋馆</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>矿用车</t>
+          <t>美国撤销越南部分钢制车轮范围调查</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>石油</t>
+          <t>罐式集装箱</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>海外布局</t>
+          <t>定制家具</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>显示器件</t>
+          <t>轨交装备</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -12307,7 +12307,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>滚珠丝杠</t>
+          <t>防爆设备</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>产业新城服务商转型</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>美国撤销越南部分钢制车轮范围调查</t>
+          <t>解决同业竞争承诺</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>虚拟仿真</t>
+          <t>医疗设备</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>盐湖提锂</t>
+          <t>环卫装备</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>越南产能释放</t>
+          <t>增持</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -12365,7 +12365,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>智能矿山</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>石英制品</t>
+          <t>产业新城服务商转型</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>解决同业竞争承诺</t>
+          <t>口腔医疗</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>罐式集装箱</t>
+          <t>金霉素</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>膜技术</t>
+          <t>智能制造装备</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>近期中标</t>
+          <t>天然气液化加工</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -12423,7 +12423,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>车联网</t>
+          <t>滚珠丝杠</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>与辉瑞订立许可协议</t>
+          <t>石英制品</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>口腔医疗</t>
+          <t>水泥装备</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>医疗设备</t>
+          <t>动物保健品</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>定制家具</t>
+          <t>子公司与宝德计算机合资</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>轨交装备</t>
+          <t>低空防御</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -12481,7 +12481,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>拟购买海德利森100%股权</t>
+          <t>与辉瑞订立许可协议</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>水泥装备</t>
+          <t>煤矿机械</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>金霉素</t>
+          <t>提高美国市场终端售价</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>环卫装备</t>
+          <t>橡胶</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>增持</t>
+          <t>红外光电</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -12539,7 +12539,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>全球化布局</t>
+          <t>车联网</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>拟购买海德利森100%股权</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>煤矿机械</t>
+          <t>年报营收增长</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>动物保健品</t>
+          <t>丝绸全产业链</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>智能制造装备</t>
+          <t>军民融合</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>天然气液化加工</t>
+          <t>印刷版材</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -12597,7 +12597,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>基建</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>年报营收增长</t>
+          <t>儿童自行车</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>提高美国市场终端售价</t>
+          <t>海外供应链布局</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>子公司与宝德计算机合资</t>
+          <t>泵产业</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>低空防御</t>
+          <t>光储充</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -12655,7 +12655,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>农药</t>
+          <t>全球化布局</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>基建</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>儿童自行车</t>
+          <t>宇树科技合作</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -12687,7 +12687,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>丝绸全产业链</t>
+          <t>新中式</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>橡胶</t>
+          <t>拟发行股份购买三门峡铝业100%股权</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>红外光电</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -12713,7 +12713,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>调入港股通</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>拟收购英迪芯微控股权</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>宇树科技合作</t>
+          <t>教育</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>海外供应链布局</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>军民融合</t>
+          <t>氧化铝</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>印刷版材</t>
+          <t>精装修</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -12771,7 +12771,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>农药</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -12779,7 +12779,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>珠宝首饰</t>
+          <t>拟收购英迪芯微控股权</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>教育</t>
+          <t>调改升级</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>新中式</t>
+          <t>现代物流服务商</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>泵产业</t>
+          <t>甲醛</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>光储充</t>
+          <t>音响</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -12829,7 +12829,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>签订2.97亿元光学系统研制合同</t>
+          <t>调入港股通</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>收购醋纤公司67%股权</t>
+          <t>珠宝首饰</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>调改升级</t>
+          <t>高精度零部件</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>干散货运输</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>拟发行股份购买三门峡铝业100%股权</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>瓶坯智能成型系统</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -12887,7 +12887,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>大股东长春光机所</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -12895,7 +12895,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>高精度零部件</t>
+          <t>美墨工厂</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>现代物流服务商</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>氧化铝</t>
+          <t>此前进行重大资产购买</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>精装修</t>
+          <t>新型绿色农药制剂</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -12945,7 +12945,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>签订2.97亿元光学系统研制合同</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>美墨工厂</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>干散货运输</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>甲醛</t>
+          <t>纸质包装</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>音响</t>
+          <t>水溶肥料</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -13003,7 +13003,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>拟6935.66万元收购德国SMS公司</t>
+          <t>大股东长春光机所</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -13027,7 +13027,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>维保市场</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>数字货币</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -13043,7 +13043,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>拟收购尚阳通</t>
+          <t>控股股东为长江产业集团</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>瓶坯智能成型系统</t>
+          <t>发布天工超级智能体</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -13061,7 +13061,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>智能数控装备</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>自动驾驶物流车</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>维保市场</t>
+          <t>控股股东增持</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>财险龙头</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>MiniLED</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>新型绿色农药制剂</t>
+          <t>昂拉地韦片获批上市</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -13119,7 +13119,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>拟6935.66万元收购德国SMS公司</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>比亚迪等客车客户</t>
+          <t>自动驾驶物流车</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>控股股东增持</t>
+          <t>金刚线</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>数字货币</t>
+          <t>投资收益增长</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>纸质包装</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>水溶肥料</t>
+          <t>小型堆核岛主设备关键装备制造</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -13177,7 +13177,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>智能数控装备</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>比亚迪等客车客户</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>金刚线</t>
+          <t>丝杠</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>财险龙头</t>
+          <t>敦煌网合作</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>发布天工超级智能体</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -13235,7 +13235,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>蜡烛</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CDMO业务扩展</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>丝杠</t>
+          <t>预重整</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>投资收益增长</t>
+          <t>整车运输物流</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>小型堆核岛主设备关键装备制造</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -13293,7 +13293,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>涨价</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>集采中标</t>
+          <t>CDMO业务扩展</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>预重整</t>
+          <t>智能交互</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>敦煌网合作</t>
+          <t>拟转让中山证券股权</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>焊接材料</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -13351,7 +13351,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>北京玄戒</t>
+          <t>蜡烛</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>染料价格回暖</t>
+          <t>集采中标</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>智能交互</t>
+          <t>首发经济</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>整车运输物流</t>
+          <t>电气绝缘材料</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>受让控股子公司少数股东部分股权</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>此前收购中达金属60%股权</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -13409,7 +13409,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>时装</t>
+          <t>涨价</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>染料价格回暖</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>首发经济</t>
+          <t>视觉内容版权</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>拟转让中山证券股权</t>
+          <t>胶原蛋白研发</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>儿童药</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>焊接材料</t>
+          <t>化学药</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -13467,7 +13467,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>北京玄戒</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>视觉内容版权</t>
+          <t>数字基础设施建设</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>电气绝缘材料</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -13507,7 +13507,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>此前收购中达金属60%股权</t>
+          <t>流感用药</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -13525,7 +13525,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>数字基础设施建设</t>
+          <t>控股股东、实控人拟变更</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>胶原蛋白研发</t>
+          <t>美国建厂</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>流感用药</t>
+          <t>胶粘解决方案</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -13583,7 +13583,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>小米</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>字节</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>控股股东、实控人拟变更</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>辅酶Q10</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>儿童药</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>胶粘解决方案</t>
+          <t>基因测序</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -13641,7 +13641,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>超导</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>字节</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>海外业务拓展</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -13673,7 +13673,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>美国建厂</t>
+          <t>抗感染药物</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>基因测序</t>
+          <t>出生缺陷预防</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -13699,7 +13699,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>线性驱动系统</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>海外业务拓展</t>
+          <t>超导磁体冷却设备</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>辅酶Q10</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>出生缺陷预防</t>
+          <t>泰国工厂投产</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -13757,7 +13757,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>超导</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>境外产能布局</t>
+          <t>线性驱动系统</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>超导磁体冷却设备</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>抗感染药物</t>
+          <t>户外休闲家具</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>黄金珠宝</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>泰国工厂投产</t>
+          <t>餐饮具</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -13815,7 +13815,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>智能物流</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>境外产能布局</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>马达</t>
+          <t>水泥</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>餐饮具</t>
+          <t>环保包装</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -13873,7 +13873,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>电子纸</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>水泥</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>户外休闲家具</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>环保包装</t>
+          <t>PBO单体</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -13931,7 +13931,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>智能物流</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>电子纸</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>6G</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>酶解蛋白产品</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>黄金珠宝</t>
+          <t>珠宝</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>PBO单体</t>
+          <t>染发剂原料</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -13989,7 +13989,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>工业自动化控制产品</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6G</t>
+          <t>对讲机终端</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>饲料添加剂</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>染发剂原料</t>
+          <t>抗量子密码</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -14047,7 +14047,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>工业自动化控制产品</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>对讲机终端</t>
+          <t>民爆</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>酶解蛋白产品</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -14095,7 +14095,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>抗量子密码</t>
+          <t>专精特新小巨人</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -14105,7 +14105,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美国生产基地</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>民爆</t>
+          <t>丝绸文创</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>饲料添加剂</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>珠宝</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>专精特新小巨人</t>
+          <t>LCP重庆基地投产</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -14163,7 +14163,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>特种钢丝绳</t>
+          <t>美国生产基地</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>丝绸文创</t>
+          <t>数码印花技术</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>供货蜜雪冰城</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>LCP重庆基地投产</t>
+          <t>左旋对羟基苯甘氨酸系列</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -14221,7 +14221,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>发动机零部件</t>
+          <t>特种钢丝绳</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>数码印花技术</t>
+          <t>市场拓展</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>香料</t>
+          <t>咖啡种植</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -14261,7 +14261,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>左旋对羟基苯甘氨酸系列</t>
+          <t>研发投入增长</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -14279,7 +14279,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>光储</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>出口美国业务占比少</t>
+          <t>发动机零部件</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>市场拓展</t>
+          <t>煤电一体化</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>罗非鱼</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -14327,7 +14327,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>研发投入增长</t>
+          <t>问界</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -14337,7 +14337,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>聚氨酯材料</t>
+          <t>中药</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>浓缩果汁</t>
+          <t>出口美国业务占比少</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>煤电一体化</t>
+          <t>东南亚销售</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>咖啡种植</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>小米概念</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>问界</t>
+          <t>行星滚柱丝杠</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -14395,7 +14395,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>光储</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>浓缩果汁</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>东南亚销售</t>
+          <t>钨制品</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>罗非鱼</t>
+          <t>高股息</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -14435,25 +14435,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>拟合资设立境外子公司</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>行星滚柱丝杠</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>传感器</t>
+          <t>聚氨酯材料</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14461,7 +14453,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -14477,7 +14469,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>钨制品</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -14485,7 +14477,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>合资公司注册登记</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -14493,7 +14485,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>EPS产品</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -14503,7 +14495,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>卡牌</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14511,7 +14503,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -14527,7 +14519,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>此前提及东南亚</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -14535,7 +14527,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>高股息</t>
+          <t>阿尔茨海默概念</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -14543,7 +14535,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>小米概念</t>
+          <t>光学镜头</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -14553,7 +14545,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>烟草</t>
+          <t>传感器</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14561,7 +14553,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>聚醚多元醇</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -14577,7 +14569,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>此前提及东南亚</t>
+          <t>持股国泰君安</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -14585,7 +14577,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>合资公司注册登记</t>
+          <t>布洛芬</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -14593,7 +14585,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -14603,7 +14595,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>机器视觉</t>
+          <t>卡牌</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -14611,7 +14603,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>特种钢丝</t>
+          <t>聚醚多元醇</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -14627,7 +14619,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>持股国泰君安</t>
+          <t>金属铜</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -14635,7 +14627,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>阿尔茨海默概念</t>
+          <t>新冠特效药</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -14643,10 +14635,60 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="L77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>烟草</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>特种钢丝</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>数字阅读</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>塑料餐饮具</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>钨</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>终止股权转让</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -216,7 +216,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -5574,7 +5574,7 @@
     <row r="10">
       <c r="A10" s="24" t="inlineStr">
         <is>
-          <t>汽车(66)</t>
+          <t>医药(66)</t>
         </is>
       </c>
       <c r="B10" s="14" t="inlineStr">
@@ -5646,7 +5646,7 @@
     <row r="11">
       <c r="A11" s="26" t="inlineStr">
         <is>
-          <t>医药(65)</t>
+          <t>汽车(66)</t>
         </is>
       </c>
       <c r="B11" s="27" t="inlineStr">
@@ -7686,7 +7686,7 @@
           <t>长青集团</t>
         </is>
       </c>
-      <c r="N40" s="12" t="inlineStr">
+      <c r="N40" s="23" t="inlineStr">
         <is>
           <t>华森制药</t>
         </is>
@@ -12020,7 +12020,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>中成药</t>
+          <t>乳业、养殖业客户</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>乳业、养殖业客户</t>
+          <t>SPD服务</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>SPD服务</t>
+          <t>控股股东重整</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>控股股东重整</t>
+          <t>精密五金</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>精密五金</t>
+          <t>二手车</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>二手车</t>
+          <t>储能项目</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>储能项目</t>
+          <t>氟氯虫双酰胺</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>氟氯虫双酰胺</t>
+          <t>实控人中电科</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>实控人中电科</t>
+          <t>农业综合服务</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>农业综合服务</t>
+          <t>薄荷醇</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>薄荷醇</t>
+          <t>草甘膦</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>草甘膦</t>
+          <t>光气资源</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>光气资源</t>
+          <t>京东增持</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>京东增持</t>
+          <t>新材料蜡烛</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>新材料蜡烛</t>
+          <t>农药全产业链</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>农药全产业链</t>
+          <t>募投项目投产</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>募投项目投产</t>
+          <t>草铵膦</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>草铵膦</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>变速器</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>变速器</t>
+          <t>实控人此前变更</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -13176,14 +13176,6 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>实控人此前变更</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="涨停分析" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="未分类原因" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="题材颜色图例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +33,9 @@
     <font>
       <i val="1"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="18">
@@ -122,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -151,11 +155,16 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +237,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -13860,4 +13884,341 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>热门概念图例</t>
+        </is>
+      </c>
+      <c r="B1" s="35" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>概念</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>出现次数</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="inlineStr">
+        <is>
+          <t>新能源</t>
+        </is>
+      </c>
+      <c r="B3" s="35" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="38" t="inlineStr">
+        <is>
+          <t>跨境</t>
+        </is>
+      </c>
+      <c r="B4" s="35" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="39" t="inlineStr">
+        <is>
+          <t>大消费</t>
+        </is>
+      </c>
+      <c r="B5" s="35" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="inlineStr">
+        <is>
+          <t>医药</t>
+        </is>
+      </c>
+      <c r="B6" s="35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="41" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B7" s="35" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="42" t="inlineStr">
+        <is>
+          <t>无人经济</t>
+        </is>
+      </c>
+      <c r="B8" s="35" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="43" t="inlineStr">
+        <is>
+          <t>军工</t>
+        </is>
+      </c>
+      <c r="B9" s="35" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="44" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
+      <c r="B10" s="35" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="45" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="B11" s="35" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="inlineStr">
+        <is>
+          <t>其他概念</t>
+        </is>
+      </c>
+      <c r="B12" s="35" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="inlineStr">
+        <is>
+          <t>化工</t>
+        </is>
+      </c>
+      <c r="B13" s="35" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>重组</t>
+        </is>
+      </c>
+      <c r="B14" s="35" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="inlineStr">
+        <is>
+          <t>新传媒</t>
+        </is>
+      </c>
+      <c r="B15" s="35" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="B16" s="35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="35" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+      <c r="B17" s="35" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+      <c r="B18" s="35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="35" t="inlineStr">
+        <is>
+          <t>新消费</t>
+        </is>
+      </c>
+      <c r="B19" s="35" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="inlineStr">
+        <is>
+          <t>航天</t>
+        </is>
+      </c>
+      <c r="B20" s="35" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="35" t="inlineStr">
+        <is>
+          <t>电子元件</t>
+        </is>
+      </c>
+      <c r="B21" s="35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="inlineStr">
+        <is>
+          <t>算力</t>
+        </is>
+      </c>
+      <c r="B22" s="35" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="inlineStr">
+        <is>
+          <t>消费电子</t>
+        </is>
+      </c>
+      <c r="B23" s="35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="35" t="inlineStr">
+        <is>
+          <t>金融</t>
+        </is>
+      </c>
+      <c r="B24" s="35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="35" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="B25" s="35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="inlineStr">
+        <is>
+          <t>新材料</t>
+        </is>
+      </c>
+      <c r="B26" s="35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="35" t="inlineStr">
+        <is>
+          <t>旅游</t>
+        </is>
+      </c>
+      <c r="B27" s="35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="36" t="inlineStr">
+        <is>
+          <t>排除的概念</t>
+        </is>
+      </c>
+      <c r="B28" s="35" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35" t="inlineStr">
+        <is>
+          <t>业绩增长</t>
+        </is>
+      </c>
+      <c r="B29" s="35" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>扭亏为盈</t>
+        </is>
+      </c>
+      <c r="B30" s="35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="35" t="inlineStr">
+        <is>
+          <t>国企</t>
+        </is>
+      </c>
+      <c r="B31" s="35" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="46" t="inlineStr">
+        <is>
+          <t>多次上榜</t>
+        </is>
+      </c>
+      <c r="B32" s="35" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,13 @@
     </font>
     <font>
       <i val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
       <sz val="9"/>
     </font>
     <font>
@@ -164,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -172,24 +179,28 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -242,12 +253,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -4983,7 +4994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -5089,737 +5100,738 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>创业指</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>-1.92%</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>-0.19%</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>-0.33%</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>0.77%</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>0.83%</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>-0.96%</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>-1.18%</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>-0.80%</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>-0.68%</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>-0.31%</t>
         </is>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="7" t="inlineStr">
         <is>
           <t>1.37%</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>-0.96%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>成交量(亿)</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>176.73</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>163.28</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>165.91</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>185.32</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>175.59</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>169.78</t>
         </is>
       </c>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>178.39</t>
         </is>
       </c>
-      <c r="I3" s="8" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>147.79</t>
         </is>
       </c>
-      <c r="J3" s="8" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>150.97</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>160.74</t>
         </is>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>196.15</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>192.07</t>
         </is>
       </c>
+      <c r="N3" s="10" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>新能源(128)</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>渝三峡A8</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>红墙股份11</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>成飞集成9</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>迎丰股份7</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>南京港6</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>中超控股8</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H4" s="14" t="inlineStr">
         <is>
           <t>中超控股9</t>
         </is>
       </c>
-      <c r="I4" s="12" t="inlineStr">
+      <c r="I4" s="14" t="inlineStr">
         <is>
           <t>中超控股10</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
+      <c r="J4" s="14" t="inlineStr">
         <is>
           <t>中超控股11</t>
         </is>
       </c>
-      <c r="K4" s="13" t="inlineStr">
+      <c r="K4" s="15" t="inlineStr">
         <is>
           <t>尤夫股份7</t>
         </is>
       </c>
-      <c r="L4" s="12" t="inlineStr">
+      <c r="L4" s="14" t="inlineStr">
         <is>
           <t>中超控股12</t>
         </is>
       </c>
-      <c r="M4" s="13" t="inlineStr">
+      <c r="M4" s="15" t="inlineStr">
         <is>
           <t>棕榈股份6</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="17" t="inlineStr">
         <is>
           <t>跨境(117)</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>成飞集成7</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>渝三峡A9</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>利君股份8</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>苏州龙杰6</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>综艺股份5</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>滨海能源4</t>
         </is>
       </c>
-      <c r="H5" s="13" t="inlineStr">
+      <c r="H5" s="15" t="inlineStr">
         <is>
           <t>苏州龙杰7</t>
         </is>
       </c>
-      <c r="I5" s="13" t="inlineStr">
+      <c r="I5" s="15" t="inlineStr">
         <is>
           <t>苏州龙杰8</t>
         </is>
       </c>
-      <c r="J5" s="13" t="inlineStr">
+      <c r="J5" s="15" t="inlineStr">
         <is>
           <t>苏州龙杰9</t>
         </is>
       </c>
-      <c r="K5" s="10" t="inlineStr">
+      <c r="K5" s="12" t="inlineStr">
         <is>
           <t>滨海能源6</t>
         </is>
       </c>
-      <c r="L5" s="16" t="inlineStr">
+      <c r="L5" s="18" t="inlineStr">
         <is>
           <t>通达电气6</t>
         </is>
       </c>
-      <c r="M5" s="10" t="inlineStr">
+      <c r="M5" s="12" t="inlineStr">
         <is>
           <t>百利电气6</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="inlineStr">
+      <c r="A6" s="19" t="inlineStr">
         <is>
           <t>大消费(97)</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>迎丰股份5</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>成飞集成8</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>中超控股7</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>综艺股份4</t>
         </is>
       </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
         <is>
           <t>丽人丽妆5</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>棕榈股份4</t>
         </is>
       </c>
-      <c r="H6" s="18" t="inlineStr">
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t>丽人丽妆6</t>
         </is>
       </c>
-      <c r="I6" s="13" t="inlineStr">
+      <c r="I6" s="15" t="inlineStr">
         <is>
           <t>宜宾纸业5</t>
         </is>
       </c>
-      <c r="J6" s="13" t="inlineStr">
+      <c r="J6" s="15" t="inlineStr">
         <is>
           <t>尤夫股份6</t>
         </is>
       </c>
-      <c r="K6" s="16" t="inlineStr">
+      <c r="K6" s="18" t="inlineStr">
         <is>
           <t>通达电气5</t>
         </is>
       </c>
-      <c r="L6" s="10" t="inlineStr">
+      <c r="L6" s="12" t="inlineStr">
         <is>
           <t>尚纬股份6</t>
         </is>
       </c>
-      <c r="M6" s="16" t="inlineStr">
+      <c r="M6" s="18" t="inlineStr">
         <is>
           <t>德邦股份4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>医药(81)</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>苏州龙杰5</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>利君股份7</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>迎丰股份6</t>
         </is>
       </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>丽人丽妆4</t>
         </is>
       </c>
-      <c r="F7" s="20" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>郑中设计5</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
+      <c r="G7" s="20" t="inlineStr">
         <is>
           <t>浪莎股份4</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="12" t="inlineStr">
         <is>
           <t>滨海能源5</t>
         </is>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I7" s="12" t="inlineStr">
         <is>
           <t>安纳达5</t>
         </is>
       </c>
-      <c r="J7" s="13" t="inlineStr">
+      <c r="J7" s="15" t="inlineStr">
         <is>
           <t>京华激光5</t>
         </is>
       </c>
-      <c r="K7" s="10" t="inlineStr">
+      <c r="K7" s="12" t="inlineStr">
         <is>
           <t>尚纬股份5</t>
         </is>
       </c>
-      <c r="L7" s="10" t="inlineStr">
+      <c r="L7" s="12" t="inlineStr">
         <is>
           <t>王子新材6</t>
         </is>
       </c>
-      <c r="M7" s="21" t="inlineStr">
+      <c r="M7" s="23" t="inlineStr">
         <is>
           <t>华森制药4</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="inlineStr">
+      <c r="A8" s="24" t="inlineStr">
         <is>
           <t>机器人(80)</t>
         </is>
       </c>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>交大昂立4</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>中超控股6</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>南京港5</t>
         </is>
       </c>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>拉芳家化4</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
         <is>
           <t>天汽模4</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>王子新材4</t>
         </is>
       </c>
-      <c r="H8" s="13" t="inlineStr">
+      <c r="H8" s="15" t="inlineStr">
         <is>
           <t>尤夫股份5</t>
         </is>
       </c>
-      <c r="I8" s="13" t="inlineStr">
+      <c r="I8" s="15" t="inlineStr">
         <is>
           <t>棕榈股份5</t>
         </is>
       </c>
-      <c r="J8" s="10" t="inlineStr">
+      <c r="J8" s="12" t="inlineStr">
         <is>
           <t>汇得科技5</t>
         </is>
       </c>
-      <c r="K8" s="10" t="inlineStr">
+      <c r="K8" s="12" t="inlineStr">
         <is>
           <t>融发核电4</t>
         </is>
       </c>
-      <c r="L8" s="10" t="inlineStr">
+      <c r="L8" s="12" t="inlineStr">
         <is>
           <t>融发核电5</t>
         </is>
       </c>
-      <c r="M8" s="13" t="inlineStr">
+      <c r="M8" s="15" t="inlineStr">
         <is>
           <t>御银股份3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>无人经济(58)</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>集泰股份3</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>集泰股份4</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>宁波海运5</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="22" t="inlineStr">
         <is>
           <t>郑中设计4</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>安纳达4</t>
         </is>
       </c>
-      <c r="G9" s="21" t="inlineStr">
+      <c r="G9" s="23" t="inlineStr">
         <is>
           <t>三生国健4</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="H9" s="12" t="inlineStr">
         <is>
           <t>王子新材5</t>
         </is>
       </c>
-      <c r="I9" s="10" t="inlineStr">
+      <c r="I9" s="12" t="inlineStr">
         <is>
           <t>汇得科技4</t>
         </is>
       </c>
-      <c r="J9" s="13" t="inlineStr">
+      <c r="J9" s="15" t="inlineStr">
         <is>
           <t>莱绅通灵5</t>
         </is>
       </c>
-      <c r="K9" s="24" t="inlineStr">
+      <c r="K9" s="26" t="inlineStr">
         <is>
           <t>云内动力3</t>
         </is>
       </c>
-      <c r="L9" s="24" t="inlineStr">
+      <c r="L9" s="26" t="inlineStr">
         <is>
           <t>云内动力4</t>
         </is>
       </c>
-      <c r="M9" s="21" t="inlineStr">
+      <c r="M9" s="23" t="inlineStr">
         <is>
           <t>联化科技3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="inlineStr">
+      <c r="A10" s="27" t="inlineStr">
         <is>
           <t>军工(58)</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>南京港3</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>宁波海运4</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>连云港5</t>
         </is>
       </c>
-      <c r="E10" s="12" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>天汽模3</t>
         </is>
       </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>滨海能源3</t>
         </is>
       </c>
-      <c r="G10" s="13" t="inlineStr">
+      <c r="G10" s="15" t="inlineStr">
         <is>
           <t>宜宾纸业4</t>
         </is>
       </c>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>汇得科技3</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
+      <c r="I10" s="12" t="inlineStr">
         <is>
           <t>百利电气4</t>
         </is>
       </c>
-      <c r="J10" s="10" t="inlineStr">
+      <c r="J10" s="12" t="inlineStr">
         <is>
           <t>百利电气5</t>
         </is>
       </c>
-      <c r="K10" s="10" t="inlineStr">
+      <c r="K10" s="12" t="inlineStr">
         <is>
           <t>汇金通3</t>
         </is>
       </c>
-      <c r="L10" s="14" t="inlineStr">
+      <c r="L10" s="16" t="inlineStr">
         <is>
           <t>均瑶健康4</t>
         </is>
       </c>
-      <c r="M10" s="13" t="inlineStr">
+      <c r="M10" s="15" t="inlineStr">
         <is>
           <t>霍普股份2</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="inlineStr">
+      <c r="A11" s="28" t="inlineStr">
         <is>
           <t>汽车(58)</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>宁波海运3</t>
         </is>
       </c>
-      <c r="C11" s="14" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>宁波远洋4</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="20" t="inlineStr">
         <is>
           <t>交大昂立5</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>路畅科技3</t>
         </is>
       </c>
-      <c r="F11" s="27" t="inlineStr">
+      <c r="F11" s="29" t="inlineStr">
         <is>
           <t>湖南天雁3</t>
         </is>
       </c>
-      <c r="G11" s="13" t="inlineStr">
+      <c r="G11" s="15" t="inlineStr">
         <is>
           <t>慧博云通3</t>
         </is>
       </c>
-      <c r="H11" s="21" t="inlineStr">
+      <c r="H11" s="23" t="inlineStr">
         <is>
           <t>一心堂3</t>
         </is>
       </c>
-      <c r="I11" s="13" t="inlineStr">
+      <c r="I11" s="15" t="inlineStr">
         <is>
           <t>莱绅通灵4</t>
         </is>
       </c>
-      <c r="J11" s="10" t="inlineStr">
+      <c r="J11" s="12" t="inlineStr">
         <is>
           <t>尚纬股份4</t>
         </is>
       </c>
-      <c r="K11" s="14" t="inlineStr">
+      <c r="K11" s="16" t="inlineStr">
         <is>
           <t>均瑶健康3</t>
         </is>
       </c>
-      <c r="L11" s="14" t="inlineStr">
+      <c r="L11" s="16" t="inlineStr">
         <is>
           <t>永冠新材4</t>
         </is>
       </c>
-      <c r="M11" s="27" t="inlineStr">
+      <c r="M11" s="29" t="inlineStr">
         <is>
           <t>海联金汇2</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="inlineStr">
+      <c r="A12" s="30" t="inlineStr">
         <is>
           <t>AI(54)</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>宁波远洋3</t>
         </is>
       </c>
-      <c r="C12" s="14" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>南京港4</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>尤夫股份4</t>
         </is>
       </c>
-      <c r="E12" s="24" t="inlineStr">
+      <c r="E12" s="26" t="inlineStr">
         <is>
           <t>万安科技3</t>
         </is>
       </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>浪莎股份3</t>
         </is>
       </c>
-      <c r="G12" s="13" t="inlineStr">
+      <c r="G12" s="15" t="inlineStr">
         <is>
           <t>莱绅通灵3</t>
         </is>
       </c>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="12" t="inlineStr">
         <is>
           <t>金龙羽3</t>
         </is>
       </c>
-      <c r="I12" s="13" t="inlineStr">
+      <c r="I12" s="15" t="inlineStr">
         <is>
           <t>京华激光4</t>
         </is>
       </c>
-      <c r="J12" s="16" t="inlineStr">
+      <c r="J12" s="18" t="inlineStr">
         <is>
           <t>通达电气4</t>
         </is>
       </c>
-      <c r="K12" s="10" t="inlineStr">
+      <c r="K12" s="12" t="inlineStr">
         <is>
           <t>长城电工3</t>
         </is>
       </c>
-      <c r="L12" s="10" t="inlineStr">
+      <c r="L12" s="12" t="inlineStr">
         <is>
           <t>劲旅环境3</t>
         </is>
       </c>
-      <c r="M12" s="13" t="inlineStr">
+      <c r="M12" s="15" t="inlineStr">
         <is>
           <t>元隆雅图2</t>
         </is>
@@ -5831,62 +5843,62 @@
           <t>化工(48)</t>
         </is>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>连云港3</t>
         </is>
       </c>
-      <c r="C13" s="14" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>连云港4</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>中毅达4</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
+      <c r="E13" s="12" t="inlineStr">
         <is>
           <t>王子新材3</t>
         </is>
       </c>
-      <c r="F13" s="21" t="inlineStr">
+      <c r="F13" s="23" t="inlineStr">
         <is>
           <t>三生国健3</t>
         </is>
       </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>汇得科技2</t>
         </is>
       </c>
-      <c r="H13" s="13" t="inlineStr">
+      <c r="H13" s="15" t="inlineStr">
         <is>
           <t>京华激光3</t>
         </is>
       </c>
-      <c r="I13" s="10" t="inlineStr">
+      <c r="I13" s="12" t="inlineStr">
         <is>
           <t>尚纬股份3</t>
         </is>
       </c>
-      <c r="J13" s="10" t="inlineStr">
+      <c r="J13" s="12" t="inlineStr">
         <is>
           <t>金龙羽4</t>
         </is>
       </c>
-      <c r="K13" s="13" t="inlineStr">
+      <c r="K13" s="15" t="inlineStr">
         <is>
           <t>会稽山3</t>
         </is>
       </c>
-      <c r="L13" s="10" t="inlineStr">
+      <c r="L13" s="12" t="inlineStr">
         <is>
           <t>江苏新能3</t>
         </is>
       </c>
-      <c r="M13" s="13" t="inlineStr">
+      <c r="M13" s="15" t="inlineStr">
         <is>
           <t>翠微股份2</t>
         </is>
@@ -5898,62 +5910,62 @@
           <t>重组(47)</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>盛泰集团3</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>京运通3</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>综艺股份3</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>百利电气3</t>
         </is>
       </c>
-      <c r="F14" s="13" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>空港股份3</t>
         </is>
       </c>
-      <c r="G14" s="13" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>宝光股份2</t>
         </is>
       </c>
-      <c r="H14" s="21" t="inlineStr">
+      <c r="H14" s="23" t="inlineStr">
         <is>
           <t>海森药业2</t>
         </is>
       </c>
-      <c r="I14" s="16" t="inlineStr">
+      <c r="I14" s="18" t="inlineStr">
         <is>
           <t>通达电气3</t>
         </is>
       </c>
-      <c r="J14" s="10" t="inlineStr">
+      <c r="J14" s="12" t="inlineStr">
         <is>
           <t>融发核电3</t>
         </is>
       </c>
-      <c r="K14" s="10" t="inlineStr">
+      <c r="K14" s="12" t="inlineStr">
         <is>
           <t>雪人股份3</t>
         </is>
       </c>
-      <c r="L14" s="16" t="inlineStr">
+      <c r="L14" s="18" t="inlineStr">
         <is>
           <t>德邦股份3</t>
         </is>
       </c>
-      <c r="M14" s="13" t="inlineStr">
+      <c r="M14" s="15" t="inlineStr">
         <is>
           <t>时代出版2</t>
         </is>
@@ -5965,62 +5977,62 @@
           <t>新传媒(39)</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>尤夫股份3</t>
         </is>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr">
         <is>
           <t>中毅达3</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>安纳达3</t>
         </is>
       </c>
-      <c r="E15" s="24" t="inlineStr">
+      <c r="E15" s="26" t="inlineStr">
         <is>
           <t>信隆健康3</t>
         </is>
       </c>
-      <c r="F15" s="13" t="inlineStr">
+      <c r="F15" s="15" t="inlineStr">
         <is>
           <t>宜宾纸业3</t>
         </is>
       </c>
-      <c r="G15" s="13" t="inlineStr">
+      <c r="G15" s="15" t="inlineStr">
         <is>
           <t>廊坊发展2</t>
         </is>
       </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="H15" s="12" t="inlineStr">
         <is>
           <t>尚纬股份2</t>
         </is>
       </c>
-      <c r="I15" s="10" t="inlineStr">
+      <c r="I15" s="12" t="inlineStr">
         <is>
           <t>融发核电2</t>
         </is>
       </c>
-      <c r="J15" s="12" t="inlineStr">
+      <c r="J15" s="14" t="inlineStr">
         <is>
           <t>烽火电子3</t>
         </is>
       </c>
-      <c r="K15" s="10" t="inlineStr">
+      <c r="K15" s="12" t="inlineStr">
         <is>
           <t>江苏新能2</t>
         </is>
       </c>
-      <c r="L15" s="14" t="inlineStr">
+      <c r="L15" s="16" t="inlineStr">
         <is>
           <t>宿迁联盛3</t>
         </is>
       </c>
-      <c r="M15" s="13" t="inlineStr">
+      <c r="M15" s="15" t="inlineStr">
         <is>
           <t>恒宝股份2</t>
         </is>
@@ -6032,62 +6044,62 @@
           <t>半导体(32)</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>茂化实华2</t>
         </is>
       </c>
-      <c r="C16" s="20" t="inlineStr">
+      <c r="C16" s="22" t="inlineStr">
         <is>
           <t>郑中设计2</t>
         </is>
       </c>
-      <c r="D16" s="20" t="inlineStr">
+      <c r="D16" s="22" t="inlineStr">
         <is>
           <t>郑中设计3</t>
         </is>
       </c>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>滨海能源2</t>
         </is>
       </c>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>湖南发展3</t>
         </is>
       </c>
-      <c r="G16" s="16" t="inlineStr">
+      <c r="G16" s="18" t="inlineStr">
         <is>
           <t>通达电气2</t>
         </is>
       </c>
-      <c r="H16" s="21" t="inlineStr">
+      <c r="H16" s="23" t="inlineStr">
         <is>
           <t>海辰药业2</t>
         </is>
       </c>
-      <c r="I16" s="10" t="inlineStr">
+      <c r="I16" s="12" t="inlineStr">
         <is>
           <t>哈焊华通2</t>
         </is>
       </c>
-      <c r="J16" s="10" t="inlineStr">
+      <c r="J16" s="12" t="inlineStr">
         <is>
           <t>哈焊华通3</t>
         </is>
       </c>
-      <c r="K16" s="10" t="inlineStr">
+      <c r="K16" s="12" t="inlineStr">
         <is>
           <t>劲旅环境2</t>
         </is>
       </c>
-      <c r="L16" s="24" t="inlineStr">
+      <c r="L16" s="26" t="inlineStr">
         <is>
           <t>合锻智能3</t>
         </is>
       </c>
-      <c r="M16" s="16" t="inlineStr">
+      <c r="M16" s="18" t="inlineStr">
         <is>
           <t>中力股份2</t>
         </is>
@@ -6099,62 +6111,62 @@
           <t>房地产(31)</t>
         </is>
       </c>
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>综艺股份2</t>
         </is>
       </c>
-      <c r="C17" s="18" t="inlineStr">
+      <c r="C17" s="20" t="inlineStr">
         <is>
           <t>丽人丽妆2</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
+      <c r="D17" s="14" t="inlineStr">
         <is>
           <t>吉林化纤3</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>棕榈股份2</t>
         </is>
       </c>
-      <c r="F17" s="13" t="inlineStr">
+      <c r="F17" s="15" t="inlineStr">
         <is>
           <t>棕榈股份3</t>
         </is>
       </c>
-      <c r="G17" s="13" t="inlineStr">
+      <c r="G17" s="15" t="inlineStr">
         <is>
           <t>京华激光2</t>
         </is>
       </c>
-      <c r="H17" s="13" t="inlineStr">
+      <c r="H17" s="15" t="inlineStr">
         <is>
           <t>海翔药业2</t>
         </is>
       </c>
-      <c r="I17" s="14" t="inlineStr">
+      <c r="I17" s="16" t="inlineStr">
         <is>
           <t>永冠新材2</t>
         </is>
       </c>
-      <c r="J17" s="14" t="inlineStr">
+      <c r="J17" s="16" t="inlineStr">
         <is>
           <t>永冠新材3</t>
         </is>
       </c>
-      <c r="K17" s="13" t="inlineStr">
+      <c r="K17" s="15" t="inlineStr">
         <is>
           <t>海利尔2</t>
         </is>
       </c>
-      <c r="L17" s="14" t="inlineStr">
+      <c r="L17" s="16" t="inlineStr">
         <is>
           <t>乐惠国际3</t>
         </is>
       </c>
-      <c r="M17" s="27" t="inlineStr">
+      <c r="M17" s="29" t="inlineStr">
         <is>
           <t>交运股份2</t>
         </is>
@@ -6166,62 +6178,62 @@
           <t>电力(30)</t>
         </is>
       </c>
-      <c r="B18" s="14" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>海程邦达2</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C18" s="12" t="inlineStr">
         <is>
           <t>洪通燃气2</t>
         </is>
       </c>
-      <c r="D18" s="20" t="inlineStr">
+      <c r="D18" s="22" t="inlineStr">
         <is>
           <t>东方中科3</t>
         </is>
       </c>
-      <c r="E18" s="18" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>浪莎股份2</t>
         </is>
       </c>
-      <c r="F18" s="21" t="inlineStr">
+      <c r="F18" s="23" t="inlineStr">
         <is>
           <t>哈三联3</t>
         </is>
       </c>
-      <c r="G18" s="14" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>重庆港2</t>
         </is>
       </c>
-      <c r="H18" s="12" t="inlineStr">
+      <c r="H18" s="14" t="inlineStr">
         <is>
           <t>烽火电子2</t>
         </is>
       </c>
-      <c r="I18" s="10" t="inlineStr">
+      <c r="I18" s="12" t="inlineStr">
         <is>
           <t>雪人股份2</t>
         </is>
       </c>
-      <c r="J18" s="24" t="inlineStr">
+      <c r="J18" s="26" t="inlineStr">
         <is>
           <t>云内动力2</t>
         </is>
       </c>
-      <c r="K18" s="16" t="inlineStr">
+      <c r="K18" s="18" t="inlineStr">
         <is>
           <t>德邦股份2</t>
         </is>
       </c>
-      <c r="L18" s="21" t="inlineStr">
+      <c r="L18" s="23" t="inlineStr">
         <is>
           <t>华森制药3</t>
         </is>
       </c>
-      <c r="M18" s="21" t="inlineStr">
+      <c r="M18" s="23" t="inlineStr">
         <is>
           <t>睿智医药2</t>
         </is>
@@ -6233,58 +6245,58 @@
           <t>新消费(26)</t>
         </is>
       </c>
-      <c r="B19" s="14" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>锦江航运2</t>
         </is>
       </c>
-      <c r="C19" s="20" t="inlineStr">
+      <c r="C19" s="22" t="inlineStr">
         <is>
           <t>东方中科2</t>
         </is>
       </c>
-      <c r="D19" s="18" t="inlineStr">
+      <c r="D19" s="20" t="inlineStr">
         <is>
           <t>拉芳家化3</t>
         </is>
       </c>
-      <c r="E19" s="10" t="inlineStr">
+      <c r="E19" s="12" t="inlineStr">
         <is>
           <t>安彩高科2</t>
         </is>
       </c>
-      <c r="F19" s="13" t="inlineStr">
+      <c r="F19" s="15" t="inlineStr">
         <is>
           <t>慧博云通2</t>
         </is>
       </c>
-      <c r="G19" s="27" t="inlineStr">
+      <c r="G19" s="29" t="inlineStr">
         <is>
           <t>长春一东2</t>
         </is>
       </c>
-      <c r="H19" s="29" t="n"/>
-      <c r="I19" s="13" t="inlineStr">
+      <c r="H19" s="31" t="n"/>
+      <c r="I19" s="15" t="inlineStr">
         <is>
           <t>新金路2</t>
         </is>
       </c>
-      <c r="J19" s="10" t="inlineStr">
+      <c r="J19" s="12" t="inlineStr">
         <is>
           <t>锡装股份2</t>
         </is>
       </c>
-      <c r="K19" s="18" t="inlineStr">
+      <c r="K19" s="20" t="inlineStr">
         <is>
           <t>锦泓集团2</t>
         </is>
       </c>
-      <c r="L19" s="18" t="inlineStr">
+      <c r="L19" s="20" t="inlineStr">
         <is>
           <t>锦泓集团3</t>
         </is>
       </c>
-      <c r="M19" s="24" t="inlineStr">
+      <c r="M19" s="26" t="inlineStr">
         <is>
           <t>福龙马2</t>
         </is>
@@ -6296,54 +6308,54 @@
           <t>航天(26)</t>
         </is>
       </c>
-      <c r="B20" s="14" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>中远海发2</t>
         </is>
       </c>
-      <c r="C20" s="12" t="inlineStr">
+      <c r="C20" s="14" t="inlineStr">
         <is>
           <t>通达股份2</t>
         </is>
       </c>
-      <c r="D20" s="18" t="inlineStr">
+      <c r="D20" s="20" t="inlineStr">
         <is>
           <t>丽人丽妆3</t>
         </is>
       </c>
-      <c r="E20" s="27" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>湖南天雁2</t>
         </is>
       </c>
-      <c r="F20" s="24" t="inlineStr">
+      <c r="F20" s="26" t="inlineStr">
         <is>
           <t>信邦智能2</t>
         </is>
       </c>
-      <c r="G20" s="29" t="n"/>
-      <c r="H20" s="21" t="inlineStr">
+      <c r="G20" s="31" t="n"/>
+      <c r="H20" s="23" t="inlineStr">
         <is>
           <t>众生药业</t>
         </is>
       </c>
-      <c r="I20" s="29" t="n"/>
-      <c r="J20" s="14" t="inlineStr">
+      <c r="I20" s="31" t="n"/>
+      <c r="J20" s="16" t="inlineStr">
         <is>
           <t>均瑶健康2</t>
         </is>
       </c>
-      <c r="K20" s="13" t="inlineStr">
+      <c r="K20" s="15" t="inlineStr">
         <is>
           <t>美邦股份2</t>
         </is>
       </c>
-      <c r="L20" s="16" t="inlineStr">
+      <c r="L20" s="18" t="inlineStr">
         <is>
           <t>启迪环境2</t>
         </is>
       </c>
-      <c r="M20" s="10" t="inlineStr">
+      <c r="M20" s="12" t="inlineStr">
         <is>
           <t>富煌钢构2</t>
         </is>
@@ -6355,62 +6367,62 @@
           <t>电子元件(20)</t>
         </is>
       </c>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="B21" s="14" t="inlineStr">
         <is>
           <t>吉林化纤2</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="12" t="inlineStr">
         <is>
           <t>安纳达2</t>
         </is>
       </c>
-      <c r="D21" s="24" t="inlineStr">
+      <c r="D21" s="26" t="inlineStr">
         <is>
           <t>万安科技2</t>
         </is>
       </c>
-      <c r="E21" s="21" t="inlineStr">
+      <c r="E21" s="23" t="inlineStr">
         <is>
           <t>三生国健2</t>
         </is>
       </c>
-      <c r="F21" s="21" t="inlineStr">
+      <c r="F21" s="23" t="inlineStr">
         <is>
           <t>一心堂2</t>
         </is>
       </c>
-      <c r="G21" s="11" t="inlineStr">
+      <c r="G21" s="13" t="inlineStr">
         <is>
           <t>中恒电气</t>
         </is>
       </c>
-      <c r="H21" s="24" t="inlineStr">
+      <c r="H21" s="26" t="inlineStr">
         <is>
           <t>德迈仕</t>
         </is>
       </c>
-      <c r="I21" s="13" t="inlineStr">
+      <c r="I21" s="15" t="inlineStr">
         <is>
           <t>远望谷</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr">
+      <c r="J21" s="12" t="inlineStr">
         <is>
           <t>汇金通2</t>
         </is>
       </c>
-      <c r="K21" s="14" t="inlineStr">
+      <c r="K21" s="16" t="inlineStr">
         <is>
           <t>乐惠国际2</t>
         </is>
       </c>
-      <c r="L21" s="18" t="inlineStr">
+      <c r="L21" s="20" t="inlineStr">
         <is>
           <t>合兴股份2</t>
         </is>
       </c>
-      <c r="M21" s="16" t="inlineStr">
+      <c r="M21" s="18" t="inlineStr">
         <is>
           <t>绿能慧充2</t>
         </is>
@@ -6422,62 +6434,62 @@
           <t>算力(19)</t>
         </is>
       </c>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="B22" s="20" t="inlineStr">
         <is>
           <t>拉芳家化2</t>
         </is>
       </c>
-      <c r="C22" s="14" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>安正时尚2</t>
         </is>
       </c>
-      <c r="D22" s="12" t="inlineStr">
+      <c r="D22" s="14" t="inlineStr">
         <is>
           <t>天汽模2</t>
         </is>
       </c>
-      <c r="E22" s="13" t="inlineStr">
+      <c r="E22" s="15" t="inlineStr">
         <is>
           <t>九鼎投资2</t>
         </is>
       </c>
-      <c r="F22" s="13" t="inlineStr">
+      <c r="F22" s="15" t="inlineStr">
         <is>
           <t>乐山电力2</t>
         </is>
       </c>
-      <c r="G22" s="14" t="inlineStr">
+      <c r="G22" s="16" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="H22" s="10" t="inlineStr">
+      <c r="H22" s="12" t="inlineStr">
         <is>
           <t>悦达投资</t>
         </is>
       </c>
-      <c r="I22" s="11" t="inlineStr">
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>中国科传</t>
         </is>
       </c>
-      <c r="J22" s="13" t="inlineStr">
+      <c r="J22" s="15" t="inlineStr">
         <is>
           <t>会稽山2</t>
         </is>
       </c>
-      <c r="K22" s="24" t="inlineStr">
+      <c r="K22" s="26" t="inlineStr">
         <is>
           <t>合锻智能2</t>
         </is>
       </c>
-      <c r="L22" s="10" t="inlineStr">
+      <c r="L22" s="12" t="inlineStr">
         <is>
           <t>粤电力A2</t>
         </is>
       </c>
-      <c r="M22" s="24" t="inlineStr">
+      <c r="M22" s="26" t="inlineStr">
         <is>
           <t>路桥信息2</t>
         </is>
@@ -6489,62 +6501,62 @@
           <t>消费电子(15)</t>
         </is>
       </c>
-      <c r="B23" s="14" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>新华锦2</t>
         </is>
       </c>
-      <c r="C23" s="21" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>哈三联2</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="15" t="inlineStr">
         <is>
           <t>路畅科技2</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>金利华电2</t>
         </is>
       </c>
-      <c r="F23" s="10" t="inlineStr">
+      <c r="F23" s="12" t="inlineStr">
         <is>
           <t>金龙羽2</t>
         </is>
       </c>
-      <c r="G23" s="20" t="inlineStr">
+      <c r="G23" s="22" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
       </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="H23" s="12" t="inlineStr">
         <is>
           <t>英联股份</t>
         </is>
       </c>
-      <c r="I23" s="24" t="inlineStr">
+      <c r="I23" s="26" t="inlineStr">
         <is>
           <t>云内动力</t>
         </is>
       </c>
-      <c r="J23" s="10" t="inlineStr">
+      <c r="J23" s="12" t="inlineStr">
         <is>
           <t>长城电工2</t>
         </is>
       </c>
-      <c r="K23" s="21" t="inlineStr">
+      <c r="K23" s="23" t="inlineStr">
         <is>
           <t>华森制药2</t>
         </is>
       </c>
-      <c r="L23" s="16" t="inlineStr">
+      <c r="L23" s="18" t="inlineStr">
         <is>
           <t>玉禾田2</t>
         </is>
       </c>
-      <c r="M23" s="29" t="n"/>
+      <c r="M23" s="31" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6552,62 +6564,62 @@
           <t>金融(14)</t>
         </is>
       </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>京运通2</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>拓新药业2</t>
         </is>
       </c>
-      <c r="D24" s="13" t="inlineStr">
+      <c r="D24" s="15" t="inlineStr">
         <is>
           <t>华夏幸福2</t>
         </is>
       </c>
-      <c r="E24" s="13" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>恒天海龙2</t>
         </is>
       </c>
-      <c r="F24" s="13" t="inlineStr">
+      <c r="F24" s="15" t="inlineStr">
         <is>
           <t>保龄宝2</t>
         </is>
       </c>
-      <c r="G24" s="10" t="inlineStr">
+      <c r="G24" s="12" t="inlineStr">
         <is>
           <t>尚纬股份</t>
         </is>
       </c>
-      <c r="H24" s="10" t="inlineStr">
+      <c r="H24" s="12" t="inlineStr">
         <is>
           <t>融发核电</t>
         </is>
       </c>
-      <c r="I24" s="20" t="inlineStr">
+      <c r="I24" s="22" t="inlineStr">
         <is>
           <t>正和生态</t>
         </is>
       </c>
-      <c r="J24" s="24" t="inlineStr">
+      <c r="J24" s="26" t="inlineStr">
         <is>
           <t>科捷智能2</t>
         </is>
       </c>
-      <c r="K24" s="13" t="inlineStr">
+      <c r="K24" s="15" t="inlineStr">
         <is>
           <t>明牌珠宝2</t>
         </is>
       </c>
-      <c r="L24" s="24" t="inlineStr">
+      <c r="L24" s="26" t="inlineStr">
         <is>
           <t>侨银股份2</t>
         </is>
       </c>
-      <c r="M24" s="11" t="inlineStr">
+      <c r="M24" s="13" t="inlineStr">
         <is>
           <t>申科股份</t>
         </is>
@@ -6619,50 +6631,50 @@
           <t>华为(10)</t>
         </is>
       </c>
-      <c r="B25" s="29" t="n"/>
-      <c r="C25" s="29" t="n"/>
-      <c r="D25" s="10" t="inlineStr">
+      <c r="B25" s="31" t="n"/>
+      <c r="C25" s="31" t="n"/>
+      <c r="D25" s="12" t="inlineStr">
         <is>
           <t>百利电气2</t>
         </is>
       </c>
-      <c r="E25" s="13" t="inlineStr">
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>宜宾纸业2</t>
         </is>
       </c>
-      <c r="F25" s="13" t="inlineStr">
+      <c r="F25" s="15" t="inlineStr">
         <is>
           <t>莱绅通灵2</t>
         </is>
       </c>
-      <c r="G25" s="11" t="inlineStr">
+      <c r="G25" s="13" t="inlineStr">
         <is>
           <t>鸿铭股份</t>
         </is>
       </c>
-      <c r="H25" s="24" t="inlineStr">
+      <c r="H25" s="26" t="inlineStr">
         <is>
           <t>沃特股份</t>
         </is>
       </c>
-      <c r="I25" s="20" t="inlineStr">
+      <c r="I25" s="22" t="inlineStr">
         <is>
           <t>浪潮软件</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr">
+      <c r="J25" s="12" t="inlineStr">
         <is>
           <t>英联股份2</t>
         </is>
       </c>
-      <c r="K25" s="29" t="n"/>
-      <c r="L25" s="13" t="inlineStr">
+      <c r="K25" s="31" t="n"/>
+      <c r="L25" s="15" t="inlineStr">
         <is>
           <t>国芳集团2</t>
         </is>
       </c>
-      <c r="M25" s="11" t="inlineStr">
+      <c r="M25" s="13" t="inlineStr">
         <is>
           <t>南网能源</t>
         </is>
@@ -6674,58 +6686,58 @@
           <t>新材料(9)</t>
         </is>
       </c>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>丽人丽妆</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="C26" s="12" t="inlineStr">
         <is>
           <t>王子新材</t>
         </is>
       </c>
-      <c r="D26" s="18" t="inlineStr">
+      <c r="D26" s="20" t="inlineStr">
         <is>
           <t>百合股份2</t>
         </is>
       </c>
-      <c r="E26" s="13" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
         <is>
           <t>空港股份2</t>
         </is>
       </c>
-      <c r="F26" s="29" t="n"/>
-      <c r="G26" s="13" t="inlineStr">
+      <c r="F26" s="31" t="n"/>
+      <c r="G26" s="15" t="inlineStr">
         <is>
           <t>晋西车轴</t>
         </is>
       </c>
-      <c r="H26" s="14" t="inlineStr">
+      <c r="H26" s="16" t="inlineStr">
         <is>
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="I26" s="10" t="inlineStr">
+      <c r="I26" s="12" t="inlineStr">
         <is>
           <t>锡装股份</t>
         </is>
       </c>
-      <c r="J26" s="10" t="inlineStr">
+      <c r="J26" s="12" t="inlineStr">
         <is>
           <t>凯美特气2</t>
         </is>
       </c>
-      <c r="K26" s="21" t="inlineStr">
+      <c r="K26" s="23" t="inlineStr">
         <is>
           <t>联化科技</t>
         </is>
       </c>
-      <c r="L26" s="13" t="inlineStr">
+      <c r="L26" s="15" t="inlineStr">
         <is>
           <t>御银股份2</t>
         </is>
       </c>
-      <c r="M26" s="21" t="inlineStr">
+      <c r="M26" s="23" t="inlineStr">
         <is>
           <t>哈三联</t>
         </is>
@@ -6737,129 +6749,129 @@
           <t>旅游(1)</t>
         </is>
       </c>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="B27" s="14" t="inlineStr">
         <is>
           <t>通达股份</t>
         </is>
       </c>
-      <c r="C27" s="24" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>万安科技</t>
         </is>
       </c>
-      <c r="D27" s="10" t="inlineStr">
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>王子新材2</t>
         </is>
       </c>
-      <c r="E27" s="21" t="inlineStr">
+      <c r="E27" s="23" t="inlineStr">
         <is>
           <t>亚泰集团2</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>中农立华</t>
         </is>
       </c>
-      <c r="G27" s="11" t="inlineStr">
+      <c r="G27" s="13" t="inlineStr">
         <is>
           <t>亚世光电</t>
         </is>
       </c>
-      <c r="H27" s="13" t="inlineStr">
+      <c r="H27" s="15" t="inlineStr">
         <is>
           <t>新金路</t>
         </is>
       </c>
-      <c r="I27" s="13" t="inlineStr">
+      <c r="I27" s="15" t="inlineStr">
         <is>
           <t>会稽山</t>
         </is>
       </c>
-      <c r="J27" s="13" t="inlineStr">
+      <c r="J27" s="15" t="inlineStr">
         <is>
           <t>诺普信2</t>
         </is>
       </c>
-      <c r="K27" s="24" t="inlineStr">
+      <c r="K27" s="26" t="inlineStr">
         <is>
           <t>侨银股份</t>
         </is>
       </c>
-      <c r="L27" s="27" t="inlineStr">
+      <c r="L27" s="29" t="inlineStr">
         <is>
           <t>联明股份2</t>
         </is>
       </c>
-      <c r="M27" s="21" t="inlineStr">
+      <c r="M27" s="23" t="inlineStr">
         <is>
           <t>海南海药</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="inlineStr">
+      <c r="A28" s="32" t="inlineStr">
         <is>
           <t>以下是排除的概念</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>洪通燃气</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="C28" s="13" t="inlineStr">
         <is>
           <t>新华制药</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="15" t="inlineStr">
         <is>
           <t>华阳新材2</t>
         </is>
       </c>
-      <c r="E28" s="14" t="inlineStr">
+      <c r="E28" s="16" t="inlineStr">
         <is>
           <t>源飞宠物2</t>
         </is>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F28" s="13" t="inlineStr">
         <is>
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="G28" s="24" t="inlineStr">
+      <c r="G28" s="26" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="H28" s="10" t="inlineStr">
+      <c r="H28" s="12" t="inlineStr">
         <is>
           <t>哈焊华通</t>
         </is>
       </c>
-      <c r="I28" s="10" t="inlineStr">
+      <c r="I28" s="12" t="inlineStr">
         <is>
           <t>长城电工</t>
         </is>
       </c>
-      <c r="J28" s="14" t="inlineStr">
+      <c r="J28" s="16" t="inlineStr">
         <is>
           <t>宿迁联盛2</t>
         </is>
       </c>
-      <c r="K28" s="11" t="inlineStr">
+      <c r="K28" s="13" t="inlineStr">
         <is>
           <t>星网宇达</t>
         </is>
       </c>
-      <c r="L28" s="21" t="inlineStr">
+      <c r="L28" s="23" t="inlineStr">
         <is>
           <t>联化科技2</t>
         </is>
       </c>
-      <c r="M28" s="11" t="inlineStr">
+      <c r="M28" s="13" t="inlineStr">
         <is>
           <t>巨星农牧</t>
         </is>
@@ -6871,58 +6883,58 @@
           <t>业绩增长(69)</t>
         </is>
       </c>
-      <c r="B29" s="20" t="inlineStr">
+      <c r="B29" s="22" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>百利电气</t>
         </is>
       </c>
-      <c r="D29" s="13" t="inlineStr">
+      <c r="D29" s="15" t="inlineStr">
         <is>
           <t>吉华集团2</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="12" t="inlineStr">
         <is>
           <t>保变电气2</t>
         </is>
       </c>
-      <c r="F29" s="11" t="inlineStr">
+      <c r="F29" s="13" t="inlineStr">
         <is>
           <t>科新发展</t>
         </is>
       </c>
-      <c r="G29" s="11" t="inlineStr">
+      <c r="G29" s="13" t="inlineStr">
         <is>
           <t>海特高新</t>
         </is>
       </c>
-      <c r="H29" s="10" t="inlineStr">
+      <c r="H29" s="12" t="inlineStr">
         <is>
           <t>雪人股份</t>
         </is>
       </c>
-      <c r="I29" s="10" t="inlineStr">
+      <c r="I29" s="12" t="inlineStr">
         <is>
           <t>哈空调</t>
         </is>
       </c>
-      <c r="J29" s="29" t="n"/>
-      <c r="K29" s="18" t="inlineStr">
+      <c r="J29" s="31" t="n"/>
+      <c r="K29" s="20" t="inlineStr">
         <is>
           <t>友阿股份</t>
         </is>
       </c>
-      <c r="L29" s="14" t="inlineStr">
+      <c r="L29" s="16" t="inlineStr">
         <is>
           <t>广康生化2</t>
         </is>
       </c>
-      <c r="M29" s="21" t="inlineStr">
+      <c r="M29" s="23" t="inlineStr">
         <is>
           <t>悦心健康</t>
         </is>
@@ -6934,62 +6946,62 @@
           <t>扭亏为盈(22)</t>
         </is>
       </c>
-      <c r="B30" s="13" t="inlineStr">
+      <c r="B30" s="15" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="C30" s="13" t="inlineStr">
         <is>
           <t>神驰机电</t>
         </is>
       </c>
-      <c r="D30" s="10" t="inlineStr">
+      <c r="D30" s="12" t="inlineStr">
         <is>
           <t>中洲特材2</t>
         </is>
       </c>
-      <c r="E30" s="14" t="inlineStr">
+      <c r="E30" s="16" t="inlineStr">
         <is>
           <t>天元宠物2</t>
         </is>
       </c>
-      <c r="F30" s="13" t="inlineStr">
+      <c r="F30" s="15" t="inlineStr">
         <is>
           <t>宝光股份</t>
         </is>
       </c>
-      <c r="G30" s="13" t="inlineStr">
+      <c r="G30" s="15" t="inlineStr">
         <is>
           <t>升达林业</t>
         </is>
       </c>
-      <c r="H30" s="21" t="inlineStr">
+      <c r="H30" s="23" t="inlineStr">
         <is>
           <t>多瑞医药</t>
         </is>
       </c>
-      <c r="I30" s="10" t="inlineStr">
+      <c r="I30" s="12" t="inlineStr">
         <is>
           <t>保变电气</t>
         </is>
       </c>
-      <c r="J30" s="16" t="inlineStr">
+      <c r="J30" s="18" t="inlineStr">
         <is>
           <t>德邦股份</t>
         </is>
       </c>
-      <c r="K30" s="11" t="inlineStr">
+      <c r="K30" s="13" t="inlineStr">
         <is>
           <t>博世科</t>
         </is>
       </c>
-      <c r="L30" s="16" t="inlineStr">
+      <c r="L30" s="18" t="inlineStr">
         <is>
           <t>四川金顶2</t>
         </is>
       </c>
-      <c r="M30" s="14" t="inlineStr">
+      <c r="M30" s="16" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
@@ -7001,129 +7013,129 @@
           <t>国企(183)</t>
         </is>
       </c>
-      <c r="B31" s="21" t="inlineStr">
+      <c r="B31" s="23" t="inlineStr">
         <is>
           <t>川宁生物</t>
         </is>
       </c>
-      <c r="C31" s="14" t="inlineStr">
+      <c r="C31" s="16" t="inlineStr">
         <is>
           <t>新坐标</t>
         </is>
       </c>
-      <c r="D31" s="18" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>国光连锁2</t>
         </is>
       </c>
-      <c r="E31" s="14" t="inlineStr">
+      <c r="E31" s="16" t="inlineStr">
         <is>
           <t>五新隧装2</t>
         </is>
       </c>
-      <c r="F31" s="13" t="inlineStr">
+      <c r="F31" s="15" t="inlineStr">
         <is>
           <t>廊坊发展</t>
         </is>
       </c>
-      <c r="G31" s="21" t="inlineStr">
+      <c r="G31" s="23" t="inlineStr">
         <is>
           <t>海森药业</t>
         </is>
       </c>
-      <c r="H31" s="27" t="inlineStr">
+      <c r="H31" s="29" t="inlineStr">
         <is>
           <t>雪龙集团</t>
         </is>
       </c>
-      <c r="I31" s="11" t="inlineStr">
+      <c r="I31" s="13" t="inlineStr">
         <is>
           <t>武汉凡谷</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr">
+      <c r="J31" s="12" t="inlineStr">
         <is>
           <t>劲旅环境</t>
         </is>
       </c>
-      <c r="K31" s="16" t="inlineStr">
+      <c r="K31" s="18" t="inlineStr">
         <is>
           <t>启迪环境</t>
         </is>
       </c>
-      <c r="L31" s="14" t="inlineStr">
+      <c r="L31" s="16" t="inlineStr">
         <is>
           <t>青岛金王2</t>
         </is>
       </c>
-      <c r="M31" s="14" t="inlineStr">
+      <c r="M31" s="16" t="inlineStr">
         <is>
           <t>真爱美家</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="31" t="inlineStr">
+      <c r="A32" s="33" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="B32" s="20" t="inlineStr">
         <is>
           <t>福瑞达</t>
         </is>
       </c>
-      <c r="C32" s="10" t="inlineStr">
+      <c r="C32" s="12" t="inlineStr">
         <is>
           <t>中洲特材</t>
         </is>
       </c>
-      <c r="D32" s="24" t="inlineStr">
+      <c r="D32" s="26" t="inlineStr">
         <is>
           <t>信隆健康2</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="E32" s="12" t="inlineStr">
         <is>
           <t>湖南发展2</t>
         </is>
       </c>
-      <c r="F32" s="10" t="inlineStr">
+      <c r="F32" s="12" t="inlineStr">
         <is>
           <t>宁新新材</t>
         </is>
       </c>
-      <c r="G32" s="10" t="inlineStr">
+      <c r="G32" s="12" t="inlineStr">
         <is>
           <t>四创电子</t>
         </is>
       </c>
-      <c r="H32" s="14" t="inlineStr">
+      <c r="H32" s="16" t="inlineStr">
         <is>
           <t>永冠新材</t>
         </is>
       </c>
-      <c r="I32" s="10" t="inlineStr">
+      <c r="I32" s="12" t="inlineStr">
         <is>
           <t>大西洋</t>
         </is>
       </c>
-      <c r="J32" s="18" t="inlineStr">
+      <c r="J32" s="20" t="inlineStr">
         <is>
           <t>锦泓集团</t>
         </is>
       </c>
-      <c r="K32" s="14" t="inlineStr">
+      <c r="K32" s="16" t="inlineStr">
         <is>
           <t>广康生化</t>
         </is>
       </c>
-      <c r="L32" s="10" t="inlineStr">
+      <c r="L32" s="12" t="inlineStr">
         <is>
           <t>四创电子2</t>
         </is>
       </c>
-      <c r="M32" s="11" t="inlineStr">
+      <c r="M32" s="13" t="inlineStr">
         <is>
           <t>东方园林</t>
         </is>
@@ -7135,2099 +7147,2099 @@
           <t>分隔cell = 首板</t>
         </is>
       </c>
-      <c r="B33" s="21" t="inlineStr">
+      <c r="B33" s="23" t="inlineStr">
         <is>
           <t>哈三联</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="C33" s="13" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D33" s="29" t="n"/>
-      <c r="E33" s="29" t="n"/>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="D33" s="31" t="n"/>
+      <c r="E33" s="31" t="n"/>
+      <c r="F33" s="16" t="inlineStr">
         <is>
           <t>重庆港</t>
         </is>
       </c>
-      <c r="G33" s="12" t="inlineStr">
+      <c r="G33" s="14" t="inlineStr">
         <is>
           <t>烽火电子</t>
         </is>
       </c>
-      <c r="H33" s="11" t="inlineStr">
+      <c r="H33" s="13" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
-      <c r="I33" s="14" t="inlineStr">
+      <c r="I33" s="16" t="inlineStr">
         <is>
           <t>瑞贝卡</t>
         </is>
       </c>
-      <c r="J33" s="11" t="inlineStr">
+      <c r="J33" s="13" t="inlineStr">
         <is>
           <t>黄河旋风</t>
         </is>
       </c>
-      <c r="K33" s="16" t="inlineStr">
+      <c r="K33" s="18" t="inlineStr">
         <is>
           <t>四川金顶</t>
         </is>
       </c>
-      <c r="L33" s="29" t="n"/>
-      <c r="M33" s="20" t="inlineStr">
+      <c r="L33" s="31" t="n"/>
+      <c r="M33" s="22" t="inlineStr">
         <is>
           <t>创新医疗</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="32" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="34" t="n"/>
+      <c r="B34" s="20" t="inlineStr">
         <is>
           <t>洁雅股份</t>
         </is>
       </c>
-      <c r="C34" s="24" t="inlineStr">
+      <c r="C34" s="26" t="inlineStr">
         <is>
           <t>铭科精技</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="D34" s="12" t="inlineStr">
         <is>
           <t>安彩高科</t>
         </is>
       </c>
-      <c r="E34" s="13" t="inlineStr">
+      <c r="E34" s="15" t="inlineStr">
         <is>
           <t>慧博云通</t>
         </is>
       </c>
-      <c r="F34" s="21" t="inlineStr">
+      <c r="F34" s="23" t="inlineStr">
         <is>
           <t>舒泰神</t>
         </is>
       </c>
-      <c r="G34" s="12" t="inlineStr">
+      <c r="G34" s="14" t="inlineStr">
         <is>
           <t>银河电子</t>
         </is>
       </c>
-      <c r="H34" s="12" t="inlineStr">
+      <c r="H34" s="14" t="inlineStr">
         <is>
           <t>格尔软件</t>
         </is>
       </c>
-      <c r="I34" s="11" t="inlineStr">
+      <c r="I34" s="13" t="inlineStr">
         <is>
           <t>深纺织A</t>
         </is>
       </c>
-      <c r="J34" s="10" t="inlineStr">
+      <c r="J34" s="12" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
       </c>
-      <c r="K34" s="27" t="inlineStr">
+      <c r="K34" s="29" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="L34" s="16" t="inlineStr">
+      <c r="L34" s="18" t="inlineStr">
         <is>
           <t>申通地铁</t>
         </is>
       </c>
-      <c r="M34" s="20" t="inlineStr">
+      <c r="M34" s="22" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="14" t="inlineStr">
+      <c r="B35" s="16" t="inlineStr">
         <is>
           <t>金达威</t>
         </is>
       </c>
-      <c r="C35" s="13" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
         <is>
           <t>路畅科技</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr">
+      <c r="D35" s="12" t="inlineStr">
         <is>
           <t>滨海能源</t>
         </is>
       </c>
-      <c r="E35" s="24" t="inlineStr">
+      <c r="E35" s="26" t="inlineStr">
         <is>
           <t>信邦智能</t>
         </is>
       </c>
-      <c r="F35" s="13" t="inlineStr">
+      <c r="F35" s="15" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
       </c>
-      <c r="G35" s="12" t="inlineStr">
+      <c r="G35" s="14" t="inlineStr">
         <is>
           <t>国科天成</t>
         </is>
       </c>
-      <c r="H35" s="20" t="inlineStr">
+      <c r="H35" s="22" t="inlineStr">
         <is>
           <t>贝瑞基因</t>
         </is>
       </c>
-      <c r="I35" s="11" t="inlineStr">
+      <c r="I35" s="13" t="inlineStr">
         <is>
           <t>财信发展</t>
         </is>
       </c>
-      <c r="J35" s="13" t="inlineStr">
+      <c r="J35" s="15" t="inlineStr">
         <is>
           <t>升达林业</t>
         </is>
       </c>
-      <c r="K35" s="14" t="inlineStr">
+      <c r="K35" s="16" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="L35" s="24" t="inlineStr">
+      <c r="L35" s="26" t="inlineStr">
         <is>
           <t>音飞储存</t>
         </is>
       </c>
-      <c r="M35" s="13" t="inlineStr">
+      <c r="M35" s="15" t="inlineStr">
         <is>
           <t>华远地产</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="18" t="inlineStr">
+      <c r="B36" s="20" t="inlineStr">
         <is>
           <t>芭薇股份</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C36" s="14" t="inlineStr">
         <is>
           <t>天汽模</t>
         </is>
       </c>
-      <c r="D36" s="11" t="inlineStr">
+      <c r="D36" s="13" t="inlineStr">
         <is>
           <t>光智科技</t>
         </is>
       </c>
-      <c r="E36" s="21" t="inlineStr">
+      <c r="E36" s="23" t="inlineStr">
         <is>
           <t>华海药业</t>
         </is>
       </c>
-      <c r="F36" s="13" t="inlineStr">
+      <c r="F36" s="15" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
       </c>
-      <c r="G36" s="11" t="inlineStr">
+      <c r="G36" s="13" t="inlineStr">
         <is>
           <t>强邦新材</t>
         </is>
       </c>
-      <c r="H36" s="11" t="inlineStr">
+      <c r="H36" s="13" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="I36" s="24" t="inlineStr">
+      <c r="I36" s="26" t="inlineStr">
         <is>
           <t>科捷智能</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr">
+      <c r="J36" s="13" t="inlineStr">
         <is>
           <t>泉阳泉</t>
         </is>
       </c>
-      <c r="K36" s="16" t="inlineStr">
+      <c r="K36" s="18" t="inlineStr">
         <is>
           <t>玉禾田</t>
         </is>
       </c>
-      <c r="L36" s="13" t="inlineStr">
+      <c r="L36" s="15" t="inlineStr">
         <is>
           <t>东风股份</t>
         </is>
       </c>
-      <c r="M36" s="12" t="inlineStr">
+      <c r="M36" s="14" t="inlineStr">
         <is>
           <t>中天火箭</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="14" t="inlineStr">
+      <c r="B37" s="16" t="inlineStr">
         <is>
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="C37" s="13" t="inlineStr">
+      <c r="C37" s="15" t="inlineStr">
         <is>
           <t>华阳新材</t>
         </is>
       </c>
-      <c r="D37" s="13" t="inlineStr">
+      <c r="D37" s="15" t="inlineStr">
         <is>
           <t>九鼎投资</t>
         </is>
       </c>
-      <c r="E37" s="18" t="inlineStr">
+      <c r="E37" s="20" t="inlineStr">
         <is>
           <t>友阿股份</t>
         </is>
       </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="F37" s="13" t="inlineStr">
         <is>
           <t>梅轮电梯</t>
         </is>
       </c>
-      <c r="G37" s="11" t="inlineStr">
+      <c r="G37" s="13" t="inlineStr">
         <is>
           <t>中天精装</t>
         </is>
       </c>
-      <c r="H37" s="10" t="inlineStr">
+      <c r="H37" s="12" t="inlineStr">
         <is>
           <t>北特科技</t>
         </is>
       </c>
-      <c r="I37" s="10" t="inlineStr">
+      <c r="I37" s="12" t="inlineStr">
         <is>
           <t>汇金通</t>
         </is>
       </c>
-      <c r="J37" s="18" t="inlineStr">
+      <c r="J37" s="20" t="inlineStr">
         <is>
           <t>交大昂立</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr">
+      <c r="K37" s="12" t="inlineStr">
         <is>
           <t>悦达投资</t>
         </is>
       </c>
-      <c r="L37" s="10" t="inlineStr">
+      <c r="L37" s="12" t="inlineStr">
         <is>
           <t>富煌钢构</t>
         </is>
       </c>
-      <c r="M37" s="20" t="inlineStr">
+      <c r="M37" s="22" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="24" t="inlineStr">
+      <c r="B38" s="26" t="inlineStr">
         <is>
           <t>信质集团</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C38" s="14" t="inlineStr">
         <is>
           <t>章源钨业</t>
         </is>
       </c>
-      <c r="D38" s="16" t="inlineStr">
+      <c r="D38" s="18" t="inlineStr">
         <is>
           <t>海格通信</t>
         </is>
       </c>
-      <c r="E38" s="11" t="inlineStr">
+      <c r="E38" s="13" t="inlineStr">
         <is>
           <t>济高发展</t>
         </is>
       </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="F38" s="13" t="inlineStr">
         <is>
           <t>浙江建投</t>
         </is>
       </c>
-      <c r="G38" s="24" t="inlineStr">
+      <c r="G38" s="26" t="inlineStr">
         <is>
           <t>盛视科技</t>
         </is>
       </c>
-      <c r="H38" s="27" t="inlineStr">
+      <c r="H38" s="29" t="inlineStr">
         <is>
           <t>赛力斯</t>
         </is>
       </c>
-      <c r="I38" s="24" t="inlineStr">
+      <c r="I38" s="26" t="inlineStr">
         <is>
           <t>龙洲股份</t>
         </is>
       </c>
-      <c r="J38" s="11" t="inlineStr">
+      <c r="J38" s="13" t="inlineStr">
         <is>
           <t>誉衡药业</t>
         </is>
       </c>
-      <c r="K38" s="18" t="inlineStr">
+      <c r="K38" s="20" t="inlineStr">
         <is>
           <t>园林股份</t>
         </is>
       </c>
-      <c r="L38" s="20" t="inlineStr">
+      <c r="L38" s="22" t="inlineStr">
         <is>
           <t>鸿合科技</t>
         </is>
       </c>
-      <c r="M38" s="11" t="inlineStr">
+      <c r="M38" s="13" t="inlineStr">
         <is>
           <t>中旗新材</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="14" t="inlineStr">
+      <c r="B39" s="16" t="inlineStr">
         <is>
           <t>浙江永强</t>
         </is>
       </c>
-      <c r="C39" s="24" t="inlineStr">
+      <c r="C39" s="26" t="inlineStr">
         <is>
           <t>均胜电子</t>
         </is>
       </c>
-      <c r="D39" s="11" t="inlineStr">
+      <c r="D39" s="13" t="inlineStr">
         <is>
           <t>电子城</t>
         </is>
       </c>
-      <c r="E39" s="11" t="inlineStr">
+      <c r="E39" s="13" t="inlineStr">
         <is>
           <t>佳合科技</t>
         </is>
       </c>
-      <c r="F39" s="10" t="inlineStr">
+      <c r="F39" s="12" t="inlineStr">
         <is>
           <t>汇得科技</t>
         </is>
       </c>
-      <c r="G39" s="10" t="inlineStr">
+      <c r="G39" s="12" t="inlineStr">
         <is>
           <t>国光电器</t>
         </is>
       </c>
-      <c r="H39" s="11" t="inlineStr">
+      <c r="H39" s="13" t="inlineStr">
         <is>
           <t>恒鑫生活</t>
         </is>
       </c>
-      <c r="I39" s="27" t="inlineStr">
+      <c r="I39" s="29" t="inlineStr">
         <is>
           <t>金鸿顺</t>
         </is>
       </c>
-      <c r="J39" s="13" t="inlineStr">
+      <c r="J39" s="15" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
       </c>
-      <c r="K39" s="10" t="inlineStr">
+      <c r="K39" s="12" t="inlineStr">
         <is>
           <t>利柏特</t>
         </is>
       </c>
-      <c r="L39" s="27" t="inlineStr">
+      <c r="L39" s="29" t="inlineStr">
         <is>
           <t>正裕工业</t>
         </is>
       </c>
-      <c r="M39" s="11" t="inlineStr">
+      <c r="M39" s="13" t="inlineStr">
         <is>
           <t>深深房A</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="21" t="inlineStr">
+      <c r="B40" s="23" t="inlineStr">
         <is>
           <t>海南海药</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="13" t="inlineStr">
         <is>
           <t>秦安股份</t>
         </is>
       </c>
-      <c r="D40" s="27" t="inlineStr">
+      <c r="D40" s="29" t="inlineStr">
         <is>
           <t>金鸿顺</t>
         </is>
       </c>
-      <c r="E40" s="12" t="inlineStr">
+      <c r="E40" s="14" t="inlineStr">
         <is>
           <t>博云新材</t>
         </is>
       </c>
-      <c r="F40" s="18" t="inlineStr">
+      <c r="F40" s="20" t="inlineStr">
         <is>
           <t>爱仕达</t>
         </is>
       </c>
-      <c r="G40" s="20" t="inlineStr">
+      <c r="G40" s="22" t="inlineStr">
         <is>
           <t>昆仑万维</t>
         </is>
       </c>
-      <c r="H40" s="14" t="inlineStr">
+      <c r="H40" s="16" t="inlineStr">
         <is>
           <t>众鑫股份</t>
         </is>
       </c>
-      <c r="I40" s="11" t="inlineStr">
+      <c r="I40" s="13" t="inlineStr">
         <is>
           <t>长青集团</t>
         </is>
       </c>
-      <c r="J40" s="21" t="inlineStr">
+      <c r="J40" s="23" t="inlineStr">
         <is>
           <t>华森制药</t>
         </is>
       </c>
-      <c r="K40" s="18" t="inlineStr">
+      <c r="K40" s="20" t="inlineStr">
         <is>
           <t>合兴股份</t>
         </is>
       </c>
-      <c r="L40" s="16" t="inlineStr">
+      <c r="L40" s="18" t="inlineStr">
         <is>
           <t>启明信息</t>
         </is>
       </c>
-      <c r="M40" s="11" t="inlineStr">
+      <c r="M40" s="13" t="inlineStr">
         <is>
           <t>湘佳股份</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="14" t="inlineStr">
+      <c r="B41" s="16" t="inlineStr">
         <is>
           <t>西王食品</t>
         </is>
       </c>
-      <c r="C41" s="24" t="inlineStr">
+      <c r="C41" s="26" t="inlineStr">
         <is>
           <t>日盈电子</t>
         </is>
       </c>
-      <c r="D41" s="27" t="inlineStr">
+      <c r="D41" s="29" t="inlineStr">
         <is>
           <t>湖南天雁</t>
         </is>
       </c>
-      <c r="E41" s="14" t="inlineStr">
+      <c r="E41" s="16" t="inlineStr">
         <is>
           <t>贝因美</t>
         </is>
       </c>
-      <c r="F41" s="16" t="inlineStr">
+      <c r="F41" s="18" t="inlineStr">
         <is>
           <t>通达电气</t>
         </is>
       </c>
-      <c r="G41" s="13" t="inlineStr">
+      <c r="G41" s="15" t="inlineStr">
         <is>
           <t>海翔药业</t>
         </is>
       </c>
-      <c r="H41" s="11" t="inlineStr">
+      <c r="H41" s="13" t="inlineStr">
         <is>
           <t>阳谷华泰</t>
         </is>
       </c>
-      <c r="I41" s="14" t="inlineStr">
+      <c r="I41" s="16" t="inlineStr">
         <is>
           <t>乐惠国际</t>
         </is>
       </c>
-      <c r="J41" s="18" t="inlineStr">
+      <c r="J41" s="20" t="inlineStr">
         <is>
           <t>科拓生物</t>
         </is>
       </c>
-      <c r="K41" s="13" t="inlineStr">
+      <c r="K41" s="15" t="inlineStr">
         <is>
           <t>晋西车轴</t>
         </is>
       </c>
-      <c r="L41" s="24" t="inlineStr">
+      <c r="L41" s="26" t="inlineStr">
         <is>
           <t>华菱线缆</t>
         </is>
       </c>
-      <c r="M41" s="21" t="inlineStr">
+      <c r="M41" s="23" t="inlineStr">
         <is>
           <t>万邦德</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="11" t="inlineStr">
+      <c r="B42" s="13" t="inlineStr">
         <is>
           <t>美农生物</t>
         </is>
       </c>
-      <c r="C42" s="24" t="inlineStr">
+      <c r="C42" s="26" t="inlineStr">
         <is>
           <t>豪恩汽电</t>
         </is>
       </c>
-      <c r="D42" s="14" t="inlineStr">
+      <c r="D42" s="16" t="inlineStr">
         <is>
           <t>珠海港</t>
         </is>
       </c>
-      <c r="E42" s="21" t="inlineStr">
+      <c r="E42" s="23" t="inlineStr">
         <is>
           <t>一品红</t>
         </is>
       </c>
-      <c r="F42" s="13" t="inlineStr">
+      <c r="F42" s="15" t="inlineStr">
         <is>
           <t>会稽山</t>
         </is>
       </c>
-      <c r="G42" s="13" t="inlineStr">
+      <c r="G42" s="15" t="inlineStr">
         <is>
           <t>美邦股份</t>
         </is>
       </c>
-      <c r="H42" s="14" t="inlineStr">
+      <c r="H42" s="16" t="inlineStr">
         <is>
           <t>鼎龙科技</t>
         </is>
       </c>
-      <c r="I42" s="14" t="inlineStr">
+      <c r="I42" s="16" t="inlineStr">
         <is>
           <t>均瑶健康</t>
         </is>
       </c>
-      <c r="J42" s="24" t="inlineStr">
+      <c r="J42" s="26" t="inlineStr">
         <is>
           <t>中马传动</t>
         </is>
       </c>
-      <c r="K42" s="13" t="inlineStr">
+      <c r="K42" s="15" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="L42" s="11" t="inlineStr">
+      <c r="L42" s="13" t="inlineStr">
         <is>
           <t>概伦电子</t>
         </is>
       </c>
-      <c r="M42" s="11" t="inlineStr">
+      <c r="M42" s="13" t="inlineStr">
         <is>
           <t>菲林格尔</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="18" t="inlineStr">
+      <c r="B43" s="20" t="inlineStr">
         <is>
           <t>若羽臣</t>
         </is>
       </c>
-      <c r="C43" s="24" t="inlineStr">
+      <c r="C43" s="26" t="inlineStr">
         <is>
           <t>日发精机</t>
         </is>
       </c>
-      <c r="D43" s="14" t="inlineStr">
+      <c r="D43" s="16" t="inlineStr">
         <is>
           <t>厦门港务</t>
         </is>
       </c>
-      <c r="E43" s="11" t="inlineStr">
+      <c r="E43" s="13" t="inlineStr">
         <is>
           <t>万润科技</t>
         </is>
       </c>
-      <c r="F43" s="10" t="inlineStr">
+      <c r="F43" s="12" t="inlineStr">
         <is>
           <t>国轩高科</t>
         </is>
       </c>
-      <c r="G43" s="24" t="inlineStr">
+      <c r="G43" s="26" t="inlineStr">
         <is>
           <t>华研精机</t>
         </is>
       </c>
-      <c r="H43" s="21" t="inlineStr">
+      <c r="H43" s="23" t="inlineStr">
         <is>
           <t>新天地</t>
         </is>
       </c>
-      <c r="I43" s="13" t="inlineStr">
+      <c r="I43" s="15" t="inlineStr">
         <is>
           <t>湘邮科技</t>
         </is>
       </c>
-      <c r="J43" s="18" t="inlineStr">
+      <c r="J43" s="20" t="inlineStr">
         <is>
           <t>金枫酒业</t>
         </is>
       </c>
-      <c r="K43" s="18" t="inlineStr">
+      <c r="K43" s="20" t="inlineStr">
         <is>
           <t>欢乐家</t>
         </is>
       </c>
-      <c r="L43" s="21" t="inlineStr">
+      <c r="L43" s="23" t="inlineStr">
         <is>
           <t>舒泰神</t>
         </is>
       </c>
-      <c r="M43" s="11" t="inlineStr">
+      <c r="M43" s="13" t="inlineStr">
         <is>
           <t>莫高股份</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="14" t="inlineStr">
+      <c r="B44" s="16" t="inlineStr">
         <is>
           <t>百洋股份</t>
         </is>
       </c>
-      <c r="C44" s="24" t="inlineStr">
+      <c r="C44" s="26" t="inlineStr">
         <is>
           <t>信隆健康</t>
         </is>
       </c>
-      <c r="D44" s="18" t="inlineStr">
+      <c r="D44" s="20" t="inlineStr">
         <is>
           <t>帝欧家居</t>
         </is>
       </c>
-      <c r="E44" s="27" t="inlineStr">
+      <c r="E44" s="29" t="inlineStr">
         <is>
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="F44" s="10" t="inlineStr">
+      <c r="F44" s="12" t="inlineStr">
         <is>
           <t>领湃科技</t>
         </is>
       </c>
-      <c r="H44" s="10" t="inlineStr">
+      <c r="H44" s="12" t="inlineStr">
         <is>
           <t>中洲特材</t>
         </is>
       </c>
-      <c r="I44" s="11" t="inlineStr">
+      <c r="I44" s="13" t="inlineStr">
         <is>
           <t>中科信息</t>
         </is>
       </c>
-      <c r="J44" s="21" t="inlineStr">
+      <c r="J44" s="23" t="inlineStr">
         <is>
           <t>海王生物</t>
         </is>
       </c>
-      <c r="K44" s="10" t="inlineStr">
+      <c r="K44" s="12" t="inlineStr">
         <is>
           <t>巨力索具</t>
         </is>
       </c>
-      <c r="L44" s="11" t="inlineStr">
+      <c r="L44" s="13" t="inlineStr">
         <is>
           <t>兴民智通</t>
         </is>
       </c>
-      <c r="M44" s="11" t="inlineStr">
+      <c r="M44" s="13" t="inlineStr">
         <is>
           <t>共创草坪</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="14" t="inlineStr">
+      <c r="B45" s="16" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="C45" s="24" t="inlineStr">
+      <c r="C45" s="26" t="inlineStr">
         <is>
           <t>圣龙股份</t>
         </is>
       </c>
-      <c r="D45" s="11" t="inlineStr">
+      <c r="D45" s="13" t="inlineStr">
         <is>
           <t>巴比食品</t>
         </is>
       </c>
-      <c r="E45" s="21" t="inlineStr">
+      <c r="E45" s="23" t="inlineStr">
         <is>
           <t>未名医药</t>
         </is>
       </c>
-      <c r="F45" s="10" t="inlineStr">
+      <c r="F45" s="12" t="inlineStr">
         <is>
           <t>龙蟠科技</t>
         </is>
       </c>
-      <c r="I45" s="16" t="inlineStr">
+      <c r="I45" s="18" t="inlineStr">
         <is>
           <t>中邮科技</t>
         </is>
       </c>
-      <c r="J45" s="14" t="inlineStr">
+      <c r="J45" s="16" t="inlineStr">
         <is>
           <t>西王食品</t>
         </is>
       </c>
-      <c r="K45" s="13" t="inlineStr">
+      <c r="K45" s="15" t="inlineStr">
         <is>
           <t>御银股份</t>
         </is>
       </c>
-      <c r="L45" s="24" t="inlineStr">
+      <c r="L45" s="26" t="inlineStr">
         <is>
           <t>远东股份</t>
         </is>
       </c>
-      <c r="M45" s="16" t="inlineStr">
+      <c r="M45" s="18" t="inlineStr">
         <is>
           <t>永悦科技</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="11" t="inlineStr">
+      <c r="B46" s="13" t="inlineStr">
         <is>
           <t>登康口腔</t>
         </is>
       </c>
-      <c r="C46" s="18" t="inlineStr">
+      <c r="C46" s="20" t="inlineStr">
         <is>
           <t>百合股份</t>
         </is>
       </c>
-      <c r="D46" s="11" t="inlineStr">
+      <c r="D46" s="13" t="inlineStr">
         <is>
           <t>本钢板材</t>
         </is>
       </c>
-      <c r="E46" s="13" t="inlineStr">
+      <c r="E46" s="15" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F46" s="13" t="inlineStr">
         <is>
           <t>圣阳股份</t>
         </is>
       </c>
-      <c r="I46" s="11" t="inlineStr">
+      <c r="I46" s="13" t="inlineStr">
         <is>
           <t>游族网络</t>
         </is>
       </c>
-      <c r="J46" s="18" t="inlineStr">
+      <c r="J46" s="20" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
       </c>
-      <c r="K46" s="21" t="inlineStr">
+      <c r="K46" s="23" t="inlineStr">
         <is>
           <t>千红制药</t>
         </is>
       </c>
-      <c r="L46" s="11" t="inlineStr">
+      <c r="L46" s="13" t="inlineStr">
         <is>
           <t>深南电A</t>
         </is>
       </c>
-      <c r="M46" s="16" t="inlineStr">
+      <c r="M46" s="18" t="inlineStr">
         <is>
           <t>纵横股份</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="21" t="inlineStr">
+      <c r="B47" s="23" t="inlineStr">
         <is>
           <t>拓新药业</t>
         </is>
       </c>
-      <c r="C47" s="27" t="inlineStr">
+      <c r="C47" s="29" t="inlineStr">
         <is>
           <t>亚太股份</t>
         </is>
       </c>
-      <c r="D47" s="20" t="inlineStr">
+      <c r="D47" s="22" t="inlineStr">
         <is>
           <t>亚士创能</t>
         </is>
       </c>
-      <c r="E47" s="13" t="inlineStr">
+      <c r="E47" s="15" t="inlineStr">
         <is>
           <t>广博股份</t>
         </is>
       </c>
-      <c r="F47" s="10" t="inlineStr">
+      <c r="F47" s="12" t="inlineStr">
         <is>
           <t>宏工科技</t>
         </is>
       </c>
-      <c r="I47" s="11" t="inlineStr">
+      <c r="I47" s="13" t="inlineStr">
         <is>
           <t>江苏博云</t>
         </is>
       </c>
-      <c r="J47" s="13" t="inlineStr">
+      <c r="J47" s="15" t="inlineStr">
         <is>
           <t>明牌珠宝</t>
         </is>
       </c>
-      <c r="K47" s="20" t="inlineStr">
+      <c r="K47" s="22" t="inlineStr">
         <is>
           <t>神开股份</t>
         </is>
       </c>
-      <c r="L47" s="24" t="inlineStr">
+      <c r="L47" s="26" t="inlineStr">
         <is>
           <t>新大正</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="14" t="inlineStr">
+      <c r="B48" s="16" t="inlineStr">
         <is>
           <t>华业香料</t>
         </is>
       </c>
-      <c r="C48" s="24" t="inlineStr">
+      <c r="C48" s="26" t="inlineStr">
         <is>
           <t>安乃达</t>
         </is>
       </c>
-      <c r="D48" s="14" t="inlineStr">
+      <c r="D48" s="16" t="inlineStr">
         <is>
           <t>澳柯玛</t>
         </is>
       </c>
-      <c r="E48" s="14" t="inlineStr">
+      <c r="E48" s="16" t="inlineStr">
         <is>
           <t>依依股份</t>
         </is>
       </c>
-      <c r="F48" s="21" t="inlineStr">
+      <c r="F48" s="23" t="inlineStr">
         <is>
           <t>海辰药业</t>
         </is>
       </c>
-      <c r="I48" s="13" t="inlineStr">
+      <c r="I48" s="15" t="inlineStr">
         <is>
           <t>锦江在线</t>
         </is>
       </c>
-      <c r="J48" s="10" t="inlineStr">
+      <c r="J48" s="12" t="inlineStr">
         <is>
           <t>格力博</t>
         </is>
       </c>
-      <c r="K48" s="11" t="inlineStr">
+      <c r="K48" s="13" t="inlineStr">
         <is>
           <t>周大生</t>
         </is>
       </c>
-      <c r="L48" s="21" t="inlineStr">
+      <c r="L48" s="23" t="inlineStr">
         <is>
           <t>力生制药</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="11" t="inlineStr">
+      <c r="B49" s="13" t="inlineStr">
         <is>
           <t>博闻科技</t>
         </is>
       </c>
-      <c r="C49" s="10" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
         <is>
           <t>格力博</t>
         </is>
       </c>
-      <c r="D49" s="11" t="inlineStr">
+      <c r="D49" s="13" t="inlineStr">
         <is>
           <t>焦作万方</t>
         </is>
       </c>
-      <c r="E49" s="11" t="inlineStr">
+      <c r="E49" s="13" t="inlineStr">
         <is>
           <t>潮宏基</t>
         </is>
       </c>
-      <c r="F49" s="27" t="inlineStr">
+      <c r="F49" s="29" t="inlineStr">
         <is>
           <t>常青股份</t>
         </is>
       </c>
-      <c r="I49" s="14" t="inlineStr">
+      <c r="I49" s="16" t="inlineStr">
         <is>
           <t>智莱科技</t>
         </is>
       </c>
-      <c r="J49" s="13" t="inlineStr">
+      <c r="J49" s="15" t="inlineStr">
         <is>
           <t>广博股份</t>
         </is>
       </c>
-      <c r="K49" s="11" t="inlineStr">
+      <c r="K49" s="13" t="inlineStr">
         <is>
           <t>优彩资源</t>
         </is>
       </c>
-      <c r="L49" s="21" t="inlineStr">
+      <c r="L49" s="23" t="inlineStr">
         <is>
           <t>睿智医药</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="11" t="inlineStr">
+      <c r="B50" s="13" t="inlineStr">
         <is>
           <t>众兴菌业</t>
         </is>
       </c>
-      <c r="C50" s="14" t="inlineStr">
+      <c r="C50" s="16" t="inlineStr">
         <is>
           <t>遥望科技</t>
         </is>
       </c>
-      <c r="D50" s="18" t="inlineStr">
+      <c r="D50" s="20" t="inlineStr">
         <is>
           <t>浪莎股份</t>
         </is>
       </c>
-      <c r="E50" s="14" t="inlineStr">
+      <c r="E50" s="16" t="inlineStr">
         <is>
           <t>雪榕生物</t>
         </is>
       </c>
-      <c r="F50" s="21" t="inlineStr">
+      <c r="F50" s="23" t="inlineStr">
         <is>
           <t>康弘药业</t>
         </is>
       </c>
-      <c r="I50" s="10" t="inlineStr">
+      <c r="I50" s="12" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
       </c>
-      <c r="J50" s="13" t="inlineStr">
+      <c r="J50" s="15" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
       </c>
-      <c r="K50" s="10" t="inlineStr">
+      <c r="K50" s="12" t="inlineStr">
         <is>
           <t>粤电力A</t>
         </is>
       </c>
-      <c r="L50" s="14" t="inlineStr">
+      <c r="L50" s="16" t="inlineStr">
         <is>
           <t>山子高科</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="18" t="inlineStr">
+      <c r="B51" s="20" t="inlineStr">
         <is>
           <t>青松股份</t>
         </is>
       </c>
-      <c r="C51" s="24" t="inlineStr">
+      <c r="C51" s="26" t="inlineStr">
         <is>
           <t>麦迪科技</t>
         </is>
       </c>
-      <c r="D51" s="13" t="inlineStr">
+      <c r="D51" s="15" t="inlineStr">
         <is>
           <t>华远地产</t>
         </is>
       </c>
-      <c r="E51" s="13" t="inlineStr">
+      <c r="E51" s="15" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="F51" s="24" t="inlineStr">
+      <c r="F51" s="26" t="inlineStr">
         <is>
           <t>云内动力</t>
         </is>
       </c>
-      <c r="I51" s="20" t="inlineStr">
+      <c r="I51" s="22" t="inlineStr">
         <is>
           <t>同为股份</t>
         </is>
       </c>
-      <c r="J51" s="14" t="inlineStr">
+      <c r="J51" s="16" t="inlineStr">
         <is>
           <t>星徽股份</t>
         </is>
       </c>
-      <c r="K51" s="11" t="inlineStr">
+      <c r="K51" s="13" t="inlineStr">
         <is>
           <t>今创集团</t>
         </is>
       </c>
-      <c r="L51" s="16" t="inlineStr">
+      <c r="L51" s="18" t="inlineStr">
         <is>
           <t>三友科技</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="20" t="inlineStr">
+      <c r="B52" s="22" t="inlineStr">
         <is>
           <t>郑中设计</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="13" t="inlineStr">
         <is>
           <t>凯迪股份</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr">
+      <c r="D52" s="13" t="inlineStr">
         <is>
           <t>天味食品</t>
         </is>
       </c>
-      <c r="E52" s="11" t="inlineStr">
+      <c r="E52" s="13" t="inlineStr">
         <is>
           <t>大唐电信</t>
         </is>
       </c>
-      <c r="F52" s="21" t="inlineStr">
+      <c r="F52" s="23" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
       </c>
-      <c r="I52" s="13" t="inlineStr">
+      <c r="I52" s="15" t="inlineStr">
         <is>
           <t>诺普信</t>
         </is>
       </c>
-      <c r="J52" s="27" t="inlineStr">
+      <c r="J52" s="29" t="inlineStr">
         <is>
           <t>西上海</t>
         </is>
       </c>
-      <c r="K52" s="18" t="inlineStr">
+      <c r="K52" s="20" t="inlineStr">
         <is>
           <t>新乳业</t>
         </is>
       </c>
-      <c r="L52" s="16" t="inlineStr">
+      <c r="L52" s="18" t="inlineStr">
         <is>
           <t>万马科技</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="18" t="inlineStr">
+      <c r="B53" s="20" t="inlineStr">
         <is>
           <t>丸美生物</t>
         </is>
       </c>
-      <c r="C53" s="13" t="inlineStr">
+      <c r="C53" s="15" t="inlineStr">
         <is>
           <t>吉华集团</t>
         </is>
       </c>
-      <c r="D53" s="11" t="inlineStr">
+      <c r="D53" s="13" t="inlineStr">
         <is>
           <t>沙河股份</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="E53" s="12" t="inlineStr">
         <is>
           <t>利源股份</t>
         </is>
       </c>
-      <c r="F53" s="13" t="inlineStr">
+      <c r="F53" s="15" t="inlineStr">
         <is>
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="I53" s="11" t="inlineStr">
+      <c r="I53" s="13" t="inlineStr">
         <is>
           <t>会畅通讯</t>
         </is>
       </c>
-      <c r="J53" s="13" t="inlineStr">
+      <c r="J53" s="15" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="K53" s="11" t="inlineStr">
+      <c r="K53" s="13" t="inlineStr">
         <is>
           <t>水羊股份</t>
         </is>
       </c>
-      <c r="L53" s="20" t="inlineStr">
+      <c r="L53" s="22" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="C54" s="10" t="inlineStr">
+      <c r="C54" s="12" t="inlineStr">
         <is>
           <t>春兴精工</t>
         </is>
       </c>
-      <c r="D54" s="10" t="inlineStr">
+      <c r="D54" s="12" t="inlineStr">
         <is>
           <t>金利华电</t>
         </is>
       </c>
-      <c r="E54" s="20" t="inlineStr">
+      <c r="E54" s="22" t="inlineStr">
         <is>
           <t>梦网科技</t>
         </is>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F54" s="13" t="inlineStr">
         <is>
           <t>露笑科技</t>
         </is>
       </c>
-      <c r="I54" s="14" t="inlineStr">
+      <c r="I54" s="16" t="inlineStr">
         <is>
           <t>宿迁联盛</t>
         </is>
       </c>
-      <c r="J54" s="13" t="inlineStr">
+      <c r="J54" s="15" t="inlineStr">
         <is>
           <t>海利尔</t>
         </is>
       </c>
-      <c r="K54" s="24" t="inlineStr">
+      <c r="K54" s="26" t="inlineStr">
         <is>
           <t>南都物业</t>
         </is>
       </c>
-      <c r="L54" s="24" t="inlineStr">
+      <c r="L54" s="26" t="inlineStr">
         <is>
           <t>福龙马</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="C55" s="14" t="inlineStr">
+      <c r="C55" s="16" t="inlineStr">
         <is>
           <t>杰克股份</t>
         </is>
       </c>
-      <c r="D55" s="10" t="inlineStr">
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>保变电气</t>
         </is>
       </c>
-      <c r="E55" s="11" t="inlineStr">
+      <c r="E55" s="13" t="inlineStr">
         <is>
           <t>清新环境</t>
         </is>
       </c>
-      <c r="F55" s="20" t="inlineStr">
+      <c r="F55" s="22" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="I55" s="24" t="inlineStr">
+      <c r="I55" s="26" t="inlineStr">
         <is>
           <t>合锻智能</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr">
+      <c r="J55" s="12" t="inlineStr">
         <is>
           <t>四创电子</t>
         </is>
       </c>
-      <c r="K55" s="18" t="inlineStr">
+      <c r="K55" s="20" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="L55" s="24" t="inlineStr">
+      <c r="L55" s="26" t="inlineStr">
         <is>
           <t>超捷股份</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="C56" s="13" t="inlineStr">
+      <c r="C56" s="15" t="inlineStr">
         <is>
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D56" s="11" t="inlineStr">
+      <c r="D56" s="13" t="inlineStr">
         <is>
           <t>海泰发展</t>
         </is>
       </c>
-      <c r="E56" s="14" t="inlineStr">
+      <c r="E56" s="16" t="inlineStr">
         <is>
           <t>盈方微</t>
         </is>
       </c>
-      <c r="F56" s="18" t="inlineStr">
+      <c r="F56" s="20" t="inlineStr">
         <is>
           <t>茂业商业</t>
         </is>
       </c>
-      <c r="I56" s="24" t="inlineStr">
+      <c r="I56" s="26" t="inlineStr">
         <is>
           <t>星宸科技</t>
         </is>
       </c>
-      <c r="J56" s="11" t="inlineStr">
+      <c r="J56" s="13" t="inlineStr">
         <is>
           <t>辉隆股份</t>
         </is>
       </c>
-      <c r="K56" s="11" t="inlineStr">
+      <c r="K56" s="13" t="inlineStr">
         <is>
           <t>菜百股份</t>
         </is>
       </c>
-      <c r="L56" s="11" t="inlineStr">
+      <c r="L56" s="13" t="inlineStr">
         <is>
           <t>康盛股份</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="C57" s="14" t="inlineStr">
+      <c r="C57" s="16" t="inlineStr">
         <is>
           <t>三羊马</t>
         </is>
       </c>
-      <c r="D57" s="13" t="inlineStr">
+      <c r="D57" s="15" t="inlineStr">
         <is>
           <t>宜宾纸业</t>
         </is>
       </c>
-      <c r="E57" s="18" t="inlineStr">
+      <c r="E57" s="20" t="inlineStr">
         <is>
           <t>永创智能</t>
         </is>
       </c>
-      <c r="F57" s="11" t="inlineStr">
+      <c r="F57" s="13" t="inlineStr">
         <is>
           <t>西部黄金</t>
         </is>
       </c>
-      <c r="I57" s="18" t="inlineStr">
+      <c r="I57" s="20" t="inlineStr">
         <is>
           <t>来伊份</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr">
+      <c r="J57" s="12" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="K57" s="18" t="inlineStr">
+      <c r="K57" s="20" t="inlineStr">
         <is>
           <t>老凤祥</t>
         </is>
       </c>
-      <c r="L57" s="24" t="inlineStr">
+      <c r="L57" s="26" t="inlineStr">
         <is>
           <t>通达动力</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="C58" s="11" t="inlineStr">
+      <c r="C58" s="13" t="inlineStr">
         <is>
           <t>安源煤业</t>
         </is>
       </c>
-      <c r="D58" s="10" t="inlineStr">
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>湖南发展</t>
         </is>
       </c>
-      <c r="E58" s="13" t="inlineStr">
+      <c r="E58" s="15" t="inlineStr">
         <is>
           <t>京华激光</t>
         </is>
       </c>
-      <c r="I58" s="10" t="inlineStr">
+      <c r="I58" s="12" t="inlineStr">
         <is>
           <t>金利华电</t>
         </is>
       </c>
-      <c r="J58" s="24" t="inlineStr">
+      <c r="J58" s="26" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="K58" s="11" t="inlineStr">
+      <c r="K58" s="13" t="inlineStr">
         <is>
           <t>日出东方</t>
         </is>
       </c>
-      <c r="L58" s="14" t="inlineStr">
+      <c r="L58" s="16" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="C59" s="13" t="inlineStr">
+      <c r="C59" s="15" t="inlineStr">
         <is>
           <t>华夏幸福</t>
         </is>
       </c>
-      <c r="D59" s="11" t="inlineStr">
+      <c r="D59" s="13" t="inlineStr">
         <is>
           <t>久吾高科</t>
         </is>
       </c>
-      <c r="E59" s="11" t="inlineStr">
+      <c r="E59" s="13" t="inlineStr">
         <is>
           <t>曼卡龙</t>
         </is>
       </c>
-      <c r="I59" s="10" t="inlineStr">
+      <c r="I59" s="12" t="inlineStr">
         <is>
           <t>永鼎股份</t>
         </is>
       </c>
-      <c r="J59" s="11" t="inlineStr">
+      <c r="J59" s="13" t="inlineStr">
         <is>
           <t>广信股份</t>
         </is>
       </c>
-      <c r="K59" s="18" t="inlineStr">
+      <c r="K59" s="20" t="inlineStr">
         <is>
           <t>益盛药业</t>
         </is>
       </c>
-      <c r="L59" s="16" t="inlineStr">
+      <c r="L59" s="18" t="inlineStr">
         <is>
           <t>合众思壮</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="C60" s="18" t="inlineStr">
+      <c r="C60" s="20" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="D60" s="16" t="inlineStr">
+      <c r="D60" s="18" t="inlineStr">
         <is>
           <t>航天彩虹</t>
         </is>
       </c>
-      <c r="E60" s="18" t="inlineStr">
+      <c r="E60" s="20" t="inlineStr">
         <is>
           <t>祖名股份</t>
         </is>
       </c>
-      <c r="I60" s="24" t="inlineStr">
+      <c r="I60" s="26" t="inlineStr">
         <is>
           <t>实丰文化</t>
         </is>
       </c>
-      <c r="J60" s="14" t="inlineStr">
+      <c r="J60" s="16" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="L60" s="10" t="inlineStr">
+      <c r="L60" s="12" t="inlineStr">
         <is>
           <t>久盛电气</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="D61" s="13" t="inlineStr">
+      <c r="D61" s="15" t="inlineStr">
         <is>
           <t>空港股份</t>
         </is>
       </c>
-      <c r="E61" s="14" t="inlineStr">
+      <c r="E61" s="16" t="inlineStr">
         <is>
           <t>创源股份</t>
         </is>
       </c>
-      <c r="I61" s="10" t="inlineStr">
+      <c r="I61" s="12" t="inlineStr">
         <is>
           <t>瑞奇智造</t>
         </is>
       </c>
-      <c r="J61" s="14" t="inlineStr">
+      <c r="J61" s="16" t="inlineStr">
         <is>
           <t>利尔化学</t>
         </is>
       </c>
-      <c r="L61" s="16" t="inlineStr">
+      <c r="L61" s="18" t="inlineStr">
         <is>
           <t>中原内配</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" s="11" t="inlineStr">
+      <c r="D62" s="13" t="inlineStr">
         <is>
           <t>新宏泰</t>
         </is>
       </c>
-      <c r="E62" s="11" t="inlineStr">
+      <c r="E62" s="13" t="inlineStr">
         <is>
           <t>浙江众成</t>
         </is>
       </c>
-      <c r="I62" s="20" t="inlineStr">
+      <c r="I62" s="22" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
-      <c r="J62" s="14" t="inlineStr">
+      <c r="J62" s="16" t="inlineStr">
         <is>
           <t>中旗股份</t>
         </is>
       </c>
-      <c r="L62" s="10" t="inlineStr">
+      <c r="L62" s="12" t="inlineStr">
         <is>
           <t>兰石重装</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" s="11" t="inlineStr">
+      <c r="D63" s="13" t="inlineStr">
         <is>
           <t>正虹科技</t>
         </is>
       </c>
-      <c r="E63" s="14" t="inlineStr">
+      <c r="E63" s="16" t="inlineStr">
         <is>
           <t>佳禾食品</t>
         </is>
       </c>
-      <c r="I63" s="10" t="inlineStr">
+      <c r="I63" s="12" t="inlineStr">
         <is>
           <t>中核科技</t>
         </is>
       </c>
-      <c r="J63" s="13" t="inlineStr">
+      <c r="J63" s="15" t="inlineStr">
         <is>
           <t>美邦股份</t>
         </is>
       </c>
-      <c r="L63" s="13" t="inlineStr">
+      <c r="L63" s="15" t="inlineStr">
         <is>
           <t>锦江在线</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" s="13" t="inlineStr">
+      <c r="D64" s="15" t="inlineStr">
         <is>
           <t>棕榈股份</t>
         </is>
       </c>
-      <c r="E64" s="21" t="inlineStr">
+      <c r="E64" s="23" t="inlineStr">
         <is>
           <t>一心堂</t>
         </is>
       </c>
-      <c r="I64" s="24" t="inlineStr">
+      <c r="I64" s="26" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr">
+      <c r="J64" s="13" t="inlineStr">
         <is>
           <t>中农联合</t>
         </is>
       </c>
-      <c r="L64" s="11" t="inlineStr">
+      <c r="L64" s="13" t="inlineStr">
         <is>
           <t>德宏股份</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="D65" s="11" t="inlineStr">
+      <c r="D65" s="13" t="inlineStr">
         <is>
           <t>高新发展</t>
         </is>
       </c>
-      <c r="E65" s="14" t="inlineStr">
+      <c r="E65" s="16" t="inlineStr">
         <is>
           <t>奥飞娱乐</t>
         </is>
       </c>
-      <c r="I65" s="11" t="inlineStr">
+      <c r="I65" s="13" t="inlineStr">
         <is>
           <t>中广核技</t>
         </is>
       </c>
-      <c r="J65" s="13" t="inlineStr">
+      <c r="J65" s="15" t="inlineStr">
         <is>
           <t>恒天海龙</t>
         </is>
       </c>
-      <c r="L65" s="24" t="inlineStr">
+      <c r="L65" s="26" t="inlineStr">
         <is>
           <t>三力士</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" s="24" t="inlineStr">
+      <c r="D66" s="26" t="inlineStr">
         <is>
           <t>四川双马</t>
         </is>
       </c>
-      <c r="E66" s="24" t="inlineStr">
+      <c r="E66" s="26" t="inlineStr">
         <is>
           <t>实丰文化</t>
         </is>
       </c>
-      <c r="I66" s="10" t="inlineStr">
+      <c r="I66" s="12" t="inlineStr">
         <is>
           <t>金浦钛业</t>
         </is>
       </c>
-      <c r="J66" s="27" t="inlineStr">
+      <c r="J66" s="29" t="inlineStr">
         <is>
           <t>常青股份</t>
         </is>
       </c>
-      <c r="L66" s="16" t="inlineStr">
+      <c r="L66" s="18" t="inlineStr">
         <is>
           <t>中力股份</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="D67" s="14" t="inlineStr">
+      <c r="D67" s="16" t="inlineStr">
         <is>
           <t>宁波港</t>
         </is>
       </c>
-      <c r="E67" s="18" t="inlineStr">
+      <c r="E67" s="20" t="inlineStr">
         <is>
           <t>比依股份</t>
         </is>
       </c>
-      <c r="L67" s="27" t="inlineStr">
+      <c r="L67" s="29" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="D68" s="14" t="inlineStr">
+      <c r="D68" s="16" t="inlineStr">
         <is>
           <t>五新隧装</t>
         </is>
       </c>
-      <c r="E68" s="10" t="inlineStr">
+      <c r="E68" s="12" t="inlineStr">
         <is>
           <t>罗曼股份</t>
         </is>
       </c>
-      <c r="L68" s="20" t="inlineStr">
+      <c r="L68" s="22" t="inlineStr">
         <is>
           <t>朗新集团</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="D69" s="11" t="inlineStr">
+      <c r="D69" s="13" t="inlineStr">
         <is>
           <t>渤海股份</t>
         </is>
       </c>
-      <c r="E69" s="27" t="inlineStr">
+      <c r="E69" s="29" t="inlineStr">
         <is>
           <t>天安新材</t>
         </is>
       </c>
-      <c r="L69" s="11" t="inlineStr">
+      <c r="L69" s="13" t="inlineStr">
         <is>
           <t>汇金股份</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="D70" s="21" t="inlineStr">
+      <c r="D70" s="23" t="inlineStr">
         <is>
           <t>亚泰集团</t>
         </is>
       </c>
-      <c r="E70" s="10" t="inlineStr">
+      <c r="E70" s="12" t="inlineStr">
         <is>
           <t>金龙羽</t>
         </is>
       </c>
-      <c r="L70" s="11" t="inlineStr">
+      <c r="L70" s="13" t="inlineStr">
         <is>
           <t>金溢科技</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" s="10" t="inlineStr">
+      <c r="D71" s="12" t="inlineStr">
         <is>
           <t>德力股份</t>
         </is>
       </c>
-      <c r="E71" s="27" t="inlineStr">
+      <c r="E71" s="29" t="inlineStr">
         <is>
           <t>万朗磁塑</t>
         </is>
       </c>
-      <c r="L71" s="11" t="inlineStr">
+      <c r="L71" s="13" t="inlineStr">
         <is>
           <t>速达股份</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" s="24" t="inlineStr">
+      <c r="D72" s="26" t="inlineStr">
         <is>
           <t>丰茂股份</t>
         </is>
       </c>
-      <c r="E72" s="11" t="inlineStr">
+      <c r="E72" s="13" t="inlineStr">
         <is>
           <t>欧菲光</t>
         </is>
       </c>
-      <c r="L72" s="11" t="inlineStr">
+      <c r="L72" s="13" t="inlineStr">
         <is>
           <t>宏和科技</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" s="11" t="inlineStr">
+      <c r="D73" s="13" t="inlineStr">
         <is>
           <t>我乐家居</t>
         </is>
       </c>
-      <c r="E73" s="11" t="inlineStr">
+      <c r="E73" s="13" t="inlineStr">
         <is>
           <t>广晟有色</t>
         </is>
       </c>
-      <c r="L73" s="14" t="inlineStr">
+      <c r="L73" s="16" t="inlineStr">
         <is>
           <t>全筑股份</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" s="14" t="inlineStr">
+      <c r="D74" s="16" t="inlineStr">
         <is>
           <t>源飞宠物</t>
         </is>
       </c>
-      <c r="E74" s="10" t="inlineStr">
+      <c r="E74" s="12" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
       </c>
-      <c r="L74" s="11" t="inlineStr">
+      <c r="L74" s="13" t="inlineStr">
         <is>
           <t>雄帝科技</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" s="13" t="inlineStr">
+      <c r="D75" s="15" t="inlineStr">
         <is>
           <t>恒天海龙</t>
         </is>
       </c>
-      <c r="E75" s="11" t="inlineStr">
+      <c r="E75" s="13" t="inlineStr">
         <is>
           <t>圣晖集成</t>
         </is>
       </c>
-      <c r="L75" s="21" t="inlineStr">
+      <c r="L75" s="23" t="inlineStr">
         <is>
           <t>益方生物</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" s="24" t="inlineStr">
+      <c r="D76" s="26" t="inlineStr">
         <is>
           <t>福龙马</t>
         </is>
       </c>
-      <c r="E76" s="13" t="inlineStr">
+      <c r="E76" s="15" t="inlineStr">
         <is>
           <t>远望谷</t>
         </is>
       </c>
-      <c r="L76" s="11" t="inlineStr">
+      <c r="L76" s="13" t="inlineStr">
         <is>
           <t>联泰环保</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" s="13" t="inlineStr">
+      <c r="D77" s="15" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
       </c>
-      <c r="E77" s="13" t="inlineStr">
+      <c r="E77" s="15" t="inlineStr">
         <is>
           <t>东风股份</t>
         </is>
       </c>
-      <c r="L77" s="11" t="inlineStr">
+      <c r="L77" s="13" t="inlineStr">
         <is>
           <t>中晟高科</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="D78" s="14" t="inlineStr">
+      <c r="D78" s="16" t="inlineStr">
         <is>
           <t>天元宠物</t>
         </is>
       </c>
-      <c r="E78" s="27" t="inlineStr">
+      <c r="E78" s="29" t="inlineStr">
         <is>
           <t>长春一东</t>
         </is>
       </c>
-      <c r="L78" s="16" t="inlineStr">
+      <c r="L78" s="18" t="inlineStr">
         <is>
           <t>金龙汽车</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="D79" s="24" t="inlineStr">
+      <c r="D79" s="26" t="inlineStr">
         <is>
           <t>盛视科技</t>
         </is>
       </c>
-      <c r="E79" s="10" t="inlineStr">
+      <c r="E79" s="12" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="L79" s="11" t="inlineStr">
+      <c r="L79" s="13" t="inlineStr">
         <is>
           <t>法尔胜</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="D80" s="11" t="inlineStr">
+      <c r="D80" s="13" t="inlineStr">
         <is>
           <t>大千生态</t>
         </is>
       </c>
-      <c r="E80" s="14" t="inlineStr">
+      <c r="E80" s="16" t="inlineStr">
         <is>
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="L80" s="10" t="inlineStr">
+      <c r="L80" s="12" t="inlineStr">
         <is>
           <t>协鑫能科</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="20" t="inlineStr">
+      <c r="D81" s="22" t="inlineStr">
         <is>
           <t>金财互联</t>
         </is>
       </c>
-      <c r="E81" s="20" t="inlineStr">
+      <c r="E81" s="22" t="inlineStr">
         <is>
           <t>浙文互联</t>
         </is>
       </c>
-      <c r="L81" s="14" t="inlineStr">
+      <c r="L81" s="16" t="inlineStr">
         <is>
           <t>四方精创</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="D82" s="24" t="inlineStr">
+      <c r="D82" s="26" t="inlineStr">
         <is>
           <t>中重科技</t>
         </is>
       </c>
-      <c r="L82" s="13" t="inlineStr">
+      <c r="L82" s="15" t="inlineStr">
         <is>
           <t>恒宝股份</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="21" t="inlineStr">
+      <c r="D83" s="23" t="inlineStr">
         <is>
           <t>三生国健</t>
         </is>
       </c>
-      <c r="L83" s="20" t="inlineStr">
+      <c r="L83" s="22" t="inlineStr">
         <is>
           <t>金证股份</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="D84" s="11" t="inlineStr">
+      <c r="D84" s="13" t="inlineStr">
         <is>
           <t>达华智能</t>
         </is>
       </c>
-      <c r="L84" s="27" t="inlineStr">
+      <c r="L84" s="29" t="inlineStr">
         <is>
           <t>交运股份</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="D85" s="11" t="inlineStr">
+      <c r="D85" s="13" t="inlineStr">
         <is>
           <t>航天动力</t>
         </is>
       </c>
-      <c r="L85" s="10" t="inlineStr">
+      <c r="L85" s="12" t="inlineStr">
         <is>
           <t>金浦钛业</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="D86" s="14" t="inlineStr">
+      <c r="D86" s="16" t="inlineStr">
         <is>
           <t>盐田港</t>
         </is>
       </c>
-      <c r="L86" s="11" t="inlineStr">
+      <c r="L86" s="13" t="inlineStr">
         <is>
           <t>天阳科技</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" s="11" t="inlineStr">
+      <c r="D87" s="13" t="inlineStr">
         <is>
           <t>江天化学</t>
         </is>
       </c>
-      <c r="L87" s="13" t="inlineStr">
+      <c r="L87" s="15" t="inlineStr">
         <is>
           <t>翠微股份</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="L88" s="24" t="inlineStr">
+      <c r="L88" s="26" t="inlineStr">
         <is>
           <t>路桥信息</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="L89" s="13" t="inlineStr">
+      <c r="L89" s="15" t="inlineStr">
         <is>
           <t>霍普股份</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="L90" s="13" t="inlineStr">
+      <c r="L90" s="15" t="inlineStr">
         <is>
           <t>元隆雅图</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="L91" s="13" t="inlineStr">
+      <c r="L91" s="15" t="inlineStr">
         <is>
           <t>时代出版</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="L92" s="12" t="inlineStr">
+      <c r="L92" s="14" t="inlineStr">
         <is>
           <t>天晟新材</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="L93" s="11" t="inlineStr">
+      <c r="L93" s="13" t="inlineStr">
         <is>
           <t>奥瑞德</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="L94" s="13" t="inlineStr">
+      <c r="L94" s="15" t="inlineStr">
         <is>
           <t>湘邮科技</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="L95" s="11" t="inlineStr">
+      <c r="L95" s="13" t="inlineStr">
         <is>
           <t>金桥信息</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="L96" s="11" t="inlineStr">
+      <c r="L96" s="13" t="inlineStr">
         <is>
           <t>天地在线</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="L97" s="20" t="inlineStr">
+      <c r="L97" s="22" t="inlineStr">
         <is>
           <t>捷顺科技</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="L98" s="16" t="inlineStr">
+      <c r="L98" s="18" t="inlineStr">
         <is>
           <t>德赛西威</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="L99" s="21" t="inlineStr">
+      <c r="L99" s="23" t="inlineStr">
         <is>
           <t>昭衍新药</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="L100" s="20" t="inlineStr">
+      <c r="L100" s="22" t="inlineStr">
         <is>
           <t>中科金财</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="L101" s="11" t="inlineStr">
+      <c r="L101" s="13" t="inlineStr">
         <is>
           <t>广立微</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="L102" s="21" t="inlineStr">
+      <c r="L102" s="23" t="inlineStr">
         <is>
           <t>众生药业</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="L103" s="14" t="inlineStr">
+      <c r="L103" s="16" t="inlineStr">
         <is>
           <t>京北方</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="L104" s="16" t="inlineStr">
+      <c r="L104" s="18" t="inlineStr">
         <is>
           <t>绿能慧充</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="L105" s="14" t="inlineStr">
+      <c r="L105" s="16" t="inlineStr">
         <is>
           <t>神州信息</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="L106" s="14" t="inlineStr">
+      <c r="L106" s="16" t="inlineStr">
         <is>
           <t>贝斯美</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="L107" s="11" t="inlineStr">
+      <c r="L107" s="13" t="inlineStr">
         <is>
           <t>宏柏新材</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="L108" s="27" t="inlineStr">
+      <c r="L108" s="29" t="inlineStr">
         <is>
           <t>东风科技</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="L109" s="14" t="inlineStr">
+      <c r="L109" s="16" t="inlineStr">
         <is>
           <t>信雅达</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="L110" s="12" t="inlineStr">
+      <c r="L110" s="14" t="inlineStr">
         <is>
           <t>航发科技</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="L111" s="11" t="inlineStr">
+      <c r="L111" s="13" t="inlineStr">
         <is>
           <t>瀛通通讯</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="L112" s="14" t="inlineStr">
+      <c r="L112" s="16" t="inlineStr">
         <is>
           <t>拉卡拉</t>
         </is>
@@ -9270,12 +9282,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>原因</t>
         </is>
       </c>
-      <c r="B1" s="33" t="inlineStr">
+      <c r="B1" s="35" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
@@ -13905,318 +13917,318 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="inlineStr">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>热门概念图例</t>
         </is>
       </c>
-      <c r="B1" s="35" t="n"/>
+      <c r="B1" s="37" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="38" t="inlineStr">
         <is>
           <t>概念</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="38" t="inlineStr">
         <is>
           <t>出现次数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>新能源</t>
         </is>
       </c>
-      <c r="B3" s="35" t="n">
+      <c r="B3" s="37" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>跨境</t>
         </is>
       </c>
-      <c r="B4" s="35" t="n">
+      <c r="B4" s="37" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="39" t="inlineStr">
+      <c r="A5" s="41" t="inlineStr">
         <is>
           <t>大消费</t>
         </is>
       </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="37" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="42" t="inlineStr">
         <is>
           <t>医药</t>
         </is>
       </c>
-      <c r="B6" s="35" t="n">
+      <c r="B6" s="37" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="B7" s="35" t="n">
+      <c r="B7" s="37" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="inlineStr">
+      <c r="A8" s="44" t="inlineStr">
         <is>
           <t>无人经济</t>
         </is>
       </c>
-      <c r="B8" s="35" t="n">
+      <c r="B8" s="37" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="inlineStr">
+      <c r="A9" s="45" t="inlineStr">
         <is>
           <t>军工</t>
         </is>
       </c>
-      <c r="B9" s="35" t="n">
+      <c r="B9" s="37" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="44" t="inlineStr">
+      <c r="A10" s="46" t="inlineStr">
         <is>
           <t>汽车</t>
         </is>
       </c>
-      <c r="B10" s="35" t="n">
+      <c r="B10" s="37" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="inlineStr">
+      <c r="A11" s="47" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="B11" s="35" t="n">
+      <c r="B11" s="37" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="36" t="inlineStr">
+      <c r="A12" s="38" t="inlineStr">
         <is>
           <t>其他概念</t>
         </is>
       </c>
-      <c r="B12" s="35" t="n"/>
+      <c r="B12" s="37" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="inlineStr">
+      <c r="A13" s="37" t="inlineStr">
         <is>
           <t>化工</t>
         </is>
       </c>
-      <c r="B13" s="35" t="n">
+      <c r="B13" s="37" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="inlineStr">
+      <c r="A14" s="37" t="inlineStr">
         <is>
           <t>重组</t>
         </is>
       </c>
-      <c r="B14" s="35" t="n">
+      <c r="B14" s="37" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="inlineStr">
+      <c r="A15" s="37" t="inlineStr">
         <is>
           <t>新传媒</t>
         </is>
       </c>
-      <c r="B15" s="35" t="n">
+      <c r="B15" s="37" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="inlineStr">
+      <c r="A16" s="37" t="inlineStr">
         <is>
           <t>半导体</t>
         </is>
       </c>
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="37" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="inlineStr">
+      <c r="A17" s="37" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="B17" s="35" t="n">
+      <c r="B17" s="37" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="inlineStr">
+      <c r="A18" s="37" t="inlineStr">
         <is>
           <t>电力</t>
         </is>
       </c>
-      <c r="B18" s="35" t="n">
+      <c r="B18" s="37" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="inlineStr">
+      <c r="A19" s="37" t="inlineStr">
         <is>
           <t>新消费</t>
         </is>
       </c>
-      <c r="B19" s="35" t="n">
+      <c r="B19" s="37" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="inlineStr">
+      <c r="A20" s="37" t="inlineStr">
         <is>
           <t>航天</t>
         </is>
       </c>
-      <c r="B20" s="35" t="n">
+      <c r="B20" s="37" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="35" t="inlineStr">
+      <c r="A21" s="37" t="inlineStr">
         <is>
           <t>电子元件</t>
         </is>
       </c>
-      <c r="B21" s="35" t="n">
+      <c r="B21" s="37" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="35" t="inlineStr">
+      <c r="A22" s="37" t="inlineStr">
         <is>
           <t>算力</t>
         </is>
       </c>
-      <c r="B22" s="35" t="n">
+      <c r="B22" s="37" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="35" t="inlineStr">
+      <c r="A23" s="37" t="inlineStr">
         <is>
           <t>消费电子</t>
         </is>
       </c>
-      <c r="B23" s="35" t="n">
+      <c r="B23" s="37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="35" t="inlineStr">
+      <c r="A24" s="37" t="inlineStr">
         <is>
           <t>金融</t>
         </is>
       </c>
-      <c r="B24" s="35" t="n">
+      <c r="B24" s="37" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="35" t="inlineStr">
+      <c r="A25" s="37" t="inlineStr">
         <is>
           <t>华为</t>
         </is>
       </c>
-      <c r="B25" s="35" t="n">
+      <c r="B25" s="37" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="35" t="inlineStr">
+      <c r="A26" s="37" t="inlineStr">
         <is>
           <t>新材料</t>
         </is>
       </c>
-      <c r="B26" s="35" t="n">
+      <c r="B26" s="37" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="35" t="inlineStr">
+      <c r="A27" s="37" t="inlineStr">
         <is>
           <t>旅游</t>
         </is>
       </c>
-      <c r="B27" s="35" t="n">
+      <c r="B27" s="37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="36" t="inlineStr">
+      <c r="A28" s="38" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B28" s="35" t="n"/>
+      <c r="B28" s="37" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="35" t="inlineStr">
+      <c r="A29" s="37" t="inlineStr">
         <is>
           <t>业绩增长</t>
         </is>
       </c>
-      <c r="B29" s="35" t="n">
+      <c r="B29" s="37" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="35" t="inlineStr">
+      <c r="A30" s="37" t="inlineStr">
         <is>
           <t>扭亏为盈</t>
         </is>
       </c>
-      <c r="B30" s="35" t="n">
+      <c r="B30" s="37" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="35" t="inlineStr">
+      <c r="A31" s="37" t="inlineStr">
         <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B31" s="35" t="n">
+      <c r="B31" s="37" t="n">
         <v>183</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="46" t="inlineStr">
+      <c r="A32" s="48" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B32" s="35" t="n"/>
+      <c r="B32" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -202,22 +202,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,20 +229,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -5237,7 +5237,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>新能源(128)</t>
+          <t>跨境(117)</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -5304,7 +5304,7 @@
     <row r="5">
       <c r="A5" s="17" t="inlineStr">
         <is>
-          <t>跨境(117)</t>
+          <t>创新药(92)</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
@@ -5332,7 +5332,7 @@
           <t>综艺股份5</t>
         </is>
       </c>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="G5" s="18" t="inlineStr">
         <is>
           <t>滨海能源4</t>
         </is>
@@ -5352,12 +5352,12 @@
           <t>苏州龙杰9</t>
         </is>
       </c>
-      <c r="K5" s="12" t="inlineStr">
+      <c r="K5" s="18" t="inlineStr">
         <is>
           <t>滨海能源6</t>
         </is>
       </c>
-      <c r="L5" s="18" t="inlineStr">
+      <c r="L5" s="19" t="inlineStr">
         <is>
           <t>通达电气6</t>
         </is>
@@ -5369,9 +5369,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>大消费(97)</t>
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t>大消费(86)</t>
         </is>
       </c>
       <c r="B6" s="15" t="inlineStr">
@@ -5394,7 +5394,7 @@
           <t>综艺股份4</t>
         </is>
       </c>
-      <c r="F6" s="20" t="inlineStr">
+      <c r="F6" s="21" t="inlineStr">
         <is>
           <t>丽人丽妆5</t>
         </is>
@@ -5404,7 +5404,7 @@
           <t>棕榈股份4</t>
         </is>
       </c>
-      <c r="H6" s="20" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>丽人丽妆6</t>
         </is>
@@ -5419,26 +5419,26 @@
           <t>尤夫股份6</t>
         </is>
       </c>
-      <c r="K6" s="18" t="inlineStr">
+      <c r="K6" s="19" t="inlineStr">
         <is>
           <t>通达电气5</t>
         </is>
       </c>
-      <c r="L6" s="12" t="inlineStr">
+      <c r="L6" s="18" t="inlineStr">
         <is>
           <t>尚纬股份6</t>
         </is>
       </c>
-      <c r="M6" s="18" t="inlineStr">
+      <c r="M6" s="19" t="inlineStr">
         <is>
           <t>德邦股份4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t>医药(81)</t>
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t>机器人(80)</t>
         </is>
       </c>
       <c r="B7" s="15" t="inlineStr">
@@ -5456,27 +5456,27 @@
           <t>迎丰股份6</t>
         </is>
       </c>
-      <c r="E7" s="20" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>丽人丽妆4</t>
         </is>
       </c>
-      <c r="F7" s="22" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>郑中设计5</t>
         </is>
       </c>
-      <c r="G7" s="20" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>浪莎股份4</t>
         </is>
       </c>
-      <c r="H7" s="12" t="inlineStr">
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t>滨海能源5</t>
         </is>
       </c>
-      <c r="I7" s="12" t="inlineStr">
+      <c r="I7" s="18" t="inlineStr">
         <is>
           <t>安纳达5</t>
         </is>
@@ -5486,7 +5486,7 @@
           <t>京华激光5</t>
         </is>
       </c>
-      <c r="K7" s="12" t="inlineStr">
+      <c r="K7" s="18" t="inlineStr">
         <is>
           <t>尚纬股份5</t>
         </is>
@@ -5505,10 +5505,10 @@
     <row r="8">
       <c r="A8" s="24" t="inlineStr">
         <is>
-          <t>机器人(80)</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="inlineStr">
+          <t>新能源(70)</t>
+        </is>
+      </c>
+      <c r="B8" s="21" t="inlineStr">
         <is>
           <t>交大昂立4</t>
         </is>
@@ -5523,7 +5523,7 @@
           <t>南京港5</t>
         </is>
       </c>
-      <c r="E8" s="20" t="inlineStr">
+      <c r="E8" s="21" t="inlineStr">
         <is>
           <t>拉芳家化4</t>
         </is>
@@ -5548,7 +5548,7 @@
           <t>棕榈股份5</t>
         </is>
       </c>
-      <c r="J8" s="12" t="inlineStr">
+      <c r="J8" s="18" t="inlineStr">
         <is>
           <t>汇得科技5</t>
         </is>
@@ -5590,12 +5590,12 @@
           <t>宁波海运5</t>
         </is>
       </c>
-      <c r="E9" s="22" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>郑中设计4</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="F9" s="18" t="inlineStr">
         <is>
           <t>安纳达4</t>
         </is>
@@ -5610,7 +5610,7 @@
           <t>王子新材5</t>
         </is>
       </c>
-      <c r="I9" s="12" t="inlineStr">
+      <c r="I9" s="18" t="inlineStr">
         <is>
           <t>汇得科技4</t>
         </is>
@@ -5639,7 +5639,7 @@
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>军工(58)</t>
+          <t>核聚变(58)</t>
         </is>
       </c>
       <c r="B10" s="16" t="inlineStr">
@@ -5662,7 +5662,7 @@
           <t>天汽模3</t>
         </is>
       </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="F10" s="18" t="inlineStr">
         <is>
           <t>滨海能源3</t>
         </is>
@@ -5672,7 +5672,7 @@
           <t>宜宾纸业4</t>
         </is>
       </c>
-      <c r="H10" s="12" t="inlineStr">
+      <c r="H10" s="18" t="inlineStr">
         <is>
           <t>汇得科技3</t>
         </is>
@@ -5706,7 +5706,7 @@
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>汽车(58)</t>
+          <t>军工(58)</t>
         </is>
       </c>
       <c r="B11" s="16" t="inlineStr">
@@ -5719,7 +5719,7 @@
           <t>宁波远洋4</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>交大昂立5</t>
         </is>
@@ -5749,7 +5749,7 @@
           <t>莱绅通灵4</t>
         </is>
       </c>
-      <c r="J11" s="12" t="inlineStr">
+      <c r="J11" s="18" t="inlineStr">
         <is>
           <t>尚纬股份4</t>
         </is>
@@ -5773,7 +5773,7 @@
     <row r="12">
       <c r="A12" s="30" t="inlineStr">
         <is>
-          <t>AI(54)</t>
+          <t>汽车(58)</t>
         </is>
       </c>
       <c r="B12" s="16" t="inlineStr">
@@ -5796,7 +5796,7 @@
           <t>万安科技3</t>
         </is>
       </c>
-      <c r="F12" s="20" t="inlineStr">
+      <c r="F12" s="21" t="inlineStr">
         <is>
           <t>浪莎股份3</t>
         </is>
@@ -5806,7 +5806,7 @@
           <t>莱绅通灵3</t>
         </is>
       </c>
-      <c r="H12" s="12" t="inlineStr">
+      <c r="H12" s="18" t="inlineStr">
         <is>
           <t>金龙羽3</t>
         </is>
@@ -5816,7 +5816,7 @@
           <t>京华激光4</t>
         </is>
       </c>
-      <c r="J12" s="18" t="inlineStr">
+      <c r="J12" s="19" t="inlineStr">
         <is>
           <t>通达电气4</t>
         </is>
@@ -5826,7 +5826,7 @@
           <t>长城电工3</t>
         </is>
       </c>
-      <c r="L12" s="12" t="inlineStr">
+      <c r="L12" s="18" t="inlineStr">
         <is>
           <t>劲旅环境3</t>
         </is>
@@ -5840,7 +5840,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>化工(48)</t>
+          <t>AI大模型(54)</t>
         </is>
       </c>
       <c r="B13" s="16" t="inlineStr">
@@ -5868,7 +5868,7 @@
           <t>三生国健3</t>
         </is>
       </c>
-      <c r="G13" s="12" t="inlineStr">
+      <c r="G13" s="18" t="inlineStr">
         <is>
           <t>汇得科技2</t>
         </is>
@@ -5878,12 +5878,12 @@
           <t>京华激光3</t>
         </is>
       </c>
-      <c r="I13" s="12" t="inlineStr">
+      <c r="I13" s="18" t="inlineStr">
         <is>
           <t>尚纬股份3</t>
         </is>
       </c>
-      <c r="J13" s="12" t="inlineStr">
+      <c r="J13" s="18" t="inlineStr">
         <is>
           <t>金龙羽4</t>
         </is>
@@ -5893,7 +5893,7 @@
           <t>会稽山3</t>
         </is>
       </c>
-      <c r="L13" s="12" t="inlineStr">
+      <c r="L13" s="18" t="inlineStr">
         <is>
           <t>江苏新能3</t>
         </is>
@@ -5907,7 +5907,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>重组(47)</t>
+          <t>化工(48)</t>
         </is>
       </c>
       <c r="B14" s="16" t="inlineStr">
@@ -5915,7 +5915,7 @@
           <t>盛泰集团3</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="18" t="inlineStr">
         <is>
           <t>京运通3</t>
         </is>
@@ -5945,7 +5945,7 @@
           <t>海森药业2</t>
         </is>
       </c>
-      <c r="I14" s="18" t="inlineStr">
+      <c r="I14" s="19" t="inlineStr">
         <is>
           <t>通达电气3</t>
         </is>
@@ -5960,7 +5960,7 @@
           <t>雪人股份3</t>
         </is>
       </c>
-      <c r="L14" s="18" t="inlineStr">
+      <c r="L14" s="19" t="inlineStr">
         <is>
           <t>德邦股份3</t>
         </is>
@@ -5974,7 +5974,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>新传媒(39)</t>
+          <t>重组(47)</t>
         </is>
       </c>
       <c r="B15" s="15" t="inlineStr">
@@ -5987,7 +5987,7 @@
           <t>中毅达3</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" s="18" t="inlineStr">
         <is>
           <t>安纳达3</t>
         </is>
@@ -6007,7 +6007,7 @@
           <t>廊坊发展2</t>
         </is>
       </c>
-      <c r="H15" s="12" t="inlineStr">
+      <c r="H15" s="18" t="inlineStr">
         <is>
           <t>尚纬股份2</t>
         </is>
@@ -6022,7 +6022,7 @@
           <t>烽火电子3</t>
         </is>
       </c>
-      <c r="K15" s="12" t="inlineStr">
+      <c r="K15" s="18" t="inlineStr">
         <is>
           <t>江苏新能2</t>
         </is>
@@ -6041,7 +6041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>半导体(32)</t>
+          <t>新传媒(39)</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
@@ -6049,27 +6049,27 @@
           <t>茂化实华2</t>
         </is>
       </c>
-      <c r="C16" s="22" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>郑中设计2</t>
         </is>
       </c>
-      <c r="D16" s="22" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>郑中设计3</t>
         </is>
       </c>
-      <c r="E16" s="12" t="inlineStr">
+      <c r="E16" s="18" t="inlineStr">
         <is>
           <t>滨海能源2</t>
         </is>
       </c>
-      <c r="F16" s="12" t="inlineStr">
+      <c r="F16" s="18" t="inlineStr">
         <is>
           <t>湖南发展3</t>
         </is>
       </c>
-      <c r="G16" s="18" t="inlineStr">
+      <c r="G16" s="19" t="inlineStr">
         <is>
           <t>通达电气2</t>
         </is>
@@ -6089,7 +6089,7 @@
           <t>哈焊华通3</t>
         </is>
       </c>
-      <c r="K16" s="12" t="inlineStr">
+      <c r="K16" s="18" t="inlineStr">
         <is>
           <t>劲旅环境2</t>
         </is>
@@ -6099,7 +6099,7 @@
           <t>合锻智能3</t>
         </is>
       </c>
-      <c r="M16" s="18" t="inlineStr">
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>中力股份2</t>
         </is>
@@ -6108,7 +6108,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>房地产(31)</t>
+          <t>半导体(32)</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -6116,7 +6116,7 @@
           <t>综艺股份2</t>
         </is>
       </c>
-      <c r="C17" s="20" t="inlineStr">
+      <c r="C17" s="21" t="inlineStr">
         <is>
           <t>丽人丽妆2</t>
         </is>
@@ -6175,7 +6175,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>电力(30)</t>
+          <t>房地产(31)</t>
         </is>
       </c>
       <c r="B18" s="16" t="inlineStr">
@@ -6183,17 +6183,17 @@
           <t>海程邦达2</t>
         </is>
       </c>
-      <c r="C18" s="12" t="inlineStr">
+      <c r="C18" s="18" t="inlineStr">
         <is>
           <t>洪通燃气2</t>
         </is>
       </c>
-      <c r="D18" s="22" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>东方中科3</t>
         </is>
       </c>
-      <c r="E18" s="20" t="inlineStr">
+      <c r="E18" s="21" t="inlineStr">
         <is>
           <t>浪莎股份2</t>
         </is>
@@ -6223,7 +6223,7 @@
           <t>云内动力2</t>
         </is>
       </c>
-      <c r="K18" s="18" t="inlineStr">
+      <c r="K18" s="19" t="inlineStr">
         <is>
           <t>德邦股份2</t>
         </is>
@@ -6242,7 +6242,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>新消费(26)</t>
+          <t>电力(30)</t>
         </is>
       </c>
       <c r="B19" s="16" t="inlineStr">
@@ -6250,17 +6250,17 @@
           <t>锦江航运2</t>
         </is>
       </c>
-      <c r="C19" s="22" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>东方中科2</t>
         </is>
       </c>
-      <c r="D19" s="20" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>拉芳家化3</t>
         </is>
       </c>
-      <c r="E19" s="12" t="inlineStr">
+      <c r="E19" s="18" t="inlineStr">
         <is>
           <t>安彩高科2</t>
         </is>
@@ -6286,12 +6286,12 @@
           <t>锡装股份2</t>
         </is>
       </c>
-      <c r="K19" s="20" t="inlineStr">
+      <c r="K19" s="21" t="inlineStr">
         <is>
           <t>锦泓集团2</t>
         </is>
       </c>
-      <c r="L19" s="20" t="inlineStr">
+      <c r="L19" s="21" t="inlineStr">
         <is>
           <t>锦泓集团3</t>
         </is>
@@ -6305,7 +6305,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>航天(26)</t>
+          <t>新消费(26)</t>
         </is>
       </c>
       <c r="B20" s="16" t="inlineStr">
@@ -6318,7 +6318,7 @@
           <t>通达股份2</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>丽人丽妆3</t>
         </is>
@@ -6350,7 +6350,7 @@
           <t>美邦股份2</t>
         </is>
       </c>
-      <c r="L20" s="18" t="inlineStr">
+      <c r="L20" s="19" t="inlineStr">
         <is>
           <t>启迪环境2</t>
         </is>
@@ -6364,7 +6364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>电子元件(20)</t>
+          <t>航天(26)</t>
         </is>
       </c>
       <c r="B21" s="14" t="inlineStr">
@@ -6372,7 +6372,7 @@
           <t>吉林化纤2</t>
         </is>
       </c>
-      <c r="C21" s="12" t="inlineStr">
+      <c r="C21" s="18" t="inlineStr">
         <is>
           <t>安纳达2</t>
         </is>
@@ -6417,12 +6417,12 @@
           <t>乐惠国际2</t>
         </is>
       </c>
-      <c r="L21" s="20" t="inlineStr">
+      <c r="L21" s="21" t="inlineStr">
         <is>
           <t>合兴股份2</t>
         </is>
       </c>
-      <c r="M21" s="18" t="inlineStr">
+      <c r="M21" s="19" t="inlineStr">
         <is>
           <t>绿能慧充2</t>
         </is>
@@ -6431,10 +6431,10 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>算力(19)</t>
-        </is>
-      </c>
-      <c r="B22" s="20" t="inlineStr">
+          <t>电子元件(20)</t>
+        </is>
+      </c>
+      <c r="B22" s="21" t="inlineStr">
         <is>
           <t>拉芳家化2</t>
         </is>
@@ -6464,7 +6464,7 @@
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="H22" s="12" t="inlineStr">
+      <c r="H22" s="26" t="inlineStr">
         <is>
           <t>悦达投资</t>
         </is>
@@ -6484,7 +6484,7 @@
           <t>合锻智能2</t>
         </is>
       </c>
-      <c r="L22" s="12" t="inlineStr">
+      <c r="L22" s="18" t="inlineStr">
         <is>
           <t>粤电力A2</t>
         </is>
@@ -6498,7 +6498,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>消费电子(15)</t>
+          <t>AI算力(19)</t>
         </is>
       </c>
       <c r="B23" s="16" t="inlineStr">
@@ -6521,17 +6521,17 @@
           <t>金利华电2</t>
         </is>
       </c>
-      <c r="F23" s="12" t="inlineStr">
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>金龙羽2</t>
         </is>
       </c>
-      <c r="G23" s="22" t="inlineStr">
+      <c r="G23" s="15" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
       </c>
-      <c r="H23" s="12" t="inlineStr">
+      <c r="H23" s="18" t="inlineStr">
         <is>
           <t>英联股份</t>
         </is>
@@ -6551,7 +6551,7 @@
           <t>华森制药2</t>
         </is>
       </c>
-      <c r="L23" s="18" t="inlineStr">
+      <c r="L23" s="19" t="inlineStr">
         <is>
           <t>玉禾田2</t>
         </is>
@@ -6561,10 +6561,10 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>金融(14)</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="inlineStr">
+          <t>消费电子(15)</t>
+        </is>
+      </c>
+      <c r="B24" s="18" t="inlineStr">
         <is>
           <t>京运通2</t>
         </is>
@@ -6589,7 +6589,7 @@
           <t>保龄宝2</t>
         </is>
       </c>
-      <c r="G24" s="12" t="inlineStr">
+      <c r="G24" s="18" t="inlineStr">
         <is>
           <t>尚纬股份</t>
         </is>
@@ -6599,7 +6599,7 @@
           <t>融发核电</t>
         </is>
       </c>
-      <c r="I24" s="22" t="inlineStr">
+      <c r="I24" s="13" t="inlineStr">
         <is>
           <t>正和生态</t>
         </is>
@@ -6628,7 +6628,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>华为(10)</t>
+          <t>金融(14)</t>
         </is>
       </c>
       <c r="B25" s="31" t="n"/>
@@ -6658,12 +6658,12 @@
           <t>沃特股份</t>
         </is>
       </c>
-      <c r="I25" s="22" t="inlineStr">
+      <c r="I25" s="13" t="inlineStr">
         <is>
           <t>浪潮软件</t>
         </is>
       </c>
-      <c r="J25" s="12" t="inlineStr">
+      <c r="J25" s="18" t="inlineStr">
         <is>
           <t>英联股份2</t>
         </is>
@@ -6683,10 +6683,10 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>新材料(9)</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
+          <t>华为(10)</t>
+        </is>
+      </c>
+      <c r="B26" s="21" t="inlineStr">
         <is>
           <t>丽人丽妆</t>
         </is>
@@ -6696,7 +6696,7 @@
           <t>王子新材</t>
         </is>
       </c>
-      <c r="D26" s="20" t="inlineStr">
+      <c r="D26" s="21" t="inlineStr">
         <is>
           <t>百合股份2</t>
         </is>
@@ -6722,7 +6722,7 @@
           <t>锡装股份</t>
         </is>
       </c>
-      <c r="J26" s="12" t="inlineStr">
+      <c r="J26" s="18" t="inlineStr">
         <is>
           <t>凯美特气2</t>
         </is>
@@ -6746,144 +6746,144 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>新材料(9)</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>通达股份</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="inlineStr">
+        <is>
+          <t>万安科技</t>
+        </is>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>王子新材2</t>
+        </is>
+      </c>
+      <c r="E27" s="23" t="inlineStr">
+        <is>
+          <t>亚泰集团2</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
+        <is>
+          <t>中农立华</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t>亚世光电</t>
+        </is>
+      </c>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>新金路</t>
+        </is>
+      </c>
+      <c r="I27" s="15" t="inlineStr">
+        <is>
+          <t>会稽山</t>
+        </is>
+      </c>
+      <c r="J27" s="15" t="inlineStr">
+        <is>
+          <t>诺普信2</t>
+        </is>
+      </c>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>侨银股份</t>
+        </is>
+      </c>
+      <c r="L27" s="29" t="inlineStr">
+        <is>
+          <t>联明股份2</t>
+        </is>
+      </c>
+      <c r="M27" s="23" t="inlineStr">
+        <is>
+          <t>海南海药</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>旅游(1)</t>
         </is>
       </c>
-      <c r="B27" s="14" t="inlineStr">
-        <is>
-          <t>通达股份</t>
-        </is>
-      </c>
-      <c r="C27" s="26" t="inlineStr">
-        <is>
-          <t>万安科技</t>
-        </is>
-      </c>
-      <c r="D27" s="12" t="inlineStr">
-        <is>
-          <t>王子新材2</t>
-        </is>
-      </c>
-      <c r="E27" s="23" t="inlineStr">
-        <is>
-          <t>亚泰集团2</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>中农立华</t>
-        </is>
-      </c>
-      <c r="G27" s="13" t="inlineStr">
-        <is>
-          <t>亚世光电</t>
-        </is>
-      </c>
-      <c r="H27" s="15" t="inlineStr">
-        <is>
-          <t>新金路</t>
-        </is>
-      </c>
-      <c r="I27" s="15" t="inlineStr">
-        <is>
-          <t>会稽山</t>
-        </is>
-      </c>
-      <c r="J27" s="15" t="inlineStr">
-        <is>
-          <t>诺普信2</t>
-        </is>
-      </c>
-      <c r="K27" s="26" t="inlineStr">
-        <is>
-          <t>侨银股份</t>
-        </is>
-      </c>
-      <c r="L27" s="29" t="inlineStr">
-        <is>
-          <t>联明股份2</t>
-        </is>
-      </c>
-      <c r="M27" s="23" t="inlineStr">
-        <is>
-          <t>海南海药</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="B28" s="18" t="inlineStr">
+        <is>
+          <t>洪通燃气</t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="inlineStr">
+        <is>
+          <t>新华制药</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>华阳新材2</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>源飞宠物2</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="G28" s="26" t="inlineStr">
+        <is>
+          <t>东贝集团</t>
+        </is>
+      </c>
+      <c r="H28" s="12" t="inlineStr">
+        <is>
+          <t>哈焊华通</t>
+        </is>
+      </c>
+      <c r="I28" s="12" t="inlineStr">
+        <is>
+          <t>长城电工</t>
+        </is>
+      </c>
+      <c r="J28" s="16" t="inlineStr">
+        <is>
+          <t>宿迁联盛2</t>
+        </is>
+      </c>
+      <c r="K28" s="13" t="inlineStr">
+        <is>
+          <t>星网宇达</t>
+        </is>
+      </c>
+      <c r="L28" s="23" t="inlineStr">
+        <is>
+          <t>联化科技2</t>
+        </is>
+      </c>
+      <c r="M28" s="13" t="inlineStr">
+        <is>
+          <t>巨星农牧</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="32" t="inlineStr">
         <is>
           <t>以下是排除的概念</t>
         </is>
       </c>
-      <c r="B28" s="12" t="inlineStr">
-        <is>
-          <t>洪通燃气</t>
-        </is>
-      </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>新华制药</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="inlineStr">
-        <is>
-          <t>华阳新材2</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="inlineStr">
-        <is>
-          <t>源飞宠物2</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="G28" s="26" t="inlineStr">
-        <is>
-          <t>东贝集团</t>
-        </is>
-      </c>
-      <c r="H28" s="12" t="inlineStr">
-        <is>
-          <t>哈焊华通</t>
-        </is>
-      </c>
-      <c r="I28" s="12" t="inlineStr">
-        <is>
-          <t>长城电工</t>
-        </is>
-      </c>
-      <c r="J28" s="16" t="inlineStr">
-        <is>
-          <t>宿迁联盛2</t>
-        </is>
-      </c>
-      <c r="K28" s="13" t="inlineStr">
-        <is>
-          <t>星网宇达</t>
-        </is>
-      </c>
-      <c r="L28" s="23" t="inlineStr">
-        <is>
-          <t>联化科技2</t>
-        </is>
-      </c>
-      <c r="M28" s="13" t="inlineStr">
-        <is>
-          <t>巨星农牧</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>业绩增长(69)</t>
-        </is>
-      </c>
-      <c r="B29" s="22" t="inlineStr">
+      <c r="B29" s="15" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="J29" s="31" t="n"/>
-      <c r="K29" s="20" t="inlineStr">
+      <c r="K29" s="21" t="inlineStr">
         <is>
           <t>友阿股份</t>
         </is>
@@ -6943,7 +6943,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>扭亏为盈(22)</t>
+          <t>业绩增长(69)</t>
         </is>
       </c>
       <c r="B30" s="15" t="inlineStr">
@@ -6986,7 +6986,7 @@
           <t>保变电气</t>
         </is>
       </c>
-      <c r="J30" s="18" t="inlineStr">
+      <c r="J30" s="19" t="inlineStr">
         <is>
           <t>德邦股份</t>
         </is>
@@ -6996,7 +6996,7 @@
           <t>博世科</t>
         </is>
       </c>
-      <c r="L30" s="18" t="inlineStr">
+      <c r="L30" s="19" t="inlineStr">
         <is>
           <t>四川金顶2</t>
         </is>
@@ -7010,141 +7010,141 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>扭亏为盈(22)</t>
+        </is>
+      </c>
+      <c r="B31" s="23" t="inlineStr">
+        <is>
+          <t>川宁生物</t>
+        </is>
+      </c>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>新坐标</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="inlineStr">
+        <is>
+          <t>国光连锁2</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>五新隧装2</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="inlineStr">
+        <is>
+          <t>廊坊发展</t>
+        </is>
+      </c>
+      <c r="G31" s="23" t="inlineStr">
+        <is>
+          <t>海森药业</t>
+        </is>
+      </c>
+      <c r="H31" s="29" t="inlineStr">
+        <is>
+          <t>雪龙集团</t>
+        </is>
+      </c>
+      <c r="I31" s="13" t="inlineStr">
+        <is>
+          <t>武汉凡谷</t>
+        </is>
+      </c>
+      <c r="J31" s="18" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="K31" s="19" t="inlineStr">
+        <is>
+          <t>启迪环境</t>
+        </is>
+      </c>
+      <c r="L31" s="16" t="inlineStr">
+        <is>
+          <t>青岛金王2</t>
+        </is>
+      </c>
+      <c r="M31" s="16" t="inlineStr">
+        <is>
+          <t>真爱美家</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>国企(183)</t>
         </is>
       </c>
-      <c r="B31" s="23" t="inlineStr">
-        <is>
-          <t>川宁生物</t>
-        </is>
-      </c>
-      <c r="C31" s="16" t="inlineStr">
-        <is>
-          <t>新坐标</t>
-        </is>
-      </c>
-      <c r="D31" s="20" t="inlineStr">
-        <is>
-          <t>国光连锁2</t>
-        </is>
-      </c>
-      <c r="E31" s="16" t="inlineStr">
-        <is>
-          <t>五新隧装2</t>
-        </is>
-      </c>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>廊坊发展</t>
-        </is>
-      </c>
-      <c r="G31" s="23" t="inlineStr">
-        <is>
-          <t>海森药业</t>
-        </is>
-      </c>
-      <c r="H31" s="29" t="inlineStr">
-        <is>
-          <t>雪龙集团</t>
-        </is>
-      </c>
-      <c r="I31" s="13" t="inlineStr">
-        <is>
-          <t>武汉凡谷</t>
-        </is>
-      </c>
-      <c r="J31" s="12" t="inlineStr">
-        <is>
-          <t>劲旅环境</t>
-        </is>
-      </c>
-      <c r="K31" s="18" t="inlineStr">
-        <is>
-          <t>启迪环境</t>
-        </is>
-      </c>
-      <c r="L31" s="16" t="inlineStr">
-        <is>
-          <t>青岛金王2</t>
-        </is>
-      </c>
-      <c r="M31" s="16" t="inlineStr">
-        <is>
-          <t>真爱美家</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="33" t="inlineStr">
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>福瑞达</t>
+        </is>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>中洲特材</t>
+        </is>
+      </c>
+      <c r="D32" s="26" t="inlineStr">
+        <is>
+          <t>信隆健康2</t>
+        </is>
+      </c>
+      <c r="E32" s="18" t="inlineStr">
+        <is>
+          <t>湖南发展2</t>
+        </is>
+      </c>
+      <c r="F32" s="18" t="inlineStr">
+        <is>
+          <t>宁新新材</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="inlineStr">
+        <is>
+          <t>四创电子</t>
+        </is>
+      </c>
+      <c r="H32" s="16" t="inlineStr">
+        <is>
+          <t>永冠新材</t>
+        </is>
+      </c>
+      <c r="I32" s="12" t="inlineStr">
+        <is>
+          <t>大西洋</t>
+        </is>
+      </c>
+      <c r="J32" s="21" t="inlineStr">
+        <is>
+          <t>锦泓集团</t>
+        </is>
+      </c>
+      <c r="K32" s="16" t="inlineStr">
+        <is>
+          <t>广康生化</t>
+        </is>
+      </c>
+      <c r="L32" s="12" t="inlineStr">
+        <is>
+          <t>四创电子2</t>
+        </is>
+      </c>
+      <c r="M32" s="13" t="inlineStr">
+        <is>
+          <t>东方园林</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="33" t="inlineStr">
         <is>
           <t>多次上榜</t>
-        </is>
-      </c>
-      <c r="B32" s="20" t="inlineStr">
-        <is>
-          <t>福瑞达</t>
-        </is>
-      </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>中洲特材</t>
-        </is>
-      </c>
-      <c r="D32" s="26" t="inlineStr">
-        <is>
-          <t>信隆健康2</t>
-        </is>
-      </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>湖南发展2</t>
-        </is>
-      </c>
-      <c r="F32" s="12" t="inlineStr">
-        <is>
-          <t>宁新新材</t>
-        </is>
-      </c>
-      <c r="G32" s="12" t="inlineStr">
-        <is>
-          <t>四创电子</t>
-        </is>
-      </c>
-      <c r="H32" s="16" t="inlineStr">
-        <is>
-          <t>永冠新材</t>
-        </is>
-      </c>
-      <c r="I32" s="12" t="inlineStr">
-        <is>
-          <t>大西洋</t>
-        </is>
-      </c>
-      <c r="J32" s="20" t="inlineStr">
-        <is>
-          <t>锦泓集团</t>
-        </is>
-      </c>
-      <c r="K32" s="16" t="inlineStr">
-        <is>
-          <t>广康生化</t>
-        </is>
-      </c>
-      <c r="L32" s="12" t="inlineStr">
-        <is>
-          <t>四创电子2</t>
-        </is>
-      </c>
-      <c r="M32" s="13" t="inlineStr">
-        <is>
-          <t>东方园林</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>分隔cell = 首板</t>
         </is>
       </c>
       <c r="B33" s="23" t="inlineStr">
@@ -7184,21 +7184,25 @@
           <t>黄河旋风</t>
         </is>
       </c>
-      <c r="K33" s="18" t="inlineStr">
+      <c r="K33" s="19" t="inlineStr">
         <is>
           <t>四川金顶</t>
         </is>
       </c>
       <c r="L33" s="31" t="n"/>
-      <c r="M33" s="22" t="inlineStr">
+      <c r="M33" s="13" t="inlineStr">
         <is>
           <t>创新医疗</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="34" t="n"/>
-      <c r="B34" s="20" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>分隔cell = 首板</t>
+        </is>
+      </c>
+      <c r="B34" s="21" t="inlineStr">
         <is>
           <t>洁雅股份</t>
         </is>
@@ -7208,7 +7212,7 @@
           <t>铭科精技</t>
         </is>
       </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="D34" s="18" t="inlineStr">
         <is>
           <t>安彩高科</t>
         </is>
@@ -7238,7 +7242,7 @@
           <t>深纺织A</t>
         </is>
       </c>
-      <c r="J34" s="12" t="inlineStr">
+      <c r="J34" s="18" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
@@ -7248,18 +7252,19 @@
           <t>联明股份</t>
         </is>
       </c>
-      <c r="L34" s="18" t="inlineStr">
+      <c r="L34" s="19" t="inlineStr">
         <is>
           <t>申通地铁</t>
         </is>
       </c>
-      <c r="M34" s="22" t="inlineStr">
+      <c r="M34" s="15" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="34" t="n"/>
       <c r="B35" s="16" t="inlineStr">
         <is>
           <t>金达威</t>
@@ -7270,7 +7275,7 @@
           <t>路畅科技</t>
         </is>
       </c>
-      <c r="D35" s="12" t="inlineStr">
+      <c r="D35" s="18" t="inlineStr">
         <is>
           <t>滨海能源</t>
         </is>
@@ -7290,7 +7295,7 @@
           <t>国科天成</t>
         </is>
       </c>
-      <c r="H35" s="22" t="inlineStr">
+      <c r="H35" s="13" t="inlineStr">
         <is>
           <t>贝瑞基因</t>
         </is>
@@ -7322,7 +7327,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="20" t="inlineStr">
+      <c r="B36" s="23" t="inlineStr">
         <is>
           <t>芭薇股份</t>
         </is>
@@ -7367,7 +7372,7 @@
           <t>泉阳泉</t>
         </is>
       </c>
-      <c r="K36" s="18" t="inlineStr">
+      <c r="K36" s="19" t="inlineStr">
         <is>
           <t>玉禾田</t>
         </is>
@@ -7399,7 +7404,7 @@
           <t>九鼎投资</t>
         </is>
       </c>
-      <c r="E37" s="20" t="inlineStr">
+      <c r="E37" s="21" t="inlineStr">
         <is>
           <t>友阿股份</t>
         </is>
@@ -7414,7 +7419,7 @@
           <t>中天精装</t>
         </is>
       </c>
-      <c r="H37" s="12" t="inlineStr">
+      <c r="H37" s="18" t="inlineStr">
         <is>
           <t>北特科技</t>
         </is>
@@ -7424,12 +7429,12 @@
           <t>汇金通</t>
         </is>
       </c>
-      <c r="J37" s="20" t="inlineStr">
+      <c r="J37" s="21" t="inlineStr">
         <is>
           <t>交大昂立</t>
         </is>
       </c>
-      <c r="K37" s="12" t="inlineStr">
+      <c r="K37" s="26" t="inlineStr">
         <is>
           <t>悦达投资</t>
         </is>
@@ -7439,7 +7444,7 @@
           <t>富煌钢构</t>
         </is>
       </c>
-      <c r="M37" s="22" t="inlineStr">
+      <c r="M37" s="15" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
@@ -7456,7 +7461,7 @@
           <t>章源钨业</t>
         </is>
       </c>
-      <c r="D38" s="18" t="inlineStr">
+      <c r="D38" s="19" t="inlineStr">
         <is>
           <t>海格通信</t>
         </is>
@@ -7491,12 +7496,12 @@
           <t>誉衡药业</t>
         </is>
       </c>
-      <c r="K38" s="20" t="inlineStr">
+      <c r="K38" s="21" t="inlineStr">
         <is>
           <t>园林股份</t>
         </is>
       </c>
-      <c r="L38" s="22" t="inlineStr">
+      <c r="L38" s="13" t="inlineStr">
         <is>
           <t>鸿合科技</t>
         </is>
@@ -7528,12 +7533,12 @@
           <t>佳合科技</t>
         </is>
       </c>
-      <c r="F39" s="12" t="inlineStr">
+      <c r="F39" s="18" t="inlineStr">
         <is>
           <t>汇得科技</t>
         </is>
       </c>
-      <c r="G39" s="12" t="inlineStr">
+      <c r="G39" s="18" t="inlineStr">
         <is>
           <t>国光电器</t>
         </is>
@@ -7590,12 +7595,12 @@
           <t>博云新材</t>
         </is>
       </c>
-      <c r="F40" s="20" t="inlineStr">
+      <c r="F40" s="21" t="inlineStr">
         <is>
           <t>爱仕达</t>
         </is>
       </c>
-      <c r="G40" s="22" t="inlineStr">
+      <c r="G40" s="13" t="inlineStr">
         <is>
           <t>昆仑万维</t>
         </is>
@@ -7615,12 +7620,12 @@
           <t>华森制药</t>
         </is>
       </c>
-      <c r="K40" s="20" t="inlineStr">
+      <c r="K40" s="21" t="inlineStr">
         <is>
           <t>合兴股份</t>
         </is>
       </c>
-      <c r="L40" s="18" t="inlineStr">
+      <c r="L40" s="19" t="inlineStr">
         <is>
           <t>启明信息</t>
         </is>
@@ -7652,7 +7657,7 @@
           <t>贝因美</t>
         </is>
       </c>
-      <c r="F41" s="18" t="inlineStr">
+      <c r="F41" s="19" t="inlineStr">
         <is>
           <t>通达电气</t>
         </is>
@@ -7672,7 +7677,7 @@
           <t>乐惠国际</t>
         </is>
       </c>
-      <c r="J41" s="20" t="inlineStr">
+      <c r="J41" s="21" t="inlineStr">
         <is>
           <t>科拓生物</t>
         </is>
@@ -7756,7 +7761,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="20" t="inlineStr">
+      <c r="B43" s="21" t="inlineStr">
         <is>
           <t>若羽臣</t>
         </is>
@@ -7776,7 +7781,7 @@
           <t>万润科技</t>
         </is>
       </c>
-      <c r="F43" s="12" t="inlineStr">
+      <c r="F43" s="18" t="inlineStr">
         <is>
           <t>国轩高科</t>
         </is>
@@ -7796,12 +7801,12 @@
           <t>湘邮科技</t>
         </is>
       </c>
-      <c r="J43" s="20" t="inlineStr">
+      <c r="J43" s="21" t="inlineStr">
         <is>
           <t>金枫酒业</t>
         </is>
       </c>
-      <c r="K43" s="20" t="inlineStr">
+      <c r="K43" s="21" t="inlineStr">
         <is>
           <t>欢乐家</t>
         </is>
@@ -7828,7 +7833,7 @@
           <t>信隆健康</t>
         </is>
       </c>
-      <c r="D44" s="20" t="inlineStr">
+      <c r="D44" s="21" t="inlineStr">
         <is>
           <t>帝欧家居</t>
         </is>
@@ -7838,7 +7843,7 @@
           <t>铁流股份</t>
         </is>
       </c>
-      <c r="F44" s="12" t="inlineStr">
+      <c r="F44" s="18" t="inlineStr">
         <is>
           <t>领湃科技</t>
         </is>
@@ -7895,12 +7900,12 @@
           <t>未名医药</t>
         </is>
       </c>
-      <c r="F45" s="12" t="inlineStr">
+      <c r="F45" s="18" t="inlineStr">
         <is>
           <t>龙蟠科技</t>
         </is>
       </c>
-      <c r="I45" s="18" t="inlineStr">
+      <c r="I45" s="19" t="inlineStr">
         <is>
           <t>中邮科技</t>
         </is>
@@ -7920,7 +7925,7 @@
           <t>远东股份</t>
         </is>
       </c>
-      <c r="M45" s="18" t="inlineStr">
+      <c r="M45" s="19" t="inlineStr">
         <is>
           <t>永悦科技</t>
         </is>
@@ -7932,7 +7937,7 @@
           <t>登康口腔</t>
         </is>
       </c>
-      <c r="C46" s="20" t="inlineStr">
+      <c r="C46" s="21" t="inlineStr">
         <is>
           <t>百合股份</t>
         </is>
@@ -7957,7 +7962,7 @@
           <t>游族网络</t>
         </is>
       </c>
-      <c r="J46" s="20" t="inlineStr">
+      <c r="J46" s="21" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
@@ -7972,7 +7977,7 @@
           <t>深南电A</t>
         </is>
       </c>
-      <c r="M46" s="18" t="inlineStr">
+      <c r="M46" s="19" t="inlineStr">
         <is>
           <t>纵横股份</t>
         </is>
@@ -7989,7 +7994,7 @@
           <t>亚太股份</t>
         </is>
       </c>
-      <c r="D47" s="22" t="inlineStr">
+      <c r="D47" s="13" t="inlineStr">
         <is>
           <t>亚士创能</t>
         </is>
@@ -7999,7 +8004,7 @@
           <t>广博股份</t>
         </is>
       </c>
-      <c r="F47" s="12" t="inlineStr">
+      <c r="F47" s="18" t="inlineStr">
         <is>
           <t>宏工科技</t>
         </is>
@@ -8014,7 +8019,7 @@
           <t>明牌珠宝</t>
         </is>
       </c>
-      <c r="K47" s="22" t="inlineStr">
+      <c r="K47" s="13" t="inlineStr">
         <is>
           <t>神开股份</t>
         </is>
@@ -8056,7 +8061,7 @@
           <t>锦江在线</t>
         </is>
       </c>
-      <c r="J48" s="12" t="inlineStr">
+      <c r="J48" s="16" t="inlineStr">
         <is>
           <t>格力博</t>
         </is>
@@ -8078,7 +8083,7 @@
           <t>博闻科技</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
+      <c r="C49" s="16" t="inlineStr">
         <is>
           <t>格力博</t>
         </is>
@@ -8130,7 +8135,7 @@
           <t>遥望科技</t>
         </is>
       </c>
-      <c r="D50" s="20" t="inlineStr">
+      <c r="D50" s="21" t="inlineStr">
         <is>
           <t>浪莎股份</t>
         </is>
@@ -8145,7 +8150,7 @@
           <t>康弘药业</t>
         </is>
       </c>
-      <c r="I50" s="12" t="inlineStr">
+      <c r="I50" s="18" t="inlineStr">
         <is>
           <t>凯美特气</t>
         </is>
@@ -8155,7 +8160,7 @@
           <t>河化股份</t>
         </is>
       </c>
-      <c r="K50" s="12" t="inlineStr">
+      <c r="K50" s="18" t="inlineStr">
         <is>
           <t>粤电力A</t>
         </is>
@@ -8167,7 +8172,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="20" t="inlineStr">
+      <c r="B51" s="23" t="inlineStr">
         <is>
           <t>青松股份</t>
         </is>
@@ -8192,7 +8197,7 @@
           <t>云内动力</t>
         </is>
       </c>
-      <c r="I51" s="22" t="inlineStr">
+      <c r="I51" s="13" t="inlineStr">
         <is>
           <t>同为股份</t>
         </is>
@@ -8207,14 +8212,14 @@
           <t>今创集团</t>
         </is>
       </c>
-      <c r="L51" s="18" t="inlineStr">
+      <c r="L51" s="19" t="inlineStr">
         <is>
           <t>三友科技</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="22" t="inlineStr">
+      <c r="B52" s="15" t="inlineStr">
         <is>
           <t>郑中设计</t>
         </is>
@@ -8249,19 +8254,19 @@
           <t>西上海</t>
         </is>
       </c>
-      <c r="K52" s="20" t="inlineStr">
+      <c r="K52" s="21" t="inlineStr">
         <is>
           <t>新乳业</t>
         </is>
       </c>
-      <c r="L52" s="18" t="inlineStr">
+      <c r="L52" s="19" t="inlineStr">
         <is>
           <t>万马科技</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="20" t="inlineStr">
+      <c r="B53" s="23" t="inlineStr">
         <is>
           <t>丸美生物</t>
         </is>
@@ -8276,7 +8281,7 @@
           <t>沙河股份</t>
         </is>
       </c>
-      <c r="E53" s="12" t="inlineStr">
+      <c r="E53" s="18" t="inlineStr">
         <is>
           <t>利源股份</t>
         </is>
@@ -8301,14 +8306,14 @@
           <t>水羊股份</t>
         </is>
       </c>
-      <c r="L53" s="22" t="inlineStr">
+      <c r="L53" s="15" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="C54" s="12" t="inlineStr">
+      <c r="C54" s="18" t="inlineStr">
         <is>
           <t>春兴精工</t>
         </is>
@@ -8318,7 +8323,7 @@
           <t>金利华电</t>
         </is>
       </c>
-      <c r="E54" s="22" t="inlineStr">
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>梦网科技</t>
         </is>
@@ -8365,7 +8370,7 @@
           <t>清新环境</t>
         </is>
       </c>
-      <c r="F55" s="22" t="inlineStr">
+      <c r="F55" s="15" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
@@ -8380,7 +8385,7 @@
           <t>四创电子</t>
         </is>
       </c>
-      <c r="K55" s="20" t="inlineStr">
+      <c r="K55" s="21" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
@@ -8407,7 +8412,7 @@
           <t>盈方微</t>
         </is>
       </c>
-      <c r="F56" s="20" t="inlineStr">
+      <c r="F56" s="21" t="inlineStr">
         <is>
           <t>茂业商业</t>
         </is>
@@ -8444,7 +8449,7 @@
           <t>宜宾纸业</t>
         </is>
       </c>
-      <c r="E57" s="20" t="inlineStr">
+      <c r="E57" s="21" t="inlineStr">
         <is>
           <t>永创智能</t>
         </is>
@@ -8454,7 +8459,7 @@
           <t>西部黄金</t>
         </is>
       </c>
-      <c r="I57" s="20" t="inlineStr">
+      <c r="I57" s="21" t="inlineStr">
         <is>
           <t>来伊份</t>
         </is>
@@ -8464,7 +8469,7 @@
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="K57" s="20" t="inlineStr">
+      <c r="K57" s="21" t="inlineStr">
         <is>
           <t>老凤祥</t>
         </is>
@@ -8481,7 +8486,7 @@
           <t>安源煤业</t>
         </is>
       </c>
-      <c r="D58" s="12" t="inlineStr">
+      <c r="D58" s="18" t="inlineStr">
         <is>
           <t>湖南发展</t>
         </is>
@@ -8538,29 +8543,29 @@
           <t>广信股份</t>
         </is>
       </c>
-      <c r="K59" s="20" t="inlineStr">
+      <c r="K59" s="21" t="inlineStr">
         <is>
           <t>益盛药业</t>
         </is>
       </c>
-      <c r="L59" s="18" t="inlineStr">
+      <c r="L59" s="19" t="inlineStr">
         <is>
           <t>合众思壮</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="C60" s="20" t="inlineStr">
+      <c r="C60" s="21" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="D60" s="18" t="inlineStr">
+      <c r="D60" s="19" t="inlineStr">
         <is>
           <t>航天彩虹</t>
         </is>
       </c>
-      <c r="E60" s="20" t="inlineStr">
+      <c r="E60" s="21" t="inlineStr">
         <is>
           <t>祖名股份</t>
         </is>
@@ -8602,7 +8607,7 @@
           <t>利尔化学</t>
         </is>
       </c>
-      <c r="L61" s="18" t="inlineStr">
+      <c r="L61" s="19" t="inlineStr">
         <is>
           <t>中原内配</t>
         </is>
@@ -8619,7 +8624,7 @@
           <t>浙江众成</t>
         </is>
       </c>
-      <c r="I62" s="22" t="inlineStr">
+      <c r="I62" s="15" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
@@ -8727,7 +8732,7 @@
           <t>实丰文化</t>
         </is>
       </c>
-      <c r="I66" s="12" t="inlineStr">
+      <c r="I66" s="18" t="inlineStr">
         <is>
           <t>金浦钛业</t>
         </is>
@@ -8737,7 +8742,7 @@
           <t>常青股份</t>
         </is>
       </c>
-      <c r="L66" s="18" t="inlineStr">
+      <c r="L66" s="19" t="inlineStr">
         <is>
           <t>中力股份</t>
         </is>
@@ -8749,7 +8754,7 @@
           <t>宁波港</t>
         </is>
       </c>
-      <c r="E67" s="20" t="inlineStr">
+      <c r="E67" s="21" t="inlineStr">
         <is>
           <t>比依股份</t>
         </is>
@@ -8766,12 +8771,12 @@
           <t>五新隧装</t>
         </is>
       </c>
-      <c r="E68" s="12" t="inlineStr">
+      <c r="E68" s="18" t="inlineStr">
         <is>
           <t>罗曼股份</t>
         </is>
       </c>
-      <c r="L68" s="22" t="inlineStr">
+      <c r="L68" s="13" t="inlineStr">
         <is>
           <t>朗新集团</t>
         </is>
@@ -8800,7 +8805,7 @@
           <t>亚泰集团</t>
         </is>
       </c>
-      <c r="E70" s="12" t="inlineStr">
+      <c r="E70" s="18" t="inlineStr">
         <is>
           <t>金龙羽</t>
         </is>
@@ -8812,7 +8817,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="D71" s="12" t="inlineStr">
+      <c r="D71" s="18" t="inlineStr">
         <is>
           <t>德力股份</t>
         </is>
@@ -8868,7 +8873,7 @@
           <t>源飞宠物</t>
         </is>
       </c>
-      <c r="E74" s="12" t="inlineStr">
+      <c r="E74" s="18" t="inlineStr">
         <is>
           <t>江苏新能</t>
         </is>
@@ -8941,7 +8946,7 @@
           <t>长春一东</t>
         </is>
       </c>
-      <c r="L78" s="18" t="inlineStr">
+      <c r="L78" s="19" t="inlineStr">
         <is>
           <t>金龙汽车</t>
         </is>
@@ -8953,7 +8958,7 @@
           <t>盛视科技</t>
         </is>
       </c>
-      <c r="E79" s="12" t="inlineStr">
+      <c r="E79" s="18" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
@@ -8975,19 +8980,19 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="L80" s="12" t="inlineStr">
+      <c r="L80" s="18" t="inlineStr">
         <is>
           <t>协鑫能科</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="22" t="inlineStr">
+      <c r="D81" s="16" t="inlineStr">
         <is>
           <t>金财互联</t>
         </is>
       </c>
-      <c r="E81" s="22" t="inlineStr">
+      <c r="E81" s="13" t="inlineStr">
         <is>
           <t>浙文互联</t>
         </is>
@@ -9016,7 +9021,7 @@
           <t>三生国健</t>
         </is>
       </c>
-      <c r="L83" s="22" t="inlineStr">
+      <c r="L83" s="13" t="inlineStr">
         <is>
           <t>金证股份</t>
         </is>
@@ -9040,7 +9045,7 @@
           <t>航天动力</t>
         </is>
       </c>
-      <c r="L85" s="12" t="inlineStr">
+      <c r="L85" s="18" t="inlineStr">
         <is>
           <t>金浦钛业</t>
         </is>
@@ -9134,14 +9139,14 @@
       </c>
     </row>
     <row r="97">
-      <c r="L97" s="22" t="inlineStr">
+      <c r="L97" s="13" t="inlineStr">
         <is>
           <t>捷顺科技</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="L98" s="18" t="inlineStr">
+      <c r="L98" s="19" t="inlineStr">
         <is>
           <t>德赛西威</t>
         </is>
@@ -9155,7 +9160,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="L100" s="22" t="inlineStr">
+      <c r="L100" s="13" t="inlineStr">
         <is>
           <t>中科金财</t>
         </is>
@@ -9183,7 +9188,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="L104" s="18" t="inlineStr">
+      <c r="L104" s="19" t="inlineStr">
         <is>
           <t>绿能慧充</t>
         </is>
@@ -13904,7 +13909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13939,21 +13944,21 @@
     <row r="3">
       <c r="A3" s="39" t="inlineStr">
         <is>
-          <t>新能源</t>
+          <t>跨境</t>
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>跨境</t>
+          <t>创新药</t>
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -13963,27 +13968,27 @@
         </is>
       </c>
       <c r="B5" s="37" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="42" t="inlineStr">
         <is>
-          <t>医药</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源</t>
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -13999,7 +14004,7 @@
     <row r="9">
       <c r="A9" s="45" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>核聚变</t>
         </is>
       </c>
       <c r="B9" s="37" t="n">
@@ -14009,7 +14014,7 @@
     <row r="10">
       <c r="A10" s="46" t="inlineStr">
         <is>
-          <t>汽车</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B10" s="37" t="n">
@@ -14019,11 +14024,11 @@
     <row r="11">
       <c r="A11" s="47" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="B11" s="37" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -14037,77 +14042,77 @@
     <row r="13">
       <c r="A13" s="37" t="inlineStr">
         <is>
-          <t>化工</t>
+          <t>AI大模型</t>
         </is>
       </c>
       <c r="B13" s="37" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="37" t="inlineStr">
         <is>
-          <t>重组</t>
+          <t>化工</t>
         </is>
       </c>
       <c r="B14" s="37" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="37" t="inlineStr">
         <is>
-          <t>新传媒</t>
+          <t>重组</t>
         </is>
       </c>
       <c r="B15" s="37" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="37" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>新传媒</t>
         </is>
       </c>
       <c r="B16" s="37" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="37" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>半导体</t>
         </is>
       </c>
       <c r="B17" s="37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>房地产</t>
         </is>
       </c>
       <c r="B18" s="37" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="inlineStr">
         <is>
-          <t>新消费</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B19" s="37" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="inlineStr">
         <is>
-          <t>航天</t>
+          <t>新消费</t>
         </is>
       </c>
       <c r="B20" s="37" t="n">
@@ -14117,118 +14122,128 @@
     <row r="21">
       <c r="A21" s="37" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>航天</t>
         </is>
       </c>
       <c r="B21" s="37" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="inlineStr">
         <is>
-          <t>算力</t>
+          <t>电子元件</t>
         </is>
       </c>
       <c r="B22" s="37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="37" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>AI算力</t>
         </is>
       </c>
       <c r="B23" s="37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="37" t="inlineStr">
         <is>
-          <t>金融</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B24" s="37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="37" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>金融</t>
         </is>
       </c>
       <c r="B25" s="37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="37" t="inlineStr">
         <is>
-          <t>新材料</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="B26" s="37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="37" t="inlineStr">
         <is>
+          <t>新材料</t>
+        </is>
+      </c>
+      <c r="B27" s="37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="37" t="inlineStr">
+        <is>
           <t>旅游</t>
         </is>
       </c>
-      <c r="B27" s="37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="38" t="inlineStr">
+      <c r="B28" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="38" t="inlineStr">
         <is>
           <t>排除的概念</t>
         </is>
       </c>
-      <c r="B28" s="37" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="37" t="inlineStr">
-        <is>
-          <t>业绩增长</t>
-        </is>
-      </c>
-      <c r="B29" s="37" t="n">
-        <v>69</v>
-      </c>
+      <c r="B29" s="37" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="37" t="inlineStr">
         <is>
-          <t>扭亏为盈</t>
+          <t>业绩增长</t>
         </is>
       </c>
       <c r="B30" s="37" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="37" t="inlineStr">
         <is>
+          <t>扭亏为盈</t>
+        </is>
+      </c>
+      <c r="B31" s="37" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="37" t="inlineStr">
+        <is>
           <t>国企</t>
         </is>
       </c>
-      <c r="B31" s="37" t="n">
+      <c r="B32" s="37" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="48" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="48" t="inlineStr">
         <is>
           <t>多次上榜</t>
         </is>
       </c>
-      <c r="B32" s="37" t="n"/>
+      <c r="B33" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -214,10 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -435,6 +435,12 @@
 重大资产重组+固态电池+硅基负极+包装印刷</t>
       </text>
     </comment>
+    <comment ref="Q4" authorId="0" shapeId="0">
+      <text>
+        <t>15天8板 09:52:27 14
+可控核聚变+超导+电网设备+国企</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t>7天7板 09:31:48 1
@@ -525,6 +531,12 @@
 氯虫苯甲酰胺中间体+医药CDMO+一季报增长</t>
       </text>
     </comment>
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 10:04:33 2
+足球概念+体育产业+人造草坪</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>5天5板 09:43:59 12
@@ -615,6 +627,12 @@
 足球概念+体育产业+业绩增长+高股息</t>
       </text>
     </comment>
+    <comment ref="Q6" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:25:00 1
+蚂蚁数科合作+储能+超级电容器+摘帽</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>5天5板 10:39:13 12
@@ -705,6 +723,12 @@
 数字货币+区块链+eSIM技术</t>
       </text>
     </comment>
+    <comment ref="Q7" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 09:25:02 1
+股权转让+实控人变更+木地板+智能家居</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:31:35 12
@@ -795,6 +819,12 @@
 数字人民币+AI支付+地方国企+亏损收窄</t>
       </text>
     </comment>
+    <comment ref="Q8" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 09:30:26 9
+商业航天+低空经济+建筑设计+多模态AI</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -885,6 +915,12 @@
 期货经纪+风险管理+H股上市+股份回购</t>
       </text>
     </comment>
+    <comment ref="Q9" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 13:23:38 0
+物流无人机+不饱和聚酯树脂+摘帽</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -975,6 +1011,12 @@
 储能+超级电容器+摘帽</t>
       </text>
     </comment>
+    <comment ref="Q10" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 0
+摘帽+信息智能传输+通信网络维护</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:01 0
@@ -1065,6 +1107,12 @@
 股权转让+实控人变更+木地板+智能家居</t>
       </text>
     </comment>
+    <comment ref="Q11" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 0
+控制权变更+糖尿病首仿药</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:03 0
@@ -1155,6 +1203,12 @@
 足球器材+消费服务转型</t>
       </text>
     </comment>
+    <comment ref="Q12" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:54 0
+智慧新能源+存储+华为概念+信创</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:30:47 3
@@ -1245,6 +1299,12 @@
 数字文创资产+Web3.0+IP经济</t>
       </text>
     </comment>
+    <comment ref="Q13" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:31:01 5
+铜缆高速连接+光通信</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:46:28 2
@@ -1335,6 +1395,12 @@
 参股京东金融+出版+课后服务+国企改革</t>
       </text>
     </comment>
+    <comment ref="Q14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 1
+数智科技业务+拟收购国贸数科100%股权+厦门国资</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>3天3板 14:56:39 0
@@ -1425,6 +1491,12 @@
 交通数字化服务+机器人+股权变更+国企</t>
       </text>
     </comment>
+    <comment ref="Q15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 0
+商业航天+智慧路灯+光储充</t>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 1
@@ -1515,6 +1587,12 @@
 摘帽+信息智能传输+通信网络维护</t>
       </text>
     </comment>
+    <comment ref="Q16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:31:30 4
+电力柜+虚拟电厂</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:02 0
@@ -1605,6 +1683,12 @@
 智慧新能源+存储+华为概念+信创</t>
       </text>
     </comment>
+    <comment ref="Q17" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 09:41:36 4
+重庆国资+基建+房屋检测</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:02 0
@@ -1695,6 +1779,12 @@
 控制权变更+糖尿病首仿药</t>
       </text>
     </comment>
+    <comment ref="Q18" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:45:01 5
+农药+化工+阻燃剂+一季报扭亏</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:45 12
@@ -1779,6 +1869,12 @@
 可控核聚变+数据中心+输配电设备</t>
       </text>
     </comment>
+    <comment ref="Q19" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:10:03 1
+黄金+摘帽+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:33:11 83
@@ -1947,6 +2043,12 @@
 铜缆高速连接+光通信</t>
       </text>
     </comment>
+    <comment ref="Q21" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:01 0
+重大资产重组+产业园区运营+天津国资</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>3天2板 10:06:05 0
@@ -2037,6 +2139,12 @@
 摘帽+金融科技+智能制造+国企改革</t>
       </text>
     </comment>
+    <comment ref="Q22" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:39 0
+万豪合作（云服务）+酒店信息管理+出海</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:40:38 8
@@ -2115,6 +2223,12 @@
 重大合同+磷酸铁锂+固态电池研发+无人机</t>
       </text>
     </comment>
+    <comment ref="Q23" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:46 1
+配电设备+中标项目+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <t>3天2板 14:28:47 0
@@ -2205,6 +2319,12 @@
 智能电网+虚拟电厂+核电+年报增长</t>
       </text>
     </comment>
+    <comment ref="Q24" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:03 0
+油服工程+光伏+新能源电力工程</t>
+      </text>
+    </comment>
     <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:46 5
@@ -2277,6 +2397,12 @@
 </t>
       </text>
     </comment>
+    <comment ref="Q25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:03 0
+数字人民币+跨境支付+AI智能硬件</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:26 1
@@ -2355,6 +2481,12 @@
 储能投资+电力+充电桩+新疆国资</t>
       </text>
     </comment>
+    <comment ref="Q26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:24 1
+贵金属+白银+业绩扭亏+国企</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:24 1
@@ -2445,6 +2577,12 @@
 兵装重组概念+柴油机增压器</t>
       </text>
     </comment>
+    <comment ref="Q27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:34:30 3
+算力+央企</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:39:29 0
@@ -2529,6 +2667,12 @@
 虚拟电厂+智能物联+绿色电力</t>
       </text>
     </comment>
+    <comment ref="Q28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:35:56 0
+煤炭+资产注入预期+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:41:26 7
@@ -2613,6 +2757,12 @@
 建筑装饰+垃圾分类+微盘股+国企改革</t>
       </text>
     </comment>
+    <comment ref="Q29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:36:35 0
+数据中心+风光储+营收增长</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:43:19 0
@@ -2703,6 +2853,12 @@
 电力柜+虚拟电厂</t>
       </text>
     </comment>
+    <comment ref="Q30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:38:32 1
+锂电池模具+固态电池+减速器</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:53:18 1
@@ -2793,6 +2949,12 @@
 酒店连锁+预制菜+国企改革</t>
       </text>
     </comment>
+    <comment ref="Q31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:40:49 4
+军工+光伏+汽车零部件+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:57:21 0
@@ -2883,6 +3045,12 @@
 体外诊断+AI应用+高分红</t>
       </text>
     </comment>
+    <comment ref="Q32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:41:54 0
+碳酸锂项目+半导体存储</t>
+      </text>
+    </comment>
     <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:02:54 0
@@ -2955,6 +3123,12 @@
 国家电网中标+智能电网+虚拟电厂</t>
       </text>
     </comment>
+    <comment ref="Q33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:42:59 1
+白银+有色金属+可控核聚变+国企</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:05:24 0
@@ -3045,6 +3219,12 @@
 核电+数据中心+制冷技术</t>
       </text>
     </comment>
+    <comment ref="Q34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:45:03 0
+轨道交通+无人驾驶+充电桩</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:11:30 0
@@ -3135,6 +3315,12 @@
 农药+化工+阻燃剂+一季报扭亏</t>
       </text>
     </comment>
+    <comment ref="Q35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:47:03 0
+煤化工+乙二醇+可降解塑料</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:15:09 2
@@ -3225,6 +3411,12 @@
 固态电池+聚乙二醇</t>
       </text>
     </comment>
+    <comment ref="Q36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:49:45 9
+农药+外销+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:49 2
@@ -3315,6 +3507,12 @@
 兵装重组+新能源增程动力+无人机</t>
       </text>
     </comment>
+    <comment ref="Q37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:08:27 0
+热塑性弹性体+成人玩具材料+国企</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:29:30 0
@@ -3405,6 +3603,12 @@
 基础建设+雄安新区+新设矿业公司</t>
       </text>
     </comment>
+    <comment ref="Q38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:10:04 0
+铝加工+锂电池+一季报营收增长</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:36:03 3
@@ -3495,6 +3699,12 @@
 黄金+摘帽+国企改革</t>
       </text>
     </comment>
+    <comment ref="Q39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:11:45 0
+创新药+固态电池+原料药</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:47:21 0
@@ -3585,6 +3795,12 @@
 兵装重组+军工+机器人+无人驾驶</t>
       </text>
     </comment>
+    <comment ref="Q40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:26:39 0
+资产重组+水电+光伏+国企</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:19:30 0
@@ -3675,6 +3891,12 @@
 商业航天+卫星通信+机器人概念+营销</t>
       </text>
     </comment>
+    <comment ref="Q41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:30:57 0
+重庆+商品混凝土</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:24:48 0
@@ -3765,6 +3987,12 @@
 商业航天+核电+紧固件龙头</t>
       </text>
     </comment>
+    <comment ref="Q42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:32:55 0
+注塑机+锂电池+纺织机械+越南投资</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:27:09 0
@@ -3855,6 +4083,12 @@
 商业航天+智慧路灯+光储充</t>
       </text>
     </comment>
+    <comment ref="Q43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:00:50 1
+丙烯+环氧丙烷+芯片概念+天津国资</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:00:03 1
@@ -3939,6 +4173,12 @@
 PCB+玻璃基板+大飞机</t>
       </text>
     </comment>
+    <comment ref="Q44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:14:42 0
+云网安融合+全球组网服务+AI大模型</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:02:36 0
@@ -4017,6 +4257,12 @@
 虚拟电厂+节能服务+央国企转型</t>
       </text>
     </comment>
+    <comment ref="Q45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:16:09 0
+数字通信+AI应用+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:18:42 5
@@ -4095,6 +4341,12 @@
 国资云+有线电视+湖北国资</t>
       </text>
     </comment>
+    <comment ref="Q46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:17:13 6
+基建+算力租赁+资产重组+宁波国资</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:22:21 0
@@ -4167,6 +4419,12 @@
 高铁+轨交设备+江苏</t>
       </text>
     </comment>
+    <comment ref="Q47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:43 1
+跨境电商+服装纺织+曾与强脑科技合作+养老</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:23:39 0
@@ -4239,6 +4497,12 @@
 人形机器人+碳陶刹车系统+低空经济</t>
       </text>
     </comment>
+    <comment ref="Q48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:05:03 0
+有色金属+白银+拟购鸿林矿业47%股权</t>
+      </text>
+    </comment>
     <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:28:57 0
@@ -4311,6 +4575,12 @@
 健身器材+AI技术+门店扩张</t>
       </text>
     </comment>
+    <comment ref="Q49" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:22:51 2
+创新药+仿制药+宠物经济</t>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:47:03 1
@@ -4383,6 +4653,12 @@
 智能电网+数据中心+机器人概念+业绩增长</t>
       </text>
     </comment>
+    <comment ref="Q50" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:49:06 0
+轮胎+并购重组+青岛国资</t>
+      </text>
+    </comment>
     <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 14:23:54 3
@@ -4455,6 +4731,12 @@
 服务器PCB+AI驱动+泰国工厂投产</t>
       </text>
     </comment>
+    <comment ref="Q51" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:16:35 1
+房地产+重大资产重组+国企</t>
+      </text>
+    </comment>
     <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 14:51:33 0
@@ -4527,6 +4809,12 @@
 光模块+数据中心（储能系统供电）+机器人+华为</t>
       </text>
     </comment>
+    <comment ref="Q52" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:25:42 0
+固态电池+锂电复合铜箔+车载背光源</t>
+      </text>
+    </comment>
     <comment ref="B53" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 14:54:33 0
@@ -4599,6 +4887,12 @@
 机器人+包装设备+消费行业</t>
       </text>
     </comment>
+    <comment ref="Q53" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:27:45 0
+创新药+功能食品+此前曾拟购买石药百克100%股权</t>
+      </text>
+    </comment>
     <comment ref="C54" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 13:05:51 0
@@ -4663,6 +4957,12 @@
       <text>
         <t>首板涨停 11:23:27 0
 储能消防+数据中心+一季报增长</t>
+      </text>
+    </comment>
+    <comment ref="Q54" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:33:28 0
+新型绿色农药制剂+水溶肥料</t>
       </text>
     </comment>
     <comment ref="C55" authorId="0" shapeId="0">
@@ -6218,7 +6518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -6245,6 +6545,7 @@
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6343,6 +6644,12 @@
 星期四</t>
         </is>
       </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-06
+星期五</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -6425,6 +6732,11 @@
           <t>1.17%</t>
         </is>
       </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -6507,12 +6819,17 @@
           <t>208.48</t>
         </is>
       </c>
-      <c r="Q3" s="10" t="n"/>
+      <c r="Q3" s="9" t="inlineStr">
+        <is>
+          <t>178.11</t>
+        </is>
+      </c>
+      <c r="R3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>跨境(128)</t>
+          <t>跨境(132)</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -6588,13 +6905,18 @@
       <c r="P4" s="17" t="inlineStr">
         <is>
           <t>滨海能源8</t>
+        </is>
+      </c>
+      <c r="Q4" s="12" t="inlineStr">
+        <is>
+          <t>百利电气8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="inlineStr">
         <is>
-          <t>创新药(114)</t>
+          <t>创新药(119)</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
@@ -6670,13 +6992,18 @@
       <c r="P5" s="20" t="inlineStr">
         <is>
           <t>联化科技5</t>
+        </is>
+      </c>
+      <c r="Q5" s="18" t="inlineStr">
+        <is>
+          <t>共创草坪5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>机器人(100)</t>
+          <t>新能源(107)</t>
         </is>
       </c>
       <c r="B6" s="14" t="inlineStr">
@@ -6752,13 +7079,18 @@
       <c r="P6" s="18" t="inlineStr">
         <is>
           <t>共创草坪4</t>
+        </is>
+      </c>
+      <c r="Q6" s="14" t="inlineStr">
+        <is>
+          <t>金时科技4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="inlineStr">
         <is>
-          <t>新能源(96)</t>
+          <t>机器人(101)</t>
         </is>
       </c>
       <c r="B7" s="14" t="inlineStr">
@@ -6834,13 +7166,18 @@
       <c r="P7" s="14" t="inlineStr">
         <is>
           <t>恒宝股份4</t>
+        </is>
+      </c>
+      <c r="Q7" s="14" t="inlineStr">
+        <is>
+          <t>菲林格尔4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="inlineStr">
         <is>
-          <t>传统消费(83)</t>
+          <t>传统消费(84)</t>
         </is>
       </c>
       <c r="B8" s="20" t="inlineStr">
@@ -6916,13 +7253,18 @@
       <c r="P8" s="26" t="inlineStr">
         <is>
           <t>翠微股份4</t>
+        </is>
+      </c>
+      <c r="Q8" s="26" t="inlineStr">
+        <is>
+          <t>中衡设计4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>无人经济(78)</t>
+          <t>无人经济(80)</t>
         </is>
       </c>
       <c r="B9" s="15" t="inlineStr">
@@ -6998,13 +7340,18 @@
       <c r="P9" s="14" t="inlineStr">
         <is>
           <t>南华期货3</t>
+        </is>
+      </c>
+      <c r="Q9" s="23" t="inlineStr">
+        <is>
+          <t>永悦科技4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="inlineStr">
         <is>
-          <t>新消费(76)</t>
+          <t>新消费(77)</t>
         </is>
       </c>
       <c r="B10" s="15" t="inlineStr">
@@ -7080,13 +7427,18 @@
       <c r="P10" s="14" t="inlineStr">
         <is>
           <t>金时科技3</t>
+        </is>
+      </c>
+      <c r="Q10" s="14" t="inlineStr">
+        <is>
+          <t>中嘉博创3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="29" t="inlineStr">
         <is>
-          <t>AI大模型(73)</t>
+          <t>AI大模型(77)</t>
         </is>
       </c>
       <c r="B11" s="15" t="inlineStr">
@@ -7162,13 +7514,18 @@
       <c r="P11" s="14" t="inlineStr">
         <is>
           <t>菲林格尔3</t>
+        </is>
+      </c>
+      <c r="Q11" s="14" t="inlineStr">
+        <is>
+          <t>易明医药3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="inlineStr">
         <is>
-          <t>核聚变(72)</t>
+          <t>核聚变(74)</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
@@ -7244,13 +7601,18 @@
       <c r="P12" s="14" t="inlineStr">
         <is>
           <t>金陵体育3</t>
+        </is>
+      </c>
+      <c r="Q12" s="17" t="inlineStr">
+        <is>
+          <t>中电鑫龙3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>汽车(71)</t>
+          <t>汽车(72)</t>
         </is>
       </c>
       <c r="B13" s="15" t="inlineStr">
@@ -7326,13 +7688,18 @@
       <c r="P13" s="18" t="inlineStr">
         <is>
           <t>元隆雅图3</t>
+        </is>
+      </c>
+      <c r="Q13" s="14" t="inlineStr">
+        <is>
+          <t>华脉科技3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>军工(65)</t>
+          <t>军工(66)</t>
         </is>
       </c>
       <c r="B14" s="15" t="inlineStr">
@@ -7408,13 +7775,18 @@
       <c r="P14" s="14" t="inlineStr">
         <is>
           <t>时代出版3</t>
+        </is>
+      </c>
+      <c r="Q14" s="14" t="inlineStr">
+        <is>
+          <t>厦门信达2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>重组(55)</t>
+          <t>重组(61)</t>
         </is>
       </c>
       <c r="B15" s="14" t="inlineStr">
@@ -7490,13 +7862,18 @@
       <c r="P15" s="16" t="inlineStr">
         <is>
           <t>路桥信息3</t>
+        </is>
+      </c>
+      <c r="Q15" s="14" t="inlineStr">
+        <is>
+          <t>华体科技2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>化工(53)</t>
+          <t>化工(59)</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
@@ -7572,13 +7949,18 @@
       <c r="P16" s="14" t="inlineStr">
         <is>
           <t>中嘉博创2</t>
+        </is>
+      </c>
+      <c r="Q16" s="14" t="inlineStr">
+        <is>
+          <t>新联电子2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>商业航天(44)</t>
+          <t>商业航天(47)</t>
         </is>
       </c>
       <c r="B17" s="14" t="inlineStr">
@@ -7654,13 +8036,18 @@
       <c r="P17" s="17" t="inlineStr">
         <is>
           <t>中电鑫龙2</t>
+        </is>
+      </c>
+      <c r="Q17" s="14" t="inlineStr">
+        <is>
+          <t>重庆建工2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>半导体(41)</t>
+          <t>半导体(45)</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -7736,13 +8123,18 @@
       <c r="P18" s="14" t="inlineStr">
         <is>
           <t>易明医药2</t>
+        </is>
+      </c>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>苏利股份2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>房地产(41)</t>
+          <t>房地产(45)</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
@@ -7816,11 +8208,16 @@
           <t>顺钠股份2</t>
         </is>
       </c>
+      <c r="Q19" s="14" t="inlineStr">
+        <is>
+          <t>中润资源2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>稳定币(38)</t>
+          <t>AI算力(42)</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">
@@ -7890,11 +8287,12 @@
           <t>嘉美包装2</t>
         </is>
       </c>
+      <c r="Q20" s="31" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AI算力(38)</t>
+          <t>稳定币(39)</t>
         </is>
       </c>
       <c r="B21" s="14" t="inlineStr">
@@ -7970,13 +8368,18 @@
       <c r="P21" s="14" t="inlineStr">
         <is>
           <t>华脉科技2</t>
+        </is>
+      </c>
+      <c r="Q21" s="14" t="inlineStr">
+        <is>
+          <t>海泰发展</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>电力(36)</t>
+          <t>电力(38)</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
@@ -8009,7 +8412,7 @@
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="H22" s="16" t="inlineStr">
+      <c r="H22" s="17" t="inlineStr">
         <is>
           <t>悦达投资</t>
         </is>
@@ -8052,6 +8455,11 @@
       <c r="P22" s="14" t="inlineStr">
         <is>
           <t>汇金股份2</t>
+        </is>
+      </c>
+      <c r="Q22" s="15" t="inlineStr">
+        <is>
+          <t>石基信息</t>
         </is>
       </c>
     </row>
@@ -8128,11 +8536,16 @@
         </is>
       </c>
       <c r="P23" s="31" t="n"/>
+      <c r="Q23" s="13" t="inlineStr">
+        <is>
+          <t>洛凯股份</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>消费电子(23)</t>
+          <t>农业(26)</t>
         </is>
       </c>
       <c r="B24" s="17" t="inlineStr">
@@ -8208,13 +8621,18 @@
       <c r="P24" s="12" t="inlineStr">
         <is>
           <t>金智科技</t>
+        </is>
+      </c>
+      <c r="Q24" s="17" t="inlineStr">
+        <is>
+          <t>仁智股份</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>农业(23)</t>
+          <t>消费电子(24)</t>
         </is>
       </c>
       <c r="B25" s="31" t="n"/>
@@ -8280,6 +8698,11 @@
           <t>万泰生物</t>
         </is>
       </c>
+      <c r="Q25" s="15" t="inlineStr">
+        <is>
+          <t>楚天龙</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8354,11 +8777,16 @@
           <t>立新能源</t>
         </is>
       </c>
+      <c r="Q26" s="13" t="inlineStr">
+        <is>
+          <t>湖南白银</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>华为概念(15)</t>
+          <t>华为概念(16)</t>
         </is>
       </c>
       <c r="B27" s="14" t="inlineStr">
@@ -8434,6 +8862,11 @@
       <c r="P27" s="14" t="inlineStr">
         <is>
           <t>湖南天雁</t>
+        </is>
+      </c>
+      <c r="Q27" s="13" t="inlineStr">
+        <is>
+          <t>美利云</t>
         </is>
       </c>
     </row>
@@ -8514,11 +8947,16 @@
           <t>恒实科技</t>
         </is>
       </c>
+      <c r="Q28" s="14" t="inlineStr">
+        <is>
+          <t>大有能源</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>旅游(6)</t>
+          <t>旅游(7)</t>
         </is>
       </c>
       <c r="B29" s="26" t="inlineStr">
@@ -8592,6 +9030,11 @@
           <t>美芝股份</t>
         </is>
       </c>
+      <c r="Q29" s="13" t="inlineStr">
+        <is>
+          <t>福达合金</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8669,9 +9112,14 @@
           <t>中嘉博创</t>
         </is>
       </c>
-      <c r="P30" s="13" t="inlineStr">
+      <c r="P30" s="14" t="inlineStr">
         <is>
           <t>新联电子</t>
+        </is>
+      </c>
+      <c r="Q30" s="17" t="inlineStr">
+        <is>
+          <t>德新科技</t>
         </is>
       </c>
     </row>
@@ -8756,11 +9204,16 @@
           <t>金陵饭店</t>
         </is>
       </c>
+      <c r="Q31" s="17" t="inlineStr">
+        <is>
+          <t>航天机电</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>业绩增长(102)</t>
+          <t>业绩增长(106)</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
@@ -8828,7 +9281,7 @@
           <t>山东矿机</t>
         </is>
       </c>
-      <c r="O32" s="16" t="inlineStr">
+      <c r="O32" s="17" t="inlineStr">
         <is>
           <t>旭升集团</t>
         </is>
@@ -8836,13 +9289,18 @@
       <c r="P32" s="26" t="inlineStr">
         <is>
           <t>明德生物</t>
+        </is>
+      </c>
+      <c r="Q32" s="13" t="inlineStr">
+        <is>
+          <t>大为股份</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>扭亏为盈(38)</t>
+          <t>扭亏为盈(43)</t>
         </is>
       </c>
       <c r="B33" s="20" t="inlineStr">
@@ -8908,11 +9366,16 @@
           <t>积成电子</t>
         </is>
       </c>
+      <c r="Q33" s="12" t="inlineStr">
+        <is>
+          <t>白银有色</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>国企(228)</t>
+          <t>国企(244)</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
@@ -8988,6 +9451,11 @@
       <c r="P34" s="12" t="inlineStr">
         <is>
           <t>冰山冷热</t>
+        </is>
+      </c>
+      <c r="Q34" s="23" t="inlineStr">
+        <is>
+          <t>今创集团</t>
         </is>
       </c>
     </row>
@@ -9067,9 +9535,14 @@
           <t>财信发展</t>
         </is>
       </c>
-      <c r="P35" s="13" t="inlineStr">
+      <c r="P35" s="14" t="inlineStr">
         <is>
           <t>苏利股份</t>
+        </is>
+      </c>
+      <c r="Q35" s="13" t="inlineStr">
+        <is>
+          <t>丹化科技</t>
         </is>
       </c>
     </row>
@@ -9152,6 +9625,11 @@
       <c r="P36" s="17" t="inlineStr">
         <is>
           <t>奥克股份</t>
+        </is>
+      </c>
+      <c r="Q36" s="15" t="inlineStr">
+        <is>
+          <t>长青股份</t>
         </is>
       </c>
     </row>
@@ -9202,7 +9680,7 @@
           <t>交大昂立</t>
         </is>
       </c>
-      <c r="K37" s="16" t="inlineStr">
+      <c r="K37" s="17" t="inlineStr">
         <is>
           <t>悦达投资</t>
         </is>
@@ -9230,6 +9708,11 @@
       <c r="P37" s="17" t="inlineStr">
         <is>
           <t>东安动力</t>
+        </is>
+      </c>
+      <c r="Q37" s="14" t="inlineStr">
+        <is>
+          <t>浙江众成</t>
         </is>
       </c>
     </row>
@@ -9309,6 +9792,11 @@
           <t>汇通集团</t>
         </is>
       </c>
+      <c r="Q38" s="17" t="inlineStr">
+        <is>
+          <t>丽岛新材</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="B39" s="15" t="inlineStr">
@@ -9381,9 +9869,14 @@
           <t>奥雅股份</t>
         </is>
       </c>
-      <c r="P39" s="13" t="inlineStr">
+      <c r="P39" s="14" t="inlineStr">
         <is>
           <t>中润资源</t>
+        </is>
+      </c>
+      <c r="Q39" s="20" t="inlineStr">
+        <is>
+          <t>海辰药业</t>
         </is>
       </c>
     </row>
@@ -9463,6 +9956,11 @@
           <t>建设工业</t>
         </is>
       </c>
+      <c r="Q40" s="17" t="inlineStr">
+        <is>
+          <t>湖南发展</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="15" t="inlineStr">
@@ -9540,6 +10038,11 @@
           <t>三维通信</t>
         </is>
       </c>
+      <c r="Q41" s="13" t="inlineStr">
+        <is>
+          <t>四方新材</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="B42" s="13" t="inlineStr">
@@ -9617,6 +10120,11 @@
           <t>腾达科技</t>
         </is>
       </c>
+      <c r="Q42" s="17" t="inlineStr">
+        <is>
+          <t>金鹰股份</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="22" t="inlineStr">
@@ -9689,9 +10197,14 @@
           <t>科恒股份</t>
         </is>
       </c>
-      <c r="P43" s="13" t="inlineStr">
+      <c r="P43" s="14" t="inlineStr">
         <is>
           <t>华体科技</t>
+        </is>
+      </c>
+      <c r="Q43" s="13" t="inlineStr">
+        <is>
+          <t>渤海化学</t>
         </is>
       </c>
     </row>
@@ -9766,6 +10279,11 @@
           <t>天津普林</t>
         </is>
       </c>
+      <c r="Q44" s="26" t="inlineStr">
+        <is>
+          <t>南凌科技</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="15" t="inlineStr">
@@ -9833,6 +10351,11 @@
           <t>南网能源</t>
         </is>
       </c>
+      <c r="Q45" s="26" t="inlineStr">
+        <is>
+          <t>二六三</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="13" t="inlineStr">
@@ -9900,6 +10423,11 @@
           <t>湖北广电</t>
         </is>
       </c>
+      <c r="Q46" s="13" t="inlineStr">
+        <is>
+          <t>宁波建工</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="20" t="inlineStr">
@@ -9962,6 +10490,11 @@
           <t>必得科技</t>
         </is>
       </c>
+      <c r="Q47" s="15" t="inlineStr">
+        <is>
+          <t>新华锦</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="15" t="inlineStr">
@@ -10024,6 +10557,11 @@
           <t>长华集团</t>
         </is>
       </c>
+      <c r="Q48" s="13" t="inlineStr">
+        <is>
+          <t>盛达资源</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="13" t="inlineStr">
@@ -10086,6 +10624,11 @@
           <t>舒华体育</t>
         </is>
       </c>
+      <c r="Q49" s="20" t="inlineStr">
+        <is>
+          <t>昂利康</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="B50" s="13" t="inlineStr">
@@ -10148,6 +10691,11 @@
           <t>天正电气</t>
         </is>
       </c>
+      <c r="Q50" s="14" t="inlineStr">
+        <is>
+          <t>青岛双星</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="20" t="inlineStr">
@@ -10185,7 +10733,7 @@
           <t>星徽股份</t>
         </is>
       </c>
-      <c r="K51" s="13" t="inlineStr">
+      <c r="K51" s="23" t="inlineStr">
         <is>
           <t>今创集团</t>
         </is>
@@ -10208,6 +10756,11 @@
       <c r="P51" s="26" t="inlineStr">
         <is>
           <t>广合科技</t>
+        </is>
+      </c>
+      <c r="Q51" s="13" t="inlineStr">
+        <is>
+          <t>津投城开</t>
         </is>
       </c>
     </row>
@@ -10272,6 +10825,11 @@
           <t>海得控制</t>
         </is>
       </c>
+      <c r="Q52" s="17" t="inlineStr">
+        <is>
+          <t>宝明科技</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="B53" s="20" t="inlineStr">
@@ -10334,6 +10892,11 @@
           <t>永创智能</t>
         </is>
       </c>
+      <c r="Q53" s="20" t="inlineStr">
+        <is>
+          <t>新诺威</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="C54" s="17" t="inlineStr">
@@ -10391,6 +10954,11 @@
           <t>通鼎互联</t>
         </is>
       </c>
+      <c r="Q54" s="14" t="inlineStr">
+        <is>
+          <t>美邦股份</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="C55" s="15" t="inlineStr">
@@ -10455,7 +11023,7 @@
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D56" s="13" t="inlineStr">
+      <c r="D56" s="14" t="inlineStr">
         <is>
           <t>海泰发展</t>
         </is>
@@ -10762,7 +11330,7 @@
           <t>新宏泰</t>
         </is>
       </c>
-      <c r="E62" s="13" t="inlineStr">
+      <c r="E62" s="14" t="inlineStr">
         <is>
           <t>浙江众成</t>
         </is>
@@ -10950,7 +11518,7 @@
           <t>中力股份</t>
         </is>
       </c>
-      <c r="N66" s="13" t="inlineStr">
+      <c r="N66" s="14" t="inlineStr">
         <is>
           <t>青岛双星</t>
         </is>
@@ -11056,7 +11624,7 @@
           <t>豪悦护理</t>
         </is>
       </c>
-      <c r="P69" s="13" t="inlineStr">
+      <c r="P69" s="14" t="inlineStr">
         <is>
           <t>厦门信达</t>
         </is>
@@ -11083,7 +11651,7 @@
           <t>华纳药厂</t>
         </is>
       </c>
-      <c r="O70" s="13" t="inlineStr">
+      <c r="O70" s="14" t="inlineStr">
         <is>
           <t>重庆建工</t>
         </is>
@@ -11570,7 +12138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11609,15 +12177,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>涤纶</t>
+          <t>宠物经济</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>获赔4702万</t>
+          <t>海外订单增长</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -11633,7 +12201,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>香料</t>
+          <t>辅酶Q10</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -11641,7 +12209,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -11649,7 +12217,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>实控人此前变更</t>
+          <t>智慧园林</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -11657,7 +12225,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>股东权益变动</t>
+          <t>线上女装</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -11667,7 +12235,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>宠物经济</t>
+          <t>涤纶</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -11675,7 +12243,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>服装行业</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -11691,7 +12259,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>咖啡种植</t>
+          <t>抗感染药物</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -11699,7 +12267,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -11707,7 +12275,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>分红派息</t>
+          <t>工业模块</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -11715,7 +12283,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>大股东（银亿）重整</t>
+          <t>智慧水务</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -11725,15 +12293,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>益生菌</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>水溶肥料</t>
+          <t>高分子材料防老化助剂</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -11749,7 +12317,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>罗非鱼</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -11757,7 +12325,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -11765,7 +12333,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>子公司参股云针科技</t>
+          <t>水果罐头龙头</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -11773,7 +12341,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>智能散料输送</t>
+          <t>激光测量</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -11783,7 +12351,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>益生菌</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -11791,7 +12359,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>数字环卫</t>
+          <t>获赔4702万</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -11807,7 +12375,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>牙膏</t>
+          <t>户外休闲家具</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -11815,7 +12383,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -11823,7 +12391,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>智慧园林</t>
+          <t>零食渠道拓展</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -11831,7 +12399,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>煤机</t>
+          <t>再生医学材料</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -11841,7 +12409,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -11849,7 +12417,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海外盈利</t>
+          <t>服装行业</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -11865,7 +12433,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>合资公司注册登记</t>
+          <t>酶解蛋白产品</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -11873,7 +12441,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -11881,7 +12449,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>工业模块</t>
+          <t>深海装备</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -11889,7 +12457,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>资产整合</t>
+          <t>原料制剂一体化</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -11899,15 +12467,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>超级百货</t>
+          <t>数字环卫</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -11923,7 +12491,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>阿尔茨海默概念</t>
+          <t>饲料添加剂</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -11931,7 +12499,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -11939,7 +12507,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>水果罐头龙头</t>
+          <t>毛利率提升</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -11947,7 +12515,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>数字人应用</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -11957,7 +12525,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>硅基负极</t>
+          <t>超导</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -11965,7 +12533,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>海外盈利</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -11981,7 +12549,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>布洛芬</t>
+          <t>消费品</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -11989,7 +12557,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -11997,7 +12565,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>零食渠道拓展</t>
+          <t>扩产</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -12005,7 +12573,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>仿制药</t>
+          <t>氧化铝靶材</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -12015,7 +12583,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12023,7 +12591,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>超级百货</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -12031,7 +12599,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>信息智能传输</t>
+          <t>糖尿病首仿药</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12039,7 +12607,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>新冠特效药</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -12047,7 +12615,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -12055,7 +12623,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>深海装备</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -12063,7 +12631,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>医养结合</t>
+          <t>糖尿病用药</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -12073,7 +12641,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>硅基负极</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -12081,7 +12649,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>数字文创资产</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -12089,7 +12657,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>通信网络维护</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12097,7 +12665,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>硬质合金</t>
+          <t>咖啡种植</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -12105,7 +12673,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -12113,7 +12681,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>毛利率提升</t>
+          <t>低温乳制品</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -12121,7 +12689,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>医美业务</t>
+          <t>墨西哥产能建设</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -12131,7 +12699,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -12139,7 +12707,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -12147,7 +12715,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>存储</t>
+          <t>智慧路灯</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12155,7 +12723,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>发动机零部件</t>
+          <t>罗非鱼</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -12163,7 +12731,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -12171,7 +12739,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>扩产</t>
+          <t>鲜立方战略</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -12179,7 +12747,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>线上女装</t>
+          <t>环保再生纸</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -12189,15 +12757,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>超导</t>
+          <t>中药</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>氯虫苯甲酰胺中间体</t>
+          <t>数字文创资产</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -12205,7 +12773,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>房屋检测</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12213,7 +12781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>出口美国业务占比少</t>
+          <t>牙膏</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -12221,7 +12789,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -12229,7 +12797,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>高端护肤</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -12237,7 +12805,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>智慧水务</t>
+          <t>高性能颜料</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -12251,11 +12819,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>课后服务</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -12263,7 +12831,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>蚂蚁数科合作</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12271,7 +12839,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>柔性传感器</t>
+          <t>合资公司注册登记</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -12279,7 +12847,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -12287,7 +12855,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>低温乳制品</t>
+          <t>SPA合作</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -12295,7 +12863,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>轮胎</t>
+          <t>特高压中标</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -12305,15 +12873,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>虚拟电厂</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>细胞免疫治疗</t>
+          <t>氯虫苯甲酰胺中间体</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -12321,7 +12889,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>阻燃剂</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12329,7 +12897,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>获新订单</t>
+          <t>阿尔茨海默概念</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -12337,7 +12905,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -12345,7 +12913,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>鲜立方战略</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -12353,7 +12921,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>激光测量</t>
+          <t>铁塔制造</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -12363,7 +12931,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -12371,7 +12939,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交通数字化服务</t>
+          <t>课后服务</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -12379,7 +12947,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>数智科技业务</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12387,7 +12955,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>自动紧急制动AEB</t>
+          <t>布洛芬</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -12395,7 +12963,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -12403,7 +12971,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>高端护肤</t>
+          <t>重金属污染防治</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -12411,7 +12979,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>再生医学材料</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -12421,7 +12989,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -12429,7 +12997,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>股权变更</t>
+          <t>细胞免疫治疗</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -12437,7 +13005,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>拟收购国贸数科100%股权</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12445,7 +13013,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>线控制动产品</t>
+          <t>新冠特效药</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -12453,7 +13021,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>高压快充</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -12461,7 +13029,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>SPA合作</t>
+          <t>人参全产业链</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -12469,7 +13037,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>原料制剂一体化</t>
+          <t>收购阿法硅51%股权</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -12479,7 +13047,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>高标准农田建设</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -12487,7 +13055,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>超级电容器</t>
+          <t>交通数字化服务</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -12495,7 +13063,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12503,7 +13071,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>两轮车</t>
+          <t>硬质合金</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -12511,7 +13079,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>智能包装设备</t>
+          <t>高压快充</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -12519,7 +13087,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>此前间接持股华大九天（已退出）</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -12527,7 +13095,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>液晶显示器</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -12537,7 +13105,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>物流</t>
+          <t>高标准农田建设</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -12545,7 +13113,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>股权变更</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -12553,7 +13121,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>美容护理</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12561,7 +13129,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>发动机零部件</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -12569,7 +13137,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>显示器件</t>
+          <t>智能包装设备</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -12577,7 +13145,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>重金属污染防治</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -12585,7 +13153,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>氧化铝靶材</t>
+          <t>铀矿资源</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -12595,7 +13163,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>高股息</t>
+          <t>物流</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -12603,7 +13171,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>期货经纪</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -12611,7 +13179,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>滚珠丝杠</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12619,7 +13187,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>医疗信息化</t>
+          <t>出口美国业务占比少</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -12627,7 +13195,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>越南产能释放</t>
+          <t>显示器件</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -12635,7 +13203,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>人参全产业链</t>
+          <t>EDA行业</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -12643,7 +13211,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>糖尿病用药</t>
+          <t>石材加工</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -12653,7 +13221,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>虚拟电厂</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -12661,7 +13229,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>期货经纪</t>
+          <t>风险管理</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -12669,7 +13237,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12677,7 +13245,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>辅助生殖</t>
+          <t>柔性传感器</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -12685,7 +13253,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>越南产能释放</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -12693,7 +13261,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>此前间接持股华大九天（已退出）</t>
+          <t>注射液获临床试验批准</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -12701,7 +13269,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>墨西哥产能建设</t>
+          <t>茶饮</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -12711,15 +13279,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>高股息</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>风险管理</t>
+          <t>钨</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -12727,7 +13295,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12735,7 +13303,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5.5G</t>
+          <t>获新订单</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -12751,7 +13319,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>新质生产力</t>
+          <t>血友病治疗药物</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -12759,7 +13327,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>环保再生纸</t>
+          <t>文远知行合作</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -12769,15 +13337,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>聚氨酯材料</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>足球器材</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -12785,7 +13353,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>次新</t>
+          <t>美容护理</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12793,7 +13361,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>工业缝纫机</t>
+          <t>自动紧急制动AEB</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -12809,7 +13377,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>EDA行业</t>
+          <t>仿制药一致性评价</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -12817,7 +13385,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>高性能颜料</t>
+          <t>奶茶</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -12827,7 +13395,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>胶粘解决方案</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12835,7 +13403,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>足球器材</t>
+          <t>消费服务转型</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -12843,7 +13411,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>滚珠丝杠</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12851,7 +13419,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>拟进行资产置换</t>
+          <t>线控制动产品</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -12867,7 +13435,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>注射液获临床试验批准</t>
+          <t>有色金属电解设备</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -12875,7 +13443,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>特高压中标</t>
+          <t>即饮新品</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -12885,7 +13453,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>聚氨酯材料</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -12893,7 +13461,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>消费服务转型</t>
+          <t>重大合同</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -12901,7 +13469,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12909,7 +13477,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>控股股东拟变更为江钨控股</t>
+          <t>两轮车</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -12925,7 +13493,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>血友病治疗药物</t>
+          <t>智能化转型</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -12933,7 +13501,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>铁塔制造</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -12943,7 +13511,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>胶粘解决方案</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -12951,7 +13519,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>重大合同</t>
+          <t>磷酸铁锂</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -12959,7 +13527,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12967,7 +13535,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>轴承</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -12983,7 +13551,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>仿制药一致性评价</t>
+          <t>智慧物流/环卫</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -12991,7 +13559,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>社区团购</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -13001,7 +13569,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>输配电设备</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13009,7 +13577,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>磷酸铁锂</t>
+          <t>信息智能传输</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -13017,7 +13585,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>资产注入猜测</t>
+          <t>次新</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13025,7 +13593,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>工业母机</t>
+          <t>医疗信息化</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -13041,7 +13609,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>有色金属电解设备</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -13049,7 +13617,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>收购阿法硅51%股权</t>
+          <t>分红</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -13059,7 +13627,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>京东增持</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -13067,7 +13635,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>通信网络维护</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -13075,7 +13643,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13083,7 +13651,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>线性驱动系统</t>
+          <t>辅助生殖</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -13099,7 +13667,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>智能化转型</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -13107,7 +13675,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>液晶显示器</t>
+          <t>中高端拓展</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -13117,7 +13685,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>输配电设备</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -13125,7 +13693,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>存储</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -13133,7 +13701,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>智慧口岸</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13141,7 +13709,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>境外产能布局</t>
+          <t>5.5G</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -13157,7 +13725,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>智慧物流/环卫</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -13165,7 +13733,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>铀矿资源</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -13175,7 +13743,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>产业园运营</t>
+          <t>京东增持</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -13183,7 +13751,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>啤酒概念</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -13191,7 +13759,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>卫浴产品</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13199,7 +13767,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>工业缝纫机</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -13215,7 +13783,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>泰国工厂</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -13223,7 +13791,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>石材加工</t>
+          <t>PVC弹性地板</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -13233,7 +13801,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>区块链</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -13241,7 +13809,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>啤酒概念</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -13249,7 +13817,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>资产注入猜测</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13257,7 +13825,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>粤港澳大湾区</t>
+          <t>拟进行资产置换</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -13273,7 +13841,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>能源数字化</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -13281,7 +13849,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>茶饮</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -13291,7 +13859,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>产业园运营</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -13307,7 +13875,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -13315,7 +13883,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>钢铁</t>
+          <t>控股股东拟变更为江钨控股</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -13331,7 +13899,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>聚合充电平台</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -13339,7 +13907,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>文远知行合作</t>
+          <t>宠物护理</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -13349,7 +13917,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>区块链</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -13365,7 +13933,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -13373,7 +13941,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>拟并购先导电科</t>
+          <t>轴承</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -13389,7 +13957,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>泰国工厂</t>
+          <t>战略投资</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -13397,7 +13965,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>奶茶</t>
+          <t>燕麦谷物</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -13407,7 +13975,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>古法黄金</t>
+          <t>足球概念</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -13423,7 +13991,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>消费行业</t>
+          <t>智慧口岸</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -13431,7 +13999,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>红外光学</t>
+          <t>工业母机</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -13447,7 +14015,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>能源数字化</t>
+          <t>车路云一体化</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -13455,7 +14023,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>即饮新品</t>
+          <t>资源回收</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -13465,11 +14033,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>古法黄金</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -13481,7 +14049,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>文创消费品</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -13489,7 +14057,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>拟在印尼建产</t>
+          <t>线性驱动系统</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -13505,7 +14073,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>聚合充电平台</t>
+          <t>煤炭设备</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -13513,7 +14081,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>杯壶龙头</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -13523,11 +14091,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>时装</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -13539,7 +14107,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -13547,7 +14115,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>制冷电器</t>
+          <t>境外产能布局</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -13563,7 +14131,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>战略投资</t>
+          <t>城乡污水处理</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -13571,7 +14139,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>社区团购</t>
+          <t>木门</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -13581,7 +14149,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13597,7 +14165,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>虚拟现实</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -13605,7 +14173,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>早餐</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -13621,7 +14189,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>车路云一体化</t>
+          <t>环保水处理</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -13629,7 +14197,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>分红</t>
+          <t>适老化产品</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -13639,7 +14207,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13655,7 +14223,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -13663,7 +14231,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>团餐</t>
+          <t>粤港澳大湾区</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -13679,7 +14247,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>煤炭设备</t>
+          <t>退出润滑油业务</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -13687,7 +14255,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>中高端拓展</t>
+          <t>香精</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -13697,7 +14265,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13713,7 +14281,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>消费行业</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -13721,7 +14289,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>复合调味料</t>
+          <t>钢铁</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -13737,7 +14305,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>城乡污水处理</t>
+          <t>可信身份技术</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -13745,7 +14313,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>沪上阿姨合作</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -13755,7 +14323,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -13771,7 +14339,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>文创消费品</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -13779,7 +14347,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>外延并购</t>
+          <t>拟并购先导电科</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -13795,7 +14363,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>环保水处理</t>
+          <t>综合能源服务</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -13803,7 +14371,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>PVC弹性地板</t>
+          <t>储能投资</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -13813,7 +14381,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -13821,7 +14389,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -13829,7 +14397,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -13837,7 +14405,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>渠道拓展</t>
+          <t>红外光学</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -13853,7 +14421,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>退出润滑油业务</t>
+          <t>超导热门股</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -13861,7 +14429,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>垃圾分类</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -13871,7 +14439,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -13879,7 +14447,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -13887,7 +14455,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -13895,7 +14463,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>拟在印尼建产</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -13911,7 +14479,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>可信身份技术</t>
+          <t>钢丝</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -13919,7 +14487,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>宠物护理</t>
+          <t>微盘股</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -13929,7 +14497,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -13937,7 +14505,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -13945,7 +14513,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>质价比战略</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -13953,7 +14521,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>低价股</t>
+          <t>制冷电器</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -13969,7 +14537,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>蚂蚁数科合作</t>
+          <t>光纤</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -13977,7 +14545,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>燕麦谷物</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -13987,7 +14555,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13995,15 +14563,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>集装箱用产品</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>电子纸</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -14011,7 +14579,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>早餐</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -14027,7 +14595,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>综合能源服务</t>
+          <t>物联网解决方案</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -14035,7 +14603,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>房屋检测</t>
+          <t>高分红</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -14045,7 +14613,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>卡牌</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -14053,15 +14621,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>有机硅胶粘剂</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>近期中标</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -14069,7 +14637,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>此前转让子公司股权</t>
+          <t>团餐</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -14085,7 +14653,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>超导热门股</t>
+          <t>量子安全通信</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -14093,7 +14661,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>资源回收</t>
+          <t>制冷技术</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -14103,7 +14671,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>烟草</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -14111,7 +14679,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>集装箱用产品</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -14119,7 +14687,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>轨交装备</t>
+          <t>终止股权转让</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -14127,7 +14695,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>公司称将持续推进收购工作</t>
+          <t>复合调味料</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -14143,7 +14711,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>钢丝</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -14151,7 +14719,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>杯壶龙头</t>
+          <t>智能物联</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -14161,7 +14729,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>焊接材料</t>
+          <t>卡牌</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -14169,7 +14737,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>涨价</t>
+          <t>有机硅胶粘剂</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -14177,7 +14745,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>增持</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -14185,7 +14753,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>天津水务集团资产注入猜想</t>
+          <t>外延并购</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -14201,7 +14769,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>光纤</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -14209,7 +14777,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>木门</t>
+          <t>玻璃基板</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -14219,7 +14787,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>烟草</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -14227,7 +14795,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天然气</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -14235,7 +14803,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>天然气液化加工</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -14243,7 +14811,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>污水处理</t>
+          <t>渠道拓展</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -14259,7 +14827,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>物联网解决方案</t>
+          <t>蓝宝石</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -14267,7 +14835,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>适老化产品</t>
+          <t>有线电视</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -14277,7 +14845,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>焊接材料</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -14285,7 +14853,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>北京玄戒</t>
+          <t>涨价</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -14293,7 +14861,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>昂拉地韦片获批上市</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -14301,7 +14869,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>日用玻璃</t>
+          <t>低价股</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -14317,7 +14885,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>量子安全通信</t>
+          <t>文生视频</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -14325,7 +14893,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>香精</t>
+          <t>紧固件龙头</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -14335,7 +14903,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>智慧环卫</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -14343,7 +14911,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -14351,7 +14919,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>质价比战略</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -14359,7 +14927,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>海外布局</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -14375,7 +14943,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -14383,7 +14951,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>沪上阿姨合作</t>
+          <t>聚乙二醇</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -14393,7 +14961,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>精酿啤酒</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -14401,7 +14969,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>产业新城服务商转型</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -14409,7 +14977,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>泰国工厂投产</t>
+          <t>电子纸</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -14417,7 +14985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>膜技术</t>
+          <t>此前转让子公司股权</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -14433,7 +15001,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>自身免疫性疾病</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -14441,7 +15009,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>储能投资</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -14451,7 +15019,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>回购注销</t>
+          <t>智慧环卫</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -14459,7 +15027,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>北京玄戒</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -14467,7 +15035,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -14475,7 +15043,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>定制家具</t>
+          <t>公司称将持续推进收购工作</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -14491,7 +15059,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>蓝宝石</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -14499,7 +15067,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>垃圾分类</t>
+          <t>健身器材</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -14509,7 +15077,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>大健康消费品</t>
+          <t>精酿啤酒</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -14517,7 +15085,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -14525,7 +15093,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>无人出租车</t>
+          <t>近期中标</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -14533,7 +15101,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>环卫装备</t>
+          <t>天津水务集团资产注入猜想</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -14549,7 +15117,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>文生视频</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -14557,7 +15125,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>微盘股</t>
+          <t>门店扩张</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -14567,7 +15135,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>回购注销</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -14575,7 +15143,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>石英制品</t>
+          <t>产业新城服务商转型</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -14583,7 +15151,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>国际货代</t>
+          <t>轨交装备</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -14591,7 +15159,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>客户合作</t>
+          <t>污水处理</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -14607,7 +15175,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>数字营销</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -14615,7 +15183,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>高铁</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -14625,7 +15193,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Web3.0</t>
+          <t>大健康消费品</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -14633,7 +15201,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>与辉瑞订立许可协议</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -14641,7 +15209,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>英伟达概念</t>
+          <t>增持</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -14649,7 +15217,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>智能制造装备</t>
+          <t>日用玻璃</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -14665,7 +15233,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>自身免疫性疾病</t>
+          <t>智慧停车</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -14673,7 +15241,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分红</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -14683,7 +15251,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>eSIM技术</t>
+          <t>水溶肥料</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -14691,7 +15259,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -14699,7 +15267,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>天然气液化加工</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -14707,7 +15275,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>子公司与宝德计算机合资</t>
+          <t>海外布局</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -14723,7 +15291,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>蚂蚁金服概念</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -14731,7 +15299,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>制冷技术</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -14741,7 +15309,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -14749,7 +15317,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>宠物用品</t>
+          <t>石英制品</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -14757,7 +15325,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>昂拉地韦片获批上市</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -14765,7 +15333,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>橡胶</t>
+          <t>膜技术</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -14781,7 +15349,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>EDA</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -14789,7 +15357,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>智能物联</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -14799,7 +15367,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>出版</t>
+          <t>Web3.0</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -14807,7 +15375,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>与辉瑞订立许可协议</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -14815,7 +15383,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>泰国工厂投产</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -14823,7 +15391,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>中航系</t>
+          <t>定制家具</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -14839,7 +15407,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>数字营销</t>
+          <t>晶圆级测试设备</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -14847,7 +15415,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>阻燃剂</t>
+          <t>雄安新区</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -14857,7 +15425,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>eSIM技术</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -14865,7 +15433,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>低空资产注入猜想</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -14873,7 +15441,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>药用酶</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -14881,7 +15449,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>泵产业</t>
+          <t>环卫装备</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -14897,7 +15465,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>智慧停车</t>
+          <t>国家大基金持股</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -14905,7 +15473,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>智慧路灯</t>
+          <t>新设矿业公司</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -14915,7 +15483,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>足球概念</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -14923,7 +15491,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -14931,7 +15499,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>无人出租车</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -14939,7 +15507,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>仓储物流</t>
+          <t>客户合作</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -14955,7 +15523,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>蚂蚁金服概念</t>
+          <t>参股券商（拟转让）</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -14963,7 +15531,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>玻璃基板</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -14973,7 +15541,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>出版</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -14981,7 +15549,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>拟收购英迪芯微控股权</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -14989,7 +15557,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>项目中标</t>
+          <t>国际货代</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -14997,7 +15565,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>拟发行股份购买三门峡铝业100%股权</t>
+          <t>智能制造装备</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -15013,7 +15581,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>EDA</t>
+          <t>高分子发泡材料</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -15021,7 +15589,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>有线电视</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -15031,7 +15599,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -15039,7 +15607,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>低空资产注入猜想</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -15047,7 +15615,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -15055,7 +15623,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>氧化铝</t>
+          <t>子公司与宝德计算机合资</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -15071,7 +15639,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>晶圆级测试设备</t>
+          <t>橡胶V带</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -15079,7 +15647,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>紧固件龙头</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -15089,7 +15657,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -15097,7 +15665,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -15105,7 +15673,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>电子级玻璃纤维</t>
+          <t>化学制药</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -15113,7 +15681,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>无收购“宠胖胖”安排</t>
+          <t>橡胶</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -15129,7 +15697,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>国家大基金持股</t>
+          <t>海外业务</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -15137,7 +15705,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>聚乙二醇</t>
+          <t>军用检测</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -15147,7 +15715,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>超级电容器</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -15155,7 +15723,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>拟收购英迪芯微控股权</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -15163,7 +15731,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>覆铜板上游</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -15171,7 +15739,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>生态景观</t>
+          <t>中航系</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -15187,7 +15755,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>参股券商（拟转让）</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -15195,7 +15763,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>季报亏损收窄</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -15205,7 +15773,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>重整</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -15213,7 +15781,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -15221,7 +15789,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>阿里云合作</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -15229,7 +15797,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>甲醛</t>
+          <t>泵产业</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -15245,7 +15813,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>高分子发泡材料</t>
+          <t>功能性硅烷</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -15253,7 +15821,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>健身器材</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -15263,15 +15831,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>低空防御系统</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -15279,7 +15847,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>节能服务</t>
+          <t>药用酶</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -15287,7 +15855,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>拟收购尚阳通</t>
+          <t>仓储物流</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -15303,7 +15871,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>橡胶V带</t>
+          <t>橡胶制品</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -15311,7 +15879,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>门店扩张</t>
+          <t>模型服务</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -15321,15 +15889,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CDMO业务扩展</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -15337,7 +15905,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>新型烟草</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -15345,7 +15913,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>拟发行股份购买三门峡铝业100%股权</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -15361,7 +15929,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>海外业务</t>
+          <t>长三角布局</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -15369,7 +15937,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>高铁</t>
+          <t>与海光信息达成战略合作</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -15379,15 +15947,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>集采中标</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -15395,7 +15963,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>项目中标</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -15403,7 +15971,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>纸质包装</t>
+          <t>氧化铝</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -15419,7 +15987,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>童装</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -15427,7 +15995,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>印制电路板</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -15437,15 +16005,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>染料价格回暖</t>
+          <t>低空防御系统</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -15453,15 +16021,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>海洋馆</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>无收购“宠胖胖”安排</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -15477,7 +16045,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>功能性硅烷</t>
+          <t>毛毯龙头</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -15485,7 +16053,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>智慧供热</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -15495,15 +16063,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>输电铁塔</t>
+          <t>CDMO业务扩展</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -15511,15 +16079,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>电子级玻璃纤维</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>生态景观</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -15535,7 +16103,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>一季度增长</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -15543,7 +16111,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>碳中和概念</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -15553,15 +16121,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>重整</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>高效换热器</t>
+          <t>集采中标</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -15569,15 +16137,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>混凝土外加剂</t>
+          <t>覆铜板上游</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>甲醛</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -15593,7 +16161,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>长三角布局</t>
+          <t>环境治理</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -15601,7 +16169,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>雄安新区</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -15611,7 +16179,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -15619,7 +16187,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>订单充足</t>
+          <t>染料价格回暖</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -15627,15 +16195,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>出售部分资产</t>
+          <t>阿里云合作</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -15651,7 +16219,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>童装</t>
+          <t>葡萄酒</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -15659,7 +16227,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>新设矿业公司</t>
+          <t>价格回暖</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -15669,7 +16237,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -15677,7 +16245,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>输电铁塔</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -15685,15 +16253,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>粉磨系统</t>
+          <t>节能服务</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>此前进行重大资产购买</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -15709,7 +16277,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>毛毯龙头</t>
+          <t>药品</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -15717,7 +16285,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>广电网络服务</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -15727,7 +16295,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>拟购买海德利森100%股权</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -15735,7 +16303,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>高效换热器</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -15743,15 +16311,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>辉瑞合作</t>
+          <t>中标项目</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>儿童药</t>
+          <t>纸质包装</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -15767,7 +16335,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>一季度增长</t>
+          <t>物管</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -15775,7 +16343,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>万豪合作（云服务）</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -15785,7 +16353,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -15793,7 +16361,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>订单充足</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -15801,15 +16369,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>双特异性抗体</t>
+          <t>仿制药</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>控股股东为长江产业集团</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -15825,7 +16393,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>轻资产转型</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -15833,7 +16401,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -15843,7 +16411,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -15851,7 +16419,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝莓产业链</t>
+          <t>复合集流体</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -15859,15 +16427,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>全球化战略</t>
+          <t>轮胎</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>MiniLED</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -15883,7 +16451,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>葡萄酒</t>
+          <t>生态环保</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -15891,7 +16459,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>军用检测</t>
+          <t>配电设备</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -15901,7 +16469,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -15909,7 +16477,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>比亚迪概念</t>
+          <t>金属包装产品</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -15917,15 +16485,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>醋酸纤维素</t>
+          <t>新型烟草</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -15941,7 +16509,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>药品</t>
+          <t>生猪养殖</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -15949,7 +16517,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>季报亏损收窄</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -15959,7 +16527,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -15967,7 +16535,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>氟氯虫双酰胺</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -15975,15 +16543,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>激光防伪包装材料</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -15999,7 +16567,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>物管</t>
+          <t>禽肉加工</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -16007,7 +16575,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>碳酸锂项目</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -16017,7 +16585,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -16025,7 +16593,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>高端成形机床</t>
+          <t>蓝莓产业链</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -16033,15 +16601,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>输电线路铁塔</t>
+          <t>有色金属</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>受让控股子公司少数股东部分股权</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -16057,7 +16625,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>轻资产转型</t>
+          <t>预制菜概念</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -16065,7 +16633,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>模型服务</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -16075,7 +16643,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>拟购买海德利森100%股权</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -16083,7 +16651,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>平消片获再注册批件</t>
+          <t>比亚迪概念</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -16091,7 +16659,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>热能动力</t>
+          <t>海洋馆</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -16099,7 +16667,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>儿童药</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -16115,7 +16683,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>生态环保</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -16123,7 +16691,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>与海光信息达成战略合作</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -16133,7 +16701,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>收购醋纤公司67%股权</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -16141,7 +16709,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>城市服务运营商</t>
+          <t>氟氯虫双酰胺</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -16149,7 +16717,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>大健康板块</t>
+          <t>混凝土外加剂</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -16157,7 +16725,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -16173,7 +16741,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>中标项目</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -16181,7 +16749,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>印制电路板</t>
+          <t>铝加工</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -16191,7 +16759,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -16199,7 +16767,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>高端成形机床</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -16207,7 +16775,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>糖尿病首仿药</t>
+          <t>出售部分资产</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -16215,7 +16783,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -16231,7 +16799,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>生猪养殖</t>
+          <t>医疗服务</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -16239,7 +16807,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>智慧供热</t>
+          <t>一季报营收增长</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -16249,7 +16817,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>传感器</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -16257,7 +16825,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>杀虫剂</t>
+          <t>平消片获再注册批件</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -16265,7 +16833,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>H股上市</t>
+          <t>粉磨系统</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -16273,7 +16841,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -16289,7 +16857,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>禽肉加工</t>
+          <t>硝化棉</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -16297,7 +16865,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>碳中和概念</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -16307,7 +16875,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>下游运用广泛</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -16315,7 +16883,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>氯氰菊酯</t>
+          <t>城市服务运营商</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -16323,7 +16891,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>亏损收窄</t>
+          <t>辉瑞合作</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -16331,7 +16899,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -16347,7 +16915,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>预制菜概念</t>
+          <t>现金分红</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -16355,7 +16923,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -16365,7 +16933,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>部分产品涨价</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -16373,7 +16941,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>智慧矿山</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -16381,7 +16949,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>胶原蛋白研发</t>
+          <t>双特异性抗体</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -16389,7 +16957,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -16405,7 +16973,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -16413,7 +16981,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>价格回暖</t>
+          <t>商品混凝土</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -16423,7 +16991,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>小型堆核岛主设备关键装备制造</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -16431,7 +16999,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>实控人中电科</t>
+          <t>杀虫剂</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -16439,7 +17007,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>美国建厂</t>
+          <t>全球化战略</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -16447,7 +17015,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -16463,7 +17031,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -16471,7 +17039,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>数智科技业务</t>
+          <t>注塑机</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -16481,7 +17049,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>此前收购中达金属60%股权</t>
+          <t>收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -16489,7 +17057,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>蚂蚁合作</t>
+          <t>氯氰菊酯</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -16497,7 +17065,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>辅酶Q10</t>
+          <t>醋酸纤维素</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -16505,7 +17073,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -16521,7 +17089,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>医疗服务</t>
+          <t>道路运输</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -16529,7 +17097,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>拟收购国贸数科100%股权</t>
+          <t>越南投资</t>
         </is>
       </c>
       <c r="N86" t="n">
@@ -16539,7 +17107,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -16547,7 +17115,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>电动叉车</t>
+          <t>智慧矿山</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -16555,7 +17123,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>抗感染药物</t>
+          <t>激光防伪包装材料</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -16563,7 +17131,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>供货蜜雪冰城</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -16579,7 +17147,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>硝化棉</t>
+          <t>客运资源整合</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -16587,7 +17155,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>广电网络服务</t>
+          <t>云网安融合</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -16597,7 +17165,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>传感器</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -16605,7 +17173,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>高速视觉</t>
+          <t>实控人中电科</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -16613,7 +17181,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>输电线路铁塔</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -16621,7 +17189,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -16637,17 +17205,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>现金分红</t>
+          <t>股东权益变动</t>
         </is>
       </c>
       <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>全球组网服务</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>下游运用广泛</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -16655,7 +17231,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>钢结构工程</t>
+          <t>蚂蚁合作</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -16663,7 +17239,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>户外休闲家具</t>
+          <t>热能动力</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -16671,7 +17247,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>拟合资设立境外子公司</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -16687,17 +17263,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>大股东（银亿）重整</t>
         </is>
       </c>
       <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>数字通信</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>海外订单增长</t>
+          <t>部分产品涨价</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -16705,7 +17289,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>智能环卫装备</t>
+          <t>电动叉车</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -16713,7 +17297,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>酶解蛋白产品</t>
+          <t>大健康板块</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -16721,7 +17305,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>EPS产品</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -16737,17 +17321,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>智能散料输送</t>
         </is>
       </c>
       <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>拟购鸿林矿业47%股权</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>小型堆核岛主设备关键装备制造</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -16755,7 +17347,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>滑动轴承行业龙头</t>
+          <t>高速视觉</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -16763,7 +17355,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>饲料添加剂</t>
+          <t>H股上市</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -16771,7 +17363,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>光学镜头</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -16787,17 +17379,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>道路运输</t>
+          <t>煤机</t>
         </is>
       </c>
       <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>锂电复合铜箔</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>此前收购中达金属60%股权</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -16805,7 +17405,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>公共物业服务</t>
+          <t>钢结构工程</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -16813,7 +17413,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>消费品</t>
+          <t>亏损收窄</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -16821,7 +17421,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -16837,10 +17437,184 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>客运资源整合</t>
+          <t>资产整合</t>
         </is>
       </c>
       <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>车载背光源</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>石英砂</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>智能环卫装备</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>人造草坪</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>废气处理</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>实控人此前变更</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>数字人应用</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>此前曾拟购买石药百克100%股权</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>小金属</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>滑动轴承行业龙头</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>胶原蛋白研发</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>小微盘股</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>分红派息</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>医养结合</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>丙烯</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>冰雪产业</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>公共物业服务</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>美国建厂</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>近期签大单</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>子公司参股云针科技</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>医美业务</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16894,7 +17668,7 @@
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -16904,27 +17678,27 @@
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="41" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>新能源</t>
         </is>
       </c>
       <c r="B5" s="37" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="42" t="inlineStr">
         <is>
-          <t>新能源</t>
+          <t>机器人</t>
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -16934,7 +17708,7 @@
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -16944,7 +17718,7 @@
         </is>
       </c>
       <c r="B8" s="37" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -16954,7 +17728,7 @@
         </is>
       </c>
       <c r="B9" s="37" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -16964,7 +17738,7 @@
         </is>
       </c>
       <c r="B10" s="37" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -16974,7 +17748,7 @@
         </is>
       </c>
       <c r="B11" s="37" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -16992,7 +17766,7 @@
         </is>
       </c>
       <c r="B13" s="37" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -17002,7 +17776,7 @@
         </is>
       </c>
       <c r="B14" s="37" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -17012,7 +17786,7 @@
         </is>
       </c>
       <c r="B15" s="37" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -17022,7 +17796,7 @@
         </is>
       </c>
       <c r="B16" s="37" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -17032,7 +17806,7 @@
         </is>
       </c>
       <c r="B17" s="37" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -17042,7 +17816,7 @@
         </is>
       </c>
       <c r="B18" s="37" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -17052,27 +17826,27 @@
         </is>
       </c>
       <c r="B19" s="37" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="inlineStr">
         <is>
-          <t>稳定币</t>
+          <t>AI算力</t>
         </is>
       </c>
       <c r="B20" s="37" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="37" t="inlineStr">
         <is>
-          <t>AI算力</t>
+          <t>稳定币</t>
         </is>
       </c>
       <c r="B21" s="37" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -17082,7 +17856,7 @@
         </is>
       </c>
       <c r="B22" s="37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -17098,21 +17872,21 @@
     <row r="24">
       <c r="A24" s="37" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>农业</t>
         </is>
       </c>
       <c r="B24" s="37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="37" t="inlineStr">
         <is>
-          <t>农业</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B25" s="37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -17132,7 +17906,7 @@
         </is>
       </c>
       <c r="B27" s="37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -17152,7 +17926,7 @@
         </is>
       </c>
       <c r="B29" s="37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -17180,7 +17954,7 @@
         </is>
       </c>
       <c r="B32" s="37" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -17190,7 +17964,7 @@
         </is>
       </c>
       <c r="B33" s="37" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
@@ -17200,7 +17974,7 @@
         </is>
       </c>
       <c r="B34" s="37" t="n">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -205,13 +205,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -429,6 +429,12 @@
 曾研发外骨骼机器人用电缆+军工+电线电缆+低空经济</t>
       </text>
     </comment>
+    <comment ref="P4" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 09:31:02 3
+足球概念+体育产业+人造草坪</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">地天板+涤纶+化学纤维+一季报增长 13:43:52 0
@@ -513,6 +519,12 @@
 可控核聚变+超导+电网设备+国企</t>
       </text>
     </comment>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 09:25:00 0
+控制权变更+糖尿病首仿药</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:25:00 0
@@ -597,6 +609,12 @@
 足球概念+体育产业+人造草坪</t>
       </text>
     </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 10:47:55 11
+无人机业务+摘帽+季度减亏</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:30:54 1
@@ -681,6 +699,12 @@
 氯虫苯甲酰胺中间体+医药CDMO</t>
       </text>
     </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <t>5天4板 09:31:42 23
+智慧新能源+存储+华为概念+信创</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>6天4板 09:35:46 24
@@ -765,6 +789,12 @@
 益生菌+跨境电商</t>
       </text>
     </comment>
+    <comment ref="P8" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 1
+NHKC-1+创新药+仿制药+宠物经济</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:57:30 0
@@ -849,6 +879,12 @@
 蚂蚁数科合作+储能+超级电容器+摘帽</t>
       </text>
     </comment>
+    <comment ref="P9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 2
+注塑机+纺织机械+锂电池+越南投资</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -933,6 +969,12 @@
 数字货币+区块链+eSIM技术</t>
       </text>
     </comment>
+    <comment ref="P10" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:30:49 1
+固态电池+锂电池模具+减速器</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1017,6 +1059,12 @@
 控制权变更+糖尿病首仿药</t>
       </text>
     </comment>
+    <comment ref="P11" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 4
+养老+三胎概念+民营医院+高压氧仓</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 11
@@ -1101,6 +1149,12 @@
 数字文创资产+Web3.0+IP经济</t>
       </text>
     </comment>
+    <comment ref="P12" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:01 0
+稀土永磁+机器人+央企</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 1
@@ -1185,6 +1239,12 @@
 摘帽+信息智能传输+通信网络维护</t>
       </text>
     </comment>
+    <comment ref="P13" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:04 0
+钛合金材料+柱状电池外壳+海外业务</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:34:28 0
@@ -1269,6 +1329,12 @@
 期货经纪+风险管理+H股上市+股份回购</t>
       </text>
     </comment>
+    <comment ref="P14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:32:32 2
+可控核聚变+光刻机+军工+低空经济</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:38:21 1
@@ -1353,6 +1419,12 @@
 移动支付+交通数字化服务+机器人+国企</t>
       </text>
     </comment>
+    <comment ref="P15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:39:53 5
+染料+化工+出售部分资产+间接投资宇树科技</t>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1437,6 +1509,12 @@
 注塑机+纺织机械+锂电池+越南投资</t>
       </text>
     </comment>
+    <comment ref="P16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:40:44 2
+涤纶+化学纤维+部分产品涨价</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1521,6 +1599,12 @@
 数字人民币+跨境支付+AI智能硬件</t>
       </text>
     </comment>
+    <comment ref="P17" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:44:54 20
+AI营销+体育产业+文化传媒+广州国企</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:02 0
@@ -1605,6 +1689,12 @@
 创新药+仿制药+宠物经济</t>
       </text>
     </comment>
+    <comment ref="P18" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:26:08 20
+保健品+宠物经济+控股权变更</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -1749,6 +1839,12 @@
 固态电池+锂电池模具+减速器</t>
       </text>
     </comment>
+    <comment ref="P20" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 0
+并购重组+光伏+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -1833,6 +1929,12 @@
 农药+外销+一季报增长</t>
       </text>
     </comment>
+    <comment ref="P21" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:01 0
+被海光信息换股吸收合并+AI算力+央企</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:02 6
@@ -1917,6 +2019,12 @@
 创新药+固态电池+原料药</t>
       </text>
     </comment>
+    <comment ref="P22" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:01 0
+AI医疗+华为合作+脑科学+SPD供应商</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:15 0
@@ -1989,6 +2097,12 @@
 油服工程+光伏+新能源电力工程</t>
       </text>
     </comment>
+    <comment ref="P23" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:06 5
+医药+动保+大健康</t>
+      </text>
+    </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:30 4
@@ -2067,6 +2181,12 @@
 油服工程+光伏+新能源电力工程</t>
       </text>
     </comment>
+    <comment ref="P24" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:27 0
+钠离子电池+烟气治理+环保</t>
+      </text>
+    </comment>
     <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:31:20 1
@@ -2145,6 +2265,12 @@
 中高端家具+智能家居+业绩改善+外销</t>
       </text>
     </comment>
+    <comment ref="P25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:12 2
+旅游+文化IP+国企</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:35:01 2
@@ -2217,6 +2343,12 @@
 并购重组+半导体+合肥国企</t>
       </text>
     </comment>
+    <comment ref="P26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:37:15 0
+核电+海缆+行业资质</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:39:55 1
@@ -2301,6 +2433,12 @@
 减肥药+创新药+流感药物+业绩增长</t>
       </text>
     </comment>
+    <comment ref="P27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:48:20 0
+有机颜料+钠电池材料+光刻胶应用</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:46:06 4
@@ -2379,6 +2517,12 @@
 牙科医疗+新店开业</t>
       </text>
     </comment>
+    <comment ref="P28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:49:21 0
+心脑血管注射剂+创新药研发+一季报扭亏</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:48:04 0
@@ -2457,6 +2601,12 @@
 数字货币+区块链+低空经济+央企</t>
       </text>
     </comment>
+    <comment ref="P29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:52:50 6
+重大合同+磷酸铁锂+固态电池研发+无人机</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:00:51 1
@@ -2541,6 +2691,12 @@
 可控核聚变+光刻机+军工+低空经济</t>
       </text>
     </comment>
+    <comment ref="P30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:56:17 0
+中药+创新驱动+控制权变更</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>2天2板 13:18:24 0
@@ -2625,6 +2781,12 @@
 固态电池+复合集流体+金属包装产品</t>
       </text>
     </comment>
+    <comment ref="P31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:56:18 0
+固态电池+战略合作+锂电装备</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>2天2板 14:31:30 0
@@ -2709,6 +2871,12 @@
 机器人关节电机+压缩机+蜜雪冰城供应商</t>
       </text>
     </comment>
+    <comment ref="P32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:19:14 0
+人造草坪应用+受阻胺光稳定剂+环保</t>
+      </text>
+    </comment>
     <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:12 6
@@ -2781,6 +2949,12 @@
 民营医院+养老+三胎概念+高压氧仓</t>
       </text>
     </comment>
+    <comment ref="P33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:27:18 3
+电力供应+新型储能+顺价调整</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">首板涨停 09:25:00 0
@@ -2865,6 +3039,12 @@
 期货业务+股份回购+国企</t>
       </text>
     </comment>
+    <comment ref="P34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:35:24 6
+IP经济+RFID+终止股权转让</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:25:00 0
@@ -2949,6 +3129,12 @@
 K胺环评批复+农药原药+杀虫剂</t>
       </text>
     </comment>
+    <comment ref="P35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:36:50 0
+农机+打捆机+焊接机器人</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:28 1
@@ -3033,6 +3219,12 @@
 农药+杀虫剂+光伏</t>
       </text>
     </comment>
+    <comment ref="P36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:56:54 0
+电动两轮车+职业培训+海外产能布局</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:18 0
@@ -3117,6 +3309,12 @@
 减肥药+特色原料药+制剂一体化+年报增长</t>
       </text>
     </comment>
+    <comment ref="P37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:07:42 0
+内酯系列香料+外销+产能释放</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:38 0
@@ -3201,6 +3399,12 @@
 军工+航空零部件+粉磨系统+机器人</t>
       </text>
     </comment>
+    <comment ref="P38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:04:21 2
+港口航运+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:34:48 1
@@ -3285,6 +3489,12 @@
 CRO+创新药+细胞免疫治疗</t>
       </text>
     </comment>
+    <comment ref="P39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:22:57 1
+稀土永磁+一季报增长+机器人概念</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:15 0
@@ -3369,6 +3579,12 @@
 汇金入主+证券+一季报增长</t>
       </text>
     </comment>
+    <comment ref="P40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:28:36 2
+港口装卸+一带一路+国企</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 2
@@ -3453,6 +3669,12 @@
 跨境电商+欧美用户</t>
       </text>
     </comment>
+    <comment ref="P41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:34:53 0
+港口航运+国际运输+国企</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 4
@@ -3537,6 +3759,12 @@
 创新药+消化药+市场扩展</t>
       </text>
     </comment>
+    <comment ref="P42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:42:47 0
+集装箱运输+航线拓展+业绩增长+国企</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:42:45 0
@@ -3621,6 +3849,12 @@
 碳纤维+新能源汽车+机器人概念+业绩增长</t>
       </text>
     </comment>
+    <comment ref="P43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:47:30 1
+参股《长安的荔枝》出品方+游戏+AI宠物</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:44:09 1
@@ -3699,6 +3933,12 @@
 生态环境+绿色能源+国企</t>
       </text>
     </comment>
+    <comment ref="P44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:59:40 1
+控股股东变更+体外诊断+脱敏要</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:48:03 0
@@ -3771,6 +4011,12 @@
 保健品+宠物经济+摘帽+控股权变更</t>
       </text>
     </comment>
+    <comment ref="P45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:41:09 4
+航运+商品贸易+物流+无实控人</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:53:35 0
@@ -3843,6 +4089,12 @@
 钛合金材料+柱状电池外壳+专精特新+海外业务</t>
       </text>
     </comment>
+    <comment ref="P46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:41:12 0
+IP经济+短剧（Reelshort旗下公司合作）+Rokid合作+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:54:57 0
@@ -3909,6 +4161,12 @@
 稀土永磁+机器人+健康器材</t>
       </text>
     </comment>
+    <comment ref="P47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:48:08 0
+航运+战略合作+出海</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:02:18 0
@@ -3973,6 +4231,12 @@
       <text>
         <t>首板涨停 09:58:45 0
 黄酒+高端化、年轻化战略+绍兴国资</t>
+      </text>
+    </comment>
+    <comment ref="P48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:49:12 2
+固态电池+稀土+氢能源+珠海国资</t>
       </text>
     </comment>
     <comment ref="B49" authorId="0" shapeId="0">
@@ -5780,7 +6044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -5806,6 +6070,7 @@
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5898,6 +6163,12 @@
 星期一</t>
         </is>
       </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-10
+星期二</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -5975,6 +6246,11 @@
           <t>1.07%</t>
         </is>
       </c>
+      <c r="P2" s="6" t="inlineStr">
+        <is>
+          <t>-1.17%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -6052,12 +6328,17 @@
           <t>202.83</t>
         </is>
       </c>
-      <c r="P3" s="10" t="n"/>
+      <c r="P3" s="9" t="inlineStr">
+        <is>
+          <t>237.69</t>
+        </is>
+      </c>
+      <c r="Q3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>跨境贸易(110)</t>
+          <t>新能源(114)</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -6065,42 +6346,42 @@
           <t>迎丰股份7</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>南京港6</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>中超控股8</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>中超控股9</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="F4" s="14" t="inlineStr">
         <is>
           <t>中超控股10</t>
         </is>
       </c>
-      <c r="G4" s="13" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>中超控股11</t>
         </is>
       </c>
-      <c r="H4" s="14" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>尤夫股份7</t>
         </is>
       </c>
-      <c r="I4" s="13" t="inlineStr">
+      <c r="I4" s="14" t="inlineStr">
         <is>
           <t>中超控股12</t>
         </is>
       </c>
-      <c r="J4" s="14" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>棕榈股份6</t>
         </is>
@@ -6125,24 +6406,29 @@
           <t>百利电气8</t>
         </is>
       </c>
-      <c r="O4" s="13" t="inlineStr">
+      <c r="O4" s="14" t="inlineStr">
         <is>
           <t>中超控股13</t>
+        </is>
+      </c>
+      <c r="P4" s="13" t="inlineStr">
+        <is>
+          <t>共创草坪7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="inlineStr">
         <is>
-          <t>创新药(108)</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
+          <t>创新药(113)</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>苏州龙杰6</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>综艺股份5</t>
         </is>
@@ -6152,17 +6438,17 @@
           <t>滨海能源4</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>苏州龙杰7</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>苏州龙杰8</t>
         </is>
       </c>
-      <c r="G5" s="14" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>苏州龙杰9</t>
         </is>
@@ -6187,7 +6473,7 @@
           <t>百利电气7</t>
         </is>
       </c>
-      <c r="L5" s="14" t="inlineStr">
+      <c r="L5" s="13" t="inlineStr">
         <is>
           <t>乐惠国际5</t>
         </is>
@@ -6197,7 +6483,7 @@
           <t>联化科技5</t>
         </is>
       </c>
-      <c r="N5" s="14" t="inlineStr">
+      <c r="N5" s="13" t="inlineStr">
         <is>
           <t>共创草坪5</t>
         </is>
@@ -6205,16 +6491,21 @@
       <c r="O5" s="17" t="inlineStr">
         <is>
           <t>百利电气9</t>
+        </is>
+      </c>
+      <c r="P5" s="19" t="inlineStr">
+        <is>
+          <t>易明医药5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>新能源(104)</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
+          <t>跨境贸易(111)</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>综艺股份4</t>
         </is>
@@ -6224,7 +6515,7 @@
           <t>丽人丽妆5</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>棕榈股份4</t>
         </is>
@@ -6234,12 +6525,12 @@
           <t>丽人丽妆6</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>宜宾纸业5</t>
         </is>
       </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>尤夫股份6</t>
         </is>
@@ -6269,26 +6560,31 @@
           <t>御银股份5</t>
         </is>
       </c>
-      <c r="M6" s="14" t="inlineStr">
+      <c r="M6" s="13" t="inlineStr">
         <is>
           <t>共创草坪4</t>
         </is>
       </c>
-      <c r="N6" s="14" t="inlineStr">
+      <c r="N6" s="13" t="inlineStr">
         <is>
           <t>金时科技4</t>
         </is>
       </c>
-      <c r="O6" s="14" t="inlineStr">
+      <c r="O6" s="13" t="inlineStr">
         <is>
           <t>共创草坪6</t>
+        </is>
+      </c>
+      <c r="P6" s="21" t="inlineStr">
+        <is>
+          <t>永悦科技5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
         <is>
-          <t>机器人(88)</t>
+          <t>机器人(92)</t>
         </is>
       </c>
       <c r="B7" s="19" t="inlineStr">
@@ -6301,7 +6597,7 @@
           <t>郑中设计5</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t>浪莎股份4</t>
         </is>
@@ -6351,7 +6647,7 @@
           <t>恒宝股份4</t>
         </is>
       </c>
-      <c r="N7" s="14" t="inlineStr">
+      <c r="N7" s="13" t="inlineStr">
         <is>
           <t>菲林格尔4</t>
         </is>
@@ -6359,13 +6655,18 @@
       <c r="O7" s="19" t="inlineStr">
         <is>
           <t>联化科技6</t>
+        </is>
+      </c>
+      <c r="P7" s="15" t="inlineStr">
+        <is>
+          <t>中电鑫龙4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="inlineStr">
         <is>
-          <t>核聚变(79)</t>
+          <t>核聚变(82)</t>
         </is>
       </c>
       <c r="B8" s="24" t="inlineStr">
@@ -6383,12 +6684,12 @@
           <t>王子新材4</t>
         </is>
       </c>
-      <c r="E8" s="14" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>尤夫股份5</t>
         </is>
       </c>
-      <c r="F8" s="14" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>棕榈股份5</t>
         </is>
@@ -6436,13 +6737,18 @@
       <c r="O8" s="22" t="inlineStr">
         <is>
           <t>均瑶健康6</t>
+        </is>
+      </c>
+      <c r="P8" s="19" t="inlineStr">
+        <is>
+          <t>昂利康3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="inlineStr">
         <is>
-          <t>无人经济(76)</t>
+          <t>无人经济(78)</t>
         </is>
       </c>
       <c r="B9" s="24" t="inlineStr">
@@ -6475,12 +6781,12 @@
           <t>莱绅通灵5</t>
         </is>
       </c>
-      <c r="H9" s="13" t="inlineStr">
+      <c r="H9" s="14" t="inlineStr">
         <is>
           <t>云内动力3</t>
         </is>
       </c>
-      <c r="I9" s="13" t="inlineStr">
+      <c r="I9" s="14" t="inlineStr">
         <is>
           <t>云内动力4</t>
         </is>
@@ -6495,12 +6801,12 @@
           <t>御银股份4</t>
         </is>
       </c>
-      <c r="L9" s="14" t="inlineStr">
+      <c r="L9" s="13" t="inlineStr">
         <is>
           <t>共创草坪3</t>
         </is>
       </c>
-      <c r="M9" s="14" t="inlineStr">
+      <c r="M9" s="13" t="inlineStr">
         <is>
           <t>南华期货3</t>
         </is>
@@ -6510,16 +6816,21 @@
           <t>永悦科技4</t>
         </is>
       </c>
-      <c r="O9" s="14" t="inlineStr">
+      <c r="O9" s="13" t="inlineStr">
         <is>
           <t>金时科技5</t>
+        </is>
+      </c>
+      <c r="P9" s="15" t="inlineStr">
+        <is>
+          <t>金鹰股份3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>AI大模型(68)</t>
+          <t>AI大模型(72)</t>
         </is>
       </c>
       <c r="B10" s="15" t="inlineStr">
@@ -6532,7 +6843,7 @@
           <t>滨海能源3</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="13" t="inlineStr">
         <is>
           <t>宜宾纸业4</t>
         </is>
@@ -6577,12 +6888,12 @@
           <t>万邦德3</t>
         </is>
       </c>
-      <c r="M10" s="14" t="inlineStr">
+      <c r="M10" s="13" t="inlineStr">
         <is>
           <t>金时科技3</t>
         </is>
       </c>
-      <c r="N10" s="14" t="inlineStr">
+      <c r="N10" s="13" t="inlineStr">
         <is>
           <t>中嘉博创3</t>
         </is>
@@ -6590,13 +6901,18 @@
       <c r="O10" s="22" t="inlineStr">
         <is>
           <t>恒宝股份5</t>
+        </is>
+      </c>
+      <c r="P10" s="15" t="inlineStr">
+        <is>
+          <t>德新科技3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>新消费(62)</t>
+          <t>新消费(65)</t>
         </is>
       </c>
       <c r="B11" s="12" t="inlineStr">
@@ -6609,7 +6925,7 @@
           <t>湖南天雁3</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
+      <c r="D11" s="13" t="inlineStr">
         <is>
           <t>慧博云通3</t>
         </is>
@@ -6644,7 +6960,7 @@
           <t>海联金汇2</t>
         </is>
       </c>
-      <c r="K11" s="14" t="inlineStr">
+      <c r="K11" s="13" t="inlineStr">
         <is>
           <t>乐惠国际4</t>
         </is>
@@ -6654,7 +6970,7 @@
           <t>中衡设计3</t>
         </is>
       </c>
-      <c r="M11" s="14" t="inlineStr">
+      <c r="M11" s="13" t="inlineStr">
         <is>
           <t>菲林格尔3</t>
         </is>
@@ -6667,6 +6983,11 @@
       <c r="O11" s="19" t="inlineStr">
         <is>
           <t>易明医药4</t>
+        </is>
+      </c>
+      <c r="P11" s="19" t="inlineStr">
+        <is>
+          <t>澳洋健康2</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6997,12 @@
           <t>汽车(57)</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>万安科技3</t>
         </is>
       </c>
-      <c r="C12" s="14" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>浪莎股份3</t>
         </is>
@@ -6726,12 +7047,12 @@
           <t>锦泓集团4</t>
         </is>
       </c>
-      <c r="L12" s="13" t="inlineStr">
+      <c r="L12" s="14" t="inlineStr">
         <is>
           <t>侨银股份3</t>
         </is>
       </c>
-      <c r="M12" s="14" t="inlineStr">
+      <c r="M12" s="13" t="inlineStr">
         <is>
           <t>金陵体育3</t>
         </is>
@@ -6744,6 +7065,11 @@
       <c r="O12" s="16" t="inlineStr">
         <is>
           <t>元隆雅图4</t>
+        </is>
+      </c>
+      <c r="P12" s="14" t="inlineStr">
+        <is>
+          <t>北矿科技2</t>
         </is>
       </c>
     </row>
@@ -6783,7 +7109,7 @@
           <t>金龙羽4</t>
         </is>
       </c>
-      <c r="H13" s="14" t="inlineStr">
+      <c r="H13" s="13" t="inlineStr">
         <is>
           <t>会稽山3</t>
         </is>
@@ -6813,21 +7139,26 @@
           <t>元隆雅图3</t>
         </is>
       </c>
-      <c r="N13" s="14" t="inlineStr">
+      <c r="N13" s="13" t="inlineStr">
         <is>
           <t>华脉科技3</t>
         </is>
       </c>
-      <c r="O13" s="14" t="inlineStr">
+      <c r="O13" s="13" t="inlineStr">
         <is>
           <t>中嘉博创4</t>
+        </is>
+      </c>
+      <c r="P13" s="13" t="inlineStr">
+        <is>
+          <t>甬金股份2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>重组(51)</t>
+          <t>重组(54)</t>
         </is>
       </c>
       <c r="B14" s="17" t="inlineStr">
@@ -6835,12 +7166,12 @@
           <t>百利电气3</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>空港股份3</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
+      <c r="D14" s="13" t="inlineStr">
         <is>
           <t>宝光股份2</t>
         </is>
@@ -6870,7 +7201,7 @@
           <t>德邦股份3</t>
         </is>
       </c>
-      <c r="J14" s="14" t="inlineStr">
+      <c r="J14" s="13" t="inlineStr">
         <is>
           <t>时代出版2</t>
         </is>
@@ -6885,39 +7216,44 @@
           <t>国芳集团3</t>
         </is>
       </c>
-      <c r="M14" s="14" t="inlineStr">
+      <c r="M14" s="13" t="inlineStr">
         <is>
           <t>时代出版3</t>
         </is>
       </c>
-      <c r="N14" s="14" t="inlineStr">
+      <c r="N14" s="13" t="inlineStr">
         <is>
           <t>厦门信达2</t>
         </is>
       </c>
-      <c r="O14" s="14" t="inlineStr">
+      <c r="O14" s="13" t="inlineStr">
         <is>
           <t>南华期货4</t>
+        </is>
+      </c>
+      <c r="P14" s="17" t="inlineStr">
+        <is>
+          <t>旭光电子2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>商业航天(45)</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="inlineStr">
+          <t>商业航天(46)</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>信隆健康3</t>
         </is>
       </c>
-      <c r="C15" s="14" t="inlineStr">
+      <c r="C15" s="13" t="inlineStr">
         <is>
           <t>宜宾纸业3</t>
         </is>
       </c>
-      <c r="D15" s="14" t="inlineStr">
+      <c r="D15" s="13" t="inlineStr">
         <is>
           <t>廊坊发展2</t>
         </is>
@@ -6932,7 +7268,7 @@
           <t>融发核电2</t>
         </is>
       </c>
-      <c r="G15" s="14" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
         <is>
           <t>烽火电子3</t>
         </is>
@@ -6957,31 +7293,36 @@
           <t>海联金汇3</t>
         </is>
       </c>
-      <c r="L15" s="14" t="inlineStr">
+      <c r="L15" s="13" t="inlineStr">
         <is>
           <t>金时科技2</t>
         </is>
       </c>
-      <c r="M15" s="13" t="inlineStr">
+      <c r="M15" s="14" t="inlineStr">
         <is>
           <t>路桥信息3</t>
         </is>
       </c>
-      <c r="N15" s="14" t="inlineStr">
+      <c r="N15" s="13" t="inlineStr">
         <is>
           <t>华体科技2</t>
         </is>
       </c>
-      <c r="O15" s="13" t="inlineStr">
+      <c r="O15" s="14" t="inlineStr">
         <is>
           <t>路桥信息4</t>
+        </is>
+      </c>
+      <c r="P15" s="13" t="inlineStr">
+        <is>
+          <t>吉华集团2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AI算力(40)</t>
+          <t>半导体(40)</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -7019,7 +7360,7 @@
           <t>劲旅环境2</t>
         </is>
       </c>
-      <c r="I16" s="13" t="inlineStr">
+      <c r="I16" s="14" t="inlineStr">
         <is>
           <t>合锻智能3</t>
         </is>
@@ -7034,17 +7375,17 @@
           <t>合兴股份3</t>
         </is>
       </c>
-      <c r="L16" s="14" t="inlineStr">
+      <c r="L16" s="13" t="inlineStr">
         <is>
           <t>菲林格尔2</t>
         </is>
       </c>
-      <c r="M16" s="14" t="inlineStr">
+      <c r="M16" s="13" t="inlineStr">
         <is>
           <t>中嘉博创2</t>
         </is>
       </c>
-      <c r="N16" s="14" t="inlineStr">
+      <c r="N16" s="13" t="inlineStr">
         <is>
           <t>新联电子2</t>
         </is>
@@ -7052,21 +7393,26 @@
       <c r="O16" s="15" t="inlineStr">
         <is>
           <t>金鹰股份2</t>
+        </is>
+      </c>
+      <c r="P16" s="13" t="inlineStr">
+        <is>
+          <t>苏州龙杰2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>半导体(38)</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="inlineStr">
+          <t>AI算力(40)</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
         <is>
           <t>棕榈股份2</t>
         </is>
       </c>
-      <c r="C17" s="14" t="inlineStr">
+      <c r="C17" s="13" t="inlineStr">
         <is>
           <t>棕榈股份3</t>
         </is>
@@ -7076,7 +7422,7 @@
           <t>京华激光2</t>
         </is>
       </c>
-      <c r="E17" s="14" t="inlineStr">
+      <c r="E17" s="13" t="inlineStr">
         <is>
           <t>海翔药业2</t>
         </is>
@@ -7091,12 +7437,12 @@
           <t>永冠新材3</t>
         </is>
       </c>
-      <c r="H17" s="14" t="inlineStr">
+      <c r="H17" s="13" t="inlineStr">
         <is>
           <t>海利尔2</t>
         </is>
       </c>
-      <c r="I17" s="14" t="inlineStr">
+      <c r="I17" s="13" t="inlineStr">
         <is>
           <t>乐惠国际3</t>
         </is>
@@ -7121,7 +7467,7 @@
           <t>中电鑫龙2</t>
         </is>
       </c>
-      <c r="N17" s="14" t="inlineStr">
+      <c r="N17" s="13" t="inlineStr">
         <is>
           <t>重庆建工2</t>
         </is>
@@ -7129,16 +7475,21 @@
       <c r="O17" s="22" t="inlineStr">
         <is>
           <t>楚天龙2</t>
+        </is>
+      </c>
+      <c r="P17" s="24" t="inlineStr">
+        <is>
+          <t>粤传媒2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>军工(38)</t>
-        </is>
-      </c>
-      <c r="B18" s="14" t="inlineStr">
+          <t>军工(39)</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="inlineStr">
         <is>
           <t>浪莎股份2</t>
         </is>
@@ -7148,12 +7499,12 @@
           <t>哈三联3</t>
         </is>
       </c>
-      <c r="D18" s="14" t="inlineStr">
+      <c r="D18" s="13" t="inlineStr">
         <is>
           <t>重庆港2</t>
         </is>
       </c>
-      <c r="E18" s="14" t="inlineStr">
+      <c r="E18" s="13" t="inlineStr">
         <is>
           <t>烽火电子2</t>
         </is>
@@ -7163,7 +7514,7 @@
           <t>雪人股份2</t>
         </is>
       </c>
-      <c r="G18" s="13" t="inlineStr">
+      <c r="G18" s="14" t="inlineStr">
         <is>
           <t>云内动力2</t>
         </is>
@@ -7183,12 +7534,12 @@
           <t>睿智医药2</t>
         </is>
       </c>
-      <c r="K18" s="14" t="inlineStr">
+      <c r="K18" s="13" t="inlineStr">
         <is>
           <t>共创草坪2</t>
         </is>
       </c>
-      <c r="L18" s="14" t="inlineStr">
+      <c r="L18" s="13" t="inlineStr">
         <is>
           <t>山东玻纤2</t>
         </is>
@@ -7198,7 +7549,7 @@
           <t>易明医药2</t>
         </is>
       </c>
-      <c r="N18" s="14" t="inlineStr">
+      <c r="N18" s="13" t="inlineStr">
         <is>
           <t>苏利股份2</t>
         </is>
@@ -7206,13 +7557,18 @@
       <c r="O18" s="19" t="inlineStr">
         <is>
           <t>昂利康2</t>
+        </is>
+      </c>
+      <c r="P18" s="19" t="inlineStr">
+        <is>
+          <t>交大昂立2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>化工(35)</t>
+          <t>化工(37)</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
@@ -7220,7 +7576,7 @@
           <t>安彩高科2</t>
         </is>
       </c>
-      <c r="C19" s="14" t="inlineStr">
+      <c r="C19" s="13" t="inlineStr">
         <is>
           <t>慧博云通2</t>
         </is>
@@ -7231,7 +7587,7 @@
         </is>
       </c>
       <c r="E19" s="31" t="n"/>
-      <c r="F19" s="14" t="inlineStr">
+      <c r="F19" s="13" t="inlineStr">
         <is>
           <t>新金路2</t>
         </is>
@@ -7251,17 +7607,17 @@
           <t>锦泓集团3</t>
         </is>
       </c>
-      <c r="J19" s="13" t="inlineStr">
+      <c r="J19" s="14" t="inlineStr">
         <is>
           <t>福龙马2</t>
         </is>
       </c>
-      <c r="K19" s="14" t="inlineStr">
+      <c r="K19" s="13" t="inlineStr">
         <is>
           <t>申科股份2</t>
         </is>
       </c>
-      <c r="L19" s="14" t="inlineStr">
+      <c r="L19" s="13" t="inlineStr">
         <is>
           <t>有友食品2</t>
         </is>
@@ -7271,16 +7627,17 @@
           <t>顺钠股份2</t>
         </is>
       </c>
-      <c r="N19" s="14" t="inlineStr">
+      <c r="N19" s="13" t="inlineStr">
         <is>
           <t>中润资源2</t>
         </is>
       </c>
-      <c r="O19" s="14" t="inlineStr">
+      <c r="O19" s="13" t="inlineStr">
         <is>
           <t>洛凯股份2</t>
         </is>
       </c>
+      <c r="P19" s="31" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7293,7 +7650,7 @@
           <t>湖南天雁2</t>
         </is>
       </c>
-      <c r="C20" s="13" t="inlineStr">
+      <c r="C20" s="14" t="inlineStr">
         <is>
           <t>信邦智能2</t>
         </is>
@@ -7310,7 +7667,7 @@
           <t>均瑶健康2</t>
         </is>
       </c>
-      <c r="H20" s="14" t="inlineStr">
+      <c r="H20" s="13" t="inlineStr">
         <is>
           <t>美邦股份2</t>
         </is>
@@ -7330,12 +7687,12 @@
           <t>中天火箭2</t>
         </is>
       </c>
-      <c r="L20" s="14" t="inlineStr">
+      <c r="L20" s="13" t="inlineStr">
         <is>
           <t>萃华珠宝2</t>
         </is>
       </c>
-      <c r="M20" s="14" t="inlineStr">
+      <c r="M20" s="13" t="inlineStr">
         <is>
           <t>嘉美包装2</t>
         </is>
@@ -7346,11 +7703,16 @@
           <t>德新科技2</t>
         </is>
       </c>
+      <c r="P20" s="15" t="inlineStr">
+        <is>
+          <t>新筑股份</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>电力(29)</t>
+          <t>港口航运(31)</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
@@ -7368,7 +7730,7 @@
           <t>中恒电气</t>
         </is>
       </c>
-      <c r="E21" s="13" t="inlineStr">
+      <c r="E21" s="14" t="inlineStr">
         <is>
           <t>德迈仕</t>
         </is>
@@ -7383,7 +7745,7 @@
           <t>汇金通2</t>
         </is>
       </c>
-      <c r="H21" s="14" t="inlineStr">
+      <c r="H21" s="13" t="inlineStr">
         <is>
           <t>乐惠国际2</t>
         </is>
@@ -7403,12 +7765,12 @@
           <t>中衡设计2</t>
         </is>
       </c>
-      <c r="L21" s="14" t="inlineStr">
+      <c r="L21" s="13" t="inlineStr">
         <is>
           <t>金陵体育2</t>
         </is>
       </c>
-      <c r="M21" s="14" t="inlineStr">
+      <c r="M21" s="13" t="inlineStr">
         <is>
           <t>华脉科技2</t>
         </is>
@@ -7421,13 +7783,18 @@
       <c r="O21" s="22" t="inlineStr">
         <is>
           <t>长青股份2</t>
+        </is>
+      </c>
+      <c r="P21" s="24" t="inlineStr">
+        <is>
+          <t>中科曙光</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>农业(28)</t>
+          <t>电力(30)</t>
         </is>
       </c>
       <c r="B22" s="12" t="inlineStr">
@@ -7435,12 +7802,12 @@
           <t>九鼎投资2</t>
         </is>
       </c>
-      <c r="C22" s="14" t="inlineStr">
+      <c r="C22" s="13" t="inlineStr">
         <is>
           <t>乐山电力2</t>
         </is>
       </c>
-      <c r="D22" s="14" t="inlineStr">
+      <c r="D22" s="13" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
@@ -7455,12 +7822,12 @@
           <t>中国科传</t>
         </is>
       </c>
-      <c r="G22" s="14" t="inlineStr">
+      <c r="G22" s="13" t="inlineStr">
         <is>
           <t>会稽山2</t>
         </is>
       </c>
-      <c r="H22" s="13" t="inlineStr">
+      <c r="H22" s="14" t="inlineStr">
         <is>
           <t>合锻智能2</t>
         </is>
@@ -7470,7 +7837,7 @@
           <t>粤电力A2</t>
         </is>
       </c>
-      <c r="J22" s="13" t="inlineStr">
+      <c r="J22" s="14" t="inlineStr">
         <is>
           <t>路桥信息2</t>
         </is>
@@ -7480,7 +7847,7 @@
           <t>万邦德2</t>
         </is>
       </c>
-      <c r="L22" s="14" t="inlineStr">
+      <c r="L22" s="13" t="inlineStr">
         <is>
           <t>南华期货2</t>
         </is>
@@ -7498,13 +7865,18 @@
       <c r="O22" s="19" t="inlineStr">
         <is>
           <t>海辰药业2</t>
+        </is>
+      </c>
+      <c r="P22" s="24" t="inlineStr">
+        <is>
+          <t>塞力医疗</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>精密电子(27)</t>
+          <t>农业(29)</t>
         </is>
       </c>
       <c r="B23" s="17" t="inlineStr">
@@ -7527,7 +7899,7 @@
           <t>英联股份</t>
         </is>
       </c>
-      <c r="F23" s="13" t="inlineStr">
+      <c r="F23" s="14" t="inlineStr">
         <is>
           <t>云内动力</t>
         </is>
@@ -7559,7 +7931,7 @@
         </is>
       </c>
       <c r="M23" s="31" t="n"/>
-      <c r="N23" s="14" t="inlineStr">
+      <c r="N23" s="13" t="inlineStr">
         <is>
           <t>洛凯股份</t>
         </is>
@@ -7567,21 +7939,26 @@
       <c r="O23" s="15" t="inlineStr">
         <is>
           <t>仁智股份2</t>
+        </is>
+      </c>
+      <c r="P23" s="19" t="inlineStr">
+        <is>
+          <t>哈三联</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>港口航运(24)</t>
-        </is>
-      </c>
-      <c r="B24" s="14" t="inlineStr">
+          <t>体育产业(27)</t>
+        </is>
+      </c>
+      <c r="B24" s="13" t="inlineStr">
         <is>
           <t>恒天海龙2</t>
         </is>
       </c>
-      <c r="C24" s="14" t="inlineStr">
+      <c r="C24" s="13" t="inlineStr">
         <is>
           <t>保龄宝2</t>
         </is>
@@ -7601,7 +7978,7 @@
           <t>正和生态</t>
         </is>
       </c>
-      <c r="G24" s="13" t="inlineStr">
+      <c r="G24" s="14" t="inlineStr">
         <is>
           <t>科捷智能2</t>
         </is>
@@ -7611,22 +7988,22 @@
           <t>明牌珠宝2</t>
         </is>
       </c>
-      <c r="I24" s="13" t="inlineStr">
+      <c r="I24" s="14" t="inlineStr">
         <is>
           <t>侨银股份2</t>
         </is>
       </c>
-      <c r="J24" s="14" t="inlineStr">
+      <c r="J24" s="13" t="inlineStr">
         <is>
           <t>申科股份</t>
         </is>
       </c>
-      <c r="K24" s="13" t="inlineStr">
+      <c r="K24" s="14" t="inlineStr">
         <is>
           <t>新大正2</t>
         </is>
       </c>
-      <c r="L24" s="14" t="inlineStr">
+      <c r="L24" s="13" t="inlineStr">
         <is>
           <t>广晟有色2</t>
         </is>
@@ -7642,14 +8019,19 @@
         </is>
       </c>
       <c r="O24" s="31" t="n"/>
+      <c r="P24" s="15" t="inlineStr">
+        <is>
+          <t>同兴科技</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>消费电子(17)</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
+          <t>精密电子(27)</t>
+        </is>
+      </c>
+      <c r="B25" s="13" t="inlineStr">
         <is>
           <t>宜宾纸业2</t>
         </is>
@@ -7659,12 +8041,12 @@
           <t>莱绅通灵2</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr">
+      <c r="D25" s="14" t="inlineStr">
         <is>
           <t>鸿铭股份</t>
         </is>
       </c>
-      <c r="E25" s="13" t="inlineStr">
+      <c r="E25" s="14" t="inlineStr">
         <is>
           <t>沃特股份</t>
         </is>
@@ -7685,7 +8067,7 @@
           <t>国芳集团2</t>
         </is>
       </c>
-      <c r="J25" s="14" t="inlineStr">
+      <c r="J25" s="13" t="inlineStr">
         <is>
           <t>南网能源</t>
         </is>
@@ -7713,22 +8095,27 @@
       <c r="O25" s="22" t="inlineStr">
         <is>
           <t>曲美家居</t>
+        </is>
+      </c>
+      <c r="P25" s="16" t="inlineStr">
+        <is>
+          <t>曲江文旅</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>新型材料(15)</t>
-        </is>
-      </c>
-      <c r="B26" s="14" t="inlineStr">
+          <t>新型材料(18)</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="inlineStr">
         <is>
           <t>空港股份2</t>
         </is>
       </c>
       <c r="C26" s="31" t="n"/>
-      <c r="D26" s="14" t="inlineStr">
+      <c r="D26" s="13" t="inlineStr">
         <is>
           <t>晋西车轴</t>
         </is>
@@ -7764,7 +8151,7 @@
         </is>
       </c>
       <c r="K26" s="31" t="n"/>
-      <c r="L26" s="14" t="inlineStr">
+      <c r="L26" s="13" t="inlineStr">
         <is>
           <t>若羽臣2</t>
         </is>
@@ -7782,13 +8169,18 @@
       <c r="O26" s="12" t="inlineStr">
         <is>
           <t>三佳科技</t>
+        </is>
+      </c>
+      <c r="P26" s="17" t="inlineStr">
+        <is>
+          <t>太阳电缆</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>金融(12)</t>
+          <t>消费电子(17)</t>
         </is>
       </c>
       <c r="B27" s="19" t="inlineStr">
@@ -7806,22 +8198,22 @@
           <t>亚世光电</t>
         </is>
       </c>
-      <c r="E27" s="14" t="inlineStr">
+      <c r="E27" s="13" t="inlineStr">
         <is>
           <t>新金路</t>
         </is>
       </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>会稽山</t>
         </is>
       </c>
-      <c r="G27" s="14" t="inlineStr">
+      <c r="G27" s="13" t="inlineStr">
         <is>
           <t>诺普信2</t>
         </is>
       </c>
-      <c r="H27" s="13" t="inlineStr">
+      <c r="H27" s="14" t="inlineStr">
         <is>
           <t>侨银股份</t>
         </is>
@@ -7859,13 +8251,18 @@
       <c r="O27" s="19" t="inlineStr">
         <is>
           <t>众生药业</t>
+        </is>
+      </c>
+      <c r="P27" s="15" t="inlineStr">
+        <is>
+          <t>百合花</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>华为概念(12)</t>
+          <t>华为概念(14)</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
@@ -7878,7 +8275,7 @@
           <t>粤宏远A</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="14" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
@@ -7924,7 +8321,7 @@
           <t>恒实科技</t>
         </is>
       </c>
-      <c r="N28" s="14" t="inlineStr">
+      <c r="N28" s="13" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
@@ -7932,13 +8329,18 @@
       <c r="O28" s="12" t="inlineStr">
         <is>
           <t>皓宸医疗</t>
+        </is>
+      </c>
+      <c r="P28" s="19" t="inlineStr">
+        <is>
+          <t>赛升药业</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>体育产业(10)</t>
+          <t>金融(12)</t>
         </is>
       </c>
       <c r="B29" s="17" t="inlineStr">
@@ -8007,11 +8409,16 @@
           <t>东信和平</t>
         </is>
       </c>
+      <c r="P29" s="15" t="inlineStr">
+        <is>
+          <t>龙蟠科技</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>旅游(7)</t>
+          <t>旅游(8)</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
@@ -8019,12 +8426,12 @@
           <t>天元宠物2</t>
         </is>
       </c>
-      <c r="C30" s="14" t="inlineStr">
+      <c r="C30" s="13" t="inlineStr">
         <is>
           <t>宝光股份</t>
         </is>
       </c>
-      <c r="D30" s="14" t="inlineStr">
+      <c r="D30" s="13" t="inlineStr">
         <is>
           <t>升达林业</t>
         </is>
@@ -8059,17 +8466,17 @@
           <t>安奈儿</t>
         </is>
       </c>
-      <c r="K30" s="14" t="inlineStr">
+      <c r="K30" s="13" t="inlineStr">
         <is>
           <t>新金路</t>
         </is>
       </c>
-      <c r="L30" s="14" t="inlineStr">
+      <c r="L30" s="13" t="inlineStr">
         <is>
           <t>中嘉博创</t>
         </is>
       </c>
-      <c r="M30" s="14" t="inlineStr">
+      <c r="M30" s="13" t="inlineStr">
         <is>
           <t>新联电子</t>
         </is>
@@ -8082,6 +8489,11 @@
       <c r="O30" s="17" t="inlineStr">
         <is>
           <t>旭光电子</t>
+        </is>
+      </c>
+      <c r="P30" s="12" t="inlineStr">
+        <is>
+          <t>康惠制药</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8508,7 @@
           <t>五新隧装2</t>
         </is>
       </c>
-      <c r="C31" s="14" t="inlineStr">
+      <c r="C31" s="13" t="inlineStr">
         <is>
           <t>廊坊发展</t>
         </is>
@@ -8136,7 +8548,7 @@
           <t>真爱美家</t>
         </is>
       </c>
-      <c r="K31" s="14" t="inlineStr">
+      <c r="K31" s="13" t="inlineStr">
         <is>
           <t>金时科技</t>
         </is>
@@ -8159,6 +8571,11 @@
       <c r="O31" s="15" t="inlineStr">
         <is>
           <t>英联股份</t>
+        </is>
+      </c>
+      <c r="P31" s="15" t="inlineStr">
+        <is>
+          <t>金银河</t>
         </is>
       </c>
     </row>
@@ -8233,25 +8650,30 @@
           <t>大为股份</t>
         </is>
       </c>
-      <c r="O32" s="13" t="inlineStr">
+      <c r="O32" s="14" t="inlineStr">
         <is>
           <t>东贝集团</t>
+        </is>
+      </c>
+      <c r="P32" s="22" t="inlineStr">
+        <is>
+          <t>宿迁联盛</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>业绩增长(91)</t>
+          <t>业绩增长(93)</t>
         </is>
       </c>
       <c r="B33" s="31" t="n"/>
-      <c r="C33" s="14" t="inlineStr">
+      <c r="C33" s="13" t="inlineStr">
         <is>
           <t>重庆港</t>
         </is>
       </c>
-      <c r="D33" s="14" t="inlineStr">
+      <c r="D33" s="13" t="inlineStr">
         <is>
           <t>烽火电子</t>
         </is>
@@ -8307,14 +8729,19 @@
           <t>澳洋健康</t>
         </is>
       </c>
+      <c r="P33" s="13" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>扭亏为盈(42)</t>
-        </is>
-      </c>
-      <c r="B34" s="14" t="inlineStr">
+          <t>扭亏为盈(45)</t>
+        </is>
+      </c>
+      <c r="B34" s="13" t="inlineStr">
         <is>
           <t>慧博云通</t>
         </is>
@@ -8382,21 +8809,26 @@
       <c r="O34" s="12" t="inlineStr">
         <is>
           <t>永安期货</t>
+        </is>
+      </c>
+      <c r="P34" s="16" t="inlineStr">
+        <is>
+          <t>远望谷</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>国企(199)</t>
-        </is>
-      </c>
-      <c r="B35" s="13" t="inlineStr">
+          <t>国企(210)</t>
+        </is>
+      </c>
+      <c r="B35" s="14" t="inlineStr">
         <is>
           <t>信邦智能</t>
         </is>
       </c>
-      <c r="C35" s="14" t="inlineStr">
+      <c r="C35" s="13" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -8411,22 +8843,22 @@
           <t>贝瑞基因</t>
         </is>
       </c>
-      <c r="F35" s="14" t="inlineStr">
+      <c r="F35" s="13" t="inlineStr">
         <is>
           <t>财信发展</t>
         </is>
       </c>
-      <c r="G35" s="14" t="inlineStr">
+      <c r="G35" s="13" t="inlineStr">
         <is>
           <t>升达林业</t>
         </is>
       </c>
-      <c r="H35" s="14" t="inlineStr">
+      <c r="H35" s="13" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="I35" s="13" t="inlineStr">
+      <c r="I35" s="14" t="inlineStr">
         <is>
           <t>音飞储存</t>
         </is>
@@ -8436,17 +8868,17 @@
           <t>华远地产</t>
         </is>
       </c>
-      <c r="K35" s="13" t="inlineStr">
+      <c r="K35" s="14" t="inlineStr">
         <is>
           <t>南都物业</t>
         </is>
       </c>
-      <c r="L35" s="14" t="inlineStr">
+      <c r="L35" s="13" t="inlineStr">
         <is>
           <t>财信发展</t>
         </is>
       </c>
-      <c r="M35" s="14" t="inlineStr">
+      <c r="M35" s="13" t="inlineStr">
         <is>
           <t>苏利股份</t>
         </is>
@@ -8459,6 +8891,11 @@
       <c r="O35" s="22" t="inlineStr">
         <is>
           <t>广康生化</t>
+        </is>
+      </c>
+      <c r="P35" s="14" t="inlineStr">
+        <is>
+          <t>花溪科技</t>
         </is>
       </c>
     </row>
@@ -8473,7 +8910,7 @@
           <t>华海药业</t>
         </is>
       </c>
-      <c r="C36" s="14" t="inlineStr">
+      <c r="C36" s="13" t="inlineStr">
         <is>
           <t>大有能源</t>
         </is>
@@ -8488,7 +8925,7 @@
           <t>先达股份</t>
         </is>
       </c>
-      <c r="F36" s="13" t="inlineStr">
+      <c r="F36" s="14" t="inlineStr">
         <is>
           <t>科捷智能</t>
         </is>
@@ -8513,7 +8950,7 @@
           <t>中天火箭</t>
         </is>
       </c>
-      <c r="K36" s="14" t="inlineStr">
+      <c r="K36" s="13" t="inlineStr">
         <is>
           <t>南华期货</t>
         </is>
@@ -8536,6 +8973,11 @@
       <c r="O36" s="15" t="inlineStr">
         <is>
           <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="P36" s="12" t="inlineStr">
+        <is>
+          <t>新日股份</t>
         </is>
       </c>
     </row>
@@ -8590,7 +9032,7 @@
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="K37" s="14" t="inlineStr">
+      <c r="K37" s="13" t="inlineStr">
         <is>
           <t>金陵体育</t>
         </is>
@@ -8605,7 +9047,7 @@
           <t>东安动力</t>
         </is>
       </c>
-      <c r="N37" s="14" t="inlineStr">
+      <c r="N37" s="13" t="inlineStr">
         <is>
           <t>浙江众成</t>
         </is>
@@ -8613,6 +9055,11 @@
       <c r="O37" s="19" t="inlineStr">
         <is>
           <t>美诺华</t>
+        </is>
+      </c>
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>华业香料</t>
         </is>
       </c>
     </row>
@@ -8628,7 +9075,7 @@
           <t>浙江建投</t>
         </is>
       </c>
-      <c r="D38" s="13" t="inlineStr">
+      <c r="D38" s="14" t="inlineStr">
         <is>
           <t>盛视科技</t>
         </is>
@@ -8638,12 +9085,12 @@
           <t>赛力斯</t>
         </is>
       </c>
-      <c r="F38" s="13" t="inlineStr">
+      <c r="F38" s="14" t="inlineStr">
         <is>
           <t>龙洲股份</t>
         </is>
       </c>
-      <c r="G38" s="14" t="inlineStr">
+      <c r="G38" s="13" t="inlineStr">
         <is>
           <t>誉衡药业</t>
         </is>
@@ -8683,9 +9130,14 @@
           <t>丽岛新材</t>
         </is>
       </c>
-      <c r="O38" s="13" t="inlineStr">
+      <c r="O38" s="14" t="inlineStr">
         <is>
           <t>利君股份</t>
+        </is>
+      </c>
+      <c r="P38" s="13" t="inlineStr">
+        <is>
+          <t>南京港</t>
         </is>
       </c>
     </row>
@@ -8715,7 +9167,7 @@
           <t>金鸿顺</t>
         </is>
       </c>
-      <c r="G39" s="14" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
@@ -8745,7 +9197,7 @@
           <t>奥雅股份</t>
         </is>
       </c>
-      <c r="M39" s="14" t="inlineStr">
+      <c r="M39" s="13" t="inlineStr">
         <is>
           <t>中润资源</t>
         </is>
@@ -8758,6 +9210,11 @@
       <c r="O39" s="19" t="inlineStr">
         <is>
           <t>睿智医药</t>
+        </is>
+      </c>
+      <c r="P39" s="14" t="inlineStr">
+        <is>
+          <t>中科磁业</t>
         </is>
       </c>
     </row>
@@ -8767,7 +9224,7 @@
           <t>博云新材</t>
         </is>
       </c>
-      <c r="C40" s="13" t="inlineStr">
+      <c r="C40" s="14" t="inlineStr">
         <is>
           <t>爱仕达</t>
         </is>
@@ -8817,7 +9274,7 @@
           <t>万里石</t>
         </is>
       </c>
-      <c r="M40" s="13" t="inlineStr">
+      <c r="M40" s="14" t="inlineStr">
         <is>
           <t>建设工业</t>
         </is>
@@ -8830,6 +9287,11 @@
       <c r="O40" s="12" t="inlineStr">
         <is>
           <t>信达证券</t>
+        </is>
+      </c>
+      <c r="P40" s="12" t="inlineStr">
+        <is>
+          <t>连云港</t>
         </is>
       </c>
     </row>
@@ -8844,7 +9306,7 @@
           <t>通达电气</t>
         </is>
       </c>
-      <c r="D41" s="14" t="inlineStr">
+      <c r="D41" s="13" t="inlineStr">
         <is>
           <t>海翔药业</t>
         </is>
@@ -8854,7 +9316,7 @@
           <t>阳谷华泰</t>
         </is>
       </c>
-      <c r="F41" s="14" t="inlineStr">
+      <c r="F41" s="13" t="inlineStr">
         <is>
           <t>乐惠国际</t>
         </is>
@@ -8864,12 +9326,12 @@
           <t>科拓生物</t>
         </is>
       </c>
-      <c r="H41" s="14" t="inlineStr">
+      <c r="H41" s="13" t="inlineStr">
         <is>
           <t>晋西车轴</t>
         </is>
       </c>
-      <c r="I41" s="13" t="inlineStr">
+      <c r="I41" s="14" t="inlineStr">
         <is>
           <t>华菱线缆</t>
         </is>
@@ -8879,17 +9341,17 @@
           <t>万邦德</t>
         </is>
       </c>
-      <c r="K41" s="13" t="inlineStr">
+      <c r="K41" s="14" t="inlineStr">
         <is>
           <t>龙洲股份</t>
         </is>
       </c>
-      <c r="L41" s="14" t="inlineStr">
+      <c r="L41" s="13" t="inlineStr">
         <is>
           <t>华脉科技</t>
         </is>
       </c>
-      <c r="M41" s="13" t="inlineStr">
+      <c r="M41" s="14" t="inlineStr">
         <is>
           <t>三维通信</t>
         </is>
@@ -8902,6 +9364,11 @@
       <c r="O41" s="22" t="inlineStr">
         <is>
           <t>跨境通</t>
+        </is>
+      </c>
+      <c r="P41" s="12" t="inlineStr">
+        <is>
+          <t>宁波海运</t>
         </is>
       </c>
     </row>
@@ -8911,12 +9378,12 @@
           <t>一品红</t>
         </is>
       </c>
-      <c r="C42" s="14" t="inlineStr">
+      <c r="C42" s="13" t="inlineStr">
         <is>
           <t>会稽山</t>
         </is>
       </c>
-      <c r="D42" s="14" t="inlineStr">
+      <c r="D42" s="13" t="inlineStr">
         <is>
           <t>美邦股份</t>
         </is>
@@ -8931,7 +9398,7 @@
           <t>均瑶健康</t>
         </is>
       </c>
-      <c r="G42" s="13" t="inlineStr">
+      <c r="G42" s="14" t="inlineStr">
         <is>
           <t>中马传动</t>
         </is>
@@ -8946,7 +9413,7 @@
           <t>概伦电子</t>
         </is>
       </c>
-      <c r="J42" s="14" t="inlineStr">
+      <c r="J42" s="13" t="inlineStr">
         <is>
           <t>菲林格尔</t>
         </is>
@@ -8974,6 +9441,11 @@
       <c r="O42" s="19" t="inlineStr">
         <is>
           <t>罗欣药业</t>
+        </is>
+      </c>
+      <c r="P42" s="12" t="inlineStr">
+        <is>
+          <t>宁波远洋</t>
         </is>
       </c>
     </row>
@@ -8988,7 +9460,7 @@
           <t>国轩高科</t>
         </is>
       </c>
-      <c r="D43" s="13" t="inlineStr">
+      <c r="D43" s="14" t="inlineStr">
         <is>
           <t>华研精机</t>
         </is>
@@ -9033,7 +9505,7 @@
           <t>科恒股份</t>
         </is>
       </c>
-      <c r="M43" s="14" t="inlineStr">
+      <c r="M43" s="13" t="inlineStr">
         <is>
           <t>华体科技</t>
         </is>
@@ -9046,6 +9518,11 @@
       <c r="O43" s="15" t="inlineStr">
         <is>
           <t>奇德新材</t>
+        </is>
+      </c>
+      <c r="P43" s="24" t="inlineStr">
+        <is>
+          <t>富春股份</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9542,7 @@
           <t>中洲特材</t>
         </is>
       </c>
-      <c r="F44" s="13" t="inlineStr">
+      <c r="F44" s="14" t="inlineStr">
         <is>
           <t>中科信息</t>
         </is>
@@ -9085,17 +9562,17 @@
           <t>兴民智通</t>
         </is>
       </c>
-      <c r="J44" s="14" t="inlineStr">
+      <c r="J44" s="13" t="inlineStr">
         <is>
           <t>共创草坪</t>
         </is>
       </c>
-      <c r="K44" s="14" t="inlineStr">
+      <c r="K44" s="13" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
       </c>
-      <c r="L44" s="14" t="inlineStr">
+      <c r="L44" s="13" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
@@ -9113,6 +9590,11 @@
       <c r="O44" s="12" t="inlineStr">
         <is>
           <t>文科股份</t>
+        </is>
+      </c>
+      <c r="P44" s="12" t="inlineStr">
+        <is>
+          <t>浩欧博</t>
         </is>
       </c>
     </row>
@@ -9142,7 +9624,7 @@
           <t>御银股份</t>
         </is>
       </c>
-      <c r="I45" s="13" t="inlineStr">
+      <c r="I45" s="14" t="inlineStr">
         <is>
           <t>远东股份</t>
         </is>
@@ -9157,12 +9639,12 @@
           <t>沪农商行</t>
         </is>
       </c>
-      <c r="L45" s="14" t="inlineStr">
+      <c r="L45" s="13" t="inlineStr">
         <is>
           <t>宏和科技</t>
         </is>
       </c>
-      <c r="M45" s="14" t="inlineStr">
+      <c r="M45" s="13" t="inlineStr">
         <is>
           <t>南网能源</t>
         </is>
@@ -9175,6 +9657,11 @@
       <c r="O45" s="19" t="inlineStr">
         <is>
           <t>交大昂立</t>
+        </is>
+      </c>
+      <c r="P45" s="12" t="inlineStr">
+        <is>
+          <t>海航科技</t>
         </is>
       </c>
     </row>
@@ -9194,7 +9681,7 @@
           <t>游族网络</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="13" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
@@ -9234,9 +9721,14 @@
           <t>宁波建工</t>
         </is>
       </c>
-      <c r="O46" s="12" t="inlineStr">
+      <c r="O46" s="13" t="inlineStr">
         <is>
           <t>甬金股份</t>
+        </is>
+      </c>
+      <c r="P46" s="16" t="inlineStr">
+        <is>
+          <t>慈文传媒</t>
         </is>
       </c>
     </row>
@@ -9266,7 +9758,7 @@
           <t>神开股份</t>
         </is>
       </c>
-      <c r="I47" s="13" t="inlineStr">
+      <c r="I47" s="14" t="inlineStr">
         <is>
           <t>新大正</t>
         </is>
@@ -9286,14 +9778,19 @@
           <t>必得科技</t>
         </is>
       </c>
-      <c r="N47" s="22" t="inlineStr">
+      <c r="N47" s="19" t="inlineStr">
         <is>
           <t>新华锦</t>
         </is>
       </c>
-      <c r="O47" s="13" t="inlineStr">
+      <c r="O47" s="14" t="inlineStr">
         <is>
           <t>英洛华</t>
+        </is>
+      </c>
+      <c r="P47" s="12" t="inlineStr">
+        <is>
+          <t>国航远洋</t>
         </is>
       </c>
     </row>
@@ -9308,12 +9805,12 @@
           <t>海辰药业</t>
         </is>
       </c>
-      <c r="F48" s="14" t="inlineStr">
+      <c r="F48" s="13" t="inlineStr">
         <is>
           <t>锦江在线</t>
         </is>
       </c>
-      <c r="G48" s="22" t="inlineStr">
+      <c r="G48" s="15" t="inlineStr">
         <is>
           <t>格力博</t>
         </is>
@@ -9338,7 +9835,7 @@
           <t>亚世光电</t>
         </is>
       </c>
-      <c r="M48" s="13" t="inlineStr">
+      <c r="M48" s="14" t="inlineStr">
         <is>
           <t>长华集团</t>
         </is>
@@ -9351,6 +9848,11 @@
       <c r="O48" s="12" t="inlineStr">
         <is>
           <t>古越龙山</t>
+        </is>
+      </c>
+      <c r="P48" s="15" t="inlineStr">
+        <is>
+          <t>科恒股份</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9887,7 @@
           <t>睿智医药</t>
         </is>
       </c>
-      <c r="K49" s="14" t="inlineStr">
+      <c r="K49" s="13" t="inlineStr">
         <is>
           <t>西部黄金</t>
         </is>
@@ -9427,7 +9929,7 @@
           <t>凯美特气</t>
         </is>
       </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="G50" s="13" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -9437,7 +9939,7 @@
           <t>粤电力A</t>
         </is>
       </c>
-      <c r="I50" s="13" t="inlineStr">
+      <c r="I50" s="14" t="inlineStr">
         <is>
           <t>山子高科</t>
         </is>
@@ -9452,29 +9954,29 @@
           <t>巨力索具</t>
         </is>
       </c>
-      <c r="M50" s="13" t="inlineStr">
+      <c r="M50" s="14" t="inlineStr">
         <is>
           <t>天正电气</t>
         </is>
       </c>
-      <c r="N50" s="14" t="inlineStr">
+      <c r="N50" s="13" t="inlineStr">
         <is>
           <t>青岛双星</t>
         </is>
       </c>
-      <c r="O50" s="13" t="inlineStr">
+      <c r="O50" s="14" t="inlineStr">
         <is>
           <t>北矿科技</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="14" t="inlineStr">
+      <c r="B51" s="13" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="C51" s="13" t="inlineStr">
+      <c r="C51" s="14" t="inlineStr">
         <is>
           <t>云内动力</t>
         </is>
@@ -9499,7 +10001,7 @@
           <t>三友科技</t>
         </is>
       </c>
-      <c r="K51" s="14" t="inlineStr">
+      <c r="K51" s="13" t="inlineStr">
         <is>
           <t>若羽臣</t>
         </is>
@@ -9536,7 +10038,7 @@
           <t>西陇科学</t>
         </is>
       </c>
-      <c r="F52" s="14" t="inlineStr">
+      <c r="F52" s="13" t="inlineStr">
         <is>
           <t>诺普信</t>
         </is>
@@ -9556,7 +10058,7 @@
           <t>万马科技</t>
         </is>
       </c>
-      <c r="K52" s="14" t="inlineStr">
+      <c r="K52" s="13" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
@@ -9566,7 +10068,7 @@
           <t>传艺科技</t>
         </is>
       </c>
-      <c r="M52" s="13" t="inlineStr">
+      <c r="M52" s="14" t="inlineStr">
         <is>
           <t>海得控制</t>
         </is>
@@ -9576,7 +10078,7 @@
           <t>宝明科技</t>
         </is>
       </c>
-      <c r="O52" s="14" t="inlineStr">
+      <c r="O52" s="13" t="inlineStr">
         <is>
           <t>誉衡药业</t>
         </is>
@@ -9598,7 +10100,7 @@
           <t>会畅通讯</t>
         </is>
       </c>
-      <c r="G53" s="14" t="inlineStr">
+      <c r="G53" s="13" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
@@ -9623,7 +10125,7 @@
           <t>乐普医疗</t>
         </is>
       </c>
-      <c r="M53" s="13" t="inlineStr">
+      <c r="M53" s="14" t="inlineStr">
         <is>
           <t>永创智能</t>
         </is>
@@ -9655,22 +10157,22 @@
           <t>宿迁联盛</t>
         </is>
       </c>
-      <c r="G54" s="14" t="inlineStr">
+      <c r="G54" s="13" t="inlineStr">
         <is>
           <t>海利尔</t>
         </is>
       </c>
-      <c r="H54" s="13" t="inlineStr">
+      <c r="H54" s="14" t="inlineStr">
         <is>
           <t>南都物业</t>
         </is>
       </c>
-      <c r="I54" s="13" t="inlineStr">
+      <c r="I54" s="14" t="inlineStr">
         <is>
           <t>福龙马</t>
         </is>
       </c>
-      <c r="K54" s="14" t="inlineStr">
+      <c r="K54" s="13" t="inlineStr">
         <is>
           <t>山东玻纤</t>
         </is>
@@ -9685,7 +10187,7 @@
           <t>通鼎互联</t>
         </is>
       </c>
-      <c r="N54" s="14" t="inlineStr">
+      <c r="N54" s="13" t="inlineStr">
         <is>
           <t>美邦股份</t>
         </is>
@@ -9707,7 +10209,7 @@
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="F55" s="13" t="inlineStr">
+      <c r="F55" s="14" t="inlineStr">
         <is>
           <t>合锻智能</t>
         </is>
@@ -9722,22 +10224,22 @@
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="I55" s="13" t="inlineStr">
+      <c r="I55" s="14" t="inlineStr">
         <is>
           <t>超捷股份</t>
         </is>
       </c>
-      <c r="K55" s="14" t="inlineStr">
+      <c r="K55" s="13" t="inlineStr">
         <is>
           <t>广晟有色</t>
         </is>
       </c>
-      <c r="L55" s="14" t="inlineStr">
+      <c r="L55" s="13" t="inlineStr">
         <is>
           <t>嘉美包装</t>
         </is>
       </c>
-      <c r="M55" s="13" t="inlineStr">
+      <c r="M55" s="14" t="inlineStr">
         <is>
           <t>朝阳科技</t>
         </is>
@@ -9759,7 +10261,7 @@
           <t>茂业商业</t>
         </is>
       </c>
-      <c r="F56" s="13" t="inlineStr">
+      <c r="F56" s="14" t="inlineStr">
         <is>
           <t>星宸科技</t>
         </is>
@@ -9794,19 +10296,19 @@
           <t>方正科技</t>
         </is>
       </c>
-      <c r="O56" s="14" t="inlineStr">
+      <c r="O56" s="13" t="inlineStr">
         <is>
           <t>苏州龙杰</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="inlineStr">
+      <c r="B57" s="14" t="inlineStr">
         <is>
           <t>永创智能</t>
         </is>
       </c>
-      <c r="C57" s="14" t="inlineStr">
+      <c r="C57" s="13" t="inlineStr">
         <is>
           <t>西部黄金</t>
         </is>
@@ -9826,7 +10328,7 @@
           <t>老凤祥</t>
         </is>
       </c>
-      <c r="I57" s="13" t="inlineStr">
+      <c r="I57" s="14" t="inlineStr">
         <is>
           <t>通达动力</t>
         </is>
@@ -9863,7 +10365,7 @@
           <t>金利华电</t>
         </is>
       </c>
-      <c r="G58" s="13" t="inlineStr">
+      <c r="G58" s="14" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
@@ -9873,7 +10375,7 @@
           <t>日出东方</t>
         </is>
       </c>
-      <c r="I58" s="14" t="inlineStr">
+      <c r="I58" s="13" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
@@ -9883,7 +10385,7 @@
           <t>菜百股份</t>
         </is>
       </c>
-      <c r="L58" s="14" t="inlineStr">
+      <c r="L58" s="13" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
@@ -9952,7 +10454,7 @@
           <t>祖名股份</t>
         </is>
       </c>
-      <c r="F60" s="13" t="inlineStr">
+      <c r="F60" s="14" t="inlineStr">
         <is>
           <t>实丰文化</t>
         </is>
@@ -9967,7 +10469,7 @@
           <t>久盛电气</t>
         </is>
       </c>
-      <c r="K60" s="14" t="inlineStr">
+      <c r="K60" s="13" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
@@ -9982,7 +10484,7 @@
           <t>青云科技</t>
         </is>
       </c>
-      <c r="O60" s="13" t="inlineStr">
+      <c r="O60" s="14" t="inlineStr">
         <is>
           <t>信隆健康</t>
         </is>
@@ -10024,14 +10526,14 @@
           <t>至正股份</t>
         </is>
       </c>
-      <c r="O61" s="12" t="inlineStr">
+      <c r="O61" s="13" t="inlineStr">
         <is>
           <t>吉华集团</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="14" t="inlineStr">
+      <c r="B62" s="13" t="inlineStr">
         <is>
           <t>浙江众成</t>
         </is>
@@ -10066,7 +10568,7 @@
           <t>生益电子</t>
         </is>
       </c>
-      <c r="O62" s="13" t="inlineStr">
+      <c r="O62" s="14" t="inlineStr">
         <is>
           <t>合锻智能</t>
         </is>
@@ -10083,12 +10585,12 @@
           <t>中核科技</t>
         </is>
       </c>
-      <c r="G63" s="14" t="inlineStr">
+      <c r="G63" s="13" t="inlineStr">
         <is>
           <t>美邦股份</t>
         </is>
       </c>
-      <c r="I63" s="14" t="inlineStr">
+      <c r="I63" s="13" t="inlineStr">
         <is>
           <t>锦江在线</t>
         </is>
@@ -10120,7 +10622,7 @@
           <t>一心堂</t>
         </is>
       </c>
-      <c r="F64" s="13" t="inlineStr">
+      <c r="F64" s="14" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
@@ -10167,17 +10669,17 @@
           <t>中广核技</t>
         </is>
       </c>
-      <c r="G65" s="14" t="inlineStr">
+      <c r="G65" s="13" t="inlineStr">
         <is>
           <t>恒天海龙</t>
         </is>
       </c>
-      <c r="I65" s="13" t="inlineStr">
+      <c r="I65" s="14" t="inlineStr">
         <is>
           <t>三力士</t>
         </is>
       </c>
-      <c r="K65" s="13" t="inlineStr">
+      <c r="K65" s="14" t="inlineStr">
         <is>
           <t>威派格</t>
         </is>
@@ -10199,7 +10701,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="13" t="inlineStr">
+      <c r="B66" s="14" t="inlineStr">
         <is>
           <t>实丰文化</t>
         </is>
@@ -10219,7 +10721,7 @@
           <t>中力股份</t>
         </is>
       </c>
-      <c r="K66" s="14" t="inlineStr">
+      <c r="K66" s="13" t="inlineStr">
         <is>
           <t>青岛双星</t>
         </is>
@@ -10251,7 +10753,7 @@
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="K67" s="14" t="inlineStr">
+      <c r="K67" s="13" t="inlineStr">
         <is>
           <t>萃华珠宝</t>
         </is>
@@ -10325,7 +10827,7 @@
           <t>豪悦护理</t>
         </is>
       </c>
-      <c r="M69" s="14" t="inlineStr">
+      <c r="M69" s="13" t="inlineStr">
         <is>
           <t>厦门信达</t>
         </is>
@@ -10352,12 +10854,12 @@
           <t>华纳药厂</t>
         </is>
       </c>
-      <c r="L70" s="14" t="inlineStr">
+      <c r="L70" s="13" t="inlineStr">
         <is>
           <t>重庆建工</t>
         </is>
       </c>
-      <c r="M70" s="13" t="inlineStr">
+      <c r="M70" s="14" t="inlineStr">
         <is>
           <t>春光科技</t>
         </is>
@@ -10391,7 +10893,7 @@
           <t>欧菲光</t>
         </is>
       </c>
-      <c r="I72" s="14" t="inlineStr">
+      <c r="I72" s="13" t="inlineStr">
         <is>
           <t>宏和科技</t>
         </is>
@@ -10408,12 +10910,12 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="14" t="inlineStr">
+      <c r="B73" s="13" t="inlineStr">
         <is>
           <t>广晟有色</t>
         </is>
       </c>
-      <c r="I73" s="13" t="inlineStr">
+      <c r="I73" s="14" t="inlineStr">
         <is>
           <t>全筑股份</t>
         </is>
@@ -10568,7 +11070,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="I88" s="13" t="inlineStr">
+      <c r="I88" s="14" t="inlineStr">
         <is>
           <t>路桥信息</t>
         </is>
@@ -10589,7 +11091,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="I91" s="14" t="inlineStr">
+      <c r="I91" s="13" t="inlineStr">
         <is>
           <t>时代出版</t>
         </is>
@@ -10754,7 +11256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10793,11 +11295,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>宠物经济</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -10809,7 +11311,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>房屋检测</t>
+          <t>数智科技业务</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -10817,7 +11319,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -10825,7 +11327,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>医疗</t>
+          <t>假发</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -10833,7 +11335,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -10841,7 +11343,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>微盘股</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -10851,7 +11353,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -10867,7 +11369,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>人造草坪</t>
+          <t>拟收购国贸数科100%股权</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -10875,7 +11377,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>受让控股子公司少数股东部分股权</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -10883,7 +11385,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>智能车载</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -10891,7 +11393,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>功能性硅烷</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -10899,7 +11401,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -10909,11 +11411,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>宠物经济</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -10925,7 +11427,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>阻燃剂</t>
+          <t>配电设备</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10933,7 +11435,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>儿童药</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -10941,7 +11443,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>安防</t>
+          <t>客户优势</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -10949,7 +11451,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>数字营销</t>
+          <t>橡胶制品</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -10957,7 +11459,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>高分红</t>
+          <t>军用检测</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -10967,7 +11469,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>益生菌</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10983,7 +11485,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>数智科技业务</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10991,7 +11493,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>食用菌</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -10999,7 +11501,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -11007,7 +11509,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>智慧停车</t>
+          <t>长三角布局</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -11015,7 +11517,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>制冷技术</t>
+          <t>季报亏损收窄</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -11025,11 +11527,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -11041,7 +11543,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>拟收购国贸数科100%股权</t>
+          <t>钛合金材料</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11049,7 +11551,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>儿童药</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -11057,7 +11559,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>数字政府</t>
+          <t>质子治疗系统</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -11065,7 +11567,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>蚂蚁金服概念</t>
+          <t>童装</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -11073,7 +11575,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>智能物联</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -11083,11 +11585,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>中药</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -11099,7 +11601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>注塑机</t>
+          <t>柱状电池外壳</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11107,7 +11609,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>食用菌</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -11115,7 +11617,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>云视频</t>
+          <t>工业空调</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -11123,7 +11625,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>EDA</t>
+          <t>毛毯龙头</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -11131,7 +11633,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>玻璃基板</t>
+          <t>模型服务</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -11141,11 +11643,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>涤纶</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -11157,7 +11659,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>越南投资</t>
+          <t>民营医院</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11165,7 +11667,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -11173,7 +11675,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sora概念</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -11181,7 +11683,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>晶圆级测试设备</t>
+          <t>一季度增长</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -11189,7 +11691,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>有线电视</t>
+          <t>与海光信息达成战略合作</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -11199,11 +11701,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>涤纶</t>
+          <t>益生菌</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -11215,7 +11717,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>配电设备</t>
+          <t>高压氧仓</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11223,7 +11725,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -11231,7 +11733,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>假发</t>
+          <t>超硬材料</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -11239,7 +11741,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>国家大基金持股</t>
+          <t>环境治理</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -11247,7 +11749,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>紧固件龙头</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -11273,7 +11775,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>出售部分资产</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11281,7 +11783,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -11289,7 +11791,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>智能车载</t>
+          <t>培育钻石</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -11297,7 +11799,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>参股券商（拟转让）</t>
+          <t>葡萄酒</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -11305,7 +11807,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>聚乙二醇</t>
+          <t>印制电路板</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -11331,7 +11833,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11339,7 +11841,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -11347,7 +11849,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>天然矿泉水</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -11355,7 +11857,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>高分子发泡材料</t>
+          <t>药品</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -11363,7 +11865,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>智慧供热</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -11389,7 +11891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>控股权变更</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11397,7 +11899,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -11405,7 +11907,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>客户优势</t>
+          <t>母婴产品</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -11413,7 +11915,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>橡胶V带</t>
+          <t>物管</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -11421,7 +11923,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>门店扩张</t>
+          <t>碳中和概念</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -11431,7 +11933,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>物流</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -11447,7 +11949,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11455,7 +11957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>供货蜜雪冰城</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -11463,7 +11965,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>乳业、养殖业客户</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -11471,7 +11973,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>轻资产转型</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -11479,7 +11981,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>高铁</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -11505,7 +12007,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11513,7 +12015,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -11521,7 +12023,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>质子治疗系统</t>
+          <t>SPD服务</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -11529,7 +12031,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>生态环保</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -11537,7 +12039,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>价格回暖</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -11555,7 +12057,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>足球器材</t>
+          <t>大健康</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -11563,7 +12065,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11571,7 +12073,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>拟合资设立境外子公司</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -11579,7 +12081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>工业空调</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -11587,7 +12089,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>功能性硅烷</t>
+          <t>生猪养殖</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -11595,7 +12097,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广电网络服务</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -11621,7 +12123,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>消费行业</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11629,7 +12131,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>EPS产品</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -11637,7 +12139,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -11645,7 +12147,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>禽肉加工</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -11653,7 +12155,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -11663,7 +12165,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>物流</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -11671,7 +12173,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>重大合同</t>
+          <t>啤酒概念</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -11679,7 +12181,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>文创消费品</t>
+          <t>消费行业</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11687,7 +12189,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>光学镜头</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -11695,7 +12197,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>超硬材料</t>
+          <t>NMN</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -11703,7 +12205,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>长三角布局</t>
+          <t>预制菜概念</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -11711,7 +12213,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>雄安新区</t>
+          <t>万豪合作（云服务）</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -11721,7 +12223,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -11729,7 +12231,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>磷酸铁锂</t>
+          <t>人造草坪</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -11737,7 +12239,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>文创消费品</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -11745,7 +12247,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -11753,7 +12255,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>培育钻石</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -11761,7 +12263,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>童装</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -11769,7 +12271,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>新设矿业公司</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -11779,7 +12281,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11787,7 +12289,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>存储</t>
+          <t>蚂蚁数科合作</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -11795,7 +12297,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -11803,7 +12305,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>废气处理</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -11811,7 +12313,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>天然矿泉水</t>
+          <t>控股股东重整</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -11819,7 +12321,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>毛毯龙头</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -11827,7 +12329,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>碳酸锂项目</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -11845,7 +12347,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>啤酒概念</t>
+          <t>越南投资</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -11853,7 +12355,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -11861,7 +12363,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -11869,7 +12371,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>母婴产品</t>
+          <t>储能项目</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -11877,7 +12379,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>一季度增长</t>
+          <t>医疗服务</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -11885,7 +12387,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -11903,7 +12405,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蚂蚁数科合作</t>
+          <t>中标项目</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -11911,7 +12413,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -11919,7 +12421,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>近期签大单</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -11927,7 +12429,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>乳业、养殖业客户</t>
+          <t>薄荷醇</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -11935,7 +12437,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>硝化棉</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -11943,7 +12445,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -11961,7 +12463,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中标项目</t>
+          <t>海外业务</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -11969,7 +12471,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>虚拟现实</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -11977,7 +12479,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -11985,7 +12487,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>SPD服务</t>
+          <t>草甘膦</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -11993,7 +12495,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>葡萄酒</t>
+          <t>现金分红</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -12001,7 +12503,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>军用检测</t>
+          <t>铝加工</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -12011,7 +12513,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>焊接材料</t>
+          <t>部分产品涨价</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12019,7 +12521,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>仿制药</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -12027,7 +12529,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12035,7 +12537,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -12043,7 +12545,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>光气资源</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -12051,7 +12553,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>药品</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -12059,7 +12561,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>季报亏损收窄</t>
+          <t>一季报营收增长</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -12069,7 +12571,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>胶粘解决方案</t>
+          <t>焊接材料</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -12077,7 +12579,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -12085,7 +12587,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12093,7 +12595,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -12101,7 +12603,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>新材料蜡烛</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -12109,7 +12611,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>物管</t>
+          <t>道路运输</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -12117,7 +12619,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -12127,7 +12629,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>胶粘解决方案</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -12135,7 +12637,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -12143,7 +12645,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12151,7 +12653,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -12159,7 +12661,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NMN</t>
+          <t>募投项目投产</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -12167,7 +12669,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>轻资产转型</t>
+          <t>客运资源整合</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -12175,7 +12677,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>模型服务</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -12185,7 +12687,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>输配电设备</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -12193,7 +12695,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -12201,7 +12703,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12209,7 +12711,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -12217,7 +12719,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>草铵膦</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -12225,7 +12727,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>生态环保</t>
+          <t>股东权益变动</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -12233,7 +12735,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>与海光信息达成战略合作</t>
+          <t>商品混凝土</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -12243,7 +12745,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>京东增持</t>
+          <t>输配电设备</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -12251,7 +12753,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>终止股权转让</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -12259,7 +12761,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -12267,7 +12769,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -12275,7 +12777,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>控股股东重整</t>
+          <t>实控人此前变更</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -12283,7 +12785,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>生猪养殖</t>
+          <t>卫浴产品</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -12291,7 +12793,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>云网安融合</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -12301,7 +12803,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>京东增持</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -12309,7 +12811,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -12317,7 +12819,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -12325,7 +12827,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -12333,7 +12835,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>储能项目</t>
+          <t>分红派息</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -12341,7 +12843,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>禽肉加工</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -12349,7 +12851,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>印制电路板</t>
+          <t>全球组网服务</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -12359,7 +12861,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>产业园运营</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -12367,7 +12869,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>智慧物流</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -12375,7 +12877,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>时装</t>
+          <t>质价比战略</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -12383,7 +12885,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -12391,7 +12893,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>薄荷醇</t>
+          <t>子公司参股云针科技</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -12399,7 +12901,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>预制菜概念</t>
+          <t>大股东（银亿）重整</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -12407,7 +12909,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>智慧供热</t>
+          <t>数字通信</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -12417,7 +12919,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Web3.0</t>
+          <t>产业园运营</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -12425,7 +12927,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -12433,7 +12935,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>质价比战略</t>
+          <t>参股迪洛斯10%股权</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -12441,7 +12943,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -12449,7 +12951,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>草甘膦</t>
+          <t>智慧园林</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -12457,7 +12959,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>智能散料输送</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -12465,7 +12967,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>碳中和概念</t>
+          <t>拟购鸿林矿业47%股权</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -12475,7 +12977,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>eSIM技术</t>
+          <t>Web3.0</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -12483,7 +12985,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -12491,7 +12993,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>参股迪洛斯10%股权</t>
+          <t>电子纸</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -12499,7 +13001,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -12507,7 +13009,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>光气资源</t>
+          <t>工业模块</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -12515,7 +13017,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>煤机</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -12523,7 +13025,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>锂电复合铜箔</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -12533,7 +13035,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>高股息</t>
+          <t>eSIM技术</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -12541,7 +13043,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -12549,7 +13051,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>电子纸</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -12557,7 +13059,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -12565,7 +13067,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>新材料蜡烛</t>
+          <t>水果罐头龙头</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -12573,7 +13075,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>医疗服务</t>
+          <t>资产整合</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -12581,7 +13083,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>价格回暖</t>
+          <t>车载背光源</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -12591,7 +13093,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>超级电容器</t>
+          <t>高股息</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -12599,7 +13101,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>智慧物流</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -12607,7 +13109,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>近期中标</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -12615,7 +13117,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -12623,7 +13125,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>募投项目投产</t>
+          <t>零食渠道拓展</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -12631,7 +13133,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>硝化棉</t>
+          <t>数字人应用</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -12639,7 +13141,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>广电网络服务</t>
+          <t>此前曾拟购买石药百克100%股权</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -12649,7 +13151,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>超级电容器</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -12657,7 +13159,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -12665,7 +13167,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>近期中标</t>
+          <t>轨交装备</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -12673,7 +13175,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -12681,7 +13183,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>草铵膦</t>
+          <t>深海装备</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -12689,7 +13191,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>现金分红</t>
+          <t>医养结合</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -12697,7 +13199,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -12707,7 +13209,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>古法黄金</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -12715,7 +13217,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>白银</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -12723,7 +13225,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>轨交装备</t>
+          <t>增持</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -12731,7 +13233,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -12739,7 +13241,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>实控人此前变更</t>
+          <t>毛利率提升</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -12747,7 +13249,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>医美业务</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -12755,7 +13257,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>万豪合作（云服务）</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -12765,7 +13267,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>古法黄金</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -12773,15 +13275,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>化学制药</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>增持</t>
+          <t>天然气液化加工</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -12789,7 +13291,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -12797,7 +13299,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>分红派息</t>
+          <t>扩产</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -12805,7 +13307,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>道路运输</t>
+          <t>线上女装</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -12813,7 +13315,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>贵金属</t>
+          <t>流感药物</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -12831,15 +13333,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>与辉瑞订立许可协议</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>天然气液化加工</t>
+          <t>昂拉地韦片获批上市</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -12847,7 +13349,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>高压快充</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -12855,7 +13357,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>子公司参股云针科技</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -12863,7 +13365,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>客运资源整合</t>
+          <t>智慧水务</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -12871,7 +13373,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>碳酸锂项目</t>
+          <t>牙科医疗</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -12889,15 +13391,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>昂拉地韦片获批上市</t>
+          <t>泰国工厂投产</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -12905,7 +13407,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>智能包装设备</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -12913,7 +13415,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>智慧园林</t>
+          <t>低温乳制品</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -12921,7 +13423,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>股东权益变动</t>
+          <t>激光测量</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -12929,7 +13431,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>新店开业</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -12947,7 +13449,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>拟购买海德利森100%股权</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -12955,7 +13457,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -12963,7 +13465,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>高压快充</t>
+          <t>显示器件</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -12971,7 +13473,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>工业模块</t>
+          <t>鲜立方战略</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -12979,7 +13481,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>再生医学材料</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -12987,7 +13489,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>期货业务</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -13005,7 +13507,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>与辉瑞订立许可协议</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -13013,7 +13515,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>泰国工厂投产</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -13021,7 +13523,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>智能包装设备</t>
+          <t>越南产能释放</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -13029,7 +13531,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>水果罐头龙头</t>
+          <t>高端护肤</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -13037,7 +13539,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>原料制剂一体化</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -13045,7 +13547,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>铝加工</t>
+          <t>K胺环评批复</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -13055,7 +13557,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>部分产品涨价</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -13063,7 +13565,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -13071,7 +13573,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>无人出租车</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -13079,7 +13581,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>显示器件</t>
+          <t>低空防御</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -13087,7 +13589,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>零食渠道拓展</t>
+          <t>SPA合作</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -13095,7 +13597,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>大股东（银亿）重整</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -13103,7 +13605,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>一季报营收增长</t>
+          <t>中高端家具</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -13113,7 +13615,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>此前收购中达金属60%股权</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -13121,7 +13623,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>低空资产注入猜想</t>
+          <t>拟购买海德利森100%股权</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -13129,7 +13631,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>无人出租车</t>
+          <t>国际货代</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -13137,7 +13639,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>越南产能释放</t>
+          <t>红外光电</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -13145,7 +13647,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>深海装备</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -13153,7 +13655,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>智能散料输送</t>
+          <t>氧化铝靶材</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -13161,7 +13663,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>制剂一体化</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -13171,7 +13673,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>此前收购中达金属60%股权</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -13179,7 +13681,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -13187,7 +13689,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>国际货代</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -13195,7 +13697,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>低空防御</t>
+          <t>印刷版材</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -13203,7 +13705,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>毛利率提升</t>
+          <t>重金属污染防治</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -13211,7 +13713,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>煤机</t>
+          <t>糖尿病用药</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -13219,7 +13721,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>消化药</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -13229,7 +13731,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -13237,7 +13739,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -13253,7 +13755,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>红外光电</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -13261,7 +13763,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>扩产</t>
+          <t>人参全产业链</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -13269,7 +13771,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>资产整合</t>
+          <t>墨西哥产能建设</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -13277,7 +13779,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>商品混凝土</t>
+          <t>市场扩展</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -13287,7 +13789,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -13295,7 +13797,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>低空资产注入猜想</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -13311,7 +13813,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>印刷版材</t>
+          <t>精装修</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -13319,7 +13821,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>此前间接持股华大九天（已退出）</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -13327,7 +13829,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>数字人应用</t>
+          <t>环保再生纸</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -13335,7 +13837,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>云网安融合</t>
+          <t>粉磨系统</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -13353,7 +13855,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -13369,7 +13871,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>智慧口岸</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -13377,7 +13879,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>低温乳制品</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -13385,7 +13887,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>医养结合</t>
+          <t>高性能颜料</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -13393,7 +13895,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>全球组网服务</t>
+          <t>生态环境</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -13411,7 +13913,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>拟收购英迪芯微控股权</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -13427,7 +13929,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>精装修</t>
+          <t>音响</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -13435,7 +13937,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>鲜立方战略</t>
+          <t>EDA行业</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -13443,7 +13945,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>医美业务</t>
+          <t>特高压中标</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -13451,7 +13953,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>数字通信</t>
+          <t>绿色能源</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -13469,7 +13971,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -13485,7 +13987,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>智慧口岸</t>
+          <t>瓶坯智能成型系统</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -13493,7 +13995,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>高端护肤</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -13501,7 +14003,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>线上女装</t>
+          <t>铁塔制造</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -13509,7 +14011,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>拟购鸿林矿业47%股权</t>
+          <t>高端化、年轻化战略</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -13527,7 +14029,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -13543,7 +14045,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>音响</t>
+          <t>发布天工超级智能体</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -13551,7 +14053,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>SPA合作</t>
+          <t>注射液获临床试验批准</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -13559,7 +14061,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>智慧水务</t>
+          <t>收购阿法硅51%股权</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -13567,7 +14069,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>锂电复合铜箔</t>
+          <t>专精特新</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -13585,7 +14087,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>拟收购英迪芯微控股权</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -13601,7 +14103,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>瓶坯智能成型系统</t>
+          <t>化学药</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -13609,7 +14111,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>血友病治疗药物</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -13617,7 +14119,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>激光测量</t>
+          <t>液晶显示器</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -13625,7 +14127,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>车载背光源</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -13643,7 +14145,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -13659,7 +14161,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>发布天工超级智能体</t>
+          <t>流感用药</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -13667,7 +14169,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>重金属污染防治</t>
+          <t>仿制药一致性评价</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -13675,7 +14177,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>再生医学材料</t>
+          <t>铀矿资源</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -13683,7 +14185,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>此前曾拟购买石药百克100%股权</t>
+          <t>GLP-1</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -13701,7 +14203,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -13717,7 +14219,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>化学药</t>
+          <t>基因测序</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -13725,7 +14227,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>人参全产业链</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -13733,7 +14235,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>原料制剂一体化</t>
+          <t>石材加工</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -13741,7 +14243,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>H酸产能不足</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -13759,7 +14261,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>低空防御系统</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -13775,7 +14277,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>流感用药</t>
+          <t>出生缺陷预防</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -13783,7 +14285,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>此前间接持股华大九天（已退出）</t>
+          <t>有色金属电解设备</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -13791,7 +14293,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>茶饮</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -13799,7 +14301,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -13817,7 +14319,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CDMO业务扩展</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -13833,7 +14335,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>基因测序</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -13841,7 +14343,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>新质生产力</t>
+          <t>智能化转型</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -13849,7 +14351,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>氧化铝靶材</t>
+          <t>文远知行合作</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -13857,7 +14359,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>流感药物</t>
+          <t>马来西亚量产</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -13875,7 +14377,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>集采中标</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -13891,7 +14393,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>出生缺陷预防</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -13899,7 +14401,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>EDA行业</t>
+          <t>智慧物流/环卫</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -13907,7 +14409,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>糖尿病用药</t>
+          <t>奶茶</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -13915,7 +14417,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>牙科医疗</t>
+          <t>储能材料</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -13933,7 +14435,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>染料价格回暖</t>
+          <t>低空防御系统</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -13941,7 +14443,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>海外业务</t>
+          <t>节能服务</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -13949,7 +14451,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>次新</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -13957,7 +14459,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -13965,7 +14467,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>墨西哥产能建设</t>
+          <t>即饮新品</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -13973,7 +14475,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>新店开业</t>
+          <t>STSP-0601</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -13991,7 +14493,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>输电铁塔</t>
+          <t>CDMO业务扩展</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -13999,7 +14501,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>节能服务</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -14007,7 +14509,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>餐饮具</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -14015,7 +14517,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>注射液获临床试验批准</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -14023,7 +14525,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>环保再生纸</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -14031,7 +14533,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>民营医院</t>
+          <t>优先审评</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -14049,7 +14551,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>高效换热器</t>
+          <t>集采中标</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -14057,7 +14559,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>轮胎</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -14065,7 +14567,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>次新</t>
+          <t>环保包装</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -14073,7 +14575,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>血友病治疗药物</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -14081,7 +14583,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>高性能颜料</t>
+          <t>社区团购</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -14089,7 +14591,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>高压氧仓</t>
+          <t>健康器材</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -14107,7 +14609,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>订单充足</t>
+          <t>染料价格回暖</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -14115,7 +14617,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>轮胎</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -14123,7 +14625,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>餐饮具</t>
+          <t>PBO单体</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -14131,7 +14633,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>仿制药一致性评价</t>
+          <t>泰国工厂</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -14139,7 +14641,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>特高压中标</t>
+          <t>分红</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -14147,7 +14649,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>期货业务</t>
+          <t>汇金入主</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -14165,7 +14667,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>输电铁塔</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -14181,7 +14683,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>环保包装</t>
+          <t>染发剂原料</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -14189,7 +14691,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>能源数字化</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -14197,7 +14699,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>铁塔制造</t>
+          <t>中高端拓展</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -14205,7 +14707,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>K胺环评批复</t>
+          <t>证券</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -14223,7 +14725,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝莓产业链</t>
+          <t>高效换热器</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -14239,7 +14741,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PBO单体</t>
+          <t>抗量子密码</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -14247,7 +14749,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>有色金属电解设备</t>
+          <t>聚合充电平台</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -14255,7 +14757,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -14263,7 +14765,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>中高端家具</t>
+          <t>被海光信息换股吸收合并</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -14281,7 +14783,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>比亚迪概念</t>
+          <t>订单充足</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -14297,7 +14799,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>染发剂原料</t>
+          <t>专精特新小巨人</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -14305,7 +14807,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>智能化转型</t>
+          <t>战略投资</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -14313,7 +14815,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>收购阿法硅51%股权</t>
+          <t>PVC弹性地板</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -14321,7 +14823,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>制剂一体化</t>
+          <t>脑科学</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -14331,7 +14833,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>信息智能传输</t>
+          <t>重大合同</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -14339,7 +14841,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -14355,7 +14857,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>抗量子密码</t>
+          <t>LCP重庆基地投产</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -14363,7 +14865,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>智慧物流/环卫</t>
+          <t>车路云一体化</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -14371,7 +14873,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>液晶显示器</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -14379,7 +14881,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>消化药</t>
+          <t>SPD供应商</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -14389,7 +14891,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>通信网络维护</t>
+          <t>磷酸铁锂</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -14397,7 +14899,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>氟氯虫双酰胺</t>
+          <t>蓝莓产业链</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -14413,7 +14915,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>专精特新小巨人</t>
+          <t>左旋对羟基苯甘氨酸系列</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -14421,7 +14923,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>煤炭设备</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -14429,7 +14931,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>铀矿资源</t>
+          <t>宠物护理</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -14437,7 +14939,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>市场扩展</t>
+          <t>烟气治理</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -14447,7 +14949,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>信息智能传输</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -14455,7 +14957,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>平消片获再注册批件</t>
+          <t>比亚迪概念</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -14463,7 +14965,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>环保</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -14471,7 +14973,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>LCP重庆基地投产</t>
+          <t>研发投入增长</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -14479,7 +14981,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>城乡污水处理</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -14487,7 +14989,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>石材加工</t>
+          <t>燕麦谷物</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -14495,7 +14997,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>粉磨系统</t>
+          <t>海缆</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -14505,7 +15007,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>通信网络维护</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -14513,7 +15015,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>城市服务运营商</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -14521,15 +15023,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>石英制品</t>
+          <t>战略合作</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>左旋对羟基苯甘氨酸系列</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -14537,7 +15039,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>环保水处理</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -14545,7 +15047,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>茶饮</t>
+          <t>资源回收</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -14553,7 +15055,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>生态环境</t>
+          <t>行业资质</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -14563,7 +15065,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>重整</t>
+          <t>存储</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -14571,7 +15073,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>氟氯虫双酰胺</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -14579,7 +15081,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>石英制品</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -14587,7 +15089,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>研发投入增长</t>
+          <t>问界</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -14595,7 +15097,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>泰国工厂</t>
+          <t>退出润滑油业务</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -14603,7 +15105,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>“体育</t>
+          <t>杯壶龙头</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -14611,7 +15113,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>绿色能源</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -14621,15 +15123,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>氯氰菊酯</t>
+          <t>平消片获再注册批件</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -14637,7 +15139,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>宠物用品</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -14645,7 +15147,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>行星滚柱丝杠</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -14653,7 +15155,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>能源数字化</t>
+          <t>可信身份技术</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -14661,7 +15163,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>文远知行合作</t>
+          <t>木门</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -14669,7 +15171,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>控股权变更</t>
+          <t>心脑血管注射剂</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -14679,15 +15181,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>仿制药</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>智慧矿山</t>
+          <t>城市服务运营商</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -14695,7 +15197,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -14703,7 +15205,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>问界</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -14711,7 +15213,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>聚合充电平台</t>
+          <t>综合能源服务</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -14719,7 +15221,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>奶茶</t>
+          <t>适老化产品</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -14727,7 +15229,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>高端化、年轻化战略</t>
+          <t>创新驱动</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -14737,15 +15239,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>实控人中电科</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -14753,7 +15255,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -14761,7 +15263,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>行星滚柱丝杠</t>
+          <t>电子身份证</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -14769,7 +15271,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>战略投资</t>
+          <t>钢丝</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -14777,7 +15279,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>即饮新品</t>
+          <t>香精</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -14785,7 +15287,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>锂电装备</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -14795,15 +15297,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蚂蚁合作</t>
+          <t>氯氰菊酯</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -14811,7 +15313,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -14819,7 +15321,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>中科院控股</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -14827,7 +15329,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>车路云一体化</t>
+          <t>光纤</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -14835,7 +15337,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>沪上阿姨合作</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -14843,7 +15345,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>钛合金材料</t>
+          <t>人造草坪应用</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -14853,15 +15355,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>重整</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>高速视觉</t>
+          <t>智慧矿山</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -14869,7 +15371,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -14877,7 +15379,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>电子身份证</t>
+          <t>数字教育云</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -14885,7 +15387,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>煤炭设备</t>
+          <t>物联网解决方案</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -14893,7 +15395,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>社区团购</t>
+          <t>储能投资</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -14901,7 +15403,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>柱状电池外壳</t>
+          <t>打捆机</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -14911,7 +15413,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -14919,7 +15421,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>钢结构工程</t>
+          <t>实控人中电科</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -14927,7 +15429,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -14935,7 +15437,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>中科院控股</t>
+          <t>OLED</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -14943,7 +15445,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>城乡污水处理</t>
+          <t>量子安全通信</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -14951,7 +15453,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>分红</t>
+          <t>垃圾分类</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -14959,7 +15461,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>专精特新</t>
+          <t>电动两轮车</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -14969,7 +15471,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -14977,7 +15479,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>智能环卫装备</t>
+          <t>蚂蚁合作</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -14985,7 +15487,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>辉瑞合作</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -14993,7 +15495,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>数字教育云</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -15001,7 +15503,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>环保水处理</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -15009,7 +15511,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>中高端拓展</t>
+          <t>微盘股</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -15017,7 +15519,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>职业培训</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -15027,7 +15529,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>收购醋纤公司67%股权</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -15035,7 +15537,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>滑动轴承行业龙头</t>
+          <t>高速视觉</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -15043,7 +15545,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>双特异性抗体</t>
+          <t>辉瑞合作</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -15051,7 +15553,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>OLED</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -15059,7 +15561,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>退出润滑油业务</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -15067,7 +15569,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -15075,7 +15577,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>出售部分资产</t>
+          <t>海外产能布局</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -15085,7 +15587,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -15093,7 +15595,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>公共物业服务</t>
+          <t>钢结构工程</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -15101,7 +15603,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>全球化战略</t>
+          <t>双特异性抗体</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -15109,7 +15611,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>啤酒</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -15117,7 +15619,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>可信身份技术</t>
+          <t>蓝宝石</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -15125,7 +15627,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>PVC弹性地板</t>
+          <t>高分红</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -15133,7 +15635,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>GLP-1</t>
+          <t>内酯系列香料</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -15143,7 +15645,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>传感器</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -15151,7 +15653,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>人工影响天气</t>
+          <t>智能环卫装备</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -15159,7 +15661,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>醋酸纤维素</t>
+          <t>全球化战略</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -15167,7 +15669,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -15175,7 +15677,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>综合能源服务</t>
+          <t>文生视频</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -15183,7 +15685,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>制冷技术</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -15191,7 +15693,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>H酸产能不足</t>
+          <t>新型储能</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -15201,7 +15703,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>下游运用广泛</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -15209,7 +15711,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>滑动轴承行业龙头</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -15217,7 +15719,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>激光防伪包装材料</t>
+          <t>醋酸纤维素</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -15225,7 +15727,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>啤酒</t>
+          <t>数字会议</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -15233,7 +15735,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>钢丝</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -15241,7 +15743,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>宠物护理</t>
+          <t>智能物联</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -15249,7 +15751,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>顺价调整</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -15259,7 +15761,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>小型堆核岛主设备关键装备制造</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -15267,7 +15769,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>做市业务</t>
+          <t>公共物业服务</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -15275,7 +15777,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>输电线路铁塔</t>
+          <t>激光防伪包装材料</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -15283,7 +15785,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>改性塑料</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -15291,7 +15793,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>光纤</t>
+          <t>自身免疫性疾病</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -15299,7 +15801,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>燕麦谷物</t>
+          <t>玻璃基板</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -15307,7 +15809,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>马来西亚量产</t>
+          <t>国际运输</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -15317,7 +15819,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -15325,7 +15827,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>人工影响天气</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -15333,7 +15835,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>热能动力</t>
+          <t>输电线路铁塔</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -15341,7 +15843,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>数字会议</t>
+          <t>下游应用广泛</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -15349,7 +15851,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>物联网解决方案</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -15357,7 +15859,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>资源回收</t>
+          <t>有线电视</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -15365,7 +15867,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>储能材料</t>
+          <t>集装箱运输</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -15375,7 +15877,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -15383,7 +15885,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>铜</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -15391,7 +15893,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>大健康板块</t>
+          <t>热能动力</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -15399,7 +15901,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>游戏</t>
+          <t>与中科信控科技签署战略合作协议</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -15407,7 +15909,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>量子安全通信</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -15415,7 +15917,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>杯壶龙头</t>
+          <t>紧固件龙头</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -15423,7 +15925,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>STSP-0601</t>
+          <t>航线拓展</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -15433,7 +15935,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>传感器</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -15441,7 +15943,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>H股发行</t>
+          <t>做市业务</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -15449,7 +15951,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>亏损收窄</t>
+          <t>大健康板块</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -15457,7 +15959,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>改性塑料</t>
+          <t>生物质热电</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -15465,7 +15967,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>数字营销</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -15473,7 +15975,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>木门</t>
+          <t>聚乙二醇</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -15481,7 +15983,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>优先审评</t>
+          <t>动保</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -15491,7 +15993,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>下游运用广泛</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -15499,7 +16001,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大健康</t>
+          <t>钨</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -15507,7 +16009,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>亏损收窄</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -15515,7 +16017,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>下游应用广泛</t>
+          <t>无人送货车</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -15523,7 +16025,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>智慧停车</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -15531,7 +16033,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>适老化产品</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -15539,7 +16041,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>健康器材</t>
+          <t>脱敏要</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -15549,7 +16051,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>小型堆核岛主设备关键装备制造</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -15557,7 +16059,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>量贩渠道增长</t>
+          <t>铜</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -15565,7 +16067,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>拟收购尚阳通</t>
+          <t>移动支付</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -15573,7 +16075,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>与中科信控科技签署战略合作协议</t>
+          <t>智能保管</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -15581,7 +16083,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>蓝宝石</t>
+          <t>蚂蚁金服概念</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -15589,7 +16091,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>香精</t>
+          <t>门店扩张</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -15597,7 +16099,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>汇金入主</t>
+          <t>参股《长安的荔枝》出品方</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -15607,7 +16109,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>海外订单增长</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -15615,7 +16117,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>H股上市</t>
+          <t>H股发行</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -15623,7 +16125,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>资产注入猜测</t>
+          <t>NHKC-1</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -15631,7 +16133,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>生物质热电</t>
+          <t>医疗</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -15639,7 +16141,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>文生视频</t>
+          <t>EDA</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -15647,7 +16149,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>沪上阿姨合作</t>
+          <t>高铁</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -15655,7 +16157,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>证券</t>
+          <t>短剧（Reelshort旗下公司合作）</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -15665,7 +16167,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -15673,7 +16175,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>量贩渠道增长</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -15681,7 +16183,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -15689,7 +16191,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>无人送货车</t>
+          <t>ISP</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -15697,7 +16199,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>晶圆级测试设备</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -15705,17 +16207,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>储能投资</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Rokid合作</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -15723,7 +16233,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>智慧路灯</t>
+          <t>H股上市</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -15731,34 +16241,250 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>资产注入猜测</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>安防</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>国家大基金持股</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>商品贸易</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>复合集流体</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>智能制造</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>此前进行重大资产购买</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>参股券商（拟转让）</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>基础建设</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>无实控人</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>金属包装产品</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>智慧路灯</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>纸质包装</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>智能保管</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>自身免疫性疾病</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>垃圾分类</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>数字政府</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>高分子发泡材料</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>雄安新区</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>海外订单增长</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>房屋检测</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>控股股东为长江产业集团</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>云视频</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>橡胶V带</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>新设矿业公司</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>高分子材料防老化助剂</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>阻燃剂</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MiniLED</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Sora概念</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>一体化压铸</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>储能消防</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15808,11 +16534,11 @@
     <row r="3">
       <c r="A3" s="39" t="inlineStr">
         <is>
-          <t>跨境贸易</t>
+          <t>新能源</t>
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -15822,17 +16548,17 @@
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="41" t="inlineStr">
         <is>
-          <t>新能源</t>
+          <t>跨境贸易</t>
         </is>
       </c>
       <c r="B5" s="37" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -15842,7 +16568,7 @@
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -15852,7 +16578,7 @@
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -15862,7 +16588,7 @@
         </is>
       </c>
       <c r="B8" s="37" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -15872,7 +16598,7 @@
         </is>
       </c>
       <c r="B9" s="37" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -15882,7 +16608,7 @@
         </is>
       </c>
       <c r="B10" s="37" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -15920,7 +16646,7 @@
         </is>
       </c>
       <c r="B14" s="37" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -15930,13 +16656,13 @@
         </is>
       </c>
       <c r="B15" s="37" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="37" t="inlineStr">
         <is>
-          <t>AI算力</t>
+          <t>半导体</t>
         </is>
       </c>
       <c r="B16" s="37" t="n">
@@ -15946,11 +16672,11 @@
     <row r="17">
       <c r="A17" s="37" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>AI算力</t>
         </is>
       </c>
       <c r="B17" s="37" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -15960,7 +16686,7 @@
         </is>
       </c>
       <c r="B18" s="37" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -15970,7 +16696,7 @@
         </is>
       </c>
       <c r="B19" s="37" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -15986,51 +16712,51 @@
     <row r="21">
       <c r="A21" s="37" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>港口航运</t>
         </is>
       </c>
       <c r="B21" s="37" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="inlineStr">
         <is>
-          <t>农业</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B22" s="37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="37" t="inlineStr">
         <is>
-          <t>精密电子</t>
+          <t>农业</t>
         </is>
       </c>
       <c r="B23" s="37" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="37" t="inlineStr">
         <is>
-          <t>港口航运</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="B24" s="37" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="37" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>精密电子</t>
         </is>
       </c>
       <c r="B25" s="37" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -16040,17 +16766,17 @@
         </is>
       </c>
       <c r="B26" s="37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="37" t="inlineStr">
         <is>
-          <t>金融</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B27" s="37" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -16060,17 +16786,17 @@
         </is>
       </c>
       <c r="B28" s="37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="37" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>金融</t>
         </is>
       </c>
       <c r="B29" s="37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -16080,7 +16806,7 @@
         </is>
       </c>
       <c r="B30" s="37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -16108,7 +16834,7 @@
         </is>
       </c>
       <c r="B33" s="37" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -16118,7 +16844,7 @@
         </is>
       </c>
       <c r="B34" s="37" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -16128,7 +16854,7 @@
         </is>
       </c>
       <c r="B35" s="37" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -217,10 +217,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -232,7 +232,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -441,6 +441,12 @@
 控制权变更+糖尿病首仿药</t>
       </text>
     </comment>
+    <comment ref="R4" authorId="0" shapeId="0">
+      <text>
+        <t>7天7板 11:16:30 0
+控制权变更+糖尿病首仿药+年报增长</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">地天板+涤纶+化学纤维+一季报增长 13:43:52 0
@@ -537,6 +543,12 @@
 数字文创资产+IP文创+Web3.0技术</t>
       </text>
     </comment>
+    <comment ref="R5" authorId="0" shapeId="0">
+      <text>
+        <t>10天6板 09:34:30 2
+泡泡玛特合作+IP文创+数字文创资产+Web3.0技术</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:25:00 0
@@ -633,6 +645,12 @@
 NHKC-1+创新药+仿制药+宠物经济</t>
       </text>
     </comment>
+    <comment ref="R6" authorId="0" shapeId="0">
+      <text>
+        <t>8天5板 09:32:17 1
+期货经纪+风险管理+H股上市+股份回购</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:30:54 1
@@ -729,6 +747,12 @@
 注塑机+纺织机械+锂电池+越南投资</t>
       </text>
     </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:25:01 0
+稀土永磁+机器人+央企</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>6天4板 09:35:46 24
@@ -825,6 +849,12 @@
 涤纶+产品涨价+一季报增长</t>
       </text>
     </comment>
+    <comment ref="R8" authorId="0" shapeId="0">
+      <text>
+        <t>4天4板 09:31:24 1
+AI营销+体育产业+报业传媒+广州国企</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:57:30 0
@@ -921,6 +951,12 @@
 稀土永磁+机器人+央企</t>
       </text>
     </comment>
+    <comment ref="R9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:02 0
+中药+创新驱动+控制权变更</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1017,6 +1053,12 @@
 AI营销+体育产业+报业传媒+广州国企</t>
       </text>
     </comment>
+    <comment ref="R10" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:34:53 4
+电动两轮车+职业培训+海外产能布局</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1113,6 +1155,12 @@
 数字人民币+跨境支付</t>
       </text>
     </comment>
+    <comment ref="R11" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 09:39:15 0
+保健品+宠物经济+控股权变更</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 11
@@ -1209,6 +1257,12 @@
 电动两轮车+职业培训+海外产能布局</t>
       </text>
     </comment>
+    <comment ref="R12" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 09:42:02 3
+南京旅游+低空经济+国企</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 1
@@ -1305,6 +1359,12 @@
 《长安的荔枝》热播+旅游+IP+国企改革</t>
       </text>
     </comment>
+    <comment ref="R13" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+无人零售（潮玩）+数字人民币+机器人</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:34:28 0
@@ -1401,6 +1461,12 @@
 中药+创新驱动+控制权变更</t>
       </text>
     </comment>
+    <comment ref="R14" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 0
+防撞系统零部件+汽车零部件+比亚迪概念</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:38:21 1
@@ -1497,6 +1563,12 @@
 稀土永磁+一季报增长+机器人概念</t>
       </text>
     </comment>
+    <comment ref="R15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 3
+稀土永磁+贵金属回收+山西国资+一季报同比扭亏</t>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1593,6 +1665,12 @@
 南京旅游+低空经济+国企</t>
       </text>
     </comment>
+    <comment ref="R16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:15 2
+IP经济+泡泡玛特合作+杯壶制造+不锈钢保温器皿</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1683,6 +1761,12 @@
 AI营销+体育产业+文化传媒+广州国企</t>
       </text>
     </comment>
+    <comment ref="R17" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:27 0
+汽车零部件+汽车物流+新能源汽车+业务拓展</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:02 0
@@ -1779,6 +1863,12 @@
 控制权变更+教育信息化</t>
       </text>
     </comment>
+    <comment ref="R18" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:25:13 0
+铝合金轮毂+北美市场+锂电池回收</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -1863,6 +1953,12 @@
 MLCC上游材料+小粒径镍粉需求+业绩暴增</t>
       </text>
     </comment>
+    <comment ref="R19" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:27:49 5
+一体化压铸+汽车关键零部件+海外拓展</t>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -1941,6 +2037,12 @@
 创新药+减肥药+中药</t>
       </text>
     </comment>
+    <comment ref="R20" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 11:07:26 0
+稀土永磁+人形机器人+新能源汽车</t>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -2037,6 +2139,12 @@
 防撞系统零部件+汽车零部件+比亚迪概念</t>
       </text>
     </comment>
+    <comment ref="R21" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 13:51:45 2
+K胺+收到参股公司分红+农业综合服务+供销社</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:02 6
@@ -2133,6 +2241,12 @@
 汽车零部件+汽车物流+收购扩展</t>
       </text>
     </comment>
+    <comment ref="R22" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 14:23:30 0
+烟草概念+香料+一季报增长+外销</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:15 0
@@ -2217,6 +2331,12 @@
 铝合金轮毂+北美市场+锂电池回收</t>
       </text>
     </comment>
+    <comment ref="R23" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 14:31:21 2
+泡泡玛特代运营服务商+电商+AI智能体</t>
+      </text>
+    </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:30 4
@@ -2397,6 +2517,12 @@
 无人零售（潮玩）+数字人民币+机器人</t>
       </text>
     </comment>
+    <comment ref="R25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:02 0
+AI眼镜+小家电+小米概念+创投</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:35:01 2
@@ -2481,6 +2607,12 @@
 汽车零部件+模具+一体化压铸+比亚迪</t>
       </text>
     </comment>
+    <comment ref="R26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:33 2
+AI眼镜+LED封装+国企</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:39:55 1
@@ -2577,6 +2709,12 @@
 锂电池+钠离子电池+磷化工</t>
       </text>
     </comment>
+    <comment ref="R27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:21 0
+抗量子密码+军工+专精特新</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:46:06 4
@@ -2667,6 +2805,12 @@
 铜基新材料+英伟达概念+一季报增长</t>
       </text>
     </comment>
+    <comment ref="R28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:33:12 0
+IP经济+城市更新+AI赋能</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:48:04 0
@@ -2757,6 +2901,12 @@
 消费电子+复合集流体+AI眼镜+汽车零部件</t>
       </text>
     </comment>
+    <comment ref="R29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:33:24 2
+量子安全+信创+AI密码</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:00:51 1
@@ -2853,6 +3003,12 @@
 稀土永磁+贵金属回收+山西国资+一季报同比扭亏</t>
       </text>
     </comment>
+    <comment ref="R30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:37:36 0
+医药零售+养老概念+新零售+中药</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>2天2板 13:18:24 0
@@ -2949,6 +3105,12 @@
 钨矿资源+金属铜+光伏钨丝</t>
       </text>
     </comment>
+    <comment ref="R31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:41:06 12
+游戏出海+AI游戏</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>2天2板 14:31:30 0
@@ -3045,6 +3207,12 @@
 车载电源+超充+比亚迪概念+机器人概念</t>
       </text>
     </comment>
+    <comment ref="R32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:43:21 0
+新能源汽车+一季报增长+国企改革</t>
+      </text>
+    </comment>
     <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:12 6
@@ -3129,6 +3297,12 @@
 汽车制动零部件+海外市场拓展+一季报增长</t>
       </text>
     </comment>
+    <comment ref="R33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:46:35 0
+IP经济+高分红+内容运营</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">首板涨停 09:25:00 0
@@ -3225,6 +3399,12 @@
 一体化压铸+再生铝</t>
       </text>
     </comment>
+    <comment ref="R34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:46:42 0
+IP经济+文创家居用品+跨境电商</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:25:00 0
@@ -3321,6 +3501,12 @@
 稀土永磁+人形机器人+新能源汽车+一季报增长</t>
       </text>
     </comment>
+    <comment ref="R35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:48:52 1
+核聚变电源+机器人+工业互联网</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:28 1
@@ -3417,6 +3603,12 @@
 泡泡玛特概念+电商+AI智能体</t>
       </text>
     </comment>
+    <comment ref="R36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:54:54 0
+机器人减速器+减速机</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:18 0
@@ -3513,6 +3705,12 @@
 金融科技+AI智能体+华为概念</t>
       </text>
     </comment>
+    <comment ref="R37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:57:27 5
+潮玩IP增长+IP经济+固态电池+机器人概念</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:38 0
@@ -3609,6 +3807,12 @@
 汽车传动轴+俄罗斯市场+一季报增长</t>
       </text>
     </comment>
+    <comment ref="R38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:00:15 0
+光模块+AI算力+户外储能</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:34:48 1
@@ -3705,6 +3909,12 @@
 自动驾驶物流车+车联网+比亚迪概念</t>
       </text>
     </comment>
+    <comment ref="R39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:01:21 0
+原药一体化+新型农药制剂+高研发投入</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:15 0
@@ -3801,6 +4011,12 @@
 大飞机+航空材料+低空经济+AI眼镜</t>
       </text>
     </comment>
+    <comment ref="R40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:06:27 1
+股权激励+量子科技+算力+AI应用</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 2
@@ -3897,6 +4113,12 @@
 K胺+收到参股公司分红+农业综合服务+供销社</t>
       </text>
     </comment>
+    <comment ref="R41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:12:54 4
+可控核聚变+国企</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 4
@@ -3993,6 +4215,12 @@
 化妆品业务+胶原蛋白研发+山东国资</t>
       </text>
     </comment>
+    <comment ref="R42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:16:21 2
+中高端家具+外销+一季报改善</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:42:45 0
@@ -4089,6 +4317,12 @@
 聚醚胺+COC+海外拓展</t>
       </text>
     </comment>
+    <comment ref="R43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:26:24 2
+足球概念+生态修复+文旅+IP</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:44:09 1
@@ -4179,6 +4413,12 @@
 汽车内饰+建筑材料</t>
       </text>
     </comment>
+    <comment ref="R44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:31:18 1
+量子科技+数字货币+低空经济+央企</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:48:03 0
@@ -4263,6 +4503,12 @@
 猪肉+此前转让子公司股权+国企</t>
       </text>
     </comment>
+    <comment ref="R45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:42:53 1
+金融信创+人工智能+华为鲲鹏</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:53:35 0
@@ -4347,6 +4593,12 @@
 </t>
       </text>
     </comment>
+    <comment ref="R46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:43:18 0
+银行数字货币+纸纹防伪应用</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:54:57 0
@@ -4425,6 +4677,12 @@
 针织服装+安踏合作+三胎</t>
       </text>
     </comment>
+    <comment ref="R47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:45:18 0
+IP经济+AI玩具+豆包+机器人</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:02:18 0
@@ -4503,6 +4761,12 @@
 创新药+新型烟草+原料药+国际化</t>
       </text>
     </comment>
+    <comment ref="R48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:54:35 0
+个护用品+宠物护理</t>
+      </text>
+    </comment>
     <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:03:27 3
@@ -4575,6 +4839,12 @@
 房地产+深圳国资</t>
       </text>
     </comment>
+    <comment ref="R49" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:10:36 4
+或迎国药集团入主+血液制品</t>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:06:15 0
@@ -4647,6 +4917,12 @@
 稀土永磁+汽车拆解+机器人概念+业绩扭亏</t>
       </text>
     </comment>
+    <comment ref="R50" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:12:06 3
+稀土永磁+人形机器人+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:06:57 4
@@ -4719,6 +4995,12 @@
 高股息+电子商务+女装</t>
       </text>
     </comment>
+    <comment ref="R51" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:14:09 1
+数智科技业务+拟收购国贸数科100%股权+汽车经销+厦门国资</t>
+      </text>
+    </comment>
     <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:07:02 0
@@ -4791,6 +5073,12 @@
 IP经济+泡泡玛特合作+杯壶制造+不锈钢保温器皿</t>
       </text>
     </comment>
+    <comment ref="R52" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:25:46 0
+量子计算+REITs+北京国资</t>
+      </text>
+    </comment>
     <comment ref="B53" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:12:42 0
@@ -4863,6 +5151,12 @@
 人形机器人+园林机械+华为合作+中证1000调入</t>
       </text>
     </comment>
+    <comment ref="R53" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:28:35 7
+无人驾驶+特斯拉+一体化压铸+矿山设备</t>
+      </text>
+    </comment>
     <comment ref="B54" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:14:39 1
@@ -4935,6 +5229,12 @@
 游戏+杭州+海外拓展</t>
       </text>
     </comment>
+    <comment ref="R54" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:28:52 3
+文创IP+智慧工厂+创意设计</t>
+      </text>
+    </comment>
     <comment ref="B55" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:15:45 0
@@ -5001,6 +5301,12 @@
 农药+一季报增长+合成生物</t>
       </text>
     </comment>
+    <comment ref="R55" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:03:54 0
+中华老字号+物业管理+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B56" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:24:57 0
@@ -5061,6 +5367,12 @@
 涤纶+化学纤维+部分产品涨价</t>
       </text>
     </comment>
+    <comment ref="R56" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:03:57 5
+汽车零部件+混合动力总成+财报稳健</t>
+      </text>
+    </comment>
     <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:04 0
@@ -5121,6 +5433,12 @@
 AI营销+AI智能体+短剧+出海营销</t>
       </text>
     </comment>
+    <comment ref="R57" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:10:09 0
+创新药+注射用德拉沙星+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:58 1
@@ -5175,6 +5493,12 @@
 固态电池+无人机+电线电缆</t>
       </text>
     </comment>
+    <comment ref="R58" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:12:51 0
+黄金+万国升值+国企</t>
+      </text>
+    </comment>
     <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:29:24 0
@@ -5229,6 +5553,12 @@
 电动叉车+智能物流+机器人+业绩增长</t>
       </text>
     </comment>
+    <comment ref="R59" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:24:33 0
+固态电池+次新股</t>
+      </text>
+    </comment>
     <comment ref="B60" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:35:09 0
@@ -5277,6 +5607,12 @@
 养老机器人+自行车零配件+三胎概念</t>
       </text>
     </comment>
+    <comment ref="R60" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:35:12 0
+一季报增长+人工智能+广告资源+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:44:21 0
@@ -5325,6 +5661,12 @@
 染料+化工+出售部分资产+间接投资宇树科技</t>
       </text>
     </comment>
+    <comment ref="R61" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:42:15 2
+3D打印+工业化打印</t>
+      </text>
+    </comment>
     <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:47:30 2
@@ -5373,6 +5715,12 @@
 核聚变+机器人+算力+高端成形机床</t>
       </text>
     </comment>
+    <comment ref="R62" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:56:36 0
+期货+互联网金融</t>
+      </text>
+    </comment>
     <comment ref="B63" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:01:59 0
@@ -5421,6 +5769,12 @@
 染料+H酸产能不足</t>
       </text>
     </comment>
+    <comment ref="R63" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:56:36 0
+彩票印制+版权区块链应用+RFID综合解决方案+扭亏为盈</t>
+      </text>
+    </comment>
     <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:02:18 3
@@ -5469,6 +5823,12 @@
 GLP-1+创新药+益生菌</t>
       </text>
     </comment>
+    <comment ref="R64" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:15:09 0
+电子商务+大健康+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B65" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:09:24 0
@@ -5517,6 +5877,12 @@
 创新药研发+重大资产重组+国企改革</t>
       </text>
     </comment>
+    <comment ref="R65" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:24:11 2
+日化用品+护肤品+AI数智平台+电子商务</t>
+      </text>
+    </comment>
     <comment ref="B66" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 11:10:45 0
@@ -5563,6 +5929,12 @@
       <text>
         <t>首板涨停 14:04:42 0
 健身器材+足球概念+马来西亚量产</t>
+      </text>
+    </comment>
+    <comment ref="R66" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:41:12 0
+抗癌新药受理+镇痛新药上市+创新药业务增长</t>
       </text>
     </comment>
     <comment ref="B67" authorId="0" shapeId="0">
@@ -6350,7 +6722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -6378,6 +6750,7 @@
     <col width="15" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
     <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6482,6 +6855,12 @@
 星期三</t>
         </is>
       </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-12
+星期四</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -6569,6 +6948,11 @@
           <t>1.21%</t>
         </is>
       </c>
+      <c r="R2" s="4" t="inlineStr">
+        <is>
+          <t>0.26%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -6656,12 +7040,17 @@
           <t>208.46</t>
         </is>
       </c>
-      <c r="R3" s="10" t="n"/>
+      <c r="R3" s="9" t="inlineStr">
+        <is>
+          <t>214.02</t>
+        </is>
+      </c>
+      <c r="S3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>创新药(125)</t>
+          <t>创新药(130)</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -6742,13 +7131,18 @@
       <c r="Q4" s="19" t="inlineStr">
         <is>
           <t>易明医药6</t>
+        </is>
+      </c>
+      <c r="R4" s="19" t="inlineStr">
+        <is>
+          <t>易明医药7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>新能源(121)</t>
+          <t>新能源(128)</t>
         </is>
       </c>
       <c r="B5" s="15" t="inlineStr">
@@ -6829,13 +7223,18 @@
       <c r="Q5" s="17" t="inlineStr">
         <is>
           <t>元隆雅图5</t>
+        </is>
+      </c>
+      <c r="R5" s="17" t="inlineStr">
+        <is>
+          <t>元隆雅图6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>机器人(99)</t>
+          <t>机器人(107)</t>
         </is>
       </c>
       <c r="B6" s="15" t="inlineStr">
@@ -6916,13 +7315,18 @@
       <c r="Q6" s="19" t="inlineStr">
         <is>
           <t>昂利康4</t>
+        </is>
+      </c>
+      <c r="R6" s="15" t="inlineStr">
+        <is>
+          <t>南华期货5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
         <is>
-          <t>港口航运(96)</t>
+          <t>港口航运(100)</t>
         </is>
       </c>
       <c r="B7" s="15" t="inlineStr">
@@ -7003,13 +7407,18 @@
       <c r="Q7" s="16" t="inlineStr">
         <is>
           <t>金鹰股份4</t>
+        </is>
+      </c>
+      <c r="R7" s="14" t="inlineStr">
+        <is>
+          <t>北矿科技4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="inlineStr">
         <is>
-          <t>无人经济(96)</t>
+          <t>无人经济(98)</t>
         </is>
       </c>
       <c r="B8" s="24" t="inlineStr">
@@ -7090,13 +7499,18 @@
       <c r="Q8" s="15" t="inlineStr">
         <is>
           <t>苏州龙杰3</t>
+        </is>
+      </c>
+      <c r="R8" s="24" t="inlineStr">
+        <is>
+          <t>粤传媒4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="inlineStr">
         <is>
-          <t>核聚变(82)</t>
+          <t>AI大模型(89)</t>
         </is>
       </c>
       <c r="B9" s="24" t="inlineStr">
@@ -7177,13 +7591,18 @@
       <c r="Q9" s="14" t="inlineStr">
         <is>
           <t>北矿科技3</t>
+        </is>
+      </c>
+      <c r="R9" s="15" t="inlineStr">
+        <is>
+          <t>康惠制药3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>AI大模型(76)</t>
+          <t>新消费(85)</t>
         </is>
       </c>
       <c r="B10" s="16" t="inlineStr">
@@ -7264,13 +7683,18 @@
       <c r="Q10" s="24" t="inlineStr">
         <is>
           <t>粤传媒3</t>
+        </is>
+      </c>
+      <c r="R10" s="15" t="inlineStr">
+        <is>
+          <t>新日股份3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>新消费(71)</t>
+          <t>核聚变(84)</t>
         </is>
       </c>
       <c r="B11" s="12" t="inlineStr">
@@ -7351,13 +7775,18 @@
       <c r="Q11" s="13" t="inlineStr">
         <is>
           <t>楚天龙3</t>
+        </is>
+      </c>
+      <c r="R11" s="19" t="inlineStr">
+        <is>
+          <t>交大昂立3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="inlineStr">
         <is>
-          <t>汽车(65)</t>
+          <t>汽车(70)</t>
         </is>
       </c>
       <c r="B12" s="14" t="inlineStr">
@@ -7438,13 +7867,18 @@
       <c r="Q12" s="15" t="inlineStr">
         <is>
           <t>新日股份2</t>
+        </is>
+      </c>
+      <c r="R12" s="13" t="inlineStr">
+        <is>
+          <t>南京商旅3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>传统消费(60)</t>
+          <t>传统消费(65)</t>
         </is>
       </c>
       <c r="B13" s="18" t="inlineStr">
@@ -7525,13 +7959,18 @@
       <c r="Q13" s="17" t="inlineStr">
         <is>
           <t>曲江文旅2</t>
+        </is>
+      </c>
+      <c r="R13" s="14" t="inlineStr">
+        <is>
+          <t>新北洋2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>数字经济(57)</t>
+          <t>数字经济(62)</t>
         </is>
       </c>
       <c r="B14" s="18" t="inlineStr">
@@ -7594,7 +8033,7 @@
           <t>时代出版3</t>
         </is>
       </c>
-      <c r="N14" s="15" t="inlineStr">
+      <c r="N14" s="29" t="inlineStr">
         <is>
           <t>厦门信达2</t>
         </is>
@@ -7612,13 +8051,18 @@
       <c r="Q14" s="15" t="inlineStr">
         <is>
           <t>康惠制药2</t>
+        </is>
+      </c>
+      <c r="R14" s="29" t="inlineStr">
+        <is>
+          <t>英利汽车2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>重组(57)</t>
+          <t>重组(59)</t>
         </is>
       </c>
       <c r="B15" s="14" t="inlineStr">
@@ -7699,13 +8143,18 @@
       <c r="Q15" s="14" t="inlineStr">
         <is>
           <t>中科磁业2</t>
+        </is>
+      </c>
+      <c r="R15" s="15" t="inlineStr">
+        <is>
+          <t>华阳新材2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>商业航天(48)</t>
+          <t>商业航天(50)</t>
         </is>
       </c>
       <c r="B16" s="16" t="inlineStr">
@@ -7786,13 +8235,18 @@
       <c r="Q16" s="13" t="inlineStr">
         <is>
           <t>南京商旅2</t>
+        </is>
+      </c>
+      <c r="R16" s="17" t="inlineStr">
+        <is>
+          <t>哈尔斯2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>军工(41)</t>
+          <t>军工(42)</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -7871,11 +8325,16 @@
         </is>
       </c>
       <c r="Q17" s="31" t="n"/>
+      <c r="R17" s="29" t="inlineStr">
+        <is>
+          <t>西上海2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>半导体(40)</t>
+          <t>AI算力(41)</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -7956,13 +8415,18 @@
       <c r="Q18" s="24" t="inlineStr">
         <is>
           <t>鸿合科技</t>
+        </is>
+      </c>
+      <c r="R18" s="16" t="inlineStr">
+        <is>
+          <t>迪生力2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AI算力(40)</t>
+          <t>半导体(40)</t>
         </is>
       </c>
       <c r="B19" s="16" t="inlineStr">
@@ -8037,6 +8501,11 @@
           <t>博迁新材</t>
         </is>
       </c>
+      <c r="R19" s="29" t="inlineStr">
+        <is>
+          <t>泉峰汽车2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8112,11 +8581,16 @@
           <t>康缘药业</t>
         </is>
       </c>
+      <c r="R20" s="16" t="inlineStr">
+        <is>
+          <t>宁波韵升2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>房地产(36)</t>
+          <t>房地产(38)</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
@@ -8197,13 +8671,18 @@
       <c r="Q21" s="29" t="inlineStr">
         <is>
           <t>英利汽车</t>
+        </is>
+      </c>
+      <c r="R21" s="15" t="inlineStr">
+        <is>
+          <t>辉隆股份2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>农业(31)</t>
+          <t>农业(33)</t>
         </is>
       </c>
       <c r="B22" s="12" t="inlineStr">
@@ -8284,13 +8763,18 @@
       <c r="Q22" s="29" t="inlineStr">
         <is>
           <t>西上海</t>
+        </is>
+      </c>
+      <c r="R22" s="13" t="inlineStr">
+        <is>
+          <t>华业香料2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>电力(30)</t>
+          <t>体育产业(31)</t>
         </is>
       </c>
       <c r="B23" s="18" t="inlineStr">
@@ -8365,11 +8849,16 @@
           <t>迪生力</t>
         </is>
       </c>
+      <c r="R23" s="24" t="inlineStr">
+        <is>
+          <t>青木科技2</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>体育产业(29)</t>
+          <t>电力(30)</t>
         </is>
       </c>
       <c r="B24" s="15" t="inlineStr">
@@ -8448,6 +8937,7 @@
           <t>泉峰汽车</t>
         </is>
       </c>
+      <c r="R24" s="31" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8531,11 +9021,16 @@
           <t>新北洋</t>
         </is>
       </c>
+      <c r="R25" s="24" t="inlineStr">
+        <is>
+          <t>比依股份</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>新型材料(23)</t>
+          <t>新型材料(27)</t>
         </is>
       </c>
       <c r="B26" s="15" t="inlineStr">
@@ -8610,6 +9105,11 @@
           <t>合力科技</t>
         </is>
       </c>
+      <c r="R26" s="24" t="inlineStr">
+        <is>
+          <t>国星光电</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8697,11 +9197,16 @@
           <t>天际股份</t>
         </is>
       </c>
+      <c r="R27" s="15" t="inlineStr">
+        <is>
+          <t>格尔软件</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>华为概念(16)</t>
+          <t>华为概念(17)</t>
         </is>
       </c>
       <c r="B28" s="13" t="inlineStr">
@@ -8780,11 +9285,16 @@
           <t>江南新材</t>
         </is>
       </c>
+      <c r="R28" s="24" t="inlineStr">
+        <is>
+          <t>奥雅股份</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>金融(12)</t>
+          <t>金融(14)</t>
         </is>
       </c>
       <c r="B29" s="18" t="inlineStr">
@@ -8848,7 +9358,7 @@
           <t>福达合金</t>
         </is>
       </c>
-      <c r="O29" s="12" t="inlineStr">
+      <c r="O29" s="15" t="inlineStr">
         <is>
           <t>东信和平</t>
         </is>
@@ -8861,13 +9371,18 @@
       <c r="Q29" s="24" t="inlineStr">
         <is>
           <t>胜利精密</t>
+        </is>
+      </c>
+      <c r="R29" s="24" t="inlineStr">
+        <is>
+          <t>吉大正元</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>旅游(10)</t>
+          <t>旅游(12)</t>
         </is>
       </c>
       <c r="B30" s="13" t="inlineStr">
@@ -8945,16 +9460,21 @@
           <t>康惠制药</t>
         </is>
       </c>
-      <c r="Q30" s="12" t="inlineStr">
+      <c r="Q30" s="15" t="inlineStr">
         <is>
           <t>华阳新材</t>
+        </is>
+      </c>
+      <c r="R30" s="19" t="inlineStr">
+        <is>
+          <t>一心堂</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>小米概念(2)</t>
+          <t>小米概念(3)</t>
         </is>
       </c>
       <c r="B31" s="13" t="inlineStr">
@@ -9035,6 +9555,11 @@
       <c r="Q31" s="16" t="inlineStr">
         <is>
           <t>翔鹭钨业</t>
+        </is>
+      </c>
+      <c r="R31" s="13" t="inlineStr">
+        <is>
+          <t>巨人网络</t>
         </is>
       </c>
     </row>
@@ -9124,11 +9649,16 @@
           <t>欣锐科技</t>
         </is>
       </c>
+      <c r="R32" s="16" t="inlineStr">
+        <is>
+          <t>浙江仙通</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>业绩增长(103)</t>
+          <t>业绩增长(111)</t>
         </is>
       </c>
       <c r="B33" s="31" t="n"/>
@@ -9203,11 +9733,16 @@
           <t>金麒麟</t>
         </is>
       </c>
+      <c r="R33" s="17" t="inlineStr">
+        <is>
+          <t>新经典</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>扭亏为盈(46)</t>
+          <t>扭亏为盈(48)</t>
         </is>
       </c>
       <c r="B34" s="15" t="inlineStr">
@@ -9225,7 +9760,7 @@
           <t>银河电子</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
+      <c r="E34" s="15" t="inlineStr">
         <is>
           <t>格尔软件</t>
         </is>
@@ -9288,13 +9823,18 @@
       <c r="Q34" s="12" t="inlineStr">
         <is>
           <t>顺博合金</t>
+        </is>
+      </c>
+      <c r="R34" s="13" t="inlineStr">
+        <is>
+          <t>德艺文创</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>国企(218)</t>
+          <t>国企(230)</t>
         </is>
       </c>
       <c r="B35" s="14" t="inlineStr">
@@ -9375,6 +9915,11 @@
       <c r="Q35" s="16" t="inlineStr">
         <is>
           <t>宁波韵升</t>
+        </is>
+      </c>
+      <c r="R35" s="14" t="inlineStr">
+        <is>
+          <t>弘讯科技</t>
         </is>
       </c>
     </row>
@@ -9464,6 +10009,11 @@
           <t>青木科技</t>
         </is>
       </c>
+      <c r="R36" s="14" t="inlineStr">
+        <is>
+          <t>宁波东力</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9549,6 +10099,11 @@
       <c r="Q37" s="24" t="inlineStr">
         <is>
           <t>南天信息</t>
+        </is>
+      </c>
+      <c r="R37" s="17" t="inlineStr">
+        <is>
+          <t>高乐股份</t>
         </is>
       </c>
     </row>
@@ -9634,6 +10189,11 @@
           <t>同心传动</t>
         </is>
       </c>
+      <c r="R38" s="24" t="inlineStr">
+        <is>
+          <t>铭普光磁</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="B39" s="12" t="inlineStr">
@@ -9716,6 +10276,11 @@
           <t>通达电气</t>
         </is>
       </c>
+      <c r="R39" s="15" t="inlineStr">
+        <is>
+          <t>美邦股份</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="B40" s="12" t="inlineStr">
@@ -9798,6 +10363,11 @@
           <t>润贝航科</t>
         </is>
       </c>
+      <c r="R40" s="24" t="inlineStr">
+        <is>
+          <t>罗普特</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="13" t="inlineStr">
@@ -9880,6 +10450,11 @@
           <t>辉隆股份</t>
         </is>
       </c>
+      <c r="R41" s="18" t="inlineStr">
+        <is>
+          <t>融发核电</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="B42" s="19" t="inlineStr">
@@ -9962,6 +10537,11 @@
           <t>福瑞达</t>
         </is>
       </c>
+      <c r="R42" s="13" t="inlineStr">
+        <is>
+          <t>曲美家居</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="12" t="inlineStr">
@@ -10044,6 +10624,11 @@
           <t>阿科力</t>
         </is>
       </c>
+      <c r="R43" s="17" t="inlineStr">
+        <is>
+          <t>绿茵生态</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="29" t="inlineStr">
@@ -10121,6 +10706,11 @@
           <t>天安新材</t>
         </is>
       </c>
+      <c r="R44" s="15" t="inlineStr">
+        <is>
+          <t>东信和平</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="19" t="inlineStr">
@@ -10193,6 +10783,11 @@
           <t>正虹科技</t>
         </is>
       </c>
+      <c r="R45" s="24" t="inlineStr">
+        <is>
+          <t>恒银科技</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="17" t="inlineStr">
@@ -10265,6 +10860,11 @@
           <t>退市龙宇</t>
         </is>
       </c>
+      <c r="R46" s="12" t="inlineStr">
+        <is>
+          <t>兆日科技</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="17" t="inlineStr">
@@ -10332,6 +10932,11 @@
           <t>泰慕士</t>
         </is>
       </c>
+      <c r="R47" s="14" t="inlineStr">
+        <is>
+          <t>实丰文化</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="13" t="inlineStr">
@@ -10399,6 +11004,11 @@
           <t>润都股份</t>
         </is>
       </c>
+      <c r="R48" s="15" t="inlineStr">
+        <is>
+          <t>诺邦股份</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="17" t="inlineStr">
@@ -10461,6 +11071,11 @@
           <t>沙河股份</t>
         </is>
       </c>
+      <c r="R49" s="12" t="inlineStr">
+        <is>
+          <t>派林生物</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="B50" s="13" t="inlineStr">
@@ -10523,6 +11138,11 @@
           <t>华宏科技</t>
         </is>
       </c>
+      <c r="R50" s="14" t="inlineStr">
+        <is>
+          <t>英思特</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="15" t="inlineStr">
@@ -10585,6 +11205,11 @@
           <t>地素时尚</t>
         </is>
       </c>
+      <c r="R51" s="29" t="inlineStr">
+        <is>
+          <t>厦门信达</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="12" t="inlineStr">
@@ -10647,6 +11272,11 @@
           <t>哈尔斯</t>
         </is>
       </c>
+      <c r="R52" s="12" t="inlineStr">
+        <is>
+          <t>电子城</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="B53" s="16" t="inlineStr">
@@ -10709,6 +11339,11 @@
           <t>中坚科技</t>
         </is>
       </c>
+      <c r="R53" s="16" t="inlineStr">
+        <is>
+          <t>亚通精工</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="24" t="inlineStr">
@@ -10771,6 +11406,11 @@
           <t>电魂网络</t>
         </is>
       </c>
+      <c r="R54" s="17" t="inlineStr">
+        <is>
+          <t>柏星龙</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="B55" s="12" t="inlineStr">
@@ -10828,6 +11468,11 @@
           <t>利民股份</t>
         </is>
       </c>
+      <c r="R55" s="12" t="inlineStr">
+        <is>
+          <t>中央商场</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="13" t="inlineStr">
@@ -10880,6 +11525,11 @@
           <t>苏州龙杰</t>
         </is>
       </c>
+      <c r="R56" s="29" t="inlineStr">
+        <is>
+          <t>秦安股份</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="B57" s="14" t="inlineStr">
@@ -10932,6 +11582,11 @@
           <t>引力传媒</t>
         </is>
       </c>
+      <c r="R57" s="19" t="inlineStr">
+        <is>
+          <t>奥赛康</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="B58" s="17" t="inlineStr">
@@ -10979,6 +11634,11 @@
           <t>金龙羽</t>
         </is>
       </c>
+      <c r="R58" s="12" t="inlineStr">
+        <is>
+          <t>恒邦股份</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="B59" s="17" t="inlineStr">
@@ -11026,6 +11686,11 @@
           <t>中力股份</t>
         </is>
       </c>
+      <c r="R59" s="16" t="inlineStr">
+        <is>
+          <t>宏工科技</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="B60" s="12" t="inlineStr">
@@ -11068,6 +11733,11 @@
           <t>信隆健康</t>
         </is>
       </c>
+      <c r="R60" s="24" t="inlineStr">
+        <is>
+          <t>川网传媒</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="B61" s="13" t="inlineStr">
@@ -11110,6 +11780,11 @@
           <t>吉华集团</t>
         </is>
       </c>
+      <c r="R61" s="12" t="inlineStr">
+        <is>
+          <t>爱司凯</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="B62" s="15" t="inlineStr">
@@ -11152,6 +11827,11 @@
           <t>合锻智能</t>
         </is>
       </c>
+      <c r="R62" s="12" t="inlineStr">
+        <is>
+          <t>瑞达期货</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="B63" s="13" t="inlineStr">
@@ -11179,7 +11859,7 @@
           <t>香溢融通</t>
         </is>
       </c>
-      <c r="L63" s="12" t="inlineStr">
+      <c r="L63" s="15" t="inlineStr">
         <is>
           <t>诺邦股份</t>
         </is>
@@ -11192,6 +11872,11 @@
       <c r="O63" s="12" t="inlineStr">
         <is>
           <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="R63" s="12" t="inlineStr">
+        <is>
+          <t>安妮股份</t>
         </is>
       </c>
     </row>
@@ -11236,6 +11921,11 @@
           <t>双鹭药业</t>
         </is>
       </c>
+      <c r="R64" s="15" t="inlineStr">
+        <is>
+          <t>若羽臣</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="B65" s="14" t="inlineStr">
@@ -11278,6 +11968,11 @@
           <t>亚泰集团</t>
         </is>
       </c>
+      <c r="R65" s="24" t="inlineStr">
+        <is>
+          <t>拉芳家化</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="B66" s="14" t="inlineStr">
@@ -11320,6 +12015,11 @@
           <t>康力源</t>
         </is>
       </c>
+      <c r="R66" s="19" t="inlineStr">
+        <is>
+          <t>海思科</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="B67" s="24" t="inlineStr">
@@ -11406,7 +12106,7 @@
           <t>豪悦护理</t>
         </is>
       </c>
-      <c r="M69" s="15" t="inlineStr">
+      <c r="M69" s="29" t="inlineStr">
         <is>
           <t>厦门信达</t>
         </is>
@@ -11835,7 +12535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11878,11 +12578,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>海外盈利</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -11890,7 +12590,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>钛合金材料</t>
+          <t>柱状电池外壳</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -11898,7 +12598,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>食用菌</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -11906,7 +12606,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>培育钻石</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -11914,7 +12614,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>医美业务</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -11922,7 +12622,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>高端化、年轻化战略</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -11936,11 +12636,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>获赔4702万</t>
+          <t>超级百货</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -11948,7 +12648,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>柱状电池外壳</t>
+          <t>NHKC-1</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -11956,7 +12656,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -11964,7 +12664,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>天然矿泉水</t>
+          <t>控股股东重整</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -11972,7 +12672,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>线上女装</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -11980,7 +12680,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -11990,15 +12690,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>服装行业</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -12006,7 +12706,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NHKC-1</t>
+          <t>民营医院</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12014,7 +12714,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -12022,7 +12722,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>母婴产品</t>
+          <t>储能项目</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -12030,7 +12730,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>硝化棉</t>
+          <t>智慧水务</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -12038,7 +12738,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>商品混凝土</t>
+          <t>GLP-1</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -12048,7 +12748,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>涤纶</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -12056,7 +12756,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>高端成形机床</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -12064,7 +12764,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>民营医院</t>
+          <t>高压氧仓</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12072,7 +12772,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -12080,7 +12780,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>乳业、养殖业客户</t>
+          <t>薄荷醇</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -12088,7 +12788,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>现金分红</t>
+          <t>激光测量</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -12096,7 +12796,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>云网安融合</t>
+          <t>H酸产能不足</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -12106,7 +12806,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>涤纶</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12114,7 +12814,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>数字环卫</t>
+          <t>电动叉车</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -12122,7 +12822,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>高压氧仓</t>
+          <t>出售部分资产</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12130,7 +12830,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -12138,7 +12838,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SPD服务</t>
+          <t>草甘膦</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -12146,7 +12846,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>再生医学材料</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -12154,7 +12854,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>全球组网服务</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -12172,7 +12872,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海外盈利</t>
+          <t>课后服务</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -12180,7 +12880,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>出售部分资产</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12188,7 +12888,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -12196,7 +12896,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>光气资源</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -12204,7 +12904,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>道路运输</t>
+          <t>原料制剂一体化</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -12212,7 +12912,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>数字通信</t>
+          <t>马来西亚量产</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -12230,7 +12930,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>超级百货</t>
+          <t>股权变更</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -12238,7 +12938,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>报业传媒</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12246,7 +12946,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -12254,7 +12954,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>新材料蜡烛</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -12262,7 +12962,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>客运资源整合</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -12270,7 +12970,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>拟购鸿林矿业47%股权</t>
+          <t>储能材料</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -12288,7 +12988,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -12296,7 +12996,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>控股权变更</t>
+          <t>Web3.0技术</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12304,7 +13004,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>供货蜜雪冰城</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -12312,7 +13012,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NMN</t>
+          <t>募投项目投产</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -12320,7 +13020,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>股东权益变动</t>
+          <t>氧化铝靶材</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -12328,7 +13028,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>锂电复合铜箔</t>
+          <t>STSP-0601</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -12346,7 +13046,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>消费服务转型</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -12354,7 +13054,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>电动两轮车</t>
+          <t>防撞系统零部件</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12362,7 +13062,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -12370,7 +13070,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>草铵膦</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -12378,7 +13078,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>糖尿病用药</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -12386,7 +13086,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>车载背光源</t>
+          <t>优先审评</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -12404,7 +13104,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>电动叉车</t>
+          <t>H股上市</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -12412,7 +13112,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>职业培训</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12420,7 +13120,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>拟合资设立境外子公司</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -12428,7 +13128,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>控股股东重整</t>
+          <t>实控人此前变更</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -12436,7 +13136,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>大股东（银亿）重整</t>
+          <t>墨西哥产能建设</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -12444,7 +13144,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>此前曾拟购买石药百克100%股权</t>
+          <t>健康器材</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -12462,7 +13162,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>课后服务</t>
+          <t>啤酒概念</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -12470,7 +13170,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>海外产能布局</t>
+          <t>杯壶制造</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12478,7 +13178,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>EPS产品</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -12486,7 +13186,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>储能项目</t>
+          <t>分红派息</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -12494,7 +13194,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>煤机</t>
+          <t>环保再生纸</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -12502,7 +13202,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>汇金入主</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -12512,7 +13212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>虚拟电厂</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -12520,7 +13220,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>股权变更</t>
+          <t>人造草坪</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -12528,7 +13228,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>创新驱动</t>
+          <t>不锈钢保温器皿</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12536,7 +13236,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>光学镜头</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -12544,7 +13244,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>薄荷醇</t>
+          <t>子公司参股云针科技</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -12552,7 +13252,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>资产整合</t>
+          <t>高性能颜料</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -12560,7 +13260,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>证券</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -12570,15 +13270,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>蚂蚁数科合作</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -12586,7 +13286,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>铝合金轮毂</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12594,7 +13294,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -12602,7 +13302,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>草甘膦</t>
+          <t>智慧园林</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -12610,7 +13310,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>数字人应用</t>
+          <t>特高压中标</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -12618,7 +13318,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>流感药物</t>
+          <t>被海光信息换股吸收合并</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -12628,15 +13328,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>虚拟电厂</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大健康</t>
+          <t>数智科技业务</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -12644,7 +13344,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>北美市场</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12652,7 +13352,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>废气处理</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -12660,7 +13360,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>光气资源</t>
+          <t>工业模块</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -12668,7 +13368,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>医养结合</t>
+          <t>铁塔制造</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -12676,7 +13376,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>新店开业</t>
+          <t>脑科学</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -12686,7 +13386,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -12694,7 +13394,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>消费服务转型</t>
+          <t>拟收购国贸数科100%股权</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -12702,7 +13402,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>K胺</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12710,7 +13410,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -12718,7 +13418,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>新材料蜡烛</t>
+          <t>水果罐头龙头</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -12726,7 +13426,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>医美业务</t>
+          <t>收购阿法硅51%股权</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -12734,7 +13434,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>期货业务</t>
+          <t>SPD供应商</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -12744,7 +13444,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -12752,7 +13452,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>啤酒概念</t>
+          <t>中标项目</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -12760,7 +13460,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>收到参股公司分红</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12768,7 +13468,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>近期签大单</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -12776,7 +13476,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>募投项目投产</t>
+          <t>零食渠道拓展</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -12784,7 +13484,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>线上女装</t>
+          <t>液晶显示器</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -12792,7 +13492,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>K胺环评批复</t>
+          <t>烟气治理</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -12802,7 +13502,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>高股息</t>
+          <t>比亚迪概念</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -12810,7 +13510,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>人造草坪</t>
+          <t>海外业务</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -12818,7 +13518,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>消费行业</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12826,7 +13526,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -12834,7 +13534,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>草铵膦</t>
+          <t>深海装备</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -12842,7 +13542,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>智慧水务</t>
+          <t>铀矿资源</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -12850,7 +13550,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>中高端家具</t>
+          <t>海缆</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -12860,7 +13560,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -12868,7 +13568,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蚂蚁数科合作</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -12876,7 +13576,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>文创消费品</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12884,7 +13584,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -12892,7 +13592,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>实控人此前变更</t>
+          <t>毛利率提升</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -12900,7 +13600,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>激光测量</t>
+          <t>石材加工</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -12908,7 +13608,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>制剂一体化</t>
+          <t>行业资质</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -12918,7 +13618,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -12926,7 +13626,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中标项目</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -12934,7 +13634,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12942,7 +13642,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -12950,7 +13650,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>分红派息</t>
+          <t>扩产</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -12958,7 +13658,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>再生医学材料</t>
+          <t>茶饮</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -12966,7 +13666,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>消化药</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -12976,15 +13676,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>高标准农田建设</t>
+          <t>高股息</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海外业务</t>
+          <t>控股权变更</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -12992,7 +13692,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13000,7 +13700,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -13008,7 +13708,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>子公司参股云针科技</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -13016,7 +13716,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>原料制剂一体化</t>
+          <t>文远知行合作</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -13024,7 +13724,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>市场扩展</t>
+          <t>心脑血管注射剂</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -13034,15 +13734,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>聚氨酯材料</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>电动两轮车</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -13050,7 +13750,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>消费行业</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13058,7 +13758,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -13066,7 +13766,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>智慧园林</t>
+          <t>低温乳制品</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -13074,7 +13774,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>奶茶</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -13082,7 +13782,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>粉磨系统</t>
+          <t>锂电装备</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -13092,7 +13792,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>部分产品涨价</t>
+          <t>高标准农田建设</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -13100,7 +13800,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>职业培训</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -13108,7 +13808,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>文创消费品</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13116,7 +13816,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -13124,7 +13824,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>工业模块</t>
+          <t>鲜立方战略</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -13132,7 +13832,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>氧化铝靶材</t>
+          <t>即饮新品</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -13140,7 +13840,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>生态环境</t>
+          <t>人造草坪应用</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -13150,7 +13850,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>焊接材料</t>
+          <t>聚氨酯材料</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -13158,7 +13858,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>海外产能布局</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -13166,7 +13866,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>虚拟现实</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13174,7 +13874,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -13182,7 +13882,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>水果罐头龙头</t>
+          <t>高端护肤</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -13190,7 +13890,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>糖尿病用药</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -13198,7 +13898,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>绿色能源</t>
+          <t>打捆机</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -13208,7 +13908,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>胶粘解决方案</t>
+          <t>部分产品涨价</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -13216,7 +13916,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>创新驱动</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -13224,7 +13924,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13232,7 +13932,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -13240,7 +13940,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零食渠道拓展</t>
+          <t>SPA合作</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -13248,7 +13948,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>墨西哥产能建设</t>
+          <t>社区团购</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -13256,7 +13956,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>高端化、年轻化战略</t>
+          <t>内酯系列香料</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -13266,7 +13966,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>焊接材料</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13274,7 +13974,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -13282,7 +13982,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13290,7 +13990,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -13298,7 +13998,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>深海装备</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -13306,7 +14006,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>环保再生纸</t>
+          <t>分红</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -13314,7 +14014,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>专精特新</t>
+          <t>新型储能</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -13324,7 +14024,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>输配电设备</t>
+          <t>胶粘解决方案</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -13332,7 +14032,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -13340,7 +14040,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13348,7 +14048,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -13356,7 +14056,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>毛利率提升</t>
+          <t>重金属污染防治</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -13364,7 +14064,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>高性能颜料</t>
+          <t>中高端拓展</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -13372,7 +14072,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>顺价调整</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -13382,7 +14082,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>比亚迪概念</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -13390,7 +14090,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -13398,7 +14098,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13406,7 +14106,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -13414,7 +14114,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>扩产</t>
+          <t>人参全产业链</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -13422,7 +14122,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>特高压中标</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -13430,7 +14130,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>GLP-1</t>
+          <t>国际运输</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -13440,7 +14140,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>京东增持</t>
+          <t>输配电设备</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -13448,7 +14148,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -13456,7 +14156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>时装</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13464,7 +14164,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -13472,7 +14172,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>此前间接持股华大九天（已退出）</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -13480,7 +14180,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>铁塔制造</t>
+          <t>PVC弹性地板</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -13488,7 +14188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>H酸产能不足</t>
+          <t>集装箱运输</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -13498,7 +14198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>中成药</t>
+          <t>京东增持</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -13506,7 +14206,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>终止股权转让</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -13514,7 +14214,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>质价比战略</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13522,7 +14222,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -13530,7 +14230,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>低温乳制品</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -13538,7 +14238,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>收购阿法硅51%股权</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -13546,7 +14246,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>航线拓展</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -13556,7 +14256,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>中成药</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -13564,7 +14264,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -13572,7 +14272,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>参股迪洛斯10%股权</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -13580,7 +14280,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -13588,7 +14288,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>鲜立方战略</t>
+          <t>EDA行业</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -13596,7 +14296,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>液晶显示器</t>
+          <t>燕麦谷物</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -13604,7 +14304,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>马来西亚量产</t>
+          <t>动保</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -13614,7 +14314,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>产业园运营</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -13622,7 +14322,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>游戏</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -13630,7 +14330,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>电子纸</t>
+          <t>质价比战略</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -13638,7 +14338,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -13646,7 +14346,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>高端护肤</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -13654,7 +14354,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>铀矿资源</t>
+          <t>资源回收</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -13662,7 +14362,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>储能材料</t>
+          <t>脱敏要</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -13672,7 +14372,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Web3.0</t>
+          <t>产业园运营</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -13680,7 +14380,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -13688,7 +14388,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>参股迪洛斯10%股权</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -13696,7 +14396,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>高压快充</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -13704,7 +14404,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>SPA合作</t>
+          <t>注射液获临床试验批准</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -13712,7 +14412,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>石材加工</t>
+          <t>杯壶龙头</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -13720,7 +14420,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>STSP-0601</t>
+          <t>参股《长安的荔枝》出品方</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -13730,7 +14430,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>eSIM技术</t>
+          <t>Web3.0</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13738,7 +14438,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>英伟达概念</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -13746,7 +14446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>近期中标</t>
+          <t>电子纸</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -13754,7 +14454,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>高压快充</t>
+          <t>智能包装设备</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -13762,7 +14462,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>血友病治疗药物</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -13770,7 +14470,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>茶饮</t>
+          <t>木门</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -13778,7 +14478,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>优先审评</t>
+          <t>短剧（Reelshort旗下公司合作）</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -13788,7 +14488,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>超级电容器</t>
+          <t>eSIM技术</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13796,7 +14496,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新型烟草</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -13804,7 +14504,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>增持</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -13812,7 +14512,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>智能包装设备</t>
+          <t>显示器件</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -13820,7 +14520,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>重金属污染防治</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -13828,7 +14528,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>文远知行合作</t>
+          <t>适老化产品</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -13836,7 +14536,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>健康器材</t>
+          <t>Rokid合作</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -13846,7 +14546,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13854,7 +14554,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -13862,7 +14562,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>天然气液化加工</t>
+          <t>近期中标</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -13870,7 +14570,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>显示器件</t>
+          <t>越南产能释放</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -13878,7 +14578,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>人参全产业链</t>
+          <t>有色金属电解设备</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -13886,7 +14586,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>奶茶</t>
+          <t>香精</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -13894,7 +14594,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>汇金入主</t>
+          <t>商品贸易</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -13904,7 +14604,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>古法黄金</t>
+          <t>超级电容器</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13912,7 +14612,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>白银</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -13920,7 +14620,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>昂拉地韦片获批上市</t>
+          <t>增持</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -13928,7 +14628,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>越南产能释放</t>
+          <t>低空防御</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -13936,7 +14636,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>此前间接持股华大九天（已退出）</t>
+          <t>智能化转型</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -13944,7 +14644,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>即饮新品</t>
+          <t>沪上阿姨合作</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -13952,7 +14652,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>证券</t>
+          <t>无实控人</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -13962,7 +14662,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13970,15 +14670,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>泰国工厂投产</t>
+          <t>天然气液化加工</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -13986,7 +14686,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>低空防御</t>
+          <t>红外光电</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -13994,7 +14694,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>新质生产力</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -14002,7 +14702,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>储能投资</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -14010,7 +14710,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>被海光信息换股吸收合并</t>
+          <t>教育信息化</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -14020,23 +14720,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>期货经纪</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>与辉瑞订立许可协议</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>昂拉地韦片获批上市</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -14044,7 +14744,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>红外光电</t>
+          <t>印刷版材</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -14052,7 +14752,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>EDA行业</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -14060,7 +14760,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>社区团购</t>
+          <t>垃圾分类</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -14068,7 +14768,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>脑科学</t>
+          <t>MLCC上游材料</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -14078,23 +14778,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>风险管理</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>新型烟草</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>国际货代</t>
+          <t>泰国工厂投产</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -14102,7 +14802,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>印刷版材</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -14110,7 +14810,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>泰国工厂</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -14118,7 +14818,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>分红</t>
+          <t>微盘股</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -14126,7 +14826,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>SPD供应商</t>
+          <t>小粒径镍粉需求</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -14136,23 +14836,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>卡牌</t>
+          <t>古法黄金</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>拟购买海德利森100%股权</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>抗量子密码</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -14160,7 +14860,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>精装修</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -14168,7 +14868,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>注射液获临床试验批准</t>
+          <t>能源数字化</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -14176,7 +14876,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>中高端拓展</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -14184,7 +14884,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>烟气治理</t>
+          <t>收购扩展</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -14194,23 +14894,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>烟草</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>麦角硫因</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>细分市场龙头</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -14218,7 +14918,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>精装修</t>
+          <t>智慧口岸</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -14226,7 +14926,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>血友病治疗药物</t>
+          <t>聚合充电平台</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -14234,7 +14934,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>制冷技术</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -14242,7 +14942,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>海缆</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -14252,23 +14952,23 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>国际货代</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -14276,7 +14976,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>智慧口岸</t>
+          <t>音响</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -14284,7 +14984,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>战略投资</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -14292,7 +14992,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>PVC弹性地板</t>
+          <t>智能物联</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -14300,7 +15000,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>行业资质</t>
+          <t>钨矿资源</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -14310,15 +15010,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>此前收购中达金属60%股权</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -14326,7 +15026,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -14334,7 +15034,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>音响</t>
+          <t>瓶坯智能成型系统</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -14342,7 +15042,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>有色金属电解设备</t>
+          <t>车路云一体化</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -14350,7 +15050,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>玻璃基板</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -14358,7 +15058,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>有机颜料</t>
+          <t>金属铜</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -14368,15 +15068,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>低空资产注入猜想</t>
+          <t>与辉瑞订立许可协议</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -14384,7 +15084,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>细分市场龙头</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -14392,7 +15092,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>瓶坯智能成型系统</t>
+          <t>发布天工超级智能体</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -14400,7 +15100,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>智能化转型</t>
+          <t>煤炭设备</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -14408,7 +15108,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>宠物护理</t>
+          <t>有线电视</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -14416,7 +15116,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>心脑血管注射剂</t>
+          <t>车载电源</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -14426,7 +15126,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -14434,7 +15134,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -14442,7 +15142,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>药用酶</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -14450,7 +15150,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>发布天工超级智能体</t>
+          <t>化学药</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -14458,7 +15158,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>城乡污水处理</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -14466,7 +15166,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>燕麦谷物</t>
+          <t>紧固件龙头</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -14474,7 +15174,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>锂电装备</t>
+          <t>超充</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -14484,7 +15184,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -14492,7 +15192,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>拟购买海德利森100%股权</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -14500,7 +15200,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -14508,7 +15208,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>化学药</t>
+          <t>流感用药</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -14516,7 +15216,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>环保水处理</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -14524,7 +15224,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>资源回收</t>
+          <t>聚乙二醇</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -14532,7 +15232,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>人造草坪应用</t>
+          <t>再生铝</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -14542,7 +15242,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>卡牌</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -14550,7 +15250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>麦角硫因</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -14558,7 +15258,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -14566,7 +15266,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>流感用药</t>
+          <t>基因测序</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -14574,7 +15274,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>泰国工厂</t>
+          <t>退出润滑油业务</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -14582,7 +15282,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>杯壶龙头</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -14590,7 +15290,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>打捆机</t>
+          <t>铜基新材料</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -14600,7 +15300,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>智慧环卫</t>
+          <t>烟草</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -14608,7 +15308,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -14616,7 +15316,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>项目中标</t>
+          <t>药用酶</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -14624,7 +15324,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>基因测序</t>
+          <t>出生缺陷预防</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -14632,7 +15332,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>能源数字化</t>
+          <t>可信身份技术</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -14640,7 +15340,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>木门</t>
+          <t>门店扩张</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -14648,7 +15348,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>内酯系列香料</t>
+          <t>聚醚胺</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -14658,7 +15358,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>精酿啤酒</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -14666,7 +15366,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>拟收购英迪芯微控股权</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -14674,7 +15374,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -14682,7 +15382,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>出生缺陷预防</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -14690,7 +15390,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>聚合充电平台</t>
+          <t>综合能源服务</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -14698,7 +15398,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>适老化产品</t>
+          <t>高铁</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -14706,7 +15406,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>新型储能</t>
+          <t>COC</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -14716,7 +15416,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>回购注销</t>
+          <t>此前收购中达金属60%股权</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -14724,7 +15424,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>低空资产注入猜想</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -14732,7 +15432,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>电子级玻璃纤维</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -14740,7 +15440,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -14748,7 +15448,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>战略投资</t>
+          <t>钢丝</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -14756,7 +15456,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>香精</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -14764,7 +15464,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>顺价调整</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -14774,7 +15474,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>大健康消费品</t>
+          <t>复合集流体</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -14782,7 +15482,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -14790,7 +15490,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>覆铜板上游</t>
+          <t>项目中标</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -14798,7 +15498,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>次新</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -14806,7 +15506,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>车路云一体化</t>
+          <t>光纤</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -14814,7 +15514,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>沪上阿姨合作</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -14822,7 +15522,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>国际运输</t>
+          <t>此前转让子公司股权</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -14832,7 +15532,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>水溶肥料</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -14840,7 +15540,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -14848,7 +15548,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>阿里云合作</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -14856,7 +15556,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>次新</t>
+          <t>餐饮具</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -14864,7 +15564,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>煤炭设备</t>
+          <t>物联网解决方案</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -14872,7 +15572,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>储能投资</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -14880,7 +15580,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>集装箱运输</t>
+          <t>针织服装</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -14890,7 +15590,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -14898,7 +15598,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -14906,7 +15606,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>节能服务</t>
+          <t>电子级玻璃纤维</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -14914,7 +15614,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>餐饮具</t>
+          <t>环保包装</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -14922,7 +15622,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>城乡污水处理</t>
+          <t>量子安全通信</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -14930,7 +15630,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>垃圾分类</t>
+          <t>雄安新区</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -14938,7 +15638,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>航线拓展</t>
+          <t>安踏合作</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -14948,7 +15648,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>杀虫剂</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -14956,7 +15656,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -14964,7 +15664,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>覆铜板上游</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -14972,7 +15672,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>环保包装</t>
+          <t>PBO单体</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -14980,7 +15680,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>环保水处理</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -14988,7 +15688,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>微盘股</t>
+          <t>新设矿业公司</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -14996,7 +15696,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>动保</t>
+          <t>三胎</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -15006,7 +15706,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>智慧环卫</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -15014,7 +15714,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>低空防御系统</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -15022,7 +15722,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>轮胎</t>
+          <t>阿里云合作</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -15030,7 +15730,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PBO单体</t>
+          <t>染发剂原料</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -15038,7 +15738,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>退出润滑油业务</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -15046,7 +15746,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -15054,7 +15754,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>脱敏要</t>
+          <t>国际化</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -15064,7 +15764,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>精酿啤酒</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -15072,7 +15772,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CDMO业务扩展</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -15080,7 +15780,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>节能服务</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -15088,7 +15788,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>染发剂原料</t>
+          <t>专精特新小巨人</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -15096,7 +15796,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>可信身份技术</t>
+          <t>蓝宝石</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -15104,7 +15804,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>高分红</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -15112,7 +15812,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>参股《长安的荔枝》出品方</t>
+          <t>胶原蛋白研发</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -15122,7 +15822,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>氯虫苯甲酰胺中间体</t>
+          <t>回购注销</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -15130,7 +15830,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>集采中标</t>
+          <t>拟收购英迪芯微控股权</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -15138,7 +15838,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>盐湖提锂</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -15146,7 +15846,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>抗量子密码</t>
+          <t>LCP重庆基地投产</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -15154,7 +15854,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>综合能源服务</t>
+          <t>文生视频</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -15162,7 +15862,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>制冷技术</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -15170,7 +15870,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>短剧（Reelshort旗下公司合作）</t>
+          <t>女装</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -15180,7 +15880,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>出版</t>
+          <t>大健康消费品</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -15188,7 +15888,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>染料价格回暖</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -15196,7 +15896,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>轮胎</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -15204,7 +15904,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>专精特新小巨人</t>
+          <t>左旋对羟基苯甘氨酸系列</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -15212,7 +15912,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>钢丝</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -15220,7 +15920,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>智能物联</t>
+          <t>军用检测</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -15228,7 +15928,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Rokid合作</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -15238,7 +15938,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>细胞免疫治疗</t>
+          <t>水溶肥料</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -15246,7 +15946,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>输电铁塔</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -15254,7 +15954,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -15262,7 +15962,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>LCP重庆基地投产</t>
+          <t>研发投入增长</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -15270,7 +15970,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>光纤</t>
+          <t>自身免疫性疾病</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -15278,7 +15978,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>玻璃基板</t>
+          <t>季报亏损收窄</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -15286,7 +15986,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>商品贸易</t>
+          <t>中证1000调入</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -15296,7 +15996,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>交通数字化服务</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -15304,7 +16004,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>高效换热器</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -15312,7 +16012,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>盐湖提锂</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -15320,7 +16020,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>左旋对羟基苯甘氨酸系列</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -15328,7 +16028,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>物联网解决方案</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -15336,7 +16036,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>有线电视</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -15344,7 +16044,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>无实控人</t>
+          <t>俄罗斯市场</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -15354,7 +16054,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>杀虫剂</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -15362,7 +16062,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>订单充足</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -15370,7 +16070,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>环保</t>
+          <t>宠物护理</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -15378,7 +16078,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>研发投入增长</t>
+          <t>问界</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -15386,7 +16086,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>量子安全通信</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -15394,7 +16094,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>紧固件龙头</t>
+          <t>模型服务</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -15402,7 +16102,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>教育信息化</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -15412,7 +16112,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -15420,7 +16120,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -15428,7 +16128,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>战略合作</t>
+          <t>高分红</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -15436,7 +16136,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>行星滚柱丝杠</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -15444,7 +16144,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>数字营销</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -15452,7 +16152,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>聚乙二醇</t>
+          <t>与海光信息达成战略合作</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -15460,7 +16160,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MLCC上游材料</t>
+          <t>LED封装</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -15470,7 +16170,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>期货经纪</t>
+          <t>氯虫苯甲酰胺中间体</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -15478,7 +16178,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝莓产业链</t>
+          <t>低空防御系统</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -15486,15 +16186,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>石英制品</t>
+          <t>有色金属</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>问界</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -15502,7 +16202,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>智慧停车</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -15510,7 +16210,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -15518,7 +16218,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>小粒径镍粉需求</t>
+          <t>内容运营</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -15528,7 +16228,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>风险管理</t>
+          <t>出版</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -15536,7 +16236,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>CDMO业务扩展</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -15544,15 +16244,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>中高端家具</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>行星滚柱丝杠</t>
+          <t>电子身份证</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -15560,7 +16260,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>蓝宝石</t>
+          <t>蚂蚁金服概念</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -15568,7 +16268,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>门店扩张</t>
+          <t>印制电路板</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -15576,7 +16276,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>防撞系统零部件</t>
+          <t>文创家居用品</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -15586,7 +16286,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>重大合同</t>
+          <t>细胞免疫治疗</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -15594,7 +16294,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>氟氯虫双酰胺</t>
+          <t>集采中标</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -15602,15 +16302,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>宠物用品</t>
+          <t>专精特新</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>中科院控股</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -15618,7 +16318,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>文生视频</t>
+          <t>EDA</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -15626,7 +16326,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>高铁</t>
+          <t>智慧供热</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -15634,7 +16334,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>收购扩展</t>
+          <t>工业互联网</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -15644,7 +16344,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>磷酸铁锂</t>
+          <t>交通数字化服务</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -15652,7 +16352,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>平消片获再注册批件</t>
+          <t>染料价格回暖</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -15660,15 +16360,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>环保</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>电子身份证</t>
+          <t>数字教育云</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -15676,7 +16376,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>晶圆级测试设备</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -15684,7 +16384,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>碳中和概念</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -15692,7 +16392,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>铝合金轮毂</t>
+          <t>减速机</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -15702,7 +16402,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>信息智能传输</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -15710,7 +16410,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>城市服务运营商</t>
+          <t>输电铁塔</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -15718,15 +16418,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>战略合作</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>中科院控股</t>
+          <t>OLED</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -15734,7 +16434,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>自身免疫性疾病</t>
+          <t>国家大基金持股</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -15742,7 +16442,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -15750,7 +16450,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>户外储能</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -15760,7 +16460,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>通信网络维护</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -15768,7 +16468,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>高效换热器</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -15776,15 +16476,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>量子科技</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>数字教育云</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -15792,7 +16492,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>参股券商（拟转让）</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -15800,7 +16500,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>价格回暖</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -15808,7 +16508,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>原药一体化</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -15818,7 +16518,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>存储</t>
+          <t>大健康</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -15826,7 +16526,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>氯氰菊酯</t>
+          <t>订单充足</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -15834,7 +16534,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>石英制品</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -15842,7 +16542,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>OLED</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -15850,7 +16550,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>高分子发泡材料</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -15858,7 +16558,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>雄安新区</t>
+          <t>广电网络服务</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -15866,7 +16566,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>高研发投入</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -15876,7 +16576,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>重大合同</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -15884,7 +16584,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>智慧矿山</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -15892,7 +16592,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -15900,7 +16600,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>啤酒</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -15908,7 +16608,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>数字营销</t>
+          <t>橡胶V带</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -15916,7 +16616,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>新设矿业公司</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -15924,7 +16624,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>钨矿资源</t>
+          <t>股权激励</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -15934,7 +16634,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>越南投资</t>
+          <t>磷酸铁锂</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -15942,7 +16642,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>实控人中电科</t>
+          <t>蓝莓产业链</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -15950,7 +16650,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>辉瑞合作</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -15958,7 +16658,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -15966,7 +16666,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>智慧停车</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -15974,7 +16674,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>万豪合作（云服务）</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -15982,7 +16682,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>金属铜</t>
+          <t>纸纹防伪应用</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -15992,7 +16692,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>信息智能传输</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -16000,7 +16700,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蚂蚁合作</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -16008,7 +16708,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>双特异性抗体</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -16016,7 +16716,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>啤酒</t>
+          <t>数字会议</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -16024,7 +16724,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>蚂蚁金服概念</t>
+          <t>功能性硅烷</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -16032,7 +16732,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -16040,7 +16740,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>车载电源</t>
+          <t>生态修复</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -16050,7 +16750,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>通信网络维护</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -16058,7 +16758,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>高速视觉</t>
+          <t>氟氯虫双酰胺</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -16066,7 +16766,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>全球化战略</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -16074,7 +16774,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>改性塑料</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -16082,7 +16782,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>EDA</t>
+          <t>橡胶制品</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -16090,7 +16790,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>碳酸锂项目</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -16098,7 +16798,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>超充</t>
+          <t>量子计算</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -16108,7 +16808,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>重整</t>
+          <t>存储</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -16116,7 +16816,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>钢结构工程</t>
+          <t>平消片获再注册批件</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -16124,7 +16824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>醋酸纤维素</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -16132,7 +16832,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>数字会议</t>
+          <t>下游应用广泛</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -16140,7 +16840,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>晶圆级测试设备</t>
+          <t>长三角布局</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -16148,7 +16848,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>军用检测</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -16156,7 +16856,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>再生铝</t>
+          <t>REITs</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -16166,7 +16866,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -16174,7 +16874,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>智能环卫装备</t>
+          <t>城市服务运营商</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -16182,7 +16882,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>激光防伪包装材料</t>
+          <t>辉瑞合作</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -16190,7 +16890,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>改性塑料</t>
+          <t>与中科信控科技签署战略合作协议</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -16198,7 +16898,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>国家大基金持股</t>
+          <t>童装</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -16206,7 +16906,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>季报亏损收窄</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -16214,7 +16914,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>铜基新材料</t>
+          <t>中华老字号</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -16224,7 +16924,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>越南投资</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -16232,7 +16932,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>滑动轴承行业龙头</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -16240,7 +16940,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>输电线路铁塔</t>
+          <t>双特异性抗体</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -16248,7 +16948,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>下游应用广泛</t>
+          <t>生物质热电</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -16256,7 +16956,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>参股券商（拟转让）</t>
+          <t>毛毯龙头</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -16264,7 +16964,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>铝加工</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -16272,7 +16972,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>K胺</t>
+          <t>注射用德拉沙星</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -16282,15 +16982,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>重整</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>公共物业服务</t>
+          <t>氯氰菊酯</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -16298,7 +16998,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>热能动力</t>
+          <t>全球化战略</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -16306,7 +17006,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>与中科信控科技签署战略合作协议</t>
+          <t>智能保管</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -16314,7 +17014,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>高分子发泡材料</t>
+          <t>一季度增长</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -16322,7 +17022,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>模型服务</t>
+          <t>一季报营收增长</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -16330,7 +17030,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>收到参股公司分红</t>
+          <t>万国升值</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -16340,7 +17040,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -16348,7 +17048,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>人工影响天气</t>
+          <t>智慧矿山</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -16356,7 +17056,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>大健康板块</t>
+          <t>醋酸纤维素</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -16364,7 +17064,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>生物质热电</t>
+          <t>ISP</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -16372,7 +17072,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>橡胶V带</t>
+          <t>环境治理</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -16380,7 +17080,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>与海光信息达成战略合作</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -16388,7 +17088,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>聚醚胺</t>
+          <t>广告资源</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -16398,7 +17098,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -16406,7 +17106,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>实控人中电科</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -16414,7 +17114,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>亏损收窄</t>
+          <t>激光防伪包装材料</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -16422,7 +17122,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>智能保管</t>
+          <t>安防</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -16430,7 +17130,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>葡萄酒</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -16438,7 +17138,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -16446,7 +17146,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>COC</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -16456,7 +17156,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -16464,7 +17164,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>做市业务</t>
+          <t>蚂蚁合作</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -16472,7 +17172,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>输电线路铁塔</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -16480,7 +17180,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -16488,7 +17188,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>功能性硅烷</t>
+          <t>物管</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -16496,7 +17196,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>印制电路板</t>
+          <t>商品混凝土</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -16504,7 +17204,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>彩票印制</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -16514,7 +17214,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -16522,7 +17222,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>高速视觉</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -16530,7 +17230,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>热能动力</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -16538,7 +17238,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>安防</t>
+          <t>数字政府</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -16546,7 +17246,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>轻资产转型</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -16554,7 +17254,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>智慧供热</t>
+          <t>云网安融合</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -16562,7 +17262,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>此前转让子公司股权</t>
+          <t>RFID综合解决方案</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -16572,7 +17272,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -16580,7 +17280,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>铜</t>
+          <t>钢结构工程</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -16588,7 +17288,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>《长安的荔枝》热播</t>
+          <t>大健康板块</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -16596,7 +17296,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>云视频</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -16604,7 +17304,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>长三角布局</t>
+          <t>生态环保</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -16612,7 +17312,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>碳中和概念</t>
+          <t>全球组网服务</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -16620,7 +17320,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>针织服装</t>
+          <t>或迎国药集团入主</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -16630,7 +17330,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -16638,7 +17338,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>H股发行</t>
+          <t>智能环卫装备</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -16646,7 +17346,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>报业传媒</t>
+          <t>亏损收窄</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -16654,7 +17354,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>数字政府</t>
+          <t>Sora概念</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -16662,7 +17362,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>童装</t>
+          <t>生猪养殖</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -16670,7 +17370,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>数字通信</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -16678,7 +17378,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>安踏合作</t>
+          <t>血液制品</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -16688,7 +17388,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>收购醋纤公司67%股权</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -16696,7 +17396,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>量贩渠道增长</t>
+          <t>滑动轴承行业龙头</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -16704,7 +17404,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Web3.0技术</t>
+          <t>移动支付</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -16712,7 +17412,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>云视频</t>
+          <t>假发</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -16720,7 +17420,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>毛毯龙头</t>
+          <t>禽肉加工</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -16728,7 +17428,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>价格回暖</t>
+          <t>拟购鸿林矿业47%股权</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -16736,7 +17436,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>三胎</t>
+          <t>矿山设备</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -16746,7 +17446,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -16754,7 +17454,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>H股上市</t>
+          <t>公共物业服务</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -16762,7 +17462,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>拟收购尚阳通</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -16770,7 +17470,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Sora概念</t>
+          <t>智能车载</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -16778,7 +17478,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>一季度增长</t>
+          <t>预制菜概念</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -16786,7 +17486,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>广电网络服务</t>
+          <t>锂电复合铜箔</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -16794,7 +17494,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>国际化</t>
+          <t>智慧工厂</t>
         </is>
       </c>
       <c r="N86" t="n">
@@ -16804,7 +17504,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>传感器</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -16812,7 +17512,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>人工影响天气</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -16820,7 +17520,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>资产注入猜测</t>
+          <t>《长安的荔枝》热播</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -16828,7 +17528,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>假发</t>
+          <t>客户优势</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -16836,7 +17536,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -16844,7 +17544,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>车载背光源</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -16852,7 +17552,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>胶原蛋白研发</t>
+          <t>创意设计</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -16862,7 +17562,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>下游运用广泛</t>
+          <t>传感器</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -16870,7 +17570,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>智慧路灯</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -16878,7 +17578,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>业务拓展</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -16886,7 +17586,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>智能车载</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -16894,7 +17594,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>葡萄酒</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -16902,7 +17602,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>万豪合作（云服务）</t>
+          <t>此前曾拟购买石药百克100%股权</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -16910,7 +17610,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>女装</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -16920,7 +17620,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>小型堆核岛主设备关键装备制造</t>
+          <t>下游运用广泛</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -16928,7 +17628,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>房屋检测</t>
+          <t>做市业务</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -16936,7 +17636,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>纸质包装</t>
+          <t>烟草概念</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -16944,7 +17644,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>客户优势</t>
+          <t>质子治疗系统</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -16952,7 +17652,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>物管</t>
+          <t>硝化棉</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -16960,7 +17660,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>贵金属</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -16968,7 +17668,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>杯壶制造</t>
+          <t>工业化打印</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -16978,7 +17678,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>小型堆核岛主设备关键装备制造</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -16986,7 +17686,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>阻燃剂</t>
+          <t>钨</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -16994,7 +17694,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -17002,7 +17702,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>工业空调</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -17010,7 +17710,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>轻资产转型</t>
+          <t>现金分红</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -17018,7 +17718,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>碳酸锂项目</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -17026,7 +17726,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>不锈钢保温器皿</t>
+          <t>混合动力总成</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -17036,7 +17736,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -17044,7 +17744,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>数智科技业务</t>
+          <t>铜</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -17052,7 +17752,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -17060,7 +17760,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>质子治疗系统</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -17068,7 +17768,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>生态环保</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -17076,7 +17776,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>流感药物</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -17084,7 +17784,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>财报稳健</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -17094,7 +17794,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -17102,7 +17802,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>拟收购国贸数科100%股权</t>
+          <t>H股发行</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -17110,7 +17810,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>资产注入猜测</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -17118,7 +17818,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>工业空调</t>
+          <t>超硬材料</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -17126,7 +17826,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>生猪养殖</t>
+          <t>道路运输</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -17134,7 +17834,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>新店开业</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -17142,7 +17842,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>中证1000调入</t>
+          <t>抗癌新药受理</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -17152,7 +17852,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -17160,7 +17860,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>配电设备</t>
+          <t>量贩渠道增长</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -17168,7 +17868,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>此前进行重大资产购买</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -17176,7 +17876,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>培育钻石</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -17184,7 +17884,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>禽肉加工</t>
+          <t>客运资源整合</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -17192,7 +17892,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>铝加工</t>
+          <t>期货业务</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -17200,7 +17900,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>俄罗斯市场</t>
+          <t>镇痛新药上市</t>
         </is>
       </c>
       <c r="N93" t="n">
@@ -17210,7 +17910,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>海外订单增长</t>
+          <t>金属包装产品</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -17218,7 +17918,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -17226,42 +17926,350 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>纸质包装</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>天然矿泉水</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>股东权益变动</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>K胺环评批复</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>一季报改善</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>海外订单增长</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>智慧路灯</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>控股股东为长江产业集团</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>母婴产品</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>卫浴产品</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>制剂一体化</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>量子安全</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>高分子材料防老化助剂</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>房屋检测</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MiniLED</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>乳业、养殖业客户</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>大股东（银亿）重整</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>消化药</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>获赔4702万</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>阻燃剂</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>婴幼儿奶粉</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>SPD服务</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>煤机</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>市场扩展</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>服装行业</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>配电设备</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>受让控股子公司少数股东部分股权</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>运动营养</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>资产整合</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>粉磨系统</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>高端成形机床</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>油服工程</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>儿童药</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>超硬材料</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>预制菜概念</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>一季报营收增长</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>玉米油</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>数字人应用</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>生态环境</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>数字环卫</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>钛合金材料</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>NMN</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>医养结合</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>绿色能源</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17315,7 +18323,7 @@
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -17325,7 +18333,7 @@
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -17335,7 +18343,7 @@
         </is>
       </c>
       <c r="B5" s="37" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -17345,7 +18353,7 @@
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -17355,37 +18363,37 @@
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="inlineStr">
         <is>
-          <t>核聚变</t>
+          <t>AI大模型</t>
         </is>
       </c>
       <c r="B8" s="37" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="45" t="inlineStr">
         <is>
-          <t>AI大模型</t>
+          <t>新消费</t>
         </is>
       </c>
       <c r="B9" s="37" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="46" t="inlineStr">
         <is>
-          <t>新消费</t>
+          <t>核聚变</t>
         </is>
       </c>
       <c r="B10" s="37" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -17395,7 +18403,7 @@
         </is>
       </c>
       <c r="B11" s="37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -17413,7 +18421,7 @@
         </is>
       </c>
       <c r="B13" s="37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -17423,7 +18431,7 @@
         </is>
       </c>
       <c r="B14" s="37" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -17433,7 +18441,7 @@
         </is>
       </c>
       <c r="B15" s="37" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -17443,7 +18451,7 @@
         </is>
       </c>
       <c r="B16" s="37" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -17453,23 +18461,23 @@
         </is>
       </c>
       <c r="B17" s="37" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>AI算力</t>
         </is>
       </c>
       <c r="B18" s="37" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="inlineStr">
         <is>
-          <t>AI算力</t>
+          <t>半导体</t>
         </is>
       </c>
       <c r="B19" s="37" t="n">
@@ -17493,7 +18501,7 @@
         </is>
       </c>
       <c r="B21" s="37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -17503,27 +18511,27 @@
         </is>
       </c>
       <c r="B22" s="37" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="37" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="B23" s="37" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="37" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B24" s="37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -17543,7 +18551,7 @@
         </is>
       </c>
       <c r="B26" s="37" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -17563,7 +18571,7 @@
         </is>
       </c>
       <c r="B28" s="37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -17573,7 +18581,7 @@
         </is>
       </c>
       <c r="B29" s="37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -17583,7 +18591,7 @@
         </is>
       </c>
       <c r="B30" s="37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -17593,7 +18601,7 @@
         </is>
       </c>
       <c r="B31" s="37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -17611,7 +18619,7 @@
         </is>
       </c>
       <c r="B33" s="37" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -17621,7 +18629,7 @@
         </is>
       </c>
       <c r="B34" s="37" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -17631,7 +18639,7 @@
         </is>
       </c>
       <c r="B35" s="37" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -235,13 +235,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -447,6 +447,12 @@
 控制权变更+糖尿病首仿药+年报增长</t>
       </text>
     </comment>
+    <comment ref="S4" authorId="0" shapeId="0">
+      <text>
+        <t>11天7板 14:53:30 0
+泡泡玛特合作+IP文创+数字文创资产+Web3.0技术</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">地天板+涤纶+化学纤维+一季报增长 13:43:52 0
@@ -549,6 +555,12 @@
 泡泡玛特合作+IP文创+数字文创资产+Web3.0技术</t>
       </text>
     </comment>
+    <comment ref="S5" authorId="0" shapeId="0">
+      <text>
+        <t>9天6板 11:25:03 2
+蚂蚁数科合作+储能+超级电容器+摘帽</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:25:00 0
@@ -651,6 +663,12 @@
 期货经纪+风险管理+H股上市+股份回购</t>
       </text>
     </comment>
+    <comment ref="S6" authorId="0" shapeId="0">
+      <text>
+        <t>5天5板 09:25:03 0
+稀土永磁+机器人+央企</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:30:54 1
@@ -753,6 +771,12 @@
 稀土永磁+机器人+央企</t>
       </text>
     </comment>
+    <comment ref="S7" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:02 0
+汽车零部件+轻量化+比亚迪概念</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>6天4板 09:35:46 24
@@ -855,6 +879,12 @@
 AI营销+体育产业+报业传媒+广州国企</t>
       </text>
     </comment>
+    <comment ref="S8" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:40:08 9
+贵金属回收+稀土永磁+一季报同比扭亏+山西国资</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:57:30 0
@@ -957,6 +987,12 @@
 中药+创新驱动+控制权变更</t>
       </text>
     </comment>
+    <comment ref="S9" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:41:42 0
+IP经济+泡泡玛特合作+杯壶制造+不锈钢保温器皿</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1059,6 +1095,12 @@
 电动两轮车+职业培训+海外产能布局</t>
       </text>
     </comment>
+    <comment ref="S10" authorId="0" shapeId="0">
+      <text>
+        <t>5天3板 13:58:51 0
+养老+三胎概念+民营医院+高压氧仓</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1161,6 +1203,12 @@
 保健品+宠物经济+控股权变更</t>
       </text>
     </comment>
+    <comment ref="S11" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+区块链+RFID+扭亏为盈</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 11
@@ -1263,6 +1311,12 @@
 南京旅游+低空经济+国企</t>
       </text>
     </comment>
+    <comment ref="S12" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:21 8
+蚂蚁金服概念+密码技术+量子安全</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 1
@@ -1467,6 +1521,12 @@
 防撞系统零部件+汽车零部件+比亚迪概念</t>
       </text>
     </comment>
+    <comment ref="S14" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 0
+油服工程+国企改革+定增计划+订单增长</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:38:21 1
@@ -1569,6 +1629,12 @@
 稀土永磁+贵金属回收+山西国资+一季报同比扭亏</t>
       </text>
     </comment>
+    <comment ref="S15" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 0
+蚂蚁金服概念+光伏RWA+虚拟电厂+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1671,6 +1737,12 @@
 IP经济+泡泡玛特合作+杯壶制造+不锈钢保温器皿</t>
       </text>
     </comment>
+    <comment ref="S16" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 6
+油气开发+射孔技术+CCUS业务</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1767,6 +1839,12 @@
 汽车零部件+汽车物流+新能源汽车+业务拓展</t>
       </text>
     </comment>
+    <comment ref="S17" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 1
+古法黄金+三胎概念</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:02 0
@@ -1869,6 +1947,12 @@
 铝合金轮毂+北美市场+锂电池回收</t>
       </text>
     </comment>
+    <comment ref="S18" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:25:00 8
+油气勘探开发+哈萨克斯坦投资</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -1959,6 +2043,12 @@
 一体化压铸+汽车关键零部件+海外拓展</t>
       </text>
     </comment>
+    <comment ref="S19" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:00 1
+油气勘探开发+加拿大油气权益+页岩气</t>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -2043,6 +2133,12 @@
 稀土永磁+人形机器人+新能源汽车</t>
       </text>
     </comment>
+    <comment ref="S20" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:00 12
+纯碱+溴素+并购重组预期+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -2145,6 +2241,12 @@
 K胺+收到参股公司分红+农业综合服务+供销社</t>
       </text>
     </comment>
+    <comment ref="S21" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:20 1
+激光加工+3D打印+Q1业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:02 6
@@ -2247,6 +2349,12 @@
 烟草概念+香料+一季报增长+外销</t>
       </text>
     </comment>
+    <comment ref="S22" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:20 3
+油气勘探开发+对外投资+一带一路</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:15 0
@@ -2337,6 +2445,12 @@
 泡泡玛特代运营服务商+电商+AI智能体</t>
       </text>
     </comment>
+    <comment ref="S23" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:23 7
+资产收购+黄金+国企</t>
+      </text>
+    </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:30 4
@@ -2427,6 +2541,12 @@
 一体化压铸+汽车关键零部件+海外拓展</t>
       </text>
     </comment>
+    <comment ref="S24" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:39 1
+汽车零部件+项目定点+智能激光除草</t>
+      </text>
+    </comment>
     <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:31:20 1
@@ -2523,6 +2643,12 @@
 AI眼镜+小家电+小米概念+创投</t>
       </text>
     </comment>
+    <comment ref="S25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:03 1
+航运概念+沿海及长江航运</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:35:01 2
@@ -2613,6 +2739,12 @@
 AI眼镜+LED封装+国企</t>
       </text>
     </comment>
+    <comment ref="S26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:30 3
+创新药+药用酶+净利润增长</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:39:55 1
@@ -2715,6 +2847,12 @@
 抗量子密码+军工+专精特新</t>
       </text>
     </comment>
+    <comment ref="S27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:54 1
+煤化工+一季报增长+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:46:06 4
@@ -2811,6 +2949,12 @@
 IP经济+城市更新+AI赋能</t>
       </text>
     </comment>
+    <comment ref="S28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:39:25 0
+油气工程+核电工程+可转债获批</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:48:04 0
@@ -2907,6 +3051,12 @@
 量子安全+信创+AI密码</t>
       </text>
     </comment>
+    <comment ref="S29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:39:51 0
+中东贸易+专网通信+量子科技+近期中标</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:00:51 1
@@ -3009,6 +3159,12 @@
 医药零售+养老概念+新零售+中药</t>
       </text>
     </comment>
+    <comment ref="S30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:42:06 0
+电力+抽水蓄能+国企+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>2天2板 13:18:24 0
@@ -3111,6 +3267,12 @@
 游戏出海+AI游戏</t>
       </text>
     </comment>
+    <comment ref="S31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:45:49 4
+天然气+区域供热龙头</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>2天2板 14:31:30 0
@@ -3213,6 +3375,12 @@
 新能源汽车+一季报增长+国企改革</t>
       </text>
     </comment>
+    <comment ref="S32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:54:00 0
+加油站+超快充业务+华为合作+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:12 6
@@ -3303,6 +3471,12 @@
 IP经济+高分红+内容运营</t>
       </text>
     </comment>
+    <comment ref="S33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:03:33 1
+油气设备+页岩气概念+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">首板涨停 09:25:00 0
@@ -3405,6 +3579,12 @@
 IP经济+文创家居用品+跨境电商</t>
       </text>
     </comment>
+    <comment ref="S34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:10:34 1
+资源开发+大中型电机+一季报扭亏</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:25:00 0
@@ -3507,6 +3687,12 @@
 核聚变电源+机器人+工业互联网</t>
       </text>
     </comment>
+    <comment ref="S35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:12:12 0
+锶盐全产业链+小金属+国企</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:28 1
@@ -3609,6 +3795,12 @@
 机器人减速器+减速机</t>
       </text>
     </comment>
+    <comment ref="S36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:13:12 0
+油气装备+能源装备+海外市场拓展</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:18 0
@@ -3711,6 +3903,12 @@
 潮玩IP增长+IP经济+固态电池+机器人概念</t>
       </text>
     </comment>
+    <comment ref="S37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:15:51 0
+核污染防治+硝化棉+央企改革</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:38 0
@@ -3813,6 +4011,12 @@
 光模块+AI算力+户外储能</t>
       </text>
     </comment>
+    <comment ref="S38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:17:57 1
+并购重组+军工+无人机</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:34:48 1
@@ -3915,6 +4119,12 @@
 原药一体化+新型农药制剂+高研发投入</t>
       </text>
     </comment>
+    <comment ref="S39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:21:36 1
+核污染防治+电力监测+AI产品</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:15 0
@@ -4017,6 +4227,12 @@
 股权激励+量子科技+算力+AI应用</t>
       </text>
     </comment>
+    <comment ref="S40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:23:05 0
+煤炭概念+化工+国企</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 2
@@ -4119,6 +4335,12 @@
 可控核聚变+国企</t>
       </text>
     </comment>
+    <comment ref="S41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:29:30 0
+油气装备+页岩气+营收增长+国企</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 4
@@ -4221,6 +4443,12 @@
 中高端家具+外销+一季报改善</t>
       </text>
     </comment>
+    <comment ref="S42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:33:34 0
+油田技术服务+一季报增长+国际拓展+现金分红</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:42:45 0
@@ -4323,6 +4551,12 @@
 足球概念+生态修复+文旅+IP</t>
       </text>
     </comment>
+    <comment ref="S43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:41:21 1
+石油+央企+新能源转型+年报增长</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:44:09 1
@@ -4419,6 +4653,12 @@
 量子科技+数字货币+低空经济+央企</t>
       </text>
     </comment>
+    <comment ref="S44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:10:39 0
+核污染防治+核技术+质子医疗+央企</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:48:03 0
@@ -4509,6 +4749,12 @@
 金融信创+人工智能+华为鲲鹏</t>
       </text>
     </comment>
+    <comment ref="S45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:12:00 0
+核污染防治+军工</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:53:35 0
@@ -4599,6 +4845,12 @@
 银行数字货币+纸纹防伪应用</t>
       </text>
     </comment>
+    <comment ref="S46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:12:06 1
+核污染防治+辐照灭菌+央企</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:54:57 0
@@ -4683,6 +4935,12 @@
 IP经济+AI玩具+豆包+机器人</t>
       </text>
     </comment>
+    <comment ref="S47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:16:51 0
+净水+磷化工+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:02:18 0
@@ -4767,6 +5025,12 @@
 个护用品+宠物护理</t>
       </text>
     </comment>
+    <comment ref="S48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:20 0
+医疗器械+创口贴+产能扩充+授信申请</t>
+      </text>
+    </comment>
     <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:03:27 3
@@ -4845,6 +5109,12 @@
 或迎国药集团入主+血液制品</t>
       </text>
     </comment>
+    <comment ref="S49" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:43 5
+碳酸锶+锶盐+锂电池+国企</t>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:06:15 0
@@ -4923,6 +5193,12 @@
 稀土永磁+人形机器人+业绩增长</t>
       </text>
     </comment>
+    <comment ref="S50" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:02:51 0
+核污染防治+创新药+中华老字号+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:06:57 4
@@ -5001,6 +5277,12 @@
 数智科技业务+拟收购国贸数科100%股权+汽车经销+厦门国资</t>
       </text>
     </comment>
+    <comment ref="S51" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:03:06 0
+煤化工+甲醇+国企</t>
+      </text>
+    </comment>
     <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:07:02 0
@@ -5079,6 +5361,12 @@
 量子计算+REITs+北京国资</t>
       </text>
     </comment>
+    <comment ref="S52" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:08:33 14
+三氟乙酰项目+PEEK上游技术+参股芯之纯半导体</t>
+      </text>
+    </comment>
     <comment ref="B53" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:12:42 0
@@ -5157,6 +5445,12 @@
 无人驾驶+特斯拉+一体化压铸+矿山设备</t>
       </text>
     </comment>
+    <comment ref="S53" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:09:51 0
+航空装备+军工+无人机</t>
+      </text>
+    </comment>
     <comment ref="B54" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:14:39 1
@@ -5235,6 +5529,12 @@
 文创IP+智慧工厂+创意设计</t>
       </text>
     </comment>
+    <comment ref="S54" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:12:43 0
+大飞机+铸造材料+光刻胶</t>
+      </text>
+    </comment>
     <comment ref="B55" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:15:45 0
@@ -5307,6 +5607,12 @@
 中华老字号+物业管理+一季报增长</t>
       </text>
     </comment>
+    <comment ref="S55" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:51:00 0
+蚂蚁金服概念+智慧校园+华为昇腾</t>
+      </text>
+    </comment>
     <comment ref="B56" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:24:57 0
@@ -5373,6 +5679,12 @@
 汽车零部件+混合动力总成+财报稳健</t>
       </text>
     </comment>
+    <comment ref="S56" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:51:03 1
+液冷量产+一季报增长+引线框架</t>
+      </text>
+    </comment>
     <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:04 0
@@ -5439,6 +5751,12 @@
 创新药+注射用德拉沙星+一季报增长</t>
       </text>
     </comment>
+    <comment ref="S57" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:51:09 12
+油气服务+合同增长+可燃冰+央企</t>
+      </text>
+    </comment>
     <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:58 1
@@ -5499,6 +5817,12 @@
 黄金+万国升值+国企</t>
       </text>
     </comment>
+    <comment ref="S58" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:51:06 0
+凹印油墨+新能源转型+一季报减亏</t>
+      </text>
+    </comment>
     <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:29:24 0
@@ -5557,6 +5881,12 @@
       <text>
         <t>首板涨停 13:24:33 0
 固态电池+次新股</t>
+      </text>
+    </comment>
+    <comment ref="S59" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:56:00 0
+成飞概念+军工+汽车零部件+国企改革</t>
       </text>
     </comment>
     <comment ref="B60" authorId="0" shapeId="0">
@@ -6722,7 +7052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -6751,6 +7081,7 @@
     <col width="15" customWidth="1" min="16" max="16"/>
     <col width="15" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6861,6 +7192,12 @@
 星期四</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-13
+星期五</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -6953,6 +7290,11 @@
           <t>0.26%</t>
         </is>
       </c>
+      <c r="S2" s="6" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -7045,12 +7387,17 @@
           <t>214.02</t>
         </is>
       </c>
-      <c r="S3" s="10" t="n"/>
+      <c r="S3" s="9" t="inlineStr">
+        <is>
+          <t>241.78</t>
+        </is>
+      </c>
+      <c r="T3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>创新药(130)</t>
+          <t>创新药(135)</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -7136,13 +7483,18 @@
       <c r="R4" s="19" t="inlineStr">
         <is>
           <t>易明医药7</t>
+        </is>
+      </c>
+      <c r="S4" s="17" t="inlineStr">
+        <is>
+          <t>元隆雅图7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>新能源(128)</t>
+          <t>新能源(131)</t>
         </is>
       </c>
       <c r="B5" s="15" t="inlineStr">
@@ -7228,13 +7580,18 @@
       <c r="R5" s="17" t="inlineStr">
         <is>
           <t>元隆雅图6</t>
+        </is>
+      </c>
+      <c r="S5" s="15" t="inlineStr">
+        <is>
+          <t>金时科技6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>机器人(107)</t>
+          <t>机器人(108)</t>
         </is>
       </c>
       <c r="B6" s="15" t="inlineStr">
@@ -7320,13 +7677,18 @@
       <c r="R6" s="15" t="inlineStr">
         <is>
           <t>南华期货5</t>
+        </is>
+      </c>
+      <c r="S6" s="14" t="inlineStr">
+        <is>
+          <t>北矿科技5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
         <is>
-          <t>港口航运(100)</t>
+          <t>港口航运(103)</t>
         </is>
       </c>
       <c r="B7" s="15" t="inlineStr">
@@ -7414,11 +7776,16 @@
           <t>北矿科技4</t>
         </is>
       </c>
+      <c r="S7" s="25" t="inlineStr">
+        <is>
+          <t>英利汽车3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="inlineStr">
-        <is>
-          <t>无人经济(98)</t>
+      <c r="A8" s="26" t="inlineStr">
+        <is>
+          <t>无人经济(100)</t>
         </is>
       </c>
       <c r="B8" s="24" t="inlineStr">
@@ -7506,11 +7873,16 @@
           <t>粤传媒4</t>
         </is>
       </c>
+      <c r="S8" s="15" t="inlineStr">
+        <is>
+          <t>华阳新材3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="inlineStr">
-        <is>
-          <t>AI大模型(89)</t>
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>AI大模型(90)</t>
         </is>
       </c>
       <c r="B9" s="24" t="inlineStr">
@@ -7598,11 +7970,16 @@
           <t>康惠制药3</t>
         </is>
       </c>
+      <c r="S9" s="17" t="inlineStr">
+        <is>
+          <t>哈尔斯3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="inlineStr">
-        <is>
-          <t>新消费(85)</t>
+      <c r="A10" s="28" t="inlineStr">
+        <is>
+          <t>新消费(89)</t>
         </is>
       </c>
       <c r="B10" s="16" t="inlineStr">
@@ -7690,11 +8067,16 @@
           <t>新日股份3</t>
         </is>
       </c>
+      <c r="S10" s="19" t="inlineStr">
+        <is>
+          <t>澳洋健康3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="inlineStr">
-        <is>
-          <t>核聚变(84)</t>
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>核聚变(86)</t>
         </is>
       </c>
       <c r="B11" s="12" t="inlineStr">
@@ -7702,7 +8084,7 @@
           <t>路畅科技3</t>
         </is>
       </c>
-      <c r="C11" s="29" t="inlineStr">
+      <c r="C11" s="25" t="inlineStr">
         <is>
           <t>湖南天雁3</t>
         </is>
@@ -7737,7 +8119,7 @@
           <t>永冠新材4</t>
         </is>
       </c>
-      <c r="J11" s="29" t="inlineStr">
+      <c r="J11" s="25" t="inlineStr">
         <is>
           <t>海联金汇2</t>
         </is>
@@ -7780,13 +8162,18 @@
       <c r="R11" s="19" t="inlineStr">
         <is>
           <t>交大昂立3</t>
+        </is>
+      </c>
+      <c r="S11" s="15" t="inlineStr">
+        <is>
+          <t>安妮股份2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="inlineStr">
         <is>
-          <t>汽车(70)</t>
+          <t>汽车(73)</t>
         </is>
       </c>
       <c r="B12" s="14" t="inlineStr">
@@ -7872,13 +8259,18 @@
       <c r="R12" s="13" t="inlineStr">
         <is>
           <t>南京商旅3</t>
+        </is>
+      </c>
+      <c r="S12" s="24" t="inlineStr">
+        <is>
+          <t>吉大正元2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>传统消费(65)</t>
+          <t>数字经济(65)</t>
         </is>
       </c>
       <c r="B13" s="18" t="inlineStr">
@@ -7966,11 +8358,12 @@
           <t>新北洋2</t>
         </is>
       </c>
+      <c r="S13" s="31" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>数字经济(62)</t>
+          <t>传统消费(65)</t>
         </is>
       </c>
       <c r="B14" s="18" t="inlineStr">
@@ -8033,7 +8426,7 @@
           <t>时代出版3</t>
         </is>
       </c>
-      <c r="N14" s="29" t="inlineStr">
+      <c r="N14" s="25" t="inlineStr">
         <is>
           <t>厦门信达2</t>
         </is>
@@ -8053,16 +8446,21 @@
           <t>康惠制药2</t>
         </is>
       </c>
-      <c r="R14" s="29" t="inlineStr">
+      <c r="R14" s="25" t="inlineStr">
         <is>
           <t>英利汽车2</t>
+        </is>
+      </c>
+      <c r="S14" s="12" t="inlineStr">
+        <is>
+          <t>准油股份</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>重组(59)</t>
+          <t>重组(61)</t>
         </is>
       </c>
       <c r="B15" s="14" t="inlineStr">
@@ -8110,7 +8508,7 @@
           <t>恒宝股份2</t>
         </is>
       </c>
-      <c r="K15" s="29" t="inlineStr">
+      <c r="K15" s="25" t="inlineStr">
         <is>
           <t>海联金汇3</t>
         </is>
@@ -8148,6 +8546,11 @@
       <c r="R15" s="15" t="inlineStr">
         <is>
           <t>华阳新材2</t>
+        </is>
+      </c>
+      <c r="S15" s="16" t="inlineStr">
+        <is>
+          <t>协鑫能科</t>
         </is>
       </c>
     </row>
@@ -8242,11 +8645,16 @@
           <t>哈尔斯2</t>
         </is>
       </c>
+      <c r="S16" s="12" t="inlineStr">
+        <is>
+          <t>通源石油</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>军工(42)</t>
+          <t>军工(49)</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -8325,16 +8733,21 @@
         </is>
       </c>
       <c r="Q17" s="31" t="n"/>
-      <c r="R17" s="29" t="inlineStr">
+      <c r="R17" s="25" t="inlineStr">
         <is>
           <t>西上海2</t>
+        </is>
+      </c>
+      <c r="S17" s="15" t="inlineStr">
+        <is>
+          <t>萃华珠宝</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AI算力(41)</t>
+          <t>化工(43)</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -8420,13 +8833,18 @@
       <c r="R18" s="16" t="inlineStr">
         <is>
           <t>迪生力2</t>
+        </is>
+      </c>
+      <c r="S18" s="12" t="inlineStr">
+        <is>
+          <t>中曼石油</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>半导体(40)</t>
+          <t>半导体(42)</t>
         </is>
       </c>
       <c r="B19" s="16" t="inlineStr">
@@ -8439,7 +8857,7 @@
           <t>慧博云通2</t>
         </is>
       </c>
-      <c r="D19" s="29" t="inlineStr">
+      <c r="D19" s="25" t="inlineStr">
         <is>
           <t>长春一东2</t>
         </is>
@@ -8501,19 +8919,24 @@
           <t>博迁新材</t>
         </is>
       </c>
-      <c r="R19" s="29" t="inlineStr">
+      <c r="R19" s="25" t="inlineStr">
         <is>
           <t>泉峰汽车2</t>
+        </is>
+      </c>
+      <c r="S19" s="12" t="inlineStr">
+        <is>
+          <t>贝肯能源</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>化工(39)</t>
-        </is>
-      </c>
-      <c r="B20" s="29" t="inlineStr">
+          <t>AI算力(42)</t>
+        </is>
+      </c>
+      <c r="B20" s="25" t="inlineStr">
         <is>
           <t>湖南天雁2</t>
         </is>
@@ -8586,6 +9009,11 @@
           <t>宁波韵升2</t>
         </is>
       </c>
+      <c r="S20" s="12" t="inlineStr">
+        <is>
+          <t>山东海化</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8668,7 +9096,7 @@
           <t>中科曙光</t>
         </is>
       </c>
-      <c r="Q21" s="29" t="inlineStr">
+      <c r="Q21" s="25" t="inlineStr">
         <is>
           <t>英利汽车</t>
         </is>
@@ -8676,13 +9104,18 @@
       <c r="R21" s="15" t="inlineStr">
         <is>
           <t>辉隆股份2</t>
+        </is>
+      </c>
+      <c r="S21" s="12" t="inlineStr">
+        <is>
+          <t>金橙子</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>农业(33)</t>
+          <t>电力(33)</t>
         </is>
       </c>
       <c r="B22" s="12" t="inlineStr">
@@ -8760,7 +9193,7 @@
           <t>塞力医疗</t>
         </is>
       </c>
-      <c r="Q22" s="29" t="inlineStr">
+      <c r="Q22" s="25" t="inlineStr">
         <is>
           <t>西上海</t>
         </is>
@@ -8768,13 +9201,18 @@
       <c r="R22" s="13" t="inlineStr">
         <is>
           <t>华业香料2</t>
+        </is>
+      </c>
+      <c r="S22" s="13" t="inlineStr">
+        <is>
+          <t>洲际油气</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>体育产业(31)</t>
+          <t>农业(33)</t>
         </is>
       </c>
       <c r="B23" s="18" t="inlineStr">
@@ -8854,11 +9292,16 @@
           <t>青木科技2</t>
         </is>
       </c>
+      <c r="S23" s="15" t="inlineStr">
+        <is>
+          <t>西部黄金</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>电力(30)</t>
+          <t>体育产业(31)</t>
         </is>
       </c>
       <c r="B24" s="15" t="inlineStr">
@@ -8932,17 +9375,22 @@
           <t>同兴科技</t>
         </is>
       </c>
-      <c r="Q24" s="29" t="inlineStr">
+      <c r="Q24" s="25" t="inlineStr">
         <is>
           <t>泉峰汽车</t>
         </is>
       </c>
       <c r="R24" s="31" t="n"/>
+      <c r="S24" s="25" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>精密电子(27)</t>
+          <t>新型材料(29)</t>
         </is>
       </c>
       <c r="B25" s="15" t="inlineStr">
@@ -9026,11 +9474,16 @@
           <t>比依股份</t>
         </is>
       </c>
+      <c r="S25" s="13" t="inlineStr">
+        <is>
+          <t>凤凰航运</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>新型材料(27)</t>
+          <t>精密电子(27)</t>
         </is>
       </c>
       <c r="B26" s="15" t="inlineStr">
@@ -9100,7 +9553,7 @@
           <t>太阳电缆</t>
         </is>
       </c>
-      <c r="Q26" s="29" t="inlineStr">
+      <c r="Q26" s="25" t="inlineStr">
         <is>
           <t>合力科技</t>
         </is>
@@ -9108,13 +9561,18 @@
       <c r="R26" s="24" t="inlineStr">
         <is>
           <t>国星光电</t>
+        </is>
+      </c>
+      <c r="S26" s="19" t="inlineStr">
+        <is>
+          <t>千红制药</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>消费电子(18)</t>
+          <t>华为概念(19)</t>
         </is>
       </c>
       <c r="B27" s="19" t="inlineStr">
@@ -9152,7 +9610,7 @@
           <t>侨银股份</t>
         </is>
       </c>
-      <c r="I27" s="29" t="inlineStr">
+      <c r="I27" s="25" t="inlineStr">
         <is>
           <t>联明股份2</t>
         </is>
@@ -9162,7 +9620,7 @@
           <t>海南海药</t>
         </is>
       </c>
-      <c r="K27" s="12" t="inlineStr">
+      <c r="K27" s="15" t="inlineStr">
         <is>
           <t>北化股份</t>
         </is>
@@ -9172,7 +9630,7 @@
           <t>菜百股份2</t>
         </is>
       </c>
-      <c r="M27" s="29" t="inlineStr">
+      <c r="M27" s="25" t="inlineStr">
         <is>
           <t>湖南天雁</t>
         </is>
@@ -9200,13 +9658,18 @@
       <c r="R27" s="15" t="inlineStr">
         <is>
           <t>格尔软件</t>
+        </is>
+      </c>
+      <c r="S27" s="12" t="inlineStr">
+        <is>
+          <t>金牛化工</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>华为概念(17)</t>
+          <t>消费电子(18)</t>
         </is>
       </c>
       <c r="B28" s="13" t="inlineStr">
@@ -9254,7 +9717,7 @@
           <t>巨星农牧</t>
         </is>
       </c>
-      <c r="K28" s="29" t="inlineStr">
+      <c r="K28" s="25" t="inlineStr">
         <is>
           <t>联合精密</t>
         </is>
@@ -9290,6 +9753,11 @@
           <t>奥雅股份</t>
         </is>
       </c>
+      <c r="S28" s="18" t="inlineStr">
+        <is>
+          <t>利柏特</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9378,6 +9846,11 @@
           <t>吉大正元</t>
         </is>
       </c>
+      <c r="S29" s="12" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9470,6 +9943,11 @@
           <t>一心堂</t>
         </is>
       </c>
+      <c r="S30" s="12" t="inlineStr">
+        <is>
+          <t>豫能控股</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9492,7 +9970,7 @@
           <t>海森药业</t>
         </is>
       </c>
-      <c r="E31" s="29" t="inlineStr">
+      <c r="E31" s="25" t="inlineStr">
         <is>
           <t>雪龙集团</t>
         </is>
@@ -9560,6 +10038,11 @@
       <c r="R31" s="13" t="inlineStr">
         <is>
           <t>巨人网络</t>
+        </is>
+      </c>
+      <c r="S31" s="12" t="inlineStr">
+        <is>
+          <t>东方环宇</t>
         </is>
       </c>
     </row>
@@ -9654,11 +10137,16 @@
           <t>浙江仙通</t>
         </is>
       </c>
+      <c r="S32" s="12" t="inlineStr">
+        <is>
+          <t>和顺石油</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>业绩增长(111)</t>
+          <t>业绩增长(122)</t>
         </is>
       </c>
       <c r="B33" s="31" t="n"/>
@@ -9728,7 +10216,7 @@
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="Q33" s="29" t="inlineStr">
+      <c r="Q33" s="25" t="inlineStr">
         <is>
           <t>金麒麟</t>
         </is>
@@ -9736,13 +10224,18 @@
       <c r="R33" s="17" t="inlineStr">
         <is>
           <t>新经典</t>
+        </is>
+      </c>
+      <c r="S33" s="12" t="inlineStr">
+        <is>
+          <t>德石股份</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>扭亏为盈(48)</t>
+          <t>扭亏为盈(53)</t>
         </is>
       </c>
       <c r="B34" s="15" t="inlineStr">
@@ -9775,7 +10268,7 @@
           <t>江苏新能</t>
         </is>
       </c>
-      <c r="H34" s="29" t="inlineStr">
+      <c r="H34" s="25" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
@@ -9828,13 +10321,18 @@
       <c r="R34" s="13" t="inlineStr">
         <is>
           <t>德艺文创</t>
+        </is>
+      </c>
+      <c r="S34" s="12" t="inlineStr">
+        <is>
+          <t>中电电机</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>国企(230)</t>
+          <t>国企(249)</t>
         </is>
       </c>
       <c r="B35" s="14" t="inlineStr">
@@ -9920,6 +10418,11 @@
       <c r="R35" s="14" t="inlineStr">
         <is>
           <t>弘讯科技</t>
+        </is>
+      </c>
+      <c r="S35" s="12" t="inlineStr">
+        <is>
+          <t>金瑞矿业</t>
         </is>
       </c>
     </row>
@@ -9964,7 +10467,7 @@
           <t>玉禾田</t>
         </is>
       </c>
-      <c r="I36" s="29" t="inlineStr">
+      <c r="I36" s="25" t="inlineStr">
         <is>
           <t>东风股份</t>
         </is>
@@ -10012,6 +10515,11 @@
       <c r="R36" s="14" t="inlineStr">
         <is>
           <t>宁波东力</t>
+        </is>
+      </c>
+      <c r="S36" s="12" t="inlineStr">
+        <is>
+          <t>新锦动力</t>
         </is>
       </c>
     </row>
@@ -10104,6 +10612,11 @@
       <c r="R37" s="17" t="inlineStr">
         <is>
           <t>高乐股份</t>
+        </is>
+      </c>
+      <c r="S37" s="15" t="inlineStr">
+        <is>
+          <t>北化股份</t>
         </is>
       </c>
     </row>
@@ -10124,7 +10637,7 @@
           <t>盛视科技</t>
         </is>
       </c>
-      <c r="E38" s="29" t="inlineStr">
+      <c r="E38" s="25" t="inlineStr">
         <is>
           <t>赛力斯</t>
         </is>
@@ -10184,7 +10697,7 @@
           <t>南京港</t>
         </is>
       </c>
-      <c r="Q38" s="29" t="inlineStr">
+      <c r="Q38" s="25" t="inlineStr">
         <is>
           <t>同心传动</t>
         </is>
@@ -10192,6 +10705,11 @@
       <c r="R38" s="24" t="inlineStr">
         <is>
           <t>铭普光磁</t>
+        </is>
+      </c>
+      <c r="S38" s="22" t="inlineStr">
+        <is>
+          <t>北方长龙</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10734,7 @@
           <t>恒鑫生活</t>
         </is>
       </c>
-      <c r="F39" s="29" t="inlineStr">
+      <c r="F39" s="25" t="inlineStr">
         <is>
           <t>金鸿顺</t>
         </is>
@@ -10231,7 +10749,7 @@
           <t>利柏特</t>
         </is>
       </c>
-      <c r="I39" s="29" t="inlineStr">
+      <c r="I39" s="25" t="inlineStr">
         <is>
           <t>正裕工业</t>
         </is>
@@ -10279,6 +10797,11 @@
       <c r="R39" s="15" t="inlineStr">
         <is>
           <t>美邦股份</t>
+        </is>
+      </c>
+      <c r="S39" s="24" t="inlineStr">
+        <is>
+          <t>华盛昌</t>
         </is>
       </c>
     </row>
@@ -10368,6 +10891,11 @@
           <t>罗普特</t>
         </is>
       </c>
+      <c r="S40" s="12" t="inlineStr">
+        <is>
+          <t>云煤能源</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="13" t="inlineStr">
@@ -10455,6 +10983,11 @@
           <t>融发核电</t>
         </is>
       </c>
+      <c r="S41" s="12" t="inlineStr">
+        <is>
+          <t>山东墨龙</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="B42" s="19" t="inlineStr">
@@ -10542,6 +11075,11 @@
           <t>曲美家居</t>
         </is>
       </c>
+      <c r="S42" s="12" t="inlineStr">
+        <is>
+          <t>科力股份</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="12" t="inlineStr">
@@ -10629,9 +11167,14 @@
           <t>绿茵生态</t>
         </is>
       </c>
+      <c r="S43" s="16" t="inlineStr">
+        <is>
+          <t>泰山石油</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
+      <c r="B44" s="25" t="inlineStr">
         <is>
           <t>铁流股份</t>
         </is>
@@ -10701,7 +11244,7 @@
           <t>浩欧博</t>
         </is>
       </c>
-      <c r="Q44" s="29" t="inlineStr">
+      <c r="Q44" s="25" t="inlineStr">
         <is>
           <t>天安新材</t>
         </is>
@@ -10709,6 +11252,11 @@
       <c r="R44" s="15" t="inlineStr">
         <is>
           <t>东信和平</t>
+        </is>
+      </c>
+      <c r="S44" s="18" t="inlineStr">
+        <is>
+          <t>中广核技</t>
         </is>
       </c>
     </row>
@@ -10788,6 +11336,11 @@
           <t>恒银科技</t>
         </is>
       </c>
+      <c r="S45" s="12" t="inlineStr">
+        <is>
+          <t>际华集团</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="17" t="inlineStr">
@@ -10865,6 +11418,11 @@
           <t>兆日科技</t>
         </is>
       </c>
+      <c r="S46" s="12" t="inlineStr">
+        <is>
+          <t>中金辐照</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="17" t="inlineStr">
@@ -10937,6 +11495,11 @@
           <t>实丰文化</t>
         </is>
       </c>
+      <c r="S47" s="12" t="inlineStr">
+        <is>
+          <t>恒光股份</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="13" t="inlineStr">
@@ -11009,6 +11572,11 @@
           <t>诺邦股份</t>
         </is>
       </c>
+      <c r="S48" s="19" t="inlineStr">
+        <is>
+          <t>南卫股份</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="17" t="inlineStr">
@@ -11016,7 +11584,7 @@
           <t>潮宏基</t>
         </is>
       </c>
-      <c r="C49" s="29" t="inlineStr">
+      <c r="C49" s="25" t="inlineStr">
         <is>
           <t>常青股份</t>
         </is>
@@ -11074,6 +11642,11 @@
       <c r="R49" s="12" t="inlineStr">
         <is>
           <t>派林生物</t>
+        </is>
+      </c>
+      <c r="S49" s="16" t="inlineStr">
+        <is>
+          <t>红星发展</t>
         </is>
       </c>
     </row>
@@ -11143,6 +11716,11 @@
           <t>英思特</t>
         </is>
       </c>
+      <c r="S50" s="19" t="inlineStr">
+        <is>
+          <t>力生制药</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="15" t="inlineStr">
@@ -11205,9 +11783,14 @@
           <t>地素时尚</t>
         </is>
       </c>
-      <c r="R51" s="29" t="inlineStr">
+      <c r="R51" s="25" t="inlineStr">
         <is>
           <t>厦门信达</t>
+        </is>
+      </c>
+      <c r="S51" s="12" t="inlineStr">
+        <is>
+          <t>兴化股份</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11810,7 @@
           <t>诺普信</t>
         </is>
       </c>
-      <c r="G52" s="29" t="inlineStr">
+      <c r="G52" s="25" t="inlineStr">
         <is>
           <t>西上海</t>
         </is>
@@ -11275,6 +11858,11 @@
       <c r="R52" s="12" t="inlineStr">
         <is>
           <t>电子城</t>
+        </is>
+      </c>
+      <c r="S52" s="12" t="inlineStr">
+        <is>
+          <t>大洋生物</t>
         </is>
       </c>
     </row>
@@ -11344,6 +11932,11 @@
           <t>亚通精工</t>
         </is>
       </c>
+      <c r="S53" s="22" t="inlineStr">
+        <is>
+          <t>晨曦航空</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="24" t="inlineStr">
@@ -11411,6 +12004,11 @@
           <t>柏星龙</t>
         </is>
       </c>
+      <c r="S54" s="12" t="inlineStr">
+        <is>
+          <t>兴业股份</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="B55" s="12" t="inlineStr">
@@ -11473,6 +12071,11 @@
           <t>中央商场</t>
         </is>
       </c>
+      <c r="S55" s="12" t="inlineStr">
+        <is>
+          <t>正元智慧</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="13" t="inlineStr">
@@ -11525,9 +12128,14 @@
           <t>苏州龙杰</t>
         </is>
       </c>
-      <c r="R56" s="29" t="inlineStr">
+      <c r="R56" s="25" t="inlineStr">
         <is>
           <t>秦安股份</t>
+        </is>
+      </c>
+      <c r="S56" s="12" t="inlineStr">
+        <is>
+          <t>澄天伟业</t>
         </is>
       </c>
     </row>
@@ -11587,6 +12195,11 @@
           <t>奥赛康</t>
         </is>
       </c>
+      <c r="S57" s="12" t="inlineStr">
+        <is>
+          <t>石化油服</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="B58" s="17" t="inlineStr">
@@ -11639,6 +12252,11 @@
           <t>恒邦股份</t>
         </is>
       </c>
+      <c r="S58" s="16" t="inlineStr">
+        <is>
+          <t>乐通股份</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="B59" s="17" t="inlineStr">
@@ -11691,6 +12309,11 @@
           <t>宏工科技</t>
         </is>
       </c>
+      <c r="S59" s="25" t="inlineStr">
+        <is>
+          <t>成飞集成</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="B60" s="12" t="inlineStr">
@@ -11874,7 +12497,7 @@
           <t>闰土股份</t>
         </is>
       </c>
-      <c r="R63" s="12" t="inlineStr">
+      <c r="R63" s="15" t="inlineStr">
         <is>
           <t>安妮股份</t>
         </is>
@@ -11896,7 +12519,7 @@
           <t>中农联合</t>
         </is>
       </c>
-      <c r="I64" s="29" t="inlineStr">
+      <c r="I64" s="25" t="inlineStr">
         <is>
           <t>德宏股份</t>
         </is>
@@ -11985,7 +12608,7 @@
           <t>金浦钛业</t>
         </is>
       </c>
-      <c r="G66" s="29" t="inlineStr">
+      <c r="G66" s="25" t="inlineStr">
         <is>
           <t>常青股份</t>
         </is>
@@ -12027,7 +12650,7 @@
           <t>比依股份</t>
         </is>
       </c>
-      <c r="I67" s="29" t="inlineStr">
+      <c r="I67" s="25" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
@@ -12086,7 +12709,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="29" t="inlineStr">
+      <c r="B69" s="25" t="inlineStr">
         <is>
           <t>天安新材</t>
         </is>
@@ -12106,7 +12729,7 @@
           <t>豪悦护理</t>
         </is>
       </c>
-      <c r="M69" s="29" t="inlineStr">
+      <c r="M69" s="25" t="inlineStr">
         <is>
           <t>厦门信达</t>
         </is>
@@ -12145,7 +12768,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="29" t="inlineStr">
+      <c r="B71" s="25" t="inlineStr">
         <is>
           <t>万朗磁塑</t>
         </is>
@@ -12247,7 +12870,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="29" t="inlineStr">
+      <c r="B77" s="25" t="inlineStr">
         <is>
           <t>东风股份</t>
         </is>
@@ -12259,7 +12882,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="29" t="inlineStr">
+      <c r="B78" s="25" t="inlineStr">
         <is>
           <t>长春一东</t>
         </is>
@@ -12489,7 +13112,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="I108" s="29" t="inlineStr">
+      <c r="I108" s="25" t="inlineStr">
         <is>
           <t>东风科技</t>
         </is>
@@ -12535,7 +13158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12582,7 +13205,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海外盈利</t>
+          <t>电动叉车</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -12590,7 +13213,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>柱状电池外壳</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -12598,7 +13221,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -12606,7 +13229,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>低温乳制品</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -12614,7 +13237,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>医美业务</t>
+          <t>杯壶龙头</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -12622,7 +13245,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>高端化、年轻化战略</t>
+          <t>收购扩展</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -12640,7 +13263,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>超级百货</t>
+          <t>课后服务</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -12648,7 +13271,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NHKC-1</t>
+          <t>报业传媒</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -12656,7 +13279,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>废气处理</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -12664,7 +13287,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>控股股东重整</t>
+          <t>鲜立方战略</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -12672,7 +13295,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>线上女装</t>
+          <t>木门</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -12680,7 +13303,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -12694,11 +13317,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>股权变更</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -12706,7 +13329,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>民营医院</t>
+          <t>防撞系统零部件</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12714,7 +13337,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -12722,7 +13345,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>储能项目</t>
+          <t>高端护肤</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -12730,7 +13353,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>智慧水务</t>
+          <t>适老化产品</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -12738,7 +13361,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>GLP-1</t>
+          <t>钨矿资源</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -12748,15 +13371,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -12764,7 +13387,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>高压氧仓</t>
+          <t>铝合金轮毂</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12772,7 +13395,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>近期签大单</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -12780,7 +13403,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>薄荷醇</t>
+          <t>SPA合作</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -12788,7 +13411,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>激光测量</t>
+          <t>香精</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -12796,7 +13419,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>H酸产能不足</t>
+          <t>金属铜</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -12806,15 +13429,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>涤纶</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>电动叉车</t>
+          <t>消费服务转型</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -12822,7 +13445,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>出售部分资产</t>
+          <t>北美市场</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12830,7 +13453,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -12838,7 +13461,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>草甘膦</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -12846,7 +13469,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>再生医学材料</t>
+          <t>沪上阿姨合作</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -12854,7 +13477,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>车载电源</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -12864,15 +13487,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>控股股东变更</t>
+          <t>涤纶</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>课后服务</t>
+          <t>H股上市</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -12880,7 +13503,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>K胺</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12888,7 +13511,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -12896,7 +13519,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>光气资源</t>
+          <t>重金属污染防治</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -12904,7 +13527,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>原料制剂一体化</t>
+          <t>储能投资</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -12912,7 +13535,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>马来西亚量产</t>
+          <t>超充</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -12922,7 +13545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>控股股东变更</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -12930,7 +13553,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>股权变更</t>
+          <t>啤酒概念</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -12938,7 +13561,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>报业传媒</t>
+          <t>收到参股公司分红</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12946,7 +13569,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -12954,7 +13577,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>新材料蜡烛</t>
+          <t>人参全产业链</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -12962,7 +13585,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>垃圾分类</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -12970,7 +13593,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>储能材料</t>
+          <t>再生铝</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -12988,7 +13611,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>人造草坪</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -12996,7 +13619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Web3.0技术</t>
+          <t>量子安全</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13004,7 +13627,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -13012,7 +13635,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>募投项目投产</t>
+          <t>此前间接持股华大九天（已退出）</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -13020,7 +13643,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>氧化铝靶材</t>
+          <t>微盘股</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -13028,7 +13651,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>STSP-0601</t>
+          <t>铜基新材料</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -13038,15 +13661,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>硅基负极</t>
+          <t>虚拟电厂</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>消费服务转型</t>
+          <t>数智科技业务</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -13054,7 +13677,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>防撞系统零部件</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13062,7 +13685,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -13070,7 +13693,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>草铵膦</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -13078,7 +13701,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>糖尿病用药</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -13086,7 +13709,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>优先审评</t>
+          <t>聚醚胺</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -13096,7 +13719,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>硅基负极</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -13104,7 +13727,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>H股上市</t>
+          <t>拟收购国贸数科100%股权</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -13112,7 +13735,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13120,7 +13743,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -13128,7 +13751,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>实控人此前变更</t>
+          <t>EDA行业</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -13136,7 +13759,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>墨西哥产能建设</t>
+          <t>制冷技术</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -13144,7 +13767,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>健康器材</t>
+          <t>COC</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -13154,7 +13777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>资产注入预期</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -13162,7 +13785,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>啤酒概念</t>
+          <t>中标项目</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -13170,7 +13793,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>杯壶制造</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13178,7 +13801,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -13186,7 +13809,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>分红派息</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -13194,7 +13817,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>环保再生纸</t>
+          <t>智能物联</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -13202,7 +13825,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>汇金入主</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -13212,7 +13835,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>资产注入预期</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -13220,7 +13843,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>人造草坪</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -13228,7 +13851,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>不锈钢保温器皿</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -13236,7 +13859,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -13244,7 +13867,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>子公司参股云针科技</t>
+          <t>注射液获临床试验批准</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -13252,7 +13875,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>高性能颜料</t>
+          <t>玻璃基板</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -13260,7 +13883,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>证券</t>
+          <t>此前转让子公司股权</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -13270,7 +13893,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>比亚迪概念</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -13278,7 +13901,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蚂蚁数科合作</t>
+          <t>海外业务</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -13286,7 +13909,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>铝合金轮毂</t>
+          <t>消费行业</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13294,7 +13917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -13302,7 +13925,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>智慧园林</t>
+          <t>血友病治疗药物</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -13310,7 +13933,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>特高压中标</t>
+          <t>有线电视</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -13318,7 +13941,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>被海光信息换股吸收合并</t>
+          <t>针织服装</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -13328,7 +13951,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>虚拟电厂</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -13336,7 +13959,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>数智科技业务</t>
+          <t>民营医院</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -13344,7 +13967,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>文创消费品</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13352,7 +13975,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -13360,7 +13983,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>工业模块</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -13368,7 +13991,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>铁塔制造</t>
+          <t>紧固件龙头</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -13376,7 +13999,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>脑科学</t>
+          <t>安踏合作</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -13386,15 +14009,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拟收购国贸数科100%股权</t>
+          <t>高压氧仓</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -13402,7 +14025,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>K胺</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -13410,7 +14033,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -13418,7 +14041,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>水果罐头龙头</t>
+          <t>有色金属电解设备</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -13426,7 +14049,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>收购阿法硅51%股权</t>
+          <t>聚乙二醇</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -13434,7 +14057,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>SPD供应商</t>
+          <t>三胎</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -13444,7 +14067,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -13452,7 +14075,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中标项目</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -13460,7 +14083,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>收到参股公司分红</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -13468,7 +14091,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -13476,7 +14099,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>零食渠道拓展</t>
+          <t>智能化转型</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -13484,7 +14107,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>液晶显示器</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -13492,7 +14115,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>烟气治理</t>
+          <t>国际化</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -13502,7 +14125,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>比亚迪概念</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -13510,7 +14133,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海外业务</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -13518,7 +14141,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13526,7 +14149,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -13534,7 +14157,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>深海装备</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -13542,7 +14165,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>铀矿资源</t>
+          <t>门店扩张</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -13550,7 +14173,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>海缆</t>
+          <t>胶原蛋白研发</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -13568,7 +14191,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>控股权变更</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -13576,7 +14199,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13584,7 +14207,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -13592,7 +14215,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>毛利率提升</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -13600,7 +14223,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>石材加工</t>
+          <t>高铁</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -13608,7 +14231,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>行业资质</t>
+          <t>女装</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -13626,7 +14249,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>电动两轮车</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -13634,7 +14257,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -13642,7 +14265,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -13650,7 +14273,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>扩产</t>
+          <t>泰国工厂</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -13658,7 +14281,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>茶饮</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -13666,7 +14289,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>有机颜料</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -13684,7 +14307,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>控股权变更</t>
+          <t>职业培训</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -13692,7 +14315,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13700,7 +14323,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>高压快充</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -13708,7 +14331,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>能源数字化</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -13716,7 +14339,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>文远知行合作</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -13724,7 +14347,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>心脑血管注射剂</t>
+          <t>中证1000调入</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -13734,7 +14357,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>超级电容器</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -13742,7 +14365,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>电动两轮车</t>
+          <t>海外产能布局</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -13750,7 +14373,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>消费行业</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13758,7 +14381,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>智能包装设备</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -13766,7 +14389,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>低温乳制品</t>
+          <t>聚合充电平台</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -13774,7 +14397,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>奶茶</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -13782,7 +14405,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>锂电装备</t>
+          <t>俄罗斯市场</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -13792,15 +14415,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>高标准农田建设</t>
+          <t>古法黄金</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>职业培训</t>
+          <t>创新驱动</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -13808,7 +14431,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>文创消费品</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13816,7 +14439,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>显示器件</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -13824,7 +14447,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>鲜立方战略</t>
+          <t>战略投资</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -13832,7 +14455,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>即饮新品</t>
+          <t>雄安新区</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -13840,7 +14463,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>人造草坪应用</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -13850,15 +14473,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>聚氨酯材料</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海外产能布局</t>
+          <t>Web3.0技术</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -13866,7 +14489,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>质价比战略</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13874,7 +14497,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>越南产能释放</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -13882,7 +14505,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>高端护肤</t>
+          <t>车路云一体化</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -13890,7 +14513,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>新设矿业公司</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -13898,7 +14521,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>打捆机</t>
+          <t>LED封装</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -13908,15 +14531,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>部分产品涨价</t>
+          <t>核污染防治</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>创新驱动</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -13924,7 +14547,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>参股迪洛斯10%股权</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13932,7 +14555,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>低空防御</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -13940,7 +14563,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>SPA合作</t>
+          <t>煤炭设备</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -13948,7 +14571,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>社区团购</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -13956,7 +14579,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>内酯系列香料</t>
+          <t>内容运营</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -13966,7 +14589,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>焊接材料</t>
+          <t>高标准农田建设</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13974,7 +14597,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>杯壶制造</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -13982,7 +14605,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>虚拟现实</t>
+          <t>电子纸</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13990,7 +14613,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>红外光电</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -13998,7 +14621,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>城乡污水处理</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -14006,7 +14629,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>分红</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -14014,7 +14637,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>新型储能</t>
+          <t>文创家居用品</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -14024,7 +14647,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>胶粘解决方案</t>
+          <t>聚氨酯材料</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -14032,7 +14655,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>不锈钢保温器皿</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -14040,7 +14663,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>增持</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14048,7 +14671,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>印刷版材</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -14056,7 +14679,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>重金属污染防治</t>
+          <t>环保水处理</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -14064,7 +14687,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>中高端拓展</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -14072,7 +14695,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>顺价调整</t>
+          <t>工业互联网</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -14082,7 +14705,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>部分产品涨价</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -14090,7 +14713,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -14098,7 +14721,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>天然气液化加工</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -14106,7 +14729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -14114,7 +14737,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>人参全产业链</t>
+          <t>退出润滑油业务</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -14122,7 +14745,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>军用检测</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -14130,7 +14753,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>国际运输</t>
+          <t>减速机</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -14140,7 +14763,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>输配电设备</t>
+          <t>焊接材料</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -14148,7 +14771,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -14156,7 +14779,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>昂拉地韦片获批上市</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -14164,7 +14787,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>精装修</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -14172,7 +14795,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>此前间接持股华大九天（已退出）</t>
+          <t>可信身份技术</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -14180,7 +14803,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>PVC弹性地板</t>
+          <t>季报亏损收窄</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -14188,7 +14811,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>集装箱运输</t>
+          <t>户外储能</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -14198,7 +14821,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>京东增持</t>
+          <t>胶粘解决方案</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -14206,7 +14829,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -14214,7 +14837,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>泰国工厂投产</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14222,7 +14845,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>智慧口岸</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -14230,7 +14853,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>新质生产力</t>
+          <t>综合能源服务</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -14238,7 +14861,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -14246,7 +14869,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>航线拓展</t>
+          <t>原药一体化</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -14256,7 +14879,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>中成药</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -14264,7 +14887,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>终止股权转让</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -14272,7 +14895,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>时装</t>
+          <t>抗量子密码</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14280,7 +14903,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>音响</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -14288,7 +14911,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EDA行业</t>
+          <t>钢丝</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -14296,7 +14919,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>燕麦谷物</t>
+          <t>模型服务</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -14304,7 +14927,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>动保</t>
+          <t>高研发投入</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -14314,7 +14937,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>输配电设备</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -14322,7 +14945,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -14330,7 +14953,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>质价比战略</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -14338,7 +14961,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>瓶坯智能成型系统</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -14346,7 +14969,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>光纤</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -14354,7 +14977,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>资源回收</t>
+          <t>与海光信息达成战略合作</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -14362,7 +14985,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>脱敏要</t>
+          <t>股权激励</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -14372,7 +14995,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>产业园运营</t>
+          <t>京东增持</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -14380,7 +15003,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -14388,7 +15011,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>参股迪洛斯10%股权</t>
+          <t>国际货代</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -14396,7 +15019,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>高压快充</t>
+          <t>发布天工超级智能体</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -14404,7 +15027,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>注射液获临床试验批准</t>
+          <t>物联网解决方案</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -14412,7 +15035,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>杯壶龙头</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -14420,7 +15043,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>参股《长安的荔枝》出品方</t>
+          <t>纸纹防伪应用</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -14430,7 +15053,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Web3.0</t>
+          <t>中成药</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -14438,7 +15061,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -14446,7 +15069,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>电子纸</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -14454,7 +15077,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>智能包装设备</t>
+          <t>化学药</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -14462,7 +15085,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>血友病治疗药物</t>
+          <t>量子安全通信</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -14470,7 +15093,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>木门</t>
+          <t>印制电路板</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -14478,7 +15101,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>短剧（Reelshort旗下公司合作）</t>
+          <t>生态修复</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -14488,7 +15111,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eSIM技术</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -14496,7 +15119,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>近期中标</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -14504,7 +15127,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>细分市场龙头</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -14512,7 +15135,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>显示器件</t>
+          <t>流感用药</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -14520,7 +15143,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -14528,7 +15151,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>适老化产品</t>
+          <t>智慧供热</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -14536,7 +15159,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Rokid合作</t>
+          <t>量子计算</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -14546,7 +15169,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>产业园运营</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -14554,7 +15177,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>游戏</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -14562,7 +15185,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>近期中标</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -14570,7 +15193,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>越南产能释放</t>
+          <t>基因测序</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -14578,7 +15201,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>有色金属电解设备</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -14586,7 +15209,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>香精</t>
+          <t>碳中和概念</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -14594,7 +15217,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>商品贸易</t>
+          <t>REITs</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -14604,7 +15227,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>超级电容器</t>
+          <t>Web3.0</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -14612,7 +15235,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -14620,7 +15243,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>增持</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -14628,7 +15251,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>低空防御</t>
+          <t>出生缺陷预防</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -14636,7 +15259,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>智能化转型</t>
+          <t>蓝宝石</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -14644,7 +15267,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>沪上阿姨合作</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -14652,7 +15275,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>无实控人</t>
+          <t>注射用德拉沙星</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -14662,7 +15285,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>eSIM技术</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -14670,7 +15293,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>英伟达概念</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -14678,7 +15301,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>天然气液化加工</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -14686,7 +15309,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>红外光电</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -14694,7 +15317,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>文生视频</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -14702,7 +15325,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>储能投资</t>
+          <t>价格回暖</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -14710,7 +15333,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>教育信息化</t>
+          <t>万国升值</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -14720,7 +15343,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>期货经纪</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -14728,7 +15351,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -14736,7 +15359,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>昂拉地韦片获批上市</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -14744,7 +15367,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>印刷版材</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -14752,7 +15375,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -14760,7 +15383,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>垃圾分类</t>
+          <t>广电网络服务</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -14768,7 +15391,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MLCC上游材料</t>
+          <t>广告资源</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -14778,7 +15401,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>风险管理</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -14786,7 +15409,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>新型烟草</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -14794,7 +15417,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>泰国工厂投产</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -14802,7 +15425,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>次新</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -14810,7 +15433,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>泰国工厂</t>
+          <t>自身免疫性疾病</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -14818,7 +15441,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>微盘股</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -14826,7 +15449,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>小粒径镍粉需求</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -14836,7 +15459,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>古法黄金</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -14844,7 +15467,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -14852,7 +15475,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>抗量子密码</t>
+          <t>项目中标</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -14860,7 +15483,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>精装修</t>
+          <t>餐饮具</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -14868,7 +15491,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>能源数字化</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -14876,7 +15499,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>万豪合作（云服务）</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -14884,7 +15507,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>收购扩展</t>
+          <t>彩票印制</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -14894,7 +15517,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>期货经纪</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -14902,7 +15525,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>药用酶</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -14910,7 +15533,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -14918,7 +15541,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>智慧口岸</t>
+          <t>环保包装</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -14926,7 +15549,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>聚合充电平台</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -14934,7 +15557,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>制冷技术</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -14942,7 +15565,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>RFID综合解决方案</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -14952,7 +15575,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>风险管理</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -14960,7 +15583,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>白银</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -14968,7 +15591,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>国际货代</t>
+          <t>电子级玻璃纤维</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -14976,7 +15599,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>音响</t>
+          <t>PBO单体</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -14984,7 +15607,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>战略投资</t>
+          <t>数字营销</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -14992,7 +15615,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>智能物联</t>
+          <t>碳酸锂项目</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -15000,7 +15623,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>钨矿资源</t>
+          <t>或迎国药集团入主</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -15010,7 +15633,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -15018,15 +15641,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>新型烟草</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>覆铜板上游</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -15034,7 +15657,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>瓶坯智能成型系统</t>
+          <t>染发剂原料</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -15042,7 +15665,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>车路云一体化</t>
+          <t>智慧停车</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -15050,7 +15673,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>玻璃基板</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -15058,7 +15681,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>金属铜</t>
+          <t>血液制品</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -15068,7 +15691,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -15076,15 +15699,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>与辉瑞订立许可协议</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>细分市场龙头</t>
+          <t>阿里云合作</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -15092,7 +15715,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>发布天工超级智能体</t>
+          <t>专精特新小巨人</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -15100,7 +15723,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>煤炭设备</t>
+          <t>EDA</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -15108,7 +15731,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>有线电视</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -15116,7 +15739,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>车载电源</t>
+          <t>矿山设备</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -15126,23 +15749,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>节能服务</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -15150,7 +15773,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>化学药</t>
+          <t>LCP重庆基地投产</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -15158,7 +15781,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>城乡污水处理</t>
+          <t>晶圆级测试设备</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -15166,7 +15789,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>紧固件龙头</t>
+          <t>铝加工</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -15174,7 +15797,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>超充</t>
+          <t>智慧工厂</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -15184,23 +15807,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>拟购买海德利森100%股权</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>硝化棉</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -15208,7 +15831,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>流感用药</t>
+          <t>左旋对羟基苯甘氨酸系列</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -15216,7 +15839,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>环保水处理</t>
+          <t>国家大基金持股</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -15224,7 +15847,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>聚乙二醇</t>
+          <t>一季报营收增长</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -15232,7 +15855,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>再生铝</t>
+          <t>创意设计</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -15242,7 +15865,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>卡牌</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -15250,15 +15873,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>麦角硫因</t>
+          <t>量子科技</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>现金分红</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -15266,7 +15889,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>基因测序</t>
+          <t>研发投入增长</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -15274,7 +15897,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>退出润滑油业务</t>
+          <t>参股券商（拟转让）</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -15282,7 +15905,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -15290,7 +15913,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>铜基新材料</t>
+          <t>工业化打印</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -15300,7 +15923,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>烟草</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -15308,15 +15931,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>油气勘探开发</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>药用酶</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -15324,7 +15947,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>出生缺陷预防</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -15332,7 +15955,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>可信身份技术</t>
+          <t>高分子发泡材料</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -15340,7 +15963,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>门店扩张</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -15348,7 +15971,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>聚醚胺</t>
+          <t>混合动力总成</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -15358,7 +15981,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>卡牌</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -15366,7 +15989,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -15374,7 +15997,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>轮胎</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -15382,7 +16005,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>问界</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -15390,7 +16013,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>综合能源服务</t>
+          <t>橡胶V带</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -15398,7 +16021,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>高铁</t>
+          <t>商品混凝土</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -15406,7 +16029,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>COC</t>
+          <t>财报稳健</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -15416,7 +16039,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>此前收购中达金属60%股权</t>
+          <t>烟草</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -15424,7 +16047,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>低空资产注入猜想</t>
+          <t>与辉瑞订立许可协议</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -15432,7 +16055,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -15440,7 +16063,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>行星滚柱丝杠</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -15448,7 +16071,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>钢丝</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -15456,7 +16079,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>云网安融合</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -15464,7 +16087,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>抗癌新药受理</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -15474,7 +16097,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -15482,7 +16105,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -15490,7 +16113,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>项目中标</t>
+          <t>盐湖提锂</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -15498,7 +16121,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>次新</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -15506,7 +16129,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>光纤</t>
+          <t>功能性硅烷</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -15514,7 +16137,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>全球组网服务</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -15522,7 +16145,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>此前转让子公司股权</t>
+          <t>镇痛新药上市</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -15532,7 +16155,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>此前收购中达金属60%股权</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -15540,7 +16163,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>拟购买海德利森100%股权</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -15548,7 +16171,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>宠物护理</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -15556,7 +16179,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>餐饮具</t>
+          <t>电子身份证</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -15564,7 +16187,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>物联网解决方案</t>
+          <t>橡胶制品</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -15572,7 +16195,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>数字通信</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -15580,7 +16203,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>针织服装</t>
+          <t>一季报改善</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -15590,7 +16213,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -15598,7 +16221,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>麦角硫因</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -15606,7 +16229,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>电子级玻璃纤维</t>
+          <t>高分红</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -15614,7 +16237,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>环保包装</t>
+          <t>中科院控股</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -15622,7 +16245,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>量子安全通信</t>
+          <t>长三角布局</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -15630,7 +16253,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>雄安新区</t>
+          <t>拟购鸿林矿业47%股权</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -15638,7 +16261,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>安踏合作</t>
+          <t>定增计划</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -15648,7 +16271,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>复合集流体</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -15656,7 +16279,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -15664,7 +16287,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>覆铜板上游</t>
+          <t>有色金属</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -15672,7 +16295,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PBO单体</t>
+          <t>数字教育云</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -15680,7 +16303,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>童装</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -15688,7 +16311,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>新设矿业公司</t>
+          <t>锂电复合铜箔</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -15696,7 +16319,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>三胎</t>
+          <t>订单增长</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -15706,7 +16329,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>智慧环卫</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -15714,7 +16337,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -15722,7 +16345,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>阿里云合作</t>
+          <t>中高端家具</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -15730,7 +16353,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>染发剂原料</t>
+          <t>OLED</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -15738,7 +16361,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>毛毯龙头</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -15746,7 +16369,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>车载背光源</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -15754,7 +16377,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>国际化</t>
+          <t>激光加工</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -15764,7 +16387,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>精酿啤酒</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -15772,7 +16395,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>低空资产注入猜想</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -15780,7 +16403,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>节能服务</t>
+          <t>专精特新</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -15788,7 +16411,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>专精特新小巨人</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -15796,7 +16419,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>蓝宝石</t>
+          <t>一季度增长</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -15804,7 +16427,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>此前曾拟购买石药百克100%股权</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -15812,7 +16435,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>胶原蛋白研发</t>
+          <t>项目定点</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -15822,7 +16445,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>回购注销</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -15830,7 +16453,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>拟收购英迪芯微控股权</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -15838,7 +16461,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>环保</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -15846,7 +16469,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>LCP重庆基地投产</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -15854,7 +16477,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>文生视频</t>
+          <t>环境治理</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -15862,7 +16485,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -15870,7 +16493,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>女装</t>
+          <t>智能激光除草</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -15880,7 +16503,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>大健康消费品</t>
+          <t>智慧环卫</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -15888,7 +16511,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -15896,7 +16519,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>轮胎</t>
+          <t>战略合作</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -15904,7 +16527,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>左旋对羟基苯甘氨酸系列</t>
+          <t>啤酒</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -15912,7 +16535,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>葡萄酒</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -15920,7 +16543,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>军用检测</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -15928,7 +16551,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>加拿大油气权益</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -15938,7 +16561,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>水溶肥料</t>
+          <t>精酿啤酒</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -15946,7 +16569,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -15954,7 +16577,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>中华老字号</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -15962,7 +16585,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>研发投入增长</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -15970,7 +16593,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>自身免疫性疾病</t>
+          <t>物管</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -15978,7 +16601,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>季报亏损收窄</t>
+          <t>流感药物</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -15986,7 +16609,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>中证1000调入</t>
+          <t>油气工程</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -15996,7 +16619,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>回购注销</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -16004,7 +16627,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -16012,7 +16635,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>盐湖提锂</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -16020,7 +16643,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>数字会议</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -16028,7 +16651,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>轻资产转型</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -16036,7 +16659,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>新店开业</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -16044,7 +16667,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>俄罗斯市场</t>
+          <t>可转债获批</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -16054,7 +16677,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>杀虫剂</t>
+          <t>大健康消费品</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -16062,7 +16685,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -16070,7 +16693,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>宠物护理</t>
+          <t>页岩气</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -16078,7 +16701,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>问界</t>
+          <t>改性塑料</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -16086,7 +16709,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>生态环保</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -16094,7 +16717,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>模型服务</t>
+          <t>期货业务</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -16102,7 +16725,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>中东贸易</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -16112,7 +16735,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>水溶肥料</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -16120,7 +16743,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -16128,7 +16751,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>高分红</t>
+          <t>油气装备</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -16136,7 +16759,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>行星滚柱丝杠</t>
+          <t>下游应用广泛</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -16144,7 +16767,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>数字营销</t>
+          <t>生猪养殖</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -16152,7 +16775,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>与海光信息达成战略合作</t>
+          <t>K胺环评批复</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -16160,7 +16783,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>LED封装</t>
+          <t>专网通信</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -16170,7 +16793,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>氯虫苯甲酰胺中间体</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -16178,7 +16801,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>低空防御系统</t>
+          <t>拟收购英迪芯微控股权</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -16186,15 +16809,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>石英制品</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>与中科信控科技签署战略合作协议</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -16202,7 +16825,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>智慧停车</t>
+          <t>禽肉加工</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -16210,7 +16833,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>制剂一体化</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -16218,7 +16841,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>内容运营</t>
+          <t>抽水蓄能</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -16228,7 +16851,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>出版</t>
+          <t>杀虫剂</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -16236,7 +16859,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CDMO业务扩展</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -16244,15 +16867,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>中高端家具</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>电子身份证</t>
+          <t>生物质热电</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -16260,7 +16883,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>蚂蚁金服概念</t>
+          <t>预制菜概念</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -16268,7 +16891,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>印制电路板</t>
+          <t>消化药</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -16276,7 +16899,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>文创家居用品</t>
+          <t>油气开发</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -16286,7 +16909,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>细胞免疫治疗</t>
+          <t>氯虫苯甲酰胺中间体</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -16294,7 +16917,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>集采中标</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -16302,15 +16925,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>专精特新</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>中科院控股</t>
+          <t>智能保管</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -16318,7 +16941,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>EDA</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -16326,7 +16949,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>智慧供热</t>
+          <t>市场扩展</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -16334,7 +16957,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>工业互联网</t>
+          <t>射孔技术</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -16344,7 +16967,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>交通数字化服务</t>
+          <t>出版</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -16352,7 +16975,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>染料价格回暖</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -16360,15 +16983,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>环保</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>数字教育云</t>
+          <t>ISP</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -16376,7 +16999,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>晶圆级测试设备</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -16384,7 +17007,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>碳中和概念</t>
+          <t>粉磨系统</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -16392,7 +17015,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>减速机</t>
+          <t>CCUS业务</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -16402,7 +17025,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>细胞免疫治疗</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -16410,7 +17033,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>输电铁塔</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -16418,15 +17041,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>战略合作</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>OLED</t>
+          <t>安防</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -16434,7 +17057,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>国家大基金持股</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -16442,7 +17065,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>生态环境</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -16450,7 +17073,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>户外储能</t>
+          <t>加油站</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -16460,7 +17083,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>交通数字化服务</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -16468,7 +17091,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>高效换热器</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -16476,15 +17099,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>量子科技</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -16492,7 +17115,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>参股券商（拟转让）</t>
+          <t>道路运输</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -16500,7 +17123,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>价格回暖</t>
+          <t>绿色能源</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -16508,7 +17131,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>原药一体化</t>
+          <t>超快充业务</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -16518,7 +17141,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>大健康</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -16526,7 +17149,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>订单充足</t>
+          <t>低空防御系统</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -16534,7 +17157,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>石英制品</t>
+          <t>辉瑞合作</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -16542,7 +17165,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>数字政府</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -16550,7 +17173,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>高分子发泡材料</t>
+          <t>客运资源整合</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -16558,7 +17181,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>广电网络服务</t>
+          <t>高端化、年轻化战略</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -16566,7 +17189,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>高研发投入</t>
+          <t>锶盐全产业链</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -16576,7 +17199,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>重大合同</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -16584,7 +17207,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>CDMO业务扩展</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -16592,7 +17215,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>双特异性抗体</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -16600,7 +17223,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>啤酒</t>
+          <t>云视频</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -16608,7 +17231,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>橡胶V带</t>
+          <t>股东权益变动</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -16616,7 +17239,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -16624,7 +17247,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>股权激励</t>
+          <t>能源装备</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -16634,7 +17257,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>磷酸铁锂</t>
+          <t>大健康</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -16642,7 +17265,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝莓产业链</t>
+          <t>集采中标</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -16650,7 +17273,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>宠物用品</t>
+          <t>全球化战略</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -16658,7 +17281,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>Sora概念</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -16666,7 +17289,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>卫浴产品</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -16674,7 +17297,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>万豪合作（云服务）</t>
+          <t>GLP-1</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -16682,7 +17305,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>纸纹防伪应用</t>
+          <t>煤炭概念</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -16692,7 +17315,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>信息智能传输</t>
+          <t>重大合同</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -16700,7 +17323,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>染料价格回暖</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -16708,7 +17331,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>醋酸纤维素</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -16716,7 +17339,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>数字会议</t>
+          <t>假发</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -16724,7 +17347,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>功能性硅烷</t>
+          <t>大股东（银亿）重整</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -16732,7 +17355,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>贵金属</t>
+          <t>H酸产能不足</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -16740,7 +17363,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>生态修复</t>
+          <t>对外投资</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -16750,7 +17373,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>通信网络维护</t>
+          <t>磷酸铁锂</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -16758,7 +17381,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>氟氯虫双酰胺</t>
+          <t>输电铁塔</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -16766,7 +17389,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>激光防伪包装材料</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -16774,7 +17397,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>改性塑料</t>
+          <t>智能车载</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -16782,7 +17405,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>煤机</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -16790,7 +17413,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>碳酸锂项目</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -16798,7 +17421,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>量子计算</t>
+          <t>油田技术服务</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -16808,7 +17431,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>存储</t>
+          <t>信息智能传输</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -16816,7 +17439,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>平消片获再注册批件</t>
+          <t>高效换热器</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -16824,7 +17447,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>输电线路铁塔</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -16832,7 +17455,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>下游应用广泛</t>
+          <t>客户优势</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -16840,7 +17463,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>长三角布局</t>
+          <t>资产整合</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -16848,7 +17471,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>马来西亚量产</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -16856,7 +17479,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>REITs</t>
+          <t>国际拓展</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -16866,7 +17489,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>通信网络维护</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -16874,7 +17497,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>城市服务运营商</t>
+          <t>订单充足</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -16882,7 +17505,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>辉瑞合作</t>
+          <t>热能动力</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -16890,7 +17513,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>与中科信控科技签署战略合作协议</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -16898,7 +17521,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>童装</t>
+          <t>数字人应用</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -16906,7 +17529,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>储能材料</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -16914,7 +17537,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>中华老字号</t>
+          <t>资产收购</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -16924,7 +17547,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>越南投资</t>
+          <t>存储</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -16932,7 +17555,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -16940,7 +17563,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>双特异性抗体</t>
+          <t>大健康板块</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -16948,7 +17571,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>生物质热电</t>
+          <t>质子治疗系统</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -16956,7 +17579,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>毛毯龙头</t>
+          <t>医养结合</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -16964,7 +17587,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>铝加工</t>
+          <t>STSP-0601</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -16972,7 +17595,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>注射用德拉沙星</t>
+          <t>油气设备</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -16982,7 +17605,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>重整</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -16990,7 +17613,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>氯氰菊酯</t>
+          <t>蓝莓产业链</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -16998,7 +17621,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>全球化战略</t>
+          <t>亏损收窄</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -17006,7 +17629,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>智能保管</t>
+          <t>工业空调</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -17014,7 +17637,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>一季度增长</t>
+          <t>医美业务</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -17022,7 +17645,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>一季报营收增长</t>
+          <t>优先审评</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -17030,7 +17653,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>万国升值</t>
+          <t>页岩气概念</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -17040,15 +17663,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>蚂蚁数科合作</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>智慧矿山</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -17056,7 +17679,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>醋酸纤维素</t>
+          <t>移动支付</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -17064,7 +17687,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -17072,7 +17695,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>线上女装</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -17080,7 +17703,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>健康器材</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -17088,7 +17711,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>广告资源</t>
+          <t>纯碱</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -17098,15 +17721,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>越南投资</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>实控人中电科</t>
+          <t>氟氯虫双酰胺</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -17114,7 +17737,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>激光防伪包装材料</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -17122,7 +17745,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>安防</t>
+          <t>超硬材料</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -17130,7 +17753,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>葡萄酒</t>
+          <t>智慧水务</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -17138,7 +17761,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>汇金入主</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -17146,7 +17769,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>溴素</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -17156,15 +17779,15 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蚂蚁合作</t>
+          <t>平消片获再注册批件</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -17172,7 +17795,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>输电线路铁塔</t>
+          <t>《长安的荔枝》热播</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -17180,7 +17803,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>培育钻石</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -17188,7 +17811,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>物管</t>
+          <t>激光测量</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -17196,7 +17819,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>商品混凝土</t>
+          <t>证券</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -17204,7 +17827,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>彩票印制</t>
+          <t>净水</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -17214,15 +17837,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>蚂蚁金服概念</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>高速视觉</t>
+          <t>城市服务运营商</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -17230,7 +17853,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>热能动力</t>
+          <t>业务拓展</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -17238,7 +17861,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>数字政府</t>
+          <t>天然矿泉水</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -17246,7 +17869,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>轻资产转型</t>
+          <t>再生医学材料</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -17254,7 +17877,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>云网安融合</t>
+          <t>被海光信息换股吸收合并</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -17262,7 +17885,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>RFID综合解决方案</t>
+          <t>资源开发</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -17272,15 +17895,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>重整</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>钢结构工程</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -17288,7 +17911,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>大健康板块</t>
+          <t>烟草概念</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -17296,7 +17919,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>云视频</t>
+          <t>母婴产品</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -17304,7 +17927,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>生态环保</t>
+          <t>原料制剂一体化</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -17312,7 +17935,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>全球组网服务</t>
+          <t>脑科学</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -17320,7 +17943,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>或迎国药集团入主</t>
+          <t>辐照灭菌</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -17330,7 +17953,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -17338,7 +17961,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>智能环卫装备</t>
+          <t>氯氰菊酯</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -17346,7 +17969,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>亏损收窄</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -17354,7 +17977,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Sora概念</t>
+          <t>乳业、养殖业客户</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -17362,7 +17985,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>生猪养殖</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -17370,7 +17993,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>数字通信</t>
+          <t>SPD供应商</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -17378,7 +18001,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>血液制品</t>
+          <t>创口贴</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -17388,7 +18011,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -17396,7 +18019,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>滑动轴承行业龙头</t>
+          <t>智慧矿山</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -17404,7 +18027,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>轻量化</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -17412,7 +18035,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>假发</t>
+          <t>SPD服务</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -17420,7 +18043,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>禽肉加工</t>
+          <t>氧化铝靶材</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -17428,7 +18051,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>拟购鸿林矿业47%股权</t>
+          <t>烟气治理</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -17436,7 +18059,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>矿山设备</t>
+          <t>产能扩充</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -17446,7 +18069,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>收购醋纤公司67%股权</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -17454,7 +18077,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>公共物业服务</t>
+          <t>实控人中电科</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -17462,7 +18085,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>密码技术</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -17470,7 +18093,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>智能车载</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -17478,7 +18101,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>预制菜概念</t>
+          <t>糖尿病用药</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -17486,7 +18109,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>锂电复合铜箔</t>
+          <t>海缆</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -17494,7 +18117,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>智慧工厂</t>
+          <t>授信申请</t>
         </is>
       </c>
       <c r="N86" t="n">
@@ -17504,7 +18127,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -17512,7 +18135,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>人工影响天气</t>
+          <t>蚂蚁合作</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -17520,7 +18143,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>《长安的荔枝》热播</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -17528,7 +18151,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>客户优势</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -17536,7 +18159,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>墨西哥产能建设</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -17544,7 +18167,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>车载背光源</t>
+          <t>行业资质</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -17552,7 +18175,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>创意设计</t>
+          <t>甲醇</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -17562,7 +18185,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>传感器</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -17570,7 +18193,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>高速视觉</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -17578,7 +18201,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>业务拓展</t>
+          <t>资产注入猜测</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -17586,7 +18209,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>NMN</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -17594,7 +18217,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>环保再生纸</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -17602,7 +18225,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>此前曾拟购买石药百克100%股权</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -17610,7 +18233,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>3D打印</t>
+          <t>铸造材料</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -17620,7 +18243,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>下游运用广泛</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -17628,7 +18251,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>做市业务</t>
+          <t>钢结构工程</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -17636,7 +18259,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>烟草概念</t>
+          <t>此前进行重大资产购买</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -17644,7 +18267,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>质子治疗系统</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -17652,7 +18275,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>硝化棉</t>
+          <t>高性能颜料</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -17660,7 +18283,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>心脑血管注射剂</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -17668,7 +18291,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>工业化打印</t>
+          <t>智慧校园</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -17678,7 +18301,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>小型堆核岛主设备关键装备制造</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -17686,7 +18309,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>智能环卫装备</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -17694,7 +18317,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>香料</t>
+          <t>纸质包装</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -17702,7 +18325,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>工业空调</t>
+          <t>控股股东重整</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -17710,7 +18333,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>现金分红</t>
+          <t>特高压中标</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -17718,7 +18341,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>锂电装备</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -17726,7 +18349,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>混合动力总成</t>
+          <t>三氟乙酰项目</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -17736,7 +18359,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -17744,7 +18367,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>铜</t>
+          <t>滑动轴承行业龙头</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -17752,7 +18375,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>拟收购尚阳通</t>
+          <t>控股股东为长江产业集团</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -17760,7 +18383,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>储能项目</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -17768,7 +18391,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>铁塔制造</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -17776,7 +18399,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>流感药物</t>
+          <t>人造草坪应用</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -17784,7 +18407,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>财报稳健</t>
+          <t>PEEK上游技术</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -17794,7 +18417,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -17802,7 +18425,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>H股发行</t>
+          <t>公共物业服务</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -17810,7 +18433,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>资产注入猜测</t>
+          <t>MiniLED</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -17818,7 +18441,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>超硬材料</t>
+          <t>薄荷醇</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -17826,7 +18449,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>道路运输</t>
+          <t>收购阿法硅51%股权</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -17834,7 +18457,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>新店开业</t>
+          <t>打捆机</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -17842,7 +18465,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>抗癌新药受理</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -17852,7 +18475,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>传感器</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -17860,7 +18483,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>量贩渠道增长</t>
+          <t>人工影响天气</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -17868,7 +18491,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -17876,7 +18499,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>培育钻石</t>
+          <t>草甘膦</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -17884,7 +18507,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>客运资源整合</t>
+          <t>液晶显示器</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -17892,7 +18515,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>期货业务</t>
+          <t>内酯系列香料</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -17900,7 +18523,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>镇痛新药上市</t>
+          <t>区域供热龙头</t>
         </is>
       </c>
       <c r="N93" t="n">
@@ -17910,7 +18533,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>下游运用广泛</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -17918,7 +18541,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -17926,7 +18549,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>纸质包装</t>
+          <t>受让控股子公司少数股东部分股权</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -17934,7 +18557,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>天然矿泉水</t>
+          <t>光气资源</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -17942,7 +18565,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>股东权益变动</t>
+          <t>铀矿资源</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -17950,7 +18573,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>K胺环评批复</t>
+          <t>新型储能</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -17958,7 +18581,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>一季报改善</t>
+          <t>引线框架</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -17968,7 +18591,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>海外订单增长</t>
+          <t>小型堆核岛主设备关键装备制造</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -17976,7 +18599,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>智慧路灯</t>
+          <t>做市业务</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -17984,7 +18607,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>儿童药</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -17992,7 +18615,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>母婴产品</t>
+          <t>新材料蜡烛</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -18000,7 +18623,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>石材加工</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -18008,7 +18631,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>制剂一体化</t>
+          <t>顺价调整</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -18016,7 +18639,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>量子安全</t>
+          <t>石油</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -18026,7 +18649,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -18034,7 +18657,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>房屋检测</t>
+          <t>钨</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -18042,7 +18665,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>食用菌</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -18050,7 +18673,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>乳业、养殖业客户</t>
+          <t>募投项目投产</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -18058,7 +18681,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>大股东（银亿）重整</t>
+          <t>茶饮</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -18066,17 +18689,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>消化药</t>
+          <t>国际运输</t>
         </is>
       </c>
       <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>凹印油墨</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>获赔4702万</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -18084,7 +18715,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>阻燃剂</t>
+          <t>铜</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -18092,7 +18723,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -18100,7 +18731,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SPD服务</t>
+          <t>草铵膦</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -18108,7 +18739,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>煤机</t>
+          <t>文远知行合作</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -18116,17 +18747,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>市场扩展</t>
+          <t>集装箱运输</t>
         </is>
       </c>
       <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>油气服务</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>服装行业</t>
+          <t>金属包装产品</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -18134,7 +18773,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>配电设备</t>
+          <t>H股发行</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -18142,7 +18781,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -18150,7 +18789,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>实控人此前变更</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -18158,7 +18797,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>资产整合</t>
+          <t>奶茶</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -18166,17 +18805,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>粉磨系统</t>
+          <t>航线拓展</t>
         </is>
       </c>
       <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>合同增长</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>高端成形机床</t>
+          <t>海外订单增长</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -18184,7 +18831,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>量贩渠道增长</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -18192,7 +18839,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>儿童药</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -18200,7 +18847,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>分红派息</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -18208,7 +18855,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>数字人应用</t>
+          <t>即饮新品</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -18216,17 +18863,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>生态环境</t>
+          <t>动保</t>
         </is>
       </c>
       <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>可燃冰</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>数字环卫</t>
+          <t>高分子材料防老化助剂</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -18234,7 +18889,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>钛合金材料</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -18242,7 +18897,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>食用菌</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -18250,7 +18905,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NMN</t>
+          <t>子公司参股云针科技</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -18258,7 +18913,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>医养结合</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -18266,10 +18921,434 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>绿色能源</t>
+          <t>脱敏要</t>
         </is>
       </c>
       <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>哈萨克斯坦投资</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>获赔4702万</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>智慧路灯</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>金属回收</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>智慧园林</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>社区团购</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>参股《长安的荔枝》出品方</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>碳酸锶</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>服装行业</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>房屋检测</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>分销</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>工业模块</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>分红</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>短剧（Reelshort旗下公司合作）</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>锶盐</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>高端成形机床</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>阻燃剂</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>豆制品</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>水果罐头龙头</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>中高端拓展</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Rokid合作</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>数字环卫</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>配电设备</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>供货蜜雪冰城</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>零食渠道拓展</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>自由贸易港</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>商品贸易</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>海外盈利</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>钛合金材料</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>微信小店</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>深海装备</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>PVC弹性地板</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>无实控人</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>超级百货</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>柱状电池外壳</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>拟合资设立境外子公司</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>毛利率提升</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>美国工厂</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>教育信息化</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>参投御道智算</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NHKC-1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>EPS产品</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>扩产</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>燕麦谷物</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>MLCC上游材料</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>参股券商</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>出售部分资产</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>光学镜头</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>轨道交通装备</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>资源回收</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>小粒径镍粉需求</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18323,7 +19402,7 @@
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -18333,7 +19412,7 @@
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -18343,7 +19422,7 @@
         </is>
       </c>
       <c r="B5" s="37" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -18353,7 +19432,7 @@
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -18363,7 +19442,7 @@
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -18373,7 +19452,7 @@
         </is>
       </c>
       <c r="B8" s="37" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -18383,7 +19462,7 @@
         </is>
       </c>
       <c r="B9" s="37" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -18393,7 +19472,7 @@
         </is>
       </c>
       <c r="B10" s="37" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -18403,7 +19482,7 @@
         </is>
       </c>
       <c r="B11" s="37" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -18417,7 +19496,7 @@
     <row r="13">
       <c r="A13" s="37" t="inlineStr">
         <is>
-          <t>传统消费</t>
+          <t>数字经济</t>
         </is>
       </c>
       <c r="B13" s="37" t="n">
@@ -18427,11 +19506,11 @@
     <row r="14">
       <c r="A14" s="37" t="inlineStr">
         <is>
-          <t>数字经济</t>
+          <t>传统消费</t>
         </is>
       </c>
       <c r="B14" s="37" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -18441,7 +19520,7 @@
         </is>
       </c>
       <c r="B15" s="37" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -18461,17 +19540,17 @@
         </is>
       </c>
       <c r="B17" s="37" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="inlineStr">
         <is>
-          <t>AI算力</t>
+          <t>化工</t>
         </is>
       </c>
       <c r="B18" s="37" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -18481,17 +19560,17 @@
         </is>
       </c>
       <c r="B19" s="37" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="inlineStr">
         <is>
-          <t>化工</t>
+          <t>AI算力</t>
         </is>
       </c>
       <c r="B20" s="37" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -18507,7 +19586,7 @@
     <row r="22">
       <c r="A22" s="37" t="inlineStr">
         <is>
-          <t>农业</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B22" s="37" t="n">
@@ -18517,37 +19596,37 @@
     <row r="23">
       <c r="A23" s="37" t="inlineStr">
         <is>
-          <t>体育产业</t>
+          <t>农业</t>
         </is>
       </c>
       <c r="B23" s="37" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="37" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="B24" s="37" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="37" t="inlineStr">
         <is>
-          <t>精密电子</t>
+          <t>新型材料</t>
         </is>
       </c>
       <c r="B25" s="37" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="37" t="inlineStr">
         <is>
-          <t>新型材料</t>
+          <t>精密电子</t>
         </is>
       </c>
       <c r="B26" s="37" t="n">
@@ -18557,21 +19636,21 @@
     <row r="27">
       <c r="A27" s="37" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>华为概念</t>
         </is>
       </c>
       <c r="B27" s="37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="37" t="inlineStr">
         <is>
-          <t>华为概念</t>
+          <t>消费电子</t>
         </is>
       </c>
       <c r="B28" s="37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -18619,7 +19698,7 @@
         </is>
       </c>
       <c r="B33" s="37" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -18629,7 +19708,7 @@
         </is>
       </c>
       <c r="B34" s="37" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
@@ -18639,7 +19718,7 @@
         </is>
       </c>
       <c r="B35" s="37" t="n">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -217,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -231,14 +231,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -453,6 +453,12 @@
 泡泡玛特合作+IP文创+数字文创资产+Web3.0技术</t>
       </text>
     </comment>
+    <comment ref="T4" authorId="0" shapeId="0">
+      <text>
+        <t>12天8板 09:34:33 7
+RWA+泡泡玛特合作+IP文创+Web3.0技术</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">地天板+涤纶+化学纤维+一季报增长 13:43:52 0
@@ -561,6 +567,12 @@
 蚂蚁数科合作+储能+超级电容器+摘帽</t>
       </text>
     </comment>
+    <comment ref="T5" authorId="0" shapeId="0">
+      <text>
+        <t>10天7板 13:25:09 0
+蚂蚁数科合作+储能+超级电容器+摘帽</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:25:00 0
@@ -669,6 +681,12 @@
 稀土永磁+机器人+央企</t>
       </text>
     </comment>
+    <comment ref="T6" authorId="0" shapeId="0">
+      <text>
+        <t>7天5板 13:49:03 0
+NHKC-1+创新药+仿制药+宠物经济</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:30:54 1
@@ -777,6 +795,12 @@
 汽车零部件+轻量化+比亚迪概念</t>
       </text>
     </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+油气服务+国企背景+定增推进+订单增长</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>6天4板 09:35:46 24
@@ -885,6 +909,12 @@
 贵金属回收+稀土永磁+一季报同比扭亏+山西国资</t>
       </text>
     </comment>
+    <comment ref="T8" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+油气勘探开发+加拿大油气权益+页岩气</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:57:30 0
@@ -993,6 +1023,12 @@
 IP经济+泡泡玛特合作+杯壶制造+不锈钢保温器皿</t>
       </text>
     </comment>
+    <comment ref="T9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+油气装备+页岩气+营收增长+国企</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1101,6 +1137,12 @@
 养老+三胎概念+民营医院+高压氧仓</t>
       </text>
     </comment>
+    <comment ref="T10" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+甲醇+煤化工+一季报增长+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1209,6 +1251,12 @@
 区块链+RFID+扭亏为盈</t>
       </text>
     </comment>
+    <comment ref="T11" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 1
+蚂蚁金服概念+光伏RWA+虚拟电厂</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 11
@@ -1317,6 +1365,12 @@
 蚂蚁金服概念+密码技术+量子安全</t>
       </text>
     </comment>
+    <comment ref="T12" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:02 4
+锶盐全产业链+小金属+国企</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 1
@@ -1419,6 +1473,12 @@
 无人零售（潮玩）+数字人民币+机器人</t>
       </text>
     </comment>
+    <comment ref="T13" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:03 0
+煤化工+焦炭+云南国企</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:34:28 0
@@ -1527,6 +1587,12 @@
 油服工程+国企改革+定增计划+订单增长</t>
       </text>
     </comment>
+    <comment ref="T14" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 09:30:12 5
+潮玩IP增长+固态电池</t>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:38:21 1
@@ -1635,6 +1701,12 @@
 蚂蚁金服概念+光伏RWA+虚拟电厂+一季报增长</t>
       </text>
     </comment>
+    <comment ref="T15" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:18 2
+石油+新能源转型+年报增长+央企</t>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1743,6 +1815,12 @@
 油气开发+射孔技术+CCUS业务</t>
       </text>
     </comment>
+    <comment ref="T16" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:33 1
+化工+PEEK上游技术+碳酸钾+参股半导体</t>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:00 0
@@ -1845,6 +1923,12 @@
 古法黄金+三胎概念</t>
       </text>
     </comment>
+    <comment ref="T17" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:30:34 1
+油气勘探开发+对外投资+一带一路</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:02 0
@@ -1953,6 +2037,12 @@
 油气勘探开发+哈萨克斯坦投资</t>
       </text>
     </comment>
+    <comment ref="T18" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 09:31:00 2
+数字货币+量子科技+低空经济+央企</t>
+      </text>
+    </comment>
     <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -2049,6 +2139,12 @@
 油气勘探开发+加拿大油气权益+页岩气</t>
       </text>
     </comment>
+    <comment ref="T19" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 09:31:03 0
+足球概念+生态修复+文旅+IP</t>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:25:03 0
@@ -2139,6 +2235,12 @@
 纯碱+溴素+并购重组预期+国企改革</t>
       </text>
     </comment>
+    <comment ref="T20" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:32:47 1
+3D打印+激光加工+Q1业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:00 0
@@ -2247,6 +2349,12 @@
 激光加工+3D打印+Q1业绩增长</t>
       </text>
     </comment>
+    <comment ref="T21" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:40:27 0
+黄金饰品+故宫IP+一季报增长</t>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:02 6
@@ -2355,6 +2463,12 @@
 油气勘探开发+对外投资+一带一路</t>
       </text>
     </comment>
+    <comment ref="T22" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:20:20 11
+大中型电机+资源开发+一季报扭亏</t>
+      </text>
+    </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:15 0
@@ -2451,6 +2565,12 @@
 资产收购+黄金+国企</t>
       </text>
     </comment>
+    <comment ref="T23" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 15:00:00 0
+油气开发+CCUS业务+射孔技术</t>
+      </text>
+    </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:30:30 4
@@ -2649,6 +2769,12 @@
 航运概念+沿海及长江航运</t>
       </text>
     </comment>
+    <comment ref="T25" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:31:12 0
+期货+一季报增长+江苏国资</t>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:35:01 2
@@ -2745,6 +2871,12 @@
 创新药+药用酶+净利润增长</t>
       </text>
     </comment>
+    <comment ref="T26" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:32:06 1
+第三方支付（业务拟转让）+数字货币+汽车零部件</t>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:39:55 1
@@ -2853,6 +2985,12 @@
 煤化工+一季报增长+国企改革</t>
       </text>
     </comment>
+    <comment ref="T27" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:34:12 17
+数字货币+区块链+eSIM技术</t>
+      </text>
+    </comment>
     <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:46:06 4
@@ -2955,6 +3093,12 @@
 油气工程+核电工程+可转债获批</t>
       </text>
     </comment>
+    <comment ref="T28" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:34:15 4
+稳定币+跨境支付+金融科技</t>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>2天2板 09:48:04 0
@@ -3057,6 +3201,12 @@
 中东贸易+专网通信+量子科技+近期中标</t>
       </text>
     </comment>
+    <comment ref="T29" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:41:48 0
+蚂蚁数科合作+智慧供热+碳中和概念</t>
+      </text>
+    </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>2天2板 10:00:51 1
@@ -3165,6 +3315,12 @@
 电力+抽水蓄能+国企+一季报增长</t>
       </text>
     </comment>
+    <comment ref="T30" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:43:03 1
+化学制药+仿制药+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>2天2板 13:18:24 0
@@ -3273,6 +3429,12 @@
 天然气+区域供热龙头</t>
       </text>
     </comment>
+    <comment ref="T31" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:44:40 1
+蚂蚁金服概念+IT运维+数据中心+AI应用</t>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <t>2天2板 14:31:30 0
@@ -3381,6 +3543,12 @@
 加油站+超快充业务+华为合作+一季报增长</t>
       </text>
     </comment>
+    <comment ref="T32" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:50:27 1
+商业航天+卫星通信+机器人概念+营销</t>
+      </text>
+    </comment>
     <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:40:12 6
@@ -3477,6 +3645,12 @@
 油气设备+页岩气概念+一季报增长</t>
       </text>
     </comment>
+    <comment ref="T33" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:55:33 1
+拟收购索尔思光电100%股份+印制电路板</t>
+      </text>
+    </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">首板涨停 09:25:00 0
@@ -3585,6 +3759,12 @@
 资源开发+大中型电机+一季报扭亏</t>
       </text>
     </comment>
+    <comment ref="T34" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:56:32 0
+烯草酮+农药+大豆</t>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:25:00 0
@@ -3693,6 +3873,12 @@
 锶盐全产业链+小金属+国企</t>
       </text>
     </comment>
+    <comment ref="T35" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:03:36 10
+风电+绿色甲醇+国企</t>
+      </text>
+    </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:30:28 1
@@ -3801,6 +3987,12 @@
 油气装备+能源装备+海外市场拓展</t>
       </text>
     </comment>
+    <comment ref="T36" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:09:30 1
+赛马概念+钢琴业务+文旅+广州国企</t>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:31:18 0
@@ -3909,6 +4101,12 @@
 核污染防治+硝化棉+央企改革</t>
       </text>
     </comment>
+    <comment ref="T37" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:14:49 13
+稀土永磁+钨+铜+央企</t>
+      </text>
+    </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:32:38 0
@@ -4017,6 +4215,12 @@
 并购重组+军工+无人机</t>
       </text>
     </comment>
+    <comment ref="T38" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:18:57 0
+纺织机器人+纺织机械</t>
+      </text>
+    </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:34:48 1
@@ -4125,6 +4329,12 @@
 核污染防治+电力监测+AI产品</t>
       </text>
     </comment>
+    <comment ref="T39" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:22:54 7
+阿尔茨海默病新药+麝香全产业链+化学制药</t>
+      </text>
+    </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:37:15 0
@@ -4233,6 +4443,12 @@
 煤炭概念+化工+国企</t>
       </text>
     </comment>
+    <comment ref="T40" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:23:30 0
+直播电商+朵薇品牌+出海业务+AI重塑</t>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 2
@@ -4341,6 +4557,12 @@
 油气装备+页岩气+营收增长+国企</t>
       </text>
     </comment>
+    <comment ref="T41" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:23:41 0
+浓缩果汁+外销+一季报增长+AH两地上市</t>
+      </text>
+    </comment>
     <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:38:06 4
@@ -4449,6 +4671,12 @@
 油田技术服务+一季报增长+国际拓展+现金分红</t>
       </text>
     </comment>
+    <comment ref="T42" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:47:05 0
+IP经济+曾与泡泡玛特联名+多品牌时尚集团</t>
+      </text>
+    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:42:45 0
@@ -4557,6 +4785,12 @@
 石油+央企+新能源转型+年报增长</t>
       </text>
     </comment>
+    <comment ref="T43" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 10:56:57 0
+动画电影+IP运营+业绩增长</t>
+      </text>
+    </comment>
     <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:44:09 1
@@ -4659,6 +4893,12 @@
 核污染防治+核技术+质子医疗+央企</t>
       </text>
     </comment>
+    <comment ref="T44" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:12:51 0
+服饰+新零售+潮流户外+IP经济</t>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:48:03 0
@@ -4755,6 +4995,12 @@
 核污染防治+军工</t>
       </text>
     </comment>
+    <comment ref="T45" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 11:18:54 0
+房地产+蚂蚁金服概念+合肥国资</t>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:53:35 0
@@ -4851,6 +5097,12 @@
 核污染防治+辐照灭菌+央企</t>
       </text>
     </comment>
+    <comment ref="T46" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:00:45 0
+3D打印+聚乳酸+国企</t>
+      </text>
+    </comment>
     <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 09:54:57 0
@@ -4941,6 +5193,12 @@
 净水+磷化工+一季报增长</t>
       </text>
     </comment>
+    <comment ref="T47" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:02:40 0
+农药+化工+阻燃剂+一季报扭亏</t>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:02:18 0
@@ -5031,6 +5289,12 @@
 医疗器械+创口贴+产能扩充+授信申请</t>
       </text>
     </comment>
+    <comment ref="T48" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:05:18 0
+高纯石英+半导体+光伏</t>
+      </text>
+    </comment>
     <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:03:27 3
@@ -5115,6 +5379,12 @@
 碳酸锶+锶盐+锂电池+国企</t>
       </text>
     </comment>
+    <comment ref="T49" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:18:06 0
+3D打印+页岩气+油气勘探</t>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:06:15 0
@@ -5199,6 +5469,12 @@
 核污染防治+创新药+中华老字号+国企改革</t>
       </text>
     </comment>
+    <comment ref="T50" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:18:13 0
+蚂蚁金服概念+金融科技+一季报扭亏+UF3.0经纪业务</t>
+      </text>
+    </comment>
     <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:06:57 4
@@ -5283,6 +5559,12 @@
 煤化工+甲醇+国企</t>
       </text>
     </comment>
+    <comment ref="T51" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:24:44 1
+红外热成像+探测器量产+巡检机器人</t>
+      </text>
+    </comment>
     <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:07:02 0
@@ -5367,6 +5649,12 @@
 三氟乙酰项目+PEEK上游技术+参股芯之纯半导体</t>
       </text>
     </comment>
+    <comment ref="T52" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:38:36 0
+RWA融资+蚂蚁数科合作+能源数字化</t>
+      </text>
+    </comment>
     <comment ref="B53" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:12:42 0
@@ -5451,6 +5739,12 @@
 航空装备+军工+无人机</t>
       </text>
     </comment>
+    <comment ref="T53" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 13:59:09 0
+石化设备钢结构+锻造铝合金轮毂+装配式建筑</t>
+      </text>
+    </comment>
     <comment ref="B54" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:14:39 1
@@ -5535,6 +5829,12 @@
 大飞机+铸造材料+光刻胶</t>
       </text>
     </comment>
+    <comment ref="T54" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:30:51 0
+稳定币+数字货币+金融科技</t>
+      </text>
+    </comment>
     <comment ref="B55" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:15:45 0
@@ -5613,6 +5913,12 @@
 蚂蚁金服概念+智慧校园+华为昇腾</t>
       </text>
     </comment>
+    <comment ref="T55" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:46:30 0
+中药+病理大模型</t>
+      </text>
+    </comment>
     <comment ref="B56" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:24:57 0
@@ -5685,6 +5991,12 @@
 液冷量产+一季报增长+引线框架</t>
       </text>
     </comment>
+    <comment ref="T56" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:47:15 0
+数字货币+金融科技+出海</t>
+      </text>
+    </comment>
     <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:04 0
@@ -5757,6 +6069,12 @@
 油气服务+合同增长+可燃冰+央企</t>
       </text>
     </comment>
+    <comment ref="T57" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:48:38 0
+季戊四醇涨价+一季报增长+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <t>首板涨停 10:25:58 1
@@ -5821,6 +6139,12 @@
       <text>
         <t>首板涨停 14:51:06 0
 凹印油墨+新能源转型+一季报减亏</t>
+      </text>
+    </comment>
+    <comment ref="T58" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 14:52:09 0
+农药+合成生物+一季报增长</t>
       </text>
     </comment>
     <comment ref="B59" authorId="0" shapeId="0">
@@ -7052,7 +7376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:U112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -7082,6 +7406,7 @@
     <col width="15" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7198,6 +7523,12 @@
 星期五</t>
         </is>
       </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-16
+星期一</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -7295,6 +7626,11 @@
           <t>-1.13%</t>
         </is>
       </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -7392,12 +7728,17 @@
           <t>241.78</t>
         </is>
       </c>
-      <c r="T3" s="10" t="n"/>
+      <c r="T3" s="9" t="inlineStr">
+        <is>
+          <t>203.70</t>
+        </is>
+      </c>
+      <c r="U3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>创新药(135)</t>
+          <t>创新药(141)</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -7488,13 +7829,18 @@
       <c r="S4" s="17" t="inlineStr">
         <is>
           <t>元隆雅图7</t>
+        </is>
+      </c>
+      <c r="T4" s="17" t="inlineStr">
+        <is>
+          <t>元隆雅图8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>新能源(131)</t>
+          <t>新能源(134)</t>
         </is>
       </c>
       <c r="B5" s="15" t="inlineStr">
@@ -7585,13 +7931,18 @@
       <c r="S5" s="15" t="inlineStr">
         <is>
           <t>金时科技6</t>
+        </is>
+      </c>
+      <c r="T5" s="15" t="inlineStr">
+        <is>
+          <t>金时科技7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>机器人(108)</t>
+          <t>机器人(111)</t>
         </is>
       </c>
       <c r="B6" s="15" t="inlineStr">
@@ -7644,7 +7995,7 @@
           <t>德邦股份5</t>
         </is>
       </c>
-      <c r="L6" s="15" t="inlineStr">
+      <c r="L6" s="23" t="inlineStr">
         <is>
           <t>御银股份5</t>
         </is>
@@ -7684,11 +8035,16 @@
           <t>北矿科技5</t>
         </is>
       </c>
+      <c r="T6" s="19" t="inlineStr">
+        <is>
+          <t>昂利康5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="inlineStr">
-        <is>
-          <t>港口航运(103)</t>
+      <c r="A7" s="24" t="inlineStr">
+        <is>
+          <t>港口航运(108)</t>
         </is>
       </c>
       <c r="B7" s="15" t="inlineStr">
@@ -7696,7 +8052,7 @@
           <t>丽人丽妆4</t>
         </is>
       </c>
-      <c r="C7" s="24" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>郑中设计5</t>
         </is>
@@ -7746,7 +8102,7 @@
           <t>合兴股份4</t>
         </is>
       </c>
-      <c r="M7" s="15" t="inlineStr">
+      <c r="M7" s="23" t="inlineStr">
         <is>
           <t>恒宝股份4</t>
         </is>
@@ -7776,19 +8132,24 @@
           <t>北矿科技4</t>
         </is>
       </c>
-      <c r="S7" s="25" t="inlineStr">
+      <c r="S7" s="15" t="inlineStr">
         <is>
           <t>英利汽车3</t>
         </is>
       </c>
+      <c r="T7" s="15" t="inlineStr">
+        <is>
+          <t>准油股份2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>无人经济(100)</t>
         </is>
       </c>
-      <c r="B8" s="24" t="inlineStr">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>拉芳家化4</t>
         </is>
@@ -7828,7 +8189,7 @@
           <t>融发核电5</t>
         </is>
       </c>
-      <c r="J8" s="15" t="inlineStr">
+      <c r="J8" s="23" t="inlineStr">
         <is>
           <t>御银股份3</t>
         </is>
@@ -7843,12 +8204,12 @@
           <t>永悦科技3</t>
         </is>
       </c>
-      <c r="M8" s="24" t="inlineStr">
+      <c r="M8" s="23" t="inlineStr">
         <is>
           <t>翠微股份4</t>
         </is>
       </c>
-      <c r="N8" s="24" t="inlineStr">
+      <c r="N8" s="26" t="inlineStr">
         <is>
           <t>中衡设计4</t>
         </is>
@@ -7868,7 +8229,7 @@
           <t>苏州龙杰3</t>
         </is>
       </c>
-      <c r="R8" s="24" t="inlineStr">
+      <c r="R8" s="26" t="inlineStr">
         <is>
           <t>粤传媒4</t>
         </is>
@@ -7876,16 +8237,21 @@
       <c r="S8" s="15" t="inlineStr">
         <is>
           <t>华阳新材3</t>
+        </is>
+      </c>
+      <c r="T8" s="15" t="inlineStr">
+        <is>
+          <t>贝肯能源2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>AI大模型(90)</t>
-        </is>
-      </c>
-      <c r="B9" s="24" t="inlineStr">
+          <t>新消费(98)</t>
+        </is>
+      </c>
+      <c r="B9" s="17" t="inlineStr">
         <is>
           <t>郑中设计4</t>
         </is>
@@ -7930,7 +8296,7 @@
           <t>联化科技3</t>
         </is>
       </c>
-      <c r="K9" s="15" t="inlineStr">
+      <c r="K9" s="23" t="inlineStr">
         <is>
           <t>御银股份4</t>
         </is>
@@ -7973,13 +8339,18 @@
       <c r="S9" s="17" t="inlineStr">
         <is>
           <t>哈尔斯3</t>
+        </is>
+      </c>
+      <c r="T9" s="15" t="inlineStr">
+        <is>
+          <t>山东墨龙2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="inlineStr">
         <is>
-          <t>新消费(89)</t>
+          <t>AI大模型(93)</t>
         </is>
       </c>
       <c r="B10" s="16" t="inlineStr">
@@ -8022,7 +8393,7 @@
           <t>均瑶健康4</t>
         </is>
       </c>
-      <c r="J10" s="15" t="inlineStr">
+      <c r="J10" s="23" t="inlineStr">
         <is>
           <t>霍普股份2</t>
         </is>
@@ -8047,7 +8418,7 @@
           <t>中嘉博创3</t>
         </is>
       </c>
-      <c r="O10" s="15" t="inlineStr">
+      <c r="O10" s="23" t="inlineStr">
         <is>
           <t>恒宝股份5</t>
         </is>
@@ -8057,7 +8428,7 @@
           <t>德新科技3</t>
         </is>
       </c>
-      <c r="Q10" s="24" t="inlineStr">
+      <c r="Q10" s="26" t="inlineStr">
         <is>
           <t>粤传媒3</t>
         </is>
@@ -8070,6 +8441,11 @@
       <c r="S10" s="19" t="inlineStr">
         <is>
           <t>澳洋健康3</t>
+        </is>
+      </c>
+      <c r="T10" s="15" t="inlineStr">
+        <is>
+          <t>金牛化工2</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8460,7 @@
           <t>路畅科技3</t>
         </is>
       </c>
-      <c r="C11" s="25" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>湖南天雁3</t>
         </is>
@@ -8119,7 +8495,7 @@
           <t>永冠新材4</t>
         </is>
       </c>
-      <c r="J11" s="25" t="inlineStr">
+      <c r="J11" s="23" t="inlineStr">
         <is>
           <t>海联金汇2</t>
         </is>
@@ -8129,7 +8505,7 @@
           <t>乐惠国际4</t>
         </is>
       </c>
-      <c r="L11" s="24" t="inlineStr">
+      <c r="L11" s="26" t="inlineStr">
         <is>
           <t>中衡设计3</t>
         </is>
@@ -8164,16 +8540,21 @@
           <t>交大昂立3</t>
         </is>
       </c>
-      <c r="S11" s="15" t="inlineStr">
+      <c r="S11" s="23" t="inlineStr">
         <is>
           <t>安妮股份2</t>
+        </is>
+      </c>
+      <c r="T11" s="23" t="inlineStr">
+        <is>
+          <t>协鑫能科2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="inlineStr">
         <is>
-          <t>汽车(73)</t>
+          <t>数字经济(81)</t>
         </is>
       </c>
       <c r="B12" s="14" t="inlineStr">
@@ -8261,16 +8642,21 @@
           <t>南京商旅3</t>
         </is>
       </c>
-      <c r="S12" s="24" t="inlineStr">
+      <c r="S12" s="26" t="inlineStr">
         <is>
           <t>吉大正元2</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>金瑞矿业2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>数字经济(65)</t>
+          <t>汽车(74)</t>
         </is>
       </c>
       <c r="B13" s="18" t="inlineStr">
@@ -8313,12 +8699,12 @@
           <t>江苏新能3</t>
         </is>
       </c>
-      <c r="J13" s="24" t="inlineStr">
+      <c r="J13" s="23" t="inlineStr">
         <is>
           <t>翠微股份2</t>
         </is>
       </c>
-      <c r="K13" s="15" t="inlineStr">
+      <c r="K13" s="23" t="inlineStr">
         <is>
           <t>恒宝股份3</t>
         </is>
@@ -8359,11 +8745,16 @@
         </is>
       </c>
       <c r="S13" s="31" t="n"/>
+      <c r="T13" s="15" t="inlineStr">
+        <is>
+          <t>云煤能源2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>传统消费(65)</t>
+          <t>传统消费(67)</t>
         </is>
       </c>
       <c r="B14" s="18" t="inlineStr">
@@ -8411,7 +8802,7 @@
           <t>时代出版2</t>
         </is>
       </c>
-      <c r="K14" s="24" t="inlineStr">
+      <c r="K14" s="23" t="inlineStr">
         <is>
           <t>翠微股份3</t>
         </is>
@@ -8426,7 +8817,7 @@
           <t>时代出版3</t>
         </is>
       </c>
-      <c r="N14" s="25" t="inlineStr">
+      <c r="N14" s="15" t="inlineStr">
         <is>
           <t>厦门信达2</t>
         </is>
@@ -8446,14 +8837,19 @@
           <t>康惠制药2</t>
         </is>
       </c>
-      <c r="R14" s="25" t="inlineStr">
+      <c r="R14" s="15" t="inlineStr">
         <is>
           <t>英利汽车2</t>
         </is>
       </c>
-      <c r="S14" s="12" t="inlineStr">
+      <c r="S14" s="15" t="inlineStr">
         <is>
           <t>准油股份</t>
+        </is>
+      </c>
+      <c r="T14" s="17" t="inlineStr">
+        <is>
+          <t>高乐股份2</t>
         </is>
       </c>
     </row>
@@ -8503,12 +8899,12 @@
           <t>宿迁联盛3</t>
         </is>
       </c>
-      <c r="J15" s="15" t="inlineStr">
+      <c r="J15" s="23" t="inlineStr">
         <is>
           <t>恒宝股份2</t>
         </is>
       </c>
-      <c r="K15" s="25" t="inlineStr">
+      <c r="K15" s="23" t="inlineStr">
         <is>
           <t>海联金汇3</t>
         </is>
@@ -8548,16 +8944,21 @@
           <t>华阳新材2</t>
         </is>
       </c>
-      <c r="S15" s="16" t="inlineStr">
+      <c r="S15" s="23" t="inlineStr">
         <is>
           <t>协鑫能科</t>
+        </is>
+      </c>
+      <c r="T15" s="16" t="inlineStr">
+        <is>
+          <t>泰山石油2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>商业航天(50)</t>
+          <t>商业航天(52)</t>
         </is>
       </c>
       <c r="B16" s="16" t="inlineStr">
@@ -8645,16 +9046,21 @@
           <t>哈尔斯2</t>
         </is>
       </c>
-      <c r="S16" s="12" t="inlineStr">
+      <c r="S16" s="15" t="inlineStr">
         <is>
           <t>通源石油</t>
+        </is>
+      </c>
+      <c r="T16" s="15" t="inlineStr">
+        <is>
+          <t>大洋生物2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>军工(49)</t>
+          <t>化工(49)</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -8727,27 +9133,32 @@
           <t>楚天龙2</t>
         </is>
       </c>
-      <c r="P17" s="24" t="inlineStr">
+      <c r="P17" s="26" t="inlineStr">
         <is>
           <t>粤传媒2</t>
         </is>
       </c>
       <c r="Q17" s="31" t="n"/>
-      <c r="R17" s="25" t="inlineStr">
+      <c r="R17" s="22" t="inlineStr">
         <is>
           <t>西上海2</t>
         </is>
       </c>
-      <c r="S17" s="15" t="inlineStr">
+      <c r="S17" s="17" t="inlineStr">
         <is>
           <t>萃华珠宝</t>
+        </is>
+      </c>
+      <c r="T17" s="13" t="inlineStr">
+        <is>
+          <t>洲际油气2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>化工(43)</t>
+          <t>军工(49)</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -8825,7 +9236,7 @@
           <t>交大昂立2</t>
         </is>
       </c>
-      <c r="Q18" s="24" t="inlineStr">
+      <c r="Q18" s="26" t="inlineStr">
         <is>
           <t>鸿合科技</t>
         </is>
@@ -8838,13 +9249,18 @@
       <c r="S18" s="12" t="inlineStr">
         <is>
           <t>中曼石油</t>
+        </is>
+      </c>
+      <c r="T18" s="23" t="inlineStr">
+        <is>
+          <t>东信和平2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>半导体(42)</t>
+          <t>半导体(44)</t>
         </is>
       </c>
       <c r="B19" s="16" t="inlineStr">
@@ -8857,7 +9273,7 @@
           <t>慧博云通2</t>
         </is>
       </c>
-      <c r="D19" s="25" t="inlineStr">
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>长春一东2</t>
         </is>
@@ -8919,24 +9335,29 @@
           <t>博迁新材</t>
         </is>
       </c>
-      <c r="R19" s="25" t="inlineStr">
+      <c r="R19" s="15" t="inlineStr">
         <is>
           <t>泉峰汽车2</t>
         </is>
       </c>
-      <c r="S19" s="12" t="inlineStr">
+      <c r="S19" s="15" t="inlineStr">
         <is>
           <t>贝肯能源</t>
+        </is>
+      </c>
+      <c r="T19" s="17" t="inlineStr">
+        <is>
+          <t>绿茵生态2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AI算力(42)</t>
-        </is>
-      </c>
-      <c r="B20" s="25" t="inlineStr">
+          <t>AI算力(43)</t>
+        </is>
+      </c>
+      <c r="B20" s="15" t="inlineStr">
         <is>
           <t>湖南天雁2</t>
         </is>
@@ -8978,7 +9399,7 @@
           <t>中天火箭2</t>
         </is>
       </c>
-      <c r="L20" s="15" t="inlineStr">
+      <c r="L20" s="17" t="inlineStr">
         <is>
           <t>萃华珠宝2</t>
         </is>
@@ -9014,11 +9435,16 @@
           <t>山东海化</t>
         </is>
       </c>
+      <c r="T20" s="15" t="inlineStr">
+        <is>
+          <t>金橙子2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>房地产(38)</t>
+          <t>房地产(40)</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
@@ -9066,7 +9492,7 @@
           <t>绿能慧充2</t>
         </is>
       </c>
-      <c r="K21" s="24" t="inlineStr">
+      <c r="K21" s="26" t="inlineStr">
         <is>
           <t>中衡设计2</t>
         </is>
@@ -9091,12 +9517,12 @@
           <t>长青股份2</t>
         </is>
       </c>
-      <c r="P21" s="24" t="inlineStr">
+      <c r="P21" s="26" t="inlineStr">
         <is>
           <t>中科曙光</t>
         </is>
       </c>
-      <c r="Q21" s="25" t="inlineStr">
+      <c r="Q21" s="15" t="inlineStr">
         <is>
           <t>英利汽车</t>
         </is>
@@ -9106,16 +9532,21 @@
           <t>辉隆股份2</t>
         </is>
       </c>
-      <c r="S21" s="12" t="inlineStr">
+      <c r="S21" s="15" t="inlineStr">
         <is>
           <t>金橙子</t>
+        </is>
+      </c>
+      <c r="T21" s="17" t="inlineStr">
+        <is>
+          <t>萃华珠宝2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>电力(33)</t>
+          <t>农业(36)</t>
         </is>
       </c>
       <c r="B22" s="12" t="inlineStr">
@@ -9173,7 +9604,7 @@
           <t>南华期货2</t>
         </is>
       </c>
-      <c r="M22" s="15" t="inlineStr">
+      <c r="M22" s="23" t="inlineStr">
         <is>
           <t>汇金股份2</t>
         </is>
@@ -9193,7 +9624,7 @@
           <t>塞力医疗</t>
         </is>
       </c>
-      <c r="Q22" s="25" t="inlineStr">
+      <c r="Q22" s="22" t="inlineStr">
         <is>
           <t>西上海</t>
         </is>
@@ -9206,13 +9637,18 @@
       <c r="S22" s="13" t="inlineStr">
         <is>
           <t>洲际油气</t>
+        </is>
+      </c>
+      <c r="T22" s="15" t="inlineStr">
+        <is>
+          <t>中电电机2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>农业(33)</t>
+          <t>电力(35)</t>
         </is>
       </c>
       <c r="B23" s="18" t="inlineStr">
@@ -9225,7 +9661,7 @@
           <t>金龙羽2</t>
         </is>
       </c>
-      <c r="D23" s="24" t="inlineStr">
+      <c r="D23" s="26" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
@@ -9287,7 +9723,7 @@
           <t>迪生力</t>
         </is>
       </c>
-      <c r="R23" s="24" t="inlineStr">
+      <c r="R23" s="17" t="inlineStr">
         <is>
           <t>青木科技2</t>
         </is>
@@ -9295,13 +9731,18 @@
       <c r="S23" s="15" t="inlineStr">
         <is>
           <t>西部黄金</t>
+        </is>
+      </c>
+      <c r="T23" s="15" t="inlineStr">
+        <is>
+          <t>通源石油2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>体育产业(31)</t>
+          <t>体育产业(32)</t>
         </is>
       </c>
       <c r="B24" s="15" t="inlineStr">
@@ -9324,7 +9765,7 @@
           <t>融发核电</t>
         </is>
       </c>
-      <c r="F24" s="24" t="inlineStr">
+      <c r="F24" s="26" t="inlineStr">
         <is>
           <t>正和生态</t>
         </is>
@@ -9375,22 +9816,23 @@
           <t>同兴科技</t>
         </is>
       </c>
-      <c r="Q24" s="25" t="inlineStr">
+      <c r="Q24" s="15" t="inlineStr">
         <is>
           <t>泉峰汽车</t>
         </is>
       </c>
       <c r="R24" s="31" t="n"/>
-      <c r="S24" s="25" t="inlineStr">
+      <c r="S24" s="12" t="inlineStr">
         <is>
           <t>一彬科技</t>
         </is>
       </c>
+      <c r="T24" s="31" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>新型材料(29)</t>
+          <t>新型材料(30)</t>
         </is>
       </c>
       <c r="B25" s="15" t="inlineStr">
@@ -9413,7 +9855,7 @@
           <t>沃特股份</t>
         </is>
       </c>
-      <c r="F25" s="24" t="inlineStr">
+      <c r="F25" s="26" t="inlineStr">
         <is>
           <t>浪潮软件</t>
         </is>
@@ -9469,7 +9911,7 @@
           <t>新北洋</t>
         </is>
       </c>
-      <c r="R25" s="24" t="inlineStr">
+      <c r="R25" s="26" t="inlineStr">
         <is>
           <t>比依股份</t>
         </is>
@@ -9477,13 +9919,18 @@
       <c r="S25" s="13" t="inlineStr">
         <is>
           <t>凤凰航运</t>
+        </is>
+      </c>
+      <c r="T25" s="12" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>精密电子(27)</t>
+          <t>精密电子(28)</t>
         </is>
       </c>
       <c r="B26" s="15" t="inlineStr">
@@ -9517,7 +9964,7 @@
           <t>联化科技</t>
         </is>
       </c>
-      <c r="I26" s="15" t="inlineStr">
+      <c r="I26" s="23" t="inlineStr">
         <is>
           <t>御银股份2</t>
         </is>
@@ -9553,12 +10000,12 @@
           <t>太阳电缆</t>
         </is>
       </c>
-      <c r="Q26" s="25" t="inlineStr">
+      <c r="Q26" s="12" t="inlineStr">
         <is>
           <t>合力科技</t>
         </is>
       </c>
-      <c r="R26" s="24" t="inlineStr">
+      <c r="R26" s="26" t="inlineStr">
         <is>
           <t>国星光电</t>
         </is>
@@ -9566,6 +10013,11 @@
       <c r="S26" s="19" t="inlineStr">
         <is>
           <t>千红制药</t>
+        </is>
+      </c>
+      <c r="T26" s="23" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
         </is>
       </c>
     </row>
@@ -9585,7 +10037,7 @@
           <t>中农立华</t>
         </is>
       </c>
-      <c r="D27" s="24" t="inlineStr">
+      <c r="D27" s="26" t="inlineStr">
         <is>
           <t>亚世光电</t>
         </is>
@@ -9610,7 +10062,7 @@
           <t>侨银股份</t>
         </is>
       </c>
-      <c r="I27" s="25" t="inlineStr">
+      <c r="I27" s="15" t="inlineStr">
         <is>
           <t>联明股份2</t>
         </is>
@@ -9630,7 +10082,7 @@
           <t>菜百股份2</t>
         </is>
       </c>
-      <c r="M27" s="25" t="inlineStr">
+      <c r="M27" s="15" t="inlineStr">
         <is>
           <t>湖南天雁</t>
         </is>
@@ -9660,9 +10112,14 @@
           <t>格尔软件</t>
         </is>
       </c>
-      <c r="S27" s="12" t="inlineStr">
+      <c r="S27" s="15" t="inlineStr">
         <is>
           <t>金牛化工</t>
+        </is>
+      </c>
+      <c r="T27" s="23" t="inlineStr">
+        <is>
+          <t>恒宝股份</t>
         </is>
       </c>
     </row>
@@ -9717,7 +10174,7 @@
           <t>巨星农牧</t>
         </is>
       </c>
-      <c r="K28" s="25" t="inlineStr">
+      <c r="K28" s="12" t="inlineStr">
         <is>
           <t>联合精密</t>
         </is>
@@ -9748,7 +10205,7 @@
           <t>江南新材</t>
         </is>
       </c>
-      <c r="R28" s="24" t="inlineStr">
+      <c r="R28" s="17" t="inlineStr">
         <is>
           <t>奥雅股份</t>
         </is>
@@ -9756,13 +10213,18 @@
       <c r="S28" s="18" t="inlineStr">
         <is>
           <t>利柏特</t>
+        </is>
+      </c>
+      <c r="T28" s="23" t="inlineStr">
+        <is>
+          <t>天阳科技</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>金融(14)</t>
+          <t>金融(15)</t>
         </is>
       </c>
       <c r="B29" s="18" t="inlineStr">
@@ -9826,7 +10288,7 @@
           <t>福达合金</t>
         </is>
       </c>
-      <c r="O29" s="15" t="inlineStr">
+      <c r="O29" s="23" t="inlineStr">
         <is>
           <t>东信和平</t>
         </is>
@@ -9836,12 +10298,12 @@
           <t>龙蟠科技</t>
         </is>
       </c>
-      <c r="Q29" s="24" t="inlineStr">
+      <c r="Q29" s="26" t="inlineStr">
         <is>
           <t>胜利精密</t>
         </is>
       </c>
-      <c r="R29" s="24" t="inlineStr">
+      <c r="R29" s="26" t="inlineStr">
         <is>
           <t>吉大正元</t>
         </is>
@@ -9849,13 +10311,18 @@
       <c r="S29" s="12" t="inlineStr">
         <is>
           <t>海能达</t>
+        </is>
+      </c>
+      <c r="T29" s="15" t="inlineStr">
+        <is>
+          <t>工大科雅</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>旅游(12)</t>
+          <t>旅游(14)</t>
         </is>
       </c>
       <c r="B30" s="13" t="inlineStr">
@@ -9946,6 +10413,11 @@
       <c r="S30" s="12" t="inlineStr">
         <is>
           <t>豫能控股</t>
+        </is>
+      </c>
+      <c r="T30" s="19" t="inlineStr">
+        <is>
+          <t>北大医药</t>
         </is>
       </c>
     </row>
@@ -9970,7 +10442,7 @@
           <t>海森药业</t>
         </is>
       </c>
-      <c r="E31" s="25" t="inlineStr">
+      <c r="E31" s="12" t="inlineStr">
         <is>
           <t>雪龙集团</t>
         </is>
@@ -10043,6 +10515,11 @@
       <c r="S31" s="12" t="inlineStr">
         <is>
           <t>东方环宇</t>
+        </is>
+      </c>
+      <c r="T31" s="26" t="inlineStr">
+        <is>
+          <t>新炬网络</t>
         </is>
       </c>
     </row>
@@ -10107,7 +10584,7 @@
           <t>旭升集团</t>
         </is>
       </c>
-      <c r="M32" s="24" t="inlineStr">
+      <c r="M32" s="26" t="inlineStr">
         <is>
           <t>明德生物</t>
         </is>
@@ -10140,13 +10617,18 @@
       <c r="S32" s="12" t="inlineStr">
         <is>
           <t>和顺石油</t>
+        </is>
+      </c>
+      <c r="T32" s="14" t="inlineStr">
+        <is>
+          <t>三维通信</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>业绩增长(122)</t>
+          <t>业绩增长(132)</t>
         </is>
       </c>
       <c r="B33" s="31" t="n"/>
@@ -10181,7 +10663,7 @@
         </is>
       </c>
       <c r="I33" s="31" t="n"/>
-      <c r="J33" s="24" t="inlineStr">
+      <c r="J33" s="26" t="inlineStr">
         <is>
           <t>创新医疗</t>
         </is>
@@ -10216,7 +10698,7 @@
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="Q33" s="25" t="inlineStr">
+      <c r="Q33" s="12" t="inlineStr">
         <is>
           <t>金麒麟</t>
         </is>
@@ -10229,13 +10711,18 @@
       <c r="S33" s="12" t="inlineStr">
         <is>
           <t>德石股份</t>
+        </is>
+      </c>
+      <c r="T33" s="12" t="inlineStr">
+        <is>
+          <t>东山精密</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>扭亏为盈(53)</t>
+          <t>扭亏为盈(57)</t>
         </is>
       </c>
       <c r="B34" s="15" t="inlineStr">
@@ -10268,7 +10755,7 @@
           <t>江苏新能</t>
         </is>
       </c>
-      <c r="H34" s="25" t="inlineStr">
+      <c r="H34" s="15" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
@@ -10278,7 +10765,7 @@
           <t>申通地铁</t>
         </is>
       </c>
-      <c r="J34" s="24" t="inlineStr">
+      <c r="J34" s="26" t="inlineStr">
         <is>
           <t>东珠生态</t>
         </is>
@@ -10323,16 +10810,21 @@
           <t>德艺文创</t>
         </is>
       </c>
-      <c r="S34" s="12" t="inlineStr">
+      <c r="S34" s="15" t="inlineStr">
         <is>
           <t>中电电机</t>
+        </is>
+      </c>
+      <c r="T34" s="15" t="inlineStr">
+        <is>
+          <t>先达股份</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>国企(249)</t>
+          <t>国企(263)</t>
         </is>
       </c>
       <c r="B35" s="14" t="inlineStr">
@@ -10350,7 +10842,7 @@
           <t>国科天成</t>
         </is>
       </c>
-      <c r="E35" s="24" t="inlineStr">
+      <c r="E35" s="26" t="inlineStr">
         <is>
           <t>贝瑞基因</t>
         </is>
@@ -10420,9 +10912,14 @@
           <t>弘讯科技</t>
         </is>
       </c>
-      <c r="S35" s="12" t="inlineStr">
+      <c r="S35" s="15" t="inlineStr">
         <is>
           <t>金瑞矿业</t>
+        </is>
+      </c>
+      <c r="T35" s="12" t="inlineStr">
+        <is>
+          <t>运达股份</t>
         </is>
       </c>
     </row>
@@ -10447,7 +10944,7 @@
           <t>强邦新材</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
+      <c r="E36" s="15" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
@@ -10467,7 +10964,7 @@
           <t>玉禾田</t>
         </is>
       </c>
-      <c r="I36" s="25" t="inlineStr">
+      <c r="I36" s="22" t="inlineStr">
         <is>
           <t>东风股份</t>
         </is>
@@ -10507,7 +11004,7 @@
           <t>新日股份</t>
         </is>
       </c>
-      <c r="Q36" s="24" t="inlineStr">
+      <c r="Q36" s="17" t="inlineStr">
         <is>
           <t>青木科技</t>
         </is>
@@ -10520,6 +11017,11 @@
       <c r="S36" s="12" t="inlineStr">
         <is>
           <t>新锦动力</t>
+        </is>
+      </c>
+      <c r="T36" s="12" t="inlineStr">
+        <is>
+          <t>珠江钢琴</t>
         </is>
       </c>
     </row>
@@ -10569,7 +11071,7 @@
           <t>富煌钢构</t>
         </is>
       </c>
-      <c r="J37" s="24" t="inlineStr">
+      <c r="J37" s="26" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
@@ -10604,7 +11106,7 @@
           <t>华业香料</t>
         </is>
       </c>
-      <c r="Q37" s="24" t="inlineStr">
+      <c r="Q37" s="26" t="inlineStr">
         <is>
           <t>南天信息</t>
         </is>
@@ -10617,6 +11119,11 @@
       <c r="S37" s="15" t="inlineStr">
         <is>
           <t>北化股份</t>
+        </is>
+      </c>
+      <c r="T37" s="15" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
         </is>
       </c>
     </row>
@@ -10637,7 +11144,7 @@
           <t>盛视科技</t>
         </is>
       </c>
-      <c r="E38" s="25" t="inlineStr">
+      <c r="E38" s="12" t="inlineStr">
         <is>
           <t>赛力斯</t>
         </is>
@@ -10657,7 +11164,7 @@
           <t>园林股份</t>
         </is>
       </c>
-      <c r="I38" s="24" t="inlineStr">
+      <c r="I38" s="26" t="inlineStr">
         <is>
           <t>鸿合科技</t>
         </is>
@@ -10697,12 +11204,12 @@
           <t>南京港</t>
         </is>
       </c>
-      <c r="Q38" s="25" t="inlineStr">
+      <c r="Q38" s="12" t="inlineStr">
         <is>
           <t>同心传动</t>
         </is>
       </c>
-      <c r="R38" s="24" t="inlineStr">
+      <c r="R38" s="26" t="inlineStr">
         <is>
           <t>铭普光磁</t>
         </is>
@@ -10710,6 +11217,11 @@
       <c r="S38" s="22" t="inlineStr">
         <is>
           <t>北方长龙</t>
+        </is>
+      </c>
+      <c r="T38" s="14" t="inlineStr">
+        <is>
+          <t>泰坦股份</t>
         </is>
       </c>
     </row>
@@ -10734,7 +11246,7 @@
           <t>恒鑫生活</t>
         </is>
       </c>
-      <c r="F39" s="25" t="inlineStr">
+      <c r="F39" s="12" t="inlineStr">
         <is>
           <t>金鸿顺</t>
         </is>
@@ -10749,7 +11261,7 @@
           <t>利柏特</t>
         </is>
       </c>
-      <c r="I39" s="25" t="inlineStr">
+      <c r="I39" s="12" t="inlineStr">
         <is>
           <t>正裕工业</t>
         </is>
@@ -10764,7 +11276,7 @@
           <t>江西长运</t>
         </is>
       </c>
-      <c r="L39" s="24" t="inlineStr">
+      <c r="L39" s="17" t="inlineStr">
         <is>
           <t>奥雅股份</t>
         </is>
@@ -10799,9 +11311,14 @@
           <t>美邦股份</t>
         </is>
       </c>
-      <c r="S39" s="24" t="inlineStr">
+      <c r="S39" s="26" t="inlineStr">
         <is>
           <t>华盛昌</t>
+        </is>
+      </c>
+      <c r="T39" s="19" t="inlineStr">
+        <is>
+          <t>通化金马</t>
         </is>
       </c>
     </row>
@@ -10816,7 +11333,7 @@
           <t>爱仕达</t>
         </is>
       </c>
-      <c r="D40" s="24" t="inlineStr">
+      <c r="D40" s="26" t="inlineStr">
         <is>
           <t>昆仑万维</t>
         </is>
@@ -10881,19 +11398,24 @@
           <t>连云港</t>
         </is>
       </c>
-      <c r="Q40" s="24" t="inlineStr">
+      <c r="Q40" s="26" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="R40" s="24" t="inlineStr">
+      <c r="R40" s="26" t="inlineStr">
         <is>
           <t>罗普特</t>
         </is>
       </c>
-      <c r="S40" s="12" t="inlineStr">
+      <c r="S40" s="15" t="inlineStr">
         <is>
           <t>云煤能源</t>
+        </is>
+      </c>
+      <c r="T40" s="13" t="inlineStr">
+        <is>
+          <t>遥望科技</t>
         </is>
       </c>
     </row>
@@ -10983,9 +11505,14 @@
           <t>融发核电</t>
         </is>
       </c>
-      <c r="S41" s="12" t="inlineStr">
+      <c r="S41" s="15" t="inlineStr">
         <is>
           <t>山东墨龙</t>
+        </is>
+      </c>
+      <c r="T41" s="13" t="inlineStr">
+        <is>
+          <t>安德利</t>
         </is>
       </c>
     </row>
@@ -11080,6 +11607,11 @@
           <t>科力股份</t>
         </is>
       </c>
+      <c r="T42" s="17" t="inlineStr">
+        <is>
+          <t>地素时尚</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="12" t="inlineStr">
@@ -11152,7 +11684,7 @@
           <t>奇德新材</t>
         </is>
       </c>
-      <c r="P43" s="24" t="inlineStr">
+      <c r="P43" s="26" t="inlineStr">
         <is>
           <t>富春股份</t>
         </is>
@@ -11172,9 +11704,14 @@
           <t>泰山石油</t>
         </is>
       </c>
+      <c r="T43" s="17" t="inlineStr">
+        <is>
+          <t>光线传媒</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="25" t="inlineStr">
+      <c r="B44" s="12" t="inlineStr">
         <is>
           <t>铁流股份</t>
         </is>
@@ -11229,7 +11766,7 @@
           <t>天津普林</t>
         </is>
       </c>
-      <c r="N44" s="24" t="inlineStr">
+      <c r="N44" s="26" t="inlineStr">
         <is>
           <t>南凌科技</t>
         </is>
@@ -11244,12 +11781,12 @@
           <t>浩欧博</t>
         </is>
       </c>
-      <c r="Q44" s="25" t="inlineStr">
+      <c r="Q44" s="15" t="inlineStr">
         <is>
           <t>天安新材</t>
         </is>
       </c>
-      <c r="R44" s="15" t="inlineStr">
+      <c r="R44" s="23" t="inlineStr">
         <is>
           <t>东信和平</t>
         </is>
@@ -11257,6 +11794,11 @@
       <c r="S44" s="18" t="inlineStr">
         <is>
           <t>中广核技</t>
+        </is>
+      </c>
+      <c r="T44" s="17" t="inlineStr">
+        <is>
+          <t>美邦服饰</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11823,7 @@
           <t>西王食品</t>
         </is>
       </c>
-      <c r="H45" s="15" t="inlineStr">
+      <c r="H45" s="23" t="inlineStr">
         <is>
           <t>御银股份</t>
         </is>
@@ -11311,7 +11853,7 @@
           <t>南网能源</t>
         </is>
       </c>
-      <c r="N45" s="24" t="inlineStr">
+      <c r="N45" s="26" t="inlineStr">
         <is>
           <t>二六三</t>
         </is>
@@ -11331,7 +11873,7 @@
           <t>正虹科技</t>
         </is>
       </c>
-      <c r="R45" s="24" t="inlineStr">
+      <c r="R45" s="26" t="inlineStr">
         <is>
           <t>恒银科技</t>
         </is>
@@ -11339,6 +11881,11 @@
       <c r="S45" s="12" t="inlineStr">
         <is>
           <t>际华集团</t>
+        </is>
+      </c>
+      <c r="T45" s="12" t="inlineStr">
+        <is>
+          <t>合肥城建</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11960,7 @@
           <t>退市龙宇</t>
         </is>
       </c>
-      <c r="R46" s="12" t="inlineStr">
+      <c r="R46" s="23" t="inlineStr">
         <is>
           <t>兆日科技</t>
         </is>
@@ -11421,6 +11968,11 @@
       <c r="S46" s="12" t="inlineStr">
         <is>
           <t>中金辐照</t>
+        </is>
+      </c>
+      <c r="T46" s="12" t="inlineStr">
+        <is>
+          <t>海正生材</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11997,7 @@
           <t>明牌珠宝</t>
         </is>
       </c>
-      <c r="H47" s="24" t="inlineStr">
+      <c r="H47" s="26" t="inlineStr">
         <is>
           <t>神开股份</t>
         </is>
@@ -11460,7 +12012,7 @@
           <t>莱赛激光</t>
         </is>
       </c>
-      <c r="L47" s="15" t="inlineStr">
+      <c r="L47" s="23" t="inlineStr">
         <is>
           <t>汇金股份</t>
         </is>
@@ -11498,6 +12050,11 @@
       <c r="S47" s="12" t="inlineStr">
         <is>
           <t>恒光股份</t>
+        </is>
+      </c>
+      <c r="T47" s="15" t="inlineStr">
+        <is>
+          <t>苏利股份</t>
         </is>
       </c>
     </row>
@@ -11537,7 +12094,7 @@
           <t>康达新材</t>
         </is>
       </c>
-      <c r="L48" s="24" t="inlineStr">
+      <c r="L48" s="26" t="inlineStr">
         <is>
           <t>亚世光电</t>
         </is>
@@ -11575,6 +12132,11 @@
       <c r="S48" s="19" t="inlineStr">
         <is>
           <t>南卫股份</t>
+        </is>
+      </c>
+      <c r="T48" s="16" t="inlineStr">
+        <is>
+          <t>石英股份</t>
         </is>
       </c>
     </row>
@@ -11584,7 +12146,7 @@
           <t>潮宏基</t>
         </is>
       </c>
-      <c r="C49" s="25" t="inlineStr">
+      <c r="C49" s="15" t="inlineStr">
         <is>
           <t>常青股份</t>
         </is>
@@ -11619,7 +12181,7 @@
           <t>康盛股份</t>
         </is>
       </c>
-      <c r="M49" s="24" t="inlineStr">
+      <c r="M49" s="26" t="inlineStr">
         <is>
           <t>舒华体育</t>
         </is>
@@ -11647,6 +12209,11 @@
       <c r="S49" s="16" t="inlineStr">
         <is>
           <t>红星发展</t>
+        </is>
+      </c>
+      <c r="T49" s="12" t="inlineStr">
+        <is>
+          <t>长江材料</t>
         </is>
       </c>
     </row>
@@ -11681,7 +12248,7 @@
           <t>山子高科</t>
         </is>
       </c>
-      <c r="K50" s="24" t="inlineStr">
+      <c r="K50" s="26" t="inlineStr">
         <is>
           <t>二六三</t>
         </is>
@@ -11719,6 +12286,11 @@
       <c r="S50" s="19" t="inlineStr">
         <is>
           <t>力生制药</t>
+        </is>
+      </c>
+      <c r="T50" s="23" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
         </is>
       </c>
     </row>
@@ -11733,7 +12305,7 @@
           <t>云内动力</t>
         </is>
       </c>
-      <c r="F51" s="24" t="inlineStr">
+      <c r="F51" s="26" t="inlineStr">
         <is>
           <t>同为股份</t>
         </is>
@@ -11763,7 +12335,7 @@
           <t>珠江股份</t>
         </is>
       </c>
-      <c r="M51" s="24" t="inlineStr">
+      <c r="M51" s="26" t="inlineStr">
         <is>
           <t>广合科技</t>
         </is>
@@ -11778,12 +12350,12 @@
           <t>常山药业</t>
         </is>
       </c>
-      <c r="Q51" s="12" t="inlineStr">
+      <c r="Q51" s="17" t="inlineStr">
         <is>
           <t>地素时尚</t>
         </is>
       </c>
-      <c r="R51" s="25" t="inlineStr">
+      <c r="R51" s="15" t="inlineStr">
         <is>
           <t>厦门信达</t>
         </is>
@@ -11791,6 +12363,11 @@
       <c r="S51" s="12" t="inlineStr">
         <is>
           <t>兴化股份</t>
+        </is>
+      </c>
+      <c r="T51" s="14" t="inlineStr">
+        <is>
+          <t>富吉瑞</t>
         </is>
       </c>
     </row>
@@ -11810,7 +12387,7 @@
           <t>诺普信</t>
         </is>
       </c>
-      <c r="G52" s="25" t="inlineStr">
+      <c r="G52" s="22" t="inlineStr">
         <is>
           <t>西上海</t>
         </is>
@@ -11860,9 +12437,14 @@
           <t>电子城</t>
         </is>
       </c>
-      <c r="S52" s="12" t="inlineStr">
+      <c r="S52" s="15" t="inlineStr">
         <is>
           <t>大洋生物</t>
+        </is>
+      </c>
+      <c r="T52" s="23" t="inlineStr">
+        <is>
+          <t>朗新集团</t>
         </is>
       </c>
     </row>
@@ -11892,7 +12474,7 @@
           <t>水羊股份</t>
         </is>
       </c>
-      <c r="I53" s="24" t="inlineStr">
+      <c r="I53" s="26" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
@@ -11917,7 +12499,7 @@
           <t>新诺威</t>
         </is>
       </c>
-      <c r="O53" s="24" t="inlineStr">
+      <c r="O53" s="26" t="inlineStr">
         <is>
           <t>粤传媒</t>
         </is>
@@ -11937,9 +12519,14 @@
           <t>晨曦航空</t>
         </is>
       </c>
+      <c r="T53" s="12" t="inlineStr">
+        <is>
+          <t>日上集团</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="24" t="inlineStr">
+      <c r="B54" s="26" t="inlineStr">
         <is>
           <t>梦网科技</t>
         </is>
@@ -12007,6 +12594,11 @@
       <c r="S54" s="12" t="inlineStr">
         <is>
           <t>兴业股份</t>
+        </is>
+      </c>
+      <c r="T54" s="23" t="inlineStr">
+        <is>
+          <t>中科金财</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12608,7 @@
           <t>清新环境</t>
         </is>
       </c>
-      <c r="C55" s="24" t="inlineStr">
+      <c r="C55" s="26" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
@@ -12074,6 +12666,11 @@
       <c r="S55" s="12" t="inlineStr">
         <is>
           <t>正元智慧</t>
+        </is>
+      </c>
+      <c r="T55" s="26" t="inlineStr">
+        <is>
+          <t>启迪药业</t>
         </is>
       </c>
     </row>
@@ -12128,7 +12725,7 @@
           <t>苏州龙杰</t>
         </is>
       </c>
-      <c r="R56" s="25" t="inlineStr">
+      <c r="R56" s="12" t="inlineStr">
         <is>
           <t>秦安股份</t>
         </is>
@@ -12136,6 +12733,11 @@
       <c r="S56" s="12" t="inlineStr">
         <is>
           <t>澄天伟业</t>
+        </is>
+      </c>
+      <c r="T56" s="23" t="inlineStr">
+        <is>
+          <t>四方精创</t>
         </is>
       </c>
     </row>
@@ -12185,7 +12787,7 @@
           <t>大位科技</t>
         </is>
       </c>
-      <c r="O57" s="24" t="inlineStr">
+      <c r="O57" s="26" t="inlineStr">
         <is>
           <t>引力传媒</t>
         </is>
@@ -12198,6 +12800,11 @@
       <c r="S57" s="12" t="inlineStr">
         <is>
           <t>石化油服</t>
+        </is>
+      </c>
+      <c r="T57" s="12" t="inlineStr">
+        <is>
+          <t>中毅达</t>
         </is>
       </c>
     </row>
@@ -12257,6 +12864,11 @@
           <t>乐通股份</t>
         </is>
       </c>
+      <c r="T58" s="19" t="inlineStr">
+        <is>
+          <t>利民股份</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="B59" s="17" t="inlineStr">
@@ -12309,7 +12921,7 @@
           <t>宏工科技</t>
         </is>
       </c>
-      <c r="S59" s="25" t="inlineStr">
+      <c r="S59" s="12" t="inlineStr">
         <is>
           <t>成飞集成</t>
         </is>
@@ -12346,7 +12958,7 @@
           <t>嘉诚国际</t>
         </is>
       </c>
-      <c r="M60" s="24" t="inlineStr">
+      <c r="M60" s="26" t="inlineStr">
         <is>
           <t>青云科技</t>
         </is>
@@ -12356,7 +12968,7 @@
           <t>信隆健康</t>
         </is>
       </c>
-      <c r="R60" s="24" t="inlineStr">
+      <c r="R60" s="26" t="inlineStr">
         <is>
           <t>川网传媒</t>
         </is>
@@ -12388,7 +13000,7 @@
           <t>曼卡龙</t>
         </is>
       </c>
-      <c r="L61" s="24" t="inlineStr">
+      <c r="L61" s="23" t="inlineStr">
         <is>
           <t>中科金财</t>
         </is>
@@ -12415,7 +13027,7 @@
           <t>浙江众成</t>
         </is>
       </c>
-      <c r="F62" s="24" t="inlineStr">
+      <c r="F62" s="26" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
@@ -12440,7 +13052,7 @@
           <t>爱丽家居</t>
         </is>
       </c>
-      <c r="M62" s="24" t="inlineStr">
+      <c r="M62" s="26" t="inlineStr">
         <is>
           <t>生益电子</t>
         </is>
@@ -12487,7 +13099,7 @@
           <t>诺邦股份</t>
         </is>
       </c>
-      <c r="M63" s="24" t="inlineStr">
+      <c r="M63" s="26" t="inlineStr">
         <is>
           <t>恒银科技</t>
         </is>
@@ -12497,7 +13109,7 @@
           <t>闰土股份</t>
         </is>
       </c>
-      <c r="R63" s="15" t="inlineStr">
+      <c r="R63" s="23" t="inlineStr">
         <is>
           <t>安妮股份</t>
         </is>
@@ -12519,7 +13131,7 @@
           <t>中农联合</t>
         </is>
       </c>
-      <c r="I64" s="25" t="inlineStr">
+      <c r="I64" s="12" t="inlineStr">
         <is>
           <t>德宏股份</t>
         </is>
@@ -12529,12 +13141,12 @@
           <t>佛慈制药</t>
         </is>
       </c>
-      <c r="L64" s="24" t="inlineStr">
+      <c r="L64" s="26" t="inlineStr">
         <is>
           <t>禾盛新材</t>
         </is>
       </c>
-      <c r="M64" s="12" t="inlineStr">
+      <c r="M64" s="15" t="inlineStr">
         <is>
           <t>工大科雅</t>
         </is>
@@ -12591,7 +13203,7 @@
           <t>亚泰集团</t>
         </is>
       </c>
-      <c r="R65" s="24" t="inlineStr">
+      <c r="R65" s="26" t="inlineStr">
         <is>
           <t>拉芳家化</t>
         </is>
@@ -12608,7 +13220,7 @@
           <t>金浦钛业</t>
         </is>
       </c>
-      <c r="G66" s="25" t="inlineStr">
+      <c r="G66" s="15" t="inlineStr">
         <is>
           <t>常青股份</t>
         </is>
@@ -12645,17 +13257,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="24" t="inlineStr">
+      <c r="B67" s="26" t="inlineStr">
         <is>
           <t>比依股份</t>
         </is>
       </c>
-      <c r="I67" s="25" t="inlineStr">
+      <c r="I67" s="23" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="K67" s="15" t="inlineStr">
+      <c r="K67" s="17" t="inlineStr">
         <is>
           <t>萃华珠宝</t>
         </is>
@@ -12682,7 +13294,7 @@
           <t>罗曼股份</t>
         </is>
       </c>
-      <c r="I68" s="24" t="inlineStr">
+      <c r="I68" s="23" t="inlineStr">
         <is>
           <t>朗新集团</t>
         </is>
@@ -12697,7 +13309,7 @@
           <t>西麦食品</t>
         </is>
       </c>
-      <c r="M68" s="24" t="inlineStr">
+      <c r="M68" s="26" t="inlineStr">
         <is>
           <t>德明利</t>
         </is>
@@ -12709,12 +13321,12 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="25" t="inlineStr">
+      <c r="B69" s="15" t="inlineStr">
         <is>
           <t>天安新材</t>
         </is>
       </c>
-      <c r="I69" s="15" t="inlineStr">
+      <c r="I69" s="23" t="inlineStr">
         <is>
           <t>汇金股份</t>
         </is>
@@ -12729,7 +13341,7 @@
           <t>豪悦护理</t>
         </is>
       </c>
-      <c r="M69" s="25" t="inlineStr">
+      <c r="M69" s="15" t="inlineStr">
         <is>
           <t>厦门信达</t>
         </is>
@@ -12768,7 +13380,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="25" t="inlineStr">
+      <c r="B71" s="12" t="inlineStr">
         <is>
           <t>万朗磁塑</t>
         </is>
@@ -12834,7 +13446,7 @@
           <t>江苏新能</t>
         </is>
       </c>
-      <c r="I74" s="12" t="inlineStr">
+      <c r="I74" s="23" t="inlineStr">
         <is>
           <t>雄帝科技</t>
         </is>
@@ -12870,7 +13482,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="25" t="inlineStr">
+      <c r="B77" s="22" t="inlineStr">
         <is>
           <t>东风股份</t>
         </is>
@@ -12882,7 +13494,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="25" t="inlineStr">
+      <c r="B78" s="15" t="inlineStr">
         <is>
           <t>长春一东</t>
         </is>
@@ -12911,33 +13523,33 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="I80" s="16" t="inlineStr">
+      <c r="I80" s="23" t="inlineStr">
         <is>
           <t>协鑫能科</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="24" t="inlineStr">
+      <c r="B81" s="26" t="inlineStr">
         <is>
           <t>浙文互联</t>
         </is>
       </c>
-      <c r="I81" s="13" t="inlineStr">
+      <c r="I81" s="23" t="inlineStr">
         <is>
           <t>四方精创</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="I82" s="15" t="inlineStr">
+      <c r="I82" s="23" t="inlineStr">
         <is>
           <t>恒宝股份</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="I83" s="24" t="inlineStr">
+      <c r="I83" s="26" t="inlineStr">
         <is>
           <t>金证股份</t>
         </is>
@@ -12958,14 +13570,14 @@
       </c>
     </row>
     <row r="86">
-      <c r="I86" s="12" t="inlineStr">
+      <c r="I86" s="23" t="inlineStr">
         <is>
           <t>天阳科技</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="I87" s="24" t="inlineStr">
+      <c r="I87" s="23" t="inlineStr">
         <is>
           <t>翠微股份</t>
         </is>
@@ -12979,7 +13591,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="I89" s="15" t="inlineStr">
+      <c r="I89" s="23" t="inlineStr">
         <is>
           <t>霍普股份</t>
         </is>
@@ -13021,7 +13633,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="I95" s="12" t="inlineStr">
+      <c r="I95" s="23" t="inlineStr">
         <is>
           <t>金桥信息</t>
         </is>
@@ -13035,7 +13647,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="I97" s="24" t="inlineStr">
+      <c r="I97" s="26" t="inlineStr">
         <is>
           <t>捷顺科技</t>
         </is>
@@ -13056,7 +13668,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="I100" s="24" t="inlineStr">
+      <c r="I100" s="23" t="inlineStr">
         <is>
           <t>中科金财</t>
         </is>
@@ -13077,7 +13689,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="I103" s="13" t="inlineStr">
+      <c r="I103" s="23" t="inlineStr">
         <is>
           <t>京北方</t>
         </is>
@@ -13091,7 +13703,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="I105" s="13" t="inlineStr">
+      <c r="I105" s="23" t="inlineStr">
         <is>
           <t>神州信息</t>
         </is>
@@ -13112,7 +13724,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="I108" s="25" t="inlineStr">
+      <c r="I108" s="14" t="inlineStr">
         <is>
           <t>东风科技</t>
         </is>
@@ -13158,7 +13770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13201,11 +13813,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>电动叉车</t>
+          <t>超级百货</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -13213,7 +13825,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>铝合金轮毂</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -13221,7 +13833,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>云通信</t>
+          <t>MiniLED</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -13229,7 +13841,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>低温乳制品</t>
+          <t>草铵膦</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -13237,7 +13849,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>杯壶龙头</t>
+          <t>社区团购</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -13245,7 +13857,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>收购扩展</t>
+          <t>小粒径镍粉需求</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -13259,11 +13871,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>课后服务</t>
+          <t>参投御道智算</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -13271,7 +13883,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>报业传媒</t>
+          <t>北美市场</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -13279,7 +13891,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>废气处理</t>
+          <t>婴幼儿奶粉</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -13287,7 +13899,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>鲜立方战略</t>
+          <t>实控人此前变更</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -13295,7 +13907,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>木门</t>
+          <t>分红</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -13303,7 +13915,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>模具</t>
+          <t>收购扩展</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -13313,7 +13925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -13321,7 +13933,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>股权变更</t>
+          <t>参股券商</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -13329,7 +13941,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>防撞系统零部件</t>
+          <t>K胺</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13337,7 +13949,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>小微盘股</t>
+          <t>受让控股子公司少数股东部分股权</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -13345,7 +13957,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>高端护肤</t>
+          <t>分红派息</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -13353,7 +13965,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>适老化产品</t>
+          <t>中高端拓展</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -13361,7 +13973,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>钨矿资源</t>
+          <t>模具</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -13371,15 +13983,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>三胎概念</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>实控人拟变更</t>
+          <t>电动叉车</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -13387,7 +13999,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>铝合金轮毂</t>
+          <t>收到参股公司分红</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13395,7 +14007,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>近期签大单</t>
+          <t>儿童药</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -13403,7 +14015,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SPA合作</t>
+          <t>子公司参股云针科技</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -13411,7 +14023,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>香精</t>
+          <t>自由贸易港</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -13419,7 +14031,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>金属铜</t>
+          <t>钨矿资源</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -13429,7 +14041,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>储能</t>
+          <t>三胎概念</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -13437,7 +14049,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>消费服务转型</t>
+          <t>课后服务</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -13445,7 +14057,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>北美市场</t>
+          <t>量子安全</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13453,7 +14065,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>洁净室工程</t>
+          <t>食用菌</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -13461,7 +14073,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>太阳能热水器</t>
+          <t>智慧园林</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -13469,7 +14081,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>沪上阿姨合作</t>
+          <t>PVC弹性地板</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -13477,7 +14089,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>车载电源</t>
+          <t>金属铜</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -13495,7 +14107,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>H股上市</t>
+          <t>股权变更</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -13503,7 +14115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>K胺</t>
+          <t>油气服务</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13511,7 +14123,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>中芯国际概念</t>
+          <t>特种通信</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -13519,7 +14131,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>重金属污染防治</t>
+          <t>工业模块</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -13527,7 +14139,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>储能投资</t>
+          <t>美国工厂</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -13535,7 +14147,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>超充</t>
+          <t>车载电源</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -13553,7 +14165,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>啤酒概念</t>
+          <t>实控人拟变更</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -13561,7 +14173,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>收到参股公司分红</t>
+          <t>订单增长</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13569,7 +14181,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>境外营收增长</t>
+          <t>工业铝型材</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -13577,7 +14189,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>人参全产业链</t>
+          <t>水果罐头龙头</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -13585,7 +14197,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>垃圾分类</t>
+          <t>燕麦谷物</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -13593,7 +14205,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>再生铝</t>
+          <t>超充</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -13611,7 +14223,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>人造草坪</t>
+          <t>钨</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -13619,7 +14231,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>量子安全</t>
+          <t>加拿大油气权益</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13627,7 +14239,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>写字楼出租</t>
+          <t>向中毅达子公司供应甲醇</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -13635,7 +14247,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>此前间接持股华大九天（已退出）</t>
+          <t>零食渠道拓展</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -13643,7 +14255,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>微盘股</t>
+          <t>资源回收</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -13651,7 +14263,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>铜基新材料</t>
+          <t>再生铝</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -13665,11 +14277,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>数智科技业务</t>
+          <t>铜</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -13677,7 +14289,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>收到北京科兴分红款</t>
+          <t>甲醇</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13685,7 +14297,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>拟购买博创智能约60%股份</t>
+          <t>大气治理</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -13693,7 +14305,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>新质生产力</t>
+          <t>深海装备</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -13701,7 +14313,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>预制菜</t>
+          <t>杯壶龙头</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -13709,7 +14321,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>聚醚胺</t>
+          <t>铜基新材料</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -13719,15 +14331,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>硅基负极</t>
+          <t>蚂蚁金服概念</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拟收购国贸数科100%股权</t>
+          <t>消费服务转型</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -13735,7 +14347,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>海外生产基地</t>
+          <t>生态修复</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13743,7 +14355,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>高端装备制造领域转型</t>
+          <t>金属回收</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -13751,7 +14363,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>EDA行业</t>
+          <t>毛利率提升</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -13759,7 +14371,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>制冷技术</t>
+          <t>木门</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -13767,7 +14379,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>COC</t>
+          <t>聚醚胺</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -13777,7 +14389,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>硅基负极</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -13785,7 +14397,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中标项目</t>
+          <t>H股上市</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -13793,7 +14405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>广告营销</t>
+          <t>石油</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13801,7 +14413,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>血友病药物</t>
+          <t>分销</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -13809,7 +14421,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>海洋经济</t>
+          <t>扩产</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -13817,7 +14429,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>智能物联</t>
+          <t>适老化产品</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -13825,7 +14437,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>COC</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -13835,7 +14447,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>资产注入预期</t>
+          <t>包装印刷</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -13843,7 +14455,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>油服工程</t>
+          <t>啤酒概念</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -13851,7 +14463,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>包装设备</t>
+          <t>激光加工</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -13859,7 +14471,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>电梯设备</t>
+          <t>豆制品</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -13867,7 +14479,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>注射液获临床试验批准</t>
+          <t>轨道交通装备</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -13875,7 +14487,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>玻璃基板</t>
+          <t>香精</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -13883,7 +14495,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>此前转让子公司股权</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -13893,7 +14505,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>比亚迪概念</t>
+          <t>资产注入预期</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -13901,7 +14513,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海外业务</t>
+          <t>人造草坪</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -13909,7 +14521,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>消费行业</t>
+          <t>PEEK上游技术</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13917,7 +14529,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>网络直播</t>
+          <t>供货蜜雪冰城</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -13925,7 +14537,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>血友病治疗药物</t>
+          <t>低温乳制品</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -13933,7 +14545,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>有线电视</t>
+          <t>沪上阿姨合作</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -13941,7 +14553,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>针织服装</t>
+          <t>此前转让子公司股权</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -13951,7 +14563,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>信创</t>
+          <t>比亚迪概念</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -13959,7 +14571,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>民营医院</t>
+          <t>阻燃剂</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -13967,7 +14579,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>文创消费品</t>
+          <t>资源开发</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13975,7 +14587,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>特种石墨</t>
+          <t>微信小店</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -13983,7 +14595,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>智能驾驶</t>
+          <t>鲜立方战略</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -13991,7 +14603,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>紧固件龙头</t>
+          <t>储能投资</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -13999,7 +14611,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>安踏合作</t>
+          <t>针织服装</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -14009,7 +14621,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>股份回购</t>
+          <t>超级电容器</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -14017,7 +14629,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>高压氧仓</t>
+          <t>数智科技业务</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -14025,7 +14637,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>热塑性弹性体</t>
+          <t>对外投资</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14033,7 +14645,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>电源</t>
+          <t>拟合资设立境外子公司</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -14041,7 +14653,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>有色金属电解设备</t>
+          <t>高端护肤</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -14049,7 +14661,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>聚乙二醇</t>
+          <t>垃圾分类</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -14057,7 +14669,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>三胎</t>
+          <t>安踏合作</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -14067,15 +14679,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>艺术黄金</t>
+          <t>信创</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>染料</t>
+          <t>拟收购国贸数科100%股权</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -14083,7 +14695,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>成人玩具材料</t>
+          <t>锶盐全产业链</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14091,7 +14703,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
+          <t>EPS产品</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -14099,7 +14711,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>智能化转型</t>
+          <t>SPA合作</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -14107,7 +14719,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>碳陶刹车系统</t>
+          <t>微盘股</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -14115,7 +14727,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>国际化</t>
+          <t>三胎</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -14125,15 +14737,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>黄酒</t>
+          <t>股份回购</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>间接投资宇树科技</t>
+          <t>中标项目</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -14141,7 +14753,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>虚拟现实</t>
+          <t>油气开发</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14149,7 +14761,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>化学试剂</t>
+          <t>光学镜头</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -14157,7 +14769,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>太阳能热水器</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -14165,7 +14777,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>门店扩张</t>
+          <t>预制菜</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -14173,7 +14785,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>胶原蛋白研发</t>
+          <t>国际化</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -14183,15 +14795,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>蚂蚁数科合作</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>控股权变更</t>
+          <t>油服工程</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -14199,7 +14811,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>煤炭</t>
+          <t>CCUS业务</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -14207,7 +14819,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>首店经济</t>
+          <t>云通信</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -14215,7 +14827,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>制冷管路</t>
+          <t>重金属污染防治</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -14223,7 +14835,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>高铁</t>
+          <t>制冷技术</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -14231,7 +14843,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>女装</t>
+          <t>胶原蛋白研发</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -14241,7 +14853,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>充电桩</t>
+          <t>艺术黄金</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -14249,7 +14861,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>电动两轮车</t>
+          <t>海外业务</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -14257,7 +14869,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>国际化布局</t>
+          <t>射孔技术</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14265,7 +14877,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>产能恢复</t>
+          <t>废气处理</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -14273,7 +14885,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>泰国工厂</t>
+          <t>人参全产业链</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -14281,7 +14893,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>智能物联</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -14289,7 +14901,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>园林机械</t>
+          <t>女装</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -14299,7 +14911,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>高股息</t>
+          <t>黄酒</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -14307,7 +14919,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>职业培训</t>
+          <t>NHKC-1</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -14315,7 +14927,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>冲压焊接件</t>
+          <t>收到北京科兴分红款</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14323,7 +14935,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>高压快充</t>
+          <t>小微盘股</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -14331,7 +14943,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>能源数字化</t>
+          <t>此前间接持股华大九天（已退出）</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -14339,7 +14951,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>玻璃基板</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -14347,7 +14959,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>中证1000调入</t>
+          <t>园林机械</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -14357,7 +14969,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>超级电容器</t>
+          <t>eSIM技术</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -14365,7 +14977,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海外产能布局</t>
+          <t>民营医院</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -14373,7 +14985,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>碳化硅</t>
+          <t>海外生产基地</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -14381,7 +14993,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>智能包装设备</t>
+          <t>近期签大单</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -14389,7 +15001,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>聚合充电平台</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -14397,7 +15009,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>基础建设</t>
+          <t>有线电视</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -14405,7 +15017,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>俄罗斯市场</t>
+          <t>中证1000调入</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -14415,7 +15027,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>古法黄金</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -14423,7 +15035,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>创新驱动</t>
+          <t>高压氧仓</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -14431,7 +15043,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>时装</t>
+          <t>广告营销</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -14439,7 +15051,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>显示器件</t>
+          <t>洁净室工程</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -14447,7 +15059,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>战略投资</t>
+          <t>EDA行业</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -14455,7 +15067,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>雄安新区</t>
+          <t>紧固件龙头</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -14463,7 +15075,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>俄罗斯市场</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -14473,7 +15085,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>一体化压铸</t>
+          <t>充电桩</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -14481,7 +15093,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Web3.0技术</t>
+          <t>染料</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -14489,7 +15101,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>质价比战略</t>
+          <t>包装设备</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -14497,7 +15109,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>越南产能释放</t>
+          <t>中芯国际概念</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -14505,7 +15117,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>车路云一体化</t>
+          <t>海洋经济</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -14513,7 +15125,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>新设矿业公司</t>
+          <t>聚乙二醇</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -14521,7 +15133,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>LED封装</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -14531,7 +15143,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>核污染防治</t>
+          <t>高股息</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -14539,7 +15151,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>贵金属回收</t>
+          <t>间接投资宇树科技</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -14547,7 +15159,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>参股迪洛斯10%股权</t>
+          <t>消费行业</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -14555,7 +15167,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>低空防御</t>
+          <t>境外营收增长</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -14563,7 +15175,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>煤炭设备</t>
+          <t>注射液获临床试验批准</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -14571,7 +15183,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>储能消防</t>
+          <t>碳陶刹车系统</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -14579,7 +15191,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>内容运营</t>
+          <t>LED封装</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -14589,15 +15201,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>高标准农田建设</t>
+          <t>古法黄金</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>杯壶制造</t>
+          <t>控股权变更</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -14605,7 +15217,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>电子纸</t>
+          <t>文创消费品</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14613,7 +15225,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>红外光电</t>
+          <t>写字楼出租</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -14621,7 +15233,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>城乡污水处理</t>
+          <t>血友病治疗药物</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -14629,7 +15241,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>电声产品</t>
+          <t>门店扩张</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -14637,7 +15249,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>文创家居用品</t>
+          <t>内容运营</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -14647,15 +15259,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>聚氨酯材料</t>
+          <t>一体化压铸</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>不锈钢保温器皿</t>
+          <t>电动两轮车</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -14663,7 +15275,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>增持</t>
+          <t>热塑性弹性体</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14671,7 +15283,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>印刷版材</t>
+          <t>拟购买博创智能约60%股份</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -14679,7 +15291,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>环保水处理</t>
+          <t>智能驾驶</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -14687,7 +15299,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>完成重整</t>
+          <t>高铁</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -14695,7 +15307,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>工业互联网</t>
+          <t>文创家居用品</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -14705,15 +15317,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>部分产品涨价</t>
+          <t>核污染防治</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>体外诊断</t>
+          <t>职业培训</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -14721,7 +15333,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>天然气液化加工</t>
+          <t>成人玩具材料</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -14729,7 +15341,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>高端装备制造领域转型</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -14737,7 +15349,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>退出润滑油业务</t>
+          <t>有色金属电解设备</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -14745,7 +15357,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>军用检测</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -14753,7 +15365,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>减速机</t>
+          <t>工业互联网</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -14763,7 +15375,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>焊接材料</t>
+          <t>高标准农田建设</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -14771,7 +15383,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>豆包</t>
+          <t>海外产能布局</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -14779,7 +15391,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>昂拉地韦片获批上市</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -14787,7 +15399,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>精装修</t>
+          <t>血友病药物</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -14795,7 +15407,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>可信身份技术</t>
+          <t>智能化转型</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -14803,7 +15415,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>季报亏损收窄</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -14811,7 +15423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>户外储能</t>
+          <t>减速机</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -14821,7 +15433,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>胶粘解决方案</t>
+          <t>聚氨酯材料</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -14829,7 +15441,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创投</t>
+          <t>创新驱动</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -14837,7 +15449,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>泰国工厂投产</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14845,7 +15457,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>智慧口岸</t>
+          <t>电梯设备</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -14853,7 +15465,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>综合能源服务</t>
+          <t>BBU</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -14861,7 +15473,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>基础建设</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -14869,7 +15481,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>原药一体化</t>
+          <t>户外储能</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -14879,7 +15491,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>柴油机</t>
+          <t>部分产品涨价</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -14887,7 +15499,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>终止股权转让</t>
+          <t>贵金属回收</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -14895,7 +15507,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>抗量子密码</t>
+          <t>国际化布局</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14903,7 +15515,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>音响</t>
+          <t>网络直播</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -14911,7 +15523,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>钢丝</t>
+          <t>制冷管路</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -14919,7 +15531,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>模型服务</t>
+          <t>雄安新区</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -14927,7 +15539,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>高研发投入</t>
+          <t>原药一体化</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -14937,7 +15549,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>输配电设备</t>
+          <t>焊接材料</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -14945,7 +15557,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CDMO</t>
+          <t>杯壶制造</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -14953,7 +15565,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>应急装备</t>
+          <t>冲压焊接件</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -14961,7 +15573,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>瓶坯智能成型系统</t>
+          <t>特种石墨</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -14969,7 +15581,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>光纤</t>
+          <t>泰国工厂</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -14977,7 +15589,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>与海光信息达成战略合作</t>
+          <t>新设矿业公司</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -14985,7 +15597,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>股权激励</t>
+          <t>高研发投入</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -14995,7 +15607,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>京东增持</t>
+          <t>小金属</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -15003,7 +15615,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>尿素</t>
+          <t>不锈钢保温器皿</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -15011,7 +15623,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>国际货代</t>
+          <t>碳化硅</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -15019,7 +15631,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>发布天工超级智能体</t>
+          <t>电源</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -15027,7 +15639,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>物联网解决方案</t>
+          <t>聚合充电平台</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -15035,7 +15647,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>营销</t>
+          <t>储能消防</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -15043,7 +15655,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>纸纹防伪应用</t>
+          <t>股权激励</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -15053,7 +15665,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>中成药</t>
+          <t>胶粘解决方案</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -15061,7 +15673,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>营收增长</t>
+          <t>油气装备</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -15069,7 +15681,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>产能释放</t>
+          <t>时装</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -15077,7 +15689,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>化学药</t>
+          <t>发行股份购买资产并募集配套资金暨关联交易事项获批</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -15085,7 +15697,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>量子安全通信</t>
+          <t>战略投资</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -15093,7 +15705,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>印制电路板</t>
+          <t>电声产品</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -15101,7 +15713,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>生态修复</t>
+          <t>纸纹防伪应用</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -15111,7 +15723,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>柴油机</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -15119,7 +15731,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>近期中标</t>
+          <t>体外诊断</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -15127,7 +15739,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>细分市场龙头</t>
+          <t>质价比战略</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -15135,7 +15747,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>流感用药</t>
+          <t>化学试剂</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -15143,7 +15755,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>数字支付</t>
+          <t>车路云一体化</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -15151,7 +15763,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>智慧供热</t>
+          <t>完成重整</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -15169,7 +15781,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>产业园运营</t>
+          <t>输配电设备</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -15177,7 +15789,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>豆包</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -15185,7 +15797,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>蜜雪冰城供应商</t>
+          <t>参股迪洛斯10%股权</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -15193,7 +15805,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>基因测序</t>
+          <t>首店经济</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -15201,7 +15813,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>RISC-V</t>
+          <t>煤炭设备</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -15209,7 +15821,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>碳中和概念</t>
+          <t>军用检测</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -15227,7 +15839,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Web3.0</t>
+          <t>京东增持</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -15235,7 +15847,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>可降解塑料</t>
+          <t>创投</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -15243,7 +15855,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>新型城镇化</t>
+          <t>电子纸</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -15251,7 +15863,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>出生缺陷预防</t>
+          <t>产能恢复</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -15259,7 +15871,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>蓝宝石</t>
+          <t>城乡污水处理</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -15267,7 +15879,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>高速光模块</t>
+          <t>季报亏损收窄</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -15285,7 +15897,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eSIM技术</t>
+          <t>中成药</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -15293,7 +15905,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>云计算</t>
+          <t>终止股权转让</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -15301,7 +15913,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>深海工程</t>
+          <t>增持</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -15309,7 +15921,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>烯草酮</t>
+          <t>高压快充</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -15317,7 +15929,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>文生视频</t>
+          <t>环保水处理</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -15325,7 +15937,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>价格回暖</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -15343,7 +15955,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>海外市场拓展</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -15351,7 +15963,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>游戏</t>
+          <t>CDMO</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -15359,7 +15971,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>比亚迪</t>
+          <t>天然气液化加工</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -15367,7 +15979,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>大豆</t>
+          <t>智能包装设备</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -15375,7 +15987,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>退出润滑油业务</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -15383,7 +15995,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>广电网络服务</t>
+          <t>模型服务</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -15401,7 +16013,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>次新股</t>
+          <t>产业园运营</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -15409,7 +16021,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>彩票</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -15417,7 +16029,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>车载电源管理模块</t>
+          <t>昂拉地韦片获批上市</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -15425,7 +16037,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>次新</t>
+          <t>显示器件</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -15433,7 +16045,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>自身免疫性疾病</t>
+          <t>可信身份技术</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -15441,7 +16053,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>产业园区运营</t>
+          <t>与海光信息达成战略合作</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -15449,7 +16061,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>期货</t>
+          <t>彩票印制</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -15459,7 +16071,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>股权转让</t>
+          <t>Web3.0</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -15467,7 +16079,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>英伟达概念</t>
+          <t>近期中标</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -15475,7 +16087,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>项目中标</t>
+          <t>烯草酮</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -15483,7 +16095,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>餐饮具</t>
+          <t>越南产能释放</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -15491,7 +16103,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>智慧法院</t>
+          <t>综合能源服务</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -15499,7 +16111,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>万豪合作（云服务）</t>
+          <t>高速光模块</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -15507,7 +16119,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>彩票印制</t>
+          <t>RFID综合解决方案</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -15517,7 +16129,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>期货经纪</t>
+          <t>海外市场拓展</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -15525,7 +16137,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>药用酶</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -15533,7 +16145,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>智慧交通</t>
+          <t>大豆</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -15541,7 +16153,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>环保包装</t>
+          <t>低空防御</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -15549,7 +16161,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>阿里</t>
+          <t>钢丝</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -15557,7 +16169,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>贵金属</t>
+          <t>价格回暖</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -15565,7 +16177,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RFID综合解决方案</t>
+          <t>或迎国药集团入主</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -15575,7 +16187,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>风险管理</t>
+          <t>次新股</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -15583,7 +16195,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>个护用品</t>
+          <t>可降解塑料</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -15591,7 +16203,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>电子级玻璃纤维</t>
+          <t>泰国工厂投产</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -15599,7 +16211,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PBO单体</t>
+          <t>红外光电</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -15607,7 +16219,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>数字营销</t>
+          <t>光纤</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -15615,7 +16227,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>碳酸锂项目</t>
+          <t>广电网络服务</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -15623,7 +16235,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>或迎国药集团入主</t>
+          <t>血液制品</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -15633,7 +16245,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>保健品</t>
+          <t>股权转让</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -15641,7 +16253,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>新型烟草</t>
+          <t>云计算</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -15649,7 +16261,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>覆铜板上游</t>
+          <t>抗量子密码</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -15657,7 +16269,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>染发剂原料</t>
+          <t>印刷版材</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -15665,7 +16277,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>智慧停车</t>
+          <t>物联网解决方案</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -15673,7 +16285,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>轨道交通</t>
+          <t>产业园区运营</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -15681,7 +16293,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>血液制品</t>
+          <t>矿山设备</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -15691,7 +16303,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>海外拓展</t>
+          <t>期货经纪</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -15699,7 +16311,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>智能电网</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -15707,7 +16319,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>阿里云合作</t>
+          <t>应急装备</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -15715,7 +16327,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>专精特新小巨人</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -15723,7 +16335,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>EDA</t>
+          <t>量子安全通信</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -15731,7 +16343,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>乙二醇</t>
+          <t>万豪合作（云服务）</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -15739,7 +16351,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>矿山设备</t>
+          <t>智慧工厂</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -15749,7 +16361,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>供销社</t>
+          <t>风险管理</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -15757,7 +16369,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>光模块</t>
+          <t>彩票</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -15765,7 +16377,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>节能服务</t>
+          <t>国际货代</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -15773,7 +16385,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>LCP重庆基地投产</t>
+          <t>精装修</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -15781,7 +16393,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>晶圆级测试设备</t>
+          <t>数字支付</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -15789,7 +16401,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>铝加工</t>
+          <t>贵金属</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -15797,7 +16409,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>智慧工厂</t>
+          <t>创意设计</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -15807,7 +16419,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>减肥药</t>
+          <t>保健品</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -15815,7 +16427,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>白银</t>
+          <t>英伟达概念</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -15823,7 +16435,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>硝化棉</t>
+          <t>产能释放</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -15831,7 +16443,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>左旋对羟基苯甘氨酸系列</t>
+          <t>智慧口岸</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -15839,7 +16451,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>国家大基金持股</t>
+          <t>RISC-V</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -15847,7 +16459,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>一季报营收增长</t>
+          <t>碳酸锂项目</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -15855,7 +16467,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>创意设计</t>
+          <t>工业化打印</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -15865,15 +16477,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>塑料包装</t>
+          <t>海外拓展</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>量子科技</t>
+          <t>药用酶</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -15881,7 +16493,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>现金分红</t>
+          <t>细分市场龙头</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -15889,7 +16501,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>研发投入增长</t>
+          <t>音响</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -15897,7 +16509,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>参股券商（拟转让）</t>
+          <t>蓝宝石</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -15905,7 +16517,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>水电</t>
+          <t>轨道交通</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -15913,7 +16525,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>工业化打印</t>
+          <t>混合动力总成</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -15923,15 +16535,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>产能扩张</t>
+          <t>供销社</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>油气勘探开发</t>
+          <t>个护用品</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -15939,7 +16551,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>电子烟</t>
+          <t>蜜雪冰城供应商</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -15947,7 +16559,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>聚丙烯薄膜</t>
+          <t>瓶坯智能成型系统</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -15955,7 +16567,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>高分子发泡材料</t>
+          <t>文生视频</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -15963,7 +16575,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>乙二醇</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -15971,7 +16583,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>混合动力总成</t>
+          <t>财报稳健</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -15981,23 +16593,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>卡牌</t>
+          <t>油气勘探开发</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>拟购东实股份50%股权</t>
+          <t>新型烟草</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>轮胎</t>
+          <t>新型城镇化</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -16005,7 +16617,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>问界</t>
+          <t>发布天工超级智能体</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -16013,7 +16625,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>橡胶V带</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -16021,7 +16633,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>商品混凝土</t>
+          <t>铝加工</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -16029,7 +16641,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>财报稳健</t>
+          <t>抗癌新药受理</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -16039,23 +16651,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>烟草</t>
+          <t>页岩气</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>与辉瑞订立许可协议</t>
+          <t>智能电网</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>稀土</t>
+          <t>深海工程</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -16063,7 +16675,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>行星滚柱丝杠</t>
+          <t>化学药</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -16071,7 +16683,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>声学产品</t>
+          <t>自身免疫性疾病</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -16079,7 +16691,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>云网安融合</t>
+          <t>一季报营收增长</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -16087,7 +16699,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>抗癌新药受理</t>
+          <t>镇痛新药上市</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -16097,23 +16709,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>超高分子量聚乙烯纤维</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>自免</t>
+          <t>光模块</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>盐湖提锂</t>
+          <t>比亚迪</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -16121,7 +16733,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>焊材</t>
+          <t>流感用药</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -16129,7 +16741,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>功能性硅烷</t>
+          <t>智慧法院</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -16137,7 +16749,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>全球组网服务</t>
+          <t>水电</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -16145,7 +16757,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>镇痛新药上市</t>
+          <t>一季报改善</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -16155,23 +16767,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>此前收购中达金属60%股权</t>
+          <t>减肥药</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>拟购买海德利森100%股权</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>宠物护理</t>
+          <t>车载电源管理模块</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -16179,7 +16791,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>电子身份证</t>
+          <t>基因测序</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -16187,7 +16799,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>阿里</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -16195,7 +16807,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>数字通信</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -16203,7 +16815,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>一季报改善</t>
+          <t>定增计划</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -16213,7 +16825,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>小金属</t>
+          <t>塑料包装</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -16221,7 +16833,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>麦角硫因</t>
+          <t>拟购东实股份50%股权</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -16229,7 +16841,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>高分红</t>
+          <t>项目中标</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -16237,7 +16849,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>中科院控股</t>
+          <t>出生缺陷预防</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -16245,7 +16857,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>长三角布局</t>
+          <t>数字营销</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -16253,7 +16865,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>拟购鸿林矿业47%股权</t>
+          <t>商品混凝土</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -16261,7 +16873,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>定增计划</t>
+          <t>项目定点</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -16271,7 +16883,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>复合集流体</t>
+          <t>产能扩张</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -16279,7 +16891,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>输变电设备</t>
+          <t>与辉瑞订立许可协议</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -16287,7 +16899,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>能源数字化</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -16295,7 +16907,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>数字教育云</t>
+          <t>次新</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -16303,7 +16915,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>童装</t>
+          <t>智慧停车</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -16311,7 +16923,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>锂电复合铜箔</t>
+          <t>云网安融合</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -16319,7 +16931,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>订单增长</t>
+          <t>智能激光除草</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -16329,7 +16941,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>高端化、年轻化</t>
+          <t>卡牌</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -16337,7 +16949,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>自免</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -16345,7 +16957,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>中高端家具</t>
+          <t>智慧交通</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -16353,7 +16965,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>OLED</t>
+          <t>餐饮具</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -16361,7 +16973,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>毛毯龙头</t>
+          <t>EDA</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -16369,7 +16981,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>车载背光源</t>
+          <t>全球组网服务</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -16377,7 +16989,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>激光加工</t>
+          <t>油气工程</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -16387,7 +16999,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>产品提价</t>
+          <t>烟草</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -16395,7 +17007,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>低空资产注入猜想</t>
+          <t>拟购买海德利森100%股权</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -16403,7 +17015,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>专精特新</t>
+          <t>电子级玻璃纤维</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -16411,7 +17023,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>智谱合作</t>
+          <t>环保包装</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -16419,7 +17031,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>一季度增长</t>
+          <t>晶圆级测试设备</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -16427,7 +17039,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>此前曾拟购买石药百克100%股权</t>
+          <t>数字通信</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -16435,7 +17047,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>项目定点</t>
+          <t>可转债获批</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -16445,7 +17057,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂</t>
+          <t>超高分子量聚乙烯纤维</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -16453,7 +17065,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>防弹材料</t>
+          <t>麦角硫因</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -16461,7 +17073,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>环保</t>
+          <t>覆铜板上游</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -16469,7 +17081,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>生态保护</t>
+          <t>PBO单体</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -16477,7 +17089,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>国家大基金持股</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -16485,7 +17097,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>丙烯</t>
+          <t>拟购鸿林矿业47%股权</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -16493,7 +17105,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>智能激光除草</t>
+          <t>中东贸易</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -16503,7 +17115,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>智慧环卫</t>
+          <t>此前收购中达金属60%股权</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -16511,7 +17123,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>临空型园区</t>
+          <t>输变电设备</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -16519,7 +17131,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>战略合作</t>
+          <t>阿里云合作</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -16527,7 +17139,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>啤酒</t>
+          <t>染发剂原料</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -16535,7 +17147,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>葡萄酒</t>
+          <t>参股券商（拟转让）</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -16543,7 +17155,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>曾与强脑科技合作</t>
+          <t>锂电复合铜箔</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -16551,7 +17163,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>加拿大油气权益</t>
+          <t>专网通信</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -16561,7 +17173,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>精酿啤酒</t>
+          <t>复合集流体</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -16569,7 +17181,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>园区开发</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -16577,7 +17189,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>中华老字号</t>
+          <t>节能服务</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -16585,7 +17197,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>中科系</t>
+          <t>专精特新小巨人</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -16593,7 +17205,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>物管</t>
+          <t>高分子发泡材料</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -16601,7 +17213,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>流感药物</t>
+          <t>车载背光源</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -16609,7 +17221,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>油气工程</t>
+          <t>抽水蓄能</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -16619,7 +17231,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>回购注销</t>
+          <t>高端化、年轻化</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -16627,7 +17239,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>自行车零配件</t>
+          <t>低空资产注入猜想</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -16635,7 +17247,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3D打印</t>
+          <t>硝化棉</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -16643,7 +17255,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>数字会议</t>
+          <t>LCP重庆基地投产</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -16651,7 +17263,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>轻资产转型</t>
+          <t>橡胶V带</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -16659,7 +17271,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>新店开业</t>
+          <t>此前曾拟购买石药百克100%股权</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -16667,7 +17279,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>可转债获批</t>
+          <t>加油站</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -16677,7 +17289,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>大健康消费品</t>
+          <t>产品提价</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -16685,7 +17297,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>日化用品</t>
+          <t>防弹材料</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -16693,7 +17305,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>页岩气</t>
+          <t>现金分红</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -16701,7 +17313,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>改性塑料</t>
+          <t>左旋对羟基苯甘氨酸系列</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -16709,7 +17321,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>生态环保</t>
+          <t>声学产品</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -16717,7 +17329,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>期货业务</t>
+          <t>丙烯</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -16725,7 +17337,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>中东贸易</t>
+          <t>超快充业务</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -16735,7 +17347,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>水溶肥料</t>
+          <t>受阻胺光稳定剂</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -16743,7 +17355,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>护肤品</t>
+          <t>临空型园区</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -16751,7 +17363,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>油气装备</t>
+          <t>电子烟</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -16759,7 +17371,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>下游应用广泛</t>
+          <t>研发投入增长</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -16767,7 +17379,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>生猪养殖</t>
+          <t>功能性硅烷</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -16775,7 +17387,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>K胺环评批复</t>
+          <t>曾与强脑科技合作</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -16783,7 +17395,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>专网通信</t>
+          <t>能源装备</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -16793,7 +17405,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>智慧城市</t>
+          <t>智慧环卫</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -16801,7 +17413,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>拟收购英迪芯微控股权</t>
+          <t>园区开发</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -16809,15 +17421,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>石英制品</t>
+          <t>轮胎</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>与中科信控科技签署战略合作协议</t>
+          <t>聚丙烯薄膜</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -16825,7 +17437,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>禽肉加工</t>
+          <t>橡胶制品</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -16833,7 +17445,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>制剂一体化</t>
+          <t>流感药物</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -16841,7 +17453,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>抽水蓄能</t>
+          <t>煤炭概念</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -16851,7 +17463,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>杀虫剂</t>
+          <t>精酿啤酒</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -16859,7 +17471,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>医美</t>
+          <t>自行车零配件</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -16867,15 +17479,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>建材</t>
+          <t>稀土</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>生物质热电</t>
+          <t>问界</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -16883,7 +17495,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>预制菜概念</t>
+          <t>长三角布局</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -16891,7 +17503,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>消化药</t>
+          <t>新店开业</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -16899,7 +17511,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>油气开发</t>
+          <t>油田技术服务</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -16909,7 +17521,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>氯虫苯甲酰胺中间体</t>
+          <t>回购注销</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -16917,7 +17529,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>真空灭弧室</t>
+          <t>日化用品</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -16925,15 +17537,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>宠物用品</t>
+          <t>盐湖提锂</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>智能保管</t>
+          <t>行星滚柱丝杠</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -16941,7 +17553,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>星空科技入主</t>
+          <t>童装</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -16949,7 +17561,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>市场扩展</t>
+          <t>期货业务</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -16957,7 +17569,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>射孔技术</t>
+          <t>国际拓展</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -16967,7 +17579,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>出版</t>
+          <t>大健康消费品</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -16975,7 +17587,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>供热业务</t>
+          <t>护肤品</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -16983,15 +17595,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>无线充电</t>
+          <t>宠物护理</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>焊材</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -16999,7 +17611,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>高纯石英砂</t>
+          <t>毛毯龙头</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -17007,7 +17619,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>粉磨系统</t>
+          <t>K胺环评批复</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -17015,7 +17627,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CCUS业务</t>
+          <t>资产收购</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -17025,7 +17637,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>细胞免疫治疗</t>
+          <t>水溶肥料</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -17033,7 +17645,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>实控人或变更</t>
+          <t>拟收购英迪芯微控股权</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -17041,15 +17653,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>私募股权投资</t>
+          <t>高分红</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>安防</t>
+          <t>电子身份证</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -17057,7 +17669,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>工业大麻</t>
+          <t>一季度增长</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -17065,7 +17677,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>生态环境</t>
+          <t>制剂一体化</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -17073,7 +17685,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>加油站</t>
+          <t>油气设备</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -17083,7 +17695,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>交通数字化服务</t>
+          <t>智慧城市</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -17091,7 +17703,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>换电</t>
+          <t>医美</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -17099,15 +17711,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>拟收购醋纤公司67%股权</t>
+          <t>营销</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>中科院控股</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -17115,7 +17727,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>道路运输</t>
+          <t>环境治理</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -17123,7 +17735,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>绿色能源</t>
+          <t>消化药</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -17131,7 +17743,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>超快充业务</t>
+          <t>页岩气概念</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -17141,7 +17753,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>实控人变更</t>
+          <t>杀虫剂</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -17149,7 +17761,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>低空防御系统</t>
+          <t>真空灭弧室</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -17157,15 +17769,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>辉瑞合作</t>
+          <t>印制电路板</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>数字政府</t>
+          <t>数字教育云</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -17173,7 +17785,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>客运资源整合</t>
+          <t>葡萄酒</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -17181,7 +17793,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>高端化、年轻化战略</t>
+          <t>市场扩展</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -17189,7 +17801,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>锶盐全产业链</t>
+          <t>纯碱</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -17199,7 +17811,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>木地板</t>
+          <t>氯虫苯甲酰胺中间体</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -17207,7 +17819,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CDMO业务扩展</t>
+          <t>供热业务</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -17215,15 +17827,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>双特异性抗体</t>
+          <t>智慧供热</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>云视频</t>
+          <t>OLED</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -17231,7 +17843,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>股东权益变动</t>
+          <t>物管</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -17239,7 +17851,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>短剧</t>
+          <t>粉磨系统</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -17247,7 +17859,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>能源装备</t>
+          <t>溴素</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -17257,7 +17869,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>大健康</t>
+          <t>出版</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -17265,7 +17877,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>集采中标</t>
+          <t>实控人或变更</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -17273,15 +17885,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>全球化战略</t>
+          <t>碳中和概念</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Sora概念</t>
+          <t>智谱合作</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -17289,7 +17901,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>卫浴产品</t>
+          <t>轻资产转型</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -17297,7 +17909,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GLP-1</t>
+          <t>生态环境</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -17305,7 +17917,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>煤炭概念</t>
+          <t>净水</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -17315,7 +17927,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>重大合同</t>
+          <t>细胞免疫治疗</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -17323,7 +17935,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>染料价格回暖</t>
+          <t>换电</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -17331,15 +17943,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>醋酸纤维素</t>
+          <t>有色金属</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>假发</t>
+          <t>生态保护</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -17347,7 +17959,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>大股东（银亿）重整</t>
+          <t>生态环保</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -17355,7 +17967,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>H酸产能不足</t>
+          <t>绿色能源</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -17363,7 +17975,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>对外投资</t>
+          <t>辐照灭菌</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -17373,7 +17985,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>磷酸铁锂</t>
+          <t>交通数字化服务</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -17381,7 +17993,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>输电铁塔</t>
+          <t>低空防御系统</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -17389,15 +18001,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>激光防伪包装材料</t>
+          <t>中高端家具</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>智能车载</t>
+          <t>啤酒</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -17405,7 +18017,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>煤机</t>
+          <t>生猪养殖</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -17413,7 +18025,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>欧美用户</t>
+          <t>高端化、年轻化战略</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -17421,7 +18033,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>油田技术服务</t>
+          <t>创口贴</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -17431,7 +18043,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>信息智能传输</t>
+          <t>实控人变更</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -17439,7 +18051,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>高效换热器</t>
+          <t>CDMO业务扩展</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -17447,15 +18059,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>输电线路铁塔</t>
+          <t>专精特新</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>客户优势</t>
+          <t>中科系</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -17463,7 +18075,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>资产整合</t>
+          <t>禽肉加工</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -17471,7 +18083,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>马来西亚量产</t>
+          <t>短剧</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -17479,7 +18091,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>国际拓展</t>
+          <t>产能扩充</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -17489,7 +18101,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>通信网络维护</t>
+          <t>木地板</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -17497,7 +18109,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>订单充足</t>
+          <t>集采中标</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -17505,15 +18117,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>热能动力</t>
+          <t>环保</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>自动化设备</t>
+          <t>数字会议</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -17521,7 +18133,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>数字人应用</t>
+          <t>预制菜概念</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -17529,7 +18141,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>储能材料</t>
+          <t>GLP-1</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -17537,7 +18149,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>资产收购</t>
+          <t>授信申请</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -17547,7 +18159,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>存储</t>
+          <t>大健康</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -17555,7 +18167,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>电子特气</t>
+          <t>染料价格回暖</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -17563,15 +18175,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>大健康板块</t>
+          <t>战略合作</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>质子治疗系统</t>
+          <t>改性塑料</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -17579,7 +18191,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>医养结合</t>
+          <t>星空科技入主</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -17587,7 +18199,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>STSP-0601</t>
+          <t>H酸产能不足</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -17595,7 +18207,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>油气设备</t>
+          <t>铸造材料</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -17605,7 +18217,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>光通信</t>
+          <t>重大合同</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -17613,7 +18225,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝莓产业链</t>
+          <t>输电铁塔</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -17621,15 +18233,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>亏损收窄</t>
+          <t>中华老字号</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>工业空调</t>
+          <t>下游应用广泛</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -17637,7 +18249,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>医美业务</t>
+          <t>高纯石英砂</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -17645,7 +18257,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>优先审评</t>
+          <t>欧美用户</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -17653,7 +18265,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>页岩气概念</t>
+          <t>智慧校园</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -17663,7 +18275,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>蚂蚁数科合作</t>
+          <t>磷酸铁锂</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -17671,7 +18283,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海工装备</t>
+          <t>高效换热器</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -17679,15 +18291,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>移动支付</t>
+          <t>期货</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>与中科信控科技签署战略合作协议</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -17695,7 +18307,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>线上女装</t>
+          <t>工业大麻</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -17703,7 +18315,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>健康器材</t>
+          <t>马来西亚量产</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -17711,7 +18323,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>纯碱</t>
+          <t>三氟乙酰项目</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -17721,7 +18333,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>越南投资</t>
+          <t>信息智能传输</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -17729,7 +18341,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>氟氯虫双酰胺</t>
+          <t>订单充足</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -17737,7 +18349,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>产品涨价</t>
+          <t>石英制品</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -17745,7 +18357,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>超硬材料</t>
+          <t>生物质热电</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -17753,7 +18365,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>智慧水务</t>
+          <t>道路运输</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -17761,7 +18373,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>汇金入主</t>
+          <t>储能材料</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -17769,7 +18381,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>溴素</t>
+          <t>天然气</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -17779,7 +18391,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>通信网络维护</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -17787,7 +18399,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>平消片获再注册批件</t>
+          <t>电子特气</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -17795,7 +18407,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>《长安的荔枝》热播</t>
+          <t>建材</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -17803,7 +18415,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>培育钻石</t>
+          <t>智能保管</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -17811,7 +18423,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>激光测量</t>
+          <t>客运资源整合</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -17819,7 +18431,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>证券</t>
+          <t>STSP-0601</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -17827,7 +18439,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>净水</t>
+          <t>区域供热龙头</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -17837,7 +18449,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>蚂蚁金服概念</t>
+          <t>存储</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -17845,7 +18457,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>城市服务运营商</t>
+          <t>蓝莓产业链</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -17853,7 +18465,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>业务拓展</t>
+          <t>宠物用品</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -17861,7 +18473,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>天然矿泉水</t>
+          <t>ISP</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -17869,7 +18481,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>再生医学材料</t>
+          <t>股东权益变动</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -17877,7 +18489,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>被海光信息换股吸收合并</t>
+          <t>优先审评</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -17885,7 +18497,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>资源开发</t>
+          <t>引线框架</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -17895,7 +18507,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>重整</t>
+          <t>光通信</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -17903,7 +18515,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>供应链服务</t>
+          <t>海工装备</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -17911,7 +18523,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>烟草概念</t>
+          <t>无线充电</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -17919,7 +18531,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>母婴产品</t>
+          <t>安防</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -17927,7 +18539,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>原料制剂一体化</t>
+          <t>卫浴产品</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -17935,7 +18547,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>脑科学</t>
+          <t>健康器材</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -17943,7 +18555,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>辐照灭菌</t>
+          <t>凹印油墨</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -17953,15 +18565,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>越南投资</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>氯氰菊酯</t>
+          <t>氟氯虫双酰胺</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -17969,7 +18581,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>香料</t>
+          <t>私募股权投资</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -17977,7 +18589,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>乳业、养殖业客户</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -17985,7 +18597,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>化债</t>
+          <t>大股东（银亿）重整</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -17993,7 +18605,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>SPD供应商</t>
+          <t>汇金入主</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -18001,7 +18613,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>创口贴</t>
+          <t>合同增长</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -18011,15 +18623,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>柴油机增压器</t>
+          <t>Web3.0技术</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>智慧矿山</t>
+          <t>平消片获再注册批件</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -18027,7 +18639,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>轻量化</t>
+          <t>拟收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -18035,7 +18647,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>SPD服务</t>
+          <t>数字政府</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -18043,7 +18655,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>氧化铝靶材</t>
+          <t>煤机</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -18051,7 +18663,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>烟气治理</t>
+          <t>证券</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -18059,7 +18671,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>产能扩充</t>
+          <t>可燃冰</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -18069,15 +18681,15 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>复牌</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>实控人中电科</t>
+          <t>城市服务运营商</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -18085,7 +18697,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>密码技术</t>
+          <t>辉瑞合作</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -18093,7 +18705,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>运动营养</t>
+          <t>云视频</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -18101,7 +18713,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>糖尿病用药</t>
+          <t>资产整合</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -18109,7 +18721,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>海缆</t>
+          <t>被海光信息换股吸收合并</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -18117,7 +18729,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>授信申请</t>
+          <t>哈萨克斯坦投资</t>
         </is>
       </c>
       <c r="N86" t="n">
@@ -18127,15 +18739,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>兽药</t>
+          <t>营收增长</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>蚂蚁合作</t>
+          <t>供应链服务</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -18143,7 +18755,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>拟收购尚阳通</t>
+          <t>双特异性抗体</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -18151,7 +18763,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>玉米油</t>
+          <t>Sora概念</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -18159,7 +18771,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>墨西哥产能建设</t>
+          <t>数字人应用</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -18167,7 +18779,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>行业资质</t>
+          <t>脑科学</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -18175,7 +18787,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>甲醇</t>
+          <t>碳酸锶</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -18185,15 +18797,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>代糖概念</t>
+          <t>量子科技</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>高速视觉</t>
+          <t>氯氰菊酯</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -18201,7 +18813,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>资产注入猜测</t>
+          <t>全球化战略</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -18209,7 +18821,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NMN</t>
+          <t>假发</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -18217,7 +18829,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>环保再生纸</t>
+          <t>医养结合</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -18225,7 +18837,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>有机颜料</t>
+          <t>SPD供应商</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -18233,7 +18845,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>铸造材料</t>
+          <t>锶盐</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -18243,15 +18855,15 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>阿洛酮糖</t>
+          <t>重整</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>钢结构工程</t>
+          <t>智慧矿山</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -18259,7 +18871,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>此前进行重大资产购买</t>
+          <t>醋酸纤维素</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -18267,7 +18879,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>中越美制造基地</t>
+          <t>智能车载</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -18275,7 +18887,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>高性能颜料</t>
+          <t>医美业务</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -18283,7 +18895,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>心脑血管注射剂</t>
+          <t>烟气治理</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -18291,7 +18903,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>智慧校园</t>
+          <t>IT运维</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -18301,7 +18913,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>蜜雪冰城合作</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -18309,7 +18921,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>智能环卫装备</t>
+          <t>实控人中电科</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -18317,7 +18929,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>纸质包装</t>
+          <t>激光防伪包装材料</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -18325,7 +18937,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>控股股东重整</t>
+          <t>客户优势</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -18333,7 +18945,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>特高压中标</t>
+          <t>线上女装</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -18341,7 +18953,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>锂电装备</t>
+          <t>海缆</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -18349,7 +18961,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>三氟乙酰项目</t>
+          <t>朵薇品牌</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -18359,7 +18971,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>收购醋纤公司67%股权</t>
+          <t>柴油机增压器</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -18367,7 +18979,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>滑动轴承行业龙头</t>
+          <t>蚂蚁合作</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -18375,7 +18987,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>控股股东为长江产业集团</t>
+          <t>输电线路铁塔</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -18383,7 +18995,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>储能项目</t>
+          <t>自动化设备</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -18391,7 +19003,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>铁塔制造</t>
+          <t>智慧水务</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -18399,7 +19011,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>人造草坪应用</t>
+          <t>行业资质</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -18407,7 +19019,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>PEEK上游技术</t>
+          <t>浓缩果汁</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -18417,7 +19029,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>中兵系</t>
+          <t>复牌</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -18425,7 +19037,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>公共物业服务</t>
+          <t>高速视觉</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -18433,7 +19045,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MiniLED</t>
+          <t>热能动力</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -18441,7 +19053,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>薄荷醇</t>
+          <t>质子治疗系统</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -18449,7 +19061,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>收购阿法硅51%股权</t>
+          <t>激光测量</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -18457,7 +19069,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>打捆机</t>
+          <t>有机颜料</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -18465,7 +19077,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>天然气</t>
+          <t>多品牌时尚集团</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -18475,7 +19087,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>传感器</t>
+          <t>兽药</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -18483,7 +19095,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>人工影响天气</t>
+          <t>钢结构工程</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -18491,7 +19103,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>婴幼儿奶粉</t>
+          <t>大健康板块</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -18499,7 +19111,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>草甘膦</t>
+          <t>工业空调</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -18507,7 +19119,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>液晶显示器</t>
+          <t>再生医学材料</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -18515,7 +19127,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>内酯系列香料</t>
+          <t>心脑血管注射剂</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -18523,7 +19135,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>区域供热龙头</t>
+          <t>赛马概念</t>
         </is>
       </c>
       <c r="N93" t="n">
@@ -18533,7 +19145,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>下游运用广泛</t>
+          <t>代糖概念</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -18541,7 +19153,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>玻璃纤维</t>
+          <t>智能环卫装备</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -18549,7 +19161,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>受让控股子公司少数股东部分股权</t>
+          <t>亏损收窄</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -18557,7 +19169,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>光气资源</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -18565,7 +19177,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>铀矿资源</t>
+          <t>原料制剂一体化</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -18573,7 +19185,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>新型储能</t>
+          <t>锂电装备</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -18581,7 +19193,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>引线框架</t>
+          <t>钢琴业务</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -18591,7 +19203,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>小型堆核岛主设备关键装备制造</t>
+          <t>阿洛酮糖</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -18599,7 +19211,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>做市业务</t>
+          <t>滑动轴承行业龙头</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -18607,7 +19219,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>儿童药</t>
+          <t>移动支付</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -18615,7 +19227,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>新材料蜡烛</t>
+          <t>超硬材料</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -18623,7 +19235,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>石材加工</t>
+          <t>化债</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -18631,7 +19243,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>顺价调整</t>
+          <t>人造草坪应用</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -18639,7 +19251,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>石油</t>
+          <t>动画电影</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -18649,7 +19261,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>石英砂</t>
+          <t>蜜雪冰城合作</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -18657,7 +19269,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>钨</t>
+          <t>公共物业服务</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -18665,7 +19277,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>食用菌</t>
+          <t>产品涨价</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -18673,7 +19285,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>募投项目投产</t>
+          <t>培育钻石</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -18681,7 +19293,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>茶饮</t>
+          <t>氧化铝靶材</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -18689,7 +19301,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>国际运输</t>
+          <t>打捆机</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -18697,7 +19309,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>凹印油墨</t>
+          <t>服饰</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -18707,7 +19319,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>冰雪产业</t>
+          <t>收购醋纤公司67%股权</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -18715,7 +19327,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>铜</t>
+          <t>人工影响天气</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -18723,7 +19335,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>特种通信</t>
+          <t>《长安的荔枝》热播</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -18731,7 +19343,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>草铵膦</t>
+          <t>天然矿泉水</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -18739,7 +19351,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>文远知行合作</t>
+          <t>糖尿病用药</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -18747,7 +19359,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>集装箱运输</t>
+          <t>内酯系列香料</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -18755,7 +19367,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>油气服务</t>
+          <t>潮流户外</t>
         </is>
       </c>
       <c r="N97" t="n">
@@ -18765,7 +19377,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>金属包装产品</t>
+          <t>中兵系</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -18773,7 +19385,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>H股发行</t>
+          <t>玻璃纤维</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -18781,7 +19393,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>工业铝型材</t>
+          <t>业务拓展</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -18789,7 +19401,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>实控人此前变更</t>
+          <t>母婴产品</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -18797,7 +19409,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>奶茶</t>
+          <t>墨西哥产能建设</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -18805,7 +19417,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>航线拓展</t>
+          <t>新型储能</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -18813,7 +19425,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>合同增长</t>
+          <t>聚乳酸</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -18823,7 +19435,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>海外订单增长</t>
+          <t>传感器</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -18831,7 +19443,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>量贩渠道增长</t>
+          <t>做市业务</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -18839,7 +19451,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>向中毅达子公司供应甲醇</t>
+          <t>烟草概念</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -18847,7 +19459,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>分红派息</t>
+          <t>乳业、养殖业客户</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -18855,7 +19467,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>即饮新品</t>
+          <t>环保再生纸</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -18863,7 +19475,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>动保</t>
+          <t>顺价调整</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -18871,7 +19483,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>可燃冰</t>
+          <t>高纯石英</t>
         </is>
       </c>
       <c r="N99" t="n">
@@ -18881,7 +19493,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>高分子材料防老化助剂</t>
+          <t>下游运用广泛</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -18889,7 +19501,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>智能制造</t>
+          <t>H股发行</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -18897,7 +19509,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>大气治理</t>
+          <t>香料</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -18905,7 +19517,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>子公司参股云针科技</t>
+          <t>SPD服务</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -18913,7 +19525,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>高性能颜料</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -18921,7 +19533,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>脱敏要</t>
+          <t>国际运输</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -18929,7 +19541,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>哈萨克斯坦投资</t>
+          <t>油气勘探</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -18939,7 +19551,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>获赔4702万</t>
+          <t>小型堆核岛主设备关键装备制造</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -18947,7 +19559,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>智慧路灯</t>
+          <t>量贩渠道增长</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -18955,7 +19567,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>金属回收</t>
+          <t>轻量化</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -18963,7 +19575,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>智慧园林</t>
+          <t>运动营养</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -18971,7 +19583,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>社区团购</t>
+          <t>特高压中标</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -18979,7 +19591,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>参股《长安的荔枝》出品方</t>
+          <t>集装箱运输</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -18987,7 +19599,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>碳酸锶</t>
+          <t>UF3.0经纪业务</t>
         </is>
       </c>
       <c r="N101" t="n">
@@ -18997,7 +19609,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>服装行业</t>
+          <t>石英砂</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -19005,7 +19617,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>房屋检测</t>
+          <t>智能制造</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -19013,7 +19625,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>分销</t>
+          <t>密码技术</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -19021,7 +19633,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>工业模块</t>
+          <t>玉米油</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -19029,7 +19641,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>分红</t>
+          <t>铁塔制造</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -19037,7 +19649,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>短剧（Reelshort旗下公司合作）</t>
+          <t>航线拓展</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -19045,7 +19657,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>锶盐</t>
+          <t>红外热成像</t>
         </is>
       </c>
       <c r="N102" t="n">
@@ -19055,7 +19667,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>高端成形机床</t>
+          <t>冰雪产业</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -19063,7 +19675,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>阻燃剂</t>
+          <t>智慧路灯</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -19071,7 +19683,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>豆制品</t>
+          <t>定增推进</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -19079,7 +19691,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>水果罐头龙头</t>
+          <t>NMN</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -19087,7 +19699,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>中高端拓展</t>
+          <t>收购阿法硅51%股权</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -19095,17 +19707,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Rokid合作</t>
+          <t>动保</t>
         </is>
       </c>
       <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>探测器量产</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>数字环卫</t>
+          <t>金属包装产品</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -19113,7 +19733,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>配电设备</t>
+          <t>房屋检测</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -19121,7 +19741,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>供货蜜雪冰城</t>
+          <t>焦炭</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -19129,7 +19749,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>零食渠道拓展</t>
+          <t>中越美制造基地</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -19137,7 +19757,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>自由贸易港</t>
+          <t>液晶显示器</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -19145,17 +19765,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>商品贸易</t>
+          <t>脱敏要</t>
         </is>
       </c>
       <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>石化设备钢结构</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>海外盈利</t>
+          <t>海外订单增长</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -19163,7 +19791,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>钛合金材料</t>
+          <t>配电设备</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -19171,7 +19799,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>微信小店</t>
+          <t>黄金饰品</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -19179,7 +19807,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>深海装备</t>
+          <t>控股股东重整</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -19187,7 +19815,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>PVC弹性地板</t>
+          <t>铀矿资源</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -19195,17 +19823,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>无实控人</t>
+          <t>参股《长安的荔枝》出品方</t>
         </is>
       </c>
       <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>锻造铝合金轮毂</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>超级百货</t>
+          <t>高分子材料防老化助剂</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -19213,7 +19849,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>柱状电池外壳</t>
+          <t>钛合金材料</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -19221,7 +19857,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>拟合资设立境外子公司</t>
+          <t>碳酸钾</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -19229,7 +19865,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>毛利率提升</t>
+          <t>储能项目</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -19237,7 +19873,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>美国工厂</t>
+          <t>石材加工</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -19245,17 +19881,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>教育信息化</t>
+          <t>短剧（Reelshort旗下公司合作）</t>
         </is>
       </c>
       <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>阿尔茨海默病新药</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>参投御道智算</t>
+          <t>获赔4702万</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -19263,7 +19907,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NHKC-1</t>
+          <t>柱状电池外壳</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -19271,7 +19915,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EPS产品</t>
+          <t>拟收购尚阳通</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -19279,7 +19923,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>扩产</t>
+          <t>薄荷醇</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -19287,7 +19931,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>燕麦谷物</t>
+          <t>茶饮</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -19295,17 +19939,25 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>MLCC上游材料</t>
+          <t>Rokid合作</t>
         </is>
       </c>
       <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>麝香全产业链</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>参股券商</t>
+          <t>服装行业</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -19321,7 +19973,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>光学镜头</t>
+          <t>资产注入猜测</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -19329,7 +19981,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>轨道交通装备</t>
+          <t>草甘膦</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -19337,7 +19989,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>资源回收</t>
+          <t>文远知行合作</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -19345,10 +19997,176 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>小粒径镍粉需求</t>
+          <t>商品贸易</t>
         </is>
       </c>
       <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>绿色甲醇</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>高端成形机床</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>此前进行重大资产购买</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>光气资源</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>奶茶</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>无实控人</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>拟收购索尔思光电100%股份</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>数字环卫</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>报业传媒</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>纸质包装</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>新材料蜡烛</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>即饮新品</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>教育信息化</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>海外盈利</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>防撞系统零部件</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>控股股东为长江产业集团</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>募投项目投产</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>咖啡</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>MLCC上游材料</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19402,7 +20220,7 @@
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
@@ -19412,7 +20230,7 @@
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -19422,7 +20240,7 @@
         </is>
       </c>
       <c r="B5" s="37" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -19432,7 +20250,7 @@
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -19448,21 +20266,21 @@
     <row r="8">
       <c r="A8" s="44" t="inlineStr">
         <is>
-          <t>AI大模型</t>
+          <t>新消费</t>
         </is>
       </c>
       <c r="B8" s="37" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="45" t="inlineStr">
         <is>
-          <t>新消费</t>
+          <t>AI大模型</t>
         </is>
       </c>
       <c r="B9" s="37" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -19478,11 +20296,11 @@
     <row r="11">
       <c r="A11" s="47" t="inlineStr">
         <is>
-          <t>汽车</t>
+          <t>数字经济</t>
         </is>
       </c>
       <c r="B11" s="37" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -19496,11 +20314,11 @@
     <row r="13">
       <c r="A13" s="37" t="inlineStr">
         <is>
-          <t>数字经济</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="B13" s="37" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -19510,7 +20328,7 @@
         </is>
       </c>
       <c r="B14" s="37" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -19530,13 +20348,13 @@
         </is>
       </c>
       <c r="B16" s="37" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="37" t="inlineStr">
         <is>
-          <t>军工</t>
+          <t>化工</t>
         </is>
       </c>
       <c r="B17" s="37" t="n">
@@ -19546,11 +20364,11 @@
     <row r="18">
       <c r="A18" s="37" t="inlineStr">
         <is>
-          <t>化工</t>
+          <t>军工</t>
         </is>
       </c>
       <c r="B18" s="37" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -19560,7 +20378,7 @@
         </is>
       </c>
       <c r="B19" s="37" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -19570,7 +20388,7 @@
         </is>
       </c>
       <c r="B20" s="37" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -19580,27 +20398,27 @@
         </is>
       </c>
       <c r="B21" s="37" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>农业</t>
         </is>
       </c>
       <c r="B22" s="37" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="37" t="inlineStr">
         <is>
-          <t>农业</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="B23" s="37" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -19610,7 +20428,7 @@
         </is>
       </c>
       <c r="B24" s="37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -19620,7 +20438,7 @@
         </is>
       </c>
       <c r="B25" s="37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -19630,7 +20448,7 @@
         </is>
       </c>
       <c r="B26" s="37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -19660,7 +20478,7 @@
         </is>
       </c>
       <c r="B29" s="37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -19670,7 +20488,7 @@
         </is>
       </c>
       <c r="B30" s="37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -19698,7 +20516,7 @@
         </is>
       </c>
       <c r="B33" s="37" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -19708,7 +20526,7 @@
         </is>
       </c>
       <c r="B34" s="37" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -19718,7 +20536,7 @@
         </is>
       </c>
       <c r="B35" s="37" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">

--- a/excel/fupan_analysis.xlsx
+++ b/excel/fupan_analysis.xlsx
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -477,6 +477,12 @@
 油气服务+订单增长+国企改革</t>
       </text>
     </comment>
+    <comment ref="X4" authorId="0" shapeId="0">
+      <text>
+        <t>6天6板 09:54:30 8
+油气装备+页岩气+国企</t>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">地天板+涤纶+化学纤维+一季报增长 13:43:52 0
@@ -609,6 +615,12 @@
 油气装备+页岩气+国企</t>
       </text>
     </comment>
+    <comment ref="X5" authorId="0" shapeId="0">
+      <text>
+        <t>11天6板 10:10:36 0
+NHKC-1+创新药+仿制药+宠物经济</t>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <t>5天4板 09:25:00 0
@@ -741,6 +753,12 @@
 锶盐全产业链+小金属+国企</t>
       </text>
     </comment>
+    <comment ref="X6" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 09:25:00 3
+PCB+AI眼镜+小米概念+人形机器人</t>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:30:54 1
@@ -873,6 +891,12 @@
 AI眼镜+PCB+小米概念+人形机器人</t>
       </text>
     </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <t>3天3板 13:11:43 0
+兵装重组概念+弹药武器装备+科技创新</t>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>6天4板 09:35:46 24
@@ -1005,6 +1029,12 @@
 参股京东金融+出版+课后服务+国企改革</t>
       </text>
     </comment>
+    <comment ref="X8" authorId="0" shapeId="0">
+      <text>
+        <t>4天3板 14:52:47 0
+农批市场+特医食品+一季度增长+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>4天4板 09:57:30 0
@@ -1137,6 +1167,12 @@
 PCB产业链+产能扩张+亏损缩小</t>
       </text>
     </comment>
+    <comment ref="X9" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 0
+固态电池+锰酸锂+国企改革</t>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1269,6 +1305,12 @@
 脑机接口+AI医疗大模型+医疗服务</t>
       </text>
     </comment>
+    <comment ref="X10" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:25:00 12
+石化主业+多元化发展+亏损改善</t>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 0
@@ -1401,6 +1443,12 @@
 军工装备+间接控股股东或变更+科技创新</t>
       </text>
     </comment>
+    <comment ref="X11" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 09:31:24 2
+固态电池+锂电池材料</t>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 11
@@ -1533,6 +1581,12 @@
 并购重组+军工+无人机</t>
       </text>
     </comment>
+    <comment ref="X12" authorId="0" shapeId="0">
+      <text>
+        <t>2天2板 10:36:29 0
+光刻胶+铸造材料+大飞机</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:25:00 1
@@ -1653,6 +1707,12 @@
 液晶专显+年报倍增+深圳城市更新</t>
       </text>
     </comment>
+    <comment ref="X13" authorId="0" shapeId="0">
+      <text>
+        <t>3天2板 14:49:06 0
+数字人民币+AI+政务+行业认证</t>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <t>3天3板 09:34:28 0
@@ -1911,6 +1971,12 @@
 固态电池+锰酸锂+国企改革</t>
       </text>
     </comment>
+    <comment ref="X15" authorId="0" shapeId="0">
+      <text>
+        <t>首板涨停 09:30:01 0
